--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet sheetId="1" name="Fliden" state="visible" r:id="rId3"/>
     <sheet sheetId="2" name="Fyodor" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Vincent" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Chih-Chi" state="visible" r:id="rId5"/>
     <sheet sheetId="4" name="Gloria" state="visible" r:id="rId6"/>
     <sheet sheetId="5" name="Beth" state="visible" r:id="rId7"/>
     <sheet sheetId="6" name="Imaad" state="visible" r:id="rId8"/>
@@ -44,12 +44,35 @@
         <t xml:space="preserve">Helped Beth configure her WAMP installation.</t>
       </text>
     </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <t xml:space="preserve">Read through requirements and made sure things are correct.</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <t xml:space="preserve">Created a ERM to double check team logic on FK use and inheritense</t>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <t xml:space="preserve">Updated Documentation. 
+Filed issue with ignore file.
+</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <t xml:space="preserve">Talked about ERM that Beth sent around.
+Adding professor to Github and email/username resolution.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>week #</t>
   </si>
@@ -107,6 +130,35 @@
     <t>Fliden</t>
   </si>
   <si>
+    <t>0 - Reading about YII framework 
+1 - Review the requiremnts and features discussed in meeting 
+5 - Plan next meeting, communicate dates and tasks with the team 
+6 - Set up working environtment, install Netbeand, set up git, install XAMPP  </t>
+  </si>
+  <si>
+    <t>- Complete Requirements Document
+- Plan next meeting
+- Write use stories in Pivotal tracker
+- Prepare presentation 
+- Communicate with team to make sure we address all the weekly group tasks
+- Read more about YII framework
+</t>
+  </si>
+  <si>
+    <t>1 - Write user stories
+1 - Write SPMP
+5 - Plan next phase and iteration 
+5 - Plan next meeting, communicate dates and tasks with the team 
+6 - Write presentation bullets</t>
+  </si>
+  <si>
+    <t> - Complete Requirements Document with Risk Management
+ - Review initial database design
+ - Review YII framework, use it to create CRUD database operations
+ - Try and implement YII MVC structure (create initial prototype) 
+ - Plan next meeting</t>
+  </si>
+  <si>
     <t>week</t>
   </si>
   <si>
@@ -140,7 +192,31 @@
     <t>unclassified</t>
   </si>
   <si>
-    <t>Vincent</t>
+    <t>Chih-Chi</t>
+  </si>
+  <si>
+    <t>0 - Setup and learn Github
+0 - Read on Yii frame work
+0 - Install wamp server</t>
+  </si>
+  <si>
+    <t>Add user story on PivotalTracker
+Make sure Github is working
+Help complete our SPMP document
+Read more on Yii framework</t>
+  </si>
+  <si>
+    <t>2 - add user storys on PivitalTracker
+0 - Git tutorial lesson
+0 - Read through SPMP document
+0 - Make a commit on GitHub
+</t>
+  </si>
+  <si>
+    <t>Work on login and registor page
+Read more on Yii framework
+Understand and provide feedback to our database design
+</t>
   </si>
   <si>
     <t>Gloria</t>
@@ -153,16 +229,31 @@
     <t>1 - Write User Stories, 1 - Review Requirements Doc, 2 - Design project logo, 2 - Start Wireframes, 6 - Create presentation doc for Group Presentation</t>
   </si>
   <si>
+    <t>1 - Write User Stories, 1 - Review Requirements Doc, 2 - Design project logo, 2 - Create user flow, 6 - Create presentation doc for Group Presentation</t>
+  </si>
+  <si>
+    <t>2 - Wireframes</t>
+  </si>
+  <si>
     <t>Beth</t>
   </si>
   <si>
-    <t>--&gt;0 - Learned tools, researched similar projects online  --&gt;1 - Created system requirements based on discussions; updated SPMP</t>
+    <t>0 - Learned tools, researched similar projects online  
+1 - Created system requirements based on discussions; updated SPMP</t>
   </si>
   <si>
     <t>Revise SPMP, help prepare for presentation, get more familiar with tools, create user stories for pivotaltracker</t>
   </si>
   <si>
     <t>10 hrs</t>
+  </si>
+  <si>
+    <t>1 - Wrote user stories, incorporated all user stories into requirements design in SPMP
+2 - Created preliminary database design
+</t>
+  </si>
+  <si>
+    <t>Revise SPMP, learn how to create database in Yii, update SPMP with non-functional requirements</t>
   </si>
   <si>
     <t>Imaad</t>
@@ -174,7 +265,8 @@
   <si>
     <t>1. Add Use cases
 2. Empty commit on git
-</t>
+3. Work on the SPMP document
+4. Learn yii framework</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -196,14 +288,32 @@
   <si>
     <t>Chao-Te</t>
   </si>
+  <si>
+    <t>0 - Setup github and XAMPP server 
+0 - Review and learn PHP</t>
+  </si>
+  <si>
+    <t>Learn more about YII framework and php
+Learn more about Git
+Create user stories</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -349,19 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,19 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,25 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFCFE2F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFCFE2F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,12 +657,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -614,21 +724,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -650,12 +745,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -676,30 +767,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -713,21 +780,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -754,32 +806,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -809,21 +835,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -886,7 +897,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -916,32 +929,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -988,45 +975,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1040,36 +988,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1093,6 +1015,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1129,7 +1064,126 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1139,147 +1193,150 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="2" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" fontId="0">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="5" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" fontId="0">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="7" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="8" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="9" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="2" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" fontId="0">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="3" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="13" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="5" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="5" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="3" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="6" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="8" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="19" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="7" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="22" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="4" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="23" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
+      <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="5" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="6" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="14" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="15" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="17" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="7" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="8" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="20" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="9" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="10" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="24" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="24" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="26" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="11" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="8" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="28" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="29" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="10" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="31" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="33" applyFont="1" fontId="12" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="34" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="36" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="37" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="31" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="38" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="39" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="40" applyFont="1" fontId="13" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" applyFont="1" fontId="12" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="41" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="35" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="42" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="36" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="43" applyFont="1" fontId="14" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="37" applyFont="1" fontId="13" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="14" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="15" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1301,8 +1358,9 @@
     <col min="3" customWidth="1" max="3" width="14.0"/>
     <col min="4" customWidth="1" max="4" width="16.29"/>
     <col min="5" customWidth="1" max="5" width="5.0"/>
-    <col min="6" customWidth="1" max="6" width="45.86"/>
+    <col min="6" customWidth="1" max="6" width="57.43"/>
     <col min="7" customWidth="1" max="7" width="9.29"/>
+    <col min="14" customWidth="1" max="14" width="52.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1353,15 +1411,120 @@
       </c>
     </row>
     <row customHeight="1" r="2" ht="51.75">
-      <c r="A2">
+      <c s="47" r="A2">
         <v>1</v>
       </c>
-      <c t="s" r="B2">
+      <c t="s" s="47" r="B2">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c s="47" r="C2">
+        <v>7</v>
+      </c>
+      <c s="47" r="D2">
+        <v>6</v>
+      </c>
+      <c s="47" r="E2">
         <v>1</v>
       </c>
+      <c t="s" s="47" r="F2">
+        <v>16</v>
+      </c>
+      <c s="47" r="G2">
+        <v>1</v>
+      </c>
+      <c s="47" r="H2">
+        <v>1</v>
+      </c>
+      <c s="47" r="I2">
+        <v>0</v>
+      </c>
+      <c s="47" r="J2">
+        <v>0</v>
+      </c>
+      <c s="47" r="K2">
+        <v>0</v>
+      </c>
+      <c s="47" r="L2">
+        <v>2</v>
+      </c>
+      <c s="47" r="M2">
+        <v>2</v>
+      </c>
+      <c t="s" s="47" r="N2">
+        <v>17</v>
+      </c>
+      <c s="47" r="O2">
+        <v>10</v>
+      </c>
+      <c s="47" r="P2"/>
+      <c s="47" r="Q2"/>
+      <c s="47" r="R2"/>
+      <c s="47" r="S2"/>
+      <c s="47" r="T2"/>
+      <c s="47" r="U2"/>
+      <c s="47" r="V2"/>
+      <c s="47" r="W2"/>
+      <c s="47" r="X2"/>
+      <c s="47" r="Y2"/>
+      <c s="47" r="Z2"/>
+    </row>
+    <row customHeight="1" r="3" ht="74.25">
+      <c s="1" r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="B3">
+        <v>15</v>
+      </c>
+      <c s="1" r="C3">
+        <v>8</v>
+      </c>
+      <c s="1" r="D3">
+        <v>7</v>
+      </c>
+      <c s="1" r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="F3">
+        <v>18</v>
+      </c>
+      <c s="1" r="G3">
+        <v>0</v>
+      </c>
+      <c s="1" r="H3">
+        <v>4</v>
+      </c>
+      <c s="1" r="I3">
+        <v>0</v>
+      </c>
+      <c s="1" r="J3">
+        <v>0</v>
+      </c>
+      <c s="1" r="K3">
+        <v>0</v>
+      </c>
+      <c s="1" r="L3">
+        <v>2</v>
+      </c>
+      <c s="1" r="M3">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="N3">
+        <v>19</v>
+      </c>
+      <c s="1" r="O3">
+        <v>10</v>
+      </c>
+      <c s="1" r="P3"/>
+      <c s="1" r="Q3"/>
+      <c s="1" r="R3"/>
+      <c s="1" r="S3"/>
+      <c s="1" r="T3"/>
+      <c s="1" r="U3"/>
+      <c s="1" r="V3"/>
+      <c s="1" r="W3"/>
+      <c s="1" r="X3"/>
+      <c s="1" r="Y3"/>
+      <c s="1" r="Z3"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1387,31 +1550,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="6" r="A1">
-        <v>16</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>17</v>
-      </c>
-      <c t="s" s="44" r="C1">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="D1">
+      <c t="s" s="48" r="A1">
+        <v>20</v>
+      </c>
+      <c t="s" s="13" r="B1">
+        <v>21</v>
+      </c>
+      <c t="s" s="42" r="C1">
+        <v>22</v>
+      </c>
+      <c t="s" s="31" r="D1">
         <v>4</v>
       </c>
-      <c t="s" s="14" r="E1">
-        <v>19</v>
-      </c>
-      <c s="14" r="F1"/>
-      <c s="14" r="G1"/>
-      <c s="14" r="H1"/>
-      <c s="14" r="I1"/>
-      <c s="14" r="J1"/>
-      <c s="14" r="K1"/>
-      <c t="s" s="12" r="L1">
+      <c t="s" s="20" r="E1">
+        <v>23</v>
+      </c>
+      <c s="20" r="F1"/>
+      <c s="20" r="G1"/>
+      <c s="20" r="H1"/>
+      <c s="20" r="I1"/>
+      <c s="20" r="J1"/>
+      <c s="20" r="K1"/>
+      <c t="s" s="3" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="21" r="M1">
+      <c t="s" s="45" r="M1">
         <v>14</v>
       </c>
       <c s="4" r="N1"/>
@@ -1428,86 +1591,86 @@
       <c s="4" r="Y1"/>
     </row>
     <row r="2">
-      <c s="10" r="A2"/>
-      <c s="36" r="B2"/>
-      <c s="47" r="C2"/>
-      <c s="24" r="D2"/>
-      <c t="s" s="29" r="E2">
-        <v>20</v>
-      </c>
-      <c t="s" s="29" r="F2">
-        <v>21</v>
-      </c>
-      <c t="s" s="29" r="G2">
-        <v>22</v>
-      </c>
-      <c t="s" s="29" r="H2">
-        <v>23</v>
-      </c>
-      <c t="s" s="29" r="I2">
+      <c s="24" r="A2"/>
+      <c s="35" r="B2"/>
+      <c s="46" r="C2"/>
+      <c s="18" r="D2"/>
+      <c t="s" s="20" r="E2">
         <v>24</v>
       </c>
-      <c t="s" s="29" r="J2">
+      <c t="s" s="20" r="F2">
         <v>25</v>
       </c>
-      <c t="s" s="29" r="K2">
+      <c t="s" s="20" r="G2">
         <v>26</v>
       </c>
-      <c s="23" r="L2"/>
-      <c s="20" r="M2"/>
-      <c s="26" r="N2"/>
-      <c s="26" r="O2"/>
-      <c s="26" r="P2"/>
-      <c s="26" r="Q2"/>
-      <c s="26" r="R2"/>
-      <c s="26" r="S2"/>
-      <c s="26" r="T2"/>
-      <c s="26" r="U2"/>
-      <c s="26" r="V2"/>
-      <c s="26" r="W2"/>
-      <c s="26" r="X2"/>
-      <c s="26" r="Y2"/>
+      <c t="s" s="20" r="H2">
+        <v>27</v>
+      </c>
+      <c t="s" s="20" r="I2">
+        <v>28</v>
+      </c>
+      <c t="s" s="20" r="J2">
+        <v>29</v>
+      </c>
+      <c t="s" s="20" r="K2">
+        <v>30</v>
+      </c>
+      <c s="17" r="L2"/>
+      <c s="15" r="M2"/>
+      <c s="21" r="N2"/>
+      <c s="21" r="O2"/>
+      <c s="21" r="P2"/>
+      <c s="21" r="Q2"/>
+      <c s="21" r="R2"/>
+      <c s="21" r="S2"/>
+      <c s="21" r="T2"/>
+      <c s="21" r="U2"/>
+      <c s="21" r="V2"/>
+      <c s="21" r="W2"/>
+      <c s="21" r="X2"/>
+      <c s="21" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
-      <c s="34" r="A3">
+      <c s="5" r="A3">
         <v>1</v>
       </c>
-      <c s="18" r="B3">
+      <c s="25" r="B3">
         <f>SUM(C3:D3)</f>
         <v>5</v>
       </c>
-      <c s="37" r="C3">
+      <c s="30" r="C3">
         <f>SUM(E3:K3)</f>
         <v>4</v>
       </c>
-      <c s="39" r="D3">
+      <c s="36" r="D3">
         <v>1</v>
       </c>
-      <c s="11" r="E3">
-        <v>0</v>
-      </c>
-      <c s="11" r="F3">
+      <c s="8" r="E3">
+        <v>0</v>
+      </c>
+      <c s="8" r="F3">
         <v>1</v>
       </c>
-      <c s="11" r="G3">
-        <v>0</v>
-      </c>
-      <c s="11" r="H3">
+      <c s="8" r="G3">
+        <v>0</v>
+      </c>
+      <c s="8" r="H3">
         <v>1</v>
       </c>
-      <c s="11" r="I3">
-        <v>0</v>
-      </c>
-      <c s="11" r="J3">
+      <c s="8" r="I3">
+        <v>0</v>
+      </c>
+      <c s="8" r="J3">
         <v>1</v>
       </c>
-      <c s="11" r="K3">
+      <c s="8" r="K3">
         <v>1</v>
       </c>
-      <c s="42" r="L3">
+      <c s="40" r="L3">
         <v>3</v>
       </c>
-      <c s="15" r="M3">
+      <c s="10" r="M3">
         <v>5</v>
       </c>
       <c s="4" r="N3"/>
@@ -1527,24 +1690,44 @@
       <c s="5" r="A4">
         <v>2</v>
       </c>
-      <c s="18" r="B4">
+      <c s="33" r="B4">
         <f>SUM(C4:D4)</f>
-        <v>0</v>
-      </c>
-      <c s="37" r="C4">
+        <v>3.5</v>
+      </c>
+      <c s="6" r="C4">
         <f>SUM(E4:K4)</f>
-        <v>0</v>
-      </c>
-      <c s="1" r="D4"/>
-      <c s="22" r="E4"/>
-      <c s="22" r="F4"/>
-      <c s="22" r="G4"/>
-      <c s="22" r="H4"/>
-      <c s="22" r="I4"/>
-      <c s="22" r="J4"/>
-      <c s="22" r="K4"/>
-      <c s="43" r="L4"/>
-      <c s="33" r="M4"/>
+        <v>3.5</v>
+      </c>
+      <c s="2" r="D4">
+        <v>0</v>
+      </c>
+      <c s="16" r="E4">
+        <v>0</v>
+      </c>
+      <c s="16" r="F4">
+        <v>1</v>
+      </c>
+      <c s="16" r="G4">
+        <v>1</v>
+      </c>
+      <c s="16" r="H4">
+        <v>0.5</v>
+      </c>
+      <c s="16" r="I4">
+        <v>0</v>
+      </c>
+      <c s="16" r="J4">
+        <v>1</v>
+      </c>
+      <c s="16" r="K4">
+        <v>0</v>
+      </c>
+      <c s="41" r="L4">
+        <v>4</v>
+      </c>
+      <c s="29" r="M4">
+        <v>5</v>
+      </c>
       <c s="7" r="N4"/>
       <c s="7" r="O4"/>
       <c s="7" r="P4"/>
@@ -1562,24 +1745,24 @@
       <c s="5" r="A5">
         <v>3</v>
       </c>
-      <c s="18" r="B5">
+      <c s="33" r="B5">
         <f>SUM(C5:D5)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C5">
+      <c s="6" r="C5">
         <f>SUM(E5:K5)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D5"/>
-      <c s="22" r="E5"/>
-      <c s="22" r="F5"/>
-      <c s="22" r="G5"/>
-      <c s="22" r="H5"/>
-      <c s="22" r="I5"/>
-      <c s="22" r="J5"/>
-      <c s="22" r="K5"/>
-      <c s="43" r="L5"/>
-      <c s="33" r="M5"/>
+      <c s="2" r="D5"/>
+      <c s="16" r="E5"/>
+      <c s="16" r="F5"/>
+      <c s="16" r="G5"/>
+      <c s="16" r="H5"/>
+      <c s="16" r="I5"/>
+      <c s="16" r="J5"/>
+      <c s="16" r="K5"/>
+      <c s="41" r="L5"/>
+      <c s="29" r="M5"/>
       <c s="7" r="N5"/>
       <c s="7" r="O5"/>
       <c s="7" r="P5"/>
@@ -1597,24 +1780,24 @@
       <c s="5" r="A6">
         <v>4</v>
       </c>
-      <c s="18" r="B6">
+      <c s="33" r="B6">
         <f>SUM(C6:D6)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C6">
+      <c s="6" r="C6">
         <f>SUM(E6:K6)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D6"/>
-      <c s="22" r="E6"/>
-      <c s="22" r="F6"/>
-      <c s="22" r="G6"/>
-      <c s="22" r="H6"/>
-      <c s="22" r="I6"/>
-      <c s="22" r="J6"/>
-      <c s="22" r="K6"/>
-      <c s="43" r="L6"/>
-      <c s="33" r="M6"/>
+      <c s="2" r="D6"/>
+      <c s="16" r="E6"/>
+      <c s="16" r="F6"/>
+      <c s="16" r="G6"/>
+      <c s="16" r="H6"/>
+      <c s="16" r="I6"/>
+      <c s="16" r="J6"/>
+      <c s="16" r="K6"/>
+      <c s="41" r="L6"/>
+      <c s="29" r="M6"/>
       <c s="7" r="N6"/>
       <c s="7" r="O6"/>
       <c s="7" r="P6"/>
@@ -1632,24 +1815,24 @@
       <c s="5" r="A7">
         <v>5</v>
       </c>
-      <c s="18" r="B7">
+      <c s="33" r="B7">
         <f>SUM(C7:D7)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C7">
+      <c s="6" r="C7">
         <f>SUM(E7:K7)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D7"/>
-      <c s="22" r="E7"/>
-      <c s="22" r="F7"/>
-      <c s="22" r="G7"/>
-      <c s="22" r="H7"/>
-      <c s="22" r="I7"/>
-      <c s="22" r="J7"/>
-      <c s="22" r="K7"/>
-      <c s="43" r="L7"/>
-      <c s="33" r="M7"/>
+      <c s="2" r="D7"/>
+      <c s="16" r="E7"/>
+      <c s="16" r="F7"/>
+      <c s="16" r="G7"/>
+      <c s="16" r="H7"/>
+      <c s="16" r="I7"/>
+      <c s="16" r="J7"/>
+      <c s="16" r="K7"/>
+      <c s="41" r="L7"/>
+      <c s="29" r="M7"/>
       <c s="7" r="N7"/>
       <c s="7" r="O7"/>
       <c s="7" r="P7"/>
@@ -1667,24 +1850,24 @@
       <c s="5" r="A8">
         <v>6</v>
       </c>
-      <c s="18" r="B8">
+      <c s="33" r="B8">
         <f>SUM(C8:D8)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C8">
+      <c s="6" r="C8">
         <f>SUM(E8:K8)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D8"/>
-      <c s="22" r="E8"/>
-      <c s="22" r="F8"/>
-      <c s="22" r="G8"/>
-      <c s="22" r="H8"/>
-      <c s="22" r="I8"/>
-      <c s="22" r="J8"/>
-      <c s="22" r="K8"/>
-      <c s="43" r="L8"/>
-      <c s="33" r="M8"/>
+      <c s="2" r="D8"/>
+      <c s="16" r="E8"/>
+      <c s="16" r="F8"/>
+      <c s="16" r="G8"/>
+      <c s="16" r="H8"/>
+      <c s="16" r="I8"/>
+      <c s="16" r="J8"/>
+      <c s="16" r="K8"/>
+      <c s="41" r="L8"/>
+      <c s="29" r="M8"/>
       <c s="7" r="N8"/>
       <c s="7" r="O8"/>
       <c s="7" r="P8"/>
@@ -1702,24 +1885,24 @@
       <c s="5" r="A9">
         <v>7</v>
       </c>
-      <c s="18" r="B9">
+      <c s="33" r="B9">
         <f>SUM(C9:D9)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C9">
+      <c s="6" r="C9">
         <f>SUM(E9:K9)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D9"/>
-      <c s="22" r="E9"/>
-      <c s="22" r="F9"/>
-      <c s="22" r="G9"/>
-      <c s="22" r="H9"/>
-      <c s="22" r="I9"/>
-      <c s="22" r="J9"/>
-      <c s="22" r="K9"/>
-      <c s="43" r="L9"/>
-      <c s="33" r="M9"/>
+      <c s="2" r="D9"/>
+      <c s="16" r="E9"/>
+      <c s="16" r="F9"/>
+      <c s="16" r="G9"/>
+      <c s="16" r="H9"/>
+      <c s="16" r="I9"/>
+      <c s="16" r="J9"/>
+      <c s="16" r="K9"/>
+      <c s="41" r="L9"/>
+      <c s="29" r="M9"/>
       <c s="7" r="N9"/>
       <c s="7" r="O9"/>
       <c s="7" r="P9"/>
@@ -1737,24 +1920,24 @@
       <c s="5" r="A10">
         <v>8</v>
       </c>
-      <c s="18" r="B10">
+      <c s="33" r="B10">
         <f>SUM(C10:D10)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C10">
+      <c s="6" r="C10">
         <f>SUM(E10:K10)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D10"/>
-      <c s="22" r="E10"/>
-      <c s="22" r="F10"/>
-      <c s="22" r="G10"/>
-      <c s="22" r="H10"/>
-      <c s="22" r="I10"/>
-      <c s="22" r="J10"/>
-      <c s="22" r="K10"/>
-      <c s="43" r="L10"/>
-      <c s="33" r="M10"/>
+      <c s="2" r="D10"/>
+      <c s="16" r="E10"/>
+      <c s="16" r="F10"/>
+      <c s="16" r="G10"/>
+      <c s="16" r="H10"/>
+      <c s="16" r="I10"/>
+      <c s="16" r="J10"/>
+      <c s="16" r="K10"/>
+      <c s="41" r="L10"/>
+      <c s="29" r="M10"/>
       <c s="7" r="N10"/>
       <c s="7" r="O10"/>
       <c s="7" r="P10"/>
@@ -1772,24 +1955,24 @@
       <c s="5" r="A11">
         <v>9</v>
       </c>
-      <c s="18" r="B11">
+      <c s="33" r="B11">
         <f>SUM(C11:D11)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C11">
+      <c s="6" r="C11">
         <f>SUM(E11:K11)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D11"/>
-      <c s="22" r="E11"/>
-      <c s="22" r="F11"/>
-      <c s="22" r="G11"/>
-      <c s="22" r="H11"/>
-      <c s="22" r="I11"/>
-      <c s="22" r="J11"/>
-      <c s="22" r="K11"/>
-      <c s="43" r="L11"/>
-      <c s="33" r="M11"/>
+      <c s="2" r="D11"/>
+      <c s="16" r="E11"/>
+      <c s="16" r="F11"/>
+      <c s="16" r="G11"/>
+      <c s="16" r="H11"/>
+      <c s="16" r="I11"/>
+      <c s="16" r="J11"/>
+      <c s="16" r="K11"/>
+      <c s="41" r="L11"/>
+      <c s="29" r="M11"/>
       <c s="7" r="N11"/>
       <c s="7" r="O11"/>
       <c s="7" r="P11"/>
@@ -1804,27 +1987,27 @@
       <c s="7" r="Y11"/>
     </row>
     <row r="12">
-      <c s="17" r="A12">
+      <c s="5" r="A12">
         <v>10</v>
       </c>
-      <c s="18" r="B12">
+      <c s="33" r="B12">
         <f>SUM(C12:D12)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C12">
+      <c s="6" r="C12">
         <f>SUM(E12:K12)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D12"/>
-      <c s="22" r="E12"/>
-      <c s="22" r="F12"/>
-      <c s="22" r="G12"/>
-      <c s="22" r="H12"/>
-      <c s="22" r="I12"/>
-      <c s="22" r="J12"/>
-      <c s="22" r="K12"/>
-      <c s="43" r="L12"/>
-      <c s="33" r="M12"/>
+      <c s="2" r="D12"/>
+      <c s="16" r="E12"/>
+      <c s="16" r="F12"/>
+      <c s="16" r="G12"/>
+      <c s="16" r="H12"/>
+      <c s="16" r="I12"/>
+      <c s="16" r="J12"/>
+      <c s="16" r="K12"/>
+      <c s="41" r="L12"/>
+      <c s="29" r="M12"/>
       <c s="7" r="N12"/>
       <c s="7" r="O12"/>
       <c s="7" r="P12"/>
@@ -1839,27 +2022,27 @@
       <c s="7" r="Y12"/>
     </row>
     <row r="13">
-      <c s="34" r="A13">
+      <c s="5" r="A13">
         <v>11</v>
       </c>
-      <c s="18" r="B13">
+      <c s="33" r="B13">
         <f>SUM(C13:D13)</f>
         <v>0</v>
       </c>
-      <c s="37" r="C13">
+      <c s="6" r="C13">
         <f>SUM(E13:K13)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D13"/>
-      <c s="22" r="E13"/>
-      <c s="22" r="F13"/>
-      <c s="22" r="G13"/>
-      <c s="22" r="H13"/>
-      <c s="22" r="I13"/>
-      <c s="22" r="J13"/>
-      <c s="22" r="K13"/>
-      <c s="43" r="L13"/>
-      <c s="33" r="M13"/>
+      <c s="2" r="D13"/>
+      <c s="16" r="E13"/>
+      <c s="16" r="F13"/>
+      <c s="16" r="G13"/>
+      <c s="16" r="H13"/>
+      <c s="16" r="I13"/>
+      <c s="16" r="J13"/>
+      <c s="16" r="K13"/>
+      <c s="41" r="L13"/>
+      <c s="29" r="M13"/>
       <c s="7" r="N13"/>
       <c s="7" r="O13"/>
       <c s="7" r="P13"/>
@@ -1877,24 +2060,24 @@
       <c s="5" r="A14">
         <v>12</v>
       </c>
-      <c s="18" r="B14">
+      <c s="33" r="B14">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c s="16" r="C14">
+      <c s="6" r="C14">
         <f>SUM(E14:K14)</f>
         <v>0</v>
       </c>
-      <c s="1" r="D14"/>
-      <c s="22" r="E14"/>
-      <c s="22" r="F14"/>
-      <c s="22" r="G14"/>
-      <c s="22" r="H14"/>
-      <c s="22" r="I14"/>
-      <c s="22" r="J14"/>
-      <c s="22" r="K14"/>
-      <c s="43" r="L14"/>
-      <c s="33" r="M14"/>
+      <c s="2" r="D14"/>
+      <c s="16" r="E14"/>
+      <c s="16" r="F14"/>
+      <c s="16" r="G14"/>
+      <c s="16" r="H14"/>
+      <c s="16" r="I14"/>
+      <c s="16" r="J14"/>
+      <c s="16" r="K14"/>
+      <c s="41" r="L14"/>
+      <c s="29" r="M14"/>
       <c s="7" r="N14"/>
       <c s="7" r="O14"/>
       <c s="7" r="P14"/>
@@ -1910,18 +2093,18 @@
     </row>
     <row r="15">
       <c s="5" r="A15"/>
-      <c s="18" r="B15"/>
-      <c s="8" r="C15"/>
-      <c s="1" r="D15"/>
-      <c s="22" r="E15"/>
-      <c s="22" r="F15"/>
-      <c s="22" r="G15"/>
-      <c s="22" r="H15"/>
-      <c s="22" r="I15"/>
-      <c s="22" r="J15"/>
-      <c s="22" r="K15"/>
-      <c s="43" r="L15"/>
-      <c s="33" r="M15"/>
+      <c s="33" r="B15"/>
+      <c s="6" r="C15"/>
+      <c s="2" r="D15"/>
+      <c s="16" r="E15"/>
+      <c s="16" r="F15"/>
+      <c s="16" r="G15"/>
+      <c s="16" r="H15"/>
+      <c s="16" r="I15"/>
+      <c s="16" r="J15"/>
+      <c s="16" r="K15"/>
+      <c s="41" r="L15"/>
+      <c s="29" r="M15"/>
       <c s="7" r="N15"/>
       <c s="7" r="O15"/>
       <c s="7" r="P15"/>
@@ -1937,18 +2120,18 @@
     </row>
     <row r="16">
       <c s="5" r="A16"/>
-      <c s="18" r="B16"/>
-      <c s="8" r="C16"/>
-      <c s="1" r="D16"/>
-      <c s="22" r="E16"/>
-      <c s="22" r="F16"/>
-      <c s="22" r="G16"/>
-      <c s="22" r="H16"/>
-      <c s="22" r="I16"/>
-      <c s="22" r="J16"/>
-      <c s="22" r="K16"/>
-      <c s="43" r="L16"/>
-      <c s="33" r="M16"/>
+      <c s="33" r="B16"/>
+      <c s="6" r="C16"/>
+      <c s="2" r="D16"/>
+      <c s="16" r="E16"/>
+      <c s="16" r="F16"/>
+      <c s="16" r="G16"/>
+      <c s="16" r="H16"/>
+      <c s="16" r="I16"/>
+      <c s="16" r="J16"/>
+      <c s="16" r="K16"/>
+      <c s="41" r="L16"/>
+      <c s="29" r="M16"/>
       <c s="7" r="N16"/>
       <c s="7" r="O16"/>
       <c s="7" r="P16"/>
@@ -1964,18 +2147,18 @@
     </row>
     <row r="17">
       <c s="5" r="A17"/>
-      <c s="18" r="B17"/>
-      <c s="8" r="C17"/>
-      <c s="1" r="D17"/>
-      <c s="22" r="E17"/>
-      <c s="22" r="F17"/>
-      <c s="22" r="G17"/>
-      <c s="22" r="H17"/>
-      <c s="22" r="I17"/>
-      <c s="22" r="J17"/>
-      <c s="22" r="K17"/>
-      <c s="43" r="L17"/>
-      <c s="33" r="M17"/>
+      <c s="33" r="B17"/>
+      <c s="6" r="C17"/>
+      <c s="2" r="D17"/>
+      <c s="16" r="E17"/>
+      <c s="16" r="F17"/>
+      <c s="16" r="G17"/>
+      <c s="16" r="H17"/>
+      <c s="16" r="I17"/>
+      <c s="16" r="J17"/>
+      <c s="16" r="K17"/>
+      <c s="41" r="L17"/>
+      <c s="29" r="M17"/>
       <c s="7" r="N17"/>
       <c s="7" r="O17"/>
       <c s="7" r="P17"/>
@@ -1991,18 +2174,18 @@
     </row>
     <row r="18">
       <c s="5" r="A18"/>
-      <c s="18" r="B18"/>
-      <c s="8" r="C18"/>
-      <c s="1" r="D18"/>
-      <c s="22" r="E18"/>
-      <c s="22" r="F18"/>
-      <c s="22" r="G18"/>
-      <c s="22" r="H18"/>
-      <c s="22" r="I18"/>
-      <c s="22" r="J18"/>
-      <c s="22" r="K18"/>
-      <c s="43" r="L18"/>
-      <c s="33" r="M18"/>
+      <c s="33" r="B18"/>
+      <c s="6" r="C18"/>
+      <c s="2" r="D18"/>
+      <c s="16" r="E18"/>
+      <c s="16" r="F18"/>
+      <c s="16" r="G18"/>
+      <c s="16" r="H18"/>
+      <c s="16" r="I18"/>
+      <c s="16" r="J18"/>
+      <c s="16" r="K18"/>
+      <c s="41" r="L18"/>
+      <c s="29" r="M18"/>
       <c s="7" r="N18"/>
       <c s="7" r="O18"/>
       <c s="7" r="P18"/>
@@ -2018,18 +2201,18 @@
     </row>
     <row r="19">
       <c s="5" r="A19"/>
-      <c s="18" r="B19"/>
-      <c s="8" r="C19"/>
-      <c s="1" r="D19"/>
-      <c s="22" r="E19"/>
-      <c s="22" r="F19"/>
-      <c s="22" r="G19"/>
-      <c s="22" r="H19"/>
-      <c s="22" r="I19"/>
-      <c s="22" r="J19"/>
-      <c s="22" r="K19"/>
-      <c s="43" r="L19"/>
-      <c s="33" r="M19"/>
+      <c s="33" r="B19"/>
+      <c s="6" r="C19"/>
+      <c s="2" r="D19"/>
+      <c s="16" r="E19"/>
+      <c s="16" r="F19"/>
+      <c s="16" r="G19"/>
+      <c s="16" r="H19"/>
+      <c s="16" r="I19"/>
+      <c s="16" r="J19"/>
+      <c s="16" r="K19"/>
+      <c s="41" r="L19"/>
+      <c s="29" r="M19"/>
       <c s="7" r="N19"/>
       <c s="7" r="O19"/>
       <c s="7" r="P19"/>
@@ -2045,18 +2228,18 @@
     </row>
     <row r="20">
       <c s="5" r="A20"/>
-      <c s="18" r="B20"/>
-      <c s="8" r="C20"/>
-      <c s="1" r="D20"/>
-      <c s="22" r="E20"/>
-      <c s="22" r="F20"/>
-      <c s="22" r="G20"/>
-      <c s="22" r="H20"/>
-      <c s="22" r="I20"/>
-      <c s="22" r="J20"/>
-      <c s="22" r="K20"/>
-      <c s="43" r="L20"/>
-      <c s="33" r="M20"/>
+      <c s="33" r="B20"/>
+      <c s="6" r="C20"/>
+      <c s="2" r="D20"/>
+      <c s="16" r="E20"/>
+      <c s="16" r="F20"/>
+      <c s="16" r="G20"/>
+      <c s="16" r="H20"/>
+      <c s="16" r="I20"/>
+      <c s="16" r="J20"/>
+      <c s="16" r="K20"/>
+      <c s="41" r="L20"/>
+      <c s="29" r="M20"/>
       <c s="7" r="N20"/>
       <c s="7" r="O20"/>
       <c s="7" r="P20"/>
@@ -2072,18 +2255,18 @@
     </row>
     <row r="21">
       <c s="5" r="A21"/>
-      <c s="38" r="B21"/>
-      <c s="8" r="C21"/>
-      <c s="1" r="D21"/>
-      <c s="22" r="E21"/>
-      <c s="22" r="F21"/>
-      <c s="22" r="G21"/>
-      <c s="22" r="H21"/>
-      <c s="22" r="I21"/>
-      <c s="22" r="J21"/>
-      <c s="22" r="K21"/>
-      <c s="43" r="L21"/>
-      <c s="33" r="M21"/>
+      <c s="33" r="B21"/>
+      <c s="6" r="C21"/>
+      <c s="2" r="D21"/>
+      <c s="16" r="E21"/>
+      <c s="16" r="F21"/>
+      <c s="16" r="G21"/>
+      <c s="16" r="H21"/>
+      <c s="16" r="I21"/>
+      <c s="16" r="J21"/>
+      <c s="16" r="K21"/>
+      <c s="41" r="L21"/>
+      <c s="29" r="M21"/>
       <c s="7" r="N21"/>
       <c s="7" r="O21"/>
       <c s="7" r="P21"/>
@@ -2099,18 +2282,18 @@
     </row>
     <row r="22">
       <c s="5" r="A22"/>
-      <c s="35" r="B22"/>
-      <c s="8" r="C22"/>
-      <c s="1" r="D22"/>
-      <c s="22" r="E22"/>
-      <c s="22" r="F22"/>
-      <c s="22" r="G22"/>
-      <c s="22" r="H22"/>
-      <c s="22" r="I22"/>
-      <c s="22" r="J22"/>
-      <c s="22" r="K22"/>
-      <c s="43" r="L22"/>
-      <c s="33" r="M22"/>
+      <c s="33" r="B22"/>
+      <c s="6" r="C22"/>
+      <c s="2" r="D22"/>
+      <c s="16" r="E22"/>
+      <c s="16" r="F22"/>
+      <c s="16" r="G22"/>
+      <c s="16" r="H22"/>
+      <c s="16" r="I22"/>
+      <c s="16" r="J22"/>
+      <c s="16" r="K22"/>
+      <c s="41" r="L22"/>
+      <c s="29" r="M22"/>
       <c s="7" r="N22"/>
       <c s="7" r="O22"/>
       <c s="7" r="P22"/>
@@ -2126,18 +2309,18 @@
     </row>
     <row r="23">
       <c s="5" r="A23"/>
-      <c s="35" r="B23"/>
-      <c s="8" r="C23"/>
-      <c s="1" r="D23"/>
-      <c s="22" r="E23"/>
-      <c s="22" r="F23"/>
-      <c s="22" r="G23"/>
-      <c s="22" r="H23"/>
-      <c s="22" r="I23"/>
-      <c s="22" r="J23"/>
-      <c s="22" r="K23"/>
-      <c s="43" r="L23"/>
-      <c s="33" r="M23"/>
+      <c s="33" r="B23"/>
+      <c s="6" r="C23"/>
+      <c s="2" r="D23"/>
+      <c s="16" r="E23"/>
+      <c s="16" r="F23"/>
+      <c s="16" r="G23"/>
+      <c s="16" r="H23"/>
+      <c s="16" r="I23"/>
+      <c s="16" r="J23"/>
+      <c s="16" r="K23"/>
+      <c s="41" r="L23"/>
+      <c s="29" r="M23"/>
       <c s="7" r="N23"/>
       <c s="7" r="O23"/>
       <c s="7" r="P23"/>
@@ -2153,18 +2336,18 @@
     </row>
     <row r="24">
       <c s="5" r="A24"/>
-      <c s="35" r="B24"/>
-      <c s="8" r="C24"/>
-      <c s="1" r="D24"/>
-      <c s="22" r="E24"/>
-      <c s="22" r="F24"/>
-      <c s="22" r="G24"/>
-      <c s="22" r="H24"/>
-      <c s="22" r="I24"/>
-      <c s="22" r="J24"/>
-      <c s="22" r="K24"/>
-      <c s="43" r="L24"/>
-      <c s="33" r="M24"/>
+      <c s="33" r="B24"/>
+      <c s="6" r="C24"/>
+      <c s="2" r="D24"/>
+      <c s="16" r="E24"/>
+      <c s="16" r="F24"/>
+      <c s="16" r="G24"/>
+      <c s="16" r="H24"/>
+      <c s="16" r="I24"/>
+      <c s="16" r="J24"/>
+      <c s="16" r="K24"/>
+      <c s="41" r="L24"/>
+      <c s="29" r="M24"/>
       <c s="7" r="N24"/>
       <c s="7" r="O24"/>
       <c s="7" r="P24"/>
@@ -2180,18 +2363,18 @@
     </row>
     <row r="25">
       <c s="5" r="A25"/>
-      <c s="35" r="B25"/>
-      <c s="8" r="C25"/>
-      <c s="1" r="D25"/>
-      <c s="22" r="E25"/>
-      <c s="22" r="F25"/>
-      <c s="22" r="G25"/>
-      <c s="22" r="H25"/>
-      <c s="22" r="I25"/>
-      <c s="22" r="J25"/>
-      <c s="22" r="K25"/>
-      <c s="43" r="L25"/>
-      <c s="33" r="M25"/>
+      <c s="33" r="B25"/>
+      <c s="6" r="C25"/>
+      <c s="2" r="D25"/>
+      <c s="16" r="E25"/>
+      <c s="16" r="F25"/>
+      <c s="16" r="G25"/>
+      <c s="16" r="H25"/>
+      <c s="16" r="I25"/>
+      <c s="16" r="J25"/>
+      <c s="16" r="K25"/>
+      <c s="41" r="L25"/>
+      <c s="29" r="M25"/>
       <c s="7" r="N25"/>
       <c s="7" r="O25"/>
       <c s="7" r="P25"/>
@@ -2207,18 +2390,18 @@
     </row>
     <row r="26">
       <c s="5" r="A26"/>
-      <c s="35" r="B26"/>
-      <c s="8" r="C26"/>
-      <c s="1" r="D26"/>
-      <c s="22" r="E26"/>
-      <c s="22" r="F26"/>
-      <c s="22" r="G26"/>
-      <c s="22" r="H26"/>
-      <c s="22" r="I26"/>
-      <c s="22" r="J26"/>
-      <c s="22" r="K26"/>
-      <c s="43" r="L26"/>
-      <c s="33" r="M26"/>
+      <c s="33" r="B26"/>
+      <c s="6" r="C26"/>
+      <c s="2" r="D26"/>
+      <c s="16" r="E26"/>
+      <c s="16" r="F26"/>
+      <c s="16" r="G26"/>
+      <c s="16" r="H26"/>
+      <c s="16" r="I26"/>
+      <c s="16" r="J26"/>
+      <c s="16" r="K26"/>
+      <c s="41" r="L26"/>
+      <c s="29" r="M26"/>
       <c s="7" r="N26"/>
       <c s="7" r="O26"/>
       <c s="7" r="P26"/>
@@ -2234,18 +2417,18 @@
     </row>
     <row r="27">
       <c s="5" r="A27"/>
-      <c s="35" r="B27"/>
-      <c s="8" r="C27"/>
-      <c s="1" r="D27"/>
-      <c s="22" r="E27"/>
-      <c s="22" r="F27"/>
-      <c s="22" r="G27"/>
-      <c s="22" r="H27"/>
-      <c s="22" r="I27"/>
-      <c s="22" r="J27"/>
-      <c s="22" r="K27"/>
-      <c s="43" r="L27"/>
-      <c s="33" r="M27"/>
+      <c s="33" r="B27"/>
+      <c s="6" r="C27"/>
+      <c s="2" r="D27"/>
+      <c s="16" r="E27"/>
+      <c s="16" r="F27"/>
+      <c s="16" r="G27"/>
+      <c s="16" r="H27"/>
+      <c s="16" r="I27"/>
+      <c s="16" r="J27"/>
+      <c s="16" r="K27"/>
+      <c s="41" r="L27"/>
+      <c s="29" r="M27"/>
       <c s="7" r="N27"/>
       <c s="7" r="O27"/>
       <c s="7" r="P27"/>
@@ -2261,18 +2444,18 @@
     </row>
     <row r="28">
       <c s="5" r="A28"/>
-      <c s="35" r="B28"/>
-      <c s="8" r="C28"/>
-      <c s="1" r="D28"/>
-      <c s="22" r="E28"/>
-      <c s="22" r="F28"/>
-      <c s="22" r="G28"/>
-      <c s="22" r="H28"/>
-      <c s="22" r="I28"/>
-      <c s="22" r="J28"/>
-      <c s="22" r="K28"/>
-      <c s="43" r="L28"/>
-      <c s="33" r="M28"/>
+      <c s="33" r="B28"/>
+      <c s="6" r="C28"/>
+      <c s="2" r="D28"/>
+      <c s="16" r="E28"/>
+      <c s="16" r="F28"/>
+      <c s="16" r="G28"/>
+      <c s="16" r="H28"/>
+      <c s="16" r="I28"/>
+      <c s="16" r="J28"/>
+      <c s="16" r="K28"/>
+      <c s="41" r="L28"/>
+      <c s="29" r="M28"/>
       <c s="7" r="N28"/>
       <c s="7" r="O28"/>
       <c s="7" r="P28"/>
@@ -2288,18 +2471,18 @@
     </row>
     <row r="29">
       <c s="5" r="A29"/>
-      <c s="35" r="B29"/>
-      <c s="8" r="C29"/>
-      <c s="1" r="D29"/>
-      <c s="22" r="E29"/>
-      <c s="22" r="F29"/>
-      <c s="22" r="G29"/>
-      <c s="22" r="H29"/>
-      <c s="22" r="I29"/>
-      <c s="22" r="J29"/>
-      <c s="22" r="K29"/>
-      <c s="43" r="L29"/>
-      <c s="33" r="M29"/>
+      <c s="33" r="B29"/>
+      <c s="6" r="C29"/>
+      <c s="2" r="D29"/>
+      <c s="16" r="E29"/>
+      <c s="16" r="F29"/>
+      <c s="16" r="G29"/>
+      <c s="16" r="H29"/>
+      <c s="16" r="I29"/>
+      <c s="16" r="J29"/>
+      <c s="16" r="K29"/>
+      <c s="41" r="L29"/>
+      <c s="29" r="M29"/>
       <c s="7" r="N29"/>
       <c s="7" r="O29"/>
       <c s="7" r="P29"/>
@@ -2315,18 +2498,18 @@
     </row>
     <row r="30">
       <c s="5" r="A30"/>
-      <c s="35" r="B30"/>
-      <c s="8" r="C30"/>
-      <c s="1" r="D30"/>
-      <c s="22" r="E30"/>
-      <c s="22" r="F30"/>
-      <c s="22" r="G30"/>
-      <c s="22" r="H30"/>
-      <c s="22" r="I30"/>
-      <c s="22" r="J30"/>
-      <c s="22" r="K30"/>
-      <c s="43" r="L30"/>
-      <c s="33" r="M30"/>
+      <c s="33" r="B30"/>
+      <c s="6" r="C30"/>
+      <c s="2" r="D30"/>
+      <c s="16" r="E30"/>
+      <c s="16" r="F30"/>
+      <c s="16" r="G30"/>
+      <c s="16" r="H30"/>
+      <c s="16" r="I30"/>
+      <c s="16" r="J30"/>
+      <c s="16" r="K30"/>
+      <c s="41" r="L30"/>
+      <c s="29" r="M30"/>
       <c s="7" r="N30"/>
       <c s="7" r="O30"/>
       <c s="7" r="P30"/>
@@ -2342,18 +2525,18 @@
     </row>
     <row r="31">
       <c s="5" r="A31"/>
-      <c s="35" r="B31"/>
-      <c s="8" r="C31"/>
-      <c s="1" r="D31"/>
-      <c s="22" r="E31"/>
-      <c s="22" r="F31"/>
-      <c s="22" r="G31"/>
-      <c s="22" r="H31"/>
-      <c s="22" r="I31"/>
-      <c s="22" r="J31"/>
-      <c s="22" r="K31"/>
-      <c s="43" r="L31"/>
-      <c s="33" r="M31"/>
+      <c s="33" r="B31"/>
+      <c s="6" r="C31"/>
+      <c s="2" r="D31"/>
+      <c s="16" r="E31"/>
+      <c s="16" r="F31"/>
+      <c s="16" r="G31"/>
+      <c s="16" r="H31"/>
+      <c s="16" r="I31"/>
+      <c s="16" r="J31"/>
+      <c s="16" r="K31"/>
+      <c s="41" r="L31"/>
+      <c s="29" r="M31"/>
       <c s="7" r="N31"/>
       <c s="7" r="O31"/>
       <c s="7" r="P31"/>
@@ -2369,18 +2552,18 @@
     </row>
     <row r="32">
       <c s="5" r="A32"/>
-      <c s="35" r="B32"/>
-      <c s="8" r="C32"/>
-      <c s="1" r="D32"/>
-      <c s="22" r="E32"/>
-      <c s="22" r="F32"/>
-      <c s="22" r="G32"/>
-      <c s="22" r="H32"/>
-      <c s="22" r="I32"/>
-      <c s="22" r="J32"/>
-      <c s="22" r="K32"/>
-      <c s="43" r="L32"/>
-      <c s="33" r="M32"/>
+      <c s="33" r="B32"/>
+      <c s="6" r="C32"/>
+      <c s="2" r="D32"/>
+      <c s="16" r="E32"/>
+      <c s="16" r="F32"/>
+      <c s="16" r="G32"/>
+      <c s="16" r="H32"/>
+      <c s="16" r="I32"/>
+      <c s="16" r="J32"/>
+      <c s="16" r="K32"/>
+      <c s="41" r="L32"/>
+      <c s="29" r="M32"/>
       <c s="7" r="N32"/>
       <c s="7" r="O32"/>
       <c s="7" r="P32"/>
@@ -2396,18 +2579,18 @@
     </row>
     <row r="33">
       <c s="5" r="A33"/>
-      <c s="35" r="B33"/>
-      <c s="8" r="C33"/>
-      <c s="1" r="D33"/>
-      <c s="22" r="E33"/>
-      <c s="22" r="F33"/>
-      <c s="22" r="G33"/>
-      <c s="22" r="H33"/>
-      <c s="22" r="I33"/>
-      <c s="22" r="J33"/>
-      <c s="22" r="K33"/>
-      <c s="43" r="L33"/>
-      <c s="33" r="M33"/>
+      <c s="33" r="B33"/>
+      <c s="6" r="C33"/>
+      <c s="2" r="D33"/>
+      <c s="16" r="E33"/>
+      <c s="16" r="F33"/>
+      <c s="16" r="G33"/>
+      <c s="16" r="H33"/>
+      <c s="16" r="I33"/>
+      <c s="16" r="J33"/>
+      <c s="16" r="K33"/>
+      <c s="41" r="L33"/>
+      <c s="29" r="M33"/>
       <c s="7" r="N33"/>
       <c s="7" r="O33"/>
       <c s="7" r="P33"/>
@@ -2423,18 +2606,18 @@
     </row>
     <row r="34">
       <c s="5" r="A34"/>
-      <c s="35" r="B34"/>
-      <c s="8" r="C34"/>
-      <c s="1" r="D34"/>
-      <c s="22" r="E34"/>
-      <c s="22" r="F34"/>
-      <c s="22" r="G34"/>
-      <c s="22" r="H34"/>
-      <c s="22" r="I34"/>
-      <c s="22" r="J34"/>
-      <c s="22" r="K34"/>
-      <c s="43" r="L34"/>
-      <c s="33" r="M34"/>
+      <c s="33" r="B34"/>
+      <c s="6" r="C34"/>
+      <c s="2" r="D34"/>
+      <c s="16" r="E34"/>
+      <c s="16" r="F34"/>
+      <c s="16" r="G34"/>
+      <c s="16" r="H34"/>
+      <c s="16" r="I34"/>
+      <c s="16" r="J34"/>
+      <c s="16" r="K34"/>
+      <c s="41" r="L34"/>
+      <c s="29" r="M34"/>
       <c s="7" r="N34"/>
       <c s="7" r="O34"/>
       <c s="7" r="P34"/>
@@ -2450,18 +2633,18 @@
     </row>
     <row r="35">
       <c s="5" r="A35"/>
-      <c s="35" r="B35"/>
-      <c s="8" r="C35"/>
-      <c s="1" r="D35"/>
-      <c s="22" r="E35"/>
-      <c s="22" r="F35"/>
-      <c s="22" r="G35"/>
-      <c s="22" r="H35"/>
-      <c s="22" r="I35"/>
-      <c s="22" r="J35"/>
-      <c s="22" r="K35"/>
-      <c s="43" r="L35"/>
-      <c s="33" r="M35"/>
+      <c s="33" r="B35"/>
+      <c s="6" r="C35"/>
+      <c s="2" r="D35"/>
+      <c s="16" r="E35"/>
+      <c s="16" r="F35"/>
+      <c s="16" r="G35"/>
+      <c s="16" r="H35"/>
+      <c s="16" r="I35"/>
+      <c s="16" r="J35"/>
+      <c s="16" r="K35"/>
+      <c s="41" r="L35"/>
+      <c s="29" r="M35"/>
       <c s="7" r="N35"/>
       <c s="7" r="O35"/>
       <c s="7" r="P35"/>
@@ -2477,18 +2660,18 @@
     </row>
     <row r="36">
       <c s="5" r="A36"/>
-      <c s="35" r="B36"/>
-      <c s="8" r="C36"/>
-      <c s="1" r="D36"/>
-      <c s="22" r="E36"/>
-      <c s="22" r="F36"/>
-      <c s="22" r="G36"/>
-      <c s="22" r="H36"/>
-      <c s="22" r="I36"/>
-      <c s="22" r="J36"/>
-      <c s="22" r="K36"/>
-      <c s="43" r="L36"/>
-      <c s="33" r="M36"/>
+      <c s="33" r="B36"/>
+      <c s="6" r="C36"/>
+      <c s="2" r="D36"/>
+      <c s="16" r="E36"/>
+      <c s="16" r="F36"/>
+      <c s="16" r="G36"/>
+      <c s="16" r="H36"/>
+      <c s="16" r="I36"/>
+      <c s="16" r="J36"/>
+      <c s="16" r="K36"/>
+      <c s="41" r="L36"/>
+      <c s="29" r="M36"/>
       <c s="7" r="N36"/>
       <c s="7" r="O36"/>
       <c s="7" r="P36"/>
@@ -2504,18 +2687,18 @@
     </row>
     <row r="37">
       <c s="5" r="A37"/>
-      <c s="35" r="B37"/>
-      <c s="8" r="C37"/>
-      <c s="1" r="D37"/>
-      <c s="22" r="E37"/>
-      <c s="22" r="F37"/>
-      <c s="22" r="G37"/>
-      <c s="22" r="H37"/>
-      <c s="22" r="I37"/>
-      <c s="22" r="J37"/>
-      <c s="22" r="K37"/>
-      <c s="43" r="L37"/>
-      <c s="33" r="M37"/>
+      <c s="33" r="B37"/>
+      <c s="6" r="C37"/>
+      <c s="2" r="D37"/>
+      <c s="16" r="E37"/>
+      <c s="16" r="F37"/>
+      <c s="16" r="G37"/>
+      <c s="16" r="H37"/>
+      <c s="16" r="I37"/>
+      <c s="16" r="J37"/>
+      <c s="16" r="K37"/>
+      <c s="41" r="L37"/>
+      <c s="29" r="M37"/>
       <c s="7" r="N37"/>
       <c s="7" r="O37"/>
       <c s="7" r="P37"/>
@@ -2531,18 +2714,18 @@
     </row>
     <row r="38">
       <c s="5" r="A38"/>
-      <c s="35" r="B38"/>
-      <c s="8" r="C38"/>
-      <c s="1" r="D38"/>
-      <c s="22" r="E38"/>
-      <c s="22" r="F38"/>
-      <c s="22" r="G38"/>
-      <c s="22" r="H38"/>
-      <c s="22" r="I38"/>
-      <c s="22" r="J38"/>
-      <c s="22" r="K38"/>
-      <c s="43" r="L38"/>
-      <c s="33" r="M38"/>
+      <c s="33" r="B38"/>
+      <c s="6" r="C38"/>
+      <c s="2" r="D38"/>
+      <c s="16" r="E38"/>
+      <c s="16" r="F38"/>
+      <c s="16" r="G38"/>
+      <c s="16" r="H38"/>
+      <c s="16" r="I38"/>
+      <c s="16" r="J38"/>
+      <c s="16" r="K38"/>
+      <c s="41" r="L38"/>
+      <c s="29" r="M38"/>
       <c s="7" r="N38"/>
       <c s="7" r="O38"/>
       <c s="7" r="P38"/>
@@ -2558,18 +2741,18 @@
     </row>
     <row r="39">
       <c s="5" r="A39"/>
-      <c s="35" r="B39"/>
-      <c s="8" r="C39"/>
-      <c s="1" r="D39"/>
-      <c s="22" r="E39"/>
-      <c s="22" r="F39"/>
-      <c s="22" r="G39"/>
-      <c s="22" r="H39"/>
-      <c s="22" r="I39"/>
-      <c s="22" r="J39"/>
-      <c s="22" r="K39"/>
-      <c s="43" r="L39"/>
-      <c s="33" r="M39"/>
+      <c s="33" r="B39"/>
+      <c s="6" r="C39"/>
+      <c s="2" r="D39"/>
+      <c s="16" r="E39"/>
+      <c s="16" r="F39"/>
+      <c s="16" r="G39"/>
+      <c s="16" r="H39"/>
+      <c s="16" r="I39"/>
+      <c s="16" r="J39"/>
+      <c s="16" r="K39"/>
+      <c s="41" r="L39"/>
+      <c s="29" r="M39"/>
       <c s="7" r="N39"/>
       <c s="7" r="O39"/>
       <c s="7" r="P39"/>
@@ -2585,18 +2768,18 @@
     </row>
     <row r="40">
       <c s="5" r="A40"/>
-      <c s="35" r="B40"/>
-      <c s="8" r="C40"/>
-      <c s="1" r="D40"/>
-      <c s="22" r="E40"/>
-      <c s="22" r="F40"/>
-      <c s="22" r="G40"/>
-      <c s="22" r="H40"/>
-      <c s="22" r="I40"/>
-      <c s="22" r="J40"/>
-      <c s="22" r="K40"/>
-      <c s="43" r="L40"/>
-      <c s="33" r="M40"/>
+      <c s="33" r="B40"/>
+      <c s="6" r="C40"/>
+      <c s="2" r="D40"/>
+      <c s="16" r="E40"/>
+      <c s="16" r="F40"/>
+      <c s="16" r="G40"/>
+      <c s="16" r="H40"/>
+      <c s="16" r="I40"/>
+      <c s="16" r="J40"/>
+      <c s="16" r="K40"/>
+      <c s="41" r="L40"/>
+      <c s="29" r="M40"/>
       <c s="7" r="N40"/>
       <c s="7" r="O40"/>
       <c s="7" r="P40"/>
@@ -2612,18 +2795,18 @@
     </row>
     <row r="41">
       <c s="5" r="A41"/>
-      <c s="35" r="B41"/>
-      <c s="8" r="C41"/>
-      <c s="1" r="D41"/>
-      <c s="22" r="E41"/>
-      <c s="22" r="F41"/>
-      <c s="22" r="G41"/>
-      <c s="22" r="H41"/>
-      <c s="22" r="I41"/>
-      <c s="22" r="J41"/>
-      <c s="22" r="K41"/>
-      <c s="43" r="L41"/>
-      <c s="33" r="M41"/>
+      <c s="33" r="B41"/>
+      <c s="6" r="C41"/>
+      <c s="2" r="D41"/>
+      <c s="16" r="E41"/>
+      <c s="16" r="F41"/>
+      <c s="16" r="G41"/>
+      <c s="16" r="H41"/>
+      <c s="16" r="I41"/>
+      <c s="16" r="J41"/>
+      <c s="16" r="K41"/>
+      <c s="41" r="L41"/>
+      <c s="29" r="M41"/>
       <c s="7" r="N41"/>
       <c s="7" r="O41"/>
       <c s="7" r="P41"/>
@@ -2639,18 +2822,18 @@
     </row>
     <row r="42">
       <c s="5" r="A42"/>
-      <c s="35" r="B42"/>
-      <c s="8" r="C42"/>
-      <c s="1" r="D42"/>
-      <c s="22" r="E42"/>
-      <c s="22" r="F42"/>
-      <c s="22" r="G42"/>
-      <c s="22" r="H42"/>
-      <c s="22" r="I42"/>
-      <c s="22" r="J42"/>
-      <c s="22" r="K42"/>
-      <c s="43" r="L42"/>
-      <c s="33" r="M42"/>
+      <c s="33" r="B42"/>
+      <c s="6" r="C42"/>
+      <c s="2" r="D42"/>
+      <c s="16" r="E42"/>
+      <c s="16" r="F42"/>
+      <c s="16" r="G42"/>
+      <c s="16" r="H42"/>
+      <c s="16" r="I42"/>
+      <c s="16" r="J42"/>
+      <c s="16" r="K42"/>
+      <c s="41" r="L42"/>
+      <c s="29" r="M42"/>
       <c s="7" r="N42"/>
       <c s="7" r="O42"/>
       <c s="7" r="P42"/>
@@ -2666,18 +2849,18 @@
     </row>
     <row r="43">
       <c s="5" r="A43"/>
-      <c s="35" r="B43"/>
-      <c s="8" r="C43"/>
-      <c s="1" r="D43"/>
-      <c s="22" r="E43"/>
-      <c s="22" r="F43"/>
-      <c s="22" r="G43"/>
-      <c s="22" r="H43"/>
-      <c s="22" r="I43"/>
-      <c s="22" r="J43"/>
-      <c s="22" r="K43"/>
-      <c s="43" r="L43"/>
-      <c s="33" r="M43"/>
+      <c s="33" r="B43"/>
+      <c s="6" r="C43"/>
+      <c s="2" r="D43"/>
+      <c s="16" r="E43"/>
+      <c s="16" r="F43"/>
+      <c s="16" r="G43"/>
+      <c s="16" r="H43"/>
+      <c s="16" r="I43"/>
+      <c s="16" r="J43"/>
+      <c s="16" r="K43"/>
+      <c s="41" r="L43"/>
+      <c s="29" r="M43"/>
       <c s="7" r="N43"/>
       <c s="7" r="O43"/>
       <c s="7" r="P43"/>
@@ -2693,18 +2876,18 @@
     </row>
     <row r="44">
       <c s="5" r="A44"/>
-      <c s="35" r="B44"/>
-      <c s="8" r="C44"/>
-      <c s="1" r="D44"/>
-      <c s="22" r="E44"/>
-      <c s="22" r="F44"/>
-      <c s="22" r="G44"/>
-      <c s="22" r="H44"/>
-      <c s="22" r="I44"/>
-      <c s="22" r="J44"/>
-      <c s="22" r="K44"/>
-      <c s="43" r="L44"/>
-      <c s="33" r="M44"/>
+      <c s="33" r="B44"/>
+      <c s="6" r="C44"/>
+      <c s="2" r="D44"/>
+      <c s="16" r="E44"/>
+      <c s="16" r="F44"/>
+      <c s="16" r="G44"/>
+      <c s="16" r="H44"/>
+      <c s="16" r="I44"/>
+      <c s="16" r="J44"/>
+      <c s="16" r="K44"/>
+      <c s="41" r="L44"/>
+      <c s="29" r="M44"/>
       <c s="7" r="N44"/>
       <c s="7" r="O44"/>
       <c s="7" r="P44"/>
@@ -2720,18 +2903,18 @@
     </row>
     <row r="45">
       <c s="5" r="A45"/>
-      <c s="35" r="B45"/>
-      <c s="8" r="C45"/>
-      <c s="1" r="D45"/>
-      <c s="22" r="E45"/>
-      <c s="22" r="F45"/>
-      <c s="22" r="G45"/>
-      <c s="22" r="H45"/>
-      <c s="22" r="I45"/>
-      <c s="22" r="J45"/>
-      <c s="22" r="K45"/>
-      <c s="43" r="L45"/>
-      <c s="33" r="M45"/>
+      <c s="33" r="B45"/>
+      <c s="6" r="C45"/>
+      <c s="2" r="D45"/>
+      <c s="16" r="E45"/>
+      <c s="16" r="F45"/>
+      <c s="16" r="G45"/>
+      <c s="16" r="H45"/>
+      <c s="16" r="I45"/>
+      <c s="16" r="J45"/>
+      <c s="16" r="K45"/>
+      <c s="41" r="L45"/>
+      <c s="29" r="M45"/>
       <c s="7" r="N45"/>
       <c s="7" r="O45"/>
       <c s="7" r="P45"/>
@@ -2747,18 +2930,18 @@
     </row>
     <row r="46">
       <c s="5" r="A46"/>
-      <c s="35" r="B46"/>
-      <c s="8" r="C46"/>
-      <c s="1" r="D46"/>
-      <c s="22" r="E46"/>
-      <c s="22" r="F46"/>
-      <c s="22" r="G46"/>
-      <c s="22" r="H46"/>
-      <c s="22" r="I46"/>
-      <c s="22" r="J46"/>
-      <c s="22" r="K46"/>
-      <c s="43" r="L46"/>
-      <c s="33" r="M46"/>
+      <c s="33" r="B46"/>
+      <c s="6" r="C46"/>
+      <c s="2" r="D46"/>
+      <c s="16" r="E46"/>
+      <c s="16" r="F46"/>
+      <c s="16" r="G46"/>
+      <c s="16" r="H46"/>
+      <c s="16" r="I46"/>
+      <c s="16" r="J46"/>
+      <c s="16" r="K46"/>
+      <c s="41" r="L46"/>
+      <c s="29" r="M46"/>
       <c s="7" r="N46"/>
       <c s="7" r="O46"/>
       <c s="7" r="P46"/>
@@ -2774,18 +2957,18 @@
     </row>
     <row r="47">
       <c s="5" r="A47"/>
-      <c s="35" r="B47"/>
-      <c s="8" r="C47"/>
-      <c s="1" r="D47"/>
-      <c s="22" r="E47"/>
-      <c s="22" r="F47"/>
-      <c s="22" r="G47"/>
-      <c s="22" r="H47"/>
-      <c s="22" r="I47"/>
-      <c s="22" r="J47"/>
-      <c s="22" r="K47"/>
-      <c s="43" r="L47"/>
-      <c s="33" r="M47"/>
+      <c s="33" r="B47"/>
+      <c s="6" r="C47"/>
+      <c s="2" r="D47"/>
+      <c s="16" r="E47"/>
+      <c s="16" r="F47"/>
+      <c s="16" r="G47"/>
+      <c s="16" r="H47"/>
+      <c s="16" r="I47"/>
+      <c s="16" r="J47"/>
+      <c s="16" r="K47"/>
+      <c s="41" r="L47"/>
+      <c s="29" r="M47"/>
       <c s="7" r="N47"/>
       <c s="7" r="O47"/>
       <c s="7" r="P47"/>
@@ -2801,18 +2984,18 @@
     </row>
     <row r="48">
       <c s="5" r="A48"/>
-      <c s="35" r="B48"/>
-      <c s="8" r="C48"/>
-      <c s="1" r="D48"/>
-      <c s="22" r="E48"/>
-      <c s="22" r="F48"/>
-      <c s="22" r="G48"/>
-      <c s="22" r="H48"/>
-      <c s="22" r="I48"/>
-      <c s="22" r="J48"/>
-      <c s="22" r="K48"/>
-      <c s="43" r="L48"/>
-      <c s="33" r="M48"/>
+      <c s="33" r="B48"/>
+      <c s="6" r="C48"/>
+      <c s="2" r="D48"/>
+      <c s="16" r="E48"/>
+      <c s="16" r="F48"/>
+      <c s="16" r="G48"/>
+      <c s="16" r="H48"/>
+      <c s="16" r="I48"/>
+      <c s="16" r="J48"/>
+      <c s="16" r="K48"/>
+      <c s="41" r="L48"/>
+      <c s="29" r="M48"/>
       <c s="7" r="N48"/>
       <c s="7" r="O48"/>
       <c s="7" r="P48"/>
@@ -2828,18 +3011,18 @@
     </row>
     <row r="49">
       <c s="5" r="A49"/>
-      <c s="35" r="B49"/>
-      <c s="8" r="C49"/>
-      <c s="1" r="D49"/>
-      <c s="22" r="E49"/>
-      <c s="22" r="F49"/>
-      <c s="22" r="G49"/>
-      <c s="22" r="H49"/>
-      <c s="22" r="I49"/>
-      <c s="22" r="J49"/>
-      <c s="22" r="K49"/>
-      <c s="43" r="L49"/>
-      <c s="33" r="M49"/>
+      <c s="33" r="B49"/>
+      <c s="6" r="C49"/>
+      <c s="2" r="D49"/>
+      <c s="16" r="E49"/>
+      <c s="16" r="F49"/>
+      <c s="16" r="G49"/>
+      <c s="16" r="H49"/>
+      <c s="16" r="I49"/>
+      <c s="16" r="J49"/>
+      <c s="16" r="K49"/>
+      <c s="41" r="L49"/>
+      <c s="29" r="M49"/>
       <c s="7" r="N49"/>
       <c s="7" r="O49"/>
       <c s="7" r="P49"/>
@@ -2855,18 +3038,18 @@
     </row>
     <row r="50">
       <c s="5" r="A50"/>
-      <c s="35" r="B50"/>
-      <c s="8" r="C50"/>
-      <c s="1" r="D50"/>
-      <c s="22" r="E50"/>
-      <c s="22" r="F50"/>
-      <c s="22" r="G50"/>
-      <c s="22" r="H50"/>
-      <c s="22" r="I50"/>
-      <c s="22" r="J50"/>
-      <c s="22" r="K50"/>
-      <c s="43" r="L50"/>
-      <c s="33" r="M50"/>
+      <c s="33" r="B50"/>
+      <c s="6" r="C50"/>
+      <c s="2" r="D50"/>
+      <c s="16" r="E50"/>
+      <c s="16" r="F50"/>
+      <c s="16" r="G50"/>
+      <c s="16" r="H50"/>
+      <c s="16" r="I50"/>
+      <c s="16" r="J50"/>
+      <c s="16" r="K50"/>
+      <c s="41" r="L50"/>
+      <c s="29" r="M50"/>
       <c s="7" r="N50"/>
       <c s="7" r="O50"/>
       <c s="7" r="P50"/>
@@ -2882,18 +3065,18 @@
     </row>
     <row r="51">
       <c s="5" r="A51"/>
-      <c s="35" r="B51"/>
-      <c s="8" r="C51"/>
-      <c s="1" r="D51"/>
-      <c s="22" r="E51"/>
-      <c s="22" r="F51"/>
-      <c s="22" r="G51"/>
-      <c s="22" r="H51"/>
-      <c s="22" r="I51"/>
-      <c s="22" r="J51"/>
-      <c s="22" r="K51"/>
-      <c s="43" r="L51"/>
-      <c s="33" r="M51"/>
+      <c s="33" r="B51"/>
+      <c s="6" r="C51"/>
+      <c s="2" r="D51"/>
+      <c s="16" r="E51"/>
+      <c s="16" r="F51"/>
+      <c s="16" r="G51"/>
+      <c s="16" r="H51"/>
+      <c s="16" r="I51"/>
+      <c s="16" r="J51"/>
+      <c s="16" r="K51"/>
+      <c s="41" r="L51"/>
+      <c s="29" r="M51"/>
       <c s="7" r="N51"/>
       <c s="7" r="O51"/>
       <c s="7" r="P51"/>
@@ -2909,18 +3092,18 @@
     </row>
     <row r="52">
       <c s="5" r="A52"/>
-      <c s="35" r="B52"/>
-      <c s="8" r="C52"/>
-      <c s="1" r="D52"/>
-      <c s="22" r="E52"/>
-      <c s="22" r="F52"/>
-      <c s="22" r="G52"/>
-      <c s="22" r="H52"/>
-      <c s="22" r="I52"/>
-      <c s="22" r="J52"/>
-      <c s="22" r="K52"/>
-      <c s="43" r="L52"/>
-      <c s="33" r="M52"/>
+      <c s="33" r="B52"/>
+      <c s="6" r="C52"/>
+      <c s="2" r="D52"/>
+      <c s="16" r="E52"/>
+      <c s="16" r="F52"/>
+      <c s="16" r="G52"/>
+      <c s="16" r="H52"/>
+      <c s="16" r="I52"/>
+      <c s="16" r="J52"/>
+      <c s="16" r="K52"/>
+      <c s="41" r="L52"/>
+      <c s="29" r="M52"/>
       <c s="7" r="N52"/>
       <c s="7" r="O52"/>
       <c s="7" r="P52"/>
@@ -2936,18 +3119,18 @@
     </row>
     <row r="53">
       <c s="5" r="A53"/>
-      <c s="35" r="B53"/>
-      <c s="8" r="C53"/>
-      <c s="1" r="D53"/>
-      <c s="22" r="E53"/>
-      <c s="22" r="F53"/>
-      <c s="22" r="G53"/>
-      <c s="22" r="H53"/>
-      <c s="22" r="I53"/>
-      <c s="22" r="J53"/>
-      <c s="22" r="K53"/>
-      <c s="43" r="L53"/>
-      <c s="33" r="M53"/>
+      <c s="33" r="B53"/>
+      <c s="6" r="C53"/>
+      <c s="2" r="D53"/>
+      <c s="16" r="E53"/>
+      <c s="16" r="F53"/>
+      <c s="16" r="G53"/>
+      <c s="16" r="H53"/>
+      <c s="16" r="I53"/>
+      <c s="16" r="J53"/>
+      <c s="16" r="K53"/>
+      <c s="41" r="L53"/>
+      <c s="29" r="M53"/>
       <c s="7" r="N53"/>
       <c s="7" r="O53"/>
       <c s="7" r="P53"/>
@@ -2963,18 +3146,18 @@
     </row>
     <row r="54">
       <c s="5" r="A54"/>
-      <c s="35" r="B54"/>
-      <c s="8" r="C54"/>
-      <c s="1" r="D54"/>
-      <c s="22" r="E54"/>
-      <c s="22" r="F54"/>
-      <c s="22" r="G54"/>
-      <c s="22" r="H54"/>
-      <c s="22" r="I54"/>
-      <c s="22" r="J54"/>
-      <c s="22" r="K54"/>
-      <c s="43" r="L54"/>
-      <c s="33" r="M54"/>
+      <c s="33" r="B54"/>
+      <c s="6" r="C54"/>
+      <c s="2" r="D54"/>
+      <c s="16" r="E54"/>
+      <c s="16" r="F54"/>
+      <c s="16" r="G54"/>
+      <c s="16" r="H54"/>
+      <c s="16" r="I54"/>
+      <c s="16" r="J54"/>
+      <c s="16" r="K54"/>
+      <c s="41" r="L54"/>
+      <c s="29" r="M54"/>
       <c s="7" r="N54"/>
       <c s="7" r="O54"/>
       <c s="7" r="P54"/>
@@ -2990,18 +3173,18 @@
     </row>
     <row r="55">
       <c s="5" r="A55"/>
-      <c s="35" r="B55"/>
-      <c s="8" r="C55"/>
-      <c s="1" r="D55"/>
-      <c s="22" r="E55"/>
-      <c s="22" r="F55"/>
-      <c s="22" r="G55"/>
-      <c s="22" r="H55"/>
-      <c s="22" r="I55"/>
-      <c s="22" r="J55"/>
-      <c s="22" r="K55"/>
-      <c s="43" r="L55"/>
-      <c s="33" r="M55"/>
+      <c s="33" r="B55"/>
+      <c s="6" r="C55"/>
+      <c s="2" r="D55"/>
+      <c s="16" r="E55"/>
+      <c s="16" r="F55"/>
+      <c s="16" r="G55"/>
+      <c s="16" r="H55"/>
+      <c s="16" r="I55"/>
+      <c s="16" r="J55"/>
+      <c s="16" r="K55"/>
+      <c s="41" r="L55"/>
+      <c s="29" r="M55"/>
       <c s="7" r="N55"/>
       <c s="7" r="O55"/>
       <c s="7" r="P55"/>
@@ -3017,18 +3200,18 @@
     </row>
     <row r="56">
       <c s="5" r="A56"/>
-      <c s="35" r="B56"/>
-      <c s="8" r="C56"/>
-      <c s="1" r="D56"/>
-      <c s="22" r="E56"/>
-      <c s="22" r="F56"/>
-      <c s="22" r="G56"/>
-      <c s="22" r="H56"/>
-      <c s="22" r="I56"/>
-      <c s="22" r="J56"/>
-      <c s="22" r="K56"/>
-      <c s="43" r="L56"/>
-      <c s="33" r="M56"/>
+      <c s="33" r="B56"/>
+      <c s="6" r="C56"/>
+      <c s="2" r="D56"/>
+      <c s="16" r="E56"/>
+      <c s="16" r="F56"/>
+      <c s="16" r="G56"/>
+      <c s="16" r="H56"/>
+      <c s="16" r="I56"/>
+      <c s="16" r="J56"/>
+      <c s="16" r="K56"/>
+      <c s="41" r="L56"/>
+      <c s="29" r="M56"/>
       <c s="7" r="N56"/>
       <c s="7" r="O56"/>
       <c s="7" r="P56"/>
@@ -3044,18 +3227,18 @@
     </row>
     <row r="57">
       <c s="5" r="A57"/>
-      <c s="35" r="B57"/>
-      <c s="8" r="C57"/>
-      <c s="1" r="D57"/>
-      <c s="22" r="E57"/>
-      <c s="22" r="F57"/>
-      <c s="22" r="G57"/>
-      <c s="22" r="H57"/>
-      <c s="22" r="I57"/>
-      <c s="22" r="J57"/>
-      <c s="22" r="K57"/>
-      <c s="43" r="L57"/>
-      <c s="33" r="M57"/>
+      <c s="33" r="B57"/>
+      <c s="6" r="C57"/>
+      <c s="2" r="D57"/>
+      <c s="16" r="E57"/>
+      <c s="16" r="F57"/>
+      <c s="16" r="G57"/>
+      <c s="16" r="H57"/>
+      <c s="16" r="I57"/>
+      <c s="16" r="J57"/>
+      <c s="16" r="K57"/>
+      <c s="41" r="L57"/>
+      <c s="29" r="M57"/>
       <c s="7" r="N57"/>
       <c s="7" r="O57"/>
       <c s="7" r="P57"/>
@@ -3071,18 +3254,18 @@
     </row>
     <row r="58">
       <c s="5" r="A58"/>
-      <c s="35" r="B58"/>
-      <c s="8" r="C58"/>
-      <c s="1" r="D58"/>
-      <c s="22" r="E58"/>
-      <c s="22" r="F58"/>
-      <c s="22" r="G58"/>
-      <c s="22" r="H58"/>
-      <c s="22" r="I58"/>
-      <c s="22" r="J58"/>
-      <c s="22" r="K58"/>
-      <c s="43" r="L58"/>
-      <c s="33" r="M58"/>
+      <c s="33" r="B58"/>
+      <c s="6" r="C58"/>
+      <c s="2" r="D58"/>
+      <c s="16" r="E58"/>
+      <c s="16" r="F58"/>
+      <c s="16" r="G58"/>
+      <c s="16" r="H58"/>
+      <c s="16" r="I58"/>
+      <c s="16" r="J58"/>
+      <c s="16" r="K58"/>
+      <c s="41" r="L58"/>
+      <c s="29" r="M58"/>
       <c s="7" r="N58"/>
       <c s="7" r="O58"/>
       <c s="7" r="P58"/>
@@ -3098,18 +3281,18 @@
     </row>
     <row r="59">
       <c s="5" r="A59"/>
-      <c s="35" r="B59"/>
-      <c s="8" r="C59"/>
-      <c s="1" r="D59"/>
-      <c s="22" r="E59"/>
-      <c s="22" r="F59"/>
-      <c s="22" r="G59"/>
-      <c s="22" r="H59"/>
-      <c s="22" r="I59"/>
-      <c s="22" r="J59"/>
-      <c s="22" r="K59"/>
-      <c s="43" r="L59"/>
-      <c s="33" r="M59"/>
+      <c s="33" r="B59"/>
+      <c s="6" r="C59"/>
+      <c s="2" r="D59"/>
+      <c s="16" r="E59"/>
+      <c s="16" r="F59"/>
+      <c s="16" r="G59"/>
+      <c s="16" r="H59"/>
+      <c s="16" r="I59"/>
+      <c s="16" r="J59"/>
+      <c s="16" r="K59"/>
+      <c s="41" r="L59"/>
+      <c s="29" r="M59"/>
       <c s="7" r="N59"/>
       <c s="7" r="O59"/>
       <c s="7" r="P59"/>
@@ -3125,18 +3308,18 @@
     </row>
     <row r="60">
       <c s="5" r="A60"/>
-      <c s="35" r="B60"/>
-      <c s="8" r="C60"/>
-      <c s="1" r="D60"/>
-      <c s="22" r="E60"/>
-      <c s="22" r="F60"/>
-      <c s="22" r="G60"/>
-      <c s="22" r="H60"/>
-      <c s="22" r="I60"/>
-      <c s="22" r="J60"/>
-      <c s="22" r="K60"/>
-      <c s="43" r="L60"/>
-      <c s="33" r="M60"/>
+      <c s="33" r="B60"/>
+      <c s="6" r="C60"/>
+      <c s="2" r="D60"/>
+      <c s="16" r="E60"/>
+      <c s="16" r="F60"/>
+      <c s="16" r="G60"/>
+      <c s="16" r="H60"/>
+      <c s="16" r="I60"/>
+      <c s="16" r="J60"/>
+      <c s="16" r="K60"/>
+      <c s="41" r="L60"/>
+      <c s="29" r="M60"/>
       <c s="7" r="N60"/>
       <c s="7" r="O60"/>
       <c s="7" r="P60"/>
@@ -3152,18 +3335,18 @@
     </row>
     <row r="61">
       <c s="5" r="A61"/>
-      <c s="35" r="B61"/>
-      <c s="8" r="C61"/>
-      <c s="1" r="D61"/>
-      <c s="22" r="E61"/>
-      <c s="22" r="F61"/>
-      <c s="22" r="G61"/>
-      <c s="22" r="H61"/>
-      <c s="22" r="I61"/>
-      <c s="22" r="J61"/>
-      <c s="22" r="K61"/>
-      <c s="43" r="L61"/>
-      <c s="33" r="M61"/>
+      <c s="33" r="B61"/>
+      <c s="6" r="C61"/>
+      <c s="2" r="D61"/>
+      <c s="16" r="E61"/>
+      <c s="16" r="F61"/>
+      <c s="16" r="G61"/>
+      <c s="16" r="H61"/>
+      <c s="16" r="I61"/>
+      <c s="16" r="J61"/>
+      <c s="16" r="K61"/>
+      <c s="41" r="L61"/>
+      <c s="29" r="M61"/>
       <c s="7" r="N61"/>
       <c s="7" r="O61"/>
       <c s="7" r="P61"/>
@@ -3179,18 +3362,18 @@
     </row>
     <row r="62">
       <c s="5" r="A62"/>
-      <c s="35" r="B62"/>
-      <c s="8" r="C62"/>
-      <c s="1" r="D62"/>
-      <c s="22" r="E62"/>
-      <c s="22" r="F62"/>
-      <c s="22" r="G62"/>
-      <c s="22" r="H62"/>
-      <c s="22" r="I62"/>
-      <c s="22" r="J62"/>
-      <c s="22" r="K62"/>
-      <c s="43" r="L62"/>
-      <c s="33" r="M62"/>
+      <c s="33" r="B62"/>
+      <c s="6" r="C62"/>
+      <c s="2" r="D62"/>
+      <c s="16" r="E62"/>
+      <c s="16" r="F62"/>
+      <c s="16" r="G62"/>
+      <c s="16" r="H62"/>
+      <c s="16" r="I62"/>
+      <c s="16" r="J62"/>
+      <c s="16" r="K62"/>
+      <c s="41" r="L62"/>
+      <c s="29" r="M62"/>
       <c s="7" r="N62"/>
       <c s="7" r="O62"/>
       <c s="7" r="P62"/>
@@ -3206,18 +3389,18 @@
     </row>
     <row r="63">
       <c s="5" r="A63"/>
-      <c s="35" r="B63"/>
-      <c s="8" r="C63"/>
-      <c s="1" r="D63"/>
-      <c s="22" r="E63"/>
-      <c s="22" r="F63"/>
-      <c s="22" r="G63"/>
-      <c s="22" r="H63"/>
-      <c s="22" r="I63"/>
-      <c s="22" r="J63"/>
-      <c s="22" r="K63"/>
-      <c s="43" r="L63"/>
-      <c s="33" r="M63"/>
+      <c s="33" r="B63"/>
+      <c s="6" r="C63"/>
+      <c s="2" r="D63"/>
+      <c s="16" r="E63"/>
+      <c s="16" r="F63"/>
+      <c s="16" r="G63"/>
+      <c s="16" r="H63"/>
+      <c s="16" r="I63"/>
+      <c s="16" r="J63"/>
+      <c s="16" r="K63"/>
+      <c s="41" r="L63"/>
+      <c s="29" r="M63"/>
       <c s="7" r="N63"/>
       <c s="7" r="O63"/>
       <c s="7" r="P63"/>
@@ -3233,18 +3416,18 @@
     </row>
     <row r="64">
       <c s="5" r="A64"/>
-      <c s="35" r="B64"/>
-      <c s="8" r="C64"/>
-      <c s="1" r="D64"/>
-      <c s="22" r="E64"/>
-      <c s="22" r="F64"/>
-      <c s="22" r="G64"/>
-      <c s="22" r="H64"/>
-      <c s="22" r="I64"/>
-      <c s="22" r="J64"/>
-      <c s="22" r="K64"/>
-      <c s="43" r="L64"/>
-      <c s="33" r="M64"/>
+      <c s="33" r="B64"/>
+      <c s="6" r="C64"/>
+      <c s="2" r="D64"/>
+      <c s="16" r="E64"/>
+      <c s="16" r="F64"/>
+      <c s="16" r="G64"/>
+      <c s="16" r="H64"/>
+      <c s="16" r="I64"/>
+      <c s="16" r="J64"/>
+      <c s="16" r="K64"/>
+      <c s="41" r="L64"/>
+      <c s="29" r="M64"/>
       <c s="7" r="N64"/>
       <c s="7" r="O64"/>
       <c s="7" r="P64"/>
@@ -3260,18 +3443,18 @@
     </row>
     <row r="65">
       <c s="5" r="A65"/>
-      <c s="35" r="B65"/>
-      <c s="8" r="C65"/>
-      <c s="1" r="D65"/>
-      <c s="22" r="E65"/>
-      <c s="22" r="F65"/>
-      <c s="22" r="G65"/>
-      <c s="22" r="H65"/>
-      <c s="22" r="I65"/>
-      <c s="22" r="J65"/>
-      <c s="22" r="K65"/>
-      <c s="43" r="L65"/>
-      <c s="33" r="M65"/>
+      <c s="33" r="B65"/>
+      <c s="6" r="C65"/>
+      <c s="2" r="D65"/>
+      <c s="16" r="E65"/>
+      <c s="16" r="F65"/>
+      <c s="16" r="G65"/>
+      <c s="16" r="H65"/>
+      <c s="16" r="I65"/>
+      <c s="16" r="J65"/>
+      <c s="16" r="K65"/>
+      <c s="41" r="L65"/>
+      <c s="29" r="M65"/>
       <c s="7" r="N65"/>
       <c s="7" r="O65"/>
       <c s="7" r="P65"/>
@@ -3287,18 +3470,18 @@
     </row>
     <row r="66">
       <c s="5" r="A66"/>
-      <c s="35" r="B66"/>
-      <c s="8" r="C66"/>
-      <c s="1" r="D66"/>
-      <c s="22" r="E66"/>
-      <c s="22" r="F66"/>
-      <c s="22" r="G66"/>
-      <c s="22" r="H66"/>
-      <c s="22" r="I66"/>
-      <c s="22" r="J66"/>
-      <c s="22" r="K66"/>
-      <c s="43" r="L66"/>
-      <c s="33" r="M66"/>
+      <c s="33" r="B66"/>
+      <c s="6" r="C66"/>
+      <c s="2" r="D66"/>
+      <c s="16" r="E66"/>
+      <c s="16" r="F66"/>
+      <c s="16" r="G66"/>
+      <c s="16" r="H66"/>
+      <c s="16" r="I66"/>
+      <c s="16" r="J66"/>
+      <c s="16" r="K66"/>
+      <c s="41" r="L66"/>
+      <c s="29" r="M66"/>
       <c s="7" r="N66"/>
       <c s="7" r="O66"/>
       <c s="7" r="P66"/>
@@ -3314,18 +3497,18 @@
     </row>
     <row r="67">
       <c s="5" r="A67"/>
-      <c s="35" r="B67"/>
-      <c s="8" r="C67"/>
-      <c s="1" r="D67"/>
-      <c s="22" r="E67"/>
-      <c s="22" r="F67"/>
-      <c s="22" r="G67"/>
-      <c s="22" r="H67"/>
-      <c s="22" r="I67"/>
-      <c s="22" r="J67"/>
-      <c s="22" r="K67"/>
-      <c s="43" r="L67"/>
-      <c s="33" r="M67"/>
+      <c s="33" r="B67"/>
+      <c s="6" r="C67"/>
+      <c s="2" r="D67"/>
+      <c s="16" r="E67"/>
+      <c s="16" r="F67"/>
+      <c s="16" r="G67"/>
+      <c s="16" r="H67"/>
+      <c s="16" r="I67"/>
+      <c s="16" r="J67"/>
+      <c s="16" r="K67"/>
+      <c s="41" r="L67"/>
+      <c s="29" r="M67"/>
       <c s="7" r="N67"/>
       <c s="7" r="O67"/>
       <c s="7" r="P67"/>
@@ -3341,18 +3524,18 @@
     </row>
     <row r="68">
       <c s="5" r="A68"/>
-      <c s="35" r="B68"/>
-      <c s="8" r="C68"/>
-      <c s="1" r="D68"/>
-      <c s="22" r="E68"/>
-      <c s="22" r="F68"/>
-      <c s="22" r="G68"/>
-      <c s="22" r="H68"/>
-      <c s="22" r="I68"/>
-      <c s="22" r="J68"/>
-      <c s="22" r="K68"/>
-      <c s="43" r="L68"/>
-      <c s="33" r="M68"/>
+      <c s="33" r="B68"/>
+      <c s="6" r="C68"/>
+      <c s="2" r="D68"/>
+      <c s="16" r="E68"/>
+      <c s="16" r="F68"/>
+      <c s="16" r="G68"/>
+      <c s="16" r="H68"/>
+      <c s="16" r="I68"/>
+      <c s="16" r="J68"/>
+      <c s="16" r="K68"/>
+      <c s="41" r="L68"/>
+      <c s="29" r="M68"/>
       <c s="7" r="N68"/>
       <c s="7" r="O68"/>
       <c s="7" r="P68"/>
@@ -3368,18 +3551,18 @@
     </row>
     <row r="69">
       <c s="5" r="A69"/>
-      <c s="35" r="B69"/>
-      <c s="8" r="C69"/>
-      <c s="1" r="D69"/>
-      <c s="22" r="E69"/>
-      <c s="22" r="F69"/>
-      <c s="22" r="G69"/>
-      <c s="22" r="H69"/>
-      <c s="22" r="I69"/>
-      <c s="22" r="J69"/>
-      <c s="22" r="K69"/>
-      <c s="43" r="L69"/>
-      <c s="33" r="M69"/>
+      <c s="33" r="B69"/>
+      <c s="6" r="C69"/>
+      <c s="2" r="D69"/>
+      <c s="16" r="E69"/>
+      <c s="16" r="F69"/>
+      <c s="16" r="G69"/>
+      <c s="16" r="H69"/>
+      <c s="16" r="I69"/>
+      <c s="16" r="J69"/>
+      <c s="16" r="K69"/>
+      <c s="41" r="L69"/>
+      <c s="29" r="M69"/>
       <c s="7" r="N69"/>
       <c s="7" r="O69"/>
       <c s="7" r="P69"/>
@@ -3395,18 +3578,18 @@
     </row>
     <row r="70">
       <c s="5" r="A70"/>
-      <c s="35" r="B70"/>
-      <c s="8" r="C70"/>
-      <c s="1" r="D70"/>
-      <c s="22" r="E70"/>
-      <c s="22" r="F70"/>
-      <c s="22" r="G70"/>
-      <c s="22" r="H70"/>
-      <c s="22" r="I70"/>
-      <c s="22" r="J70"/>
-      <c s="22" r="K70"/>
-      <c s="43" r="L70"/>
-      <c s="33" r="M70"/>
+      <c s="33" r="B70"/>
+      <c s="6" r="C70"/>
+      <c s="2" r="D70"/>
+      <c s="16" r="E70"/>
+      <c s="16" r="F70"/>
+      <c s="16" r="G70"/>
+      <c s="16" r="H70"/>
+      <c s="16" r="I70"/>
+      <c s="16" r="J70"/>
+      <c s="16" r="K70"/>
+      <c s="41" r="L70"/>
+      <c s="29" r="M70"/>
       <c s="7" r="N70"/>
       <c s="7" r="O70"/>
       <c s="7" r="P70"/>
@@ -3422,18 +3605,18 @@
     </row>
     <row r="71">
       <c s="5" r="A71"/>
-      <c s="35" r="B71"/>
-      <c s="8" r="C71"/>
-      <c s="1" r="D71"/>
-      <c s="22" r="E71"/>
-      <c s="22" r="F71"/>
-      <c s="22" r="G71"/>
-      <c s="22" r="H71"/>
-      <c s="22" r="I71"/>
-      <c s="22" r="J71"/>
-      <c s="22" r="K71"/>
-      <c s="43" r="L71"/>
-      <c s="33" r="M71"/>
+      <c s="33" r="B71"/>
+      <c s="6" r="C71"/>
+      <c s="2" r="D71"/>
+      <c s="16" r="E71"/>
+      <c s="16" r="F71"/>
+      <c s="16" r="G71"/>
+      <c s="16" r="H71"/>
+      <c s="16" r="I71"/>
+      <c s="16" r="J71"/>
+      <c s="16" r="K71"/>
+      <c s="41" r="L71"/>
+      <c s="29" r="M71"/>
       <c s="7" r="N71"/>
       <c s="7" r="O71"/>
       <c s="7" r="P71"/>
@@ -3449,18 +3632,18 @@
     </row>
     <row r="72">
       <c s="5" r="A72"/>
-      <c s="35" r="B72"/>
-      <c s="8" r="C72"/>
-      <c s="1" r="D72"/>
-      <c s="22" r="E72"/>
-      <c s="22" r="F72"/>
-      <c s="22" r="G72"/>
-      <c s="22" r="H72"/>
-      <c s="22" r="I72"/>
-      <c s="22" r="J72"/>
-      <c s="22" r="K72"/>
-      <c s="43" r="L72"/>
-      <c s="33" r="M72"/>
+      <c s="33" r="B72"/>
+      <c s="6" r="C72"/>
+      <c s="2" r="D72"/>
+      <c s="16" r="E72"/>
+      <c s="16" r="F72"/>
+      <c s="16" r="G72"/>
+      <c s="16" r="H72"/>
+      <c s="16" r="I72"/>
+      <c s="16" r="J72"/>
+      <c s="16" r="K72"/>
+      <c s="41" r="L72"/>
+      <c s="29" r="M72"/>
       <c s="7" r="N72"/>
       <c s="7" r="O72"/>
       <c s="7" r="P72"/>
@@ -3476,18 +3659,18 @@
     </row>
     <row r="73">
       <c s="5" r="A73"/>
-      <c s="35" r="B73"/>
-      <c s="8" r="C73"/>
-      <c s="1" r="D73"/>
-      <c s="22" r="E73"/>
-      <c s="22" r="F73"/>
-      <c s="22" r="G73"/>
-      <c s="22" r="H73"/>
-      <c s="22" r="I73"/>
-      <c s="22" r="J73"/>
-      <c s="22" r="K73"/>
-      <c s="43" r="L73"/>
-      <c s="33" r="M73"/>
+      <c s="33" r="B73"/>
+      <c s="6" r="C73"/>
+      <c s="2" r="D73"/>
+      <c s="16" r="E73"/>
+      <c s="16" r="F73"/>
+      <c s="16" r="G73"/>
+      <c s="16" r="H73"/>
+      <c s="16" r="I73"/>
+      <c s="16" r="J73"/>
+      <c s="16" r="K73"/>
+      <c s="41" r="L73"/>
+      <c s="29" r="M73"/>
       <c s="7" r="N73"/>
       <c s="7" r="O73"/>
       <c s="7" r="P73"/>
@@ -3503,18 +3686,18 @@
     </row>
     <row r="74">
       <c s="5" r="A74"/>
-      <c s="35" r="B74"/>
-      <c s="8" r="C74"/>
-      <c s="1" r="D74"/>
-      <c s="22" r="E74"/>
-      <c s="22" r="F74"/>
-      <c s="22" r="G74"/>
-      <c s="22" r="H74"/>
-      <c s="22" r="I74"/>
-      <c s="22" r="J74"/>
-      <c s="22" r="K74"/>
-      <c s="43" r="L74"/>
-      <c s="33" r="M74"/>
+      <c s="33" r="B74"/>
+      <c s="6" r="C74"/>
+      <c s="2" r="D74"/>
+      <c s="16" r="E74"/>
+      <c s="16" r="F74"/>
+      <c s="16" r="G74"/>
+      <c s="16" r="H74"/>
+      <c s="16" r="I74"/>
+      <c s="16" r="J74"/>
+      <c s="16" r="K74"/>
+      <c s="41" r="L74"/>
+      <c s="29" r="M74"/>
       <c s="7" r="N74"/>
       <c s="7" r="O74"/>
       <c s="7" r="P74"/>
@@ -3530,18 +3713,18 @@
     </row>
     <row r="75">
       <c s="5" r="A75"/>
-      <c s="35" r="B75"/>
-      <c s="8" r="C75"/>
-      <c s="1" r="D75"/>
-      <c s="22" r="E75"/>
-      <c s="22" r="F75"/>
-      <c s="22" r="G75"/>
-      <c s="22" r="H75"/>
-      <c s="22" r="I75"/>
-      <c s="22" r="J75"/>
-      <c s="22" r="K75"/>
-      <c s="43" r="L75"/>
-      <c s="33" r="M75"/>
+      <c s="33" r="B75"/>
+      <c s="6" r="C75"/>
+      <c s="2" r="D75"/>
+      <c s="16" r="E75"/>
+      <c s="16" r="F75"/>
+      <c s="16" r="G75"/>
+      <c s="16" r="H75"/>
+      <c s="16" r="I75"/>
+      <c s="16" r="J75"/>
+      <c s="16" r="K75"/>
+      <c s="41" r="L75"/>
+      <c s="29" r="M75"/>
       <c s="7" r="N75"/>
       <c s="7" r="O75"/>
       <c s="7" r="P75"/>
@@ -3557,18 +3740,18 @@
     </row>
     <row r="76">
       <c s="5" r="A76"/>
-      <c s="35" r="B76"/>
-      <c s="8" r="C76"/>
-      <c s="1" r="D76"/>
-      <c s="22" r="E76"/>
-      <c s="22" r="F76"/>
-      <c s="22" r="G76"/>
-      <c s="22" r="H76"/>
-      <c s="22" r="I76"/>
-      <c s="22" r="J76"/>
-      <c s="22" r="K76"/>
-      <c s="43" r="L76"/>
-      <c s="33" r="M76"/>
+      <c s="33" r="B76"/>
+      <c s="6" r="C76"/>
+      <c s="2" r="D76"/>
+      <c s="16" r="E76"/>
+      <c s="16" r="F76"/>
+      <c s="16" r="G76"/>
+      <c s="16" r="H76"/>
+      <c s="16" r="I76"/>
+      <c s="16" r="J76"/>
+      <c s="16" r="K76"/>
+      <c s="41" r="L76"/>
+      <c s="29" r="M76"/>
       <c s="7" r="N76"/>
       <c s="7" r="O76"/>
       <c s="7" r="P76"/>
@@ -3584,18 +3767,18 @@
     </row>
     <row r="77">
       <c s="5" r="A77"/>
-      <c s="35" r="B77"/>
-      <c s="8" r="C77"/>
-      <c s="1" r="D77"/>
-      <c s="22" r="E77"/>
-      <c s="22" r="F77"/>
-      <c s="22" r="G77"/>
-      <c s="22" r="H77"/>
-      <c s="22" r="I77"/>
-      <c s="22" r="J77"/>
-      <c s="22" r="K77"/>
-      <c s="43" r="L77"/>
-      <c s="33" r="M77"/>
+      <c s="33" r="B77"/>
+      <c s="6" r="C77"/>
+      <c s="2" r="D77"/>
+      <c s="16" r="E77"/>
+      <c s="16" r="F77"/>
+      <c s="16" r="G77"/>
+      <c s="16" r="H77"/>
+      <c s="16" r="I77"/>
+      <c s="16" r="J77"/>
+      <c s="16" r="K77"/>
+      <c s="41" r="L77"/>
+      <c s="29" r="M77"/>
       <c s="7" r="N77"/>
       <c s="7" r="O77"/>
       <c s="7" r="P77"/>
@@ -3611,18 +3794,18 @@
     </row>
     <row r="78">
       <c s="5" r="A78"/>
-      <c s="35" r="B78"/>
-      <c s="8" r="C78"/>
-      <c s="1" r="D78"/>
-      <c s="22" r="E78"/>
-      <c s="22" r="F78"/>
-      <c s="22" r="G78"/>
-      <c s="22" r="H78"/>
-      <c s="22" r="I78"/>
-      <c s="22" r="J78"/>
-      <c s="22" r="K78"/>
-      <c s="43" r="L78"/>
-      <c s="33" r="M78"/>
+      <c s="33" r="B78"/>
+      <c s="6" r="C78"/>
+      <c s="2" r="D78"/>
+      <c s="16" r="E78"/>
+      <c s="16" r="F78"/>
+      <c s="16" r="G78"/>
+      <c s="16" r="H78"/>
+      <c s="16" r="I78"/>
+      <c s="16" r="J78"/>
+      <c s="16" r="K78"/>
+      <c s="41" r="L78"/>
+      <c s="29" r="M78"/>
       <c s="7" r="N78"/>
       <c s="7" r="O78"/>
       <c s="7" r="P78"/>
@@ -3638,18 +3821,18 @@
     </row>
     <row r="79">
       <c s="5" r="A79"/>
-      <c s="35" r="B79"/>
-      <c s="8" r="C79"/>
-      <c s="1" r="D79"/>
-      <c s="22" r="E79"/>
-      <c s="22" r="F79"/>
-      <c s="22" r="G79"/>
-      <c s="22" r="H79"/>
-      <c s="22" r="I79"/>
-      <c s="22" r="J79"/>
-      <c s="22" r="K79"/>
-      <c s="43" r="L79"/>
-      <c s="33" r="M79"/>
+      <c s="33" r="B79"/>
+      <c s="6" r="C79"/>
+      <c s="2" r="D79"/>
+      <c s="16" r="E79"/>
+      <c s="16" r="F79"/>
+      <c s="16" r="G79"/>
+      <c s="16" r="H79"/>
+      <c s="16" r="I79"/>
+      <c s="16" r="J79"/>
+      <c s="16" r="K79"/>
+      <c s="41" r="L79"/>
+      <c s="29" r="M79"/>
       <c s="7" r="N79"/>
       <c s="7" r="O79"/>
       <c s="7" r="P79"/>
@@ -3665,18 +3848,18 @@
     </row>
     <row r="80">
       <c s="5" r="A80"/>
-      <c s="35" r="B80"/>
-      <c s="8" r="C80"/>
-      <c s="1" r="D80"/>
-      <c s="22" r="E80"/>
-      <c s="22" r="F80"/>
-      <c s="22" r="G80"/>
-      <c s="22" r="H80"/>
-      <c s="22" r="I80"/>
-      <c s="22" r="J80"/>
-      <c s="22" r="K80"/>
-      <c s="43" r="L80"/>
-      <c s="33" r="M80"/>
+      <c s="33" r="B80"/>
+      <c s="6" r="C80"/>
+      <c s="2" r="D80"/>
+      <c s="16" r="E80"/>
+      <c s="16" r="F80"/>
+      <c s="16" r="G80"/>
+      <c s="16" r="H80"/>
+      <c s="16" r="I80"/>
+      <c s="16" r="J80"/>
+      <c s="16" r="K80"/>
+      <c s="41" r="L80"/>
+      <c s="29" r="M80"/>
       <c s="7" r="N80"/>
       <c s="7" r="O80"/>
       <c s="7" r="P80"/>
@@ -3692,18 +3875,18 @@
     </row>
     <row r="81">
       <c s="5" r="A81"/>
-      <c s="35" r="B81"/>
-      <c s="8" r="C81"/>
-      <c s="1" r="D81"/>
-      <c s="22" r="E81"/>
-      <c s="22" r="F81"/>
-      <c s="22" r="G81"/>
-      <c s="22" r="H81"/>
-      <c s="22" r="I81"/>
-      <c s="22" r="J81"/>
-      <c s="22" r="K81"/>
-      <c s="43" r="L81"/>
-      <c s="33" r="M81"/>
+      <c s="33" r="B81"/>
+      <c s="6" r="C81"/>
+      <c s="2" r="D81"/>
+      <c s="16" r="E81"/>
+      <c s="16" r="F81"/>
+      <c s="16" r="G81"/>
+      <c s="16" r="H81"/>
+      <c s="16" r="I81"/>
+      <c s="16" r="J81"/>
+      <c s="16" r="K81"/>
+      <c s="41" r="L81"/>
+      <c s="29" r="M81"/>
       <c s="7" r="N81"/>
       <c s="7" r="O81"/>
       <c s="7" r="P81"/>
@@ -3719,18 +3902,18 @@
     </row>
     <row r="82">
       <c s="5" r="A82"/>
-      <c s="35" r="B82"/>
-      <c s="8" r="C82"/>
-      <c s="1" r="D82"/>
-      <c s="22" r="E82"/>
-      <c s="22" r="F82"/>
-      <c s="22" r="G82"/>
-      <c s="22" r="H82"/>
-      <c s="22" r="I82"/>
-      <c s="22" r="J82"/>
-      <c s="22" r="K82"/>
-      <c s="43" r="L82"/>
-      <c s="33" r="M82"/>
+      <c s="33" r="B82"/>
+      <c s="6" r="C82"/>
+      <c s="2" r="D82"/>
+      <c s="16" r="E82"/>
+      <c s="16" r="F82"/>
+      <c s="16" r="G82"/>
+      <c s="16" r="H82"/>
+      <c s="16" r="I82"/>
+      <c s="16" r="J82"/>
+      <c s="16" r="K82"/>
+      <c s="41" r="L82"/>
+      <c s="29" r="M82"/>
       <c s="7" r="N82"/>
       <c s="7" r="O82"/>
       <c s="7" r="P82"/>
@@ -3746,18 +3929,18 @@
     </row>
     <row r="83">
       <c s="5" r="A83"/>
-      <c s="35" r="B83"/>
-      <c s="8" r="C83"/>
-      <c s="1" r="D83"/>
-      <c s="22" r="E83"/>
-      <c s="22" r="F83"/>
-      <c s="22" r="G83"/>
-      <c s="22" r="H83"/>
-      <c s="22" r="I83"/>
-      <c s="22" r="J83"/>
-      <c s="22" r="K83"/>
-      <c s="43" r="L83"/>
-      <c s="33" r="M83"/>
+      <c s="33" r="B83"/>
+      <c s="6" r="C83"/>
+      <c s="2" r="D83"/>
+      <c s="16" r="E83"/>
+      <c s="16" r="F83"/>
+      <c s="16" r="G83"/>
+      <c s="16" r="H83"/>
+      <c s="16" r="I83"/>
+      <c s="16" r="J83"/>
+      <c s="16" r="K83"/>
+      <c s="41" r="L83"/>
+      <c s="29" r="M83"/>
       <c s="7" r="N83"/>
       <c s="7" r="O83"/>
       <c s="7" r="P83"/>
@@ -3773,18 +3956,18 @@
     </row>
     <row r="84">
       <c s="5" r="A84"/>
-      <c s="35" r="B84"/>
-      <c s="8" r="C84"/>
-      <c s="1" r="D84"/>
-      <c s="22" r="E84"/>
-      <c s="22" r="F84"/>
-      <c s="22" r="G84"/>
-      <c s="22" r="H84"/>
-      <c s="22" r="I84"/>
-      <c s="22" r="J84"/>
-      <c s="22" r="K84"/>
-      <c s="43" r="L84"/>
-      <c s="33" r="M84"/>
+      <c s="33" r="B84"/>
+      <c s="6" r="C84"/>
+      <c s="2" r="D84"/>
+      <c s="16" r="E84"/>
+      <c s="16" r="F84"/>
+      <c s="16" r="G84"/>
+      <c s="16" r="H84"/>
+      <c s="16" r="I84"/>
+      <c s="16" r="J84"/>
+      <c s="16" r="K84"/>
+      <c s="41" r="L84"/>
+      <c s="29" r="M84"/>
       <c s="7" r="N84"/>
       <c s="7" r="O84"/>
       <c s="7" r="P84"/>
@@ -3800,18 +3983,18 @@
     </row>
     <row r="85">
       <c s="5" r="A85"/>
-      <c s="35" r="B85"/>
-      <c s="8" r="C85"/>
-      <c s="1" r="D85"/>
-      <c s="22" r="E85"/>
-      <c s="22" r="F85"/>
-      <c s="22" r="G85"/>
-      <c s="22" r="H85"/>
-      <c s="22" r="I85"/>
-      <c s="22" r="J85"/>
-      <c s="22" r="K85"/>
-      <c s="43" r="L85"/>
-      <c s="33" r="M85"/>
+      <c s="33" r="B85"/>
+      <c s="6" r="C85"/>
+      <c s="2" r="D85"/>
+      <c s="16" r="E85"/>
+      <c s="16" r="F85"/>
+      <c s="16" r="G85"/>
+      <c s="16" r="H85"/>
+      <c s="16" r="I85"/>
+      <c s="16" r="J85"/>
+      <c s="16" r="K85"/>
+      <c s="41" r="L85"/>
+      <c s="29" r="M85"/>
       <c s="7" r="N85"/>
       <c s="7" r="O85"/>
       <c s="7" r="P85"/>
@@ -3827,18 +4010,18 @@
     </row>
     <row r="86">
       <c s="5" r="A86"/>
-      <c s="35" r="B86"/>
-      <c s="8" r="C86"/>
-      <c s="1" r="D86"/>
-      <c s="22" r="E86"/>
-      <c s="22" r="F86"/>
-      <c s="22" r="G86"/>
-      <c s="22" r="H86"/>
-      <c s="22" r="I86"/>
-      <c s="22" r="J86"/>
-      <c s="22" r="K86"/>
-      <c s="43" r="L86"/>
-      <c s="33" r="M86"/>
+      <c s="33" r="B86"/>
+      <c s="6" r="C86"/>
+      <c s="2" r="D86"/>
+      <c s="16" r="E86"/>
+      <c s="16" r="F86"/>
+      <c s="16" r="G86"/>
+      <c s="16" r="H86"/>
+      <c s="16" r="I86"/>
+      <c s="16" r="J86"/>
+      <c s="16" r="K86"/>
+      <c s="41" r="L86"/>
+      <c s="29" r="M86"/>
       <c s="7" r="N86"/>
       <c s="7" r="O86"/>
       <c s="7" r="P86"/>
@@ -3854,18 +4037,18 @@
     </row>
     <row r="87">
       <c s="5" r="A87"/>
-      <c s="35" r="B87"/>
-      <c s="8" r="C87"/>
-      <c s="1" r="D87"/>
-      <c s="22" r="E87"/>
-      <c s="22" r="F87"/>
-      <c s="22" r="G87"/>
-      <c s="22" r="H87"/>
-      <c s="22" r="I87"/>
-      <c s="22" r="J87"/>
-      <c s="22" r="K87"/>
-      <c s="43" r="L87"/>
-      <c s="33" r="M87"/>
+      <c s="33" r="B87"/>
+      <c s="6" r="C87"/>
+      <c s="2" r="D87"/>
+      <c s="16" r="E87"/>
+      <c s="16" r="F87"/>
+      <c s="16" r="G87"/>
+      <c s="16" r="H87"/>
+      <c s="16" r="I87"/>
+      <c s="16" r="J87"/>
+      <c s="16" r="K87"/>
+      <c s="41" r="L87"/>
+      <c s="29" r="M87"/>
       <c s="7" r="N87"/>
       <c s="7" r="O87"/>
       <c s="7" r="P87"/>
@@ -3881,18 +4064,18 @@
     </row>
     <row r="88">
       <c s="5" r="A88"/>
-      <c s="35" r="B88"/>
-      <c s="8" r="C88"/>
-      <c s="1" r="D88"/>
-      <c s="22" r="E88"/>
-      <c s="22" r="F88"/>
-      <c s="22" r="G88"/>
-      <c s="22" r="H88"/>
-      <c s="22" r="I88"/>
-      <c s="22" r="J88"/>
-      <c s="22" r="K88"/>
-      <c s="43" r="L88"/>
-      <c s="33" r="M88"/>
+      <c s="33" r="B88"/>
+      <c s="6" r="C88"/>
+      <c s="2" r="D88"/>
+      <c s="16" r="E88"/>
+      <c s="16" r="F88"/>
+      <c s="16" r="G88"/>
+      <c s="16" r="H88"/>
+      <c s="16" r="I88"/>
+      <c s="16" r="J88"/>
+      <c s="16" r="K88"/>
+      <c s="41" r="L88"/>
+      <c s="29" r="M88"/>
       <c s="7" r="N88"/>
       <c s="7" r="O88"/>
       <c s="7" r="P88"/>
@@ -3908,18 +4091,18 @@
     </row>
     <row r="89">
       <c s="5" r="A89"/>
-      <c s="35" r="B89"/>
-      <c s="8" r="C89"/>
-      <c s="1" r="D89"/>
-      <c s="22" r="E89"/>
-      <c s="22" r="F89"/>
-      <c s="22" r="G89"/>
-      <c s="22" r="H89"/>
-      <c s="22" r="I89"/>
-      <c s="22" r="J89"/>
-      <c s="22" r="K89"/>
-      <c s="43" r="L89"/>
-      <c s="33" r="M89"/>
+      <c s="33" r="B89"/>
+      <c s="6" r="C89"/>
+      <c s="2" r="D89"/>
+      <c s="16" r="E89"/>
+      <c s="16" r="F89"/>
+      <c s="16" r="G89"/>
+      <c s="16" r="H89"/>
+      <c s="16" r="I89"/>
+      <c s="16" r="J89"/>
+      <c s="16" r="K89"/>
+      <c s="41" r="L89"/>
+      <c s="29" r="M89"/>
       <c s="7" r="N89"/>
       <c s="7" r="O89"/>
       <c s="7" r="P89"/>
@@ -3935,18 +4118,18 @@
     </row>
     <row r="90">
       <c s="5" r="A90"/>
-      <c s="35" r="B90"/>
-      <c s="8" r="C90"/>
-      <c s="1" r="D90"/>
-      <c s="22" r="E90"/>
-      <c s="22" r="F90"/>
-      <c s="22" r="G90"/>
-      <c s="22" r="H90"/>
-      <c s="22" r="I90"/>
-      <c s="22" r="J90"/>
-      <c s="22" r="K90"/>
-      <c s="43" r="L90"/>
-      <c s="33" r="M90"/>
+      <c s="33" r="B90"/>
+      <c s="6" r="C90"/>
+      <c s="2" r="D90"/>
+      <c s="16" r="E90"/>
+      <c s="16" r="F90"/>
+      <c s="16" r="G90"/>
+      <c s="16" r="H90"/>
+      <c s="16" r="I90"/>
+      <c s="16" r="J90"/>
+      <c s="16" r="K90"/>
+      <c s="41" r="L90"/>
+      <c s="29" r="M90"/>
       <c s="7" r="N90"/>
       <c s="7" r="O90"/>
       <c s="7" r="P90"/>
@@ -3962,18 +4145,18 @@
     </row>
     <row r="91">
       <c s="5" r="A91"/>
-      <c s="35" r="B91"/>
-      <c s="8" r="C91"/>
-      <c s="1" r="D91"/>
-      <c s="22" r="E91"/>
-      <c s="22" r="F91"/>
-      <c s="22" r="G91"/>
-      <c s="22" r="H91"/>
-      <c s="22" r="I91"/>
-      <c s="22" r="J91"/>
-      <c s="22" r="K91"/>
-      <c s="43" r="L91"/>
-      <c s="33" r="M91"/>
+      <c s="33" r="B91"/>
+      <c s="6" r="C91"/>
+      <c s="2" r="D91"/>
+      <c s="16" r="E91"/>
+      <c s="16" r="F91"/>
+      <c s="16" r="G91"/>
+      <c s="16" r="H91"/>
+      <c s="16" r="I91"/>
+      <c s="16" r="J91"/>
+      <c s="16" r="K91"/>
+      <c s="41" r="L91"/>
+      <c s="29" r="M91"/>
       <c s="7" r="N91"/>
       <c s="7" r="O91"/>
       <c s="7" r="P91"/>
@@ -3989,18 +4172,18 @@
     </row>
     <row r="92">
       <c s="5" r="A92"/>
-      <c s="35" r="B92"/>
-      <c s="8" r="C92"/>
-      <c s="1" r="D92"/>
-      <c s="22" r="E92"/>
-      <c s="22" r="F92"/>
-      <c s="22" r="G92"/>
-      <c s="22" r="H92"/>
-      <c s="22" r="I92"/>
-      <c s="22" r="J92"/>
-      <c s="22" r="K92"/>
-      <c s="43" r="L92"/>
-      <c s="33" r="M92"/>
+      <c s="33" r="B92"/>
+      <c s="6" r="C92"/>
+      <c s="2" r="D92"/>
+      <c s="16" r="E92"/>
+      <c s="16" r="F92"/>
+      <c s="16" r="G92"/>
+      <c s="16" r="H92"/>
+      <c s="16" r="I92"/>
+      <c s="16" r="J92"/>
+      <c s="16" r="K92"/>
+      <c s="41" r="L92"/>
+      <c s="29" r="M92"/>
       <c s="7" r="N92"/>
       <c s="7" r="O92"/>
       <c s="7" r="P92"/>
@@ -4016,18 +4199,18 @@
     </row>
     <row r="93">
       <c s="5" r="A93"/>
-      <c s="35" r="B93"/>
-      <c s="8" r="C93"/>
-      <c s="1" r="D93"/>
-      <c s="22" r="E93"/>
-      <c s="22" r="F93"/>
-      <c s="22" r="G93"/>
-      <c s="22" r="H93"/>
-      <c s="22" r="I93"/>
-      <c s="22" r="J93"/>
-      <c s="22" r="K93"/>
-      <c s="43" r="L93"/>
-      <c s="33" r="M93"/>
+      <c s="33" r="B93"/>
+      <c s="6" r="C93"/>
+      <c s="2" r="D93"/>
+      <c s="16" r="E93"/>
+      <c s="16" r="F93"/>
+      <c s="16" r="G93"/>
+      <c s="16" r="H93"/>
+      <c s="16" r="I93"/>
+      <c s="16" r="J93"/>
+      <c s="16" r="K93"/>
+      <c s="41" r="L93"/>
+      <c s="29" r="M93"/>
       <c s="7" r="N93"/>
       <c s="7" r="O93"/>
       <c s="7" r="P93"/>
@@ -4043,18 +4226,18 @@
     </row>
     <row r="94">
       <c s="5" r="A94"/>
-      <c s="35" r="B94"/>
-      <c s="8" r="C94"/>
-      <c s="1" r="D94"/>
-      <c s="22" r="E94"/>
-      <c s="22" r="F94"/>
-      <c s="22" r="G94"/>
-      <c s="22" r="H94"/>
-      <c s="22" r="I94"/>
-      <c s="22" r="J94"/>
-      <c s="22" r="K94"/>
-      <c s="43" r="L94"/>
-      <c s="33" r="M94"/>
+      <c s="33" r="B94"/>
+      <c s="6" r="C94"/>
+      <c s="2" r="D94"/>
+      <c s="16" r="E94"/>
+      <c s="16" r="F94"/>
+      <c s="16" r="G94"/>
+      <c s="16" r="H94"/>
+      <c s="16" r="I94"/>
+      <c s="16" r="J94"/>
+      <c s="16" r="K94"/>
+      <c s="41" r="L94"/>
+      <c s="29" r="M94"/>
       <c s="7" r="N94"/>
       <c s="7" r="O94"/>
       <c s="7" r="P94"/>
@@ -4070,18 +4253,18 @@
     </row>
     <row r="95">
       <c s="5" r="A95"/>
-      <c s="35" r="B95"/>
-      <c s="8" r="C95"/>
-      <c s="1" r="D95"/>
-      <c s="22" r="E95"/>
-      <c s="22" r="F95"/>
-      <c s="22" r="G95"/>
-      <c s="22" r="H95"/>
-      <c s="22" r="I95"/>
-      <c s="22" r="J95"/>
-      <c s="22" r="K95"/>
-      <c s="43" r="L95"/>
-      <c s="33" r="M95"/>
+      <c s="33" r="B95"/>
+      <c s="6" r="C95"/>
+      <c s="2" r="D95"/>
+      <c s="16" r="E95"/>
+      <c s="16" r="F95"/>
+      <c s="16" r="G95"/>
+      <c s="16" r="H95"/>
+      <c s="16" r="I95"/>
+      <c s="16" r="J95"/>
+      <c s="16" r="K95"/>
+      <c s="41" r="L95"/>
+      <c s="29" r="M95"/>
       <c s="7" r="N95"/>
       <c s="7" r="O95"/>
       <c s="7" r="P95"/>
@@ -4097,18 +4280,18 @@
     </row>
     <row r="96">
       <c s="5" r="A96"/>
-      <c s="35" r="B96"/>
-      <c s="8" r="C96"/>
-      <c s="1" r="D96"/>
-      <c s="22" r="E96"/>
-      <c s="22" r="F96"/>
-      <c s="22" r="G96"/>
-      <c s="22" r="H96"/>
-      <c s="22" r="I96"/>
-      <c s="22" r="J96"/>
-      <c s="22" r="K96"/>
-      <c s="43" r="L96"/>
-      <c s="33" r="M96"/>
+      <c s="33" r="B96"/>
+      <c s="6" r="C96"/>
+      <c s="2" r="D96"/>
+      <c s="16" r="E96"/>
+      <c s="16" r="F96"/>
+      <c s="16" r="G96"/>
+      <c s="16" r="H96"/>
+      <c s="16" r="I96"/>
+      <c s="16" r="J96"/>
+      <c s="16" r="K96"/>
+      <c s="41" r="L96"/>
+      <c s="29" r="M96"/>
       <c s="7" r="N96"/>
       <c s="7" r="O96"/>
       <c s="7" r="P96"/>
@@ -4124,18 +4307,18 @@
     </row>
     <row r="97">
       <c s="5" r="A97"/>
-      <c s="35" r="B97"/>
-      <c s="8" r="C97"/>
-      <c s="1" r="D97"/>
-      <c s="22" r="E97"/>
-      <c s="22" r="F97"/>
-      <c s="22" r="G97"/>
-      <c s="22" r="H97"/>
-      <c s="22" r="I97"/>
-      <c s="22" r="J97"/>
-      <c s="22" r="K97"/>
-      <c s="43" r="L97"/>
-      <c s="33" r="M97"/>
+      <c s="33" r="B97"/>
+      <c s="6" r="C97"/>
+      <c s="2" r="D97"/>
+      <c s="16" r="E97"/>
+      <c s="16" r="F97"/>
+      <c s="16" r="G97"/>
+      <c s="16" r="H97"/>
+      <c s="16" r="I97"/>
+      <c s="16" r="J97"/>
+      <c s="16" r="K97"/>
+      <c s="41" r="L97"/>
+      <c s="29" r="M97"/>
       <c s="7" r="N97"/>
       <c s="7" r="O97"/>
       <c s="7" r="P97"/>
@@ -4151,18 +4334,18 @@
     </row>
     <row r="98">
       <c s="5" r="A98"/>
-      <c s="35" r="B98"/>
-      <c s="8" r="C98"/>
-      <c s="1" r="D98"/>
-      <c s="22" r="E98"/>
-      <c s="22" r="F98"/>
-      <c s="22" r="G98"/>
-      <c s="22" r="H98"/>
-      <c s="22" r="I98"/>
-      <c s="22" r="J98"/>
-      <c s="22" r="K98"/>
-      <c s="43" r="L98"/>
-      <c s="33" r="M98"/>
+      <c s="33" r="B98"/>
+      <c s="6" r="C98"/>
+      <c s="2" r="D98"/>
+      <c s="16" r="E98"/>
+      <c s="16" r="F98"/>
+      <c s="16" r="G98"/>
+      <c s="16" r="H98"/>
+      <c s="16" r="I98"/>
+      <c s="16" r="J98"/>
+      <c s="16" r="K98"/>
+      <c s="41" r="L98"/>
+      <c s="29" r="M98"/>
       <c s="7" r="N98"/>
       <c s="7" r="O98"/>
       <c s="7" r="P98"/>
@@ -4178,18 +4361,18 @@
     </row>
     <row r="99">
       <c s="5" r="A99"/>
-      <c s="35" r="B99"/>
-      <c s="8" r="C99"/>
-      <c s="1" r="D99"/>
-      <c s="22" r="E99"/>
-      <c s="22" r="F99"/>
-      <c s="22" r="G99"/>
-      <c s="22" r="H99"/>
-      <c s="22" r="I99"/>
-      <c s="22" r="J99"/>
-      <c s="22" r="K99"/>
-      <c s="43" r="L99"/>
-      <c s="33" r="M99"/>
+      <c s="33" r="B99"/>
+      <c s="6" r="C99"/>
+      <c s="2" r="D99"/>
+      <c s="16" r="E99"/>
+      <c s="16" r="F99"/>
+      <c s="16" r="G99"/>
+      <c s="16" r="H99"/>
+      <c s="16" r="I99"/>
+      <c s="16" r="J99"/>
+      <c s="16" r="K99"/>
+      <c s="41" r="L99"/>
+      <c s="29" r="M99"/>
       <c s="7" r="N99"/>
       <c s="7" r="O99"/>
       <c s="7" r="P99"/>
@@ -4205,18 +4388,18 @@
     </row>
     <row r="100">
       <c s="5" r="A100"/>
-      <c s="35" r="B100"/>
-      <c s="8" r="C100"/>
-      <c s="1" r="D100"/>
-      <c s="22" r="E100"/>
-      <c s="22" r="F100"/>
-      <c s="22" r="G100"/>
-      <c s="22" r="H100"/>
-      <c s="22" r="I100"/>
-      <c s="22" r="J100"/>
-      <c s="22" r="K100"/>
-      <c s="43" r="L100"/>
-      <c s="33" r="M100"/>
+      <c s="33" r="B100"/>
+      <c s="6" r="C100"/>
+      <c s="2" r="D100"/>
+      <c s="16" r="E100"/>
+      <c s="16" r="F100"/>
+      <c s="16" r="G100"/>
+      <c s="16" r="H100"/>
+      <c s="16" r="I100"/>
+      <c s="16" r="J100"/>
+      <c s="16" r="K100"/>
+      <c s="41" r="L100"/>
+      <c s="29" r="M100"/>
       <c s="7" r="N100"/>
       <c s="7" r="O100"/>
       <c s="7" r="P100"/>
@@ -4231,31 +4414,31 @@
       <c s="7" r="Y100"/>
     </row>
     <row r="101">
-      <c s="17" r="A101"/>
-      <c s="25" r="B101"/>
-      <c s="27" r="C101"/>
-      <c s="13" r="D101"/>
-      <c s="40" r="E101"/>
-      <c s="40" r="F101"/>
-      <c s="40" r="G101"/>
-      <c s="40" r="H101"/>
-      <c s="40" r="I101"/>
-      <c s="40" r="J101"/>
-      <c s="40" r="K101"/>
-      <c s="46" r="L101"/>
-      <c s="32" r="M101"/>
-      <c s="26" r="N101"/>
-      <c s="26" r="O101"/>
-      <c s="26" r="P101"/>
-      <c s="26" r="Q101"/>
-      <c s="26" r="R101"/>
-      <c s="26" r="S101"/>
-      <c s="26" r="T101"/>
-      <c s="26" r="U101"/>
-      <c s="26" r="V101"/>
-      <c s="26" r="W101"/>
-      <c s="26" r="X101"/>
-      <c s="26" r="Y101"/>
+      <c s="11" r="A101"/>
+      <c s="19" r="B101"/>
+      <c s="22" r="C101"/>
+      <c s="9" r="D101"/>
+      <c s="37" r="E101"/>
+      <c s="37" r="F101"/>
+      <c s="37" r="G101"/>
+      <c s="37" r="H101"/>
+      <c s="37" r="I101"/>
+      <c s="37" r="J101"/>
+      <c s="37" r="K101"/>
+      <c s="44" r="L101"/>
+      <c s="28" r="M101"/>
+      <c s="21" r="N101"/>
+      <c s="21" r="O101"/>
+      <c s="21" r="P101"/>
+      <c s="21" r="Q101"/>
+      <c s="21" r="R101"/>
+      <c s="21" r="S101"/>
+      <c s="21" r="T101"/>
+      <c s="21" r="U101"/>
+      <c s="21" r="V101"/>
+      <c s="21" r="W101"/>
+      <c s="21" r="X101"/>
+      <c s="21" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4279,12 +4462,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" customWidth="1" max="1" width="10.43"/>
-    <col min="2" customWidth="1" max="2" width="6.86"/>
+    <col min="2" customWidth="1" max="2" width="9.14"/>
     <col min="3" customWidth="1" max="3" width="14.0"/>
     <col min="4" customWidth="1" max="4" width="16.29"/>
-    <col min="5" customWidth="1" max="5" width="5.0"/>
+    <col min="5" customWidth="1" max="5" width="8.86"/>
     <col min="6" customWidth="1" max="6" width="45.86"/>
     <col min="7" customWidth="1" max="7" width="9.29"/>
+    <col min="14" customWidth="1" max="14" width="33.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4339,7 +4523,160 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <f>D2+E2</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>SUM(G2:M2)</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c t="s" r="N2">
+        <v>33</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <f>D3+E3</f>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>SUM(G3:M3)</f>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" r="F3">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c t="s" r="N3">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c t="s" r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <f>D4+E4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUM(G4:M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c t="s" r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <f>D5+E5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>SUM(G5:M5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <f>D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>SUM(G6:M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c t="s" r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <f>D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>SUM(G7:M7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c t="s" r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <f>D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>SUM(G8:M8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <f>D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>SUM(G9:M9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4752,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -4427,16 +4764,51 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" r="F3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c t="s" r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4827,7 @@
     <col min="3" customWidth="1" max="3" width="14.0"/>
     <col min="4" customWidth="1" max="4" width="16.29"/>
     <col min="5" customWidth="1" max="5" width="5.0"/>
-    <col min="6" customWidth="1" max="6" width="45.86"/>
+    <col min="6" customWidth="1" max="6" width="36.29"/>
     <col min="7" customWidth="1" max="7" width="9.29"/>
   </cols>
   <sheetData>
@@ -4511,7 +4883,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -4523,19 +4895,51 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c t="s" r="O2">
-        <v>34</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" r="F3">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c t="s" r="N3">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4610,7 +5014,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4622,13 +5026,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4704,7 +5111,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4716,7 +5123,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4728,7 +5135,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4743,68 +5150,118 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" customWidth="1" max="1" width="10.43"/>
-    <col min="2" customWidth="1" max="2" width="6.86"/>
+    <col min="2" customWidth="1" max="2" width="10.14"/>
     <col min="3" customWidth="1" max="3" width="14.0"/>
     <col min="4" customWidth="1" max="4" width="16.29"/>
     <col min="5" customWidth="1" max="5" width="5.0"/>
-    <col min="6" customWidth="1" max="6" width="45.86"/>
+    <col min="6" customWidth="1" max="6" width="36.71"/>
     <col min="7" customWidth="1" max="7" width="9.29"/>
+    <col min="14" customWidth="1" max="14" width="37.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" r="B1">
+      <c t="s" s="39" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="39" r="B1">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c t="s" s="39" r="C1">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c t="s" s="39" r="D1">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c t="s" s="39" r="E1">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c t="s" s="39" r="F1">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c t="s" s="39" r="G1">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c t="s" s="39" r="H1">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c t="s" s="39" r="I1">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c t="s" s="39" r="J1">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c t="s" s="39" r="K1">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c t="s" s="39" r="L1">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c t="s" s="39" r="M1">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c t="s" s="39" r="N1">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c t="s" s="39" r="O1">
         <v>14</v>
       </c>
-    </row>
-    <row customHeight="1" r="2" ht="51.75">
-      <c r="A2">
+      <c s="32" r="P1"/>
+      <c s="32" r="Q1"/>
+      <c s="32" r="R1"/>
+      <c s="32" r="S1"/>
+      <c s="32" r="T1"/>
+      <c s="32" r="U1"/>
+      <c s="32" r="V1"/>
+      <c s="32" r="W1"/>
+      <c s="32" r="X1"/>
+      <c s="32" r="Y1"/>
+      <c s="32" r="Z1"/>
+    </row>
+    <row customHeight="1" r="2" ht="39.0">
+      <c s="12" r="A2">
         <v>1</v>
       </c>
-      <c t="s" r="B2">
-        <v>41</v>
-      </c>
+      <c t="s" s="12" r="B2">
+        <v>53</v>
+      </c>
+      <c s="12" r="C2">
+        <v>5</v>
+      </c>
+      <c s="12" r="D2">
+        <v>4</v>
+      </c>
+      <c s="12" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F2">
+        <v>54</v>
+      </c>
+      <c s="12" r="G2">
+        <v>4</v>
+      </c>
+      <c s="12" r="H2"/>
+      <c s="12" r="I2"/>
+      <c s="12" r="J2"/>
+      <c s="12" r="K2"/>
+      <c s="12" r="L2"/>
+      <c s="12" r="M2"/>
+      <c t="s" s="12" r="N2">
+        <v>55</v>
+      </c>
+      <c s="12" r="O2">
+        <v>8</v>
+      </c>
+      <c s="34" r="P2"/>
+      <c s="34" r="Q2"/>
+      <c s="34" r="R2"/>
+      <c s="34" r="S2"/>
+      <c s="34" r="T2"/>
+      <c s="34" r="U2"/>
+      <c s="34" r="V2"/>
+      <c s="34" r="W2"/>
+      <c s="34" r="X2"/>
+      <c s="34" r="Y2"/>
+      <c s="34" r="Z2"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -7,11 +7,10 @@
     <sheet sheetId="2" name="Fyodor" state="visible" r:id="rId4"/>
     <sheet sheetId="3" name="Chih-Chi" state="visible" r:id="rId5"/>
     <sheet sheetId="4" name="Gloria" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="Sheet22" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="Beth" state="visible" r:id="rId8"/>
-    <sheet sheetId="7" name="Imaad" state="visible" r:id="rId9"/>
-    <sheet sheetId="8" name="Samuel" state="visible" r:id="rId10"/>
-    <sheet sheetId="9" name="Chao-Te" state="visible" r:id="rId11"/>
+    <sheet sheetId="5" name="Beth" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="Imaad" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="Samuel" state="visible" r:id="rId9"/>
+    <sheet sheetId="8" name="Chao-Te" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -119,12 +118,41 @@
 * Video chat with Gloria to set up her MAMP</t>
       </text>
     </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <t xml:space="preserve">figuring out how to remove FK'd column in a migration. 1)remove FK, 2)remove index, 3) remove column.
+</t>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <t xml:space="preserve">* Commenting
+* Cleaning up code &amp; removing uneeded files.
+* Minor Design fixes
+* Bug fixes
+* Migration additions.</t>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0">
+      <text>
+        <t xml:space="preserve">* Communicated with Dloria about design specifics and how to accomplish some tasks. 
+* Taught team members how to work with Yii.  
+* Discussed with Beth various strategies on how to clean up the schema.
+</t>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0">
+      <text>
+        <t xml:space="preserve">code review.
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="115">
   <si>
     <t>week #</t>
   </si>
@@ -244,6 +272,19 @@
 - try to create a few unit tests</t>
   </si>
   <si>
+    <t>3 - Finished survey create page and its related code
+3 -  Cooperate with Fyodor with certain changes to the code (remove user levels, add survey title field)
+5 - Prepare and coordinate for next weeks presentation
+5 - Help the team fix version control issues and Yii framework issues
+5 - Plan next iteration/Add user stories/Change user story evaluations</t>
+  </si>
+  <si>
+    <t>- Coding of different type of questions
+- Write unit tests
+- Research phpdoc and plan documentation
+</t>
+  </si>
+  <si>
     <t>week</t>
   </si>
   <si>
@@ -311,6 +352,24 @@
     <t>Port login page to Yii framework</t>
   </si>
   <si>
+    <t>3 - Login/Register page and Yii framework intergration
+</t>
+  </si>
+  <si>
+    <t>Prepare for next weeks report
+Unit testing</t>
+  </si>
+  <si>
+    <t>0 - learning phpunit and unit testing
+3 - unit test case for survey creator model
+6 - presentation preparation</t>
+  </si>
+  <si>
+    <t>Help with implementing more survey question types
+More unit testing
+Learn php doc</t>
+  </si>
+  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -337,6 +396,12 @@
   </si>
   <si>
     <t>3 - Finish UI for iteration #1, 2 - Work on look &amp; feel, 6 - Presentation deck for Group Presentation</t>
+  </si>
+  <si>
+    <t>2 - Work on look &amp; feel, 3 - Finish UI for iteration #1, 6 - Presentation deck for Group Presentation</t>
+  </si>
+  <si>
+    <t>6 - PHP Documentation, 3 - Continue working on UI, 3 - Adding more questions</t>
   </si>
   <si>
     <t>Beth</t>
@@ -384,6 +449,13 @@
     <t>Prepare design section of presentation; update database design</t>
   </si>
   <si>
+    <t>1 - prepared for presentation
+2 - updated database design; did sample migration</t>
+  </si>
+  <si>
+    <t>Document code with PHPDoc</t>
+  </si>
+  <si>
     <t>Imaad</t>
   </si>
   <si>
@@ -426,6 +498,17 @@
   </si>
   <si>
     <t>1. Complete unti testing for one database table</t>
+  </si>
+  <si>
+    <t>0 - php unit, yii testing tutorials and documentation
+3 - Install php unit
+4 - unit test Survey table</t>
+  </si>
+  <si>
+    <t>1. Merge unit testing to master
+2. php documentation 
+3. Add more question types to the app
+4. Fix current bugs found and unit test again</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -486,6 +569,14 @@
 5 - communication / management</t>
   </si>
   <si>
+    <t>0 - learning yii framework
+0 - learning php
+3 - Unit Test implementation
+4 - Test case design
+4 - Unit test tool research
+5 - communication / management</t>
+  </si>
+  <si>
     <t>Total actual time</t>
   </si>
   <si>
@@ -547,6 +638,26 @@
     <t>Implement back-end functionalities with Imaad and Vincent
 Do research on SQL injection using Yii
 Code migration and test feature branch</t>
+  </si>
+  <si>
+    <t>0 - Read Yii APIs
+3 - PHP code integration with Yii
+</t>
+  </si>
+  <si>
+    <t>Unit test for survey_response table
+Read tutorial on unit test using Yii 
+Understand Yii APIs</t>
+  </si>
+  <si>
+    <t>0 - Setup and understand PHPUnit
+3 - Implement unit test for SurveyResponse model
+4 - Tested database CRUD function for existing models</t>
+  </si>
+  <si>
+    <t>Do more unit test, more test cases
+Understand 'Selenium Server'
+Generate php doc for existing implementation</t>
   </si>
 </sst>
 </file>
@@ -722,18 +833,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,13 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,6 +899,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -807,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,12 +954,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +983,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -897,12 +1014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,27 +1068,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -995,6 +1087,110 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1021,30 +1217,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1061,32 +1233,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1100,44 +1246,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1265,12 +1376,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1292,7 +1399,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1302,7 +1411,24 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1369,21 +1495,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1448,25 +1559,25 @@
     <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="2" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="5" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="3" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" fontId="0">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="5" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="7" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="8" fontId="0" applyFill="1">
@@ -1478,20 +1589,20 @@
     <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="11" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="2" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="4" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="5" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
@@ -1529,26 +1640,26 @@
     <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="10" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="10">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="27" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
+    <xf applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="11" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="12" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="13" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -1556,20 +1667,20 @@
     <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="34" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="14" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="36" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -1832,51 +1943,120 @@
       <c s="48" r="Z4"/>
     </row>
     <row r="5">
-      <c r="A5">
+      <c s="1" r="A5">
         <v>4</v>
       </c>
-      <c t="s" r="B5">
+      <c t="s" s="1" r="B5">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c s="1" r="C5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c s="1" r="D5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c t="s" r="F5">
+      <c s="1" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="F5">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c s="1" r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c s="1" r="H5">
+        <v>1</v>
+      </c>
+      <c s="1" r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c s="1" r="J5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c s="1" r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c s="1" r="L5">
+        <v>1</v>
+      </c>
+      <c s="1" r="M5">
         <v>0</v>
       </c>
-      <c t="s" r="N5">
+      <c t="s" s="1" r="N5">
         <v>23</v>
       </c>
-      <c r="O5">
+      <c s="1" r="O5">
         <v>10</v>
       </c>
+      <c s="1" r="P5"/>
+      <c s="1" r="Q5"/>
+      <c s="1" r="R5"/>
+      <c s="1" r="S5"/>
+      <c s="1" r="T5"/>
+      <c s="1" r="U5"/>
+      <c s="1" r="V5"/>
+      <c s="1" r="W5"/>
+      <c s="1" r="X5"/>
+      <c s="1" r="Y5"/>
+      <c s="1" r="Z5"/>
+    </row>
+    <row r="6">
+      <c s="48" r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" s="48" r="B6">
+        <v>15</v>
+      </c>
+      <c s="48" r="C6">
+        <v>15</v>
+      </c>
+      <c s="48" r="D6">
+        <v>14</v>
+      </c>
+      <c s="48" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="48" r="F6">
+        <v>24</v>
+      </c>
+      <c s="48" r="G6">
+        <v>0</v>
+      </c>
+      <c s="48" r="H6">
+        <v>0</v>
+      </c>
+      <c s="48" r="I6">
+        <v>0</v>
+      </c>
+      <c s="48" r="J6">
+        <v>10</v>
+      </c>
+      <c s="48" r="K6">
+        <v>0</v>
+      </c>
+      <c s="48" r="L6">
+        <v>4</v>
+      </c>
+      <c s="48" r="M6">
+        <v>0</v>
+      </c>
+      <c t="s" s="48" r="N6">
+        <v>25</v>
+      </c>
+      <c s="48" r="O6">
+        <v>7</v>
+      </c>
+      <c s="48" r="P6"/>
+      <c s="48" r="Q6"/>
+      <c s="48" r="R6"/>
+      <c s="48" r="S6"/>
+      <c s="48" r="T6"/>
+      <c s="48" r="U6"/>
+      <c s="48" r="V6"/>
+      <c s="48" r="W6"/>
+      <c s="48" r="X6"/>
+      <c s="48" r="Y6"/>
+      <c s="48" r="Z6"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1902,20 +2082,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="43" r="A1">
-        <v>24</v>
-      </c>
-      <c t="s" s="4" r="B1">
-        <v>25</v>
-      </c>
-      <c t="s" s="30" r="C1">
+      <c t="s" s="35" r="A1">
         <v>26</v>
       </c>
-      <c t="s" s="3" r="D1">
+      <c t="s" s="24" r="B1">
+        <v>27</v>
+      </c>
+      <c t="s" s="36" r="C1">
+        <v>28</v>
+      </c>
+      <c t="s" s="8" r="D1">
         <v>4</v>
       </c>
       <c t="s" s="21" r="E1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c s="21" r="F1"/>
       <c s="21" r="G1"/>
@@ -1923,2914 +2103,2934 @@
       <c s="21" r="I1"/>
       <c s="21" r="J1"/>
       <c s="21" r="K1"/>
-      <c t="s" s="24" r="L1">
+      <c t="s" s="19" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="8" r="M1">
+      <c t="s" s="16" r="M1">
         <v>14</v>
       </c>
-      <c s="9" r="N1"/>
-      <c s="7" r="O1"/>
-      <c s="7" r="P1"/>
-      <c s="7" r="Q1"/>
-      <c s="7" r="R1"/>
-      <c s="7" r="S1"/>
-      <c s="7" r="T1"/>
-      <c s="7" r="U1"/>
-      <c s="7" r="V1"/>
-      <c s="7" r="W1"/>
-      <c s="7" r="X1"/>
-      <c s="7" r="Y1"/>
+      <c s="6" r="N1"/>
+      <c s="5" r="O1"/>
+      <c s="5" r="P1"/>
+      <c s="5" r="Q1"/>
+      <c s="5" r="R1"/>
+      <c s="5" r="S1"/>
+      <c s="5" r="T1"/>
+      <c s="5" r="U1"/>
+      <c s="5" r="V1"/>
+      <c s="5" r="W1"/>
+      <c s="5" r="X1"/>
+      <c s="5" r="Y1"/>
     </row>
     <row r="2">
       <c s="25" r="A2"/>
-      <c s="35" r="B2"/>
+      <c s="34" r="B2"/>
       <c s="47" r="C2"/>
-      <c s="19" r="D2"/>
+      <c s="18" r="D2"/>
       <c t="s" s="21" r="E2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" s="21" r="F2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" s="21" r="G2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" s="21" r="H2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" s="21" r="I2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" s="21" r="J2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" s="21" r="K2">
-        <v>34</v>
-      </c>
-      <c s="18" r="L2"/>
-      <c s="16" r="M2"/>
+        <v>36</v>
+      </c>
+      <c s="17" r="L2"/>
+      <c s="14" r="M2"/>
       <c s="28" r="N2"/>
-      <c s="7" r="O2"/>
-      <c s="7" r="P2"/>
-      <c s="7" r="Q2"/>
-      <c s="7" r="R2"/>
-      <c s="7" r="S2"/>
-      <c s="7" r="T2"/>
-      <c s="7" r="U2"/>
-      <c s="7" r="V2"/>
-      <c s="7" r="W2"/>
-      <c s="7" r="X2"/>
-      <c s="7" r="Y2"/>
+      <c s="5" r="O2"/>
+      <c s="5" r="P2"/>
+      <c s="5" r="Q2"/>
+      <c s="5" r="R2"/>
+      <c s="5" r="S2"/>
+      <c s="5" r="T2"/>
+      <c s="5" r="U2"/>
+      <c s="5" r="V2"/>
+      <c s="5" r="W2"/>
+      <c s="5" r="X2"/>
+      <c s="5" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
-      <c s="5" r="A3">
-        <v>1</v>
-      </c>
-      <c s="36" r="B3">
+      <c s="3" r="A3">
+        <v>1</v>
+      </c>
+      <c s="37" r="B3">
         <f>SUM(C3:D3)</f>
         <v>5</v>
       </c>
-      <c s="13" r="C3">
+      <c s="11" r="C3">
         <f>SUM(E3:K3)</f>
         <v>4</v>
       </c>
-      <c s="37" r="D3">
-        <v>1</v>
-      </c>
-      <c s="10" r="E3">
+      <c s="38" r="D3">
+        <v>1</v>
+      </c>
+      <c s="7" r="E3">
         <v>0</v>
       </c>
-      <c s="10" r="F3">
-        <v>1</v>
-      </c>
-      <c s="10" r="G3">
+      <c s="7" r="F3">
+        <v>1</v>
+      </c>
+      <c s="7" r="G3">
         <v>0</v>
       </c>
-      <c s="10" r="H3">
-        <v>1</v>
-      </c>
-      <c s="10" r="I3">
+      <c s="7" r="H3">
+        <v>1</v>
+      </c>
+      <c s="7" r="I3">
         <v>0</v>
       </c>
-      <c s="10" r="J3">
-        <v>1</v>
-      </c>
-      <c s="10" r="K3">
-        <v>1</v>
-      </c>
-      <c s="42" r="L3">
+      <c s="7" r="J3">
+        <v>1</v>
+      </c>
+      <c s="7" r="K3">
+        <v>1</v>
+      </c>
+      <c s="43" r="L3">
         <v>3</v>
       </c>
-      <c s="12" r="M3">
+      <c s="10" r="M3">
         <v>5</v>
       </c>
       <c s="28" r="N3"/>
-      <c s="7" r="O3"/>
-      <c s="7" r="P3"/>
-      <c s="7" r="Q3"/>
-      <c s="7" r="R3"/>
-      <c s="7" r="S3"/>
-      <c s="7" r="T3"/>
-      <c s="7" r="U3"/>
-      <c s="7" r="V3"/>
-      <c s="7" r="W3"/>
-      <c s="7" r="X3"/>
-      <c s="7" r="Y3"/>
+      <c s="5" r="O3"/>
+      <c s="5" r="P3"/>
+      <c s="5" r="Q3"/>
+      <c s="5" r="R3"/>
+      <c s="5" r="S3"/>
+      <c s="5" r="T3"/>
+      <c s="5" r="U3"/>
+      <c s="5" r="V3"/>
+      <c s="5" r="W3"/>
+      <c s="5" r="X3"/>
+      <c s="5" r="Y3"/>
     </row>
     <row r="4">
-      <c s="5" r="A4">
+      <c s="3" r="A4">
         <v>2</v>
       </c>
-      <c s="33" r="B4">
+      <c s="32" r="B4">
         <f>SUM(C4:D4)</f>
         <v>3.5</v>
       </c>
-      <c s="6" r="C4">
+      <c s="4" r="C4">
         <f>SUM(E4:K4)</f>
         <v>3.5</v>
       </c>
       <c s="2" r="D4">
         <v>0</v>
       </c>
-      <c s="17" r="E4">
+      <c s="15" r="E4">
         <v>0</v>
       </c>
-      <c s="17" r="F4">
-        <v>1</v>
-      </c>
-      <c s="17" r="G4">
-        <v>1</v>
-      </c>
-      <c s="17" r="H4">
+      <c s="15" r="F4">
+        <v>1</v>
+      </c>
+      <c s="15" r="G4">
+        <v>1</v>
+      </c>
+      <c s="15" r="H4">
         <v>0.5</v>
       </c>
-      <c s="17" r="I4">
+      <c s="15" r="I4">
         <v>0</v>
       </c>
-      <c s="17" r="J4">
-        <v>1</v>
-      </c>
-      <c s="17" r="K4">
+      <c s="15" r="J4">
+        <v>1</v>
+      </c>
+      <c s="15" r="K4">
         <v>0</v>
       </c>
       <c s="44" r="L4">
         <v>4</v>
       </c>
-      <c s="31" r="M4">
+      <c s="30" r="M4">
         <v>5</v>
       </c>
       <c s="28" r="N4"/>
-      <c s="7" r="O4"/>
-      <c s="7" r="P4"/>
-      <c s="7" r="Q4"/>
-      <c s="7" r="R4"/>
-      <c s="7" r="S4"/>
-      <c s="7" r="T4"/>
-      <c s="7" r="U4"/>
-      <c s="7" r="V4"/>
-      <c s="7" r="W4"/>
-      <c s="7" r="X4"/>
-      <c s="7" r="Y4"/>
+      <c s="5" r="O4"/>
+      <c s="5" r="P4"/>
+      <c s="5" r="Q4"/>
+      <c s="5" r="R4"/>
+      <c s="5" r="S4"/>
+      <c s="5" r="T4"/>
+      <c s="5" r="U4"/>
+      <c s="5" r="V4"/>
+      <c s="5" r="W4"/>
+      <c s="5" r="X4"/>
+      <c s="5" r="Y4"/>
     </row>
     <row r="5">
-      <c s="5" r="A5">
+      <c s="3" r="A5">
         <v>3</v>
       </c>
-      <c s="33" r="B5">
+      <c s="32" r="B5">
         <f>SUM(C5:D5)</f>
         <v>9</v>
       </c>
-      <c s="6" r="C5">
+      <c s="4" r="C5">
         <f>SUM(E5:K5)</f>
         <v>8</v>
       </c>
       <c s="2" r="D5">
         <v>1</v>
       </c>
-      <c s="17" r="E5">
-        <v>1</v>
-      </c>
-      <c s="17" r="F5">
+      <c s="15" r="E5">
+        <v>1</v>
+      </c>
+      <c s="15" r="F5">
         <v>0</v>
       </c>
-      <c s="17" r="G5">
+      <c s="15" r="G5">
         <v>0</v>
       </c>
-      <c s="17" r="H5">
+      <c s="15" r="H5">
         <v>5</v>
       </c>
-      <c s="17" r="I5">
+      <c s="15" r="I5">
         <v>0</v>
       </c>
-      <c s="17" r="J5">
-        <v>1</v>
-      </c>
-      <c s="17" r="K5">
+      <c s="15" r="J5">
+        <v>1</v>
+      </c>
+      <c s="15" r="K5">
         <v>1</v>
       </c>
       <c s="44" r="L5">
         <v>6</v>
       </c>
-      <c s="31" r="M5">
+      <c s="30" r="M5">
         <v>8</v>
       </c>
       <c s="28" r="N5"/>
-      <c s="7" r="O5"/>
-      <c s="7" r="P5"/>
-      <c s="7" r="Q5"/>
-      <c s="7" r="R5"/>
-      <c s="7" r="S5"/>
-      <c s="7" r="T5"/>
-      <c s="7" r="U5"/>
-      <c s="7" r="V5"/>
-      <c s="7" r="W5"/>
-      <c s="7" r="X5"/>
-      <c s="7" r="Y5"/>
+      <c s="5" r="O5"/>
+      <c s="5" r="P5"/>
+      <c s="5" r="Q5"/>
+      <c s="5" r="R5"/>
+      <c s="5" r="S5"/>
+      <c s="5" r="T5"/>
+      <c s="5" r="U5"/>
+      <c s="5" r="V5"/>
+      <c s="5" r="W5"/>
+      <c s="5" r="X5"/>
+      <c s="5" r="Y5"/>
     </row>
     <row r="6">
-      <c s="5" r="A6">
+      <c s="3" r="A6">
         <v>4</v>
       </c>
-      <c s="33" r="B6">
+      <c s="32" r="B6">
         <f>SUM(C6:D6)</f>
         <v>9</v>
       </c>
-      <c s="6" r="C6">
+      <c s="4" r="C6">
         <f>SUM(E6:K6)</f>
         <v>8</v>
       </c>
       <c s="2" r="D6">
         <v>1</v>
       </c>
-      <c s="17" r="E6">
+      <c s="15" r="E6">
         <v>0</v>
       </c>
-      <c s="17" r="F6">
+      <c s="15" r="F6">
         <v>0</v>
       </c>
-      <c s="17" r="G6">
+      <c s="15" r="G6">
         <v>2</v>
       </c>
-      <c s="17" r="H6">
+      <c s="15" r="H6">
         <v>3</v>
       </c>
-      <c s="17" r="I6">
-        <v>1</v>
-      </c>
-      <c s="17" r="J6">
+      <c s="15" r="I6">
+        <v>1</v>
+      </c>
+      <c s="15" r="J6">
         <v>2</v>
       </c>
-      <c s="17" r="K6">
+      <c s="15" r="K6">
         <v>0</v>
       </c>
       <c s="44" r="L6">
         <v>7</v>
       </c>
-      <c s="31" r="M6">
+      <c s="30" r="M6">
         <v>9</v>
       </c>
       <c s="28" r="N6"/>
-      <c s="7" r="O6"/>
-      <c s="7" r="P6"/>
-      <c s="7" r="Q6"/>
-      <c s="7" r="R6"/>
-      <c s="7" r="S6"/>
-      <c s="7" r="T6"/>
-      <c s="7" r="U6"/>
-      <c s="7" r="V6"/>
-      <c s="7" r="W6"/>
-      <c s="7" r="X6"/>
-      <c s="7" r="Y6"/>
+      <c s="5" r="O6"/>
+      <c s="5" r="P6"/>
+      <c s="5" r="Q6"/>
+      <c s="5" r="R6"/>
+      <c s="5" r="S6"/>
+      <c s="5" r="T6"/>
+      <c s="5" r="U6"/>
+      <c s="5" r="V6"/>
+      <c s="5" r="W6"/>
+      <c s="5" r="X6"/>
+      <c s="5" r="Y6"/>
     </row>
     <row r="7">
-      <c s="5" r="A7">
+      <c s="3" r="A7">
         <v>5</v>
       </c>
-      <c s="33" r="B7">
+      <c s="32" r="B7">
         <f>SUM(C7:D7)</f>
+        <v>9</v>
+      </c>
+      <c s="4" r="C7">
+        <f>SUM(E7:K7)</f>
+        <v>8</v>
+      </c>
+      <c s="2" r="D7">
+        <v>1</v>
+      </c>
+      <c s="15" r="E7">
+        <v>1</v>
+      </c>
+      <c s="15" r="F7">
         <v>0</v>
       </c>
-      <c s="6" r="C7">
-        <f>SUM(E7:K7)</f>
+      <c s="15" r="G7">
+        <v>1</v>
+      </c>
+      <c s="15" r="H7">
+        <v>3</v>
+      </c>
+      <c s="15" r="I7">
         <v>0</v>
       </c>
-      <c s="2" r="D7"/>
-      <c s="17" r="E7"/>
-      <c s="17" r="F7"/>
-      <c s="17" r="G7"/>
-      <c s="17" r="H7"/>
-      <c s="17" r="I7"/>
-      <c s="17" r="J7"/>
-      <c s="17" r="K7"/>
-      <c s="44" r="L7"/>
-      <c s="31" r="M7"/>
+      <c s="15" r="J7">
+        <v>2</v>
+      </c>
+      <c s="15" r="K7">
+        <v>1</v>
+      </c>
+      <c s="44" r="L7">
+        <v>6</v>
+      </c>
+      <c s="30" r="M7">
+        <v>8</v>
+      </c>
       <c s="28" r="N7"/>
-      <c s="7" r="O7"/>
-      <c s="7" r="P7"/>
-      <c s="7" r="Q7"/>
-      <c s="7" r="R7"/>
-      <c s="7" r="S7"/>
-      <c s="7" r="T7"/>
-      <c s="7" r="U7"/>
-      <c s="7" r="V7"/>
-      <c s="7" r="W7"/>
-      <c s="7" r="X7"/>
-      <c s="7" r="Y7"/>
+      <c s="5" r="O7"/>
+      <c s="5" r="P7"/>
+      <c s="5" r="Q7"/>
+      <c s="5" r="R7"/>
+      <c s="5" r="S7"/>
+      <c s="5" r="T7"/>
+      <c s="5" r="U7"/>
+      <c s="5" r="V7"/>
+      <c s="5" r="W7"/>
+      <c s="5" r="X7"/>
+      <c s="5" r="Y7"/>
     </row>
     <row r="8">
-      <c s="5" r="A8">
+      <c s="3" r="A8">
         <v>6</v>
       </c>
-      <c s="33" r="B8">
+      <c s="32" r="B8">
         <f>SUM(C8:D8)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C8">
+      <c s="4" r="C8">
         <f>SUM(E8:K8)</f>
         <v>0</v>
       </c>
       <c s="2" r="D8"/>
-      <c s="17" r="E8"/>
-      <c s="17" r="F8"/>
-      <c s="17" r="G8"/>
-      <c s="17" r="H8"/>
-      <c s="17" r="I8"/>
-      <c s="17" r="J8"/>
-      <c s="17" r="K8"/>
+      <c s="15" r="E8"/>
+      <c s="15" r="F8"/>
+      <c s="15" r="G8"/>
+      <c s="15" r="H8"/>
+      <c s="15" r="I8"/>
+      <c s="15" r="J8"/>
+      <c s="15" r="K8"/>
       <c s="44" r="L8"/>
-      <c s="31" r="M8"/>
+      <c s="30" r="M8"/>
       <c s="28" r="N8"/>
-      <c s="7" r="O8"/>
-      <c s="7" r="P8"/>
-      <c s="7" r="Q8"/>
-      <c s="7" r="R8"/>
-      <c s="7" r="S8"/>
-      <c s="7" r="T8"/>
-      <c s="7" r="U8"/>
-      <c s="7" r="V8"/>
-      <c s="7" r="W8"/>
-      <c s="7" r="X8"/>
-      <c s="7" r="Y8"/>
+      <c s="5" r="O8"/>
+      <c s="5" r="P8"/>
+      <c s="5" r="Q8"/>
+      <c s="5" r="R8"/>
+      <c s="5" r="S8"/>
+      <c s="5" r="T8"/>
+      <c s="5" r="U8"/>
+      <c s="5" r="V8"/>
+      <c s="5" r="W8"/>
+      <c s="5" r="X8"/>
+      <c s="5" r="Y8"/>
     </row>
     <row r="9">
-      <c s="5" r="A9">
+      <c s="3" r="A9">
         <v>7</v>
       </c>
-      <c s="33" r="B9">
+      <c s="32" r="B9">
         <f>SUM(C9:D9)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C9">
+      <c s="4" r="C9">
         <f>SUM(E9:K9)</f>
         <v>0</v>
       </c>
       <c s="2" r="D9"/>
-      <c s="17" r="E9"/>
-      <c s="17" r="F9"/>
-      <c s="17" r="G9"/>
-      <c s="17" r="H9"/>
-      <c s="17" r="I9"/>
-      <c s="17" r="J9"/>
-      <c s="17" r="K9"/>
+      <c s="15" r="E9"/>
+      <c s="15" r="F9"/>
+      <c s="15" r="G9"/>
+      <c s="15" r="H9"/>
+      <c s="15" r="I9"/>
+      <c s="15" r="J9"/>
+      <c s="15" r="K9"/>
       <c s="44" r="L9"/>
-      <c s="31" r="M9"/>
+      <c s="30" r="M9"/>
       <c s="28" r="N9"/>
-      <c s="7" r="O9"/>
-      <c s="7" r="P9"/>
-      <c s="7" r="Q9"/>
-      <c s="7" r="R9"/>
-      <c s="7" r="S9"/>
-      <c s="7" r="T9"/>
-      <c s="7" r="U9"/>
-      <c s="7" r="V9"/>
-      <c s="7" r="W9"/>
-      <c s="7" r="X9"/>
-      <c s="7" r="Y9"/>
+      <c s="5" r="O9"/>
+      <c s="5" r="P9"/>
+      <c s="5" r="Q9"/>
+      <c s="5" r="R9"/>
+      <c s="5" r="S9"/>
+      <c s="5" r="T9"/>
+      <c s="5" r="U9"/>
+      <c s="5" r="V9"/>
+      <c s="5" r="W9"/>
+      <c s="5" r="X9"/>
+      <c s="5" r="Y9"/>
     </row>
     <row r="10">
-      <c s="5" r="A10">
+      <c s="3" r="A10">
         <v>8</v>
       </c>
-      <c s="33" r="B10">
+      <c s="32" r="B10">
         <f>SUM(C10:D10)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C10">
+      <c s="4" r="C10">
         <f>SUM(E10:K10)</f>
         <v>0</v>
       </c>
       <c s="2" r="D10"/>
-      <c s="17" r="E10"/>
-      <c s="17" r="F10"/>
-      <c s="17" r="G10"/>
-      <c s="17" r="H10"/>
-      <c s="17" r="I10"/>
-      <c s="17" r="J10"/>
-      <c s="17" r="K10"/>
+      <c s="15" r="E10"/>
+      <c s="15" r="F10"/>
+      <c s="15" r="G10"/>
+      <c s="15" r="H10"/>
+      <c s="15" r="I10"/>
+      <c s="15" r="J10"/>
+      <c s="15" r="K10"/>
       <c s="44" r="L10"/>
-      <c s="31" r="M10"/>
+      <c s="30" r="M10"/>
       <c s="28" r="N10"/>
-      <c s="7" r="O10"/>
-      <c s="7" r="P10"/>
-      <c s="7" r="Q10"/>
-      <c s="7" r="R10"/>
-      <c s="7" r="S10"/>
-      <c s="7" r="T10"/>
-      <c s="7" r="U10"/>
-      <c s="7" r="V10"/>
-      <c s="7" r="W10"/>
-      <c s="7" r="X10"/>
-      <c s="7" r="Y10"/>
+      <c s="5" r="O10"/>
+      <c s="5" r="P10"/>
+      <c s="5" r="Q10"/>
+      <c s="5" r="R10"/>
+      <c s="5" r="S10"/>
+      <c s="5" r="T10"/>
+      <c s="5" r="U10"/>
+      <c s="5" r="V10"/>
+      <c s="5" r="W10"/>
+      <c s="5" r="X10"/>
+      <c s="5" r="Y10"/>
     </row>
     <row r="11">
-      <c s="5" r="A11">
+      <c s="3" r="A11">
         <v>9</v>
       </c>
-      <c s="33" r="B11">
+      <c s="32" r="B11">
         <f>SUM(C11:D11)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C11">
+      <c s="4" r="C11">
         <f>SUM(E11:K11)</f>
         <v>0</v>
       </c>
       <c s="2" r="D11"/>
-      <c s="17" r="E11"/>
-      <c s="17" r="F11"/>
-      <c s="17" r="G11"/>
-      <c s="17" r="H11"/>
-      <c s="17" r="I11"/>
-      <c s="17" r="J11"/>
-      <c s="17" r="K11"/>
+      <c s="15" r="E11"/>
+      <c s="15" r="F11"/>
+      <c s="15" r="G11"/>
+      <c s="15" r="H11"/>
+      <c s="15" r="I11"/>
+      <c s="15" r="J11"/>
+      <c s="15" r="K11"/>
       <c s="44" r="L11"/>
-      <c s="31" r="M11"/>
+      <c s="30" r="M11"/>
       <c s="28" r="N11"/>
-      <c s="7" r="O11"/>
-      <c s="7" r="P11"/>
-      <c s="7" r="Q11"/>
-      <c s="7" r="R11"/>
-      <c s="7" r="S11"/>
-      <c s="7" r="T11"/>
-      <c s="7" r="U11"/>
-      <c s="7" r="V11"/>
-      <c s="7" r="W11"/>
-      <c s="7" r="X11"/>
-      <c s="7" r="Y11"/>
+      <c s="5" r="O11"/>
+      <c s="5" r="P11"/>
+      <c s="5" r="Q11"/>
+      <c s="5" r="R11"/>
+      <c s="5" r="S11"/>
+      <c s="5" r="T11"/>
+      <c s="5" r="U11"/>
+      <c s="5" r="V11"/>
+      <c s="5" r="W11"/>
+      <c s="5" r="X11"/>
+      <c s="5" r="Y11"/>
     </row>
     <row r="12">
-      <c s="5" r="A12">
+      <c s="3" r="A12">
         <v>10</v>
       </c>
-      <c s="33" r="B12">
+      <c s="32" r="B12">
         <f>SUM(C12:D12)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C12">
+      <c s="4" r="C12">
         <f>SUM(E12:K12)</f>
         <v>0</v>
       </c>
       <c s="2" r="D12"/>
-      <c s="17" r="E12"/>
-      <c s="17" r="F12"/>
-      <c s="17" r="G12"/>
-      <c s="17" r="H12"/>
-      <c s="17" r="I12"/>
-      <c s="17" r="J12"/>
-      <c s="17" r="K12"/>
+      <c s="15" r="E12"/>
+      <c s="15" r="F12"/>
+      <c s="15" r="G12"/>
+      <c s="15" r="H12"/>
+      <c s="15" r="I12"/>
+      <c s="15" r="J12"/>
+      <c s="15" r="K12"/>
       <c s="44" r="L12"/>
-      <c s="31" r="M12"/>
+      <c s="30" r="M12"/>
       <c s="28" r="N12"/>
-      <c s="7" r="O12"/>
-      <c s="7" r="P12"/>
-      <c s="7" r="Q12"/>
-      <c s="7" r="R12"/>
-      <c s="7" r="S12"/>
-      <c s="7" r="T12"/>
-      <c s="7" r="U12"/>
-      <c s="7" r="V12"/>
-      <c s="7" r="W12"/>
-      <c s="7" r="X12"/>
-      <c s="7" r="Y12"/>
+      <c s="5" r="O12"/>
+      <c s="5" r="P12"/>
+      <c s="5" r="Q12"/>
+      <c s="5" r="R12"/>
+      <c s="5" r="S12"/>
+      <c s="5" r="T12"/>
+      <c s="5" r="U12"/>
+      <c s="5" r="V12"/>
+      <c s="5" r="W12"/>
+      <c s="5" r="X12"/>
+      <c s="5" r="Y12"/>
     </row>
     <row r="13">
-      <c s="5" r="A13">
+      <c s="3" r="A13">
         <v>11</v>
       </c>
-      <c s="33" r="B13">
+      <c s="32" r="B13">
         <f>SUM(C13:D13)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C13">
+      <c s="4" r="C13">
         <f>SUM(E13:K13)</f>
         <v>0</v>
       </c>
       <c s="2" r="D13"/>
-      <c s="17" r="E13"/>
-      <c s="17" r="F13"/>
-      <c s="17" r="G13"/>
-      <c s="17" r="H13"/>
-      <c s="17" r="I13"/>
-      <c s="17" r="J13"/>
-      <c s="17" r="K13"/>
+      <c s="15" r="E13"/>
+      <c s="15" r="F13"/>
+      <c s="15" r="G13"/>
+      <c s="15" r="H13"/>
+      <c s="15" r="I13"/>
+      <c s="15" r="J13"/>
+      <c s="15" r="K13"/>
       <c s="44" r="L13"/>
-      <c s="31" r="M13"/>
+      <c s="30" r="M13"/>
       <c s="28" r="N13"/>
-      <c s="7" r="O13"/>
-      <c s="7" r="P13"/>
-      <c s="7" r="Q13"/>
-      <c s="7" r="R13"/>
-      <c s="7" r="S13"/>
-      <c s="7" r="T13"/>
-      <c s="7" r="U13"/>
-      <c s="7" r="V13"/>
-      <c s="7" r="W13"/>
-      <c s="7" r="X13"/>
-      <c s="7" r="Y13"/>
+      <c s="5" r="O13"/>
+      <c s="5" r="P13"/>
+      <c s="5" r="Q13"/>
+      <c s="5" r="R13"/>
+      <c s="5" r="S13"/>
+      <c s="5" r="T13"/>
+      <c s="5" r="U13"/>
+      <c s="5" r="V13"/>
+      <c s="5" r="W13"/>
+      <c s="5" r="X13"/>
+      <c s="5" r="Y13"/>
     </row>
     <row r="14">
-      <c s="5" r="A14">
+      <c s="3" r="A14">
         <v>12</v>
       </c>
-      <c s="33" r="B14">
+      <c s="32" r="B14">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c s="6" r="C14">
+      <c s="4" r="C14">
         <f>SUM(E14:K14)</f>
         <v>0</v>
       </c>
       <c s="2" r="D14"/>
-      <c s="17" r="E14"/>
-      <c s="17" r="F14"/>
-      <c s="17" r="G14"/>
-      <c s="17" r="H14"/>
-      <c s="17" r="I14"/>
-      <c s="17" r="J14"/>
-      <c s="17" r="K14"/>
+      <c s="15" r="E14"/>
+      <c s="15" r="F14"/>
+      <c s="15" r="G14"/>
+      <c s="15" r="H14"/>
+      <c s="15" r="I14"/>
+      <c s="15" r="J14"/>
+      <c s="15" r="K14"/>
       <c s="44" r="L14"/>
-      <c s="31" r="M14"/>
+      <c s="30" r="M14"/>
       <c s="28" r="N14"/>
-      <c s="7" r="O14"/>
-      <c s="7" r="P14"/>
-      <c s="7" r="Q14"/>
-      <c s="7" r="R14"/>
-      <c s="7" r="S14"/>
-      <c s="7" r="T14"/>
-      <c s="7" r="U14"/>
-      <c s="7" r="V14"/>
-      <c s="7" r="W14"/>
-      <c s="7" r="X14"/>
-      <c s="7" r="Y14"/>
+      <c s="5" r="O14"/>
+      <c s="5" r="P14"/>
+      <c s="5" r="Q14"/>
+      <c s="5" r="R14"/>
+      <c s="5" r="S14"/>
+      <c s="5" r="T14"/>
+      <c s="5" r="U14"/>
+      <c s="5" r="V14"/>
+      <c s="5" r="W14"/>
+      <c s="5" r="X14"/>
+      <c s="5" r="Y14"/>
     </row>
     <row r="15">
-      <c s="5" r="A15"/>
-      <c s="33" r="B15"/>
-      <c s="6" r="C15"/>
+      <c s="3" r="A15"/>
+      <c s="32" r="B15"/>
+      <c s="4" r="C15"/>
       <c s="2" r="D15"/>
-      <c s="17" r="E15"/>
-      <c s="17" r="F15"/>
-      <c s="17" r="G15"/>
-      <c s="17" r="H15"/>
-      <c s="17" r="I15"/>
-      <c s="17" r="J15"/>
-      <c s="17" r="K15"/>
+      <c s="15" r="E15"/>
+      <c s="15" r="F15"/>
+      <c s="15" r="G15"/>
+      <c s="15" r="H15"/>
+      <c s="15" r="I15"/>
+      <c s="15" r="J15"/>
+      <c s="15" r="K15"/>
       <c s="44" r="L15"/>
-      <c s="31" r="M15"/>
+      <c s="30" r="M15"/>
       <c s="28" r="N15"/>
-      <c s="7" r="O15"/>
-      <c s="7" r="P15"/>
-      <c s="7" r="Q15"/>
-      <c s="7" r="R15"/>
-      <c s="7" r="S15"/>
-      <c s="7" r="T15"/>
-      <c s="7" r="U15"/>
-      <c s="7" r="V15"/>
-      <c s="7" r="W15"/>
-      <c s="7" r="X15"/>
-      <c s="7" r="Y15"/>
+      <c s="5" r="O15"/>
+      <c s="5" r="P15"/>
+      <c s="5" r="Q15"/>
+      <c s="5" r="R15"/>
+      <c s="5" r="S15"/>
+      <c s="5" r="T15"/>
+      <c s="5" r="U15"/>
+      <c s="5" r="V15"/>
+      <c s="5" r="W15"/>
+      <c s="5" r="X15"/>
+      <c s="5" r="Y15"/>
     </row>
     <row r="16">
-      <c s="5" r="A16"/>
-      <c s="33" r="B16"/>
-      <c s="6" r="C16"/>
+      <c s="3" r="A16"/>
+      <c s="32" r="B16"/>
+      <c s="4" r="C16"/>
       <c s="2" r="D16"/>
-      <c s="17" r="E16"/>
-      <c s="17" r="F16"/>
-      <c s="17" r="G16"/>
-      <c s="17" r="H16"/>
-      <c s="17" r="I16"/>
-      <c s="17" r="J16"/>
-      <c s="17" r="K16"/>
+      <c s="15" r="E16"/>
+      <c s="15" r="F16"/>
+      <c s="15" r="G16"/>
+      <c s="15" r="H16"/>
+      <c s="15" r="I16"/>
+      <c s="15" r="J16"/>
+      <c s="15" r="K16"/>
       <c s="44" r="L16"/>
-      <c s="31" r="M16"/>
+      <c s="30" r="M16"/>
       <c s="28" r="N16"/>
-      <c s="7" r="O16"/>
-      <c s="7" r="P16"/>
-      <c s="7" r="Q16"/>
-      <c s="7" r="R16"/>
-      <c s="7" r="S16"/>
-      <c s="7" r="T16"/>
-      <c s="7" r="U16"/>
-      <c s="7" r="V16"/>
-      <c s="7" r="W16"/>
-      <c s="7" r="X16"/>
-      <c s="7" r="Y16"/>
+      <c s="5" r="O16"/>
+      <c s="5" r="P16"/>
+      <c s="5" r="Q16"/>
+      <c s="5" r="R16"/>
+      <c s="5" r="S16"/>
+      <c s="5" r="T16"/>
+      <c s="5" r="U16"/>
+      <c s="5" r="V16"/>
+      <c s="5" r="W16"/>
+      <c s="5" r="X16"/>
+      <c s="5" r="Y16"/>
     </row>
     <row r="17">
-      <c s="5" r="A17"/>
-      <c s="33" r="B17"/>
-      <c s="6" r="C17"/>
+      <c s="3" r="A17"/>
+      <c s="32" r="B17"/>
+      <c s="4" r="C17"/>
       <c s="2" r="D17"/>
-      <c s="17" r="E17"/>
-      <c s="17" r="F17"/>
-      <c s="17" r="G17"/>
-      <c s="17" r="H17"/>
-      <c s="17" r="I17"/>
-      <c s="17" r="J17"/>
-      <c s="17" r="K17"/>
+      <c s="15" r="E17"/>
+      <c s="15" r="F17"/>
+      <c s="15" r="G17"/>
+      <c s="15" r="H17"/>
+      <c s="15" r="I17"/>
+      <c s="15" r="J17"/>
+      <c s="15" r="K17"/>
       <c s="44" r="L17"/>
-      <c s="31" r="M17"/>
+      <c s="30" r="M17"/>
       <c s="28" r="N17"/>
-      <c s="7" r="O17"/>
-      <c s="7" r="P17"/>
-      <c s="7" r="Q17"/>
-      <c s="7" r="R17"/>
-      <c s="7" r="S17"/>
-      <c s="7" r="T17"/>
-      <c s="7" r="U17"/>
-      <c s="7" r="V17"/>
-      <c s="7" r="W17"/>
-      <c s="7" r="X17"/>
-      <c s="7" r="Y17"/>
+      <c s="5" r="O17"/>
+      <c s="5" r="P17"/>
+      <c s="5" r="Q17"/>
+      <c s="5" r="R17"/>
+      <c s="5" r="S17"/>
+      <c s="5" r="T17"/>
+      <c s="5" r="U17"/>
+      <c s="5" r="V17"/>
+      <c s="5" r="W17"/>
+      <c s="5" r="X17"/>
+      <c s="5" r="Y17"/>
     </row>
     <row r="18">
-      <c s="5" r="A18"/>
-      <c s="33" r="B18"/>
-      <c s="6" r="C18"/>
+      <c s="3" r="A18"/>
+      <c s="32" r="B18"/>
+      <c s="4" r="C18"/>
       <c s="2" r="D18"/>
-      <c s="17" r="E18"/>
-      <c s="17" r="F18"/>
-      <c s="17" r="G18"/>
-      <c s="17" r="H18"/>
-      <c s="17" r="I18"/>
-      <c s="17" r="J18"/>
-      <c s="17" r="K18"/>
+      <c s="15" r="E18"/>
+      <c s="15" r="F18"/>
+      <c s="15" r="G18"/>
+      <c s="15" r="H18"/>
+      <c s="15" r="I18"/>
+      <c s="15" r="J18"/>
+      <c s="15" r="K18"/>
       <c s="44" r="L18"/>
-      <c s="31" r="M18"/>
+      <c s="30" r="M18"/>
       <c s="28" r="N18"/>
-      <c s="7" r="O18"/>
-      <c s="7" r="P18"/>
-      <c s="7" r="Q18"/>
-      <c s="7" r="R18"/>
-      <c s="7" r="S18"/>
-      <c s="7" r="T18"/>
-      <c s="7" r="U18"/>
-      <c s="7" r="V18"/>
-      <c s="7" r="W18"/>
-      <c s="7" r="X18"/>
-      <c s="7" r="Y18"/>
+      <c s="5" r="O18"/>
+      <c s="5" r="P18"/>
+      <c s="5" r="Q18"/>
+      <c s="5" r="R18"/>
+      <c s="5" r="S18"/>
+      <c s="5" r="T18"/>
+      <c s="5" r="U18"/>
+      <c s="5" r="V18"/>
+      <c s="5" r="W18"/>
+      <c s="5" r="X18"/>
+      <c s="5" r="Y18"/>
     </row>
     <row r="19">
-      <c s="5" r="A19"/>
-      <c s="33" r="B19"/>
-      <c s="6" r="C19"/>
+      <c s="3" r="A19"/>
+      <c s="32" r="B19"/>
+      <c s="4" r="C19"/>
       <c s="2" r="D19"/>
-      <c s="17" r="E19"/>
-      <c s="17" r="F19"/>
-      <c s="17" r="G19"/>
-      <c s="17" r="H19"/>
-      <c s="17" r="I19"/>
-      <c s="17" r="J19"/>
-      <c s="17" r="K19"/>
+      <c s="15" r="E19"/>
+      <c s="15" r="F19"/>
+      <c s="15" r="G19"/>
+      <c s="15" r="H19"/>
+      <c s="15" r="I19"/>
+      <c s="15" r="J19"/>
+      <c s="15" r="K19"/>
       <c s="44" r="L19"/>
-      <c s="31" r="M19"/>
+      <c s="30" r="M19"/>
       <c s="28" r="N19"/>
-      <c s="7" r="O19"/>
-      <c s="7" r="P19"/>
-      <c s="7" r="Q19"/>
-      <c s="7" r="R19"/>
-      <c s="7" r="S19"/>
-      <c s="7" r="T19"/>
-      <c s="7" r="U19"/>
-      <c s="7" r="V19"/>
-      <c s="7" r="W19"/>
-      <c s="7" r="X19"/>
-      <c s="7" r="Y19"/>
+      <c s="5" r="O19"/>
+      <c s="5" r="P19"/>
+      <c s="5" r="Q19"/>
+      <c s="5" r="R19"/>
+      <c s="5" r="S19"/>
+      <c s="5" r="T19"/>
+      <c s="5" r="U19"/>
+      <c s="5" r="V19"/>
+      <c s="5" r="W19"/>
+      <c s="5" r="X19"/>
+      <c s="5" r="Y19"/>
     </row>
     <row r="20">
-      <c s="5" r="A20"/>
-      <c s="33" r="B20"/>
-      <c s="6" r="C20"/>
+      <c s="3" r="A20"/>
+      <c s="32" r="B20"/>
+      <c s="4" r="C20"/>
       <c s="2" r="D20"/>
-      <c s="17" r="E20"/>
-      <c s="17" r="F20"/>
-      <c s="17" r="G20"/>
-      <c s="17" r="H20"/>
-      <c s="17" r="I20"/>
-      <c s="17" r="J20"/>
-      <c s="17" r="K20"/>
+      <c s="15" r="E20"/>
+      <c s="15" r="F20"/>
+      <c s="15" r="G20"/>
+      <c s="15" r="H20"/>
+      <c s="15" r="I20"/>
+      <c s="15" r="J20"/>
+      <c s="15" r="K20"/>
       <c s="44" r="L20"/>
-      <c s="31" r="M20"/>
+      <c s="30" r="M20"/>
       <c s="28" r="N20"/>
-      <c s="7" r="O20"/>
-      <c s="7" r="P20"/>
-      <c s="7" r="Q20"/>
-      <c s="7" r="R20"/>
-      <c s="7" r="S20"/>
-      <c s="7" r="T20"/>
-      <c s="7" r="U20"/>
-      <c s="7" r="V20"/>
-      <c s="7" r="W20"/>
-      <c s="7" r="X20"/>
-      <c s="7" r="Y20"/>
+      <c s="5" r="O20"/>
+      <c s="5" r="P20"/>
+      <c s="5" r="Q20"/>
+      <c s="5" r="R20"/>
+      <c s="5" r="S20"/>
+      <c s="5" r="T20"/>
+      <c s="5" r="U20"/>
+      <c s="5" r="V20"/>
+      <c s="5" r="W20"/>
+      <c s="5" r="X20"/>
+      <c s="5" r="Y20"/>
     </row>
     <row r="21">
-      <c s="5" r="A21"/>
-      <c s="33" r="B21"/>
-      <c s="6" r="C21"/>
+      <c s="3" r="A21"/>
+      <c s="32" r="B21"/>
+      <c s="4" r="C21"/>
       <c s="2" r="D21"/>
-      <c s="17" r="E21"/>
-      <c s="17" r="F21"/>
-      <c s="17" r="G21"/>
-      <c s="17" r="H21"/>
-      <c s="17" r="I21"/>
-      <c s="17" r="J21"/>
-      <c s="17" r="K21"/>
+      <c s="15" r="E21"/>
+      <c s="15" r="F21"/>
+      <c s="15" r="G21"/>
+      <c s="15" r="H21"/>
+      <c s="15" r="I21"/>
+      <c s="15" r="J21"/>
+      <c s="15" r="K21"/>
       <c s="44" r="L21"/>
-      <c s="31" r="M21"/>
+      <c s="30" r="M21"/>
       <c s="28" r="N21"/>
-      <c s="7" r="O21"/>
-      <c s="7" r="P21"/>
-      <c s="7" r="Q21"/>
-      <c s="7" r="R21"/>
-      <c s="7" r="S21"/>
-      <c s="7" r="T21"/>
-      <c s="7" r="U21"/>
-      <c s="7" r="V21"/>
-      <c s="7" r="W21"/>
-      <c s="7" r="X21"/>
-      <c s="7" r="Y21"/>
+      <c s="5" r="O21"/>
+      <c s="5" r="P21"/>
+      <c s="5" r="Q21"/>
+      <c s="5" r="R21"/>
+      <c s="5" r="S21"/>
+      <c s="5" r="T21"/>
+      <c s="5" r="U21"/>
+      <c s="5" r="V21"/>
+      <c s="5" r="W21"/>
+      <c s="5" r="X21"/>
+      <c s="5" r="Y21"/>
     </row>
     <row r="22">
-      <c s="5" r="A22"/>
-      <c s="33" r="B22"/>
-      <c s="6" r="C22"/>
+      <c s="3" r="A22"/>
+      <c s="32" r="B22"/>
+      <c s="4" r="C22"/>
       <c s="2" r="D22"/>
-      <c s="17" r="E22"/>
-      <c s="17" r="F22"/>
-      <c s="17" r="G22"/>
-      <c s="17" r="H22"/>
-      <c s="17" r="I22"/>
-      <c s="17" r="J22"/>
-      <c s="17" r="K22"/>
+      <c s="15" r="E22"/>
+      <c s="15" r="F22"/>
+      <c s="15" r="G22"/>
+      <c s="15" r="H22"/>
+      <c s="15" r="I22"/>
+      <c s="15" r="J22"/>
+      <c s="15" r="K22"/>
       <c s="44" r="L22"/>
-      <c s="31" r="M22"/>
+      <c s="30" r="M22"/>
       <c s="28" r="N22"/>
-      <c s="7" r="O22"/>
-      <c s="7" r="P22"/>
-      <c s="7" r="Q22"/>
-      <c s="7" r="R22"/>
-      <c s="7" r="S22"/>
-      <c s="7" r="T22"/>
-      <c s="7" r="U22"/>
-      <c s="7" r="V22"/>
-      <c s="7" r="W22"/>
-      <c s="7" r="X22"/>
-      <c s="7" r="Y22"/>
+      <c s="5" r="O22"/>
+      <c s="5" r="P22"/>
+      <c s="5" r="Q22"/>
+      <c s="5" r="R22"/>
+      <c s="5" r="S22"/>
+      <c s="5" r="T22"/>
+      <c s="5" r="U22"/>
+      <c s="5" r="V22"/>
+      <c s="5" r="W22"/>
+      <c s="5" r="X22"/>
+      <c s="5" r="Y22"/>
     </row>
     <row r="23">
-      <c s="5" r="A23"/>
-      <c s="33" r="B23"/>
-      <c s="6" r="C23"/>
+      <c s="3" r="A23"/>
+      <c s="32" r="B23"/>
+      <c s="4" r="C23"/>
       <c s="2" r="D23"/>
-      <c s="17" r="E23"/>
-      <c s="17" r="F23"/>
-      <c s="17" r="G23"/>
-      <c s="17" r="H23"/>
-      <c s="17" r="I23"/>
-      <c s="17" r="J23"/>
-      <c s="17" r="K23"/>
+      <c s="15" r="E23"/>
+      <c s="15" r="F23"/>
+      <c s="15" r="G23"/>
+      <c s="15" r="H23"/>
+      <c s="15" r="I23"/>
+      <c s="15" r="J23"/>
+      <c s="15" r="K23"/>
       <c s="44" r="L23"/>
-      <c s="31" r="M23"/>
+      <c s="30" r="M23"/>
       <c s="28" r="N23"/>
-      <c s="7" r="O23"/>
-      <c s="7" r="P23"/>
-      <c s="7" r="Q23"/>
-      <c s="7" r="R23"/>
-      <c s="7" r="S23"/>
-      <c s="7" r="T23"/>
-      <c s="7" r="U23"/>
-      <c s="7" r="V23"/>
-      <c s="7" r="W23"/>
-      <c s="7" r="X23"/>
-      <c s="7" r="Y23"/>
+      <c s="5" r="O23"/>
+      <c s="5" r="P23"/>
+      <c s="5" r="Q23"/>
+      <c s="5" r="R23"/>
+      <c s="5" r="S23"/>
+      <c s="5" r="T23"/>
+      <c s="5" r="U23"/>
+      <c s="5" r="V23"/>
+      <c s="5" r="W23"/>
+      <c s="5" r="X23"/>
+      <c s="5" r="Y23"/>
     </row>
     <row r="24">
-      <c s="5" r="A24"/>
-      <c s="33" r="B24"/>
-      <c s="6" r="C24"/>
+      <c s="3" r="A24"/>
+      <c s="32" r="B24"/>
+      <c s="4" r="C24"/>
       <c s="2" r="D24"/>
-      <c s="17" r="E24"/>
-      <c s="17" r="F24"/>
-      <c s="17" r="G24"/>
-      <c s="17" r="H24"/>
-      <c s="17" r="I24"/>
-      <c s="17" r="J24"/>
-      <c s="17" r="K24"/>
+      <c s="15" r="E24"/>
+      <c s="15" r="F24"/>
+      <c s="15" r="G24"/>
+      <c s="15" r="H24"/>
+      <c s="15" r="I24"/>
+      <c s="15" r="J24"/>
+      <c s="15" r="K24"/>
       <c s="44" r="L24"/>
-      <c s="31" r="M24"/>
+      <c s="30" r="M24"/>
       <c s="28" r="N24"/>
-      <c s="7" r="O24"/>
-      <c s="7" r="P24"/>
-      <c s="7" r="Q24"/>
-      <c s="7" r="R24"/>
-      <c s="7" r="S24"/>
-      <c s="7" r="T24"/>
-      <c s="7" r="U24"/>
-      <c s="7" r="V24"/>
-      <c s="7" r="W24"/>
-      <c s="7" r="X24"/>
-      <c s="7" r="Y24"/>
+      <c s="5" r="O24"/>
+      <c s="5" r="P24"/>
+      <c s="5" r="Q24"/>
+      <c s="5" r="R24"/>
+      <c s="5" r="S24"/>
+      <c s="5" r="T24"/>
+      <c s="5" r="U24"/>
+      <c s="5" r="V24"/>
+      <c s="5" r="W24"/>
+      <c s="5" r="X24"/>
+      <c s="5" r="Y24"/>
     </row>
     <row r="25">
-      <c s="5" r="A25"/>
-      <c s="33" r="B25"/>
-      <c s="6" r="C25"/>
+      <c s="3" r="A25"/>
+      <c s="32" r="B25"/>
+      <c s="4" r="C25"/>
       <c s="2" r="D25"/>
-      <c s="17" r="E25"/>
-      <c s="17" r="F25"/>
-      <c s="17" r="G25"/>
-      <c s="17" r="H25"/>
-      <c s="17" r="I25"/>
-      <c s="17" r="J25"/>
-      <c s="17" r="K25"/>
+      <c s="15" r="E25"/>
+      <c s="15" r="F25"/>
+      <c s="15" r="G25"/>
+      <c s="15" r="H25"/>
+      <c s="15" r="I25"/>
+      <c s="15" r="J25"/>
+      <c s="15" r="K25"/>
       <c s="44" r="L25"/>
-      <c s="31" r="M25"/>
+      <c s="30" r="M25"/>
       <c s="28" r="N25"/>
-      <c s="7" r="O25"/>
-      <c s="7" r="P25"/>
-      <c s="7" r="Q25"/>
-      <c s="7" r="R25"/>
-      <c s="7" r="S25"/>
-      <c s="7" r="T25"/>
-      <c s="7" r="U25"/>
-      <c s="7" r="V25"/>
-      <c s="7" r="W25"/>
-      <c s="7" r="X25"/>
-      <c s="7" r="Y25"/>
+      <c s="5" r="O25"/>
+      <c s="5" r="P25"/>
+      <c s="5" r="Q25"/>
+      <c s="5" r="R25"/>
+      <c s="5" r="S25"/>
+      <c s="5" r="T25"/>
+      <c s="5" r="U25"/>
+      <c s="5" r="V25"/>
+      <c s="5" r="W25"/>
+      <c s="5" r="X25"/>
+      <c s="5" r="Y25"/>
     </row>
     <row r="26">
-      <c s="5" r="A26"/>
-      <c s="33" r="B26"/>
-      <c s="6" r="C26"/>
+      <c s="3" r="A26"/>
+      <c s="32" r="B26"/>
+      <c s="4" r="C26"/>
       <c s="2" r="D26"/>
-      <c s="17" r="E26"/>
-      <c s="17" r="F26"/>
-      <c s="17" r="G26"/>
-      <c s="17" r="H26"/>
-      <c s="17" r="I26"/>
-      <c s="17" r="J26"/>
-      <c s="17" r="K26"/>
+      <c s="15" r="E26"/>
+      <c s="15" r="F26"/>
+      <c s="15" r="G26"/>
+      <c s="15" r="H26"/>
+      <c s="15" r="I26"/>
+      <c s="15" r="J26"/>
+      <c s="15" r="K26"/>
       <c s="44" r="L26"/>
-      <c s="31" r="M26"/>
+      <c s="30" r="M26"/>
       <c s="28" r="N26"/>
-      <c s="7" r="O26"/>
-      <c s="7" r="P26"/>
-      <c s="7" r="Q26"/>
-      <c s="7" r="R26"/>
-      <c s="7" r="S26"/>
-      <c s="7" r="T26"/>
-      <c s="7" r="U26"/>
-      <c s="7" r="V26"/>
-      <c s="7" r="W26"/>
-      <c s="7" r="X26"/>
-      <c s="7" r="Y26"/>
+      <c s="5" r="O26"/>
+      <c s="5" r="P26"/>
+      <c s="5" r="Q26"/>
+      <c s="5" r="R26"/>
+      <c s="5" r="S26"/>
+      <c s="5" r="T26"/>
+      <c s="5" r="U26"/>
+      <c s="5" r="V26"/>
+      <c s="5" r="W26"/>
+      <c s="5" r="X26"/>
+      <c s="5" r="Y26"/>
     </row>
     <row r="27">
-      <c s="5" r="A27"/>
-      <c s="33" r="B27"/>
-      <c s="6" r="C27"/>
+      <c s="3" r="A27"/>
+      <c s="32" r="B27"/>
+      <c s="4" r="C27"/>
       <c s="2" r="D27"/>
-      <c s="17" r="E27"/>
-      <c s="17" r="F27"/>
-      <c s="17" r="G27"/>
-      <c s="17" r="H27"/>
-      <c s="17" r="I27"/>
-      <c s="17" r="J27"/>
-      <c s="17" r="K27"/>
+      <c s="15" r="E27"/>
+      <c s="15" r="F27"/>
+      <c s="15" r="G27"/>
+      <c s="15" r="H27"/>
+      <c s="15" r="I27"/>
+      <c s="15" r="J27"/>
+      <c s="15" r="K27"/>
       <c s="44" r="L27"/>
-      <c s="31" r="M27"/>
+      <c s="30" r="M27"/>
       <c s="28" r="N27"/>
-      <c s="7" r="O27"/>
-      <c s="7" r="P27"/>
-      <c s="7" r="Q27"/>
-      <c s="7" r="R27"/>
-      <c s="7" r="S27"/>
-      <c s="7" r="T27"/>
-      <c s="7" r="U27"/>
-      <c s="7" r="V27"/>
-      <c s="7" r="W27"/>
-      <c s="7" r="X27"/>
-      <c s="7" r="Y27"/>
+      <c s="5" r="O27"/>
+      <c s="5" r="P27"/>
+      <c s="5" r="Q27"/>
+      <c s="5" r="R27"/>
+      <c s="5" r="S27"/>
+      <c s="5" r="T27"/>
+      <c s="5" r="U27"/>
+      <c s="5" r="V27"/>
+      <c s="5" r="W27"/>
+      <c s="5" r="X27"/>
+      <c s="5" r="Y27"/>
     </row>
     <row r="28">
-      <c s="5" r="A28"/>
-      <c s="33" r="B28"/>
-      <c s="6" r="C28"/>
+      <c s="3" r="A28"/>
+      <c s="32" r="B28"/>
+      <c s="4" r="C28"/>
       <c s="2" r="D28"/>
-      <c s="17" r="E28"/>
-      <c s="17" r="F28"/>
-      <c s="17" r="G28"/>
-      <c s="17" r="H28"/>
-      <c s="17" r="I28"/>
-      <c s="17" r="J28"/>
-      <c s="17" r="K28"/>
+      <c s="15" r="E28"/>
+      <c s="15" r="F28"/>
+      <c s="15" r="G28"/>
+      <c s="15" r="H28"/>
+      <c s="15" r="I28"/>
+      <c s="15" r="J28"/>
+      <c s="15" r="K28"/>
       <c s="44" r="L28"/>
-      <c s="31" r="M28"/>
+      <c s="30" r="M28"/>
       <c s="28" r="N28"/>
-      <c s="7" r="O28"/>
-      <c s="7" r="P28"/>
-      <c s="7" r="Q28"/>
-      <c s="7" r="R28"/>
-      <c s="7" r="S28"/>
-      <c s="7" r="T28"/>
-      <c s="7" r="U28"/>
-      <c s="7" r="V28"/>
-      <c s="7" r="W28"/>
-      <c s="7" r="X28"/>
-      <c s="7" r="Y28"/>
+      <c s="5" r="O28"/>
+      <c s="5" r="P28"/>
+      <c s="5" r="Q28"/>
+      <c s="5" r="R28"/>
+      <c s="5" r="S28"/>
+      <c s="5" r="T28"/>
+      <c s="5" r="U28"/>
+      <c s="5" r="V28"/>
+      <c s="5" r="W28"/>
+      <c s="5" r="X28"/>
+      <c s="5" r="Y28"/>
     </row>
     <row r="29">
-      <c s="5" r="A29"/>
-      <c s="33" r="B29"/>
-      <c s="6" r="C29"/>
+      <c s="3" r="A29"/>
+      <c s="32" r="B29"/>
+      <c s="4" r="C29"/>
       <c s="2" r="D29"/>
-      <c s="17" r="E29"/>
-      <c s="17" r="F29"/>
-      <c s="17" r="G29"/>
-      <c s="17" r="H29"/>
-      <c s="17" r="I29"/>
-      <c s="17" r="J29"/>
-      <c s="17" r="K29"/>
+      <c s="15" r="E29"/>
+      <c s="15" r="F29"/>
+      <c s="15" r="G29"/>
+      <c s="15" r="H29"/>
+      <c s="15" r="I29"/>
+      <c s="15" r="J29"/>
+      <c s="15" r="K29"/>
       <c s="44" r="L29"/>
-      <c s="31" r="M29"/>
+      <c s="30" r="M29"/>
       <c s="28" r="N29"/>
-      <c s="7" r="O29"/>
-      <c s="7" r="P29"/>
-      <c s="7" r="Q29"/>
-      <c s="7" r="R29"/>
-      <c s="7" r="S29"/>
-      <c s="7" r="T29"/>
-      <c s="7" r="U29"/>
-      <c s="7" r="V29"/>
-      <c s="7" r="W29"/>
-      <c s="7" r="X29"/>
-      <c s="7" r="Y29"/>
+      <c s="5" r="O29"/>
+      <c s="5" r="P29"/>
+      <c s="5" r="Q29"/>
+      <c s="5" r="R29"/>
+      <c s="5" r="S29"/>
+      <c s="5" r="T29"/>
+      <c s="5" r="U29"/>
+      <c s="5" r="V29"/>
+      <c s="5" r="W29"/>
+      <c s="5" r="X29"/>
+      <c s="5" r="Y29"/>
     </row>
     <row r="30">
-      <c s="5" r="A30"/>
-      <c s="33" r="B30"/>
-      <c s="6" r="C30"/>
+      <c s="3" r="A30"/>
+      <c s="32" r="B30"/>
+      <c s="4" r="C30"/>
       <c s="2" r="D30"/>
-      <c s="17" r="E30"/>
-      <c s="17" r="F30"/>
-      <c s="17" r="G30"/>
-      <c s="17" r="H30"/>
-      <c s="17" r="I30"/>
-      <c s="17" r="J30"/>
-      <c s="17" r="K30"/>
+      <c s="15" r="E30"/>
+      <c s="15" r="F30"/>
+      <c s="15" r="G30"/>
+      <c s="15" r="H30"/>
+      <c s="15" r="I30"/>
+      <c s="15" r="J30"/>
+      <c s="15" r="K30"/>
       <c s="44" r="L30"/>
-      <c s="31" r="M30"/>
+      <c s="30" r="M30"/>
       <c s="28" r="N30"/>
-      <c s="7" r="O30"/>
-      <c s="7" r="P30"/>
-      <c s="7" r="Q30"/>
-      <c s="7" r="R30"/>
-      <c s="7" r="S30"/>
-      <c s="7" r="T30"/>
-      <c s="7" r="U30"/>
-      <c s="7" r="V30"/>
-      <c s="7" r="W30"/>
-      <c s="7" r="X30"/>
-      <c s="7" r="Y30"/>
+      <c s="5" r="O30"/>
+      <c s="5" r="P30"/>
+      <c s="5" r="Q30"/>
+      <c s="5" r="R30"/>
+      <c s="5" r="S30"/>
+      <c s="5" r="T30"/>
+      <c s="5" r="U30"/>
+      <c s="5" r="V30"/>
+      <c s="5" r="W30"/>
+      <c s="5" r="X30"/>
+      <c s="5" r="Y30"/>
     </row>
     <row r="31">
-      <c s="5" r="A31"/>
-      <c s="33" r="B31"/>
-      <c s="6" r="C31"/>
+      <c s="3" r="A31"/>
+      <c s="32" r="B31"/>
+      <c s="4" r="C31"/>
       <c s="2" r="D31"/>
-      <c s="17" r="E31"/>
-      <c s="17" r="F31"/>
-      <c s="17" r="G31"/>
-      <c s="17" r="H31"/>
-      <c s="17" r="I31"/>
-      <c s="17" r="J31"/>
-      <c s="17" r="K31"/>
+      <c s="15" r="E31"/>
+      <c s="15" r="F31"/>
+      <c s="15" r="G31"/>
+      <c s="15" r="H31"/>
+      <c s="15" r="I31"/>
+      <c s="15" r="J31"/>
+      <c s="15" r="K31"/>
       <c s="44" r="L31"/>
-      <c s="31" r="M31"/>
+      <c s="30" r="M31"/>
       <c s="28" r="N31"/>
-      <c s="7" r="O31"/>
-      <c s="7" r="P31"/>
-      <c s="7" r="Q31"/>
-      <c s="7" r="R31"/>
-      <c s="7" r="S31"/>
-      <c s="7" r="T31"/>
-      <c s="7" r="U31"/>
-      <c s="7" r="V31"/>
-      <c s="7" r="W31"/>
-      <c s="7" r="X31"/>
-      <c s="7" r="Y31"/>
+      <c s="5" r="O31"/>
+      <c s="5" r="P31"/>
+      <c s="5" r="Q31"/>
+      <c s="5" r="R31"/>
+      <c s="5" r="S31"/>
+      <c s="5" r="T31"/>
+      <c s="5" r="U31"/>
+      <c s="5" r="V31"/>
+      <c s="5" r="W31"/>
+      <c s="5" r="X31"/>
+      <c s="5" r="Y31"/>
     </row>
     <row r="32">
-      <c s="5" r="A32"/>
-      <c s="33" r="B32"/>
-      <c s="6" r="C32"/>
+      <c s="3" r="A32"/>
+      <c s="32" r="B32"/>
+      <c s="4" r="C32"/>
       <c s="2" r="D32"/>
-      <c s="17" r="E32"/>
-      <c s="17" r="F32"/>
-      <c s="17" r="G32"/>
-      <c s="17" r="H32"/>
-      <c s="17" r="I32"/>
-      <c s="17" r="J32"/>
-      <c s="17" r="K32"/>
+      <c s="15" r="E32"/>
+      <c s="15" r="F32"/>
+      <c s="15" r="G32"/>
+      <c s="15" r="H32"/>
+      <c s="15" r="I32"/>
+      <c s="15" r="J32"/>
+      <c s="15" r="K32"/>
       <c s="44" r="L32"/>
-      <c s="31" r="M32"/>
+      <c s="30" r="M32"/>
       <c s="28" r="N32"/>
-      <c s="7" r="O32"/>
-      <c s="7" r="P32"/>
-      <c s="7" r="Q32"/>
-      <c s="7" r="R32"/>
-      <c s="7" r="S32"/>
-      <c s="7" r="T32"/>
-      <c s="7" r="U32"/>
-      <c s="7" r="V32"/>
-      <c s="7" r="W32"/>
-      <c s="7" r="X32"/>
-      <c s="7" r="Y32"/>
+      <c s="5" r="O32"/>
+      <c s="5" r="P32"/>
+      <c s="5" r="Q32"/>
+      <c s="5" r="R32"/>
+      <c s="5" r="S32"/>
+      <c s="5" r="T32"/>
+      <c s="5" r="U32"/>
+      <c s="5" r="V32"/>
+      <c s="5" r="W32"/>
+      <c s="5" r="X32"/>
+      <c s="5" r="Y32"/>
     </row>
     <row r="33">
-      <c s="5" r="A33"/>
-      <c s="33" r="B33"/>
-      <c s="6" r="C33"/>
+      <c s="3" r="A33"/>
+      <c s="32" r="B33"/>
+      <c s="4" r="C33"/>
       <c s="2" r="D33"/>
-      <c s="17" r="E33"/>
-      <c s="17" r="F33"/>
-      <c s="17" r="G33"/>
-      <c s="17" r="H33"/>
-      <c s="17" r="I33"/>
-      <c s="17" r="J33"/>
-      <c s="17" r="K33"/>
+      <c s="15" r="E33"/>
+      <c s="15" r="F33"/>
+      <c s="15" r="G33"/>
+      <c s="15" r="H33"/>
+      <c s="15" r="I33"/>
+      <c s="15" r="J33"/>
+      <c s="15" r="K33"/>
       <c s="44" r="L33"/>
-      <c s="31" r="M33"/>
+      <c s="30" r="M33"/>
       <c s="28" r="N33"/>
-      <c s="7" r="O33"/>
-      <c s="7" r="P33"/>
-      <c s="7" r="Q33"/>
-      <c s="7" r="R33"/>
-      <c s="7" r="S33"/>
-      <c s="7" r="T33"/>
-      <c s="7" r="U33"/>
-      <c s="7" r="V33"/>
-      <c s="7" r="W33"/>
-      <c s="7" r="X33"/>
-      <c s="7" r="Y33"/>
+      <c s="5" r="O33"/>
+      <c s="5" r="P33"/>
+      <c s="5" r="Q33"/>
+      <c s="5" r="R33"/>
+      <c s="5" r="S33"/>
+      <c s="5" r="T33"/>
+      <c s="5" r="U33"/>
+      <c s="5" r="V33"/>
+      <c s="5" r="W33"/>
+      <c s="5" r="X33"/>
+      <c s="5" r="Y33"/>
     </row>
     <row r="34">
-      <c s="5" r="A34"/>
-      <c s="33" r="B34"/>
-      <c s="6" r="C34"/>
+      <c s="3" r="A34"/>
+      <c s="32" r="B34"/>
+      <c s="4" r="C34"/>
       <c s="2" r="D34"/>
-      <c s="17" r="E34"/>
-      <c s="17" r="F34"/>
-      <c s="17" r="G34"/>
-      <c s="17" r="H34"/>
-      <c s="17" r="I34"/>
-      <c s="17" r="J34"/>
-      <c s="17" r="K34"/>
+      <c s="15" r="E34"/>
+      <c s="15" r="F34"/>
+      <c s="15" r="G34"/>
+      <c s="15" r="H34"/>
+      <c s="15" r="I34"/>
+      <c s="15" r="J34"/>
+      <c s="15" r="K34"/>
       <c s="44" r="L34"/>
-      <c s="31" r="M34"/>
+      <c s="30" r="M34"/>
       <c s="28" r="N34"/>
-      <c s="7" r="O34"/>
-      <c s="7" r="P34"/>
-      <c s="7" r="Q34"/>
-      <c s="7" r="R34"/>
-      <c s="7" r="S34"/>
-      <c s="7" r="T34"/>
-      <c s="7" r="U34"/>
-      <c s="7" r="V34"/>
-      <c s="7" r="W34"/>
-      <c s="7" r="X34"/>
-      <c s="7" r="Y34"/>
+      <c s="5" r="O34"/>
+      <c s="5" r="P34"/>
+      <c s="5" r="Q34"/>
+      <c s="5" r="R34"/>
+      <c s="5" r="S34"/>
+      <c s="5" r="T34"/>
+      <c s="5" r="U34"/>
+      <c s="5" r="V34"/>
+      <c s="5" r="W34"/>
+      <c s="5" r="X34"/>
+      <c s="5" r="Y34"/>
     </row>
     <row r="35">
-      <c s="5" r="A35"/>
-      <c s="33" r="B35"/>
-      <c s="6" r="C35"/>
+      <c s="3" r="A35"/>
+      <c s="32" r="B35"/>
+      <c s="4" r="C35"/>
       <c s="2" r="D35"/>
-      <c s="17" r="E35"/>
-      <c s="17" r="F35"/>
-      <c s="17" r="G35"/>
-      <c s="17" r="H35"/>
-      <c s="17" r="I35"/>
-      <c s="17" r="J35"/>
-      <c s="17" r="K35"/>
+      <c s="15" r="E35"/>
+      <c s="15" r="F35"/>
+      <c s="15" r="G35"/>
+      <c s="15" r="H35"/>
+      <c s="15" r="I35"/>
+      <c s="15" r="J35"/>
+      <c s="15" r="K35"/>
       <c s="44" r="L35"/>
-      <c s="31" r="M35"/>
+      <c s="30" r="M35"/>
       <c s="28" r="N35"/>
-      <c s="7" r="O35"/>
-      <c s="7" r="P35"/>
-      <c s="7" r="Q35"/>
-      <c s="7" r="R35"/>
-      <c s="7" r="S35"/>
-      <c s="7" r="T35"/>
-      <c s="7" r="U35"/>
-      <c s="7" r="V35"/>
-      <c s="7" r="W35"/>
-      <c s="7" r="X35"/>
-      <c s="7" r="Y35"/>
+      <c s="5" r="O35"/>
+      <c s="5" r="P35"/>
+      <c s="5" r="Q35"/>
+      <c s="5" r="R35"/>
+      <c s="5" r="S35"/>
+      <c s="5" r="T35"/>
+      <c s="5" r="U35"/>
+      <c s="5" r="V35"/>
+      <c s="5" r="W35"/>
+      <c s="5" r="X35"/>
+      <c s="5" r="Y35"/>
     </row>
     <row r="36">
-      <c s="5" r="A36"/>
-      <c s="33" r="B36"/>
-      <c s="6" r="C36"/>
+      <c s="3" r="A36"/>
+      <c s="32" r="B36"/>
+      <c s="4" r="C36"/>
       <c s="2" r="D36"/>
-      <c s="17" r="E36"/>
-      <c s="17" r="F36"/>
-      <c s="17" r="G36"/>
-      <c s="17" r="H36"/>
-      <c s="17" r="I36"/>
-      <c s="17" r="J36"/>
-      <c s="17" r="K36"/>
+      <c s="15" r="E36"/>
+      <c s="15" r="F36"/>
+      <c s="15" r="G36"/>
+      <c s="15" r="H36"/>
+      <c s="15" r="I36"/>
+      <c s="15" r="J36"/>
+      <c s="15" r="K36"/>
       <c s="44" r="L36"/>
-      <c s="31" r="M36"/>
+      <c s="30" r="M36"/>
       <c s="28" r="N36"/>
-      <c s="7" r="O36"/>
-      <c s="7" r="P36"/>
-      <c s="7" r="Q36"/>
-      <c s="7" r="R36"/>
-      <c s="7" r="S36"/>
-      <c s="7" r="T36"/>
-      <c s="7" r="U36"/>
-      <c s="7" r="V36"/>
-      <c s="7" r="W36"/>
-      <c s="7" r="X36"/>
-      <c s="7" r="Y36"/>
+      <c s="5" r="O36"/>
+      <c s="5" r="P36"/>
+      <c s="5" r="Q36"/>
+      <c s="5" r="R36"/>
+      <c s="5" r="S36"/>
+      <c s="5" r="T36"/>
+      <c s="5" r="U36"/>
+      <c s="5" r="V36"/>
+      <c s="5" r="W36"/>
+      <c s="5" r="X36"/>
+      <c s="5" r="Y36"/>
     </row>
     <row r="37">
-      <c s="5" r="A37"/>
-      <c s="33" r="B37"/>
-      <c s="6" r="C37"/>
+      <c s="3" r="A37"/>
+      <c s="32" r="B37"/>
+      <c s="4" r="C37"/>
       <c s="2" r="D37"/>
-      <c s="17" r="E37"/>
-      <c s="17" r="F37"/>
-      <c s="17" r="G37"/>
-      <c s="17" r="H37"/>
-      <c s="17" r="I37"/>
-      <c s="17" r="J37"/>
-      <c s="17" r="K37"/>
+      <c s="15" r="E37"/>
+      <c s="15" r="F37"/>
+      <c s="15" r="G37"/>
+      <c s="15" r="H37"/>
+      <c s="15" r="I37"/>
+      <c s="15" r="J37"/>
+      <c s="15" r="K37"/>
       <c s="44" r="L37"/>
-      <c s="31" r="M37"/>
+      <c s="30" r="M37"/>
       <c s="28" r="N37"/>
-      <c s="7" r="O37"/>
-      <c s="7" r="P37"/>
-      <c s="7" r="Q37"/>
-      <c s="7" r="R37"/>
-      <c s="7" r="S37"/>
-      <c s="7" r="T37"/>
-      <c s="7" r="U37"/>
-      <c s="7" r="V37"/>
-      <c s="7" r="W37"/>
-      <c s="7" r="X37"/>
-      <c s="7" r="Y37"/>
+      <c s="5" r="O37"/>
+      <c s="5" r="P37"/>
+      <c s="5" r="Q37"/>
+      <c s="5" r="R37"/>
+      <c s="5" r="S37"/>
+      <c s="5" r="T37"/>
+      <c s="5" r="U37"/>
+      <c s="5" r="V37"/>
+      <c s="5" r="W37"/>
+      <c s="5" r="X37"/>
+      <c s="5" r="Y37"/>
     </row>
     <row r="38">
-      <c s="5" r="A38"/>
-      <c s="33" r="B38"/>
-      <c s="6" r="C38"/>
+      <c s="3" r="A38"/>
+      <c s="32" r="B38"/>
+      <c s="4" r="C38"/>
       <c s="2" r="D38"/>
-      <c s="17" r="E38"/>
-      <c s="17" r="F38"/>
-      <c s="17" r="G38"/>
-      <c s="17" r="H38"/>
-      <c s="17" r="I38"/>
-      <c s="17" r="J38"/>
-      <c s="17" r="K38"/>
+      <c s="15" r="E38"/>
+      <c s="15" r="F38"/>
+      <c s="15" r="G38"/>
+      <c s="15" r="H38"/>
+      <c s="15" r="I38"/>
+      <c s="15" r="J38"/>
+      <c s="15" r="K38"/>
       <c s="44" r="L38"/>
-      <c s="31" r="M38"/>
+      <c s="30" r="M38"/>
       <c s="28" r="N38"/>
-      <c s="7" r="O38"/>
-      <c s="7" r="P38"/>
-      <c s="7" r="Q38"/>
-      <c s="7" r="R38"/>
-      <c s="7" r="S38"/>
-      <c s="7" r="T38"/>
-      <c s="7" r="U38"/>
-      <c s="7" r="V38"/>
-      <c s="7" r="W38"/>
-      <c s="7" r="X38"/>
-      <c s="7" r="Y38"/>
+      <c s="5" r="O38"/>
+      <c s="5" r="P38"/>
+      <c s="5" r="Q38"/>
+      <c s="5" r="R38"/>
+      <c s="5" r="S38"/>
+      <c s="5" r="T38"/>
+      <c s="5" r="U38"/>
+      <c s="5" r="V38"/>
+      <c s="5" r="W38"/>
+      <c s="5" r="X38"/>
+      <c s="5" r="Y38"/>
     </row>
     <row r="39">
-      <c s="5" r="A39"/>
-      <c s="33" r="B39"/>
-      <c s="6" r="C39"/>
+      <c s="3" r="A39"/>
+      <c s="32" r="B39"/>
+      <c s="4" r="C39"/>
       <c s="2" r="D39"/>
-      <c s="17" r="E39"/>
-      <c s="17" r="F39"/>
-      <c s="17" r="G39"/>
-      <c s="17" r="H39"/>
-      <c s="17" r="I39"/>
-      <c s="17" r="J39"/>
-      <c s="17" r="K39"/>
+      <c s="15" r="E39"/>
+      <c s="15" r="F39"/>
+      <c s="15" r="G39"/>
+      <c s="15" r="H39"/>
+      <c s="15" r="I39"/>
+      <c s="15" r="J39"/>
+      <c s="15" r="K39"/>
       <c s="44" r="L39"/>
-      <c s="31" r="M39"/>
+      <c s="30" r="M39"/>
       <c s="28" r="N39"/>
-      <c s="7" r="O39"/>
-      <c s="7" r="P39"/>
-      <c s="7" r="Q39"/>
-      <c s="7" r="R39"/>
-      <c s="7" r="S39"/>
-      <c s="7" r="T39"/>
-      <c s="7" r="U39"/>
-      <c s="7" r="V39"/>
-      <c s="7" r="W39"/>
-      <c s="7" r="X39"/>
-      <c s="7" r="Y39"/>
+      <c s="5" r="O39"/>
+      <c s="5" r="P39"/>
+      <c s="5" r="Q39"/>
+      <c s="5" r="R39"/>
+      <c s="5" r="S39"/>
+      <c s="5" r="T39"/>
+      <c s="5" r="U39"/>
+      <c s="5" r="V39"/>
+      <c s="5" r="W39"/>
+      <c s="5" r="X39"/>
+      <c s="5" r="Y39"/>
     </row>
     <row r="40">
-      <c s="5" r="A40"/>
-      <c s="33" r="B40"/>
-      <c s="6" r="C40"/>
+      <c s="3" r="A40"/>
+      <c s="32" r="B40"/>
+      <c s="4" r="C40"/>
       <c s="2" r="D40"/>
-      <c s="17" r="E40"/>
-      <c s="17" r="F40"/>
-      <c s="17" r="G40"/>
-      <c s="17" r="H40"/>
-      <c s="17" r="I40"/>
-      <c s="17" r="J40"/>
-      <c s="17" r="K40"/>
+      <c s="15" r="E40"/>
+      <c s="15" r="F40"/>
+      <c s="15" r="G40"/>
+      <c s="15" r="H40"/>
+      <c s="15" r="I40"/>
+      <c s="15" r="J40"/>
+      <c s="15" r="K40"/>
       <c s="44" r="L40"/>
-      <c s="31" r="M40"/>
+      <c s="30" r="M40"/>
       <c s="28" r="N40"/>
-      <c s="7" r="O40"/>
-      <c s="7" r="P40"/>
-      <c s="7" r="Q40"/>
-      <c s="7" r="R40"/>
-      <c s="7" r="S40"/>
-      <c s="7" r="T40"/>
-      <c s="7" r="U40"/>
-      <c s="7" r="V40"/>
-      <c s="7" r="W40"/>
-      <c s="7" r="X40"/>
-      <c s="7" r="Y40"/>
+      <c s="5" r="O40"/>
+      <c s="5" r="P40"/>
+      <c s="5" r="Q40"/>
+      <c s="5" r="R40"/>
+      <c s="5" r="S40"/>
+      <c s="5" r="T40"/>
+      <c s="5" r="U40"/>
+      <c s="5" r="V40"/>
+      <c s="5" r="W40"/>
+      <c s="5" r="X40"/>
+      <c s="5" r="Y40"/>
     </row>
     <row r="41">
-      <c s="5" r="A41"/>
-      <c s="33" r="B41"/>
-      <c s="6" r="C41"/>
+      <c s="3" r="A41"/>
+      <c s="32" r="B41"/>
+      <c s="4" r="C41"/>
       <c s="2" r="D41"/>
-      <c s="17" r="E41"/>
-      <c s="17" r="F41"/>
-      <c s="17" r="G41"/>
-      <c s="17" r="H41"/>
-      <c s="17" r="I41"/>
-      <c s="17" r="J41"/>
-      <c s="17" r="K41"/>
+      <c s="15" r="E41"/>
+      <c s="15" r="F41"/>
+      <c s="15" r="G41"/>
+      <c s="15" r="H41"/>
+      <c s="15" r="I41"/>
+      <c s="15" r="J41"/>
+      <c s="15" r="K41"/>
       <c s="44" r="L41"/>
-      <c s="31" r="M41"/>
+      <c s="30" r="M41"/>
       <c s="28" r="N41"/>
-      <c s="7" r="O41"/>
-      <c s="7" r="P41"/>
-      <c s="7" r="Q41"/>
-      <c s="7" r="R41"/>
-      <c s="7" r="S41"/>
-      <c s="7" r="T41"/>
-      <c s="7" r="U41"/>
-      <c s="7" r="V41"/>
-      <c s="7" r="W41"/>
-      <c s="7" r="X41"/>
-      <c s="7" r="Y41"/>
+      <c s="5" r="O41"/>
+      <c s="5" r="P41"/>
+      <c s="5" r="Q41"/>
+      <c s="5" r="R41"/>
+      <c s="5" r="S41"/>
+      <c s="5" r="T41"/>
+      <c s="5" r="U41"/>
+      <c s="5" r="V41"/>
+      <c s="5" r="W41"/>
+      <c s="5" r="X41"/>
+      <c s="5" r="Y41"/>
     </row>
     <row r="42">
-      <c s="5" r="A42"/>
-      <c s="33" r="B42"/>
-      <c s="6" r="C42"/>
+      <c s="3" r="A42"/>
+      <c s="32" r="B42"/>
+      <c s="4" r="C42"/>
       <c s="2" r="D42"/>
-      <c s="17" r="E42"/>
-      <c s="17" r="F42"/>
-      <c s="17" r="G42"/>
-      <c s="17" r="H42"/>
-      <c s="17" r="I42"/>
-      <c s="17" r="J42"/>
-      <c s="17" r="K42"/>
+      <c s="15" r="E42"/>
+      <c s="15" r="F42"/>
+      <c s="15" r="G42"/>
+      <c s="15" r="H42"/>
+      <c s="15" r="I42"/>
+      <c s="15" r="J42"/>
+      <c s="15" r="K42"/>
       <c s="44" r="L42"/>
-      <c s="31" r="M42"/>
+      <c s="30" r="M42"/>
       <c s="28" r="N42"/>
-      <c s="7" r="O42"/>
-      <c s="7" r="P42"/>
-      <c s="7" r="Q42"/>
-      <c s="7" r="R42"/>
-      <c s="7" r="S42"/>
-      <c s="7" r="T42"/>
-      <c s="7" r="U42"/>
-      <c s="7" r="V42"/>
-      <c s="7" r="W42"/>
-      <c s="7" r="X42"/>
-      <c s="7" r="Y42"/>
+      <c s="5" r="O42"/>
+      <c s="5" r="P42"/>
+      <c s="5" r="Q42"/>
+      <c s="5" r="R42"/>
+      <c s="5" r="S42"/>
+      <c s="5" r="T42"/>
+      <c s="5" r="U42"/>
+      <c s="5" r="V42"/>
+      <c s="5" r="W42"/>
+      <c s="5" r="X42"/>
+      <c s="5" r="Y42"/>
     </row>
     <row r="43">
-      <c s="5" r="A43"/>
-      <c s="33" r="B43"/>
-      <c s="6" r="C43"/>
+      <c s="3" r="A43"/>
+      <c s="32" r="B43"/>
+      <c s="4" r="C43"/>
       <c s="2" r="D43"/>
-      <c s="17" r="E43"/>
-      <c s="17" r="F43"/>
-      <c s="17" r="G43"/>
-      <c s="17" r="H43"/>
-      <c s="17" r="I43"/>
-      <c s="17" r="J43"/>
-      <c s="17" r="K43"/>
+      <c s="15" r="E43"/>
+      <c s="15" r="F43"/>
+      <c s="15" r="G43"/>
+      <c s="15" r="H43"/>
+      <c s="15" r="I43"/>
+      <c s="15" r="J43"/>
+      <c s="15" r="K43"/>
       <c s="44" r="L43"/>
-      <c s="31" r="M43"/>
+      <c s="30" r="M43"/>
       <c s="28" r="N43"/>
-      <c s="7" r="O43"/>
-      <c s="7" r="P43"/>
-      <c s="7" r="Q43"/>
-      <c s="7" r="R43"/>
-      <c s="7" r="S43"/>
-      <c s="7" r="T43"/>
-      <c s="7" r="U43"/>
-      <c s="7" r="V43"/>
-      <c s="7" r="W43"/>
-      <c s="7" r="X43"/>
-      <c s="7" r="Y43"/>
+      <c s="5" r="O43"/>
+      <c s="5" r="P43"/>
+      <c s="5" r="Q43"/>
+      <c s="5" r="R43"/>
+      <c s="5" r="S43"/>
+      <c s="5" r="T43"/>
+      <c s="5" r="U43"/>
+      <c s="5" r="V43"/>
+      <c s="5" r="W43"/>
+      <c s="5" r="X43"/>
+      <c s="5" r="Y43"/>
     </row>
     <row r="44">
-      <c s="5" r="A44"/>
-      <c s="33" r="B44"/>
-      <c s="6" r="C44"/>
+      <c s="3" r="A44"/>
+      <c s="32" r="B44"/>
+      <c s="4" r="C44"/>
       <c s="2" r="D44"/>
-      <c s="17" r="E44"/>
-      <c s="17" r="F44"/>
-      <c s="17" r="G44"/>
-      <c s="17" r="H44"/>
-      <c s="17" r="I44"/>
-      <c s="17" r="J44"/>
-      <c s="17" r="K44"/>
+      <c s="15" r="E44"/>
+      <c s="15" r="F44"/>
+      <c s="15" r="G44"/>
+      <c s="15" r="H44"/>
+      <c s="15" r="I44"/>
+      <c s="15" r="J44"/>
+      <c s="15" r="K44"/>
       <c s="44" r="L44"/>
-      <c s="31" r="M44"/>
+      <c s="30" r="M44"/>
       <c s="28" r="N44"/>
-      <c s="7" r="O44"/>
-      <c s="7" r="P44"/>
-      <c s="7" r="Q44"/>
-      <c s="7" r="R44"/>
-      <c s="7" r="S44"/>
-      <c s="7" r="T44"/>
-      <c s="7" r="U44"/>
-      <c s="7" r="V44"/>
-      <c s="7" r="W44"/>
-      <c s="7" r="X44"/>
-      <c s="7" r="Y44"/>
+      <c s="5" r="O44"/>
+      <c s="5" r="P44"/>
+      <c s="5" r="Q44"/>
+      <c s="5" r="R44"/>
+      <c s="5" r="S44"/>
+      <c s="5" r="T44"/>
+      <c s="5" r="U44"/>
+      <c s="5" r="V44"/>
+      <c s="5" r="W44"/>
+      <c s="5" r="X44"/>
+      <c s="5" r="Y44"/>
     </row>
     <row r="45">
-      <c s="5" r="A45"/>
-      <c s="33" r="B45"/>
-      <c s="6" r="C45"/>
+      <c s="3" r="A45"/>
+      <c s="32" r="B45"/>
+      <c s="4" r="C45"/>
       <c s="2" r="D45"/>
-      <c s="17" r="E45"/>
-      <c s="17" r="F45"/>
-      <c s="17" r="G45"/>
-      <c s="17" r="H45"/>
-      <c s="17" r="I45"/>
-      <c s="17" r="J45"/>
-      <c s="17" r="K45"/>
+      <c s="15" r="E45"/>
+      <c s="15" r="F45"/>
+      <c s="15" r="G45"/>
+      <c s="15" r="H45"/>
+      <c s="15" r="I45"/>
+      <c s="15" r="J45"/>
+      <c s="15" r="K45"/>
       <c s="44" r="L45"/>
-      <c s="31" r="M45"/>
+      <c s="30" r="M45"/>
       <c s="28" r="N45"/>
-      <c s="7" r="O45"/>
-      <c s="7" r="P45"/>
-      <c s="7" r="Q45"/>
-      <c s="7" r="R45"/>
-      <c s="7" r="S45"/>
-      <c s="7" r="T45"/>
-      <c s="7" r="U45"/>
-      <c s="7" r="V45"/>
-      <c s="7" r="W45"/>
-      <c s="7" r="X45"/>
-      <c s="7" r="Y45"/>
+      <c s="5" r="O45"/>
+      <c s="5" r="P45"/>
+      <c s="5" r="Q45"/>
+      <c s="5" r="R45"/>
+      <c s="5" r="S45"/>
+      <c s="5" r="T45"/>
+      <c s="5" r="U45"/>
+      <c s="5" r="V45"/>
+      <c s="5" r="W45"/>
+      <c s="5" r="X45"/>
+      <c s="5" r="Y45"/>
     </row>
     <row r="46">
-      <c s="5" r="A46"/>
-      <c s="33" r="B46"/>
-      <c s="6" r="C46"/>
+      <c s="3" r="A46"/>
+      <c s="32" r="B46"/>
+      <c s="4" r="C46"/>
       <c s="2" r="D46"/>
-      <c s="17" r="E46"/>
-      <c s="17" r="F46"/>
-      <c s="17" r="G46"/>
-      <c s="17" r="H46"/>
-      <c s="17" r="I46"/>
-      <c s="17" r="J46"/>
-      <c s="17" r="K46"/>
+      <c s="15" r="E46"/>
+      <c s="15" r="F46"/>
+      <c s="15" r="G46"/>
+      <c s="15" r="H46"/>
+      <c s="15" r="I46"/>
+      <c s="15" r="J46"/>
+      <c s="15" r="K46"/>
       <c s="44" r="L46"/>
-      <c s="31" r="M46"/>
+      <c s="30" r="M46"/>
       <c s="28" r="N46"/>
-      <c s="7" r="O46"/>
-      <c s="7" r="P46"/>
-      <c s="7" r="Q46"/>
-      <c s="7" r="R46"/>
-      <c s="7" r="S46"/>
-      <c s="7" r="T46"/>
-      <c s="7" r="U46"/>
-      <c s="7" r="V46"/>
-      <c s="7" r="W46"/>
-      <c s="7" r="X46"/>
-      <c s="7" r="Y46"/>
+      <c s="5" r="O46"/>
+      <c s="5" r="P46"/>
+      <c s="5" r="Q46"/>
+      <c s="5" r="R46"/>
+      <c s="5" r="S46"/>
+      <c s="5" r="T46"/>
+      <c s="5" r="U46"/>
+      <c s="5" r="V46"/>
+      <c s="5" r="W46"/>
+      <c s="5" r="X46"/>
+      <c s="5" r="Y46"/>
     </row>
     <row r="47">
-      <c s="5" r="A47"/>
-      <c s="33" r="B47"/>
-      <c s="6" r="C47"/>
+      <c s="3" r="A47"/>
+      <c s="32" r="B47"/>
+      <c s="4" r="C47"/>
       <c s="2" r="D47"/>
-      <c s="17" r="E47"/>
-      <c s="17" r="F47"/>
-      <c s="17" r="G47"/>
-      <c s="17" r="H47"/>
-      <c s="17" r="I47"/>
-      <c s="17" r="J47"/>
-      <c s="17" r="K47"/>
+      <c s="15" r="E47"/>
+      <c s="15" r="F47"/>
+      <c s="15" r="G47"/>
+      <c s="15" r="H47"/>
+      <c s="15" r="I47"/>
+      <c s="15" r="J47"/>
+      <c s="15" r="K47"/>
       <c s="44" r="L47"/>
-      <c s="31" r="M47"/>
+      <c s="30" r="M47"/>
       <c s="28" r="N47"/>
-      <c s="7" r="O47"/>
-      <c s="7" r="P47"/>
-      <c s="7" r="Q47"/>
-      <c s="7" r="R47"/>
-      <c s="7" r="S47"/>
-      <c s="7" r="T47"/>
-      <c s="7" r="U47"/>
-      <c s="7" r="V47"/>
-      <c s="7" r="W47"/>
-      <c s="7" r="X47"/>
-      <c s="7" r="Y47"/>
+      <c s="5" r="O47"/>
+      <c s="5" r="P47"/>
+      <c s="5" r="Q47"/>
+      <c s="5" r="R47"/>
+      <c s="5" r="S47"/>
+      <c s="5" r="T47"/>
+      <c s="5" r="U47"/>
+      <c s="5" r="V47"/>
+      <c s="5" r="W47"/>
+      <c s="5" r="X47"/>
+      <c s="5" r="Y47"/>
     </row>
     <row r="48">
-      <c s="5" r="A48"/>
-      <c s="33" r="B48"/>
-      <c s="6" r="C48"/>
+      <c s="3" r="A48"/>
+      <c s="32" r="B48"/>
+      <c s="4" r="C48"/>
       <c s="2" r="D48"/>
-      <c s="17" r="E48"/>
-      <c s="17" r="F48"/>
-      <c s="17" r="G48"/>
-      <c s="17" r="H48"/>
-      <c s="17" r="I48"/>
-      <c s="17" r="J48"/>
-      <c s="17" r="K48"/>
+      <c s="15" r="E48"/>
+      <c s="15" r="F48"/>
+      <c s="15" r="G48"/>
+      <c s="15" r="H48"/>
+      <c s="15" r="I48"/>
+      <c s="15" r="J48"/>
+      <c s="15" r="K48"/>
       <c s="44" r="L48"/>
-      <c s="31" r="M48"/>
+      <c s="30" r="M48"/>
       <c s="28" r="N48"/>
-      <c s="7" r="O48"/>
-      <c s="7" r="P48"/>
-      <c s="7" r="Q48"/>
-      <c s="7" r="R48"/>
-      <c s="7" r="S48"/>
-      <c s="7" r="T48"/>
-      <c s="7" r="U48"/>
-      <c s="7" r="V48"/>
-      <c s="7" r="W48"/>
-      <c s="7" r="X48"/>
-      <c s="7" r="Y48"/>
+      <c s="5" r="O48"/>
+      <c s="5" r="P48"/>
+      <c s="5" r="Q48"/>
+      <c s="5" r="R48"/>
+      <c s="5" r="S48"/>
+      <c s="5" r="T48"/>
+      <c s="5" r="U48"/>
+      <c s="5" r="V48"/>
+      <c s="5" r="W48"/>
+      <c s="5" r="X48"/>
+      <c s="5" r="Y48"/>
     </row>
     <row r="49">
-      <c s="5" r="A49"/>
-      <c s="33" r="B49"/>
-      <c s="6" r="C49"/>
+      <c s="3" r="A49"/>
+      <c s="32" r="B49"/>
+      <c s="4" r="C49"/>
       <c s="2" r="D49"/>
-      <c s="17" r="E49"/>
-      <c s="17" r="F49"/>
-      <c s="17" r="G49"/>
-      <c s="17" r="H49"/>
-      <c s="17" r="I49"/>
-      <c s="17" r="J49"/>
-      <c s="17" r="K49"/>
+      <c s="15" r="E49"/>
+      <c s="15" r="F49"/>
+      <c s="15" r="G49"/>
+      <c s="15" r="H49"/>
+      <c s="15" r="I49"/>
+      <c s="15" r="J49"/>
+      <c s="15" r="K49"/>
       <c s="44" r="L49"/>
-      <c s="31" r="M49"/>
+      <c s="30" r="M49"/>
       <c s="28" r="N49"/>
-      <c s="7" r="O49"/>
-      <c s="7" r="P49"/>
-      <c s="7" r="Q49"/>
-      <c s="7" r="R49"/>
-      <c s="7" r="S49"/>
-      <c s="7" r="T49"/>
-      <c s="7" r="U49"/>
-      <c s="7" r="V49"/>
-      <c s="7" r="W49"/>
-      <c s="7" r="X49"/>
-      <c s="7" r="Y49"/>
+      <c s="5" r="O49"/>
+      <c s="5" r="P49"/>
+      <c s="5" r="Q49"/>
+      <c s="5" r="R49"/>
+      <c s="5" r="S49"/>
+      <c s="5" r="T49"/>
+      <c s="5" r="U49"/>
+      <c s="5" r="V49"/>
+      <c s="5" r="W49"/>
+      <c s="5" r="X49"/>
+      <c s="5" r="Y49"/>
     </row>
     <row r="50">
-      <c s="5" r="A50"/>
-      <c s="33" r="B50"/>
-      <c s="6" r="C50"/>
+      <c s="3" r="A50"/>
+      <c s="32" r="B50"/>
+      <c s="4" r="C50"/>
       <c s="2" r="D50"/>
-      <c s="17" r="E50"/>
-      <c s="17" r="F50"/>
-      <c s="17" r="G50"/>
-      <c s="17" r="H50"/>
-      <c s="17" r="I50"/>
-      <c s="17" r="J50"/>
-      <c s="17" r="K50"/>
+      <c s="15" r="E50"/>
+      <c s="15" r="F50"/>
+      <c s="15" r="G50"/>
+      <c s="15" r="H50"/>
+      <c s="15" r="I50"/>
+      <c s="15" r="J50"/>
+      <c s="15" r="K50"/>
       <c s="44" r="L50"/>
-      <c s="31" r="M50"/>
+      <c s="30" r="M50"/>
       <c s="28" r="N50"/>
-      <c s="7" r="O50"/>
-      <c s="7" r="P50"/>
-      <c s="7" r="Q50"/>
-      <c s="7" r="R50"/>
-      <c s="7" r="S50"/>
-      <c s="7" r="T50"/>
-      <c s="7" r="U50"/>
-      <c s="7" r="V50"/>
-      <c s="7" r="W50"/>
-      <c s="7" r="X50"/>
-      <c s="7" r="Y50"/>
+      <c s="5" r="O50"/>
+      <c s="5" r="P50"/>
+      <c s="5" r="Q50"/>
+      <c s="5" r="R50"/>
+      <c s="5" r="S50"/>
+      <c s="5" r="T50"/>
+      <c s="5" r="U50"/>
+      <c s="5" r="V50"/>
+      <c s="5" r="W50"/>
+      <c s="5" r="X50"/>
+      <c s="5" r="Y50"/>
     </row>
     <row r="51">
-      <c s="5" r="A51"/>
-      <c s="33" r="B51"/>
-      <c s="6" r="C51"/>
+      <c s="3" r="A51"/>
+      <c s="32" r="B51"/>
+      <c s="4" r="C51"/>
       <c s="2" r="D51"/>
-      <c s="17" r="E51"/>
-      <c s="17" r="F51"/>
-      <c s="17" r="G51"/>
-      <c s="17" r="H51"/>
-      <c s="17" r="I51"/>
-      <c s="17" r="J51"/>
-      <c s="17" r="K51"/>
+      <c s="15" r="E51"/>
+      <c s="15" r="F51"/>
+      <c s="15" r="G51"/>
+      <c s="15" r="H51"/>
+      <c s="15" r="I51"/>
+      <c s="15" r="J51"/>
+      <c s="15" r="K51"/>
       <c s="44" r="L51"/>
-      <c s="31" r="M51"/>
+      <c s="30" r="M51"/>
       <c s="28" r="N51"/>
-      <c s="7" r="O51"/>
-      <c s="7" r="P51"/>
-      <c s="7" r="Q51"/>
-      <c s="7" r="R51"/>
-      <c s="7" r="S51"/>
-      <c s="7" r="T51"/>
-      <c s="7" r="U51"/>
-      <c s="7" r="V51"/>
-      <c s="7" r="W51"/>
-      <c s="7" r="X51"/>
-      <c s="7" r="Y51"/>
+      <c s="5" r="O51"/>
+      <c s="5" r="P51"/>
+      <c s="5" r="Q51"/>
+      <c s="5" r="R51"/>
+      <c s="5" r="S51"/>
+      <c s="5" r="T51"/>
+      <c s="5" r="U51"/>
+      <c s="5" r="V51"/>
+      <c s="5" r="W51"/>
+      <c s="5" r="X51"/>
+      <c s="5" r="Y51"/>
     </row>
     <row r="52">
-      <c s="5" r="A52"/>
-      <c s="33" r="B52"/>
-      <c s="6" r="C52"/>
+      <c s="3" r="A52"/>
+      <c s="32" r="B52"/>
+      <c s="4" r="C52"/>
       <c s="2" r="D52"/>
-      <c s="17" r="E52"/>
-      <c s="17" r="F52"/>
-      <c s="17" r="G52"/>
-      <c s="17" r="H52"/>
-      <c s="17" r="I52"/>
-      <c s="17" r="J52"/>
-      <c s="17" r="K52"/>
+      <c s="15" r="E52"/>
+      <c s="15" r="F52"/>
+      <c s="15" r="G52"/>
+      <c s="15" r="H52"/>
+      <c s="15" r="I52"/>
+      <c s="15" r="J52"/>
+      <c s="15" r="K52"/>
       <c s="44" r="L52"/>
-      <c s="31" r="M52"/>
+      <c s="30" r="M52"/>
       <c s="28" r="N52"/>
-      <c s="7" r="O52"/>
-      <c s="7" r="P52"/>
-      <c s="7" r="Q52"/>
-      <c s="7" r="R52"/>
-      <c s="7" r="S52"/>
-      <c s="7" r="T52"/>
-      <c s="7" r="U52"/>
-      <c s="7" r="V52"/>
-      <c s="7" r="W52"/>
-      <c s="7" r="X52"/>
-      <c s="7" r="Y52"/>
+      <c s="5" r="O52"/>
+      <c s="5" r="P52"/>
+      <c s="5" r="Q52"/>
+      <c s="5" r="R52"/>
+      <c s="5" r="S52"/>
+      <c s="5" r="T52"/>
+      <c s="5" r="U52"/>
+      <c s="5" r="V52"/>
+      <c s="5" r="W52"/>
+      <c s="5" r="X52"/>
+      <c s="5" r="Y52"/>
     </row>
     <row r="53">
-      <c s="5" r="A53"/>
-      <c s="33" r="B53"/>
-      <c s="6" r="C53"/>
+      <c s="3" r="A53"/>
+      <c s="32" r="B53"/>
+      <c s="4" r="C53"/>
       <c s="2" r="D53"/>
-      <c s="17" r="E53"/>
-      <c s="17" r="F53"/>
-      <c s="17" r="G53"/>
-      <c s="17" r="H53"/>
-      <c s="17" r="I53"/>
-      <c s="17" r="J53"/>
-      <c s="17" r="K53"/>
+      <c s="15" r="E53"/>
+      <c s="15" r="F53"/>
+      <c s="15" r="G53"/>
+      <c s="15" r="H53"/>
+      <c s="15" r="I53"/>
+      <c s="15" r="J53"/>
+      <c s="15" r="K53"/>
       <c s="44" r="L53"/>
-      <c s="31" r="M53"/>
+      <c s="30" r="M53"/>
       <c s="28" r="N53"/>
-      <c s="7" r="O53"/>
-      <c s="7" r="P53"/>
-      <c s="7" r="Q53"/>
-      <c s="7" r="R53"/>
-      <c s="7" r="S53"/>
-      <c s="7" r="T53"/>
-      <c s="7" r="U53"/>
-      <c s="7" r="V53"/>
-      <c s="7" r="W53"/>
-      <c s="7" r="X53"/>
-      <c s="7" r="Y53"/>
+      <c s="5" r="O53"/>
+      <c s="5" r="P53"/>
+      <c s="5" r="Q53"/>
+      <c s="5" r="R53"/>
+      <c s="5" r="S53"/>
+      <c s="5" r="T53"/>
+      <c s="5" r="U53"/>
+      <c s="5" r="V53"/>
+      <c s="5" r="W53"/>
+      <c s="5" r="X53"/>
+      <c s="5" r="Y53"/>
     </row>
     <row r="54">
-      <c s="5" r="A54"/>
-      <c s="33" r="B54"/>
-      <c s="6" r="C54"/>
+      <c s="3" r="A54"/>
+      <c s="32" r="B54"/>
+      <c s="4" r="C54"/>
       <c s="2" r="D54"/>
-      <c s="17" r="E54"/>
-      <c s="17" r="F54"/>
-      <c s="17" r="G54"/>
-      <c s="17" r="H54"/>
-      <c s="17" r="I54"/>
-      <c s="17" r="J54"/>
-      <c s="17" r="K54"/>
+      <c s="15" r="E54"/>
+      <c s="15" r="F54"/>
+      <c s="15" r="G54"/>
+      <c s="15" r="H54"/>
+      <c s="15" r="I54"/>
+      <c s="15" r="J54"/>
+      <c s="15" r="K54"/>
       <c s="44" r="L54"/>
-      <c s="31" r="M54"/>
+      <c s="30" r="M54"/>
       <c s="28" r="N54"/>
-      <c s="7" r="O54"/>
-      <c s="7" r="P54"/>
-      <c s="7" r="Q54"/>
-      <c s="7" r="R54"/>
-      <c s="7" r="S54"/>
-      <c s="7" r="T54"/>
-      <c s="7" r="U54"/>
-      <c s="7" r="V54"/>
-      <c s="7" r="W54"/>
-      <c s="7" r="X54"/>
-      <c s="7" r="Y54"/>
+      <c s="5" r="O54"/>
+      <c s="5" r="P54"/>
+      <c s="5" r="Q54"/>
+      <c s="5" r="R54"/>
+      <c s="5" r="S54"/>
+      <c s="5" r="T54"/>
+      <c s="5" r="U54"/>
+      <c s="5" r="V54"/>
+      <c s="5" r="W54"/>
+      <c s="5" r="X54"/>
+      <c s="5" r="Y54"/>
     </row>
     <row r="55">
-      <c s="5" r="A55"/>
-      <c s="33" r="B55"/>
-      <c s="6" r="C55"/>
+      <c s="3" r="A55"/>
+      <c s="32" r="B55"/>
+      <c s="4" r="C55"/>
       <c s="2" r="D55"/>
-      <c s="17" r="E55"/>
-      <c s="17" r="F55"/>
-      <c s="17" r="G55"/>
-      <c s="17" r="H55"/>
-      <c s="17" r="I55"/>
-      <c s="17" r="J55"/>
-      <c s="17" r="K55"/>
+      <c s="15" r="E55"/>
+      <c s="15" r="F55"/>
+      <c s="15" r="G55"/>
+      <c s="15" r="H55"/>
+      <c s="15" r="I55"/>
+      <c s="15" r="J55"/>
+      <c s="15" r="K55"/>
       <c s="44" r="L55"/>
-      <c s="31" r="M55"/>
+      <c s="30" r="M55"/>
       <c s="28" r="N55"/>
-      <c s="7" r="O55"/>
-      <c s="7" r="P55"/>
-      <c s="7" r="Q55"/>
-      <c s="7" r="R55"/>
-      <c s="7" r="S55"/>
-      <c s="7" r="T55"/>
-      <c s="7" r="U55"/>
-      <c s="7" r="V55"/>
-      <c s="7" r="W55"/>
-      <c s="7" r="X55"/>
-      <c s="7" r="Y55"/>
+      <c s="5" r="O55"/>
+      <c s="5" r="P55"/>
+      <c s="5" r="Q55"/>
+      <c s="5" r="R55"/>
+      <c s="5" r="S55"/>
+      <c s="5" r="T55"/>
+      <c s="5" r="U55"/>
+      <c s="5" r="V55"/>
+      <c s="5" r="W55"/>
+      <c s="5" r="X55"/>
+      <c s="5" r="Y55"/>
     </row>
     <row r="56">
-      <c s="5" r="A56"/>
-      <c s="33" r="B56"/>
-      <c s="6" r="C56"/>
+      <c s="3" r="A56"/>
+      <c s="32" r="B56"/>
+      <c s="4" r="C56"/>
       <c s="2" r="D56"/>
-      <c s="17" r="E56"/>
-      <c s="17" r="F56"/>
-      <c s="17" r="G56"/>
-      <c s="17" r="H56"/>
-      <c s="17" r="I56"/>
-      <c s="17" r="J56"/>
-      <c s="17" r="K56"/>
+      <c s="15" r="E56"/>
+      <c s="15" r="F56"/>
+      <c s="15" r="G56"/>
+      <c s="15" r="H56"/>
+      <c s="15" r="I56"/>
+      <c s="15" r="J56"/>
+      <c s="15" r="K56"/>
       <c s="44" r="L56"/>
-      <c s="31" r="M56"/>
+      <c s="30" r="M56"/>
       <c s="28" r="N56"/>
-      <c s="7" r="O56"/>
-      <c s="7" r="P56"/>
-      <c s="7" r="Q56"/>
-      <c s="7" r="R56"/>
-      <c s="7" r="S56"/>
-      <c s="7" r="T56"/>
-      <c s="7" r="U56"/>
-      <c s="7" r="V56"/>
-      <c s="7" r="W56"/>
-      <c s="7" r="X56"/>
-      <c s="7" r="Y56"/>
+      <c s="5" r="O56"/>
+      <c s="5" r="P56"/>
+      <c s="5" r="Q56"/>
+      <c s="5" r="R56"/>
+      <c s="5" r="S56"/>
+      <c s="5" r="T56"/>
+      <c s="5" r="U56"/>
+      <c s="5" r="V56"/>
+      <c s="5" r="W56"/>
+      <c s="5" r="X56"/>
+      <c s="5" r="Y56"/>
     </row>
     <row r="57">
-      <c s="5" r="A57"/>
-      <c s="33" r="B57"/>
-      <c s="6" r="C57"/>
+      <c s="3" r="A57"/>
+      <c s="32" r="B57"/>
+      <c s="4" r="C57"/>
       <c s="2" r="D57"/>
-      <c s="17" r="E57"/>
-      <c s="17" r="F57"/>
-      <c s="17" r="G57"/>
-      <c s="17" r="H57"/>
-      <c s="17" r="I57"/>
-      <c s="17" r="J57"/>
-      <c s="17" r="K57"/>
+      <c s="15" r="E57"/>
+      <c s="15" r="F57"/>
+      <c s="15" r="G57"/>
+      <c s="15" r="H57"/>
+      <c s="15" r="I57"/>
+      <c s="15" r="J57"/>
+      <c s="15" r="K57"/>
       <c s="44" r="L57"/>
-      <c s="31" r="M57"/>
+      <c s="30" r="M57"/>
       <c s="28" r="N57"/>
-      <c s="7" r="O57"/>
-      <c s="7" r="P57"/>
-      <c s="7" r="Q57"/>
-      <c s="7" r="R57"/>
-      <c s="7" r="S57"/>
-      <c s="7" r="T57"/>
-      <c s="7" r="U57"/>
-      <c s="7" r="V57"/>
-      <c s="7" r="W57"/>
-      <c s="7" r="X57"/>
-      <c s="7" r="Y57"/>
+      <c s="5" r="O57"/>
+      <c s="5" r="P57"/>
+      <c s="5" r="Q57"/>
+      <c s="5" r="R57"/>
+      <c s="5" r="S57"/>
+      <c s="5" r="T57"/>
+      <c s="5" r="U57"/>
+      <c s="5" r="V57"/>
+      <c s="5" r="W57"/>
+      <c s="5" r="X57"/>
+      <c s="5" r="Y57"/>
     </row>
     <row r="58">
-      <c s="5" r="A58"/>
-      <c s="33" r="B58"/>
-      <c s="6" r="C58"/>
+      <c s="3" r="A58"/>
+      <c s="32" r="B58"/>
+      <c s="4" r="C58"/>
       <c s="2" r="D58"/>
-      <c s="17" r="E58"/>
-      <c s="17" r="F58"/>
-      <c s="17" r="G58"/>
-      <c s="17" r="H58"/>
-      <c s="17" r="I58"/>
-      <c s="17" r="J58"/>
-      <c s="17" r="K58"/>
+      <c s="15" r="E58"/>
+      <c s="15" r="F58"/>
+      <c s="15" r="G58"/>
+      <c s="15" r="H58"/>
+      <c s="15" r="I58"/>
+      <c s="15" r="J58"/>
+      <c s="15" r="K58"/>
       <c s="44" r="L58"/>
-      <c s="31" r="M58"/>
+      <c s="30" r="M58"/>
       <c s="28" r="N58"/>
-      <c s="7" r="O58"/>
-      <c s="7" r="P58"/>
-      <c s="7" r="Q58"/>
-      <c s="7" r="R58"/>
-      <c s="7" r="S58"/>
-      <c s="7" r="T58"/>
-      <c s="7" r="U58"/>
-      <c s="7" r="V58"/>
-      <c s="7" r="W58"/>
-      <c s="7" r="X58"/>
-      <c s="7" r="Y58"/>
+      <c s="5" r="O58"/>
+      <c s="5" r="P58"/>
+      <c s="5" r="Q58"/>
+      <c s="5" r="R58"/>
+      <c s="5" r="S58"/>
+      <c s="5" r="T58"/>
+      <c s="5" r="U58"/>
+      <c s="5" r="V58"/>
+      <c s="5" r="W58"/>
+      <c s="5" r="X58"/>
+      <c s="5" r="Y58"/>
     </row>
     <row r="59">
-      <c s="5" r="A59"/>
-      <c s="33" r="B59"/>
-      <c s="6" r="C59"/>
+      <c s="3" r="A59"/>
+      <c s="32" r="B59"/>
+      <c s="4" r="C59"/>
       <c s="2" r="D59"/>
-      <c s="17" r="E59"/>
-      <c s="17" r="F59"/>
-      <c s="17" r="G59"/>
-      <c s="17" r="H59"/>
-      <c s="17" r="I59"/>
-      <c s="17" r="J59"/>
-      <c s="17" r="K59"/>
+      <c s="15" r="E59"/>
+      <c s="15" r="F59"/>
+      <c s="15" r="G59"/>
+      <c s="15" r="H59"/>
+      <c s="15" r="I59"/>
+      <c s="15" r="J59"/>
+      <c s="15" r="K59"/>
       <c s="44" r="L59"/>
-      <c s="31" r="M59"/>
+      <c s="30" r="M59"/>
       <c s="28" r="N59"/>
-      <c s="7" r="O59"/>
-      <c s="7" r="P59"/>
-      <c s="7" r="Q59"/>
-      <c s="7" r="R59"/>
-      <c s="7" r="S59"/>
-      <c s="7" r="T59"/>
-      <c s="7" r="U59"/>
-      <c s="7" r="V59"/>
-      <c s="7" r="W59"/>
-      <c s="7" r="X59"/>
-      <c s="7" r="Y59"/>
+      <c s="5" r="O59"/>
+      <c s="5" r="P59"/>
+      <c s="5" r="Q59"/>
+      <c s="5" r="R59"/>
+      <c s="5" r="S59"/>
+      <c s="5" r="T59"/>
+      <c s="5" r="U59"/>
+      <c s="5" r="V59"/>
+      <c s="5" r="W59"/>
+      <c s="5" r="X59"/>
+      <c s="5" r="Y59"/>
     </row>
     <row r="60">
-      <c s="5" r="A60"/>
-      <c s="33" r="B60"/>
-      <c s="6" r="C60"/>
+      <c s="3" r="A60"/>
+      <c s="32" r="B60"/>
+      <c s="4" r="C60"/>
       <c s="2" r="D60"/>
-      <c s="17" r="E60"/>
-      <c s="17" r="F60"/>
-      <c s="17" r="G60"/>
-      <c s="17" r="H60"/>
-      <c s="17" r="I60"/>
-      <c s="17" r="J60"/>
-      <c s="17" r="K60"/>
+      <c s="15" r="E60"/>
+      <c s="15" r="F60"/>
+      <c s="15" r="G60"/>
+      <c s="15" r="H60"/>
+      <c s="15" r="I60"/>
+      <c s="15" r="J60"/>
+      <c s="15" r="K60"/>
       <c s="44" r="L60"/>
-      <c s="31" r="M60"/>
+      <c s="30" r="M60"/>
       <c s="28" r="N60"/>
-      <c s="7" r="O60"/>
-      <c s="7" r="P60"/>
-      <c s="7" r="Q60"/>
-      <c s="7" r="R60"/>
-      <c s="7" r="S60"/>
-      <c s="7" r="T60"/>
-      <c s="7" r="U60"/>
-      <c s="7" r="V60"/>
-      <c s="7" r="W60"/>
-      <c s="7" r="X60"/>
-      <c s="7" r="Y60"/>
+      <c s="5" r="O60"/>
+      <c s="5" r="P60"/>
+      <c s="5" r="Q60"/>
+      <c s="5" r="R60"/>
+      <c s="5" r="S60"/>
+      <c s="5" r="T60"/>
+      <c s="5" r="U60"/>
+      <c s="5" r="V60"/>
+      <c s="5" r="W60"/>
+      <c s="5" r="X60"/>
+      <c s="5" r="Y60"/>
     </row>
     <row r="61">
-      <c s="5" r="A61"/>
-      <c s="33" r="B61"/>
-      <c s="6" r="C61"/>
+      <c s="3" r="A61"/>
+      <c s="32" r="B61"/>
+      <c s="4" r="C61"/>
       <c s="2" r="D61"/>
-      <c s="17" r="E61"/>
-      <c s="17" r="F61"/>
-      <c s="17" r="G61"/>
-      <c s="17" r="H61"/>
-      <c s="17" r="I61"/>
-      <c s="17" r="J61"/>
-      <c s="17" r="K61"/>
+      <c s="15" r="E61"/>
+      <c s="15" r="F61"/>
+      <c s="15" r="G61"/>
+      <c s="15" r="H61"/>
+      <c s="15" r="I61"/>
+      <c s="15" r="J61"/>
+      <c s="15" r="K61"/>
       <c s="44" r="L61"/>
-      <c s="31" r="M61"/>
+      <c s="30" r="M61"/>
       <c s="28" r="N61"/>
-      <c s="7" r="O61"/>
-      <c s="7" r="P61"/>
-      <c s="7" r="Q61"/>
-      <c s="7" r="R61"/>
-      <c s="7" r="S61"/>
-      <c s="7" r="T61"/>
-      <c s="7" r="U61"/>
-      <c s="7" r="V61"/>
-      <c s="7" r="W61"/>
-      <c s="7" r="X61"/>
-      <c s="7" r="Y61"/>
+      <c s="5" r="O61"/>
+      <c s="5" r="P61"/>
+      <c s="5" r="Q61"/>
+      <c s="5" r="R61"/>
+      <c s="5" r="S61"/>
+      <c s="5" r="T61"/>
+      <c s="5" r="U61"/>
+      <c s="5" r="V61"/>
+      <c s="5" r="W61"/>
+      <c s="5" r="X61"/>
+      <c s="5" r="Y61"/>
     </row>
     <row r="62">
-      <c s="5" r="A62"/>
-      <c s="33" r="B62"/>
-      <c s="6" r="C62"/>
+      <c s="3" r="A62"/>
+      <c s="32" r="B62"/>
+      <c s="4" r="C62"/>
       <c s="2" r="D62"/>
-      <c s="17" r="E62"/>
-      <c s="17" r="F62"/>
-      <c s="17" r="G62"/>
-      <c s="17" r="H62"/>
-      <c s="17" r="I62"/>
-      <c s="17" r="J62"/>
-      <c s="17" r="K62"/>
+      <c s="15" r="E62"/>
+      <c s="15" r="F62"/>
+      <c s="15" r="G62"/>
+      <c s="15" r="H62"/>
+      <c s="15" r="I62"/>
+      <c s="15" r="J62"/>
+      <c s="15" r="K62"/>
       <c s="44" r="L62"/>
-      <c s="31" r="M62"/>
+      <c s="30" r="M62"/>
       <c s="28" r="N62"/>
-      <c s="7" r="O62"/>
-      <c s="7" r="P62"/>
-      <c s="7" r="Q62"/>
-      <c s="7" r="R62"/>
-      <c s="7" r="S62"/>
-      <c s="7" r="T62"/>
-      <c s="7" r="U62"/>
-      <c s="7" r="V62"/>
-      <c s="7" r="W62"/>
-      <c s="7" r="X62"/>
-      <c s="7" r="Y62"/>
+      <c s="5" r="O62"/>
+      <c s="5" r="P62"/>
+      <c s="5" r="Q62"/>
+      <c s="5" r="R62"/>
+      <c s="5" r="S62"/>
+      <c s="5" r="T62"/>
+      <c s="5" r="U62"/>
+      <c s="5" r="V62"/>
+      <c s="5" r="W62"/>
+      <c s="5" r="X62"/>
+      <c s="5" r="Y62"/>
     </row>
     <row r="63">
-      <c s="5" r="A63"/>
-      <c s="33" r="B63"/>
-      <c s="6" r="C63"/>
+      <c s="3" r="A63"/>
+      <c s="32" r="B63"/>
+      <c s="4" r="C63"/>
       <c s="2" r="D63"/>
-      <c s="17" r="E63"/>
-      <c s="17" r="F63"/>
-      <c s="17" r="G63"/>
-      <c s="17" r="H63"/>
-      <c s="17" r="I63"/>
-      <c s="17" r="J63"/>
-      <c s="17" r="K63"/>
+      <c s="15" r="E63"/>
+      <c s="15" r="F63"/>
+      <c s="15" r="G63"/>
+      <c s="15" r="H63"/>
+      <c s="15" r="I63"/>
+      <c s="15" r="J63"/>
+      <c s="15" r="K63"/>
       <c s="44" r="L63"/>
-      <c s="31" r="M63"/>
+      <c s="30" r="M63"/>
       <c s="28" r="N63"/>
-      <c s="7" r="O63"/>
-      <c s="7" r="P63"/>
-      <c s="7" r="Q63"/>
-      <c s="7" r="R63"/>
-      <c s="7" r="S63"/>
-      <c s="7" r="T63"/>
-      <c s="7" r="U63"/>
-      <c s="7" r="V63"/>
-      <c s="7" r="W63"/>
-      <c s="7" r="X63"/>
-      <c s="7" r="Y63"/>
+      <c s="5" r="O63"/>
+      <c s="5" r="P63"/>
+      <c s="5" r="Q63"/>
+      <c s="5" r="R63"/>
+      <c s="5" r="S63"/>
+      <c s="5" r="T63"/>
+      <c s="5" r="U63"/>
+      <c s="5" r="V63"/>
+      <c s="5" r="W63"/>
+      <c s="5" r="X63"/>
+      <c s="5" r="Y63"/>
     </row>
     <row r="64">
-      <c s="5" r="A64"/>
-      <c s="33" r="B64"/>
-      <c s="6" r="C64"/>
+      <c s="3" r="A64"/>
+      <c s="32" r="B64"/>
+      <c s="4" r="C64"/>
       <c s="2" r="D64"/>
-      <c s="17" r="E64"/>
-      <c s="17" r="F64"/>
-      <c s="17" r="G64"/>
-      <c s="17" r="H64"/>
-      <c s="17" r="I64"/>
-      <c s="17" r="J64"/>
-      <c s="17" r="K64"/>
+      <c s="15" r="E64"/>
+      <c s="15" r="F64"/>
+      <c s="15" r="G64"/>
+      <c s="15" r="H64"/>
+      <c s="15" r="I64"/>
+      <c s="15" r="J64"/>
+      <c s="15" r="K64"/>
       <c s="44" r="L64"/>
-      <c s="31" r="M64"/>
+      <c s="30" r="M64"/>
       <c s="28" r="N64"/>
-      <c s="7" r="O64"/>
-      <c s="7" r="P64"/>
-      <c s="7" r="Q64"/>
-      <c s="7" r="R64"/>
-      <c s="7" r="S64"/>
-      <c s="7" r="T64"/>
-      <c s="7" r="U64"/>
-      <c s="7" r="V64"/>
-      <c s="7" r="W64"/>
-      <c s="7" r="X64"/>
-      <c s="7" r="Y64"/>
+      <c s="5" r="O64"/>
+      <c s="5" r="P64"/>
+      <c s="5" r="Q64"/>
+      <c s="5" r="R64"/>
+      <c s="5" r="S64"/>
+      <c s="5" r="T64"/>
+      <c s="5" r="U64"/>
+      <c s="5" r="V64"/>
+      <c s="5" r="W64"/>
+      <c s="5" r="X64"/>
+      <c s="5" r="Y64"/>
     </row>
     <row r="65">
-      <c s="5" r="A65"/>
-      <c s="33" r="B65"/>
-      <c s="6" r="C65"/>
+      <c s="3" r="A65"/>
+      <c s="32" r="B65"/>
+      <c s="4" r="C65"/>
       <c s="2" r="D65"/>
-      <c s="17" r="E65"/>
-      <c s="17" r="F65"/>
-      <c s="17" r="G65"/>
-      <c s="17" r="H65"/>
-      <c s="17" r="I65"/>
-      <c s="17" r="J65"/>
-      <c s="17" r="K65"/>
+      <c s="15" r="E65"/>
+      <c s="15" r="F65"/>
+      <c s="15" r="G65"/>
+      <c s="15" r="H65"/>
+      <c s="15" r="I65"/>
+      <c s="15" r="J65"/>
+      <c s="15" r="K65"/>
       <c s="44" r="L65"/>
-      <c s="31" r="M65"/>
+      <c s="30" r="M65"/>
       <c s="28" r="N65"/>
-      <c s="7" r="O65"/>
-      <c s="7" r="P65"/>
-      <c s="7" r="Q65"/>
-      <c s="7" r="R65"/>
-      <c s="7" r="S65"/>
-      <c s="7" r="T65"/>
-      <c s="7" r="U65"/>
-      <c s="7" r="V65"/>
-      <c s="7" r="W65"/>
-      <c s="7" r="X65"/>
-      <c s="7" r="Y65"/>
+      <c s="5" r="O65"/>
+      <c s="5" r="P65"/>
+      <c s="5" r="Q65"/>
+      <c s="5" r="R65"/>
+      <c s="5" r="S65"/>
+      <c s="5" r="T65"/>
+      <c s="5" r="U65"/>
+      <c s="5" r="V65"/>
+      <c s="5" r="W65"/>
+      <c s="5" r="X65"/>
+      <c s="5" r="Y65"/>
     </row>
     <row r="66">
-      <c s="5" r="A66"/>
-      <c s="33" r="B66"/>
-      <c s="6" r="C66"/>
+      <c s="3" r="A66"/>
+      <c s="32" r="B66"/>
+      <c s="4" r="C66"/>
       <c s="2" r="D66"/>
-      <c s="17" r="E66"/>
-      <c s="17" r="F66"/>
-      <c s="17" r="G66"/>
-      <c s="17" r="H66"/>
-      <c s="17" r="I66"/>
-      <c s="17" r="J66"/>
-      <c s="17" r="K66"/>
+      <c s="15" r="E66"/>
+      <c s="15" r="F66"/>
+      <c s="15" r="G66"/>
+      <c s="15" r="H66"/>
+      <c s="15" r="I66"/>
+      <c s="15" r="J66"/>
+      <c s="15" r="K66"/>
       <c s="44" r="L66"/>
-      <c s="31" r="M66"/>
+      <c s="30" r="M66"/>
       <c s="28" r="N66"/>
-      <c s="7" r="O66"/>
-      <c s="7" r="P66"/>
-      <c s="7" r="Q66"/>
-      <c s="7" r="R66"/>
-      <c s="7" r="S66"/>
-      <c s="7" r="T66"/>
-      <c s="7" r="U66"/>
-      <c s="7" r="V66"/>
-      <c s="7" r="W66"/>
-      <c s="7" r="X66"/>
-      <c s="7" r="Y66"/>
+      <c s="5" r="O66"/>
+      <c s="5" r="P66"/>
+      <c s="5" r="Q66"/>
+      <c s="5" r="R66"/>
+      <c s="5" r="S66"/>
+      <c s="5" r="T66"/>
+      <c s="5" r="U66"/>
+      <c s="5" r="V66"/>
+      <c s="5" r="W66"/>
+      <c s="5" r="X66"/>
+      <c s="5" r="Y66"/>
     </row>
     <row r="67">
-      <c s="5" r="A67"/>
-      <c s="33" r="B67"/>
-      <c s="6" r="C67"/>
+      <c s="3" r="A67"/>
+      <c s="32" r="B67"/>
+      <c s="4" r="C67"/>
       <c s="2" r="D67"/>
-      <c s="17" r="E67"/>
-      <c s="17" r="F67"/>
-      <c s="17" r="G67"/>
-      <c s="17" r="H67"/>
-      <c s="17" r="I67"/>
-      <c s="17" r="J67"/>
-      <c s="17" r="K67"/>
+      <c s="15" r="E67"/>
+      <c s="15" r="F67"/>
+      <c s="15" r="G67"/>
+      <c s="15" r="H67"/>
+      <c s="15" r="I67"/>
+      <c s="15" r="J67"/>
+      <c s="15" r="K67"/>
       <c s="44" r="L67"/>
-      <c s="31" r="M67"/>
+      <c s="30" r="M67"/>
       <c s="28" r="N67"/>
-      <c s="7" r="O67"/>
-      <c s="7" r="P67"/>
-      <c s="7" r="Q67"/>
-      <c s="7" r="R67"/>
-      <c s="7" r="S67"/>
-      <c s="7" r="T67"/>
-      <c s="7" r="U67"/>
-      <c s="7" r="V67"/>
-      <c s="7" r="W67"/>
-      <c s="7" r="X67"/>
-      <c s="7" r="Y67"/>
+      <c s="5" r="O67"/>
+      <c s="5" r="P67"/>
+      <c s="5" r="Q67"/>
+      <c s="5" r="R67"/>
+      <c s="5" r="S67"/>
+      <c s="5" r="T67"/>
+      <c s="5" r="U67"/>
+      <c s="5" r="V67"/>
+      <c s="5" r="W67"/>
+      <c s="5" r="X67"/>
+      <c s="5" r="Y67"/>
     </row>
     <row r="68">
-      <c s="5" r="A68"/>
-      <c s="33" r="B68"/>
-      <c s="6" r="C68"/>
+      <c s="3" r="A68"/>
+      <c s="32" r="B68"/>
+      <c s="4" r="C68"/>
       <c s="2" r="D68"/>
-      <c s="17" r="E68"/>
-      <c s="17" r="F68"/>
-      <c s="17" r="G68"/>
-      <c s="17" r="H68"/>
-      <c s="17" r="I68"/>
-      <c s="17" r="J68"/>
-      <c s="17" r="K68"/>
+      <c s="15" r="E68"/>
+      <c s="15" r="F68"/>
+      <c s="15" r="G68"/>
+      <c s="15" r="H68"/>
+      <c s="15" r="I68"/>
+      <c s="15" r="J68"/>
+      <c s="15" r="K68"/>
       <c s="44" r="L68"/>
-      <c s="31" r="M68"/>
+      <c s="30" r="M68"/>
       <c s="28" r="N68"/>
-      <c s="7" r="O68"/>
-      <c s="7" r="P68"/>
-      <c s="7" r="Q68"/>
-      <c s="7" r="R68"/>
-      <c s="7" r="S68"/>
-      <c s="7" r="T68"/>
-      <c s="7" r="U68"/>
-      <c s="7" r="V68"/>
-      <c s="7" r="W68"/>
-      <c s="7" r="X68"/>
-      <c s="7" r="Y68"/>
+      <c s="5" r="O68"/>
+      <c s="5" r="P68"/>
+      <c s="5" r="Q68"/>
+      <c s="5" r="R68"/>
+      <c s="5" r="S68"/>
+      <c s="5" r="T68"/>
+      <c s="5" r="U68"/>
+      <c s="5" r="V68"/>
+      <c s="5" r="W68"/>
+      <c s="5" r="X68"/>
+      <c s="5" r="Y68"/>
     </row>
     <row r="69">
-      <c s="5" r="A69"/>
-      <c s="33" r="B69"/>
-      <c s="6" r="C69"/>
+      <c s="3" r="A69"/>
+      <c s="32" r="B69"/>
+      <c s="4" r="C69"/>
       <c s="2" r="D69"/>
-      <c s="17" r="E69"/>
-      <c s="17" r="F69"/>
-      <c s="17" r="G69"/>
-      <c s="17" r="H69"/>
-      <c s="17" r="I69"/>
-      <c s="17" r="J69"/>
-      <c s="17" r="K69"/>
+      <c s="15" r="E69"/>
+      <c s="15" r="F69"/>
+      <c s="15" r="G69"/>
+      <c s="15" r="H69"/>
+      <c s="15" r="I69"/>
+      <c s="15" r="J69"/>
+      <c s="15" r="K69"/>
       <c s="44" r="L69"/>
-      <c s="31" r="M69"/>
+      <c s="30" r="M69"/>
       <c s="28" r="N69"/>
-      <c s="7" r="O69"/>
-      <c s="7" r="P69"/>
-      <c s="7" r="Q69"/>
-      <c s="7" r="R69"/>
-      <c s="7" r="S69"/>
-      <c s="7" r="T69"/>
-      <c s="7" r="U69"/>
-      <c s="7" r="V69"/>
-      <c s="7" r="W69"/>
-      <c s="7" r="X69"/>
-      <c s="7" r="Y69"/>
+      <c s="5" r="O69"/>
+      <c s="5" r="P69"/>
+      <c s="5" r="Q69"/>
+      <c s="5" r="R69"/>
+      <c s="5" r="S69"/>
+      <c s="5" r="T69"/>
+      <c s="5" r="U69"/>
+      <c s="5" r="V69"/>
+      <c s="5" r="W69"/>
+      <c s="5" r="X69"/>
+      <c s="5" r="Y69"/>
     </row>
     <row r="70">
-      <c s="5" r="A70"/>
-      <c s="33" r="B70"/>
-      <c s="6" r="C70"/>
+      <c s="3" r="A70"/>
+      <c s="32" r="B70"/>
+      <c s="4" r="C70"/>
       <c s="2" r="D70"/>
-      <c s="17" r="E70"/>
-      <c s="17" r="F70"/>
-      <c s="17" r="G70"/>
-      <c s="17" r="H70"/>
-      <c s="17" r="I70"/>
-      <c s="17" r="J70"/>
-      <c s="17" r="K70"/>
+      <c s="15" r="E70"/>
+      <c s="15" r="F70"/>
+      <c s="15" r="G70"/>
+      <c s="15" r="H70"/>
+      <c s="15" r="I70"/>
+      <c s="15" r="J70"/>
+      <c s="15" r="K70"/>
       <c s="44" r="L70"/>
-      <c s="31" r="M70"/>
+      <c s="30" r="M70"/>
       <c s="28" r="N70"/>
-      <c s="7" r="O70"/>
-      <c s="7" r="P70"/>
-      <c s="7" r="Q70"/>
-      <c s="7" r="R70"/>
-      <c s="7" r="S70"/>
-      <c s="7" r="T70"/>
-      <c s="7" r="U70"/>
-      <c s="7" r="V70"/>
-      <c s="7" r="W70"/>
-      <c s="7" r="X70"/>
-      <c s="7" r="Y70"/>
+      <c s="5" r="O70"/>
+      <c s="5" r="P70"/>
+      <c s="5" r="Q70"/>
+      <c s="5" r="R70"/>
+      <c s="5" r="S70"/>
+      <c s="5" r="T70"/>
+      <c s="5" r="U70"/>
+      <c s="5" r="V70"/>
+      <c s="5" r="W70"/>
+      <c s="5" r="X70"/>
+      <c s="5" r="Y70"/>
     </row>
     <row r="71">
-      <c s="5" r="A71"/>
-      <c s="33" r="B71"/>
-      <c s="6" r="C71"/>
+      <c s="3" r="A71"/>
+      <c s="32" r="B71"/>
+      <c s="4" r="C71"/>
       <c s="2" r="D71"/>
-      <c s="17" r="E71"/>
-      <c s="17" r="F71"/>
-      <c s="17" r="G71"/>
-      <c s="17" r="H71"/>
-      <c s="17" r="I71"/>
-      <c s="17" r="J71"/>
-      <c s="17" r="K71"/>
+      <c s="15" r="E71"/>
+      <c s="15" r="F71"/>
+      <c s="15" r="G71"/>
+      <c s="15" r="H71"/>
+      <c s="15" r="I71"/>
+      <c s="15" r="J71"/>
+      <c s="15" r="K71"/>
       <c s="44" r="L71"/>
-      <c s="31" r="M71"/>
+      <c s="30" r="M71"/>
       <c s="28" r="N71"/>
-      <c s="7" r="O71"/>
-      <c s="7" r="P71"/>
-      <c s="7" r="Q71"/>
-      <c s="7" r="R71"/>
-      <c s="7" r="S71"/>
-      <c s="7" r="T71"/>
-      <c s="7" r="U71"/>
-      <c s="7" r="V71"/>
-      <c s="7" r="W71"/>
-      <c s="7" r="X71"/>
-      <c s="7" r="Y71"/>
+      <c s="5" r="O71"/>
+      <c s="5" r="P71"/>
+      <c s="5" r="Q71"/>
+      <c s="5" r="R71"/>
+      <c s="5" r="S71"/>
+      <c s="5" r="T71"/>
+      <c s="5" r="U71"/>
+      <c s="5" r="V71"/>
+      <c s="5" r="W71"/>
+      <c s="5" r="X71"/>
+      <c s="5" r="Y71"/>
     </row>
     <row r="72">
-      <c s="5" r="A72"/>
-      <c s="33" r="B72"/>
-      <c s="6" r="C72"/>
+      <c s="3" r="A72"/>
+      <c s="32" r="B72"/>
+      <c s="4" r="C72"/>
       <c s="2" r="D72"/>
-      <c s="17" r="E72"/>
-      <c s="17" r="F72"/>
-      <c s="17" r="G72"/>
-      <c s="17" r="H72"/>
-      <c s="17" r="I72"/>
-      <c s="17" r="J72"/>
-      <c s="17" r="K72"/>
+      <c s="15" r="E72"/>
+      <c s="15" r="F72"/>
+      <c s="15" r="G72"/>
+      <c s="15" r="H72"/>
+      <c s="15" r="I72"/>
+      <c s="15" r="J72"/>
+      <c s="15" r="K72"/>
       <c s="44" r="L72"/>
-      <c s="31" r="M72"/>
+      <c s="30" r="M72"/>
       <c s="28" r="N72"/>
-      <c s="7" r="O72"/>
-      <c s="7" r="P72"/>
-      <c s="7" r="Q72"/>
-      <c s="7" r="R72"/>
-      <c s="7" r="S72"/>
-      <c s="7" r="T72"/>
-      <c s="7" r="U72"/>
-      <c s="7" r="V72"/>
-      <c s="7" r="W72"/>
-      <c s="7" r="X72"/>
-      <c s="7" r="Y72"/>
+      <c s="5" r="O72"/>
+      <c s="5" r="P72"/>
+      <c s="5" r="Q72"/>
+      <c s="5" r="R72"/>
+      <c s="5" r="S72"/>
+      <c s="5" r="T72"/>
+      <c s="5" r="U72"/>
+      <c s="5" r="V72"/>
+      <c s="5" r="W72"/>
+      <c s="5" r="X72"/>
+      <c s="5" r="Y72"/>
     </row>
     <row r="73">
-      <c s="5" r="A73"/>
-      <c s="33" r="B73"/>
-      <c s="6" r="C73"/>
+      <c s="3" r="A73"/>
+      <c s="32" r="B73"/>
+      <c s="4" r="C73"/>
       <c s="2" r="D73"/>
-      <c s="17" r="E73"/>
-      <c s="17" r="F73"/>
-      <c s="17" r="G73"/>
-      <c s="17" r="H73"/>
-      <c s="17" r="I73"/>
-      <c s="17" r="J73"/>
-      <c s="17" r="K73"/>
+      <c s="15" r="E73"/>
+      <c s="15" r="F73"/>
+      <c s="15" r="G73"/>
+      <c s="15" r="H73"/>
+      <c s="15" r="I73"/>
+      <c s="15" r="J73"/>
+      <c s="15" r="K73"/>
       <c s="44" r="L73"/>
-      <c s="31" r="M73"/>
+      <c s="30" r="M73"/>
       <c s="28" r="N73"/>
-      <c s="7" r="O73"/>
-      <c s="7" r="P73"/>
-      <c s="7" r="Q73"/>
-      <c s="7" r="R73"/>
-      <c s="7" r="S73"/>
-      <c s="7" r="T73"/>
-      <c s="7" r="U73"/>
-      <c s="7" r="V73"/>
-      <c s="7" r="W73"/>
-      <c s="7" r="X73"/>
-      <c s="7" r="Y73"/>
+      <c s="5" r="O73"/>
+      <c s="5" r="P73"/>
+      <c s="5" r="Q73"/>
+      <c s="5" r="R73"/>
+      <c s="5" r="S73"/>
+      <c s="5" r="T73"/>
+      <c s="5" r="U73"/>
+      <c s="5" r="V73"/>
+      <c s="5" r="W73"/>
+      <c s="5" r="X73"/>
+      <c s="5" r="Y73"/>
     </row>
     <row r="74">
-      <c s="5" r="A74"/>
-      <c s="33" r="B74"/>
-      <c s="6" r="C74"/>
+      <c s="3" r="A74"/>
+      <c s="32" r="B74"/>
+      <c s="4" r="C74"/>
       <c s="2" r="D74"/>
-      <c s="17" r="E74"/>
-      <c s="17" r="F74"/>
-      <c s="17" r="G74"/>
-      <c s="17" r="H74"/>
-      <c s="17" r="I74"/>
-      <c s="17" r="J74"/>
-      <c s="17" r="K74"/>
+      <c s="15" r="E74"/>
+      <c s="15" r="F74"/>
+      <c s="15" r="G74"/>
+      <c s="15" r="H74"/>
+      <c s="15" r="I74"/>
+      <c s="15" r="J74"/>
+      <c s="15" r="K74"/>
       <c s="44" r="L74"/>
-      <c s="31" r="M74"/>
+      <c s="30" r="M74"/>
       <c s="28" r="N74"/>
-      <c s="7" r="O74"/>
-      <c s="7" r="P74"/>
-      <c s="7" r="Q74"/>
-      <c s="7" r="R74"/>
-      <c s="7" r="S74"/>
-      <c s="7" r="T74"/>
-      <c s="7" r="U74"/>
-      <c s="7" r="V74"/>
-      <c s="7" r="W74"/>
-      <c s="7" r="X74"/>
-      <c s="7" r="Y74"/>
+      <c s="5" r="O74"/>
+      <c s="5" r="P74"/>
+      <c s="5" r="Q74"/>
+      <c s="5" r="R74"/>
+      <c s="5" r="S74"/>
+      <c s="5" r="T74"/>
+      <c s="5" r="U74"/>
+      <c s="5" r="V74"/>
+      <c s="5" r="W74"/>
+      <c s="5" r="X74"/>
+      <c s="5" r="Y74"/>
     </row>
     <row r="75">
-      <c s="5" r="A75"/>
-      <c s="33" r="B75"/>
-      <c s="6" r="C75"/>
+      <c s="3" r="A75"/>
+      <c s="32" r="B75"/>
+      <c s="4" r="C75"/>
       <c s="2" r="D75"/>
-      <c s="17" r="E75"/>
-      <c s="17" r="F75"/>
-      <c s="17" r="G75"/>
-      <c s="17" r="H75"/>
-      <c s="17" r="I75"/>
-      <c s="17" r="J75"/>
-      <c s="17" r="K75"/>
+      <c s="15" r="E75"/>
+      <c s="15" r="F75"/>
+      <c s="15" r="G75"/>
+      <c s="15" r="H75"/>
+      <c s="15" r="I75"/>
+      <c s="15" r="J75"/>
+      <c s="15" r="K75"/>
       <c s="44" r="L75"/>
-      <c s="31" r="M75"/>
+      <c s="30" r="M75"/>
       <c s="28" r="N75"/>
-      <c s="7" r="O75"/>
-      <c s="7" r="P75"/>
-      <c s="7" r="Q75"/>
-      <c s="7" r="R75"/>
-      <c s="7" r="S75"/>
-      <c s="7" r="T75"/>
-      <c s="7" r="U75"/>
-      <c s="7" r="V75"/>
-      <c s="7" r="W75"/>
-      <c s="7" r="X75"/>
-      <c s="7" r="Y75"/>
+      <c s="5" r="O75"/>
+      <c s="5" r="P75"/>
+      <c s="5" r="Q75"/>
+      <c s="5" r="R75"/>
+      <c s="5" r="S75"/>
+      <c s="5" r="T75"/>
+      <c s="5" r="U75"/>
+      <c s="5" r="V75"/>
+      <c s="5" r="W75"/>
+      <c s="5" r="X75"/>
+      <c s="5" r="Y75"/>
     </row>
     <row r="76">
-      <c s="5" r="A76"/>
-      <c s="33" r="B76"/>
-      <c s="6" r="C76"/>
+      <c s="3" r="A76"/>
+      <c s="32" r="B76"/>
+      <c s="4" r="C76"/>
       <c s="2" r="D76"/>
-      <c s="17" r="E76"/>
-      <c s="17" r="F76"/>
-      <c s="17" r="G76"/>
-      <c s="17" r="H76"/>
-      <c s="17" r="I76"/>
-      <c s="17" r="J76"/>
-      <c s="17" r="K76"/>
+      <c s="15" r="E76"/>
+      <c s="15" r="F76"/>
+      <c s="15" r="G76"/>
+      <c s="15" r="H76"/>
+      <c s="15" r="I76"/>
+      <c s="15" r="J76"/>
+      <c s="15" r="K76"/>
       <c s="44" r="L76"/>
-      <c s="31" r="M76"/>
+      <c s="30" r="M76"/>
       <c s="28" r="N76"/>
-      <c s="7" r="O76"/>
-      <c s="7" r="P76"/>
-      <c s="7" r="Q76"/>
-      <c s="7" r="R76"/>
-      <c s="7" r="S76"/>
-      <c s="7" r="T76"/>
-      <c s="7" r="U76"/>
-      <c s="7" r="V76"/>
-      <c s="7" r="W76"/>
-      <c s="7" r="X76"/>
-      <c s="7" r="Y76"/>
+      <c s="5" r="O76"/>
+      <c s="5" r="P76"/>
+      <c s="5" r="Q76"/>
+      <c s="5" r="R76"/>
+      <c s="5" r="S76"/>
+      <c s="5" r="T76"/>
+      <c s="5" r="U76"/>
+      <c s="5" r="V76"/>
+      <c s="5" r="W76"/>
+      <c s="5" r="X76"/>
+      <c s="5" r="Y76"/>
     </row>
     <row r="77">
-      <c s="5" r="A77"/>
-      <c s="33" r="B77"/>
-      <c s="6" r="C77"/>
+      <c s="3" r="A77"/>
+      <c s="32" r="B77"/>
+      <c s="4" r="C77"/>
       <c s="2" r="D77"/>
-      <c s="17" r="E77"/>
-      <c s="17" r="F77"/>
-      <c s="17" r="G77"/>
-      <c s="17" r="H77"/>
-      <c s="17" r="I77"/>
-      <c s="17" r="J77"/>
-      <c s="17" r="K77"/>
+      <c s="15" r="E77"/>
+      <c s="15" r="F77"/>
+      <c s="15" r="G77"/>
+      <c s="15" r="H77"/>
+      <c s="15" r="I77"/>
+      <c s="15" r="J77"/>
+      <c s="15" r="K77"/>
       <c s="44" r="L77"/>
-      <c s="31" r="M77"/>
+      <c s="30" r="M77"/>
       <c s="28" r="N77"/>
-      <c s="7" r="O77"/>
-      <c s="7" r="P77"/>
-      <c s="7" r="Q77"/>
-      <c s="7" r="R77"/>
-      <c s="7" r="S77"/>
-      <c s="7" r="T77"/>
-      <c s="7" r="U77"/>
-      <c s="7" r="V77"/>
-      <c s="7" r="W77"/>
-      <c s="7" r="X77"/>
-      <c s="7" r="Y77"/>
+      <c s="5" r="O77"/>
+      <c s="5" r="P77"/>
+      <c s="5" r="Q77"/>
+      <c s="5" r="R77"/>
+      <c s="5" r="S77"/>
+      <c s="5" r="T77"/>
+      <c s="5" r="U77"/>
+      <c s="5" r="V77"/>
+      <c s="5" r="W77"/>
+      <c s="5" r="X77"/>
+      <c s="5" r="Y77"/>
     </row>
     <row r="78">
-      <c s="5" r="A78"/>
-      <c s="33" r="B78"/>
-      <c s="6" r="C78"/>
+      <c s="3" r="A78"/>
+      <c s="32" r="B78"/>
+      <c s="4" r="C78"/>
       <c s="2" r="D78"/>
-      <c s="17" r="E78"/>
-      <c s="17" r="F78"/>
-      <c s="17" r="G78"/>
-      <c s="17" r="H78"/>
-      <c s="17" r="I78"/>
-      <c s="17" r="J78"/>
-      <c s="17" r="K78"/>
+      <c s="15" r="E78"/>
+      <c s="15" r="F78"/>
+      <c s="15" r="G78"/>
+      <c s="15" r="H78"/>
+      <c s="15" r="I78"/>
+      <c s="15" r="J78"/>
+      <c s="15" r="K78"/>
       <c s="44" r="L78"/>
-      <c s="31" r="M78"/>
+      <c s="30" r="M78"/>
       <c s="28" r="N78"/>
-      <c s="7" r="O78"/>
-      <c s="7" r="P78"/>
-      <c s="7" r="Q78"/>
-      <c s="7" r="R78"/>
-      <c s="7" r="S78"/>
-      <c s="7" r="T78"/>
-      <c s="7" r="U78"/>
-      <c s="7" r="V78"/>
-      <c s="7" r="W78"/>
-      <c s="7" r="X78"/>
-      <c s="7" r="Y78"/>
+      <c s="5" r="O78"/>
+      <c s="5" r="P78"/>
+      <c s="5" r="Q78"/>
+      <c s="5" r="R78"/>
+      <c s="5" r="S78"/>
+      <c s="5" r="T78"/>
+      <c s="5" r="U78"/>
+      <c s="5" r="V78"/>
+      <c s="5" r="W78"/>
+      <c s="5" r="X78"/>
+      <c s="5" r="Y78"/>
     </row>
     <row r="79">
-      <c s="5" r="A79"/>
-      <c s="33" r="B79"/>
-      <c s="6" r="C79"/>
+      <c s="3" r="A79"/>
+      <c s="32" r="B79"/>
+      <c s="4" r="C79"/>
       <c s="2" r="D79"/>
-      <c s="17" r="E79"/>
-      <c s="17" r="F79"/>
-      <c s="17" r="G79"/>
-      <c s="17" r="H79"/>
-      <c s="17" r="I79"/>
-      <c s="17" r="J79"/>
-      <c s="17" r="K79"/>
+      <c s="15" r="E79"/>
+      <c s="15" r="F79"/>
+      <c s="15" r="G79"/>
+      <c s="15" r="H79"/>
+      <c s="15" r="I79"/>
+      <c s="15" r="J79"/>
+      <c s="15" r="K79"/>
       <c s="44" r="L79"/>
-      <c s="31" r="M79"/>
+      <c s="30" r="M79"/>
       <c s="28" r="N79"/>
-      <c s="7" r="O79"/>
-      <c s="7" r="P79"/>
-      <c s="7" r="Q79"/>
-      <c s="7" r="R79"/>
-      <c s="7" r="S79"/>
-      <c s="7" r="T79"/>
-      <c s="7" r="U79"/>
-      <c s="7" r="V79"/>
-      <c s="7" r="W79"/>
-      <c s="7" r="X79"/>
-      <c s="7" r="Y79"/>
+      <c s="5" r="O79"/>
+      <c s="5" r="P79"/>
+      <c s="5" r="Q79"/>
+      <c s="5" r="R79"/>
+      <c s="5" r="S79"/>
+      <c s="5" r="T79"/>
+      <c s="5" r="U79"/>
+      <c s="5" r="V79"/>
+      <c s="5" r="W79"/>
+      <c s="5" r="X79"/>
+      <c s="5" r="Y79"/>
     </row>
     <row r="80">
-      <c s="5" r="A80"/>
-      <c s="33" r="B80"/>
-      <c s="6" r="C80"/>
+      <c s="3" r="A80"/>
+      <c s="32" r="B80"/>
+      <c s="4" r="C80"/>
       <c s="2" r="D80"/>
-      <c s="17" r="E80"/>
-      <c s="17" r="F80"/>
-      <c s="17" r="G80"/>
-      <c s="17" r="H80"/>
-      <c s="17" r="I80"/>
-      <c s="17" r="J80"/>
-      <c s="17" r="K80"/>
+      <c s="15" r="E80"/>
+      <c s="15" r="F80"/>
+      <c s="15" r="G80"/>
+      <c s="15" r="H80"/>
+      <c s="15" r="I80"/>
+      <c s="15" r="J80"/>
+      <c s="15" r="K80"/>
       <c s="44" r="L80"/>
-      <c s="31" r="M80"/>
+      <c s="30" r="M80"/>
       <c s="28" r="N80"/>
-      <c s="7" r="O80"/>
-      <c s="7" r="P80"/>
-      <c s="7" r="Q80"/>
-      <c s="7" r="R80"/>
-      <c s="7" r="S80"/>
-      <c s="7" r="T80"/>
-      <c s="7" r="U80"/>
-      <c s="7" r="V80"/>
-      <c s="7" r="W80"/>
-      <c s="7" r="X80"/>
-      <c s="7" r="Y80"/>
+      <c s="5" r="O80"/>
+      <c s="5" r="P80"/>
+      <c s="5" r="Q80"/>
+      <c s="5" r="R80"/>
+      <c s="5" r="S80"/>
+      <c s="5" r="T80"/>
+      <c s="5" r="U80"/>
+      <c s="5" r="V80"/>
+      <c s="5" r="W80"/>
+      <c s="5" r="X80"/>
+      <c s="5" r="Y80"/>
     </row>
     <row r="81">
-      <c s="5" r="A81"/>
-      <c s="33" r="B81"/>
-      <c s="6" r="C81"/>
+      <c s="3" r="A81"/>
+      <c s="32" r="B81"/>
+      <c s="4" r="C81"/>
       <c s="2" r="D81"/>
-      <c s="17" r="E81"/>
-      <c s="17" r="F81"/>
-      <c s="17" r="G81"/>
-      <c s="17" r="H81"/>
-      <c s="17" r="I81"/>
-      <c s="17" r="J81"/>
-      <c s="17" r="K81"/>
+      <c s="15" r="E81"/>
+      <c s="15" r="F81"/>
+      <c s="15" r="G81"/>
+      <c s="15" r="H81"/>
+      <c s="15" r="I81"/>
+      <c s="15" r="J81"/>
+      <c s="15" r="K81"/>
       <c s="44" r="L81"/>
-      <c s="31" r="M81"/>
+      <c s="30" r="M81"/>
       <c s="28" r="N81"/>
-      <c s="7" r="O81"/>
-      <c s="7" r="P81"/>
-      <c s="7" r="Q81"/>
-      <c s="7" r="R81"/>
-      <c s="7" r="S81"/>
-      <c s="7" r="T81"/>
-      <c s="7" r="U81"/>
-      <c s="7" r="V81"/>
-      <c s="7" r="W81"/>
-      <c s="7" r="X81"/>
-      <c s="7" r="Y81"/>
+      <c s="5" r="O81"/>
+      <c s="5" r="P81"/>
+      <c s="5" r="Q81"/>
+      <c s="5" r="R81"/>
+      <c s="5" r="S81"/>
+      <c s="5" r="T81"/>
+      <c s="5" r="U81"/>
+      <c s="5" r="V81"/>
+      <c s="5" r="W81"/>
+      <c s="5" r="X81"/>
+      <c s="5" r="Y81"/>
     </row>
     <row r="82">
-      <c s="5" r="A82"/>
-      <c s="33" r="B82"/>
-      <c s="6" r="C82"/>
+      <c s="3" r="A82"/>
+      <c s="32" r="B82"/>
+      <c s="4" r="C82"/>
       <c s="2" r="D82"/>
-      <c s="17" r="E82"/>
-      <c s="17" r="F82"/>
-      <c s="17" r="G82"/>
-      <c s="17" r="H82"/>
-      <c s="17" r="I82"/>
-      <c s="17" r="J82"/>
-      <c s="17" r="K82"/>
+      <c s="15" r="E82"/>
+      <c s="15" r="F82"/>
+      <c s="15" r="G82"/>
+      <c s="15" r="H82"/>
+      <c s="15" r="I82"/>
+      <c s="15" r="J82"/>
+      <c s="15" r="K82"/>
       <c s="44" r="L82"/>
-      <c s="31" r="M82"/>
+      <c s="30" r="M82"/>
       <c s="28" r="N82"/>
-      <c s="7" r="O82"/>
-      <c s="7" r="P82"/>
-      <c s="7" r="Q82"/>
-      <c s="7" r="R82"/>
-      <c s="7" r="S82"/>
-      <c s="7" r="T82"/>
-      <c s="7" r="U82"/>
-      <c s="7" r="V82"/>
-      <c s="7" r="W82"/>
-      <c s="7" r="X82"/>
-      <c s="7" r="Y82"/>
+      <c s="5" r="O82"/>
+      <c s="5" r="P82"/>
+      <c s="5" r="Q82"/>
+      <c s="5" r="R82"/>
+      <c s="5" r="S82"/>
+      <c s="5" r="T82"/>
+      <c s="5" r="U82"/>
+      <c s="5" r="V82"/>
+      <c s="5" r="W82"/>
+      <c s="5" r="X82"/>
+      <c s="5" r="Y82"/>
     </row>
     <row r="83">
-      <c s="5" r="A83"/>
-      <c s="33" r="B83"/>
-      <c s="6" r="C83"/>
+      <c s="3" r="A83"/>
+      <c s="32" r="B83"/>
+      <c s="4" r="C83"/>
       <c s="2" r="D83"/>
-      <c s="17" r="E83"/>
-      <c s="17" r="F83"/>
-      <c s="17" r="G83"/>
-      <c s="17" r="H83"/>
-      <c s="17" r="I83"/>
-      <c s="17" r="J83"/>
-      <c s="17" r="K83"/>
+      <c s="15" r="E83"/>
+      <c s="15" r="F83"/>
+      <c s="15" r="G83"/>
+      <c s="15" r="H83"/>
+      <c s="15" r="I83"/>
+      <c s="15" r="J83"/>
+      <c s="15" r="K83"/>
       <c s="44" r="L83"/>
-      <c s="31" r="M83"/>
+      <c s="30" r="M83"/>
       <c s="28" r="N83"/>
-      <c s="7" r="O83"/>
-      <c s="7" r="P83"/>
-      <c s="7" r="Q83"/>
-      <c s="7" r="R83"/>
-      <c s="7" r="S83"/>
-      <c s="7" r="T83"/>
-      <c s="7" r="U83"/>
-      <c s="7" r="V83"/>
-      <c s="7" r="W83"/>
-      <c s="7" r="X83"/>
-      <c s="7" r="Y83"/>
+      <c s="5" r="O83"/>
+      <c s="5" r="P83"/>
+      <c s="5" r="Q83"/>
+      <c s="5" r="R83"/>
+      <c s="5" r="S83"/>
+      <c s="5" r="T83"/>
+      <c s="5" r="U83"/>
+      <c s="5" r="V83"/>
+      <c s="5" r="W83"/>
+      <c s="5" r="X83"/>
+      <c s="5" r="Y83"/>
     </row>
     <row r="84">
-      <c s="5" r="A84"/>
-      <c s="33" r="B84"/>
-      <c s="6" r="C84"/>
+      <c s="3" r="A84"/>
+      <c s="32" r="B84"/>
+      <c s="4" r="C84"/>
       <c s="2" r="D84"/>
-      <c s="17" r="E84"/>
-      <c s="17" r="F84"/>
-      <c s="17" r="G84"/>
-      <c s="17" r="H84"/>
-      <c s="17" r="I84"/>
-      <c s="17" r="J84"/>
-      <c s="17" r="K84"/>
+      <c s="15" r="E84"/>
+      <c s="15" r="F84"/>
+      <c s="15" r="G84"/>
+      <c s="15" r="H84"/>
+      <c s="15" r="I84"/>
+      <c s="15" r="J84"/>
+      <c s="15" r="K84"/>
       <c s="44" r="L84"/>
-      <c s="31" r="M84"/>
+      <c s="30" r="M84"/>
       <c s="28" r="N84"/>
-      <c s="7" r="O84"/>
-      <c s="7" r="P84"/>
-      <c s="7" r="Q84"/>
-      <c s="7" r="R84"/>
-      <c s="7" r="S84"/>
-      <c s="7" r="T84"/>
-      <c s="7" r="U84"/>
-      <c s="7" r="V84"/>
-      <c s="7" r="W84"/>
-      <c s="7" r="X84"/>
-      <c s="7" r="Y84"/>
+      <c s="5" r="O84"/>
+      <c s="5" r="P84"/>
+      <c s="5" r="Q84"/>
+      <c s="5" r="R84"/>
+      <c s="5" r="S84"/>
+      <c s="5" r="T84"/>
+      <c s="5" r="U84"/>
+      <c s="5" r="V84"/>
+      <c s="5" r="W84"/>
+      <c s="5" r="X84"/>
+      <c s="5" r="Y84"/>
     </row>
     <row r="85">
-      <c s="5" r="A85"/>
-      <c s="33" r="B85"/>
-      <c s="6" r="C85"/>
+      <c s="3" r="A85"/>
+      <c s="32" r="B85"/>
+      <c s="4" r="C85"/>
       <c s="2" r="D85"/>
-      <c s="17" r="E85"/>
-      <c s="17" r="F85"/>
-      <c s="17" r="G85"/>
-      <c s="17" r="H85"/>
-      <c s="17" r="I85"/>
-      <c s="17" r="J85"/>
-      <c s="17" r="K85"/>
+      <c s="15" r="E85"/>
+      <c s="15" r="F85"/>
+      <c s="15" r="G85"/>
+      <c s="15" r="H85"/>
+      <c s="15" r="I85"/>
+      <c s="15" r="J85"/>
+      <c s="15" r="K85"/>
       <c s="44" r="L85"/>
-      <c s="31" r="M85"/>
+      <c s="30" r="M85"/>
       <c s="28" r="N85"/>
-      <c s="7" r="O85"/>
-      <c s="7" r="P85"/>
-      <c s="7" r="Q85"/>
-      <c s="7" r="R85"/>
-      <c s="7" r="S85"/>
-      <c s="7" r="T85"/>
-      <c s="7" r="U85"/>
-      <c s="7" r="V85"/>
-      <c s="7" r="W85"/>
-      <c s="7" r="X85"/>
-      <c s="7" r="Y85"/>
+      <c s="5" r="O85"/>
+      <c s="5" r="P85"/>
+      <c s="5" r="Q85"/>
+      <c s="5" r="R85"/>
+      <c s="5" r="S85"/>
+      <c s="5" r="T85"/>
+      <c s="5" r="U85"/>
+      <c s="5" r="V85"/>
+      <c s="5" r="W85"/>
+      <c s="5" r="X85"/>
+      <c s="5" r="Y85"/>
     </row>
     <row r="86">
-      <c s="5" r="A86"/>
-      <c s="33" r="B86"/>
-      <c s="6" r="C86"/>
+      <c s="3" r="A86"/>
+      <c s="32" r="B86"/>
+      <c s="4" r="C86"/>
       <c s="2" r="D86"/>
-      <c s="17" r="E86"/>
-      <c s="17" r="F86"/>
-      <c s="17" r="G86"/>
-      <c s="17" r="H86"/>
-      <c s="17" r="I86"/>
-      <c s="17" r="J86"/>
-      <c s="17" r="K86"/>
+      <c s="15" r="E86"/>
+      <c s="15" r="F86"/>
+      <c s="15" r="G86"/>
+      <c s="15" r="H86"/>
+      <c s="15" r="I86"/>
+      <c s="15" r="J86"/>
+      <c s="15" r="K86"/>
       <c s="44" r="L86"/>
-      <c s="31" r="M86"/>
+      <c s="30" r="M86"/>
       <c s="28" r="N86"/>
-      <c s="7" r="O86"/>
-      <c s="7" r="P86"/>
-      <c s="7" r="Q86"/>
-      <c s="7" r="R86"/>
-      <c s="7" r="S86"/>
-      <c s="7" r="T86"/>
-      <c s="7" r="U86"/>
-      <c s="7" r="V86"/>
-      <c s="7" r="W86"/>
-      <c s="7" r="X86"/>
-      <c s="7" r="Y86"/>
+      <c s="5" r="O86"/>
+      <c s="5" r="P86"/>
+      <c s="5" r="Q86"/>
+      <c s="5" r="R86"/>
+      <c s="5" r="S86"/>
+      <c s="5" r="T86"/>
+      <c s="5" r="U86"/>
+      <c s="5" r="V86"/>
+      <c s="5" r="W86"/>
+      <c s="5" r="X86"/>
+      <c s="5" r="Y86"/>
     </row>
     <row r="87">
-      <c s="5" r="A87"/>
-      <c s="33" r="B87"/>
-      <c s="6" r="C87"/>
+      <c s="3" r="A87"/>
+      <c s="32" r="B87"/>
+      <c s="4" r="C87"/>
       <c s="2" r="D87"/>
-      <c s="17" r="E87"/>
-      <c s="17" r="F87"/>
-      <c s="17" r="G87"/>
-      <c s="17" r="H87"/>
-      <c s="17" r="I87"/>
-      <c s="17" r="J87"/>
-      <c s="17" r="K87"/>
+      <c s="15" r="E87"/>
+      <c s="15" r="F87"/>
+      <c s="15" r="G87"/>
+      <c s="15" r="H87"/>
+      <c s="15" r="I87"/>
+      <c s="15" r="J87"/>
+      <c s="15" r="K87"/>
       <c s="44" r="L87"/>
-      <c s="31" r="M87"/>
+      <c s="30" r="M87"/>
       <c s="28" r="N87"/>
-      <c s="7" r="O87"/>
-      <c s="7" r="P87"/>
-      <c s="7" r="Q87"/>
-      <c s="7" r="R87"/>
-      <c s="7" r="S87"/>
-      <c s="7" r="T87"/>
-      <c s="7" r="U87"/>
-      <c s="7" r="V87"/>
-      <c s="7" r="W87"/>
-      <c s="7" r="X87"/>
-      <c s="7" r="Y87"/>
+      <c s="5" r="O87"/>
+      <c s="5" r="P87"/>
+      <c s="5" r="Q87"/>
+      <c s="5" r="R87"/>
+      <c s="5" r="S87"/>
+      <c s="5" r="T87"/>
+      <c s="5" r="U87"/>
+      <c s="5" r="V87"/>
+      <c s="5" r="W87"/>
+      <c s="5" r="X87"/>
+      <c s="5" r="Y87"/>
     </row>
     <row r="88">
-      <c s="5" r="A88"/>
-      <c s="33" r="B88"/>
-      <c s="6" r="C88"/>
+      <c s="3" r="A88"/>
+      <c s="32" r="B88"/>
+      <c s="4" r="C88"/>
       <c s="2" r="D88"/>
-      <c s="17" r="E88"/>
-      <c s="17" r="F88"/>
-      <c s="17" r="G88"/>
-      <c s="17" r="H88"/>
-      <c s="17" r="I88"/>
-      <c s="17" r="J88"/>
-      <c s="17" r="K88"/>
+      <c s="15" r="E88"/>
+      <c s="15" r="F88"/>
+      <c s="15" r="G88"/>
+      <c s="15" r="H88"/>
+      <c s="15" r="I88"/>
+      <c s="15" r="J88"/>
+      <c s="15" r="K88"/>
       <c s="44" r="L88"/>
-      <c s="31" r="M88"/>
+      <c s="30" r="M88"/>
       <c s="28" r="N88"/>
-      <c s="7" r="O88"/>
-      <c s="7" r="P88"/>
-      <c s="7" r="Q88"/>
-      <c s="7" r="R88"/>
-      <c s="7" r="S88"/>
-      <c s="7" r="T88"/>
-      <c s="7" r="U88"/>
-      <c s="7" r="V88"/>
-      <c s="7" r="W88"/>
-      <c s="7" r="X88"/>
-      <c s="7" r="Y88"/>
+      <c s="5" r="O88"/>
+      <c s="5" r="P88"/>
+      <c s="5" r="Q88"/>
+      <c s="5" r="R88"/>
+      <c s="5" r="S88"/>
+      <c s="5" r="T88"/>
+      <c s="5" r="U88"/>
+      <c s="5" r="V88"/>
+      <c s="5" r="W88"/>
+      <c s="5" r="X88"/>
+      <c s="5" r="Y88"/>
     </row>
     <row r="89">
-      <c s="5" r="A89"/>
-      <c s="33" r="B89"/>
-      <c s="6" r="C89"/>
+      <c s="3" r="A89"/>
+      <c s="32" r="B89"/>
+      <c s="4" r="C89"/>
       <c s="2" r="D89"/>
-      <c s="17" r="E89"/>
-      <c s="17" r="F89"/>
-      <c s="17" r="G89"/>
-      <c s="17" r="H89"/>
-      <c s="17" r="I89"/>
-      <c s="17" r="J89"/>
-      <c s="17" r="K89"/>
+      <c s="15" r="E89"/>
+      <c s="15" r="F89"/>
+      <c s="15" r="G89"/>
+      <c s="15" r="H89"/>
+      <c s="15" r="I89"/>
+      <c s="15" r="J89"/>
+      <c s="15" r="K89"/>
       <c s="44" r="L89"/>
-      <c s="31" r="M89"/>
+      <c s="30" r="M89"/>
       <c s="28" r="N89"/>
-      <c s="7" r="O89"/>
-      <c s="7" r="P89"/>
-      <c s="7" r="Q89"/>
-      <c s="7" r="R89"/>
-      <c s="7" r="S89"/>
-      <c s="7" r="T89"/>
-      <c s="7" r="U89"/>
-      <c s="7" r="V89"/>
-      <c s="7" r="W89"/>
-      <c s="7" r="X89"/>
-      <c s="7" r="Y89"/>
+      <c s="5" r="O89"/>
+      <c s="5" r="P89"/>
+      <c s="5" r="Q89"/>
+      <c s="5" r="R89"/>
+      <c s="5" r="S89"/>
+      <c s="5" r="T89"/>
+      <c s="5" r="U89"/>
+      <c s="5" r="V89"/>
+      <c s="5" r="W89"/>
+      <c s="5" r="X89"/>
+      <c s="5" r="Y89"/>
     </row>
     <row r="90">
-      <c s="5" r="A90"/>
-      <c s="33" r="B90"/>
-      <c s="6" r="C90"/>
+      <c s="3" r="A90"/>
+      <c s="32" r="B90"/>
+      <c s="4" r="C90"/>
       <c s="2" r="D90"/>
-      <c s="17" r="E90"/>
-      <c s="17" r="F90"/>
-      <c s="17" r="G90"/>
-      <c s="17" r="H90"/>
-      <c s="17" r="I90"/>
-      <c s="17" r="J90"/>
-      <c s="17" r="K90"/>
+      <c s="15" r="E90"/>
+      <c s="15" r="F90"/>
+      <c s="15" r="G90"/>
+      <c s="15" r="H90"/>
+      <c s="15" r="I90"/>
+      <c s="15" r="J90"/>
+      <c s="15" r="K90"/>
       <c s="44" r="L90"/>
-      <c s="31" r="M90"/>
+      <c s="30" r="M90"/>
       <c s="28" r="N90"/>
-      <c s="7" r="O90"/>
-      <c s="7" r="P90"/>
-      <c s="7" r="Q90"/>
-      <c s="7" r="R90"/>
-      <c s="7" r="S90"/>
-      <c s="7" r="T90"/>
-      <c s="7" r="U90"/>
-      <c s="7" r="V90"/>
-      <c s="7" r="W90"/>
-      <c s="7" r="X90"/>
-      <c s="7" r="Y90"/>
+      <c s="5" r="O90"/>
+      <c s="5" r="P90"/>
+      <c s="5" r="Q90"/>
+      <c s="5" r="R90"/>
+      <c s="5" r="S90"/>
+      <c s="5" r="T90"/>
+      <c s="5" r="U90"/>
+      <c s="5" r="V90"/>
+      <c s="5" r="W90"/>
+      <c s="5" r="X90"/>
+      <c s="5" r="Y90"/>
     </row>
     <row r="91">
-      <c s="5" r="A91"/>
-      <c s="33" r="B91"/>
-      <c s="6" r="C91"/>
+      <c s="3" r="A91"/>
+      <c s="32" r="B91"/>
+      <c s="4" r="C91"/>
       <c s="2" r="D91"/>
-      <c s="17" r="E91"/>
-      <c s="17" r="F91"/>
-      <c s="17" r="G91"/>
-      <c s="17" r="H91"/>
-      <c s="17" r="I91"/>
-      <c s="17" r="J91"/>
-      <c s="17" r="K91"/>
+      <c s="15" r="E91"/>
+      <c s="15" r="F91"/>
+      <c s="15" r="G91"/>
+      <c s="15" r="H91"/>
+      <c s="15" r="I91"/>
+      <c s="15" r="J91"/>
+      <c s="15" r="K91"/>
       <c s="44" r="L91"/>
-      <c s="31" r="M91"/>
+      <c s="30" r="M91"/>
       <c s="28" r="N91"/>
-      <c s="7" r="O91"/>
-      <c s="7" r="P91"/>
-      <c s="7" r="Q91"/>
-      <c s="7" r="R91"/>
-      <c s="7" r="S91"/>
-      <c s="7" r="T91"/>
-      <c s="7" r="U91"/>
-      <c s="7" r="V91"/>
-      <c s="7" r="W91"/>
-      <c s="7" r="X91"/>
-      <c s="7" r="Y91"/>
+      <c s="5" r="O91"/>
+      <c s="5" r="P91"/>
+      <c s="5" r="Q91"/>
+      <c s="5" r="R91"/>
+      <c s="5" r="S91"/>
+      <c s="5" r="T91"/>
+      <c s="5" r="U91"/>
+      <c s="5" r="V91"/>
+      <c s="5" r="W91"/>
+      <c s="5" r="X91"/>
+      <c s="5" r="Y91"/>
     </row>
     <row r="92">
-      <c s="5" r="A92"/>
-      <c s="33" r="B92"/>
-      <c s="6" r="C92"/>
+      <c s="3" r="A92"/>
+      <c s="32" r="B92"/>
+      <c s="4" r="C92"/>
       <c s="2" r="D92"/>
-      <c s="17" r="E92"/>
-      <c s="17" r="F92"/>
-      <c s="17" r="G92"/>
-      <c s="17" r="H92"/>
-      <c s="17" r="I92"/>
-      <c s="17" r="J92"/>
-      <c s="17" r="K92"/>
+      <c s="15" r="E92"/>
+      <c s="15" r="F92"/>
+      <c s="15" r="G92"/>
+      <c s="15" r="H92"/>
+      <c s="15" r="I92"/>
+      <c s="15" r="J92"/>
+      <c s="15" r="K92"/>
       <c s="44" r="L92"/>
-      <c s="31" r="M92"/>
+      <c s="30" r="M92"/>
       <c s="28" r="N92"/>
-      <c s="7" r="O92"/>
-      <c s="7" r="P92"/>
-      <c s="7" r="Q92"/>
-      <c s="7" r="R92"/>
-      <c s="7" r="S92"/>
-      <c s="7" r="T92"/>
-      <c s="7" r="U92"/>
-      <c s="7" r="V92"/>
-      <c s="7" r="W92"/>
-      <c s="7" r="X92"/>
-      <c s="7" r="Y92"/>
+      <c s="5" r="O92"/>
+      <c s="5" r="P92"/>
+      <c s="5" r="Q92"/>
+      <c s="5" r="R92"/>
+      <c s="5" r="S92"/>
+      <c s="5" r="T92"/>
+      <c s="5" r="U92"/>
+      <c s="5" r="V92"/>
+      <c s="5" r="W92"/>
+      <c s="5" r="X92"/>
+      <c s="5" r="Y92"/>
     </row>
     <row r="93">
-      <c s="5" r="A93"/>
-      <c s="33" r="B93"/>
-      <c s="6" r="C93"/>
+      <c s="3" r="A93"/>
+      <c s="32" r="B93"/>
+      <c s="4" r="C93"/>
       <c s="2" r="D93"/>
-      <c s="17" r="E93"/>
-      <c s="17" r="F93"/>
-      <c s="17" r="G93"/>
-      <c s="17" r="H93"/>
-      <c s="17" r="I93"/>
-      <c s="17" r="J93"/>
-      <c s="17" r="K93"/>
+      <c s="15" r="E93"/>
+      <c s="15" r="F93"/>
+      <c s="15" r="G93"/>
+      <c s="15" r="H93"/>
+      <c s="15" r="I93"/>
+      <c s="15" r="J93"/>
+      <c s="15" r="K93"/>
       <c s="44" r="L93"/>
-      <c s="31" r="M93"/>
+      <c s="30" r="M93"/>
       <c s="28" r="N93"/>
-      <c s="7" r="O93"/>
-      <c s="7" r="P93"/>
-      <c s="7" r="Q93"/>
-      <c s="7" r="R93"/>
-      <c s="7" r="S93"/>
-      <c s="7" r="T93"/>
-      <c s="7" r="U93"/>
-      <c s="7" r="V93"/>
-      <c s="7" r="W93"/>
-      <c s="7" r="X93"/>
-      <c s="7" r="Y93"/>
+      <c s="5" r="O93"/>
+      <c s="5" r="P93"/>
+      <c s="5" r="Q93"/>
+      <c s="5" r="R93"/>
+      <c s="5" r="S93"/>
+      <c s="5" r="T93"/>
+      <c s="5" r="U93"/>
+      <c s="5" r="V93"/>
+      <c s="5" r="W93"/>
+      <c s="5" r="X93"/>
+      <c s="5" r="Y93"/>
     </row>
     <row r="94">
-      <c s="5" r="A94"/>
-      <c s="33" r="B94"/>
-      <c s="6" r="C94"/>
+      <c s="3" r="A94"/>
+      <c s="32" r="B94"/>
+      <c s="4" r="C94"/>
       <c s="2" r="D94"/>
-      <c s="17" r="E94"/>
-      <c s="17" r="F94"/>
-      <c s="17" r="G94"/>
-      <c s="17" r="H94"/>
-      <c s="17" r="I94"/>
-      <c s="17" r="J94"/>
-      <c s="17" r="K94"/>
+      <c s="15" r="E94"/>
+      <c s="15" r="F94"/>
+      <c s="15" r="G94"/>
+      <c s="15" r="H94"/>
+      <c s="15" r="I94"/>
+      <c s="15" r="J94"/>
+      <c s="15" r="K94"/>
       <c s="44" r="L94"/>
-      <c s="31" r="M94"/>
+      <c s="30" r="M94"/>
       <c s="28" r="N94"/>
-      <c s="7" r="O94"/>
-      <c s="7" r="P94"/>
-      <c s="7" r="Q94"/>
-      <c s="7" r="R94"/>
-      <c s="7" r="S94"/>
-      <c s="7" r="T94"/>
-      <c s="7" r="U94"/>
-      <c s="7" r="V94"/>
-      <c s="7" r="W94"/>
-      <c s="7" r="X94"/>
-      <c s="7" r="Y94"/>
+      <c s="5" r="O94"/>
+      <c s="5" r="P94"/>
+      <c s="5" r="Q94"/>
+      <c s="5" r="R94"/>
+      <c s="5" r="S94"/>
+      <c s="5" r="T94"/>
+      <c s="5" r="U94"/>
+      <c s="5" r="V94"/>
+      <c s="5" r="W94"/>
+      <c s="5" r="X94"/>
+      <c s="5" r="Y94"/>
     </row>
     <row r="95">
-      <c s="5" r="A95"/>
-      <c s="33" r="B95"/>
-      <c s="6" r="C95"/>
+      <c s="3" r="A95"/>
+      <c s="32" r="B95"/>
+      <c s="4" r="C95"/>
       <c s="2" r="D95"/>
-      <c s="17" r="E95"/>
-      <c s="17" r="F95"/>
-      <c s="17" r="G95"/>
-      <c s="17" r="H95"/>
-      <c s="17" r="I95"/>
-      <c s="17" r="J95"/>
-      <c s="17" r="K95"/>
+      <c s="15" r="E95"/>
+      <c s="15" r="F95"/>
+      <c s="15" r="G95"/>
+      <c s="15" r="H95"/>
+      <c s="15" r="I95"/>
+      <c s="15" r="J95"/>
+      <c s="15" r="K95"/>
       <c s="44" r="L95"/>
-      <c s="31" r="M95"/>
+      <c s="30" r="M95"/>
       <c s="28" r="N95"/>
-      <c s="7" r="O95"/>
-      <c s="7" r="P95"/>
-      <c s="7" r="Q95"/>
-      <c s="7" r="R95"/>
-      <c s="7" r="S95"/>
-      <c s="7" r="T95"/>
-      <c s="7" r="U95"/>
-      <c s="7" r="V95"/>
-      <c s="7" r="W95"/>
-      <c s="7" r="X95"/>
-      <c s="7" r="Y95"/>
+      <c s="5" r="O95"/>
+      <c s="5" r="P95"/>
+      <c s="5" r="Q95"/>
+      <c s="5" r="R95"/>
+      <c s="5" r="S95"/>
+      <c s="5" r="T95"/>
+      <c s="5" r="U95"/>
+      <c s="5" r="V95"/>
+      <c s="5" r="W95"/>
+      <c s="5" r="X95"/>
+      <c s="5" r="Y95"/>
     </row>
     <row r="96">
-      <c s="5" r="A96"/>
-      <c s="33" r="B96"/>
-      <c s="6" r="C96"/>
+      <c s="3" r="A96"/>
+      <c s="32" r="B96"/>
+      <c s="4" r="C96"/>
       <c s="2" r="D96"/>
-      <c s="17" r="E96"/>
-      <c s="17" r="F96"/>
-      <c s="17" r="G96"/>
-      <c s="17" r="H96"/>
-      <c s="17" r="I96"/>
-      <c s="17" r="J96"/>
-      <c s="17" r="K96"/>
+      <c s="15" r="E96"/>
+      <c s="15" r="F96"/>
+      <c s="15" r="G96"/>
+      <c s="15" r="H96"/>
+      <c s="15" r="I96"/>
+      <c s="15" r="J96"/>
+      <c s="15" r="K96"/>
       <c s="44" r="L96"/>
-      <c s="31" r="M96"/>
+      <c s="30" r="M96"/>
       <c s="28" r="N96"/>
-      <c s="7" r="O96"/>
-      <c s="7" r="P96"/>
-      <c s="7" r="Q96"/>
-      <c s="7" r="R96"/>
-      <c s="7" r="S96"/>
-      <c s="7" r="T96"/>
-      <c s="7" r="U96"/>
-      <c s="7" r="V96"/>
-      <c s="7" r="W96"/>
-      <c s="7" r="X96"/>
-      <c s="7" r="Y96"/>
+      <c s="5" r="O96"/>
+      <c s="5" r="P96"/>
+      <c s="5" r="Q96"/>
+      <c s="5" r="R96"/>
+      <c s="5" r="S96"/>
+      <c s="5" r="T96"/>
+      <c s="5" r="U96"/>
+      <c s="5" r="V96"/>
+      <c s="5" r="W96"/>
+      <c s="5" r="X96"/>
+      <c s="5" r="Y96"/>
     </row>
     <row r="97">
-      <c s="5" r="A97"/>
-      <c s="33" r="B97"/>
-      <c s="6" r="C97"/>
+      <c s="3" r="A97"/>
+      <c s="32" r="B97"/>
+      <c s="4" r="C97"/>
       <c s="2" r="D97"/>
-      <c s="17" r="E97"/>
-      <c s="17" r="F97"/>
-      <c s="17" r="G97"/>
-      <c s="17" r="H97"/>
-      <c s="17" r="I97"/>
-      <c s="17" r="J97"/>
-      <c s="17" r="K97"/>
+      <c s="15" r="E97"/>
+      <c s="15" r="F97"/>
+      <c s="15" r="G97"/>
+      <c s="15" r="H97"/>
+      <c s="15" r="I97"/>
+      <c s="15" r="J97"/>
+      <c s="15" r="K97"/>
       <c s="44" r="L97"/>
-      <c s="31" r="M97"/>
+      <c s="30" r="M97"/>
       <c s="28" r="N97"/>
-      <c s="7" r="O97"/>
-      <c s="7" r="P97"/>
-      <c s="7" r="Q97"/>
-      <c s="7" r="R97"/>
-      <c s="7" r="S97"/>
-      <c s="7" r="T97"/>
-      <c s="7" r="U97"/>
-      <c s="7" r="V97"/>
-      <c s="7" r="W97"/>
-      <c s="7" r="X97"/>
-      <c s="7" r="Y97"/>
+      <c s="5" r="O97"/>
+      <c s="5" r="P97"/>
+      <c s="5" r="Q97"/>
+      <c s="5" r="R97"/>
+      <c s="5" r="S97"/>
+      <c s="5" r="T97"/>
+      <c s="5" r="U97"/>
+      <c s="5" r="V97"/>
+      <c s="5" r="W97"/>
+      <c s="5" r="X97"/>
+      <c s="5" r="Y97"/>
     </row>
     <row r="98">
-      <c s="5" r="A98"/>
-      <c s="33" r="B98"/>
-      <c s="6" r="C98"/>
+      <c s="3" r="A98"/>
+      <c s="32" r="B98"/>
+      <c s="4" r="C98"/>
       <c s="2" r="D98"/>
-      <c s="17" r="E98"/>
-      <c s="17" r="F98"/>
-      <c s="17" r="G98"/>
-      <c s="17" r="H98"/>
-      <c s="17" r="I98"/>
-      <c s="17" r="J98"/>
-      <c s="17" r="K98"/>
+      <c s="15" r="E98"/>
+      <c s="15" r="F98"/>
+      <c s="15" r="G98"/>
+      <c s="15" r="H98"/>
+      <c s="15" r="I98"/>
+      <c s="15" r="J98"/>
+      <c s="15" r="K98"/>
       <c s="44" r="L98"/>
-      <c s="31" r="M98"/>
+      <c s="30" r="M98"/>
       <c s="28" r="N98"/>
-      <c s="7" r="O98"/>
-      <c s="7" r="P98"/>
-      <c s="7" r="Q98"/>
-      <c s="7" r="R98"/>
-      <c s="7" r="S98"/>
-      <c s="7" r="T98"/>
-      <c s="7" r="U98"/>
-      <c s="7" r="V98"/>
-      <c s="7" r="W98"/>
-      <c s="7" r="X98"/>
-      <c s="7" r="Y98"/>
+      <c s="5" r="O98"/>
+      <c s="5" r="P98"/>
+      <c s="5" r="Q98"/>
+      <c s="5" r="R98"/>
+      <c s="5" r="S98"/>
+      <c s="5" r="T98"/>
+      <c s="5" r="U98"/>
+      <c s="5" r="V98"/>
+      <c s="5" r="W98"/>
+      <c s="5" r="X98"/>
+      <c s="5" r="Y98"/>
     </row>
     <row r="99">
-      <c s="5" r="A99"/>
-      <c s="33" r="B99"/>
-      <c s="6" r="C99"/>
+      <c s="3" r="A99"/>
+      <c s="32" r="B99"/>
+      <c s="4" r="C99"/>
       <c s="2" r="D99"/>
-      <c s="17" r="E99"/>
-      <c s="17" r="F99"/>
-      <c s="17" r="G99"/>
-      <c s="17" r="H99"/>
-      <c s="17" r="I99"/>
-      <c s="17" r="J99"/>
-      <c s="17" r="K99"/>
+      <c s="15" r="E99"/>
+      <c s="15" r="F99"/>
+      <c s="15" r="G99"/>
+      <c s="15" r="H99"/>
+      <c s="15" r="I99"/>
+      <c s="15" r="J99"/>
+      <c s="15" r="K99"/>
       <c s="44" r="L99"/>
-      <c s="31" r="M99"/>
+      <c s="30" r="M99"/>
       <c s="28" r="N99"/>
-      <c s="7" r="O99"/>
-      <c s="7" r="P99"/>
-      <c s="7" r="Q99"/>
-      <c s="7" r="R99"/>
-      <c s="7" r="S99"/>
-      <c s="7" r="T99"/>
-      <c s="7" r="U99"/>
-      <c s="7" r="V99"/>
-      <c s="7" r="W99"/>
-      <c s="7" r="X99"/>
-      <c s="7" r="Y99"/>
+      <c s="5" r="O99"/>
+      <c s="5" r="P99"/>
+      <c s="5" r="Q99"/>
+      <c s="5" r="R99"/>
+      <c s="5" r="S99"/>
+      <c s="5" r="T99"/>
+      <c s="5" r="U99"/>
+      <c s="5" r="V99"/>
+      <c s="5" r="W99"/>
+      <c s="5" r="X99"/>
+      <c s="5" r="Y99"/>
     </row>
     <row r="100">
-      <c s="5" r="A100"/>
-      <c s="33" r="B100"/>
-      <c s="6" r="C100"/>
+      <c s="3" r="A100"/>
+      <c s="32" r="B100"/>
+      <c s="4" r="C100"/>
       <c s="2" r="D100"/>
-      <c s="17" r="E100"/>
-      <c s="17" r="F100"/>
-      <c s="17" r="G100"/>
-      <c s="17" r="H100"/>
-      <c s="17" r="I100"/>
-      <c s="17" r="J100"/>
-      <c s="17" r="K100"/>
+      <c s="15" r="E100"/>
+      <c s="15" r="F100"/>
+      <c s="15" r="G100"/>
+      <c s="15" r="H100"/>
+      <c s="15" r="I100"/>
+      <c s="15" r="J100"/>
+      <c s="15" r="K100"/>
       <c s="44" r="L100"/>
-      <c s="31" r="M100"/>
+      <c s="30" r="M100"/>
       <c s="28" r="N100"/>
-      <c s="7" r="O100"/>
-      <c s="7" r="P100"/>
-      <c s="7" r="Q100"/>
-      <c s="7" r="R100"/>
-      <c s="7" r="S100"/>
-      <c s="7" r="T100"/>
-      <c s="7" r="U100"/>
-      <c s="7" r="V100"/>
-      <c s="7" r="W100"/>
-      <c s="7" r="X100"/>
-      <c s="7" r="Y100"/>
+      <c s="5" r="O100"/>
+      <c s="5" r="P100"/>
+      <c s="5" r="Q100"/>
+      <c s="5" r="R100"/>
+      <c s="5" r="S100"/>
+      <c s="5" r="T100"/>
+      <c s="5" r="U100"/>
+      <c s="5" r="V100"/>
+      <c s="5" r="W100"/>
+      <c s="5" r="X100"/>
+      <c s="5" r="Y100"/>
     </row>
     <row r="101">
-      <c s="14" r="A101"/>
+      <c s="12" r="A101"/>
       <c s="20" r="B101"/>
       <c s="22" r="C101"/>
-      <c s="11" r="D101"/>
-      <c s="38" r="E101"/>
-      <c s="38" r="F101"/>
-      <c s="38" r="G101"/>
-      <c s="38" r="H101"/>
-      <c s="38" r="I101"/>
-      <c s="38" r="J101"/>
-      <c s="38" r="K101"/>
+      <c s="9" r="D101"/>
+      <c s="39" r="E101"/>
+      <c s="39" r="F101"/>
+      <c s="39" r="G101"/>
+      <c s="39" r="H101"/>
+      <c s="39" r="I101"/>
+      <c s="39" r="J101"/>
+      <c s="39" r="K101"/>
       <c s="46" r="L101"/>
       <c s="29" r="M101"/>
-      <c s="39" r="N101"/>
-      <c s="7" r="O101"/>
-      <c s="7" r="P101"/>
-      <c s="7" r="Q101"/>
-      <c s="7" r="R101"/>
-      <c s="7" r="S101"/>
-      <c s="7" r="T101"/>
-      <c s="7" r="U101"/>
-      <c s="7" r="V101"/>
-      <c s="7" r="W101"/>
-      <c s="7" r="X101"/>
-      <c s="7" r="Y101"/>
+      <c s="40" r="N101"/>
+      <c s="5" r="O101"/>
+      <c s="5" r="P101"/>
+      <c s="5" r="Q101"/>
+      <c s="5" r="R101"/>
+      <c s="5" r="S101"/>
+      <c s="5" r="T101"/>
+      <c s="5" r="U101"/>
+      <c s="5" r="V101"/>
+      <c s="5" r="W101"/>
+      <c s="5" r="X101"/>
+      <c s="5" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4915,7 +5115,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <f>D2+E2</f>
@@ -4929,13 +5129,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -4946,7 +5146,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <f>D3+E3</f>
@@ -4960,7 +5160,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4969,7 +5169,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -4980,7 +5180,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <f>D4+E4</f>
@@ -4994,48 +5194,84 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c t="s" r="N4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="1" r="5" ht="45.75">
       <c r="A5">
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <f>D5+E5</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f>SUM(G5:M5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" r="F5">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c t="s" r="N5">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" r="6" ht="33.75">
       <c r="A6">
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <f>D6+E6</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
         <f>SUM(G6:M6)</f>
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" r="F6">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c t="s" r="N6">
+        <v>47</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -5043,7 +5279,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <f>D7+E7</f>
@@ -5059,7 +5295,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <f>D8+E8</f>
@@ -5075,7 +5311,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <f>D9+E9</f>
@@ -5159,7 +5395,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5171,13 +5407,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -5188,7 +5424,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -5200,7 +5436,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5212,7 +5448,7 @@
         <v>2</v>
       </c>
       <c t="s" r="N3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -5223,7 +5459,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -5235,13 +5471,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c t="s" r="N4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -5252,7 +5488,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -5264,7 +5500,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5279,10 +5515,45 @@
         <v>4</v>
       </c>
       <c t="s" r="N5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O5">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" r="F6">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c t="s" r="N6">
+        <v>58</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5290,16 +5561,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5367,7 +5628,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -5379,7 +5640,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5388,10 +5649,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c t="s" r="O2">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -5399,7 +5660,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -5411,7 +5672,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5423,10 +5684,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N3">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c t="s" r="O3">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -5434,7 +5695,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -5446,7 +5707,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -5458,10 +5719,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N4">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c t="s" r="O4">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -5469,7 +5730,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -5481,7 +5742,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5493,17 +5754,46 @@
         <v>2</v>
       </c>
       <c t="s" r="N5">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c t="s" r="O5">
-        <v>57</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B6">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" r="F6">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c t="s" r="N6">
+        <v>72</v>
+      </c>
+      <c t="s" r="O6">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5572,7 +5862,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -5584,13 +5874,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -5601,7 +5891,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -5613,7 +5903,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -5622,7 +5912,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -5633,7 +5923,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -5645,7 +5935,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -5654,7 +5944,7 @@
         <v>6.5</v>
       </c>
       <c t="s" r="N4">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -5665,7 +5955,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -5677,7 +5967,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5686,20 +5976,58 @@
         <v>5</v>
       </c>
       <c t="s" r="N5">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O5">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" r="F6">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c t="s" r="N6">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
@@ -5765,7 +6093,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -5777,7 +6105,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5789,7 +6117,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -5797,7 +6125,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -5809,7 +6137,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5821,7 +6149,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -5829,7 +6157,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -5841,7 +6169,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5856,7 +6184,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N4">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -5864,7 +6192,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5876,7 +6204,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5888,7 +6216,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N5">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -5896,7 +6224,34 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" r="F6">
+        <v>93</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5904,7 +6259,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -5912,7 +6267,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -5920,7 +6275,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -5928,7 +6283,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -5936,14 +6291,14 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5954,213 +6309,311 @@
     <col min="3" customWidth="1" max="3" width="17.86"/>
     <col min="4" customWidth="1" max="4" width="27.14"/>
     <col min="5" customWidth="1" max="5" width="20.0"/>
-    <col min="6" customWidth="1" max="6" width="34.14"/>
+    <col min="6" customWidth="1" max="6" width="48.57"/>
     <col min="7" customWidth="1" max="13" width="7.0"/>
     <col min="14" customWidth="1" max="14" width="49.86"/>
     <col min="15" customWidth="1" max="15" width="15.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="41" r="A1">
+      <c t="s" s="42" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="41" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="41" r="C1">
-        <v>81</v>
-      </c>
-      <c t="s" s="41" r="D1">
+      <c t="s" s="42" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="42" r="C1">
+        <v>94</v>
+      </c>
+      <c t="s" s="42" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="41" r="E1">
+      <c t="s" s="42" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="41" r="F1">
+      <c t="s" s="42" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="41" r="G1">
-        <v>82</v>
-      </c>
-      <c t="s" s="41" r="H1">
-        <v>83</v>
-      </c>
-      <c t="s" s="41" r="I1">
-        <v>84</v>
-      </c>
-      <c t="s" s="41" r="J1">
-        <v>85</v>
-      </c>
-      <c t="s" s="41" r="K1">
-        <v>86</v>
-      </c>
-      <c t="s" s="41" r="L1">
-        <v>87</v>
-      </c>
-      <c t="s" s="41" r="M1">
-        <v>88</v>
-      </c>
-      <c t="s" s="41" r="N1">
-        <v>89</v>
-      </c>
-      <c t="s" s="41" r="O1">
-        <v>90</v>
-      </c>
-      <c s="32" r="P1"/>
-      <c s="32" r="Q1"/>
-      <c s="32" r="R1"/>
-      <c s="32" r="S1"/>
-      <c s="32" r="T1"/>
-      <c s="32" r="U1"/>
-      <c s="32" r="V1"/>
-      <c s="32" r="W1"/>
-      <c s="32" r="X1"/>
-      <c s="32" r="Y1"/>
-      <c s="32" r="Z1"/>
+      <c t="s" s="42" r="G1">
+        <v>95</v>
+      </c>
+      <c t="s" s="42" r="H1">
+        <v>96</v>
+      </c>
+      <c t="s" s="42" r="I1">
+        <v>97</v>
+      </c>
+      <c t="s" s="42" r="J1">
+        <v>98</v>
+      </c>
+      <c t="s" s="42" r="K1">
+        <v>99</v>
+      </c>
+      <c t="s" s="42" r="L1">
+        <v>100</v>
+      </c>
+      <c t="s" s="42" r="M1">
+        <v>101</v>
+      </c>
+      <c t="s" s="42" r="N1">
+        <v>102</v>
+      </c>
+      <c t="s" s="42" r="O1">
+        <v>103</v>
+      </c>
+      <c s="31" r="P1"/>
+      <c s="31" r="Q1"/>
+      <c s="31" r="R1"/>
+      <c s="31" r="S1"/>
+      <c s="31" r="T1"/>
+      <c s="31" r="U1"/>
+      <c s="31" r="V1"/>
+      <c s="31" r="W1"/>
+      <c s="31" r="X1"/>
+      <c s="31" r="Y1"/>
+      <c s="31" r="Z1"/>
     </row>
     <row customHeight="1" r="2" ht="39.0">
-      <c s="15" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="15" r="B2">
-        <v>91</v>
-      </c>
-      <c s="15" r="C2">
+      <c s="13" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="B2">
+        <v>104</v>
+      </c>
+      <c s="13" r="C2">
         <v>5</v>
       </c>
-      <c s="15" r="D2">
+      <c s="13" r="D2">
         <v>4</v>
       </c>
-      <c s="15" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="15" r="F2">
-        <v>92</v>
-      </c>
-      <c s="15" r="G2">
+      <c s="13" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F2">
+        <v>105</v>
+      </c>
+      <c s="13" r="G2">
         <v>4</v>
       </c>
-      <c s="15" r="H2"/>
-      <c s="15" r="I2"/>
-      <c s="15" r="J2"/>
-      <c s="15" r="K2"/>
-      <c s="15" r="L2"/>
-      <c s="15" r="M2"/>
-      <c t="s" s="15" r="N2">
-        <v>93</v>
-      </c>
-      <c s="15" r="O2">
+      <c s="13" r="H2"/>
+      <c s="13" r="I2"/>
+      <c s="13" r="J2"/>
+      <c s="13" r="K2"/>
+      <c s="13" r="L2"/>
+      <c s="13" r="M2"/>
+      <c t="s" s="13" r="N2">
+        <v>106</v>
+      </c>
+      <c s="13" r="O2">
         <v>8</v>
       </c>
-      <c s="34" r="P2"/>
-      <c s="34" r="Q2"/>
-      <c s="34" r="R2"/>
-      <c s="34" r="S2"/>
-      <c s="34" r="T2"/>
-      <c s="34" r="U2"/>
-      <c s="34" r="V2"/>
-      <c s="34" r="W2"/>
-      <c s="34" r="X2"/>
-      <c s="34" r="Y2"/>
-      <c s="34" r="Z2"/>
+      <c s="33" r="P2"/>
+      <c s="33" r="Q2"/>
+      <c s="33" r="R2"/>
+      <c s="33" r="S2"/>
+      <c s="33" r="T2"/>
+      <c s="33" r="U2"/>
+      <c s="33" r="V2"/>
+      <c s="33" r="W2"/>
+      <c s="33" r="X2"/>
+      <c s="33" r="Y2"/>
+      <c s="33" r="Z2"/>
     </row>
     <row r="3">
-      <c s="15" r="A3">
+      <c s="13" r="A3">
         <v>2</v>
       </c>
-      <c t="s" s="15" r="B3">
-        <v>91</v>
-      </c>
-      <c s="15" r="C3">
+      <c t="s" s="13" r="B3">
+        <v>104</v>
+      </c>
+      <c s="13" r="C3">
         <v>5</v>
       </c>
-      <c s="15" r="D3">
+      <c s="13" r="D3">
         <v>4</v>
       </c>
-      <c s="15" r="E3">
-        <v>1</v>
-      </c>
-      <c t="s" s="15" r="F3">
-        <v>94</v>
-      </c>
-      <c s="15" r="G3">
+      <c s="13" r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F3">
+        <v>107</v>
+      </c>
+      <c s="13" r="G3">
         <v>3.5</v>
       </c>
-      <c s="15" r="H3">
+      <c s="13" r="H3">
         <v>1.5</v>
       </c>
-      <c s="15" r="I3"/>
-      <c s="15" r="J3"/>
-      <c s="15" r="K3"/>
-      <c s="15" r="L3"/>
-      <c s="15" r="M3"/>
-      <c t="s" s="15" r="N3">
-        <v>95</v>
-      </c>
-      <c s="15" r="O3">
+      <c s="13" r="I3"/>
+      <c s="13" r="J3"/>
+      <c s="13" r="K3"/>
+      <c s="13" r="L3"/>
+      <c s="13" r="M3"/>
+      <c t="s" s="13" r="N3">
+        <v>108</v>
+      </c>
+      <c s="13" r="O3">
         <v>8</v>
       </c>
-      <c s="15" r="P3"/>
-      <c s="15" r="Q3"/>
-      <c s="15" r="R3"/>
-      <c s="15" r="S3"/>
-      <c s="15" r="T3"/>
-      <c s="15" r="U3"/>
-      <c s="15" r="V3"/>
-      <c s="15" r="W3"/>
-      <c s="15" r="X3"/>
-      <c s="15" r="Y3"/>
-      <c s="15" r="Z3"/>
+      <c s="13" r="P3"/>
+      <c s="13" r="Q3"/>
+      <c s="13" r="R3"/>
+      <c s="13" r="S3"/>
+      <c s="13" r="T3"/>
+      <c s="13" r="U3"/>
+      <c s="13" r="V3"/>
+      <c s="13" r="W3"/>
+      <c s="13" r="X3"/>
+      <c s="13" r="Y3"/>
+      <c s="13" r="Z3"/>
     </row>
     <row r="4">
-      <c s="15" r="A4">
+      <c s="13" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="15" r="B4">
-        <v>91</v>
-      </c>
-      <c s="15" r="C4">
+      <c t="s" s="13" r="B4">
+        <v>104</v>
+      </c>
+      <c s="13" r="C4">
         <v>10</v>
       </c>
-      <c s="15" r="D4">
+      <c s="13" r="D4">
         <v>9</v>
       </c>
-      <c s="15" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="15" r="F4">
-        <v>96</v>
-      </c>
-      <c s="15" r="G4">
+      <c s="13" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F4">
+        <v>109</v>
+      </c>
+      <c s="13" r="G4">
         <v>4</v>
       </c>
-      <c s="15" r="H4"/>
-      <c s="15" r="I4"/>
-      <c s="15" r="J4">
+      <c s="13" r="H4"/>
+      <c s="13" r="I4"/>
+      <c s="13" r="J4">
         <v>4</v>
       </c>
-      <c s="15" r="K4">
-        <v>1</v>
-      </c>
-      <c s="15" r="L4"/>
-      <c s="15" r="M4"/>
-      <c t="s" s="15" r="N4">
-        <v>97</v>
-      </c>
-      <c s="15" r="O4">
+      <c s="13" r="K4">
+        <v>1</v>
+      </c>
+      <c s="13" r="L4"/>
+      <c s="13" r="M4"/>
+      <c t="s" s="13" r="N4">
+        <v>110</v>
+      </c>
+      <c s="13" r="O4">
         <v>12</v>
       </c>
-      <c s="15" r="P4"/>
-      <c s="15" r="Q4"/>
-      <c s="15" r="R4"/>
-      <c s="15" r="S4"/>
-      <c s="15" r="T4"/>
-      <c s="15" r="U4"/>
-      <c s="15" r="V4"/>
-      <c s="15" r="W4"/>
-      <c s="15" r="X4"/>
-      <c s="15" r="Y4"/>
-      <c s="15" r="Z4"/>
+      <c s="13" r="P4"/>
+      <c s="13" r="Q4"/>
+      <c s="13" r="R4"/>
+      <c s="13" r="S4"/>
+      <c s="13" r="T4"/>
+      <c s="13" r="U4"/>
+      <c s="13" r="V4"/>
+      <c s="13" r="W4"/>
+      <c s="13" r="X4"/>
+      <c s="13" r="Y4"/>
+      <c s="13" r="Z4"/>
+    </row>
+    <row r="5">
+      <c s="13" r="A5">
+        <v>4</v>
+      </c>
+      <c t="s" s="13" r="B5">
+        <v>104</v>
+      </c>
+      <c s="13" r="C5">
+        <v>10</v>
+      </c>
+      <c s="13" r="D5">
+        <v>9</v>
+      </c>
+      <c s="13" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F5">
+        <v>111</v>
+      </c>
+      <c s="13" r="G5">
+        <v>6</v>
+      </c>
+      <c s="13" r="H5"/>
+      <c s="13" r="I5"/>
+      <c s="13" r="J5">
+        <v>3</v>
+      </c>
+      <c s="13" r="K5"/>
+      <c s="13" r="L5"/>
+      <c s="13" r="M5"/>
+      <c t="s" s="13" r="N5">
+        <v>112</v>
+      </c>
+      <c s="13" r="O5">
+        <v>12</v>
+      </c>
+      <c s="13" r="P5"/>
+      <c s="13" r="Q5"/>
+      <c s="13" r="R5"/>
+      <c s="13" r="S5"/>
+      <c s="13" r="T5"/>
+      <c s="13" r="U5"/>
+      <c s="13" r="V5"/>
+      <c s="13" r="W5"/>
+      <c s="13" r="X5"/>
+      <c s="13" r="Y5"/>
+      <c s="13" r="Z5"/>
+    </row>
+    <row r="6">
+      <c s="13" r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" s="13" r="B6">
+        <v>104</v>
+      </c>
+      <c s="13" r="C6">
+        <v>11</v>
+      </c>
+      <c s="13" r="D6">
+        <v>10</v>
+      </c>
+      <c s="13" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F6">
+        <v>113</v>
+      </c>
+      <c s="13" r="G6">
+        <v>5</v>
+      </c>
+      <c s="13" r="H6"/>
+      <c s="13" r="I6"/>
+      <c s="13" r="J6">
+        <v>4</v>
+      </c>
+      <c s="13" r="K6">
+        <v>1</v>
+      </c>
+      <c s="13" r="L6"/>
+      <c s="13" r="M6"/>
+      <c t="s" s="13" r="N6">
+        <v>114</v>
+      </c>
+      <c s="13" r="O6">
+        <v>12</v>
+      </c>
+      <c s="13" r="P6"/>
+      <c s="13" r="Q6"/>
+      <c s="13" r="R6"/>
+      <c s="13" r="S6"/>
+      <c s="13" r="T6"/>
+      <c s="13" r="U6"/>
+      <c s="13" r="V6"/>
+      <c s="13" r="W6"/>
+      <c s="13" r="X6"/>
+      <c s="13" r="Y6"/>
+      <c s="13" r="Z6"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -194,12 +194,32 @@
 </t>
       </text>
     </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <t xml:space="preserve">Reworking how answer choice selection changes behavior of the question.</t>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <t xml:space="preserve">Unified the Survey form. Adding questions/answers along with sorting and figuring out when to prevent adding more questions.</t>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <t xml:space="preserve">Making sure things worked properly. Tested and found bugs / fixed them.</t>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0">
+      <text>
+        <t xml:space="preserve">Talked to Gloria and the rest of the team about what sort of User experience is desired.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
   <si>
     <t>week #</t>
   </si>
@@ -362,6 +382,21 @@
 </t>
   </si>
   <si>
+    <t>4 - write unit tests and write simple report on unit testing to discuss it with the group and Chao-Te who is going to present about testing next week 
+5 - write project management part of the next presentation
+5 - gather all the information from the team and put together the next presentation
+5 - plan next meeting
+5 - start sending daily status updates email</t>
+  </si>
+  <si>
+    <t>- go through Pivotal Tracker stories, update stories, split a few of them in smaller stories and reastimate for iteration 3
+- Go thourgh the latest version of the code in master branch and add any remaining tasks or bugs in GitHub for the existing functionality
+- go through GitHub tasks and bugs and fix as many as possible
+- help with SDD document
+- run phpdoc(or a comparable alternative) to get the current documentation. Maybe add some more docs as well
+- plan next meeting and communicate plan with the group</t>
+  </si>
+  <si>
     <t>week</t>
   </si>
   <si>
@@ -464,6 +499,14 @@
 </t>
   </si>
   <si>
+    <t>3 - Account setting page
+3 - Made changes to multiple choice</t>
+  </si>
+  <si>
+    <t>Add more question types
+Help with take survey page</t>
+  </si>
+  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -505,6 +548,9 @@
   </si>
   <si>
     <t>3 - UI / CSS Implementation, 3 - Fix UX bugs</t>
+  </si>
+  <si>
+    <t>3 - Refactor CSS, 6 - SDD document, 2 - Design Survey View for Survey Taker, 3 - Implementation of View Survey</t>
   </si>
   <si>
     <t>Beth</t>
@@ -577,6 +623,16 @@
 document programs</t>
   </si>
   <si>
+    <t>0 - learned code, Selenium server
+3 - code review and documentation
+6 - prepared for presentation</t>
+  </si>
+  <si>
+    <t>more documenting code
+work on SDD
+functional test use cases</t>
+  </si>
+  <si>
     <t>Imaad</t>
   </si>
   <si>
@@ -646,6 +702,14 @@
     <t>1. Prepare for presentation
 2. Account Settings page
 3. Integrate MCQ into dev </t>
+  </si>
+  <si>
+    <t>3 - Finished Multiple choice implementation
+6 - Prepared for presentation</t>
+  </si>
+  <si>
+    <t>1. Start Implementing survey/take
+render a survey form from the database</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -723,6 +787,11 @@
 5 - communication / management</t>
   </si>
   <si>
+    <t>4 - Test case design
+4 - Functional test documentation (using selenium)
+5 - communication (mail)</t>
+  </si>
+  <si>
     <t>Total actual time</t>
   </si>
   <si>
@@ -767,7 +836,7 @@
   <si>
     <t>0 - Review and learn PHP
 1 - Add user stories
-1 - Review SPMP document</t>
+1 - Review SPMP document </t>
   </si>
   <si>
     <t>Work on login page(back-end) with Imaad and Vincent
@@ -823,6 +892,18 @@
   <si>
     <t>Prepare presentation material
 Add more functional tests
+</t>
+  </si>
+  <si>
+    <t>3 - Functional test (LoginTest, SignUpTest, SurveyTest)
+4 - Setup Selenium and run the above test cases for our latest UI
+5 - Discussed about the presentation
+</t>
+  </si>
+  <si>
+    <t>Create functional test case doc
+More Selenium test cases for latest UI
+Work with Vincent and Imaad (user report or create user survey)
 </t>
   </si>
 </sst>
@@ -993,12 +1074,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1017,7 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,13 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
+        <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFA4C2F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,18 +1207,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,12 +1225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,6 +1249,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,12 +1304,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1260,8 +1337,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1285,6 +1366,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1310,19 +1402,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1336,19 +1415,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1363,21 +1429,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1401,7 +1452,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1440,9 +1493,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1455,7 +1506,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1481,9 +1534,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1529,7 +1580,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1553,21 +1634,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1595,9 +1661,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1620,6 +1684,30 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1633,7 +1721,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1643,24 +1733,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1722,8 +1803,8 @@
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -1731,17 +1812,17 @@
     <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="1" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="2" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="6" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="7" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -1755,98 +1836,98 @@
     <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="11" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="2" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="3" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="4" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="5" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="6" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="6" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="18" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="7" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="7" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="19" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="8" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="9" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="23" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="24" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="8" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="9" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="10" applyFill="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="10">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="27" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="11" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="12" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="13" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="34" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="32" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="12">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" applyFont="1" fontId="13" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="14" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="36" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -2340,6 +2421,64 @@
       <c s="48" r="Y8"/>
       <c s="48" r="Z8"/>
     </row>
+    <row r="9">
+      <c s="1" r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="B9">
+        <v>15</v>
+      </c>
+      <c s="1" r="C9">
+        <v>12</v>
+      </c>
+      <c s="1" r="D9">
+        <v>11</v>
+      </c>
+      <c s="1" r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="F9">
+        <v>30</v>
+      </c>
+      <c s="1" r="G9">
+        <v>0</v>
+      </c>
+      <c s="1" r="H9">
+        <v>0</v>
+      </c>
+      <c s="1" r="I9">
+        <v>0</v>
+      </c>
+      <c s="1" r="J9">
+        <v>0</v>
+      </c>
+      <c s="1" r="K9">
+        <v>0</v>
+      </c>
+      <c s="1" r="L9">
+        <v>4</v>
+      </c>
+      <c s="1" r="M9">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="N9">
+        <v>31</v>
+      </c>
+      <c s="1" r="O9">
+        <v>10</v>
+      </c>
+      <c s="1" r="P9"/>
+      <c s="1" r="Q9"/>
+      <c s="1" r="R9"/>
+      <c s="1" r="S9"/>
+      <c s="1" r="T9"/>
+      <c s="1" r="U9"/>
+      <c s="1" r="V9"/>
+      <c s="1" r="W9"/>
+      <c s="1" r="X9"/>
+      <c s="1" r="Y9"/>
+      <c s="1" r="Z9"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -2364,176 +2503,176 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="16" r="A1">
-        <v>30</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>31</v>
-      </c>
-      <c t="s" s="8" r="C1">
+      <c t="s" s="29" r="A1">
         <v>32</v>
       </c>
-      <c t="s" s="31" r="D1">
+      <c t="s" s="43" r="B1">
+        <v>33</v>
+      </c>
+      <c t="s" s="42" r="C1">
+        <v>34</v>
+      </c>
+      <c t="s" s="6" r="D1">
         <v>4</v>
       </c>
-      <c t="s" s="21" r="E1">
-        <v>33</v>
-      </c>
-      <c s="21" r="F1"/>
-      <c s="21" r="G1"/>
-      <c s="21" r="H1"/>
-      <c s="21" r="I1"/>
-      <c s="21" r="J1"/>
-      <c s="21" r="K1"/>
-      <c t="s" s="36" r="L1">
+      <c t="s" s="20" r="E1">
+        <v>35</v>
+      </c>
+      <c s="20" r="F1"/>
+      <c s="20" r="G1"/>
+      <c s="20" r="H1"/>
+      <c s="20" r="I1"/>
+      <c s="20" r="J1"/>
+      <c s="20" r="K1"/>
+      <c t="s" s="27" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="24" r="M1">
+      <c t="s" s="16" r="M1">
         <v>14</v>
       </c>
       <c s="7" r="N1"/>
-      <c s="6" r="O1"/>
-      <c s="6" r="P1"/>
-      <c s="6" r="Q1"/>
-      <c s="6" r="R1"/>
-      <c s="6" r="S1"/>
-      <c s="6" r="T1"/>
-      <c s="6" r="U1"/>
-      <c s="6" r="V1"/>
-      <c s="6" r="W1"/>
-      <c s="6" r="X1"/>
-      <c s="6" r="Y1"/>
+      <c s="5" r="O1"/>
+      <c s="5" r="P1"/>
+      <c s="5" r="Q1"/>
+      <c s="5" r="R1"/>
+      <c s="5" r="S1"/>
+      <c s="5" r="T1"/>
+      <c s="5" r="U1"/>
+      <c s="5" r="V1"/>
+      <c s="5" r="W1"/>
+      <c s="5" r="X1"/>
+      <c s="5" r="Y1"/>
     </row>
     <row r="2">
-      <c s="25" r="A2"/>
-      <c s="35" r="B2"/>
+      <c s="23" r="A2"/>
+      <c s="34" r="B2"/>
       <c s="47" r="C2"/>
-      <c s="19" r="D2"/>
-      <c t="s" s="21" r="E2">
-        <v>34</v>
-      </c>
-      <c t="s" s="21" r="F2">
-        <v>35</v>
-      </c>
-      <c t="s" s="21" r="G2">
+      <c s="18" r="D2"/>
+      <c t="s" s="20" r="E2">
         <v>36</v>
       </c>
-      <c t="s" s="21" r="H2">
+      <c t="s" s="20" r="F2">
         <v>37</v>
       </c>
-      <c t="s" s="21" r="I2">
+      <c t="s" s="20" r="G2">
         <v>38</v>
       </c>
-      <c t="s" s="21" r="J2">
+      <c t="s" s="20" r="H2">
         <v>39</v>
       </c>
-      <c t="s" s="21" r="K2">
+      <c t="s" s="20" r="I2">
         <v>40</v>
       </c>
-      <c s="18" r="L2"/>
-      <c s="15" r="M2"/>
-      <c s="28" r="N2"/>
-      <c s="6" r="O2"/>
-      <c s="6" r="P2"/>
-      <c s="6" r="Q2"/>
-      <c s="6" r="R2"/>
-      <c s="6" r="S2"/>
-      <c s="6" r="T2"/>
-      <c s="6" r="U2"/>
-      <c s="6" r="V2"/>
-      <c s="6" r="W2"/>
-      <c s="6" r="X2"/>
-      <c s="6" r="Y2"/>
+      <c t="s" s="20" r="J2">
+        <v>41</v>
+      </c>
+      <c t="s" s="20" r="K2">
+        <v>42</v>
+      </c>
+      <c s="17" r="L2"/>
+      <c s="14" r="M2"/>
+      <c s="26" r="N2"/>
+      <c s="5" r="O2"/>
+      <c s="5" r="P2"/>
+      <c s="5" r="Q2"/>
+      <c s="5" r="R2"/>
+      <c s="5" r="S2"/>
+      <c s="5" r="T2"/>
+      <c s="5" r="U2"/>
+      <c s="5" r="V2"/>
+      <c s="5" r="W2"/>
+      <c s="5" r="X2"/>
+      <c s="5" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
-      <c s="4" r="A3">
-        <v>1</v>
-      </c>
-      <c s="37" r="B3">
+      <c s="3" r="A3">
+        <v>1</v>
+      </c>
+      <c s="35" r="B3">
         <f>SUM(C3:D3)</f>
         <v>5</v>
       </c>
-      <c s="12" r="C3">
+      <c s="11" r="C3">
         <f>SUM(E3:K3)</f>
         <v>4</v>
       </c>
-      <c s="38" r="D3">
-        <v>1</v>
-      </c>
-      <c s="9" r="E3">
+      <c s="36" r="D3">
+        <v>1</v>
+      </c>
+      <c s="8" r="E3">
         <v>0</v>
       </c>
-      <c s="9" r="F3">
-        <v>1</v>
-      </c>
-      <c s="9" r="G3">
+      <c s="8" r="F3">
+        <v>1</v>
+      </c>
+      <c s="8" r="G3">
         <v>0</v>
       </c>
-      <c s="9" r="H3">
-        <v>1</v>
-      </c>
-      <c s="9" r="I3">
+      <c s="8" r="H3">
+        <v>1</v>
+      </c>
+      <c s="8" r="I3">
         <v>0</v>
       </c>
-      <c s="9" r="J3">
-        <v>1</v>
-      </c>
-      <c s="9" r="K3">
-        <v>1</v>
-      </c>
-      <c s="43" r="L3">
+      <c s="8" r="J3">
+        <v>1</v>
+      </c>
+      <c s="8" r="K3">
+        <v>1</v>
+      </c>
+      <c s="41" r="L3">
         <v>3</v>
       </c>
-      <c s="11" r="M3">
+      <c s="10" r="M3">
         <v>5</v>
       </c>
-      <c s="28" r="N3"/>
-      <c s="6" r="O3"/>
-      <c s="6" r="P3"/>
-      <c s="6" r="Q3"/>
-      <c s="6" r="R3"/>
-      <c s="6" r="S3"/>
-      <c s="6" r="T3"/>
-      <c s="6" r="U3"/>
-      <c s="6" r="V3"/>
-      <c s="6" r="W3"/>
-      <c s="6" r="X3"/>
-      <c s="6" r="Y3"/>
+      <c s="26" r="N3"/>
+      <c s="5" r="O3"/>
+      <c s="5" r="P3"/>
+      <c s="5" r="Q3"/>
+      <c s="5" r="R3"/>
+      <c s="5" r="S3"/>
+      <c s="5" r="T3"/>
+      <c s="5" r="U3"/>
+      <c s="5" r="V3"/>
+      <c s="5" r="W3"/>
+      <c s="5" r="X3"/>
+      <c s="5" r="Y3"/>
     </row>
     <row r="4">
-      <c s="4" r="A4">
+      <c s="3" r="A4">
         <v>2</v>
       </c>
-      <c s="33" r="B4">
+      <c s="32" r="B4">
         <f>SUM(C4:D4)</f>
         <v>3.5</v>
       </c>
-      <c s="5" r="C4">
+      <c s="4" r="C4">
         <f>SUM(E4:K4)</f>
         <v>3.5</v>
       </c>
-      <c s="3" r="D4">
+      <c s="2" r="D4">
         <v>0</v>
       </c>
-      <c s="17" r="E4">
+      <c s="15" r="E4">
         <v>0</v>
       </c>
-      <c s="17" r="F4">
-        <v>1</v>
-      </c>
-      <c s="17" r="G4">
-        <v>1</v>
-      </c>
-      <c s="17" r="H4">
+      <c s="15" r="F4">
+        <v>1</v>
+      </c>
+      <c s="15" r="G4">
+        <v>1</v>
+      </c>
+      <c s="15" r="H4">
         <v>0.5</v>
       </c>
-      <c s="17" r="I4">
+      <c s="15" r="I4">
         <v>0</v>
       </c>
-      <c s="17" r="J4">
-        <v>1</v>
-      </c>
-      <c s="17" r="K4">
+      <c s="15" r="J4">
+        <v>1</v>
+      </c>
+      <c s="15" r="K4">
         <v>0</v>
       </c>
       <c s="44" r="L4">
@@ -2542,53 +2681,53 @@
       <c s="30" r="M4">
         <v>5</v>
       </c>
-      <c s="28" r="N4"/>
-      <c s="6" r="O4"/>
-      <c s="6" r="P4"/>
-      <c s="6" r="Q4"/>
-      <c s="6" r="R4"/>
-      <c s="6" r="S4"/>
-      <c s="6" r="T4"/>
-      <c s="6" r="U4"/>
-      <c s="6" r="V4"/>
-      <c s="6" r="W4"/>
-      <c s="6" r="X4"/>
-      <c s="6" r="Y4"/>
+      <c s="26" r="N4"/>
+      <c s="5" r="O4"/>
+      <c s="5" r="P4"/>
+      <c s="5" r="Q4"/>
+      <c s="5" r="R4"/>
+      <c s="5" r="S4"/>
+      <c s="5" r="T4"/>
+      <c s="5" r="U4"/>
+      <c s="5" r="V4"/>
+      <c s="5" r="W4"/>
+      <c s="5" r="X4"/>
+      <c s="5" r="Y4"/>
     </row>
     <row r="5">
-      <c s="4" r="A5">
+      <c s="3" r="A5">
         <v>3</v>
       </c>
-      <c s="33" r="B5">
+      <c s="32" r="B5">
         <f>SUM(C5:D5)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C5">
+      <c s="4" r="C5">
         <f>SUM(E5:K5)</f>
         <v>8</v>
       </c>
-      <c s="3" r="D5">
-        <v>1</v>
-      </c>
-      <c s="17" r="E5">
-        <v>1</v>
-      </c>
-      <c s="17" r="F5">
+      <c s="2" r="D5">
+        <v>1</v>
+      </c>
+      <c s="15" r="E5">
+        <v>1</v>
+      </c>
+      <c s="15" r="F5">
         <v>0</v>
       </c>
-      <c s="17" r="G5">
+      <c s="15" r="G5">
         <v>0</v>
       </c>
-      <c s="17" r="H5">
+      <c s="15" r="H5">
         <v>5</v>
       </c>
-      <c s="17" r="I5">
+      <c s="15" r="I5">
         <v>0</v>
       </c>
-      <c s="17" r="J5">
-        <v>1</v>
-      </c>
-      <c s="17" r="K5">
+      <c s="15" r="J5">
+        <v>1</v>
+      </c>
+      <c s="15" r="K5">
         <v>1</v>
       </c>
       <c s="44" r="L5">
@@ -2597,53 +2736,53 @@
       <c s="30" r="M5">
         <v>8</v>
       </c>
-      <c s="28" r="N5"/>
-      <c s="6" r="O5"/>
-      <c s="6" r="P5"/>
-      <c s="6" r="Q5"/>
-      <c s="6" r="R5"/>
-      <c s="6" r="S5"/>
-      <c s="6" r="T5"/>
-      <c s="6" r="U5"/>
-      <c s="6" r="V5"/>
-      <c s="6" r="W5"/>
-      <c s="6" r="X5"/>
-      <c s="6" r="Y5"/>
+      <c s="26" r="N5"/>
+      <c s="5" r="O5"/>
+      <c s="5" r="P5"/>
+      <c s="5" r="Q5"/>
+      <c s="5" r="R5"/>
+      <c s="5" r="S5"/>
+      <c s="5" r="T5"/>
+      <c s="5" r="U5"/>
+      <c s="5" r="V5"/>
+      <c s="5" r="W5"/>
+      <c s="5" r="X5"/>
+      <c s="5" r="Y5"/>
     </row>
     <row r="6">
-      <c s="4" r="A6">
+      <c s="3" r="A6">
         <v>4</v>
       </c>
-      <c s="33" r="B6">
+      <c s="32" r="B6">
         <f>SUM(C6:D6)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C6">
+      <c s="4" r="C6">
         <f>SUM(E6:K6)</f>
         <v>8</v>
       </c>
-      <c s="3" r="D6">
-        <v>1</v>
-      </c>
-      <c s="17" r="E6">
+      <c s="2" r="D6">
+        <v>1</v>
+      </c>
+      <c s="15" r="E6">
         <v>0</v>
       </c>
-      <c s="17" r="F6">
+      <c s="15" r="F6">
         <v>0</v>
       </c>
-      <c s="17" r="G6">
+      <c s="15" r="G6">
         <v>2</v>
       </c>
-      <c s="17" r="H6">
+      <c s="15" r="H6">
         <v>3</v>
       </c>
-      <c s="17" r="I6">
-        <v>1</v>
-      </c>
-      <c s="17" r="J6">
+      <c s="15" r="I6">
+        <v>1</v>
+      </c>
+      <c s="15" r="J6">
         <v>2</v>
       </c>
-      <c s="17" r="K6">
+      <c s="15" r="K6">
         <v>0</v>
       </c>
       <c s="44" r="L6">
@@ -2652,53 +2791,53 @@
       <c s="30" r="M6">
         <v>9</v>
       </c>
-      <c s="28" r="N6"/>
-      <c s="6" r="O6"/>
-      <c s="6" r="P6"/>
-      <c s="6" r="Q6"/>
-      <c s="6" r="R6"/>
-      <c s="6" r="S6"/>
-      <c s="6" r="T6"/>
-      <c s="6" r="U6"/>
-      <c s="6" r="V6"/>
-      <c s="6" r="W6"/>
-      <c s="6" r="X6"/>
-      <c s="6" r="Y6"/>
+      <c s="26" r="N6"/>
+      <c s="5" r="O6"/>
+      <c s="5" r="P6"/>
+      <c s="5" r="Q6"/>
+      <c s="5" r="R6"/>
+      <c s="5" r="S6"/>
+      <c s="5" r="T6"/>
+      <c s="5" r="U6"/>
+      <c s="5" r="V6"/>
+      <c s="5" r="W6"/>
+      <c s="5" r="X6"/>
+      <c s="5" r="Y6"/>
     </row>
     <row r="7">
-      <c s="4" r="A7">
+      <c s="3" r="A7">
         <v>5</v>
       </c>
-      <c s="33" r="B7">
+      <c s="32" r="B7">
         <f>SUM(C7:D7)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C7">
+      <c s="4" r="C7">
         <f>SUM(E7:K7)</f>
         <v>8</v>
       </c>
-      <c s="3" r="D7">
-        <v>1</v>
-      </c>
-      <c s="17" r="E7">
-        <v>1</v>
-      </c>
-      <c s="17" r="F7">
+      <c s="2" r="D7">
+        <v>1</v>
+      </c>
+      <c s="15" r="E7">
+        <v>1</v>
+      </c>
+      <c s="15" r="F7">
         <v>0</v>
       </c>
-      <c s="17" r="G7">
-        <v>1</v>
-      </c>
-      <c s="17" r="H7">
+      <c s="15" r="G7">
+        <v>1</v>
+      </c>
+      <c s="15" r="H7">
         <v>3</v>
       </c>
-      <c s="17" r="I7">
+      <c s="15" r="I7">
         <v>0</v>
       </c>
-      <c s="17" r="J7">
+      <c s="15" r="J7">
         <v>2</v>
       </c>
-      <c s="17" r="K7">
+      <c s="15" r="K7">
         <v>1</v>
       </c>
       <c s="44" r="L7">
@@ -2707,53 +2846,53 @@
       <c s="30" r="M7">
         <v>8</v>
       </c>
-      <c s="28" r="N7"/>
-      <c s="6" r="O7"/>
-      <c s="6" r="P7"/>
-      <c s="6" r="Q7"/>
-      <c s="6" r="R7"/>
-      <c s="6" r="S7"/>
-      <c s="6" r="T7"/>
-      <c s="6" r="U7"/>
-      <c s="6" r="V7"/>
-      <c s="6" r="W7"/>
-      <c s="6" r="X7"/>
-      <c s="6" r="Y7"/>
+      <c s="26" r="N7"/>
+      <c s="5" r="O7"/>
+      <c s="5" r="P7"/>
+      <c s="5" r="Q7"/>
+      <c s="5" r="R7"/>
+      <c s="5" r="S7"/>
+      <c s="5" r="T7"/>
+      <c s="5" r="U7"/>
+      <c s="5" r="V7"/>
+      <c s="5" r="W7"/>
+      <c s="5" r="X7"/>
+      <c s="5" r="Y7"/>
     </row>
     <row r="8">
-      <c s="4" r="A8">
+      <c s="3" r="A8">
         <v>6</v>
       </c>
-      <c s="33" r="B8">
+      <c s="32" r="B8">
         <f>SUM(C8:D8)</f>
         <v>8</v>
       </c>
-      <c s="5" r="C8">
+      <c s="4" r="C8">
         <f>SUM(E8:K8)</f>
         <v>7</v>
       </c>
-      <c s="3" r="D8">
-        <v>1</v>
-      </c>
-      <c s="17" r="E8">
+      <c s="2" r="D8">
+        <v>1</v>
+      </c>
+      <c s="15" r="E8">
         <v>0</v>
       </c>
-      <c s="17" r="F8">
+      <c s="15" r="F8">
         <v>0</v>
       </c>
-      <c s="17" r="G8">
-        <v>1</v>
-      </c>
-      <c s="17" r="H8">
+      <c s="15" r="G8">
+        <v>1</v>
+      </c>
+      <c s="15" r="H8">
         <v>4</v>
       </c>
-      <c s="17" r="I8">
+      <c s="15" r="I8">
         <v>0</v>
       </c>
-      <c s="17" r="J8">
+      <c s="15" r="J8">
         <v>2</v>
       </c>
-      <c s="17" r="K8">
+      <c s="15" r="K8">
         <v>0</v>
       </c>
       <c s="44" r="L8">
@@ -2762,53 +2901,53 @@
       <c s="30" r="M8">
         <v>9</v>
       </c>
-      <c s="28" r="N8"/>
-      <c s="6" r="O8"/>
-      <c s="6" r="P8"/>
-      <c s="6" r="Q8"/>
-      <c s="6" r="R8"/>
-      <c s="6" r="S8"/>
-      <c s="6" r="T8"/>
-      <c s="6" r="U8"/>
-      <c s="6" r="V8"/>
-      <c s="6" r="W8"/>
-      <c s="6" r="X8"/>
-      <c s="6" r="Y8"/>
+      <c s="26" r="N8"/>
+      <c s="5" r="O8"/>
+      <c s="5" r="P8"/>
+      <c s="5" r="Q8"/>
+      <c s="5" r="R8"/>
+      <c s="5" r="S8"/>
+      <c s="5" r="T8"/>
+      <c s="5" r="U8"/>
+      <c s="5" r="V8"/>
+      <c s="5" r="W8"/>
+      <c s="5" r="X8"/>
+      <c s="5" r="Y8"/>
     </row>
     <row r="9">
-      <c s="4" r="A9">
+      <c s="3" r="A9">
         <v>7</v>
       </c>
-      <c s="33" r="B9">
+      <c s="32" r="B9">
         <f>SUM(C9:D9)</f>
         <v>10</v>
       </c>
-      <c s="5" r="C9">
+      <c s="4" r="C9">
         <f>SUM(E9:K9)</f>
         <v>9</v>
       </c>
-      <c s="3" r="D9">
-        <v>1</v>
-      </c>
-      <c s="17" r="E9">
+      <c s="2" r="D9">
+        <v>1</v>
+      </c>
+      <c s="15" r="E9">
         <v>0</v>
       </c>
-      <c s="17" r="F9">
-        <v>1</v>
-      </c>
-      <c s="17" r="G9">
-        <v>1</v>
-      </c>
-      <c s="17" r="H9">
+      <c s="15" r="F9">
+        <v>1</v>
+      </c>
+      <c s="15" r="G9">
+        <v>1</v>
+      </c>
+      <c s="15" r="H9">
         <v>4</v>
       </c>
-      <c s="17" r="I9">
-        <v>1</v>
-      </c>
-      <c s="17" r="J9">
+      <c s="15" r="I9">
+        <v>1</v>
+      </c>
+      <c s="15" r="J9">
         <v>2</v>
       </c>
-      <c s="17" r="K9">
+      <c s="15" r="K9">
         <v>0</v>
       </c>
       <c s="44" r="L9">
@@ -2817,2542 +2956,2562 @@
       <c s="30" r="M9">
         <v>10</v>
       </c>
-      <c s="28" r="N9"/>
-      <c s="6" r="O9"/>
-      <c s="6" r="P9"/>
-      <c s="6" r="Q9"/>
-      <c s="6" r="R9"/>
-      <c s="6" r="S9"/>
-      <c s="6" r="T9"/>
-      <c s="6" r="U9"/>
-      <c s="6" r="V9"/>
-      <c s="6" r="W9"/>
-      <c s="6" r="X9"/>
-      <c s="6" r="Y9"/>
+      <c s="26" r="N9"/>
+      <c s="5" r="O9"/>
+      <c s="5" r="P9"/>
+      <c s="5" r="Q9"/>
+      <c s="5" r="R9"/>
+      <c s="5" r="S9"/>
+      <c s="5" r="T9"/>
+      <c s="5" r="U9"/>
+      <c s="5" r="V9"/>
+      <c s="5" r="W9"/>
+      <c s="5" r="X9"/>
+      <c s="5" r="Y9"/>
     </row>
     <row r="10">
-      <c s="4" r="A10">
+      <c s="3" r="A10">
         <v>8</v>
       </c>
-      <c s="33" r="B10">
+      <c s="32" r="B10">
         <f>SUM(C10:D10)</f>
+        <v>10</v>
+      </c>
+      <c s="4" r="C10">
+        <f>SUM(E10:K10)</f>
+        <v>9</v>
+      </c>
+      <c s="2" r="D10">
+        <v>1</v>
+      </c>
+      <c s="15" r="E10">
         <v>0</v>
       </c>
-      <c s="5" r="C10">
-        <f>SUM(E10:K10)</f>
+      <c s="15" r="F10">
         <v>0</v>
       </c>
-      <c s="3" r="D10"/>
-      <c s="17" r="E10"/>
-      <c s="17" r="F10"/>
-      <c s="17" r="G10"/>
-      <c s="17" r="H10"/>
-      <c s="17" r="I10"/>
-      <c s="17" r="J10"/>
-      <c s="17" r="K10"/>
-      <c s="44" r="L10"/>
-      <c s="30" r="M10"/>
-      <c s="28" r="N10"/>
-      <c s="6" r="O10"/>
-      <c s="6" r="P10"/>
-      <c s="6" r="Q10"/>
-      <c s="6" r="R10"/>
-      <c s="6" r="S10"/>
-      <c s="6" r="T10"/>
-      <c s="6" r="U10"/>
-      <c s="6" r="V10"/>
-      <c s="6" r="W10"/>
-      <c s="6" r="X10"/>
-      <c s="6" r="Y10"/>
+      <c s="15" r="G10">
+        <v>1</v>
+      </c>
+      <c s="15" r="H10">
+        <v>5</v>
+      </c>
+      <c s="15" r="I10">
+        <v>1</v>
+      </c>
+      <c s="15" r="J10">
+        <v>2</v>
+      </c>
+      <c s="15" r="K10">
+        <v>0</v>
+      </c>
+      <c s="44" r="L10">
+        <v>7</v>
+      </c>
+      <c s="30" r="M10">
+        <v>8</v>
+      </c>
+      <c s="26" r="N10"/>
+      <c s="5" r="O10"/>
+      <c s="5" r="P10"/>
+      <c s="5" r="Q10"/>
+      <c s="5" r="R10"/>
+      <c s="5" r="S10"/>
+      <c s="5" r="T10"/>
+      <c s="5" r="U10"/>
+      <c s="5" r="V10"/>
+      <c s="5" r="W10"/>
+      <c s="5" r="X10"/>
+      <c s="5" r="Y10"/>
     </row>
     <row r="11">
-      <c s="4" r="A11">
+      <c s="3" r="A11">
         <v>9</v>
       </c>
-      <c s="33" r="B11">
+      <c s="32" r="B11">
         <f>SUM(C11:D11)</f>
         <v>0</v>
       </c>
-      <c s="5" r="C11">
+      <c s="4" r="C11">
         <f>SUM(E11:K11)</f>
         <v>0</v>
       </c>
-      <c s="3" r="D11"/>
-      <c s="17" r="E11"/>
-      <c s="17" r="F11"/>
-      <c s="17" r="G11"/>
-      <c s="17" r="H11"/>
-      <c s="17" r="I11"/>
-      <c s="17" r="J11"/>
-      <c s="17" r="K11"/>
+      <c s="2" r="D11"/>
+      <c s="15" r="E11"/>
+      <c s="15" r="F11"/>
+      <c s="15" r="G11"/>
+      <c s="15" r="H11"/>
+      <c s="15" r="I11"/>
+      <c s="15" r="J11"/>
+      <c s="15" r="K11"/>
       <c s="44" r="L11"/>
       <c s="30" r="M11"/>
-      <c s="28" r="N11"/>
-      <c s="6" r="O11"/>
-      <c s="6" r="P11"/>
-      <c s="6" r="Q11"/>
-      <c s="6" r="R11"/>
-      <c s="6" r="S11"/>
-      <c s="6" r="T11"/>
-      <c s="6" r="U11"/>
-      <c s="6" r="V11"/>
-      <c s="6" r="W11"/>
-      <c s="6" r="X11"/>
-      <c s="6" r="Y11"/>
+      <c s="26" r="N11"/>
+      <c s="5" r="O11"/>
+      <c s="5" r="P11"/>
+      <c s="5" r="Q11"/>
+      <c s="5" r="R11"/>
+      <c s="5" r="S11"/>
+      <c s="5" r="T11"/>
+      <c s="5" r="U11"/>
+      <c s="5" r="V11"/>
+      <c s="5" r="W11"/>
+      <c s="5" r="X11"/>
+      <c s="5" r="Y11"/>
     </row>
     <row r="12">
-      <c s="4" r="A12">
+      <c s="3" r="A12">
         <v>10</v>
       </c>
-      <c s="33" r="B12">
+      <c s="32" r="B12">
         <f>SUM(C12:D12)</f>
         <v>0</v>
       </c>
-      <c s="5" r="C12">
+      <c s="4" r="C12">
         <f>SUM(E12:K12)</f>
         <v>0</v>
       </c>
-      <c s="3" r="D12"/>
-      <c s="17" r="E12"/>
-      <c s="17" r="F12"/>
-      <c s="17" r="G12"/>
-      <c s="17" r="H12"/>
-      <c s="17" r="I12"/>
-      <c s="17" r="J12"/>
-      <c s="17" r="K12"/>
+      <c s="2" r="D12"/>
+      <c s="15" r="E12"/>
+      <c s="15" r="F12"/>
+      <c s="15" r="G12"/>
+      <c s="15" r="H12"/>
+      <c s="15" r="I12"/>
+      <c s="15" r="J12"/>
+      <c s="15" r="K12"/>
       <c s="44" r="L12"/>
       <c s="30" r="M12"/>
-      <c s="28" r="N12"/>
-      <c s="6" r="O12"/>
-      <c s="6" r="P12"/>
-      <c s="6" r="Q12"/>
-      <c s="6" r="R12"/>
-      <c s="6" r="S12"/>
-      <c s="6" r="T12"/>
-      <c s="6" r="U12"/>
-      <c s="6" r="V12"/>
-      <c s="6" r="W12"/>
-      <c s="6" r="X12"/>
-      <c s="6" r="Y12"/>
+      <c s="26" r="N12"/>
+      <c s="5" r="O12"/>
+      <c s="5" r="P12"/>
+      <c s="5" r="Q12"/>
+      <c s="5" r="R12"/>
+      <c s="5" r="S12"/>
+      <c s="5" r="T12"/>
+      <c s="5" r="U12"/>
+      <c s="5" r="V12"/>
+      <c s="5" r="W12"/>
+      <c s="5" r="X12"/>
+      <c s="5" r="Y12"/>
     </row>
     <row r="13">
-      <c s="4" r="A13">
+      <c s="3" r="A13">
         <v>11</v>
       </c>
-      <c s="33" r="B13">
+      <c s="32" r="B13">
         <f>SUM(C13:D13)</f>
         <v>0</v>
       </c>
-      <c s="5" r="C13">
+      <c s="4" r="C13">
         <f>SUM(E13:K13)</f>
         <v>0</v>
       </c>
-      <c s="3" r="D13"/>
-      <c s="17" r="E13"/>
-      <c s="17" r="F13"/>
-      <c s="17" r="G13"/>
-      <c s="17" r="H13"/>
-      <c s="17" r="I13"/>
-      <c s="17" r="J13"/>
-      <c s="17" r="K13"/>
+      <c s="2" r="D13"/>
+      <c s="15" r="E13"/>
+      <c s="15" r="F13"/>
+      <c s="15" r="G13"/>
+      <c s="15" r="H13"/>
+      <c s="15" r="I13"/>
+      <c s="15" r="J13"/>
+      <c s="15" r="K13"/>
       <c s="44" r="L13"/>
       <c s="30" r="M13"/>
-      <c s="28" r="N13"/>
-      <c s="6" r="O13"/>
-      <c s="6" r="P13"/>
-      <c s="6" r="Q13"/>
-      <c s="6" r="R13"/>
-      <c s="6" r="S13"/>
-      <c s="6" r="T13"/>
-      <c s="6" r="U13"/>
-      <c s="6" r="V13"/>
-      <c s="6" r="W13"/>
-      <c s="6" r="X13"/>
-      <c s="6" r="Y13"/>
+      <c s="26" r="N13"/>
+      <c s="5" r="O13"/>
+      <c s="5" r="P13"/>
+      <c s="5" r="Q13"/>
+      <c s="5" r="R13"/>
+      <c s="5" r="S13"/>
+      <c s="5" r="T13"/>
+      <c s="5" r="U13"/>
+      <c s="5" r="V13"/>
+      <c s="5" r="W13"/>
+      <c s="5" r="X13"/>
+      <c s="5" r="Y13"/>
     </row>
     <row r="14">
-      <c s="4" r="A14">
+      <c s="3" r="A14">
         <v>12</v>
       </c>
-      <c s="33" r="B14">
+      <c s="32" r="B14">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c s="5" r="C14">
+      <c s="4" r="C14">
         <f>SUM(E14:K14)</f>
         <v>0</v>
       </c>
-      <c s="3" r="D14"/>
-      <c s="17" r="E14"/>
-      <c s="17" r="F14"/>
-      <c s="17" r="G14"/>
-      <c s="17" r="H14"/>
-      <c s="17" r="I14"/>
-      <c s="17" r="J14"/>
-      <c s="17" r="K14"/>
+      <c s="2" r="D14"/>
+      <c s="15" r="E14"/>
+      <c s="15" r="F14"/>
+      <c s="15" r="G14"/>
+      <c s="15" r="H14"/>
+      <c s="15" r="I14"/>
+      <c s="15" r="J14"/>
+      <c s="15" r="K14"/>
       <c s="44" r="L14"/>
       <c s="30" r="M14"/>
-      <c s="28" r="N14"/>
-      <c s="6" r="O14"/>
-      <c s="6" r="P14"/>
-      <c s="6" r="Q14"/>
-      <c s="6" r="R14"/>
-      <c s="6" r="S14"/>
-      <c s="6" r="T14"/>
-      <c s="6" r="U14"/>
-      <c s="6" r="V14"/>
-      <c s="6" r="W14"/>
-      <c s="6" r="X14"/>
-      <c s="6" r="Y14"/>
+      <c s="26" r="N14"/>
+      <c s="5" r="O14"/>
+      <c s="5" r="P14"/>
+      <c s="5" r="Q14"/>
+      <c s="5" r="R14"/>
+      <c s="5" r="S14"/>
+      <c s="5" r="T14"/>
+      <c s="5" r="U14"/>
+      <c s="5" r="V14"/>
+      <c s="5" r="W14"/>
+      <c s="5" r="X14"/>
+      <c s="5" r="Y14"/>
     </row>
     <row r="15">
-      <c s="4" r="A15"/>
-      <c s="33" r="B15"/>
-      <c s="5" r="C15"/>
-      <c s="3" r="D15"/>
-      <c s="17" r="E15"/>
-      <c s="17" r="F15"/>
-      <c s="17" r="G15"/>
-      <c s="17" r="H15"/>
-      <c s="17" r="I15"/>
-      <c s="17" r="J15"/>
-      <c s="17" r="K15"/>
+      <c s="3" r="A15"/>
+      <c s="32" r="B15"/>
+      <c s="4" r="C15"/>
+      <c s="2" r="D15"/>
+      <c s="15" r="E15"/>
+      <c s="15" r="F15"/>
+      <c s="15" r="G15"/>
+      <c s="15" r="H15"/>
+      <c s="15" r="I15"/>
+      <c s="15" r="J15"/>
+      <c s="15" r="K15"/>
       <c s="44" r="L15"/>
       <c s="30" r="M15"/>
-      <c s="28" r="N15"/>
-      <c s="6" r="O15"/>
-      <c s="6" r="P15"/>
-      <c s="6" r="Q15"/>
-      <c s="6" r="R15"/>
-      <c s="6" r="S15"/>
-      <c s="6" r="T15"/>
-      <c s="6" r="U15"/>
-      <c s="6" r="V15"/>
-      <c s="6" r="W15"/>
-      <c s="6" r="X15"/>
-      <c s="6" r="Y15"/>
+      <c s="26" r="N15"/>
+      <c s="5" r="O15"/>
+      <c s="5" r="P15"/>
+      <c s="5" r="Q15"/>
+      <c s="5" r="R15"/>
+      <c s="5" r="S15"/>
+      <c s="5" r="T15"/>
+      <c s="5" r="U15"/>
+      <c s="5" r="V15"/>
+      <c s="5" r="W15"/>
+      <c s="5" r="X15"/>
+      <c s="5" r="Y15"/>
     </row>
     <row r="16">
-      <c s="4" r="A16"/>
-      <c s="33" r="B16"/>
-      <c s="5" r="C16"/>
-      <c s="3" r="D16"/>
-      <c s="17" r="E16"/>
-      <c s="17" r="F16"/>
-      <c s="17" r="G16"/>
-      <c s="17" r="H16"/>
-      <c s="17" r="I16"/>
-      <c s="17" r="J16"/>
-      <c s="17" r="K16"/>
+      <c s="3" r="A16"/>
+      <c s="32" r="B16"/>
+      <c s="4" r="C16"/>
+      <c s="2" r="D16"/>
+      <c s="15" r="E16"/>
+      <c s="15" r="F16"/>
+      <c s="15" r="G16"/>
+      <c s="15" r="H16"/>
+      <c s="15" r="I16"/>
+      <c s="15" r="J16"/>
+      <c s="15" r="K16"/>
       <c s="44" r="L16"/>
       <c s="30" r="M16"/>
-      <c s="28" r="N16"/>
-      <c s="6" r="O16"/>
-      <c s="6" r="P16"/>
-      <c s="6" r="Q16"/>
-      <c s="6" r="R16"/>
-      <c s="6" r="S16"/>
-      <c s="6" r="T16"/>
-      <c s="6" r="U16"/>
-      <c s="6" r="V16"/>
-      <c s="6" r="W16"/>
-      <c s="6" r="X16"/>
-      <c s="6" r="Y16"/>
+      <c s="26" r="N16"/>
+      <c s="5" r="O16"/>
+      <c s="5" r="P16"/>
+      <c s="5" r="Q16"/>
+      <c s="5" r="R16"/>
+      <c s="5" r="S16"/>
+      <c s="5" r="T16"/>
+      <c s="5" r="U16"/>
+      <c s="5" r="V16"/>
+      <c s="5" r="W16"/>
+      <c s="5" r="X16"/>
+      <c s="5" r="Y16"/>
     </row>
     <row r="17">
-      <c s="4" r="A17"/>
-      <c s="33" r="B17"/>
-      <c s="5" r="C17"/>
-      <c s="3" r="D17"/>
-      <c s="17" r="E17"/>
-      <c s="17" r="F17"/>
-      <c s="17" r="G17"/>
-      <c s="17" r="H17"/>
-      <c s="17" r="I17"/>
-      <c s="17" r="J17"/>
-      <c s="17" r="K17"/>
+      <c s="3" r="A17"/>
+      <c s="32" r="B17"/>
+      <c s="4" r="C17"/>
+      <c s="2" r="D17"/>
+      <c s="15" r="E17"/>
+      <c s="15" r="F17"/>
+      <c s="15" r="G17"/>
+      <c s="15" r="H17"/>
+      <c s="15" r="I17"/>
+      <c s="15" r="J17"/>
+      <c s="15" r="K17"/>
       <c s="44" r="L17"/>
       <c s="30" r="M17"/>
-      <c s="28" r="N17"/>
-      <c s="6" r="O17"/>
-      <c s="6" r="P17"/>
-      <c s="6" r="Q17"/>
-      <c s="6" r="R17"/>
-      <c s="6" r="S17"/>
-      <c s="6" r="T17"/>
-      <c s="6" r="U17"/>
-      <c s="6" r="V17"/>
-      <c s="6" r="W17"/>
-      <c s="6" r="X17"/>
-      <c s="6" r="Y17"/>
+      <c s="26" r="N17"/>
+      <c s="5" r="O17"/>
+      <c s="5" r="P17"/>
+      <c s="5" r="Q17"/>
+      <c s="5" r="R17"/>
+      <c s="5" r="S17"/>
+      <c s="5" r="T17"/>
+      <c s="5" r="U17"/>
+      <c s="5" r="V17"/>
+      <c s="5" r="W17"/>
+      <c s="5" r="X17"/>
+      <c s="5" r="Y17"/>
     </row>
     <row r="18">
-      <c s="4" r="A18"/>
-      <c s="33" r="B18"/>
-      <c s="5" r="C18"/>
-      <c s="3" r="D18"/>
-      <c s="17" r="E18"/>
-      <c s="17" r="F18"/>
-      <c s="17" r="G18"/>
-      <c s="17" r="H18"/>
-      <c s="17" r="I18"/>
-      <c s="17" r="J18"/>
-      <c s="17" r="K18"/>
+      <c s="3" r="A18"/>
+      <c s="32" r="B18"/>
+      <c s="4" r="C18"/>
+      <c s="2" r="D18"/>
+      <c s="15" r="E18"/>
+      <c s="15" r="F18"/>
+      <c s="15" r="G18"/>
+      <c s="15" r="H18"/>
+      <c s="15" r="I18"/>
+      <c s="15" r="J18"/>
+      <c s="15" r="K18"/>
       <c s="44" r="L18"/>
       <c s="30" r="M18"/>
-      <c s="28" r="N18"/>
-      <c s="6" r="O18"/>
-      <c s="6" r="P18"/>
-      <c s="6" r="Q18"/>
-      <c s="6" r="R18"/>
-      <c s="6" r="S18"/>
-      <c s="6" r="T18"/>
-      <c s="6" r="U18"/>
-      <c s="6" r="V18"/>
-      <c s="6" r="W18"/>
-      <c s="6" r="X18"/>
-      <c s="6" r="Y18"/>
+      <c s="26" r="N18"/>
+      <c s="5" r="O18"/>
+      <c s="5" r="P18"/>
+      <c s="5" r="Q18"/>
+      <c s="5" r="R18"/>
+      <c s="5" r="S18"/>
+      <c s="5" r="T18"/>
+      <c s="5" r="U18"/>
+      <c s="5" r="V18"/>
+      <c s="5" r="W18"/>
+      <c s="5" r="X18"/>
+      <c s="5" r="Y18"/>
     </row>
     <row r="19">
-      <c s="4" r="A19"/>
-      <c s="33" r="B19"/>
-      <c s="5" r="C19"/>
-      <c s="3" r="D19"/>
-      <c s="17" r="E19"/>
-      <c s="17" r="F19"/>
-      <c s="17" r="G19"/>
-      <c s="17" r="H19"/>
-      <c s="17" r="I19"/>
-      <c s="17" r="J19"/>
-      <c s="17" r="K19"/>
+      <c s="3" r="A19"/>
+      <c s="32" r="B19"/>
+      <c s="4" r="C19"/>
+      <c s="2" r="D19"/>
+      <c s="15" r="E19"/>
+      <c s="15" r="F19"/>
+      <c s="15" r="G19"/>
+      <c s="15" r="H19"/>
+      <c s="15" r="I19"/>
+      <c s="15" r="J19"/>
+      <c s="15" r="K19"/>
       <c s="44" r="L19"/>
       <c s="30" r="M19"/>
-      <c s="28" r="N19"/>
-      <c s="6" r="O19"/>
-      <c s="6" r="P19"/>
-      <c s="6" r="Q19"/>
-      <c s="6" r="R19"/>
-      <c s="6" r="S19"/>
-      <c s="6" r="T19"/>
-      <c s="6" r="U19"/>
-      <c s="6" r="V19"/>
-      <c s="6" r="W19"/>
-      <c s="6" r="X19"/>
-      <c s="6" r="Y19"/>
+      <c s="26" r="N19"/>
+      <c s="5" r="O19"/>
+      <c s="5" r="P19"/>
+      <c s="5" r="Q19"/>
+      <c s="5" r="R19"/>
+      <c s="5" r="S19"/>
+      <c s="5" r="T19"/>
+      <c s="5" r="U19"/>
+      <c s="5" r="V19"/>
+      <c s="5" r="W19"/>
+      <c s="5" r="X19"/>
+      <c s="5" r="Y19"/>
     </row>
     <row r="20">
-      <c s="4" r="A20"/>
-      <c s="33" r="B20"/>
-      <c s="5" r="C20"/>
-      <c s="3" r="D20"/>
-      <c s="17" r="E20"/>
-      <c s="17" r="F20"/>
-      <c s="17" r="G20"/>
-      <c s="17" r="H20"/>
-      <c s="17" r="I20"/>
-      <c s="17" r="J20"/>
-      <c s="17" r="K20"/>
+      <c s="3" r="A20"/>
+      <c s="32" r="B20"/>
+      <c s="4" r="C20"/>
+      <c s="2" r="D20"/>
+      <c s="15" r="E20"/>
+      <c s="15" r="F20"/>
+      <c s="15" r="G20"/>
+      <c s="15" r="H20"/>
+      <c s="15" r="I20"/>
+      <c s="15" r="J20"/>
+      <c s="15" r="K20"/>
       <c s="44" r="L20"/>
       <c s="30" r="M20"/>
-      <c s="28" r="N20"/>
-      <c s="6" r="O20"/>
-      <c s="6" r="P20"/>
-      <c s="6" r="Q20"/>
-      <c s="6" r="R20"/>
-      <c s="6" r="S20"/>
-      <c s="6" r="T20"/>
-      <c s="6" r="U20"/>
-      <c s="6" r="V20"/>
-      <c s="6" r="W20"/>
-      <c s="6" r="X20"/>
-      <c s="6" r="Y20"/>
+      <c s="26" r="N20"/>
+      <c s="5" r="O20"/>
+      <c s="5" r="P20"/>
+      <c s="5" r="Q20"/>
+      <c s="5" r="R20"/>
+      <c s="5" r="S20"/>
+      <c s="5" r="T20"/>
+      <c s="5" r="U20"/>
+      <c s="5" r="V20"/>
+      <c s="5" r="W20"/>
+      <c s="5" r="X20"/>
+      <c s="5" r="Y20"/>
     </row>
     <row r="21">
-      <c s="4" r="A21"/>
-      <c s="33" r="B21"/>
-      <c s="5" r="C21"/>
-      <c s="3" r="D21"/>
-      <c s="17" r="E21"/>
-      <c s="17" r="F21"/>
-      <c s="17" r="G21"/>
-      <c s="17" r="H21"/>
-      <c s="17" r="I21"/>
-      <c s="17" r="J21"/>
-      <c s="17" r="K21"/>
+      <c s="3" r="A21"/>
+      <c s="32" r="B21"/>
+      <c s="4" r="C21"/>
+      <c s="2" r="D21"/>
+      <c s="15" r="E21"/>
+      <c s="15" r="F21"/>
+      <c s="15" r="G21"/>
+      <c s="15" r="H21"/>
+      <c s="15" r="I21"/>
+      <c s="15" r="J21"/>
+      <c s="15" r="K21"/>
       <c s="44" r="L21"/>
       <c s="30" r="M21"/>
-      <c s="28" r="N21"/>
-      <c s="6" r="O21"/>
-      <c s="6" r="P21"/>
-      <c s="6" r="Q21"/>
-      <c s="6" r="R21"/>
-      <c s="6" r="S21"/>
-      <c s="6" r="T21"/>
-      <c s="6" r="U21"/>
-      <c s="6" r="V21"/>
-      <c s="6" r="W21"/>
-      <c s="6" r="X21"/>
-      <c s="6" r="Y21"/>
+      <c s="26" r="N21"/>
+      <c s="5" r="O21"/>
+      <c s="5" r="P21"/>
+      <c s="5" r="Q21"/>
+      <c s="5" r="R21"/>
+      <c s="5" r="S21"/>
+      <c s="5" r="T21"/>
+      <c s="5" r="U21"/>
+      <c s="5" r="V21"/>
+      <c s="5" r="W21"/>
+      <c s="5" r="X21"/>
+      <c s="5" r="Y21"/>
     </row>
     <row r="22">
-      <c s="4" r="A22"/>
-      <c s="33" r="B22"/>
-      <c s="5" r="C22"/>
-      <c s="3" r="D22"/>
-      <c s="17" r="E22"/>
-      <c s="17" r="F22"/>
-      <c s="17" r="G22"/>
-      <c s="17" r="H22"/>
-      <c s="17" r="I22"/>
-      <c s="17" r="J22"/>
-      <c s="17" r="K22"/>
+      <c s="3" r="A22"/>
+      <c s="32" r="B22"/>
+      <c s="4" r="C22"/>
+      <c s="2" r="D22"/>
+      <c s="15" r="E22"/>
+      <c s="15" r="F22"/>
+      <c s="15" r="G22"/>
+      <c s="15" r="H22"/>
+      <c s="15" r="I22"/>
+      <c s="15" r="J22"/>
+      <c s="15" r="K22"/>
       <c s="44" r="L22"/>
       <c s="30" r="M22"/>
-      <c s="28" r="N22"/>
-      <c s="6" r="O22"/>
-      <c s="6" r="P22"/>
-      <c s="6" r="Q22"/>
-      <c s="6" r="R22"/>
-      <c s="6" r="S22"/>
-      <c s="6" r="T22"/>
-      <c s="6" r="U22"/>
-      <c s="6" r="V22"/>
-      <c s="6" r="W22"/>
-      <c s="6" r="X22"/>
-      <c s="6" r="Y22"/>
+      <c s="26" r="N22"/>
+      <c s="5" r="O22"/>
+      <c s="5" r="P22"/>
+      <c s="5" r="Q22"/>
+      <c s="5" r="R22"/>
+      <c s="5" r="S22"/>
+      <c s="5" r="T22"/>
+      <c s="5" r="U22"/>
+      <c s="5" r="V22"/>
+      <c s="5" r="W22"/>
+      <c s="5" r="X22"/>
+      <c s="5" r="Y22"/>
     </row>
     <row r="23">
-      <c s="4" r="A23"/>
-      <c s="33" r="B23"/>
-      <c s="5" r="C23"/>
-      <c s="3" r="D23"/>
-      <c s="17" r="E23"/>
-      <c s="17" r="F23"/>
-      <c s="17" r="G23"/>
-      <c s="17" r="H23"/>
-      <c s="17" r="I23"/>
-      <c s="17" r="J23"/>
-      <c s="17" r="K23"/>
+      <c s="3" r="A23"/>
+      <c s="32" r="B23"/>
+      <c s="4" r="C23"/>
+      <c s="2" r="D23"/>
+      <c s="15" r="E23"/>
+      <c s="15" r="F23"/>
+      <c s="15" r="G23"/>
+      <c s="15" r="H23"/>
+      <c s="15" r="I23"/>
+      <c s="15" r="J23"/>
+      <c s="15" r="K23"/>
       <c s="44" r="L23"/>
       <c s="30" r="M23"/>
-      <c s="28" r="N23"/>
-      <c s="6" r="O23"/>
-      <c s="6" r="P23"/>
-      <c s="6" r="Q23"/>
-      <c s="6" r="R23"/>
-      <c s="6" r="S23"/>
-      <c s="6" r="T23"/>
-      <c s="6" r="U23"/>
-      <c s="6" r="V23"/>
-      <c s="6" r="W23"/>
-      <c s="6" r="X23"/>
-      <c s="6" r="Y23"/>
+      <c s="26" r="N23"/>
+      <c s="5" r="O23"/>
+      <c s="5" r="P23"/>
+      <c s="5" r="Q23"/>
+      <c s="5" r="R23"/>
+      <c s="5" r="S23"/>
+      <c s="5" r="T23"/>
+      <c s="5" r="U23"/>
+      <c s="5" r="V23"/>
+      <c s="5" r="W23"/>
+      <c s="5" r="X23"/>
+      <c s="5" r="Y23"/>
     </row>
     <row r="24">
-      <c s="4" r="A24"/>
-      <c s="33" r="B24"/>
-      <c s="5" r="C24"/>
-      <c s="3" r="D24"/>
-      <c s="17" r="E24"/>
-      <c s="17" r="F24"/>
-      <c s="17" r="G24"/>
-      <c s="17" r="H24"/>
-      <c s="17" r="I24"/>
-      <c s="17" r="J24"/>
-      <c s="17" r="K24"/>
+      <c s="3" r="A24"/>
+      <c s="32" r="B24"/>
+      <c s="4" r="C24"/>
+      <c s="2" r="D24"/>
+      <c s="15" r="E24"/>
+      <c s="15" r="F24"/>
+      <c s="15" r="G24"/>
+      <c s="15" r="H24"/>
+      <c s="15" r="I24"/>
+      <c s="15" r="J24"/>
+      <c s="15" r="K24"/>
       <c s="44" r="L24"/>
       <c s="30" r="M24"/>
-      <c s="28" r="N24"/>
-      <c s="6" r="O24"/>
-      <c s="6" r="P24"/>
-      <c s="6" r="Q24"/>
-      <c s="6" r="R24"/>
-      <c s="6" r="S24"/>
-      <c s="6" r="T24"/>
-      <c s="6" r="U24"/>
-      <c s="6" r="V24"/>
-      <c s="6" r="W24"/>
-      <c s="6" r="X24"/>
-      <c s="6" r="Y24"/>
+      <c s="26" r="N24"/>
+      <c s="5" r="O24"/>
+      <c s="5" r="P24"/>
+      <c s="5" r="Q24"/>
+      <c s="5" r="R24"/>
+      <c s="5" r="S24"/>
+      <c s="5" r="T24"/>
+      <c s="5" r="U24"/>
+      <c s="5" r="V24"/>
+      <c s="5" r="W24"/>
+      <c s="5" r="X24"/>
+      <c s="5" r="Y24"/>
     </row>
     <row r="25">
-      <c s="4" r="A25"/>
-      <c s="33" r="B25"/>
-      <c s="5" r="C25"/>
-      <c s="3" r="D25"/>
-      <c s="17" r="E25"/>
-      <c s="17" r="F25"/>
-      <c s="17" r="G25"/>
-      <c s="17" r="H25"/>
-      <c s="17" r="I25"/>
-      <c s="17" r="J25"/>
-      <c s="17" r="K25"/>
+      <c s="3" r="A25"/>
+      <c s="32" r="B25"/>
+      <c s="4" r="C25"/>
+      <c s="2" r="D25"/>
+      <c s="15" r="E25"/>
+      <c s="15" r="F25"/>
+      <c s="15" r="G25"/>
+      <c s="15" r="H25"/>
+      <c s="15" r="I25"/>
+      <c s="15" r="J25"/>
+      <c s="15" r="K25"/>
       <c s="44" r="L25"/>
       <c s="30" r="M25"/>
-      <c s="28" r="N25"/>
-      <c s="6" r="O25"/>
-      <c s="6" r="P25"/>
-      <c s="6" r="Q25"/>
-      <c s="6" r="R25"/>
-      <c s="6" r="S25"/>
-      <c s="6" r="T25"/>
-      <c s="6" r="U25"/>
-      <c s="6" r="V25"/>
-      <c s="6" r="W25"/>
-      <c s="6" r="X25"/>
-      <c s="6" r="Y25"/>
+      <c s="26" r="N25"/>
+      <c s="5" r="O25"/>
+      <c s="5" r="P25"/>
+      <c s="5" r="Q25"/>
+      <c s="5" r="R25"/>
+      <c s="5" r="S25"/>
+      <c s="5" r="T25"/>
+      <c s="5" r="U25"/>
+      <c s="5" r="V25"/>
+      <c s="5" r="W25"/>
+      <c s="5" r="X25"/>
+      <c s="5" r="Y25"/>
     </row>
     <row r="26">
-      <c s="4" r="A26"/>
-      <c s="33" r="B26"/>
-      <c s="5" r="C26"/>
-      <c s="3" r="D26"/>
-      <c s="17" r="E26"/>
-      <c s="17" r="F26"/>
-      <c s="17" r="G26"/>
-      <c s="17" r="H26"/>
-      <c s="17" r="I26"/>
-      <c s="17" r="J26"/>
-      <c s="17" r="K26"/>
+      <c s="3" r="A26"/>
+      <c s="32" r="B26"/>
+      <c s="4" r="C26"/>
+      <c s="2" r="D26"/>
+      <c s="15" r="E26"/>
+      <c s="15" r="F26"/>
+      <c s="15" r="G26"/>
+      <c s="15" r="H26"/>
+      <c s="15" r="I26"/>
+      <c s="15" r="J26"/>
+      <c s="15" r="K26"/>
       <c s="44" r="L26"/>
       <c s="30" r="M26"/>
-      <c s="28" r="N26"/>
-      <c s="6" r="O26"/>
-      <c s="6" r="P26"/>
-      <c s="6" r="Q26"/>
-      <c s="6" r="R26"/>
-      <c s="6" r="S26"/>
-      <c s="6" r="T26"/>
-      <c s="6" r="U26"/>
-      <c s="6" r="V26"/>
-      <c s="6" r="W26"/>
-      <c s="6" r="X26"/>
-      <c s="6" r="Y26"/>
+      <c s="26" r="N26"/>
+      <c s="5" r="O26"/>
+      <c s="5" r="P26"/>
+      <c s="5" r="Q26"/>
+      <c s="5" r="R26"/>
+      <c s="5" r="S26"/>
+      <c s="5" r="T26"/>
+      <c s="5" r="U26"/>
+      <c s="5" r="V26"/>
+      <c s="5" r="W26"/>
+      <c s="5" r="X26"/>
+      <c s="5" r="Y26"/>
     </row>
     <row r="27">
-      <c s="4" r="A27"/>
-      <c s="33" r="B27"/>
-      <c s="5" r="C27"/>
-      <c s="3" r="D27"/>
-      <c s="17" r="E27"/>
-      <c s="17" r="F27"/>
-      <c s="17" r="G27"/>
-      <c s="17" r="H27"/>
-      <c s="17" r="I27"/>
-      <c s="17" r="J27"/>
-      <c s="17" r="K27"/>
+      <c s="3" r="A27"/>
+      <c s="32" r="B27"/>
+      <c s="4" r="C27"/>
+      <c s="2" r="D27"/>
+      <c s="15" r="E27"/>
+      <c s="15" r="F27"/>
+      <c s="15" r="G27"/>
+      <c s="15" r="H27"/>
+      <c s="15" r="I27"/>
+      <c s="15" r="J27"/>
+      <c s="15" r="K27"/>
       <c s="44" r="L27"/>
       <c s="30" r="M27"/>
-      <c s="28" r="N27"/>
-      <c s="6" r="O27"/>
-      <c s="6" r="P27"/>
-      <c s="6" r="Q27"/>
-      <c s="6" r="R27"/>
-      <c s="6" r="S27"/>
-      <c s="6" r="T27"/>
-      <c s="6" r="U27"/>
-      <c s="6" r="V27"/>
-      <c s="6" r="W27"/>
-      <c s="6" r="X27"/>
-      <c s="6" r="Y27"/>
+      <c s="26" r="N27"/>
+      <c s="5" r="O27"/>
+      <c s="5" r="P27"/>
+      <c s="5" r="Q27"/>
+      <c s="5" r="R27"/>
+      <c s="5" r="S27"/>
+      <c s="5" r="T27"/>
+      <c s="5" r="U27"/>
+      <c s="5" r="V27"/>
+      <c s="5" r="W27"/>
+      <c s="5" r="X27"/>
+      <c s="5" r="Y27"/>
     </row>
     <row r="28">
-      <c s="4" r="A28"/>
-      <c s="33" r="B28"/>
-      <c s="5" r="C28"/>
-      <c s="3" r="D28"/>
-      <c s="17" r="E28"/>
-      <c s="17" r="F28"/>
-      <c s="17" r="G28"/>
-      <c s="17" r="H28"/>
-      <c s="17" r="I28"/>
-      <c s="17" r="J28"/>
-      <c s="17" r="K28"/>
+      <c s="3" r="A28"/>
+      <c s="32" r="B28"/>
+      <c s="4" r="C28"/>
+      <c s="2" r="D28"/>
+      <c s="15" r="E28"/>
+      <c s="15" r="F28"/>
+      <c s="15" r="G28"/>
+      <c s="15" r="H28"/>
+      <c s="15" r="I28"/>
+      <c s="15" r="J28"/>
+      <c s="15" r="K28"/>
       <c s="44" r="L28"/>
       <c s="30" r="M28"/>
-      <c s="28" r="N28"/>
-      <c s="6" r="O28"/>
-      <c s="6" r="P28"/>
-      <c s="6" r="Q28"/>
-      <c s="6" r="R28"/>
-      <c s="6" r="S28"/>
-      <c s="6" r="T28"/>
-      <c s="6" r="U28"/>
-      <c s="6" r="V28"/>
-      <c s="6" r="W28"/>
-      <c s="6" r="X28"/>
-      <c s="6" r="Y28"/>
+      <c s="26" r="N28"/>
+      <c s="5" r="O28"/>
+      <c s="5" r="P28"/>
+      <c s="5" r="Q28"/>
+      <c s="5" r="R28"/>
+      <c s="5" r="S28"/>
+      <c s="5" r="T28"/>
+      <c s="5" r="U28"/>
+      <c s="5" r="V28"/>
+      <c s="5" r="W28"/>
+      <c s="5" r="X28"/>
+      <c s="5" r="Y28"/>
     </row>
     <row r="29">
-      <c s="4" r="A29"/>
-      <c s="33" r="B29"/>
-      <c s="5" r="C29"/>
-      <c s="3" r="D29"/>
-      <c s="17" r="E29"/>
-      <c s="17" r="F29"/>
-      <c s="17" r="G29"/>
-      <c s="17" r="H29"/>
-      <c s="17" r="I29"/>
-      <c s="17" r="J29"/>
-      <c s="17" r="K29"/>
+      <c s="3" r="A29"/>
+      <c s="32" r="B29"/>
+      <c s="4" r="C29"/>
+      <c s="2" r="D29"/>
+      <c s="15" r="E29"/>
+      <c s="15" r="F29"/>
+      <c s="15" r="G29"/>
+      <c s="15" r="H29"/>
+      <c s="15" r="I29"/>
+      <c s="15" r="J29"/>
+      <c s="15" r="K29"/>
       <c s="44" r="L29"/>
       <c s="30" r="M29"/>
-      <c s="28" r="N29"/>
-      <c s="6" r="O29"/>
-      <c s="6" r="P29"/>
-      <c s="6" r="Q29"/>
-      <c s="6" r="R29"/>
-      <c s="6" r="S29"/>
-      <c s="6" r="T29"/>
-      <c s="6" r="U29"/>
-      <c s="6" r="V29"/>
-      <c s="6" r="W29"/>
-      <c s="6" r="X29"/>
-      <c s="6" r="Y29"/>
+      <c s="26" r="N29"/>
+      <c s="5" r="O29"/>
+      <c s="5" r="P29"/>
+      <c s="5" r="Q29"/>
+      <c s="5" r="R29"/>
+      <c s="5" r="S29"/>
+      <c s="5" r="T29"/>
+      <c s="5" r="U29"/>
+      <c s="5" r="V29"/>
+      <c s="5" r="W29"/>
+      <c s="5" r="X29"/>
+      <c s="5" r="Y29"/>
     </row>
     <row r="30">
-      <c s="4" r="A30"/>
-      <c s="33" r="B30"/>
-      <c s="5" r="C30"/>
-      <c s="3" r="D30"/>
-      <c s="17" r="E30"/>
-      <c s="17" r="F30"/>
-      <c s="17" r="G30"/>
-      <c s="17" r="H30"/>
-      <c s="17" r="I30"/>
-      <c s="17" r="J30"/>
-      <c s="17" r="K30"/>
+      <c s="3" r="A30"/>
+      <c s="32" r="B30"/>
+      <c s="4" r="C30"/>
+      <c s="2" r="D30"/>
+      <c s="15" r="E30"/>
+      <c s="15" r="F30"/>
+      <c s="15" r="G30"/>
+      <c s="15" r="H30"/>
+      <c s="15" r="I30"/>
+      <c s="15" r="J30"/>
+      <c s="15" r="K30"/>
       <c s="44" r="L30"/>
       <c s="30" r="M30"/>
-      <c s="28" r="N30"/>
-      <c s="6" r="O30"/>
-      <c s="6" r="P30"/>
-      <c s="6" r="Q30"/>
-      <c s="6" r="R30"/>
-      <c s="6" r="S30"/>
-      <c s="6" r="T30"/>
-      <c s="6" r="U30"/>
-      <c s="6" r="V30"/>
-      <c s="6" r="W30"/>
-      <c s="6" r="X30"/>
-      <c s="6" r="Y30"/>
+      <c s="26" r="N30"/>
+      <c s="5" r="O30"/>
+      <c s="5" r="P30"/>
+      <c s="5" r="Q30"/>
+      <c s="5" r="R30"/>
+      <c s="5" r="S30"/>
+      <c s="5" r="T30"/>
+      <c s="5" r="U30"/>
+      <c s="5" r="V30"/>
+      <c s="5" r="W30"/>
+      <c s="5" r="X30"/>
+      <c s="5" r="Y30"/>
     </row>
     <row r="31">
-      <c s="4" r="A31"/>
-      <c s="33" r="B31"/>
-      <c s="5" r="C31"/>
-      <c s="3" r="D31"/>
-      <c s="17" r="E31"/>
-      <c s="17" r="F31"/>
-      <c s="17" r="G31"/>
-      <c s="17" r="H31"/>
-      <c s="17" r="I31"/>
-      <c s="17" r="J31"/>
-      <c s="17" r="K31"/>
+      <c s="3" r="A31"/>
+      <c s="32" r="B31"/>
+      <c s="4" r="C31"/>
+      <c s="2" r="D31"/>
+      <c s="15" r="E31"/>
+      <c s="15" r="F31"/>
+      <c s="15" r="G31"/>
+      <c s="15" r="H31"/>
+      <c s="15" r="I31"/>
+      <c s="15" r="J31"/>
+      <c s="15" r="K31"/>
       <c s="44" r="L31"/>
       <c s="30" r="M31"/>
-      <c s="28" r="N31"/>
-      <c s="6" r="O31"/>
-      <c s="6" r="P31"/>
-      <c s="6" r="Q31"/>
-      <c s="6" r="R31"/>
-      <c s="6" r="S31"/>
-      <c s="6" r="T31"/>
-      <c s="6" r="U31"/>
-      <c s="6" r="V31"/>
-      <c s="6" r="W31"/>
-      <c s="6" r="X31"/>
-      <c s="6" r="Y31"/>
+      <c s="26" r="N31"/>
+      <c s="5" r="O31"/>
+      <c s="5" r="P31"/>
+      <c s="5" r="Q31"/>
+      <c s="5" r="R31"/>
+      <c s="5" r="S31"/>
+      <c s="5" r="T31"/>
+      <c s="5" r="U31"/>
+      <c s="5" r="V31"/>
+      <c s="5" r="W31"/>
+      <c s="5" r="X31"/>
+      <c s="5" r="Y31"/>
     </row>
     <row r="32">
-      <c s="4" r="A32"/>
-      <c s="33" r="B32"/>
-      <c s="5" r="C32"/>
-      <c s="3" r="D32"/>
-      <c s="17" r="E32"/>
-      <c s="17" r="F32"/>
-      <c s="17" r="G32"/>
-      <c s="17" r="H32"/>
-      <c s="17" r="I32"/>
-      <c s="17" r="J32"/>
-      <c s="17" r="K32"/>
+      <c s="3" r="A32"/>
+      <c s="32" r="B32"/>
+      <c s="4" r="C32"/>
+      <c s="2" r="D32"/>
+      <c s="15" r="E32"/>
+      <c s="15" r="F32"/>
+      <c s="15" r="G32"/>
+      <c s="15" r="H32"/>
+      <c s="15" r="I32"/>
+      <c s="15" r="J32"/>
+      <c s="15" r="K32"/>
       <c s="44" r="L32"/>
       <c s="30" r="M32"/>
-      <c s="28" r="N32"/>
-      <c s="6" r="O32"/>
-      <c s="6" r="P32"/>
-      <c s="6" r="Q32"/>
-      <c s="6" r="R32"/>
-      <c s="6" r="S32"/>
-      <c s="6" r="T32"/>
-      <c s="6" r="U32"/>
-      <c s="6" r="V32"/>
-      <c s="6" r="W32"/>
-      <c s="6" r="X32"/>
-      <c s="6" r="Y32"/>
+      <c s="26" r="N32"/>
+      <c s="5" r="O32"/>
+      <c s="5" r="P32"/>
+      <c s="5" r="Q32"/>
+      <c s="5" r="R32"/>
+      <c s="5" r="S32"/>
+      <c s="5" r="T32"/>
+      <c s="5" r="U32"/>
+      <c s="5" r="V32"/>
+      <c s="5" r="W32"/>
+      <c s="5" r="X32"/>
+      <c s="5" r="Y32"/>
     </row>
     <row r="33">
-      <c s="4" r="A33"/>
-      <c s="33" r="B33"/>
-      <c s="5" r="C33"/>
-      <c s="3" r="D33"/>
-      <c s="17" r="E33"/>
-      <c s="17" r="F33"/>
-      <c s="17" r="G33"/>
-      <c s="17" r="H33"/>
-      <c s="17" r="I33"/>
-      <c s="17" r="J33"/>
-      <c s="17" r="K33"/>
+      <c s="3" r="A33"/>
+      <c s="32" r="B33"/>
+      <c s="4" r="C33"/>
+      <c s="2" r="D33"/>
+      <c s="15" r="E33"/>
+      <c s="15" r="F33"/>
+      <c s="15" r="G33"/>
+      <c s="15" r="H33"/>
+      <c s="15" r="I33"/>
+      <c s="15" r="J33"/>
+      <c s="15" r="K33"/>
       <c s="44" r="L33"/>
       <c s="30" r="M33"/>
-      <c s="28" r="N33"/>
-      <c s="6" r="O33"/>
-      <c s="6" r="P33"/>
-      <c s="6" r="Q33"/>
-      <c s="6" r="R33"/>
-      <c s="6" r="S33"/>
-      <c s="6" r="T33"/>
-      <c s="6" r="U33"/>
-      <c s="6" r="V33"/>
-      <c s="6" r="W33"/>
-      <c s="6" r="X33"/>
-      <c s="6" r="Y33"/>
+      <c s="26" r="N33"/>
+      <c s="5" r="O33"/>
+      <c s="5" r="P33"/>
+      <c s="5" r="Q33"/>
+      <c s="5" r="R33"/>
+      <c s="5" r="S33"/>
+      <c s="5" r="T33"/>
+      <c s="5" r="U33"/>
+      <c s="5" r="V33"/>
+      <c s="5" r="W33"/>
+      <c s="5" r="X33"/>
+      <c s="5" r="Y33"/>
     </row>
     <row r="34">
-      <c s="4" r="A34"/>
-      <c s="33" r="B34"/>
-      <c s="5" r="C34"/>
-      <c s="3" r="D34"/>
-      <c s="17" r="E34"/>
-      <c s="17" r="F34"/>
-      <c s="17" r="G34"/>
-      <c s="17" r="H34"/>
-      <c s="17" r="I34"/>
-      <c s="17" r="J34"/>
-      <c s="17" r="K34"/>
+      <c s="3" r="A34"/>
+      <c s="32" r="B34"/>
+      <c s="4" r="C34"/>
+      <c s="2" r="D34"/>
+      <c s="15" r="E34"/>
+      <c s="15" r="F34"/>
+      <c s="15" r="G34"/>
+      <c s="15" r="H34"/>
+      <c s="15" r="I34"/>
+      <c s="15" r="J34"/>
+      <c s="15" r="K34"/>
       <c s="44" r="L34"/>
       <c s="30" r="M34"/>
-      <c s="28" r="N34"/>
-      <c s="6" r="O34"/>
-      <c s="6" r="P34"/>
-      <c s="6" r="Q34"/>
-      <c s="6" r="R34"/>
-      <c s="6" r="S34"/>
-      <c s="6" r="T34"/>
-      <c s="6" r="U34"/>
-      <c s="6" r="V34"/>
-      <c s="6" r="W34"/>
-      <c s="6" r="X34"/>
-      <c s="6" r="Y34"/>
+      <c s="26" r="N34"/>
+      <c s="5" r="O34"/>
+      <c s="5" r="P34"/>
+      <c s="5" r="Q34"/>
+      <c s="5" r="R34"/>
+      <c s="5" r="S34"/>
+      <c s="5" r="T34"/>
+      <c s="5" r="U34"/>
+      <c s="5" r="V34"/>
+      <c s="5" r="W34"/>
+      <c s="5" r="X34"/>
+      <c s="5" r="Y34"/>
     </row>
     <row r="35">
-      <c s="4" r="A35"/>
-      <c s="33" r="B35"/>
-      <c s="5" r="C35"/>
-      <c s="3" r="D35"/>
-      <c s="17" r="E35"/>
-      <c s="17" r="F35"/>
-      <c s="17" r="G35"/>
-      <c s="17" r="H35"/>
-      <c s="17" r="I35"/>
-      <c s="17" r="J35"/>
-      <c s="17" r="K35"/>
+      <c s="3" r="A35"/>
+      <c s="32" r="B35"/>
+      <c s="4" r="C35"/>
+      <c s="2" r="D35"/>
+      <c s="15" r="E35"/>
+      <c s="15" r="F35"/>
+      <c s="15" r="G35"/>
+      <c s="15" r="H35"/>
+      <c s="15" r="I35"/>
+      <c s="15" r="J35"/>
+      <c s="15" r="K35"/>
       <c s="44" r="L35"/>
       <c s="30" r="M35"/>
-      <c s="28" r="N35"/>
-      <c s="6" r="O35"/>
-      <c s="6" r="P35"/>
-      <c s="6" r="Q35"/>
-      <c s="6" r="R35"/>
-      <c s="6" r="S35"/>
-      <c s="6" r="T35"/>
-      <c s="6" r="U35"/>
-      <c s="6" r="V35"/>
-      <c s="6" r="W35"/>
-      <c s="6" r="X35"/>
-      <c s="6" r="Y35"/>
+      <c s="26" r="N35"/>
+      <c s="5" r="O35"/>
+      <c s="5" r="P35"/>
+      <c s="5" r="Q35"/>
+      <c s="5" r="R35"/>
+      <c s="5" r="S35"/>
+      <c s="5" r="T35"/>
+      <c s="5" r="U35"/>
+      <c s="5" r="V35"/>
+      <c s="5" r="W35"/>
+      <c s="5" r="X35"/>
+      <c s="5" r="Y35"/>
     </row>
     <row r="36">
-      <c s="4" r="A36"/>
-      <c s="33" r="B36"/>
-      <c s="5" r="C36"/>
-      <c s="3" r="D36"/>
-      <c s="17" r="E36"/>
-      <c s="17" r="F36"/>
-      <c s="17" r="G36"/>
-      <c s="17" r="H36"/>
-      <c s="17" r="I36"/>
-      <c s="17" r="J36"/>
-      <c s="17" r="K36"/>
+      <c s="3" r="A36"/>
+      <c s="32" r="B36"/>
+      <c s="4" r="C36"/>
+      <c s="2" r="D36"/>
+      <c s="15" r="E36"/>
+      <c s="15" r="F36"/>
+      <c s="15" r="G36"/>
+      <c s="15" r="H36"/>
+      <c s="15" r="I36"/>
+      <c s="15" r="J36"/>
+      <c s="15" r="K36"/>
       <c s="44" r="L36"/>
       <c s="30" r="M36"/>
-      <c s="28" r="N36"/>
-      <c s="6" r="O36"/>
-      <c s="6" r="P36"/>
-      <c s="6" r="Q36"/>
-      <c s="6" r="R36"/>
-      <c s="6" r="S36"/>
-      <c s="6" r="T36"/>
-      <c s="6" r="U36"/>
-      <c s="6" r="V36"/>
-      <c s="6" r="W36"/>
-      <c s="6" r="X36"/>
-      <c s="6" r="Y36"/>
+      <c s="26" r="N36"/>
+      <c s="5" r="O36"/>
+      <c s="5" r="P36"/>
+      <c s="5" r="Q36"/>
+      <c s="5" r="R36"/>
+      <c s="5" r="S36"/>
+      <c s="5" r="T36"/>
+      <c s="5" r="U36"/>
+      <c s="5" r="V36"/>
+      <c s="5" r="W36"/>
+      <c s="5" r="X36"/>
+      <c s="5" r="Y36"/>
     </row>
     <row r="37">
-      <c s="4" r="A37"/>
-      <c s="33" r="B37"/>
-      <c s="5" r="C37"/>
-      <c s="3" r="D37"/>
-      <c s="17" r="E37"/>
-      <c s="17" r="F37"/>
-      <c s="17" r="G37"/>
-      <c s="17" r="H37"/>
-      <c s="17" r="I37"/>
-      <c s="17" r="J37"/>
-      <c s="17" r="K37"/>
+      <c s="3" r="A37"/>
+      <c s="32" r="B37"/>
+      <c s="4" r="C37"/>
+      <c s="2" r="D37"/>
+      <c s="15" r="E37"/>
+      <c s="15" r="F37"/>
+      <c s="15" r="G37"/>
+      <c s="15" r="H37"/>
+      <c s="15" r="I37"/>
+      <c s="15" r="J37"/>
+      <c s="15" r="K37"/>
       <c s="44" r="L37"/>
       <c s="30" r="M37"/>
-      <c s="28" r="N37"/>
-      <c s="6" r="O37"/>
-      <c s="6" r="P37"/>
-      <c s="6" r="Q37"/>
-      <c s="6" r="R37"/>
-      <c s="6" r="S37"/>
-      <c s="6" r="T37"/>
-      <c s="6" r="U37"/>
-      <c s="6" r="V37"/>
-      <c s="6" r="W37"/>
-      <c s="6" r="X37"/>
-      <c s="6" r="Y37"/>
+      <c s="26" r="N37"/>
+      <c s="5" r="O37"/>
+      <c s="5" r="P37"/>
+      <c s="5" r="Q37"/>
+      <c s="5" r="R37"/>
+      <c s="5" r="S37"/>
+      <c s="5" r="T37"/>
+      <c s="5" r="U37"/>
+      <c s="5" r="V37"/>
+      <c s="5" r="W37"/>
+      <c s="5" r="X37"/>
+      <c s="5" r="Y37"/>
     </row>
     <row r="38">
-      <c s="4" r="A38"/>
-      <c s="33" r="B38"/>
-      <c s="5" r="C38"/>
-      <c s="3" r="D38"/>
-      <c s="17" r="E38"/>
-      <c s="17" r="F38"/>
-      <c s="17" r="G38"/>
-      <c s="17" r="H38"/>
-      <c s="17" r="I38"/>
-      <c s="17" r="J38"/>
-      <c s="17" r="K38"/>
+      <c s="3" r="A38"/>
+      <c s="32" r="B38"/>
+      <c s="4" r="C38"/>
+      <c s="2" r="D38"/>
+      <c s="15" r="E38"/>
+      <c s="15" r="F38"/>
+      <c s="15" r="G38"/>
+      <c s="15" r="H38"/>
+      <c s="15" r="I38"/>
+      <c s="15" r="J38"/>
+      <c s="15" r="K38"/>
       <c s="44" r="L38"/>
       <c s="30" r="M38"/>
-      <c s="28" r="N38"/>
-      <c s="6" r="O38"/>
-      <c s="6" r="P38"/>
-      <c s="6" r="Q38"/>
-      <c s="6" r="R38"/>
-      <c s="6" r="S38"/>
-      <c s="6" r="T38"/>
-      <c s="6" r="U38"/>
-      <c s="6" r="V38"/>
-      <c s="6" r="W38"/>
-      <c s="6" r="X38"/>
-      <c s="6" r="Y38"/>
+      <c s="26" r="N38"/>
+      <c s="5" r="O38"/>
+      <c s="5" r="P38"/>
+      <c s="5" r="Q38"/>
+      <c s="5" r="R38"/>
+      <c s="5" r="S38"/>
+      <c s="5" r="T38"/>
+      <c s="5" r="U38"/>
+      <c s="5" r="V38"/>
+      <c s="5" r="W38"/>
+      <c s="5" r="X38"/>
+      <c s="5" r="Y38"/>
     </row>
     <row r="39">
-      <c s="4" r="A39"/>
-      <c s="33" r="B39"/>
-      <c s="5" r="C39"/>
-      <c s="3" r="D39"/>
-      <c s="17" r="E39"/>
-      <c s="17" r="F39"/>
-      <c s="17" r="G39"/>
-      <c s="17" r="H39"/>
-      <c s="17" r="I39"/>
-      <c s="17" r="J39"/>
-      <c s="17" r="K39"/>
+      <c s="3" r="A39"/>
+      <c s="32" r="B39"/>
+      <c s="4" r="C39"/>
+      <c s="2" r="D39"/>
+      <c s="15" r="E39"/>
+      <c s="15" r="F39"/>
+      <c s="15" r="G39"/>
+      <c s="15" r="H39"/>
+      <c s="15" r="I39"/>
+      <c s="15" r="J39"/>
+      <c s="15" r="K39"/>
       <c s="44" r="L39"/>
       <c s="30" r="M39"/>
-      <c s="28" r="N39"/>
-      <c s="6" r="O39"/>
-      <c s="6" r="P39"/>
-      <c s="6" r="Q39"/>
-      <c s="6" r="R39"/>
-      <c s="6" r="S39"/>
-      <c s="6" r="T39"/>
-      <c s="6" r="U39"/>
-      <c s="6" r="V39"/>
-      <c s="6" r="W39"/>
-      <c s="6" r="X39"/>
-      <c s="6" r="Y39"/>
+      <c s="26" r="N39"/>
+      <c s="5" r="O39"/>
+      <c s="5" r="P39"/>
+      <c s="5" r="Q39"/>
+      <c s="5" r="R39"/>
+      <c s="5" r="S39"/>
+      <c s="5" r="T39"/>
+      <c s="5" r="U39"/>
+      <c s="5" r="V39"/>
+      <c s="5" r="W39"/>
+      <c s="5" r="X39"/>
+      <c s="5" r="Y39"/>
     </row>
     <row r="40">
-      <c s="4" r="A40"/>
-      <c s="33" r="B40"/>
-      <c s="5" r="C40"/>
-      <c s="3" r="D40"/>
-      <c s="17" r="E40"/>
-      <c s="17" r="F40"/>
-      <c s="17" r="G40"/>
-      <c s="17" r="H40"/>
-      <c s="17" r="I40"/>
-      <c s="17" r="J40"/>
-      <c s="17" r="K40"/>
+      <c s="3" r="A40"/>
+      <c s="32" r="B40"/>
+      <c s="4" r="C40"/>
+      <c s="2" r="D40"/>
+      <c s="15" r="E40"/>
+      <c s="15" r="F40"/>
+      <c s="15" r="G40"/>
+      <c s="15" r="H40"/>
+      <c s="15" r="I40"/>
+      <c s="15" r="J40"/>
+      <c s="15" r="K40"/>
       <c s="44" r="L40"/>
       <c s="30" r="M40"/>
-      <c s="28" r="N40"/>
-      <c s="6" r="O40"/>
-      <c s="6" r="P40"/>
-      <c s="6" r="Q40"/>
-      <c s="6" r="R40"/>
-      <c s="6" r="S40"/>
-      <c s="6" r="T40"/>
-      <c s="6" r="U40"/>
-      <c s="6" r="V40"/>
-      <c s="6" r="W40"/>
-      <c s="6" r="X40"/>
-      <c s="6" r="Y40"/>
+      <c s="26" r="N40"/>
+      <c s="5" r="O40"/>
+      <c s="5" r="P40"/>
+      <c s="5" r="Q40"/>
+      <c s="5" r="R40"/>
+      <c s="5" r="S40"/>
+      <c s="5" r="T40"/>
+      <c s="5" r="U40"/>
+      <c s="5" r="V40"/>
+      <c s="5" r="W40"/>
+      <c s="5" r="X40"/>
+      <c s="5" r="Y40"/>
     </row>
     <row r="41">
-      <c s="4" r="A41"/>
-      <c s="33" r="B41"/>
-      <c s="5" r="C41"/>
-      <c s="3" r="D41"/>
-      <c s="17" r="E41"/>
-      <c s="17" r="F41"/>
-      <c s="17" r="G41"/>
-      <c s="17" r="H41"/>
-      <c s="17" r="I41"/>
-      <c s="17" r="J41"/>
-      <c s="17" r="K41"/>
+      <c s="3" r="A41"/>
+      <c s="32" r="B41"/>
+      <c s="4" r="C41"/>
+      <c s="2" r="D41"/>
+      <c s="15" r="E41"/>
+      <c s="15" r="F41"/>
+      <c s="15" r="G41"/>
+      <c s="15" r="H41"/>
+      <c s="15" r="I41"/>
+      <c s="15" r="J41"/>
+      <c s="15" r="K41"/>
       <c s="44" r="L41"/>
       <c s="30" r="M41"/>
-      <c s="28" r="N41"/>
-      <c s="6" r="O41"/>
-      <c s="6" r="P41"/>
-      <c s="6" r="Q41"/>
-      <c s="6" r="R41"/>
-      <c s="6" r="S41"/>
-      <c s="6" r="T41"/>
-      <c s="6" r="U41"/>
-      <c s="6" r="V41"/>
-      <c s="6" r="W41"/>
-      <c s="6" r="X41"/>
-      <c s="6" r="Y41"/>
+      <c s="26" r="N41"/>
+      <c s="5" r="O41"/>
+      <c s="5" r="P41"/>
+      <c s="5" r="Q41"/>
+      <c s="5" r="R41"/>
+      <c s="5" r="S41"/>
+      <c s="5" r="T41"/>
+      <c s="5" r="U41"/>
+      <c s="5" r="V41"/>
+      <c s="5" r="W41"/>
+      <c s="5" r="X41"/>
+      <c s="5" r="Y41"/>
     </row>
     <row r="42">
-      <c s="4" r="A42"/>
-      <c s="33" r="B42"/>
-      <c s="5" r="C42"/>
-      <c s="3" r="D42"/>
-      <c s="17" r="E42"/>
-      <c s="17" r="F42"/>
-      <c s="17" r="G42"/>
-      <c s="17" r="H42"/>
-      <c s="17" r="I42"/>
-      <c s="17" r="J42"/>
-      <c s="17" r="K42"/>
+      <c s="3" r="A42"/>
+      <c s="32" r="B42"/>
+      <c s="4" r="C42"/>
+      <c s="2" r="D42"/>
+      <c s="15" r="E42"/>
+      <c s="15" r="F42"/>
+      <c s="15" r="G42"/>
+      <c s="15" r="H42"/>
+      <c s="15" r="I42"/>
+      <c s="15" r="J42"/>
+      <c s="15" r="K42"/>
       <c s="44" r="L42"/>
       <c s="30" r="M42"/>
-      <c s="28" r="N42"/>
-      <c s="6" r="O42"/>
-      <c s="6" r="P42"/>
-      <c s="6" r="Q42"/>
-      <c s="6" r="R42"/>
-      <c s="6" r="S42"/>
-      <c s="6" r="T42"/>
-      <c s="6" r="U42"/>
-      <c s="6" r="V42"/>
-      <c s="6" r="W42"/>
-      <c s="6" r="X42"/>
-      <c s="6" r="Y42"/>
+      <c s="26" r="N42"/>
+      <c s="5" r="O42"/>
+      <c s="5" r="P42"/>
+      <c s="5" r="Q42"/>
+      <c s="5" r="R42"/>
+      <c s="5" r="S42"/>
+      <c s="5" r="T42"/>
+      <c s="5" r="U42"/>
+      <c s="5" r="V42"/>
+      <c s="5" r="W42"/>
+      <c s="5" r="X42"/>
+      <c s="5" r="Y42"/>
     </row>
     <row r="43">
-      <c s="4" r="A43"/>
-      <c s="33" r="B43"/>
-      <c s="5" r="C43"/>
-      <c s="3" r="D43"/>
-      <c s="17" r="E43"/>
-      <c s="17" r="F43"/>
-      <c s="17" r="G43"/>
-      <c s="17" r="H43"/>
-      <c s="17" r="I43"/>
-      <c s="17" r="J43"/>
-      <c s="17" r="K43"/>
+      <c s="3" r="A43"/>
+      <c s="32" r="B43"/>
+      <c s="4" r="C43"/>
+      <c s="2" r="D43"/>
+      <c s="15" r="E43"/>
+      <c s="15" r="F43"/>
+      <c s="15" r="G43"/>
+      <c s="15" r="H43"/>
+      <c s="15" r="I43"/>
+      <c s="15" r="J43"/>
+      <c s="15" r="K43"/>
       <c s="44" r="L43"/>
       <c s="30" r="M43"/>
-      <c s="28" r="N43"/>
-      <c s="6" r="O43"/>
-      <c s="6" r="P43"/>
-      <c s="6" r="Q43"/>
-      <c s="6" r="R43"/>
-      <c s="6" r="S43"/>
-      <c s="6" r="T43"/>
-      <c s="6" r="U43"/>
-      <c s="6" r="V43"/>
-      <c s="6" r="W43"/>
-      <c s="6" r="X43"/>
-      <c s="6" r="Y43"/>
+      <c s="26" r="N43"/>
+      <c s="5" r="O43"/>
+      <c s="5" r="P43"/>
+      <c s="5" r="Q43"/>
+      <c s="5" r="R43"/>
+      <c s="5" r="S43"/>
+      <c s="5" r="T43"/>
+      <c s="5" r="U43"/>
+      <c s="5" r="V43"/>
+      <c s="5" r="W43"/>
+      <c s="5" r="X43"/>
+      <c s="5" r="Y43"/>
     </row>
     <row r="44">
-      <c s="4" r="A44"/>
-      <c s="33" r="B44"/>
-      <c s="5" r="C44"/>
-      <c s="3" r="D44"/>
-      <c s="17" r="E44"/>
-      <c s="17" r="F44"/>
-      <c s="17" r="G44"/>
-      <c s="17" r="H44"/>
-      <c s="17" r="I44"/>
-      <c s="17" r="J44"/>
-      <c s="17" r="K44"/>
+      <c s="3" r="A44"/>
+      <c s="32" r="B44"/>
+      <c s="4" r="C44"/>
+      <c s="2" r="D44"/>
+      <c s="15" r="E44"/>
+      <c s="15" r="F44"/>
+      <c s="15" r="G44"/>
+      <c s="15" r="H44"/>
+      <c s="15" r="I44"/>
+      <c s="15" r="J44"/>
+      <c s="15" r="K44"/>
       <c s="44" r="L44"/>
       <c s="30" r="M44"/>
-      <c s="28" r="N44"/>
-      <c s="6" r="O44"/>
-      <c s="6" r="P44"/>
-      <c s="6" r="Q44"/>
-      <c s="6" r="R44"/>
-      <c s="6" r="S44"/>
-      <c s="6" r="T44"/>
-      <c s="6" r="U44"/>
-      <c s="6" r="V44"/>
-      <c s="6" r="W44"/>
-      <c s="6" r="X44"/>
-      <c s="6" r="Y44"/>
+      <c s="26" r="N44"/>
+      <c s="5" r="O44"/>
+      <c s="5" r="P44"/>
+      <c s="5" r="Q44"/>
+      <c s="5" r="R44"/>
+      <c s="5" r="S44"/>
+      <c s="5" r="T44"/>
+      <c s="5" r="U44"/>
+      <c s="5" r="V44"/>
+      <c s="5" r="W44"/>
+      <c s="5" r="X44"/>
+      <c s="5" r="Y44"/>
     </row>
     <row r="45">
-      <c s="4" r="A45"/>
-      <c s="33" r="B45"/>
-      <c s="5" r="C45"/>
-      <c s="3" r="D45"/>
-      <c s="17" r="E45"/>
-      <c s="17" r="F45"/>
-      <c s="17" r="G45"/>
-      <c s="17" r="H45"/>
-      <c s="17" r="I45"/>
-      <c s="17" r="J45"/>
-      <c s="17" r="K45"/>
+      <c s="3" r="A45"/>
+      <c s="32" r="B45"/>
+      <c s="4" r="C45"/>
+      <c s="2" r="D45"/>
+      <c s="15" r="E45"/>
+      <c s="15" r="F45"/>
+      <c s="15" r="G45"/>
+      <c s="15" r="H45"/>
+      <c s="15" r="I45"/>
+      <c s="15" r="J45"/>
+      <c s="15" r="K45"/>
       <c s="44" r="L45"/>
       <c s="30" r="M45"/>
-      <c s="28" r="N45"/>
-      <c s="6" r="O45"/>
-      <c s="6" r="P45"/>
-      <c s="6" r="Q45"/>
-      <c s="6" r="R45"/>
-      <c s="6" r="S45"/>
-      <c s="6" r="T45"/>
-      <c s="6" r="U45"/>
-      <c s="6" r="V45"/>
-      <c s="6" r="W45"/>
-      <c s="6" r="X45"/>
-      <c s="6" r="Y45"/>
+      <c s="26" r="N45"/>
+      <c s="5" r="O45"/>
+      <c s="5" r="P45"/>
+      <c s="5" r="Q45"/>
+      <c s="5" r="R45"/>
+      <c s="5" r="S45"/>
+      <c s="5" r="T45"/>
+      <c s="5" r="U45"/>
+      <c s="5" r="V45"/>
+      <c s="5" r="W45"/>
+      <c s="5" r="X45"/>
+      <c s="5" r="Y45"/>
     </row>
     <row r="46">
-      <c s="4" r="A46"/>
-      <c s="33" r="B46"/>
-      <c s="5" r="C46"/>
-      <c s="3" r="D46"/>
-      <c s="17" r="E46"/>
-      <c s="17" r="F46"/>
-      <c s="17" r="G46"/>
-      <c s="17" r="H46"/>
-      <c s="17" r="I46"/>
-      <c s="17" r="J46"/>
-      <c s="17" r="K46"/>
+      <c s="3" r="A46"/>
+      <c s="32" r="B46"/>
+      <c s="4" r="C46"/>
+      <c s="2" r="D46"/>
+      <c s="15" r="E46"/>
+      <c s="15" r="F46"/>
+      <c s="15" r="G46"/>
+      <c s="15" r="H46"/>
+      <c s="15" r="I46"/>
+      <c s="15" r="J46"/>
+      <c s="15" r="K46"/>
       <c s="44" r="L46"/>
       <c s="30" r="M46"/>
-      <c s="28" r="N46"/>
-      <c s="6" r="O46"/>
-      <c s="6" r="P46"/>
-      <c s="6" r="Q46"/>
-      <c s="6" r="R46"/>
-      <c s="6" r="S46"/>
-      <c s="6" r="T46"/>
-      <c s="6" r="U46"/>
-      <c s="6" r="V46"/>
-      <c s="6" r="W46"/>
-      <c s="6" r="X46"/>
-      <c s="6" r="Y46"/>
+      <c s="26" r="N46"/>
+      <c s="5" r="O46"/>
+      <c s="5" r="P46"/>
+      <c s="5" r="Q46"/>
+      <c s="5" r="R46"/>
+      <c s="5" r="S46"/>
+      <c s="5" r="T46"/>
+      <c s="5" r="U46"/>
+      <c s="5" r="V46"/>
+      <c s="5" r="W46"/>
+      <c s="5" r="X46"/>
+      <c s="5" r="Y46"/>
     </row>
     <row r="47">
-      <c s="4" r="A47"/>
-      <c s="33" r="B47"/>
-      <c s="5" r="C47"/>
-      <c s="3" r="D47"/>
-      <c s="17" r="E47"/>
-      <c s="17" r="F47"/>
-      <c s="17" r="G47"/>
-      <c s="17" r="H47"/>
-      <c s="17" r="I47"/>
-      <c s="17" r="J47"/>
-      <c s="17" r="K47"/>
+      <c s="3" r="A47"/>
+      <c s="32" r="B47"/>
+      <c s="4" r="C47"/>
+      <c s="2" r="D47"/>
+      <c s="15" r="E47"/>
+      <c s="15" r="F47"/>
+      <c s="15" r="G47"/>
+      <c s="15" r="H47"/>
+      <c s="15" r="I47"/>
+      <c s="15" r="J47"/>
+      <c s="15" r="K47"/>
       <c s="44" r="L47"/>
       <c s="30" r="M47"/>
-      <c s="28" r="N47"/>
-      <c s="6" r="O47"/>
-      <c s="6" r="P47"/>
-      <c s="6" r="Q47"/>
-      <c s="6" r="R47"/>
-      <c s="6" r="S47"/>
-      <c s="6" r="T47"/>
-      <c s="6" r="U47"/>
-      <c s="6" r="V47"/>
-      <c s="6" r="W47"/>
-      <c s="6" r="X47"/>
-      <c s="6" r="Y47"/>
+      <c s="26" r="N47"/>
+      <c s="5" r="O47"/>
+      <c s="5" r="P47"/>
+      <c s="5" r="Q47"/>
+      <c s="5" r="R47"/>
+      <c s="5" r="S47"/>
+      <c s="5" r="T47"/>
+      <c s="5" r="U47"/>
+      <c s="5" r="V47"/>
+      <c s="5" r="W47"/>
+      <c s="5" r="X47"/>
+      <c s="5" r="Y47"/>
     </row>
     <row r="48">
-      <c s="4" r="A48"/>
-      <c s="33" r="B48"/>
-      <c s="5" r="C48"/>
-      <c s="3" r="D48"/>
-      <c s="17" r="E48"/>
-      <c s="17" r="F48"/>
-      <c s="17" r="G48"/>
-      <c s="17" r="H48"/>
-      <c s="17" r="I48"/>
-      <c s="17" r="J48"/>
-      <c s="17" r="K48"/>
+      <c s="3" r="A48"/>
+      <c s="32" r="B48"/>
+      <c s="4" r="C48"/>
+      <c s="2" r="D48"/>
+      <c s="15" r="E48"/>
+      <c s="15" r="F48"/>
+      <c s="15" r="G48"/>
+      <c s="15" r="H48"/>
+      <c s="15" r="I48"/>
+      <c s="15" r="J48"/>
+      <c s="15" r="K48"/>
       <c s="44" r="L48"/>
       <c s="30" r="M48"/>
-      <c s="28" r="N48"/>
-      <c s="6" r="O48"/>
-      <c s="6" r="P48"/>
-      <c s="6" r="Q48"/>
-      <c s="6" r="R48"/>
-      <c s="6" r="S48"/>
-      <c s="6" r="T48"/>
-      <c s="6" r="U48"/>
-      <c s="6" r="V48"/>
-      <c s="6" r="W48"/>
-      <c s="6" r="X48"/>
-      <c s="6" r="Y48"/>
+      <c s="26" r="N48"/>
+      <c s="5" r="O48"/>
+      <c s="5" r="P48"/>
+      <c s="5" r="Q48"/>
+      <c s="5" r="R48"/>
+      <c s="5" r="S48"/>
+      <c s="5" r="T48"/>
+      <c s="5" r="U48"/>
+      <c s="5" r="V48"/>
+      <c s="5" r="W48"/>
+      <c s="5" r="X48"/>
+      <c s="5" r="Y48"/>
     </row>
     <row r="49">
-      <c s="4" r="A49"/>
-      <c s="33" r="B49"/>
-      <c s="5" r="C49"/>
-      <c s="3" r="D49"/>
-      <c s="17" r="E49"/>
-      <c s="17" r="F49"/>
-      <c s="17" r="G49"/>
-      <c s="17" r="H49"/>
-      <c s="17" r="I49"/>
-      <c s="17" r="J49"/>
-      <c s="17" r="K49"/>
+      <c s="3" r="A49"/>
+      <c s="32" r="B49"/>
+      <c s="4" r="C49"/>
+      <c s="2" r="D49"/>
+      <c s="15" r="E49"/>
+      <c s="15" r="F49"/>
+      <c s="15" r="G49"/>
+      <c s="15" r="H49"/>
+      <c s="15" r="I49"/>
+      <c s="15" r="J49"/>
+      <c s="15" r="K49"/>
       <c s="44" r="L49"/>
       <c s="30" r="M49"/>
-      <c s="28" r="N49"/>
-      <c s="6" r="O49"/>
-      <c s="6" r="P49"/>
-      <c s="6" r="Q49"/>
-      <c s="6" r="R49"/>
-      <c s="6" r="S49"/>
-      <c s="6" r="T49"/>
-      <c s="6" r="U49"/>
-      <c s="6" r="V49"/>
-      <c s="6" r="W49"/>
-      <c s="6" r="X49"/>
-      <c s="6" r="Y49"/>
+      <c s="26" r="N49"/>
+      <c s="5" r="O49"/>
+      <c s="5" r="P49"/>
+      <c s="5" r="Q49"/>
+      <c s="5" r="R49"/>
+      <c s="5" r="S49"/>
+      <c s="5" r="T49"/>
+      <c s="5" r="U49"/>
+      <c s="5" r="V49"/>
+      <c s="5" r="W49"/>
+      <c s="5" r="X49"/>
+      <c s="5" r="Y49"/>
     </row>
     <row r="50">
-      <c s="4" r="A50"/>
-      <c s="33" r="B50"/>
-      <c s="5" r="C50"/>
-      <c s="3" r="D50"/>
-      <c s="17" r="E50"/>
-      <c s="17" r="F50"/>
-      <c s="17" r="G50"/>
-      <c s="17" r="H50"/>
-      <c s="17" r="I50"/>
-      <c s="17" r="J50"/>
-      <c s="17" r="K50"/>
+      <c s="3" r="A50"/>
+      <c s="32" r="B50"/>
+      <c s="4" r="C50"/>
+      <c s="2" r="D50"/>
+      <c s="15" r="E50"/>
+      <c s="15" r="F50"/>
+      <c s="15" r="G50"/>
+      <c s="15" r="H50"/>
+      <c s="15" r="I50"/>
+      <c s="15" r="J50"/>
+      <c s="15" r="K50"/>
       <c s="44" r="L50"/>
       <c s="30" r="M50"/>
-      <c s="28" r="N50"/>
-      <c s="6" r="O50"/>
-      <c s="6" r="P50"/>
-      <c s="6" r="Q50"/>
-      <c s="6" r="R50"/>
-      <c s="6" r="S50"/>
-      <c s="6" r="T50"/>
-      <c s="6" r="U50"/>
-      <c s="6" r="V50"/>
-      <c s="6" r="W50"/>
-      <c s="6" r="X50"/>
-      <c s="6" r="Y50"/>
+      <c s="26" r="N50"/>
+      <c s="5" r="O50"/>
+      <c s="5" r="P50"/>
+      <c s="5" r="Q50"/>
+      <c s="5" r="R50"/>
+      <c s="5" r="S50"/>
+      <c s="5" r="T50"/>
+      <c s="5" r="U50"/>
+      <c s="5" r="V50"/>
+      <c s="5" r="W50"/>
+      <c s="5" r="X50"/>
+      <c s="5" r="Y50"/>
     </row>
     <row r="51">
-      <c s="4" r="A51"/>
-      <c s="33" r="B51"/>
-      <c s="5" r="C51"/>
-      <c s="3" r="D51"/>
-      <c s="17" r="E51"/>
-      <c s="17" r="F51"/>
-      <c s="17" r="G51"/>
-      <c s="17" r="H51"/>
-      <c s="17" r="I51"/>
-      <c s="17" r="J51"/>
-      <c s="17" r="K51"/>
+      <c s="3" r="A51"/>
+      <c s="32" r="B51"/>
+      <c s="4" r="C51"/>
+      <c s="2" r="D51"/>
+      <c s="15" r="E51"/>
+      <c s="15" r="F51"/>
+      <c s="15" r="G51"/>
+      <c s="15" r="H51"/>
+      <c s="15" r="I51"/>
+      <c s="15" r="J51"/>
+      <c s="15" r="K51"/>
       <c s="44" r="L51"/>
       <c s="30" r="M51"/>
-      <c s="28" r="N51"/>
-      <c s="6" r="O51"/>
-      <c s="6" r="P51"/>
-      <c s="6" r="Q51"/>
-      <c s="6" r="R51"/>
-      <c s="6" r="S51"/>
-      <c s="6" r="T51"/>
-      <c s="6" r="U51"/>
-      <c s="6" r="V51"/>
-      <c s="6" r="W51"/>
-      <c s="6" r="X51"/>
-      <c s="6" r="Y51"/>
+      <c s="26" r="N51"/>
+      <c s="5" r="O51"/>
+      <c s="5" r="P51"/>
+      <c s="5" r="Q51"/>
+      <c s="5" r="R51"/>
+      <c s="5" r="S51"/>
+      <c s="5" r="T51"/>
+      <c s="5" r="U51"/>
+      <c s="5" r="V51"/>
+      <c s="5" r="W51"/>
+      <c s="5" r="X51"/>
+      <c s="5" r="Y51"/>
     </row>
     <row r="52">
-      <c s="4" r="A52"/>
-      <c s="33" r="B52"/>
-      <c s="5" r="C52"/>
-      <c s="3" r="D52"/>
-      <c s="17" r="E52"/>
-      <c s="17" r="F52"/>
-      <c s="17" r="G52"/>
-      <c s="17" r="H52"/>
-      <c s="17" r="I52"/>
-      <c s="17" r="J52"/>
-      <c s="17" r="K52"/>
+      <c s="3" r="A52"/>
+      <c s="32" r="B52"/>
+      <c s="4" r="C52"/>
+      <c s="2" r="D52"/>
+      <c s="15" r="E52"/>
+      <c s="15" r="F52"/>
+      <c s="15" r="G52"/>
+      <c s="15" r="H52"/>
+      <c s="15" r="I52"/>
+      <c s="15" r="J52"/>
+      <c s="15" r="K52"/>
       <c s="44" r="L52"/>
       <c s="30" r="M52"/>
-      <c s="28" r="N52"/>
-      <c s="6" r="O52"/>
-      <c s="6" r="P52"/>
-      <c s="6" r="Q52"/>
-      <c s="6" r="R52"/>
-      <c s="6" r="S52"/>
-      <c s="6" r="T52"/>
-      <c s="6" r="U52"/>
-      <c s="6" r="V52"/>
-      <c s="6" r="W52"/>
-      <c s="6" r="X52"/>
-      <c s="6" r="Y52"/>
+      <c s="26" r="N52"/>
+      <c s="5" r="O52"/>
+      <c s="5" r="P52"/>
+      <c s="5" r="Q52"/>
+      <c s="5" r="R52"/>
+      <c s="5" r="S52"/>
+      <c s="5" r="T52"/>
+      <c s="5" r="U52"/>
+      <c s="5" r="V52"/>
+      <c s="5" r="W52"/>
+      <c s="5" r="X52"/>
+      <c s="5" r="Y52"/>
     </row>
     <row r="53">
-      <c s="4" r="A53"/>
-      <c s="33" r="B53"/>
-      <c s="5" r="C53"/>
-      <c s="3" r="D53"/>
-      <c s="17" r="E53"/>
-      <c s="17" r="F53"/>
-      <c s="17" r="G53"/>
-      <c s="17" r="H53"/>
-      <c s="17" r="I53"/>
-      <c s="17" r="J53"/>
-      <c s="17" r="K53"/>
+      <c s="3" r="A53"/>
+      <c s="32" r="B53"/>
+      <c s="4" r="C53"/>
+      <c s="2" r="D53"/>
+      <c s="15" r="E53"/>
+      <c s="15" r="F53"/>
+      <c s="15" r="G53"/>
+      <c s="15" r="H53"/>
+      <c s="15" r="I53"/>
+      <c s="15" r="J53"/>
+      <c s="15" r="K53"/>
       <c s="44" r="L53"/>
       <c s="30" r="M53"/>
-      <c s="28" r="N53"/>
-      <c s="6" r="O53"/>
-      <c s="6" r="P53"/>
-      <c s="6" r="Q53"/>
-      <c s="6" r="R53"/>
-      <c s="6" r="S53"/>
-      <c s="6" r="T53"/>
-      <c s="6" r="U53"/>
-      <c s="6" r="V53"/>
-      <c s="6" r="W53"/>
-      <c s="6" r="X53"/>
-      <c s="6" r="Y53"/>
+      <c s="26" r="N53"/>
+      <c s="5" r="O53"/>
+      <c s="5" r="P53"/>
+      <c s="5" r="Q53"/>
+      <c s="5" r="R53"/>
+      <c s="5" r="S53"/>
+      <c s="5" r="T53"/>
+      <c s="5" r="U53"/>
+      <c s="5" r="V53"/>
+      <c s="5" r="W53"/>
+      <c s="5" r="X53"/>
+      <c s="5" r="Y53"/>
     </row>
     <row r="54">
-      <c s="4" r="A54"/>
-      <c s="33" r="B54"/>
-      <c s="5" r="C54"/>
-      <c s="3" r="D54"/>
-      <c s="17" r="E54"/>
-      <c s="17" r="F54"/>
-      <c s="17" r="G54"/>
-      <c s="17" r="H54"/>
-      <c s="17" r="I54"/>
-      <c s="17" r="J54"/>
-      <c s="17" r="K54"/>
+      <c s="3" r="A54"/>
+      <c s="32" r="B54"/>
+      <c s="4" r="C54"/>
+      <c s="2" r="D54"/>
+      <c s="15" r="E54"/>
+      <c s="15" r="F54"/>
+      <c s="15" r="G54"/>
+      <c s="15" r="H54"/>
+      <c s="15" r="I54"/>
+      <c s="15" r="J54"/>
+      <c s="15" r="K54"/>
       <c s="44" r="L54"/>
       <c s="30" r="M54"/>
-      <c s="28" r="N54"/>
-      <c s="6" r="O54"/>
-      <c s="6" r="P54"/>
-      <c s="6" r="Q54"/>
-      <c s="6" r="R54"/>
-      <c s="6" r="S54"/>
-      <c s="6" r="T54"/>
-      <c s="6" r="U54"/>
-      <c s="6" r="V54"/>
-      <c s="6" r="W54"/>
-      <c s="6" r="X54"/>
-      <c s="6" r="Y54"/>
+      <c s="26" r="N54"/>
+      <c s="5" r="O54"/>
+      <c s="5" r="P54"/>
+      <c s="5" r="Q54"/>
+      <c s="5" r="R54"/>
+      <c s="5" r="S54"/>
+      <c s="5" r="T54"/>
+      <c s="5" r="U54"/>
+      <c s="5" r="V54"/>
+      <c s="5" r="W54"/>
+      <c s="5" r="X54"/>
+      <c s="5" r="Y54"/>
     </row>
     <row r="55">
-      <c s="4" r="A55"/>
-      <c s="33" r="B55"/>
-      <c s="5" r="C55"/>
-      <c s="3" r="D55"/>
-      <c s="17" r="E55"/>
-      <c s="17" r="F55"/>
-      <c s="17" r="G55"/>
-      <c s="17" r="H55"/>
-      <c s="17" r="I55"/>
-      <c s="17" r="J55"/>
-      <c s="17" r="K55"/>
+      <c s="3" r="A55"/>
+      <c s="32" r="B55"/>
+      <c s="4" r="C55"/>
+      <c s="2" r="D55"/>
+      <c s="15" r="E55"/>
+      <c s="15" r="F55"/>
+      <c s="15" r="G55"/>
+      <c s="15" r="H55"/>
+      <c s="15" r="I55"/>
+      <c s="15" r="J55"/>
+      <c s="15" r="K55"/>
       <c s="44" r="L55"/>
       <c s="30" r="M55"/>
-      <c s="28" r="N55"/>
-      <c s="6" r="O55"/>
-      <c s="6" r="P55"/>
-      <c s="6" r="Q55"/>
-      <c s="6" r="R55"/>
-      <c s="6" r="S55"/>
-      <c s="6" r="T55"/>
-      <c s="6" r="U55"/>
-      <c s="6" r="V55"/>
-      <c s="6" r="W55"/>
-      <c s="6" r="X55"/>
-      <c s="6" r="Y55"/>
+      <c s="26" r="N55"/>
+      <c s="5" r="O55"/>
+      <c s="5" r="P55"/>
+      <c s="5" r="Q55"/>
+      <c s="5" r="R55"/>
+      <c s="5" r="S55"/>
+      <c s="5" r="T55"/>
+      <c s="5" r="U55"/>
+      <c s="5" r="V55"/>
+      <c s="5" r="W55"/>
+      <c s="5" r="X55"/>
+      <c s="5" r="Y55"/>
     </row>
     <row r="56">
-      <c s="4" r="A56"/>
-      <c s="33" r="B56"/>
-      <c s="5" r="C56"/>
-      <c s="3" r="D56"/>
-      <c s="17" r="E56"/>
-      <c s="17" r="F56"/>
-      <c s="17" r="G56"/>
-      <c s="17" r="H56"/>
-      <c s="17" r="I56"/>
-      <c s="17" r="J56"/>
-      <c s="17" r="K56"/>
+      <c s="3" r="A56"/>
+      <c s="32" r="B56"/>
+      <c s="4" r="C56"/>
+      <c s="2" r="D56"/>
+      <c s="15" r="E56"/>
+      <c s="15" r="F56"/>
+      <c s="15" r="G56"/>
+      <c s="15" r="H56"/>
+      <c s="15" r="I56"/>
+      <c s="15" r="J56"/>
+      <c s="15" r="K56"/>
       <c s="44" r="L56"/>
       <c s="30" r="M56"/>
-      <c s="28" r="N56"/>
-      <c s="6" r="O56"/>
-      <c s="6" r="P56"/>
-      <c s="6" r="Q56"/>
-      <c s="6" r="R56"/>
-      <c s="6" r="S56"/>
-      <c s="6" r="T56"/>
-      <c s="6" r="U56"/>
-      <c s="6" r="V56"/>
-      <c s="6" r="W56"/>
-      <c s="6" r="X56"/>
-      <c s="6" r="Y56"/>
+      <c s="26" r="N56"/>
+      <c s="5" r="O56"/>
+      <c s="5" r="P56"/>
+      <c s="5" r="Q56"/>
+      <c s="5" r="R56"/>
+      <c s="5" r="S56"/>
+      <c s="5" r="T56"/>
+      <c s="5" r="U56"/>
+      <c s="5" r="V56"/>
+      <c s="5" r="W56"/>
+      <c s="5" r="X56"/>
+      <c s="5" r="Y56"/>
     </row>
     <row r="57">
-      <c s="4" r="A57"/>
-      <c s="33" r="B57"/>
-      <c s="5" r="C57"/>
-      <c s="3" r="D57"/>
-      <c s="17" r="E57"/>
-      <c s="17" r="F57"/>
-      <c s="17" r="G57"/>
-      <c s="17" r="H57"/>
-      <c s="17" r="I57"/>
-      <c s="17" r="J57"/>
-      <c s="17" r="K57"/>
+      <c s="3" r="A57"/>
+      <c s="32" r="B57"/>
+      <c s="4" r="C57"/>
+      <c s="2" r="D57"/>
+      <c s="15" r="E57"/>
+      <c s="15" r="F57"/>
+      <c s="15" r="G57"/>
+      <c s="15" r="H57"/>
+      <c s="15" r="I57"/>
+      <c s="15" r="J57"/>
+      <c s="15" r="K57"/>
       <c s="44" r="L57"/>
       <c s="30" r="M57"/>
-      <c s="28" r="N57"/>
-      <c s="6" r="O57"/>
-      <c s="6" r="P57"/>
-      <c s="6" r="Q57"/>
-      <c s="6" r="R57"/>
-      <c s="6" r="S57"/>
-      <c s="6" r="T57"/>
-      <c s="6" r="U57"/>
-      <c s="6" r="V57"/>
-      <c s="6" r="W57"/>
-      <c s="6" r="X57"/>
-      <c s="6" r="Y57"/>
+      <c s="26" r="N57"/>
+      <c s="5" r="O57"/>
+      <c s="5" r="P57"/>
+      <c s="5" r="Q57"/>
+      <c s="5" r="R57"/>
+      <c s="5" r="S57"/>
+      <c s="5" r="T57"/>
+      <c s="5" r="U57"/>
+      <c s="5" r="V57"/>
+      <c s="5" r="W57"/>
+      <c s="5" r="X57"/>
+      <c s="5" r="Y57"/>
     </row>
     <row r="58">
-      <c s="4" r="A58"/>
-      <c s="33" r="B58"/>
-      <c s="5" r="C58"/>
-      <c s="3" r="D58"/>
-      <c s="17" r="E58"/>
-      <c s="17" r="F58"/>
-      <c s="17" r="G58"/>
-      <c s="17" r="H58"/>
-      <c s="17" r="I58"/>
-      <c s="17" r="J58"/>
-      <c s="17" r="K58"/>
+      <c s="3" r="A58"/>
+      <c s="32" r="B58"/>
+      <c s="4" r="C58"/>
+      <c s="2" r="D58"/>
+      <c s="15" r="E58"/>
+      <c s="15" r="F58"/>
+      <c s="15" r="G58"/>
+      <c s="15" r="H58"/>
+      <c s="15" r="I58"/>
+      <c s="15" r="J58"/>
+      <c s="15" r="K58"/>
       <c s="44" r="L58"/>
       <c s="30" r="M58"/>
-      <c s="28" r="N58"/>
-      <c s="6" r="O58"/>
-      <c s="6" r="P58"/>
-      <c s="6" r="Q58"/>
-      <c s="6" r="R58"/>
-      <c s="6" r="S58"/>
-      <c s="6" r="T58"/>
-      <c s="6" r="U58"/>
-      <c s="6" r="V58"/>
-      <c s="6" r="W58"/>
-      <c s="6" r="X58"/>
-      <c s="6" r="Y58"/>
+      <c s="26" r="N58"/>
+      <c s="5" r="O58"/>
+      <c s="5" r="P58"/>
+      <c s="5" r="Q58"/>
+      <c s="5" r="R58"/>
+      <c s="5" r="S58"/>
+      <c s="5" r="T58"/>
+      <c s="5" r="U58"/>
+      <c s="5" r="V58"/>
+      <c s="5" r="W58"/>
+      <c s="5" r="X58"/>
+      <c s="5" r="Y58"/>
     </row>
     <row r="59">
-      <c s="4" r="A59"/>
-      <c s="33" r="B59"/>
-      <c s="5" r="C59"/>
-      <c s="3" r="D59"/>
-      <c s="17" r="E59"/>
-      <c s="17" r="F59"/>
-      <c s="17" r="G59"/>
-      <c s="17" r="H59"/>
-      <c s="17" r="I59"/>
-      <c s="17" r="J59"/>
-      <c s="17" r="K59"/>
+      <c s="3" r="A59"/>
+      <c s="32" r="B59"/>
+      <c s="4" r="C59"/>
+      <c s="2" r="D59"/>
+      <c s="15" r="E59"/>
+      <c s="15" r="F59"/>
+      <c s="15" r="G59"/>
+      <c s="15" r="H59"/>
+      <c s="15" r="I59"/>
+      <c s="15" r="J59"/>
+      <c s="15" r="K59"/>
       <c s="44" r="L59"/>
       <c s="30" r="M59"/>
-      <c s="28" r="N59"/>
-      <c s="6" r="O59"/>
-      <c s="6" r="P59"/>
-      <c s="6" r="Q59"/>
-      <c s="6" r="R59"/>
-      <c s="6" r="S59"/>
-      <c s="6" r="T59"/>
-      <c s="6" r="U59"/>
-      <c s="6" r="V59"/>
-      <c s="6" r="W59"/>
-      <c s="6" r="X59"/>
-      <c s="6" r="Y59"/>
+      <c s="26" r="N59"/>
+      <c s="5" r="O59"/>
+      <c s="5" r="P59"/>
+      <c s="5" r="Q59"/>
+      <c s="5" r="R59"/>
+      <c s="5" r="S59"/>
+      <c s="5" r="T59"/>
+      <c s="5" r="U59"/>
+      <c s="5" r="V59"/>
+      <c s="5" r="W59"/>
+      <c s="5" r="X59"/>
+      <c s="5" r="Y59"/>
     </row>
     <row r="60">
-      <c s="4" r="A60"/>
-      <c s="33" r="B60"/>
-      <c s="5" r="C60"/>
-      <c s="3" r="D60"/>
-      <c s="17" r="E60"/>
-      <c s="17" r="F60"/>
-      <c s="17" r="G60"/>
-      <c s="17" r="H60"/>
-      <c s="17" r="I60"/>
-      <c s="17" r="J60"/>
-      <c s="17" r="K60"/>
+      <c s="3" r="A60"/>
+      <c s="32" r="B60"/>
+      <c s="4" r="C60"/>
+      <c s="2" r="D60"/>
+      <c s="15" r="E60"/>
+      <c s="15" r="F60"/>
+      <c s="15" r="G60"/>
+      <c s="15" r="H60"/>
+      <c s="15" r="I60"/>
+      <c s="15" r="J60"/>
+      <c s="15" r="K60"/>
       <c s="44" r="L60"/>
       <c s="30" r="M60"/>
-      <c s="28" r="N60"/>
-      <c s="6" r="O60"/>
-      <c s="6" r="P60"/>
-      <c s="6" r="Q60"/>
-      <c s="6" r="R60"/>
-      <c s="6" r="S60"/>
-      <c s="6" r="T60"/>
-      <c s="6" r="U60"/>
-      <c s="6" r="V60"/>
-      <c s="6" r="W60"/>
-      <c s="6" r="X60"/>
-      <c s="6" r="Y60"/>
+      <c s="26" r="N60"/>
+      <c s="5" r="O60"/>
+      <c s="5" r="P60"/>
+      <c s="5" r="Q60"/>
+      <c s="5" r="R60"/>
+      <c s="5" r="S60"/>
+      <c s="5" r="T60"/>
+      <c s="5" r="U60"/>
+      <c s="5" r="V60"/>
+      <c s="5" r="W60"/>
+      <c s="5" r="X60"/>
+      <c s="5" r="Y60"/>
     </row>
     <row r="61">
-      <c s="4" r="A61"/>
-      <c s="33" r="B61"/>
-      <c s="5" r="C61"/>
-      <c s="3" r="D61"/>
-      <c s="17" r="E61"/>
-      <c s="17" r="F61"/>
-      <c s="17" r="G61"/>
-      <c s="17" r="H61"/>
-      <c s="17" r="I61"/>
-      <c s="17" r="J61"/>
-      <c s="17" r="K61"/>
+      <c s="3" r="A61"/>
+      <c s="32" r="B61"/>
+      <c s="4" r="C61"/>
+      <c s="2" r="D61"/>
+      <c s="15" r="E61"/>
+      <c s="15" r="F61"/>
+      <c s="15" r="G61"/>
+      <c s="15" r="H61"/>
+      <c s="15" r="I61"/>
+      <c s="15" r="J61"/>
+      <c s="15" r="K61"/>
       <c s="44" r="L61"/>
       <c s="30" r="M61"/>
-      <c s="28" r="N61"/>
-      <c s="6" r="O61"/>
-      <c s="6" r="P61"/>
-      <c s="6" r="Q61"/>
-      <c s="6" r="R61"/>
-      <c s="6" r="S61"/>
-      <c s="6" r="T61"/>
-      <c s="6" r="U61"/>
-      <c s="6" r="V61"/>
-      <c s="6" r="W61"/>
-      <c s="6" r="X61"/>
-      <c s="6" r="Y61"/>
+      <c s="26" r="N61"/>
+      <c s="5" r="O61"/>
+      <c s="5" r="P61"/>
+      <c s="5" r="Q61"/>
+      <c s="5" r="R61"/>
+      <c s="5" r="S61"/>
+      <c s="5" r="T61"/>
+      <c s="5" r="U61"/>
+      <c s="5" r="V61"/>
+      <c s="5" r="W61"/>
+      <c s="5" r="X61"/>
+      <c s="5" r="Y61"/>
     </row>
     <row r="62">
-      <c s="4" r="A62"/>
-      <c s="33" r="B62"/>
-      <c s="5" r="C62"/>
-      <c s="3" r="D62"/>
-      <c s="17" r="E62"/>
-      <c s="17" r="F62"/>
-      <c s="17" r="G62"/>
-      <c s="17" r="H62"/>
-      <c s="17" r="I62"/>
-      <c s="17" r="J62"/>
-      <c s="17" r="K62"/>
+      <c s="3" r="A62"/>
+      <c s="32" r="B62"/>
+      <c s="4" r="C62"/>
+      <c s="2" r="D62"/>
+      <c s="15" r="E62"/>
+      <c s="15" r="F62"/>
+      <c s="15" r="G62"/>
+      <c s="15" r="H62"/>
+      <c s="15" r="I62"/>
+      <c s="15" r="J62"/>
+      <c s="15" r="K62"/>
       <c s="44" r="L62"/>
       <c s="30" r="M62"/>
-      <c s="28" r="N62"/>
-      <c s="6" r="O62"/>
-      <c s="6" r="P62"/>
-      <c s="6" r="Q62"/>
-      <c s="6" r="R62"/>
-      <c s="6" r="S62"/>
-      <c s="6" r="T62"/>
-      <c s="6" r="U62"/>
-      <c s="6" r="V62"/>
-      <c s="6" r="W62"/>
-      <c s="6" r="X62"/>
-      <c s="6" r="Y62"/>
+      <c s="26" r="N62"/>
+      <c s="5" r="O62"/>
+      <c s="5" r="P62"/>
+      <c s="5" r="Q62"/>
+      <c s="5" r="R62"/>
+      <c s="5" r="S62"/>
+      <c s="5" r="T62"/>
+      <c s="5" r="U62"/>
+      <c s="5" r="V62"/>
+      <c s="5" r="W62"/>
+      <c s="5" r="X62"/>
+      <c s="5" r="Y62"/>
     </row>
     <row r="63">
-      <c s="4" r="A63"/>
-      <c s="33" r="B63"/>
-      <c s="5" r="C63"/>
-      <c s="3" r="D63"/>
-      <c s="17" r="E63"/>
-      <c s="17" r="F63"/>
-      <c s="17" r="G63"/>
-      <c s="17" r="H63"/>
-      <c s="17" r="I63"/>
-      <c s="17" r="J63"/>
-      <c s="17" r="K63"/>
+      <c s="3" r="A63"/>
+      <c s="32" r="B63"/>
+      <c s="4" r="C63"/>
+      <c s="2" r="D63"/>
+      <c s="15" r="E63"/>
+      <c s="15" r="F63"/>
+      <c s="15" r="G63"/>
+      <c s="15" r="H63"/>
+      <c s="15" r="I63"/>
+      <c s="15" r="J63"/>
+      <c s="15" r="K63"/>
       <c s="44" r="L63"/>
       <c s="30" r="M63"/>
-      <c s="28" r="N63"/>
-      <c s="6" r="O63"/>
-      <c s="6" r="P63"/>
-      <c s="6" r="Q63"/>
-      <c s="6" r="R63"/>
-      <c s="6" r="S63"/>
-      <c s="6" r="T63"/>
-      <c s="6" r="U63"/>
-      <c s="6" r="V63"/>
-      <c s="6" r="W63"/>
-      <c s="6" r="X63"/>
-      <c s="6" r="Y63"/>
+      <c s="26" r="N63"/>
+      <c s="5" r="O63"/>
+      <c s="5" r="P63"/>
+      <c s="5" r="Q63"/>
+      <c s="5" r="R63"/>
+      <c s="5" r="S63"/>
+      <c s="5" r="T63"/>
+      <c s="5" r="U63"/>
+      <c s="5" r="V63"/>
+      <c s="5" r="W63"/>
+      <c s="5" r="X63"/>
+      <c s="5" r="Y63"/>
     </row>
     <row r="64">
-      <c s="4" r="A64"/>
-      <c s="33" r="B64"/>
-      <c s="5" r="C64"/>
-      <c s="3" r="D64"/>
-      <c s="17" r="E64"/>
-      <c s="17" r="F64"/>
-      <c s="17" r="G64"/>
-      <c s="17" r="H64"/>
-      <c s="17" r="I64"/>
-      <c s="17" r="J64"/>
-      <c s="17" r="K64"/>
+      <c s="3" r="A64"/>
+      <c s="32" r="B64"/>
+      <c s="4" r="C64"/>
+      <c s="2" r="D64"/>
+      <c s="15" r="E64"/>
+      <c s="15" r="F64"/>
+      <c s="15" r="G64"/>
+      <c s="15" r="H64"/>
+      <c s="15" r="I64"/>
+      <c s="15" r="J64"/>
+      <c s="15" r="K64"/>
       <c s="44" r="L64"/>
       <c s="30" r="M64"/>
-      <c s="28" r="N64"/>
-      <c s="6" r="O64"/>
-      <c s="6" r="P64"/>
-      <c s="6" r="Q64"/>
-      <c s="6" r="R64"/>
-      <c s="6" r="S64"/>
-      <c s="6" r="T64"/>
-      <c s="6" r="U64"/>
-      <c s="6" r="V64"/>
-      <c s="6" r="W64"/>
-      <c s="6" r="X64"/>
-      <c s="6" r="Y64"/>
+      <c s="26" r="N64"/>
+      <c s="5" r="O64"/>
+      <c s="5" r="P64"/>
+      <c s="5" r="Q64"/>
+      <c s="5" r="R64"/>
+      <c s="5" r="S64"/>
+      <c s="5" r="T64"/>
+      <c s="5" r="U64"/>
+      <c s="5" r="V64"/>
+      <c s="5" r="W64"/>
+      <c s="5" r="X64"/>
+      <c s="5" r="Y64"/>
     </row>
     <row r="65">
-      <c s="4" r="A65"/>
-      <c s="33" r="B65"/>
-      <c s="5" r="C65"/>
-      <c s="3" r="D65"/>
-      <c s="17" r="E65"/>
-      <c s="17" r="F65"/>
-      <c s="17" r="G65"/>
-      <c s="17" r="H65"/>
-      <c s="17" r="I65"/>
-      <c s="17" r="J65"/>
-      <c s="17" r="K65"/>
+      <c s="3" r="A65"/>
+      <c s="32" r="B65"/>
+      <c s="4" r="C65"/>
+      <c s="2" r="D65"/>
+      <c s="15" r="E65"/>
+      <c s="15" r="F65"/>
+      <c s="15" r="G65"/>
+      <c s="15" r="H65"/>
+      <c s="15" r="I65"/>
+      <c s="15" r="J65"/>
+      <c s="15" r="K65"/>
       <c s="44" r="L65"/>
       <c s="30" r="M65"/>
-      <c s="28" r="N65"/>
-      <c s="6" r="O65"/>
-      <c s="6" r="P65"/>
-      <c s="6" r="Q65"/>
-      <c s="6" r="R65"/>
-      <c s="6" r="S65"/>
-      <c s="6" r="T65"/>
-      <c s="6" r="U65"/>
-      <c s="6" r="V65"/>
-      <c s="6" r="W65"/>
-      <c s="6" r="X65"/>
-      <c s="6" r="Y65"/>
+      <c s="26" r="N65"/>
+      <c s="5" r="O65"/>
+      <c s="5" r="P65"/>
+      <c s="5" r="Q65"/>
+      <c s="5" r="R65"/>
+      <c s="5" r="S65"/>
+      <c s="5" r="T65"/>
+      <c s="5" r="U65"/>
+      <c s="5" r="V65"/>
+      <c s="5" r="W65"/>
+      <c s="5" r="X65"/>
+      <c s="5" r="Y65"/>
     </row>
     <row r="66">
-      <c s="4" r="A66"/>
-      <c s="33" r="B66"/>
-      <c s="5" r="C66"/>
-      <c s="3" r="D66"/>
-      <c s="17" r="E66"/>
-      <c s="17" r="F66"/>
-      <c s="17" r="G66"/>
-      <c s="17" r="H66"/>
-      <c s="17" r="I66"/>
-      <c s="17" r="J66"/>
-      <c s="17" r="K66"/>
+      <c s="3" r="A66"/>
+      <c s="32" r="B66"/>
+      <c s="4" r="C66"/>
+      <c s="2" r="D66"/>
+      <c s="15" r="E66"/>
+      <c s="15" r="F66"/>
+      <c s="15" r="G66"/>
+      <c s="15" r="H66"/>
+      <c s="15" r="I66"/>
+      <c s="15" r="J66"/>
+      <c s="15" r="K66"/>
       <c s="44" r="L66"/>
       <c s="30" r="M66"/>
-      <c s="28" r="N66"/>
-      <c s="6" r="O66"/>
-      <c s="6" r="P66"/>
-      <c s="6" r="Q66"/>
-      <c s="6" r="R66"/>
-      <c s="6" r="S66"/>
-      <c s="6" r="T66"/>
-      <c s="6" r="U66"/>
-      <c s="6" r="V66"/>
-      <c s="6" r="W66"/>
-      <c s="6" r="X66"/>
-      <c s="6" r="Y66"/>
+      <c s="26" r="N66"/>
+      <c s="5" r="O66"/>
+      <c s="5" r="P66"/>
+      <c s="5" r="Q66"/>
+      <c s="5" r="R66"/>
+      <c s="5" r="S66"/>
+      <c s="5" r="T66"/>
+      <c s="5" r="U66"/>
+      <c s="5" r="V66"/>
+      <c s="5" r="W66"/>
+      <c s="5" r="X66"/>
+      <c s="5" r="Y66"/>
     </row>
     <row r="67">
-      <c s="4" r="A67"/>
-      <c s="33" r="B67"/>
-      <c s="5" r="C67"/>
-      <c s="3" r="D67"/>
-      <c s="17" r="E67"/>
-      <c s="17" r="F67"/>
-      <c s="17" r="G67"/>
-      <c s="17" r="H67"/>
-      <c s="17" r="I67"/>
-      <c s="17" r="J67"/>
-      <c s="17" r="K67"/>
+      <c s="3" r="A67"/>
+      <c s="32" r="B67"/>
+      <c s="4" r="C67"/>
+      <c s="2" r="D67"/>
+      <c s="15" r="E67"/>
+      <c s="15" r="F67"/>
+      <c s="15" r="G67"/>
+      <c s="15" r="H67"/>
+      <c s="15" r="I67"/>
+      <c s="15" r="J67"/>
+      <c s="15" r="K67"/>
       <c s="44" r="L67"/>
       <c s="30" r="M67"/>
-      <c s="28" r="N67"/>
-      <c s="6" r="O67"/>
-      <c s="6" r="P67"/>
-      <c s="6" r="Q67"/>
-      <c s="6" r="R67"/>
-      <c s="6" r="S67"/>
-      <c s="6" r="T67"/>
-      <c s="6" r="U67"/>
-      <c s="6" r="V67"/>
-      <c s="6" r="W67"/>
-      <c s="6" r="X67"/>
-      <c s="6" r="Y67"/>
+      <c s="26" r="N67"/>
+      <c s="5" r="O67"/>
+      <c s="5" r="P67"/>
+      <c s="5" r="Q67"/>
+      <c s="5" r="R67"/>
+      <c s="5" r="S67"/>
+      <c s="5" r="T67"/>
+      <c s="5" r="U67"/>
+      <c s="5" r="V67"/>
+      <c s="5" r="W67"/>
+      <c s="5" r="X67"/>
+      <c s="5" r="Y67"/>
     </row>
     <row r="68">
-      <c s="4" r="A68"/>
-      <c s="33" r="B68"/>
-      <c s="5" r="C68"/>
-      <c s="3" r="D68"/>
-      <c s="17" r="E68"/>
-      <c s="17" r="F68"/>
-      <c s="17" r="G68"/>
-      <c s="17" r="H68"/>
-      <c s="17" r="I68"/>
-      <c s="17" r="J68"/>
-      <c s="17" r="K68"/>
+      <c s="3" r="A68"/>
+      <c s="32" r="B68"/>
+      <c s="4" r="C68"/>
+      <c s="2" r="D68"/>
+      <c s="15" r="E68"/>
+      <c s="15" r="F68"/>
+      <c s="15" r="G68"/>
+      <c s="15" r="H68"/>
+      <c s="15" r="I68"/>
+      <c s="15" r="J68"/>
+      <c s="15" r="K68"/>
       <c s="44" r="L68"/>
       <c s="30" r="M68"/>
-      <c s="28" r="N68"/>
-      <c s="6" r="O68"/>
-      <c s="6" r="P68"/>
-      <c s="6" r="Q68"/>
-      <c s="6" r="R68"/>
-      <c s="6" r="S68"/>
-      <c s="6" r="T68"/>
-      <c s="6" r="U68"/>
-      <c s="6" r="V68"/>
-      <c s="6" r="W68"/>
-      <c s="6" r="X68"/>
-      <c s="6" r="Y68"/>
+      <c s="26" r="N68"/>
+      <c s="5" r="O68"/>
+      <c s="5" r="P68"/>
+      <c s="5" r="Q68"/>
+      <c s="5" r="R68"/>
+      <c s="5" r="S68"/>
+      <c s="5" r="T68"/>
+      <c s="5" r="U68"/>
+      <c s="5" r="V68"/>
+      <c s="5" r="W68"/>
+      <c s="5" r="X68"/>
+      <c s="5" r="Y68"/>
     </row>
     <row r="69">
-      <c s="4" r="A69"/>
-      <c s="33" r="B69"/>
-      <c s="5" r="C69"/>
-      <c s="3" r="D69"/>
-      <c s="17" r="E69"/>
-      <c s="17" r="F69"/>
-      <c s="17" r="G69"/>
-      <c s="17" r="H69"/>
-      <c s="17" r="I69"/>
-      <c s="17" r="J69"/>
-      <c s="17" r="K69"/>
+      <c s="3" r="A69"/>
+      <c s="32" r="B69"/>
+      <c s="4" r="C69"/>
+      <c s="2" r="D69"/>
+      <c s="15" r="E69"/>
+      <c s="15" r="F69"/>
+      <c s="15" r="G69"/>
+      <c s="15" r="H69"/>
+      <c s="15" r="I69"/>
+      <c s="15" r="J69"/>
+      <c s="15" r="K69"/>
       <c s="44" r="L69"/>
       <c s="30" r="M69"/>
-      <c s="28" r="N69"/>
-      <c s="6" r="O69"/>
-      <c s="6" r="P69"/>
-      <c s="6" r="Q69"/>
-      <c s="6" r="R69"/>
-      <c s="6" r="S69"/>
-      <c s="6" r="T69"/>
-      <c s="6" r="U69"/>
-      <c s="6" r="V69"/>
-      <c s="6" r="W69"/>
-      <c s="6" r="X69"/>
-      <c s="6" r="Y69"/>
+      <c s="26" r="N69"/>
+      <c s="5" r="O69"/>
+      <c s="5" r="P69"/>
+      <c s="5" r="Q69"/>
+      <c s="5" r="R69"/>
+      <c s="5" r="S69"/>
+      <c s="5" r="T69"/>
+      <c s="5" r="U69"/>
+      <c s="5" r="V69"/>
+      <c s="5" r="W69"/>
+      <c s="5" r="X69"/>
+      <c s="5" r="Y69"/>
     </row>
     <row r="70">
-      <c s="4" r="A70"/>
-      <c s="33" r="B70"/>
-      <c s="5" r="C70"/>
-      <c s="3" r="D70"/>
-      <c s="17" r="E70"/>
-      <c s="17" r="F70"/>
-      <c s="17" r="G70"/>
-      <c s="17" r="H70"/>
-      <c s="17" r="I70"/>
-      <c s="17" r="J70"/>
-      <c s="17" r="K70"/>
+      <c s="3" r="A70"/>
+      <c s="32" r="B70"/>
+      <c s="4" r="C70"/>
+      <c s="2" r="D70"/>
+      <c s="15" r="E70"/>
+      <c s="15" r="F70"/>
+      <c s="15" r="G70"/>
+      <c s="15" r="H70"/>
+      <c s="15" r="I70"/>
+      <c s="15" r="J70"/>
+      <c s="15" r="K70"/>
       <c s="44" r="L70"/>
       <c s="30" r="M70"/>
-      <c s="28" r="N70"/>
-      <c s="6" r="O70"/>
-      <c s="6" r="P70"/>
-      <c s="6" r="Q70"/>
-      <c s="6" r="R70"/>
-      <c s="6" r="S70"/>
-      <c s="6" r="T70"/>
-      <c s="6" r="U70"/>
-      <c s="6" r="V70"/>
-      <c s="6" r="W70"/>
-      <c s="6" r="X70"/>
-      <c s="6" r="Y70"/>
+      <c s="26" r="N70"/>
+      <c s="5" r="O70"/>
+      <c s="5" r="P70"/>
+      <c s="5" r="Q70"/>
+      <c s="5" r="R70"/>
+      <c s="5" r="S70"/>
+      <c s="5" r="T70"/>
+      <c s="5" r="U70"/>
+      <c s="5" r="V70"/>
+      <c s="5" r="W70"/>
+      <c s="5" r="X70"/>
+      <c s="5" r="Y70"/>
     </row>
     <row r="71">
-      <c s="4" r="A71"/>
-      <c s="33" r="B71"/>
-      <c s="5" r="C71"/>
-      <c s="3" r="D71"/>
-      <c s="17" r="E71"/>
-      <c s="17" r="F71"/>
-      <c s="17" r="G71"/>
-      <c s="17" r="H71"/>
-      <c s="17" r="I71"/>
-      <c s="17" r="J71"/>
-      <c s="17" r="K71"/>
+      <c s="3" r="A71"/>
+      <c s="32" r="B71"/>
+      <c s="4" r="C71"/>
+      <c s="2" r="D71"/>
+      <c s="15" r="E71"/>
+      <c s="15" r="F71"/>
+      <c s="15" r="G71"/>
+      <c s="15" r="H71"/>
+      <c s="15" r="I71"/>
+      <c s="15" r="J71"/>
+      <c s="15" r="K71"/>
       <c s="44" r="L71"/>
       <c s="30" r="M71"/>
-      <c s="28" r="N71"/>
-      <c s="6" r="O71"/>
-      <c s="6" r="P71"/>
-      <c s="6" r="Q71"/>
-      <c s="6" r="R71"/>
-      <c s="6" r="S71"/>
-      <c s="6" r="T71"/>
-      <c s="6" r="U71"/>
-      <c s="6" r="V71"/>
-      <c s="6" r="W71"/>
-      <c s="6" r="X71"/>
-      <c s="6" r="Y71"/>
+      <c s="26" r="N71"/>
+      <c s="5" r="O71"/>
+      <c s="5" r="P71"/>
+      <c s="5" r="Q71"/>
+      <c s="5" r="R71"/>
+      <c s="5" r="S71"/>
+      <c s="5" r="T71"/>
+      <c s="5" r="U71"/>
+      <c s="5" r="V71"/>
+      <c s="5" r="W71"/>
+      <c s="5" r="X71"/>
+      <c s="5" r="Y71"/>
     </row>
     <row r="72">
-      <c s="4" r="A72"/>
-      <c s="33" r="B72"/>
-      <c s="5" r="C72"/>
-      <c s="3" r="D72"/>
-      <c s="17" r="E72"/>
-      <c s="17" r="F72"/>
-      <c s="17" r="G72"/>
-      <c s="17" r="H72"/>
-      <c s="17" r="I72"/>
-      <c s="17" r="J72"/>
-      <c s="17" r="K72"/>
+      <c s="3" r="A72"/>
+      <c s="32" r="B72"/>
+      <c s="4" r="C72"/>
+      <c s="2" r="D72"/>
+      <c s="15" r="E72"/>
+      <c s="15" r="F72"/>
+      <c s="15" r="G72"/>
+      <c s="15" r="H72"/>
+      <c s="15" r="I72"/>
+      <c s="15" r="J72"/>
+      <c s="15" r="K72"/>
       <c s="44" r="L72"/>
       <c s="30" r="M72"/>
-      <c s="28" r="N72"/>
-      <c s="6" r="O72"/>
-      <c s="6" r="P72"/>
-      <c s="6" r="Q72"/>
-      <c s="6" r="R72"/>
-      <c s="6" r="S72"/>
-      <c s="6" r="T72"/>
-      <c s="6" r="U72"/>
-      <c s="6" r="V72"/>
-      <c s="6" r="W72"/>
-      <c s="6" r="X72"/>
-      <c s="6" r="Y72"/>
+      <c s="26" r="N72"/>
+      <c s="5" r="O72"/>
+      <c s="5" r="P72"/>
+      <c s="5" r="Q72"/>
+      <c s="5" r="R72"/>
+      <c s="5" r="S72"/>
+      <c s="5" r="T72"/>
+      <c s="5" r="U72"/>
+      <c s="5" r="V72"/>
+      <c s="5" r="W72"/>
+      <c s="5" r="X72"/>
+      <c s="5" r="Y72"/>
     </row>
     <row r="73">
-      <c s="4" r="A73"/>
-      <c s="33" r="B73"/>
-      <c s="5" r="C73"/>
-      <c s="3" r="D73"/>
-      <c s="17" r="E73"/>
-      <c s="17" r="F73"/>
-      <c s="17" r="G73"/>
-      <c s="17" r="H73"/>
-      <c s="17" r="I73"/>
-      <c s="17" r="J73"/>
-      <c s="17" r="K73"/>
+      <c s="3" r="A73"/>
+      <c s="32" r="B73"/>
+      <c s="4" r="C73"/>
+      <c s="2" r="D73"/>
+      <c s="15" r="E73"/>
+      <c s="15" r="F73"/>
+      <c s="15" r="G73"/>
+      <c s="15" r="H73"/>
+      <c s="15" r="I73"/>
+      <c s="15" r="J73"/>
+      <c s="15" r="K73"/>
       <c s="44" r="L73"/>
       <c s="30" r="M73"/>
-      <c s="28" r="N73"/>
-      <c s="6" r="O73"/>
-      <c s="6" r="P73"/>
-      <c s="6" r="Q73"/>
-      <c s="6" r="R73"/>
-      <c s="6" r="S73"/>
-      <c s="6" r="T73"/>
-      <c s="6" r="U73"/>
-      <c s="6" r="V73"/>
-      <c s="6" r="W73"/>
-      <c s="6" r="X73"/>
-      <c s="6" r="Y73"/>
+      <c s="26" r="N73"/>
+      <c s="5" r="O73"/>
+      <c s="5" r="P73"/>
+      <c s="5" r="Q73"/>
+      <c s="5" r="R73"/>
+      <c s="5" r="S73"/>
+      <c s="5" r="T73"/>
+      <c s="5" r="U73"/>
+      <c s="5" r="V73"/>
+      <c s="5" r="W73"/>
+      <c s="5" r="X73"/>
+      <c s="5" r="Y73"/>
     </row>
     <row r="74">
-      <c s="4" r="A74"/>
-      <c s="33" r="B74"/>
-      <c s="5" r="C74"/>
-      <c s="3" r="D74"/>
-      <c s="17" r="E74"/>
-      <c s="17" r="F74"/>
-      <c s="17" r="G74"/>
-      <c s="17" r="H74"/>
-      <c s="17" r="I74"/>
-      <c s="17" r="J74"/>
-      <c s="17" r="K74"/>
+      <c s="3" r="A74"/>
+      <c s="32" r="B74"/>
+      <c s="4" r="C74"/>
+      <c s="2" r="D74"/>
+      <c s="15" r="E74"/>
+      <c s="15" r="F74"/>
+      <c s="15" r="G74"/>
+      <c s="15" r="H74"/>
+      <c s="15" r="I74"/>
+      <c s="15" r="J74"/>
+      <c s="15" r="K74"/>
       <c s="44" r="L74"/>
       <c s="30" r="M74"/>
-      <c s="28" r="N74"/>
-      <c s="6" r="O74"/>
-      <c s="6" r="P74"/>
-      <c s="6" r="Q74"/>
-      <c s="6" r="R74"/>
-      <c s="6" r="S74"/>
-      <c s="6" r="T74"/>
-      <c s="6" r="U74"/>
-      <c s="6" r="V74"/>
-      <c s="6" r="W74"/>
-      <c s="6" r="X74"/>
-      <c s="6" r="Y74"/>
+      <c s="26" r="N74"/>
+      <c s="5" r="O74"/>
+      <c s="5" r="P74"/>
+      <c s="5" r="Q74"/>
+      <c s="5" r="R74"/>
+      <c s="5" r="S74"/>
+      <c s="5" r="T74"/>
+      <c s="5" r="U74"/>
+      <c s="5" r="V74"/>
+      <c s="5" r="W74"/>
+      <c s="5" r="X74"/>
+      <c s="5" r="Y74"/>
     </row>
     <row r="75">
-      <c s="4" r="A75"/>
-      <c s="33" r="B75"/>
-      <c s="5" r="C75"/>
-      <c s="3" r="D75"/>
-      <c s="17" r="E75"/>
-      <c s="17" r="F75"/>
-      <c s="17" r="G75"/>
-      <c s="17" r="H75"/>
-      <c s="17" r="I75"/>
-      <c s="17" r="J75"/>
-      <c s="17" r="K75"/>
+      <c s="3" r="A75"/>
+      <c s="32" r="B75"/>
+      <c s="4" r="C75"/>
+      <c s="2" r="D75"/>
+      <c s="15" r="E75"/>
+      <c s="15" r="F75"/>
+      <c s="15" r="G75"/>
+      <c s="15" r="H75"/>
+      <c s="15" r="I75"/>
+      <c s="15" r="J75"/>
+      <c s="15" r="K75"/>
       <c s="44" r="L75"/>
       <c s="30" r="M75"/>
-      <c s="28" r="N75"/>
-      <c s="6" r="O75"/>
-      <c s="6" r="P75"/>
-      <c s="6" r="Q75"/>
-      <c s="6" r="R75"/>
-      <c s="6" r="S75"/>
-      <c s="6" r="T75"/>
-      <c s="6" r="U75"/>
-      <c s="6" r="V75"/>
-      <c s="6" r="W75"/>
-      <c s="6" r="X75"/>
-      <c s="6" r="Y75"/>
+      <c s="26" r="N75"/>
+      <c s="5" r="O75"/>
+      <c s="5" r="P75"/>
+      <c s="5" r="Q75"/>
+      <c s="5" r="R75"/>
+      <c s="5" r="S75"/>
+      <c s="5" r="T75"/>
+      <c s="5" r="U75"/>
+      <c s="5" r="V75"/>
+      <c s="5" r="W75"/>
+      <c s="5" r="X75"/>
+      <c s="5" r="Y75"/>
     </row>
     <row r="76">
-      <c s="4" r="A76"/>
-      <c s="33" r="B76"/>
-      <c s="5" r="C76"/>
-      <c s="3" r="D76"/>
-      <c s="17" r="E76"/>
-      <c s="17" r="F76"/>
-      <c s="17" r="G76"/>
-      <c s="17" r="H76"/>
-      <c s="17" r="I76"/>
-      <c s="17" r="J76"/>
-      <c s="17" r="K76"/>
+      <c s="3" r="A76"/>
+      <c s="32" r="B76"/>
+      <c s="4" r="C76"/>
+      <c s="2" r="D76"/>
+      <c s="15" r="E76"/>
+      <c s="15" r="F76"/>
+      <c s="15" r="G76"/>
+      <c s="15" r="H76"/>
+      <c s="15" r="I76"/>
+      <c s="15" r="J76"/>
+      <c s="15" r="K76"/>
       <c s="44" r="L76"/>
       <c s="30" r="M76"/>
-      <c s="28" r="N76"/>
-      <c s="6" r="O76"/>
-      <c s="6" r="P76"/>
-      <c s="6" r="Q76"/>
-      <c s="6" r="R76"/>
-      <c s="6" r="S76"/>
-      <c s="6" r="T76"/>
-      <c s="6" r="U76"/>
-      <c s="6" r="V76"/>
-      <c s="6" r="W76"/>
-      <c s="6" r="X76"/>
-      <c s="6" r="Y76"/>
+      <c s="26" r="N76"/>
+      <c s="5" r="O76"/>
+      <c s="5" r="P76"/>
+      <c s="5" r="Q76"/>
+      <c s="5" r="R76"/>
+      <c s="5" r="S76"/>
+      <c s="5" r="T76"/>
+      <c s="5" r="U76"/>
+      <c s="5" r="V76"/>
+      <c s="5" r="W76"/>
+      <c s="5" r="X76"/>
+      <c s="5" r="Y76"/>
     </row>
     <row r="77">
-      <c s="4" r="A77"/>
-      <c s="33" r="B77"/>
-      <c s="5" r="C77"/>
-      <c s="3" r="D77"/>
-      <c s="17" r="E77"/>
-      <c s="17" r="F77"/>
-      <c s="17" r="G77"/>
-      <c s="17" r="H77"/>
-      <c s="17" r="I77"/>
-      <c s="17" r="J77"/>
-      <c s="17" r="K77"/>
+      <c s="3" r="A77"/>
+      <c s="32" r="B77"/>
+      <c s="4" r="C77"/>
+      <c s="2" r="D77"/>
+      <c s="15" r="E77"/>
+      <c s="15" r="F77"/>
+      <c s="15" r="G77"/>
+      <c s="15" r="H77"/>
+      <c s="15" r="I77"/>
+      <c s="15" r="J77"/>
+      <c s="15" r="K77"/>
       <c s="44" r="L77"/>
       <c s="30" r="M77"/>
-      <c s="28" r="N77"/>
-      <c s="6" r="O77"/>
-      <c s="6" r="P77"/>
-      <c s="6" r="Q77"/>
-      <c s="6" r="R77"/>
-      <c s="6" r="S77"/>
-      <c s="6" r="T77"/>
-      <c s="6" r="U77"/>
-      <c s="6" r="V77"/>
-      <c s="6" r="W77"/>
-      <c s="6" r="X77"/>
-      <c s="6" r="Y77"/>
+      <c s="26" r="N77"/>
+      <c s="5" r="O77"/>
+      <c s="5" r="P77"/>
+      <c s="5" r="Q77"/>
+      <c s="5" r="R77"/>
+      <c s="5" r="S77"/>
+      <c s="5" r="T77"/>
+      <c s="5" r="U77"/>
+      <c s="5" r="V77"/>
+      <c s="5" r="W77"/>
+      <c s="5" r="X77"/>
+      <c s="5" r="Y77"/>
     </row>
     <row r="78">
-      <c s="4" r="A78"/>
-      <c s="33" r="B78"/>
-      <c s="5" r="C78"/>
-      <c s="3" r="D78"/>
-      <c s="17" r="E78"/>
-      <c s="17" r="F78"/>
-      <c s="17" r="G78"/>
-      <c s="17" r="H78"/>
-      <c s="17" r="I78"/>
-      <c s="17" r="J78"/>
-      <c s="17" r="K78"/>
+      <c s="3" r="A78"/>
+      <c s="32" r="B78"/>
+      <c s="4" r="C78"/>
+      <c s="2" r="D78"/>
+      <c s="15" r="E78"/>
+      <c s="15" r="F78"/>
+      <c s="15" r="G78"/>
+      <c s="15" r="H78"/>
+      <c s="15" r="I78"/>
+      <c s="15" r="J78"/>
+      <c s="15" r="K78"/>
       <c s="44" r="L78"/>
       <c s="30" r="M78"/>
-      <c s="28" r="N78"/>
-      <c s="6" r="O78"/>
-      <c s="6" r="P78"/>
-      <c s="6" r="Q78"/>
-      <c s="6" r="R78"/>
-      <c s="6" r="S78"/>
-      <c s="6" r="T78"/>
-      <c s="6" r="U78"/>
-      <c s="6" r="V78"/>
-      <c s="6" r="W78"/>
-      <c s="6" r="X78"/>
-      <c s="6" r="Y78"/>
+      <c s="26" r="N78"/>
+      <c s="5" r="O78"/>
+      <c s="5" r="P78"/>
+      <c s="5" r="Q78"/>
+      <c s="5" r="R78"/>
+      <c s="5" r="S78"/>
+      <c s="5" r="T78"/>
+      <c s="5" r="U78"/>
+      <c s="5" r="V78"/>
+      <c s="5" r="W78"/>
+      <c s="5" r="X78"/>
+      <c s="5" r="Y78"/>
     </row>
     <row r="79">
-      <c s="4" r="A79"/>
-      <c s="33" r="B79"/>
-      <c s="5" r="C79"/>
-      <c s="3" r="D79"/>
-      <c s="17" r="E79"/>
-      <c s="17" r="F79"/>
-      <c s="17" r="G79"/>
-      <c s="17" r="H79"/>
-      <c s="17" r="I79"/>
-      <c s="17" r="J79"/>
-      <c s="17" r="K79"/>
+      <c s="3" r="A79"/>
+      <c s="32" r="B79"/>
+      <c s="4" r="C79"/>
+      <c s="2" r="D79"/>
+      <c s="15" r="E79"/>
+      <c s="15" r="F79"/>
+      <c s="15" r="G79"/>
+      <c s="15" r="H79"/>
+      <c s="15" r="I79"/>
+      <c s="15" r="J79"/>
+      <c s="15" r="K79"/>
       <c s="44" r="L79"/>
       <c s="30" r="M79"/>
-      <c s="28" r="N79"/>
-      <c s="6" r="O79"/>
-      <c s="6" r="P79"/>
-      <c s="6" r="Q79"/>
-      <c s="6" r="R79"/>
-      <c s="6" r="S79"/>
-      <c s="6" r="T79"/>
-      <c s="6" r="U79"/>
-      <c s="6" r="V79"/>
-      <c s="6" r="W79"/>
-      <c s="6" r="X79"/>
-      <c s="6" r="Y79"/>
+      <c s="26" r="N79"/>
+      <c s="5" r="O79"/>
+      <c s="5" r="P79"/>
+      <c s="5" r="Q79"/>
+      <c s="5" r="R79"/>
+      <c s="5" r="S79"/>
+      <c s="5" r="T79"/>
+      <c s="5" r="U79"/>
+      <c s="5" r="V79"/>
+      <c s="5" r="W79"/>
+      <c s="5" r="X79"/>
+      <c s="5" r="Y79"/>
     </row>
     <row r="80">
-      <c s="4" r="A80"/>
-      <c s="33" r="B80"/>
-      <c s="5" r="C80"/>
-      <c s="3" r="D80"/>
-      <c s="17" r="E80"/>
-      <c s="17" r="F80"/>
-      <c s="17" r="G80"/>
-      <c s="17" r="H80"/>
-      <c s="17" r="I80"/>
-      <c s="17" r="J80"/>
-      <c s="17" r="K80"/>
+      <c s="3" r="A80"/>
+      <c s="32" r="B80"/>
+      <c s="4" r="C80"/>
+      <c s="2" r="D80"/>
+      <c s="15" r="E80"/>
+      <c s="15" r="F80"/>
+      <c s="15" r="G80"/>
+      <c s="15" r="H80"/>
+      <c s="15" r="I80"/>
+      <c s="15" r="J80"/>
+      <c s="15" r="K80"/>
       <c s="44" r="L80"/>
       <c s="30" r="M80"/>
-      <c s="28" r="N80"/>
-      <c s="6" r="O80"/>
-      <c s="6" r="P80"/>
-      <c s="6" r="Q80"/>
-      <c s="6" r="R80"/>
-      <c s="6" r="S80"/>
-      <c s="6" r="T80"/>
-      <c s="6" r="U80"/>
-      <c s="6" r="V80"/>
-      <c s="6" r="W80"/>
-      <c s="6" r="X80"/>
-      <c s="6" r="Y80"/>
+      <c s="26" r="N80"/>
+      <c s="5" r="O80"/>
+      <c s="5" r="P80"/>
+      <c s="5" r="Q80"/>
+      <c s="5" r="R80"/>
+      <c s="5" r="S80"/>
+      <c s="5" r="T80"/>
+      <c s="5" r="U80"/>
+      <c s="5" r="V80"/>
+      <c s="5" r="W80"/>
+      <c s="5" r="X80"/>
+      <c s="5" r="Y80"/>
     </row>
     <row r="81">
-      <c s="4" r="A81"/>
-      <c s="33" r="B81"/>
-      <c s="5" r="C81"/>
-      <c s="3" r="D81"/>
-      <c s="17" r="E81"/>
-      <c s="17" r="F81"/>
-      <c s="17" r="G81"/>
-      <c s="17" r="H81"/>
-      <c s="17" r="I81"/>
-      <c s="17" r="J81"/>
-      <c s="17" r="K81"/>
+      <c s="3" r="A81"/>
+      <c s="32" r="B81"/>
+      <c s="4" r="C81"/>
+      <c s="2" r="D81"/>
+      <c s="15" r="E81"/>
+      <c s="15" r="F81"/>
+      <c s="15" r="G81"/>
+      <c s="15" r="H81"/>
+      <c s="15" r="I81"/>
+      <c s="15" r="J81"/>
+      <c s="15" r="K81"/>
       <c s="44" r="L81"/>
       <c s="30" r="M81"/>
-      <c s="28" r="N81"/>
-      <c s="6" r="O81"/>
-      <c s="6" r="P81"/>
-      <c s="6" r="Q81"/>
-      <c s="6" r="R81"/>
-      <c s="6" r="S81"/>
-      <c s="6" r="T81"/>
-      <c s="6" r="U81"/>
-      <c s="6" r="V81"/>
-      <c s="6" r="W81"/>
-      <c s="6" r="X81"/>
-      <c s="6" r="Y81"/>
+      <c s="26" r="N81"/>
+      <c s="5" r="O81"/>
+      <c s="5" r="P81"/>
+      <c s="5" r="Q81"/>
+      <c s="5" r="R81"/>
+      <c s="5" r="S81"/>
+      <c s="5" r="T81"/>
+      <c s="5" r="U81"/>
+      <c s="5" r="V81"/>
+      <c s="5" r="W81"/>
+      <c s="5" r="X81"/>
+      <c s="5" r="Y81"/>
     </row>
     <row r="82">
-      <c s="4" r="A82"/>
-      <c s="33" r="B82"/>
-      <c s="5" r="C82"/>
-      <c s="3" r="D82"/>
-      <c s="17" r="E82"/>
-      <c s="17" r="F82"/>
-      <c s="17" r="G82"/>
-      <c s="17" r="H82"/>
-      <c s="17" r="I82"/>
-      <c s="17" r="J82"/>
-      <c s="17" r="K82"/>
+      <c s="3" r="A82"/>
+      <c s="32" r="B82"/>
+      <c s="4" r="C82"/>
+      <c s="2" r="D82"/>
+      <c s="15" r="E82"/>
+      <c s="15" r="F82"/>
+      <c s="15" r="G82"/>
+      <c s="15" r="H82"/>
+      <c s="15" r="I82"/>
+      <c s="15" r="J82"/>
+      <c s="15" r="K82"/>
       <c s="44" r="L82"/>
       <c s="30" r="M82"/>
-      <c s="28" r="N82"/>
-      <c s="6" r="O82"/>
-      <c s="6" r="P82"/>
-      <c s="6" r="Q82"/>
-      <c s="6" r="R82"/>
-      <c s="6" r="S82"/>
-      <c s="6" r="T82"/>
-      <c s="6" r="U82"/>
-      <c s="6" r="V82"/>
-      <c s="6" r="W82"/>
-      <c s="6" r="X82"/>
-      <c s="6" r="Y82"/>
+      <c s="26" r="N82"/>
+      <c s="5" r="O82"/>
+      <c s="5" r="P82"/>
+      <c s="5" r="Q82"/>
+      <c s="5" r="R82"/>
+      <c s="5" r="S82"/>
+      <c s="5" r="T82"/>
+      <c s="5" r="U82"/>
+      <c s="5" r="V82"/>
+      <c s="5" r="W82"/>
+      <c s="5" r="X82"/>
+      <c s="5" r="Y82"/>
     </row>
     <row r="83">
-      <c s="4" r="A83"/>
-      <c s="33" r="B83"/>
-      <c s="5" r="C83"/>
-      <c s="3" r="D83"/>
-      <c s="17" r="E83"/>
-      <c s="17" r="F83"/>
-      <c s="17" r="G83"/>
-      <c s="17" r="H83"/>
-      <c s="17" r="I83"/>
-      <c s="17" r="J83"/>
-      <c s="17" r="K83"/>
+      <c s="3" r="A83"/>
+      <c s="32" r="B83"/>
+      <c s="4" r="C83"/>
+      <c s="2" r="D83"/>
+      <c s="15" r="E83"/>
+      <c s="15" r="F83"/>
+      <c s="15" r="G83"/>
+      <c s="15" r="H83"/>
+      <c s="15" r="I83"/>
+      <c s="15" r="J83"/>
+      <c s="15" r="K83"/>
       <c s="44" r="L83"/>
       <c s="30" r="M83"/>
-      <c s="28" r="N83"/>
-      <c s="6" r="O83"/>
-      <c s="6" r="P83"/>
-      <c s="6" r="Q83"/>
-      <c s="6" r="R83"/>
-      <c s="6" r="S83"/>
-      <c s="6" r="T83"/>
-      <c s="6" r="U83"/>
-      <c s="6" r="V83"/>
-      <c s="6" r="W83"/>
-      <c s="6" r="X83"/>
-      <c s="6" r="Y83"/>
+      <c s="26" r="N83"/>
+      <c s="5" r="O83"/>
+      <c s="5" r="P83"/>
+      <c s="5" r="Q83"/>
+      <c s="5" r="R83"/>
+      <c s="5" r="S83"/>
+      <c s="5" r="T83"/>
+      <c s="5" r="U83"/>
+      <c s="5" r="V83"/>
+      <c s="5" r="W83"/>
+      <c s="5" r="X83"/>
+      <c s="5" r="Y83"/>
     </row>
     <row r="84">
-      <c s="4" r="A84"/>
-      <c s="33" r="B84"/>
-      <c s="5" r="C84"/>
-      <c s="3" r="D84"/>
-      <c s="17" r="E84"/>
-      <c s="17" r="F84"/>
-      <c s="17" r="G84"/>
-      <c s="17" r="H84"/>
-      <c s="17" r="I84"/>
-      <c s="17" r="J84"/>
-      <c s="17" r="K84"/>
+      <c s="3" r="A84"/>
+      <c s="32" r="B84"/>
+      <c s="4" r="C84"/>
+      <c s="2" r="D84"/>
+      <c s="15" r="E84"/>
+      <c s="15" r="F84"/>
+      <c s="15" r="G84"/>
+      <c s="15" r="H84"/>
+      <c s="15" r="I84"/>
+      <c s="15" r="J84"/>
+      <c s="15" r="K84"/>
       <c s="44" r="L84"/>
       <c s="30" r="M84"/>
-      <c s="28" r="N84"/>
-      <c s="6" r="O84"/>
-      <c s="6" r="P84"/>
-      <c s="6" r="Q84"/>
-      <c s="6" r="R84"/>
-      <c s="6" r="S84"/>
-      <c s="6" r="T84"/>
-      <c s="6" r="U84"/>
-      <c s="6" r="V84"/>
-      <c s="6" r="W84"/>
-      <c s="6" r="X84"/>
-      <c s="6" r="Y84"/>
+      <c s="26" r="N84"/>
+      <c s="5" r="O84"/>
+      <c s="5" r="P84"/>
+      <c s="5" r="Q84"/>
+      <c s="5" r="R84"/>
+      <c s="5" r="S84"/>
+      <c s="5" r="T84"/>
+      <c s="5" r="U84"/>
+      <c s="5" r="V84"/>
+      <c s="5" r="W84"/>
+      <c s="5" r="X84"/>
+      <c s="5" r="Y84"/>
     </row>
     <row r="85">
-      <c s="4" r="A85"/>
-      <c s="33" r="B85"/>
-      <c s="5" r="C85"/>
-      <c s="3" r="D85"/>
-      <c s="17" r="E85"/>
-      <c s="17" r="F85"/>
-      <c s="17" r="G85"/>
-      <c s="17" r="H85"/>
-      <c s="17" r="I85"/>
-      <c s="17" r="J85"/>
-      <c s="17" r="K85"/>
+      <c s="3" r="A85"/>
+      <c s="32" r="B85"/>
+      <c s="4" r="C85"/>
+      <c s="2" r="D85"/>
+      <c s="15" r="E85"/>
+      <c s="15" r="F85"/>
+      <c s="15" r="G85"/>
+      <c s="15" r="H85"/>
+      <c s="15" r="I85"/>
+      <c s="15" r="J85"/>
+      <c s="15" r="K85"/>
       <c s="44" r="L85"/>
       <c s="30" r="M85"/>
-      <c s="28" r="N85"/>
-      <c s="6" r="O85"/>
-      <c s="6" r="P85"/>
-      <c s="6" r="Q85"/>
-      <c s="6" r="R85"/>
-      <c s="6" r="S85"/>
-      <c s="6" r="T85"/>
-      <c s="6" r="U85"/>
-      <c s="6" r="V85"/>
-      <c s="6" r="W85"/>
-      <c s="6" r="X85"/>
-      <c s="6" r="Y85"/>
+      <c s="26" r="N85"/>
+      <c s="5" r="O85"/>
+      <c s="5" r="P85"/>
+      <c s="5" r="Q85"/>
+      <c s="5" r="R85"/>
+      <c s="5" r="S85"/>
+      <c s="5" r="T85"/>
+      <c s="5" r="U85"/>
+      <c s="5" r="V85"/>
+      <c s="5" r="W85"/>
+      <c s="5" r="X85"/>
+      <c s="5" r="Y85"/>
     </row>
     <row r="86">
-      <c s="4" r="A86"/>
-      <c s="33" r="B86"/>
-      <c s="5" r="C86"/>
-      <c s="3" r="D86"/>
-      <c s="17" r="E86"/>
-      <c s="17" r="F86"/>
-      <c s="17" r="G86"/>
-      <c s="17" r="H86"/>
-      <c s="17" r="I86"/>
-      <c s="17" r="J86"/>
-      <c s="17" r="K86"/>
+      <c s="3" r="A86"/>
+      <c s="32" r="B86"/>
+      <c s="4" r="C86"/>
+      <c s="2" r="D86"/>
+      <c s="15" r="E86"/>
+      <c s="15" r="F86"/>
+      <c s="15" r="G86"/>
+      <c s="15" r="H86"/>
+      <c s="15" r="I86"/>
+      <c s="15" r="J86"/>
+      <c s="15" r="K86"/>
       <c s="44" r="L86"/>
       <c s="30" r="M86"/>
-      <c s="28" r="N86"/>
-      <c s="6" r="O86"/>
-      <c s="6" r="P86"/>
-      <c s="6" r="Q86"/>
-      <c s="6" r="R86"/>
-      <c s="6" r="S86"/>
-      <c s="6" r="T86"/>
-      <c s="6" r="U86"/>
-      <c s="6" r="V86"/>
-      <c s="6" r="W86"/>
-      <c s="6" r="X86"/>
-      <c s="6" r="Y86"/>
+      <c s="26" r="N86"/>
+      <c s="5" r="O86"/>
+      <c s="5" r="P86"/>
+      <c s="5" r="Q86"/>
+      <c s="5" r="R86"/>
+      <c s="5" r="S86"/>
+      <c s="5" r="T86"/>
+      <c s="5" r="U86"/>
+      <c s="5" r="V86"/>
+      <c s="5" r="W86"/>
+      <c s="5" r="X86"/>
+      <c s="5" r="Y86"/>
     </row>
     <row r="87">
-      <c s="4" r="A87"/>
-      <c s="33" r="B87"/>
-      <c s="5" r="C87"/>
-      <c s="3" r="D87"/>
-      <c s="17" r="E87"/>
-      <c s="17" r="F87"/>
-      <c s="17" r="G87"/>
-      <c s="17" r="H87"/>
-      <c s="17" r="I87"/>
-      <c s="17" r="J87"/>
-      <c s="17" r="K87"/>
+      <c s="3" r="A87"/>
+      <c s="32" r="B87"/>
+      <c s="4" r="C87"/>
+      <c s="2" r="D87"/>
+      <c s="15" r="E87"/>
+      <c s="15" r="F87"/>
+      <c s="15" r="G87"/>
+      <c s="15" r="H87"/>
+      <c s="15" r="I87"/>
+      <c s="15" r="J87"/>
+      <c s="15" r="K87"/>
       <c s="44" r="L87"/>
       <c s="30" r="M87"/>
-      <c s="28" r="N87"/>
-      <c s="6" r="O87"/>
-      <c s="6" r="P87"/>
-      <c s="6" r="Q87"/>
-      <c s="6" r="R87"/>
-      <c s="6" r="S87"/>
-      <c s="6" r="T87"/>
-      <c s="6" r="U87"/>
-      <c s="6" r="V87"/>
-      <c s="6" r="W87"/>
-      <c s="6" r="X87"/>
-      <c s="6" r="Y87"/>
+      <c s="26" r="N87"/>
+      <c s="5" r="O87"/>
+      <c s="5" r="P87"/>
+      <c s="5" r="Q87"/>
+      <c s="5" r="R87"/>
+      <c s="5" r="S87"/>
+      <c s="5" r="T87"/>
+      <c s="5" r="U87"/>
+      <c s="5" r="V87"/>
+      <c s="5" r="W87"/>
+      <c s="5" r="X87"/>
+      <c s="5" r="Y87"/>
     </row>
     <row r="88">
-      <c s="4" r="A88"/>
-      <c s="33" r="B88"/>
-      <c s="5" r="C88"/>
-      <c s="3" r="D88"/>
-      <c s="17" r="E88"/>
-      <c s="17" r="F88"/>
-      <c s="17" r="G88"/>
-      <c s="17" r="H88"/>
-      <c s="17" r="I88"/>
-      <c s="17" r="J88"/>
-      <c s="17" r="K88"/>
+      <c s="3" r="A88"/>
+      <c s="32" r="B88"/>
+      <c s="4" r="C88"/>
+      <c s="2" r="D88"/>
+      <c s="15" r="E88"/>
+      <c s="15" r="F88"/>
+      <c s="15" r="G88"/>
+      <c s="15" r="H88"/>
+      <c s="15" r="I88"/>
+      <c s="15" r="J88"/>
+      <c s="15" r="K88"/>
       <c s="44" r="L88"/>
       <c s="30" r="M88"/>
-      <c s="28" r="N88"/>
-      <c s="6" r="O88"/>
-      <c s="6" r="P88"/>
-      <c s="6" r="Q88"/>
-      <c s="6" r="R88"/>
-      <c s="6" r="S88"/>
-      <c s="6" r="T88"/>
-      <c s="6" r="U88"/>
-      <c s="6" r="V88"/>
-      <c s="6" r="W88"/>
-      <c s="6" r="X88"/>
-      <c s="6" r="Y88"/>
+      <c s="26" r="N88"/>
+      <c s="5" r="O88"/>
+      <c s="5" r="P88"/>
+      <c s="5" r="Q88"/>
+      <c s="5" r="R88"/>
+      <c s="5" r="S88"/>
+      <c s="5" r="T88"/>
+      <c s="5" r="U88"/>
+      <c s="5" r="V88"/>
+      <c s="5" r="W88"/>
+      <c s="5" r="X88"/>
+      <c s="5" r="Y88"/>
     </row>
     <row r="89">
-      <c s="4" r="A89"/>
-      <c s="33" r="B89"/>
-      <c s="5" r="C89"/>
-      <c s="3" r="D89"/>
-      <c s="17" r="E89"/>
-      <c s="17" r="F89"/>
-      <c s="17" r="G89"/>
-      <c s="17" r="H89"/>
-      <c s="17" r="I89"/>
-      <c s="17" r="J89"/>
-      <c s="17" r="K89"/>
+      <c s="3" r="A89"/>
+      <c s="32" r="B89"/>
+      <c s="4" r="C89"/>
+      <c s="2" r="D89"/>
+      <c s="15" r="E89"/>
+      <c s="15" r="F89"/>
+      <c s="15" r="G89"/>
+      <c s="15" r="H89"/>
+      <c s="15" r="I89"/>
+      <c s="15" r="J89"/>
+      <c s="15" r="K89"/>
       <c s="44" r="L89"/>
       <c s="30" r="M89"/>
-      <c s="28" r="N89"/>
-      <c s="6" r="O89"/>
-      <c s="6" r="P89"/>
-      <c s="6" r="Q89"/>
-      <c s="6" r="R89"/>
-      <c s="6" r="S89"/>
-      <c s="6" r="T89"/>
-      <c s="6" r="U89"/>
-      <c s="6" r="V89"/>
-      <c s="6" r="W89"/>
-      <c s="6" r="X89"/>
-      <c s="6" r="Y89"/>
+      <c s="26" r="N89"/>
+      <c s="5" r="O89"/>
+      <c s="5" r="P89"/>
+      <c s="5" r="Q89"/>
+      <c s="5" r="R89"/>
+      <c s="5" r="S89"/>
+      <c s="5" r="T89"/>
+      <c s="5" r="U89"/>
+      <c s="5" r="V89"/>
+      <c s="5" r="W89"/>
+      <c s="5" r="X89"/>
+      <c s="5" r="Y89"/>
     </row>
     <row r="90">
-      <c s="4" r="A90"/>
-      <c s="33" r="B90"/>
-      <c s="5" r="C90"/>
-      <c s="3" r="D90"/>
-      <c s="17" r="E90"/>
-      <c s="17" r="F90"/>
-      <c s="17" r="G90"/>
-      <c s="17" r="H90"/>
-      <c s="17" r="I90"/>
-      <c s="17" r="J90"/>
-      <c s="17" r="K90"/>
+      <c s="3" r="A90"/>
+      <c s="32" r="B90"/>
+      <c s="4" r="C90"/>
+      <c s="2" r="D90"/>
+      <c s="15" r="E90"/>
+      <c s="15" r="F90"/>
+      <c s="15" r="G90"/>
+      <c s="15" r="H90"/>
+      <c s="15" r="I90"/>
+      <c s="15" r="J90"/>
+      <c s="15" r="K90"/>
       <c s="44" r="L90"/>
       <c s="30" r="M90"/>
-      <c s="28" r="N90"/>
-      <c s="6" r="O90"/>
-      <c s="6" r="P90"/>
-      <c s="6" r="Q90"/>
-      <c s="6" r="R90"/>
-      <c s="6" r="S90"/>
-      <c s="6" r="T90"/>
-      <c s="6" r="U90"/>
-      <c s="6" r="V90"/>
-      <c s="6" r="W90"/>
-      <c s="6" r="X90"/>
-      <c s="6" r="Y90"/>
+      <c s="26" r="N90"/>
+      <c s="5" r="O90"/>
+      <c s="5" r="P90"/>
+      <c s="5" r="Q90"/>
+      <c s="5" r="R90"/>
+      <c s="5" r="S90"/>
+      <c s="5" r="T90"/>
+      <c s="5" r="U90"/>
+      <c s="5" r="V90"/>
+      <c s="5" r="W90"/>
+      <c s="5" r="X90"/>
+      <c s="5" r="Y90"/>
     </row>
     <row r="91">
-      <c s="4" r="A91"/>
-      <c s="33" r="B91"/>
-      <c s="5" r="C91"/>
-      <c s="3" r="D91"/>
-      <c s="17" r="E91"/>
-      <c s="17" r="F91"/>
-      <c s="17" r="G91"/>
-      <c s="17" r="H91"/>
-      <c s="17" r="I91"/>
-      <c s="17" r="J91"/>
-      <c s="17" r="K91"/>
+      <c s="3" r="A91"/>
+      <c s="32" r="B91"/>
+      <c s="4" r="C91"/>
+      <c s="2" r="D91"/>
+      <c s="15" r="E91"/>
+      <c s="15" r="F91"/>
+      <c s="15" r="G91"/>
+      <c s="15" r="H91"/>
+      <c s="15" r="I91"/>
+      <c s="15" r="J91"/>
+      <c s="15" r="K91"/>
       <c s="44" r="L91"/>
       <c s="30" r="M91"/>
-      <c s="28" r="N91"/>
-      <c s="6" r="O91"/>
-      <c s="6" r="P91"/>
-      <c s="6" r="Q91"/>
-      <c s="6" r="R91"/>
-      <c s="6" r="S91"/>
-      <c s="6" r="T91"/>
-      <c s="6" r="U91"/>
-      <c s="6" r="V91"/>
-      <c s="6" r="W91"/>
-      <c s="6" r="X91"/>
-      <c s="6" r="Y91"/>
+      <c s="26" r="N91"/>
+      <c s="5" r="O91"/>
+      <c s="5" r="P91"/>
+      <c s="5" r="Q91"/>
+      <c s="5" r="R91"/>
+      <c s="5" r="S91"/>
+      <c s="5" r="T91"/>
+      <c s="5" r="U91"/>
+      <c s="5" r="V91"/>
+      <c s="5" r="W91"/>
+      <c s="5" r="X91"/>
+      <c s="5" r="Y91"/>
     </row>
     <row r="92">
-      <c s="4" r="A92"/>
-      <c s="33" r="B92"/>
-      <c s="5" r="C92"/>
-      <c s="3" r="D92"/>
-      <c s="17" r="E92"/>
-      <c s="17" r="F92"/>
-      <c s="17" r="G92"/>
-      <c s="17" r="H92"/>
-      <c s="17" r="I92"/>
-      <c s="17" r="J92"/>
-      <c s="17" r="K92"/>
+      <c s="3" r="A92"/>
+      <c s="32" r="B92"/>
+      <c s="4" r="C92"/>
+      <c s="2" r="D92"/>
+      <c s="15" r="E92"/>
+      <c s="15" r="F92"/>
+      <c s="15" r="G92"/>
+      <c s="15" r="H92"/>
+      <c s="15" r="I92"/>
+      <c s="15" r="J92"/>
+      <c s="15" r="K92"/>
       <c s="44" r="L92"/>
       <c s="30" r="M92"/>
-      <c s="28" r="N92"/>
-      <c s="6" r="O92"/>
-      <c s="6" r="P92"/>
-      <c s="6" r="Q92"/>
-      <c s="6" r="R92"/>
-      <c s="6" r="S92"/>
-      <c s="6" r="T92"/>
-      <c s="6" r="U92"/>
-      <c s="6" r="V92"/>
-      <c s="6" r="W92"/>
-      <c s="6" r="X92"/>
-      <c s="6" r="Y92"/>
+      <c s="26" r="N92"/>
+      <c s="5" r="O92"/>
+      <c s="5" r="P92"/>
+      <c s="5" r="Q92"/>
+      <c s="5" r="R92"/>
+      <c s="5" r="S92"/>
+      <c s="5" r="T92"/>
+      <c s="5" r="U92"/>
+      <c s="5" r="V92"/>
+      <c s="5" r="W92"/>
+      <c s="5" r="X92"/>
+      <c s="5" r="Y92"/>
     </row>
     <row r="93">
-      <c s="4" r="A93"/>
-      <c s="33" r="B93"/>
-      <c s="5" r="C93"/>
-      <c s="3" r="D93"/>
-      <c s="17" r="E93"/>
-      <c s="17" r="F93"/>
-      <c s="17" r="G93"/>
-      <c s="17" r="H93"/>
-      <c s="17" r="I93"/>
-      <c s="17" r="J93"/>
-      <c s="17" r="K93"/>
+      <c s="3" r="A93"/>
+      <c s="32" r="B93"/>
+      <c s="4" r="C93"/>
+      <c s="2" r="D93"/>
+      <c s="15" r="E93"/>
+      <c s="15" r="F93"/>
+      <c s="15" r="G93"/>
+      <c s="15" r="H93"/>
+      <c s="15" r="I93"/>
+      <c s="15" r="J93"/>
+      <c s="15" r="K93"/>
       <c s="44" r="L93"/>
       <c s="30" r="M93"/>
-      <c s="28" r="N93"/>
-      <c s="6" r="O93"/>
-      <c s="6" r="P93"/>
-      <c s="6" r="Q93"/>
-      <c s="6" r="R93"/>
-      <c s="6" r="S93"/>
-      <c s="6" r="T93"/>
-      <c s="6" r="U93"/>
-      <c s="6" r="V93"/>
-      <c s="6" r="W93"/>
-      <c s="6" r="X93"/>
-      <c s="6" r="Y93"/>
+      <c s="26" r="N93"/>
+      <c s="5" r="O93"/>
+      <c s="5" r="P93"/>
+      <c s="5" r="Q93"/>
+      <c s="5" r="R93"/>
+      <c s="5" r="S93"/>
+      <c s="5" r="T93"/>
+      <c s="5" r="U93"/>
+      <c s="5" r="V93"/>
+      <c s="5" r="W93"/>
+      <c s="5" r="X93"/>
+      <c s="5" r="Y93"/>
     </row>
     <row r="94">
-      <c s="4" r="A94"/>
-      <c s="33" r="B94"/>
-      <c s="5" r="C94"/>
-      <c s="3" r="D94"/>
-      <c s="17" r="E94"/>
-      <c s="17" r="F94"/>
-      <c s="17" r="G94"/>
-      <c s="17" r="H94"/>
-      <c s="17" r="I94"/>
-      <c s="17" r="J94"/>
-      <c s="17" r="K94"/>
+      <c s="3" r="A94"/>
+      <c s="32" r="B94"/>
+      <c s="4" r="C94"/>
+      <c s="2" r="D94"/>
+      <c s="15" r="E94"/>
+      <c s="15" r="F94"/>
+      <c s="15" r="G94"/>
+      <c s="15" r="H94"/>
+      <c s="15" r="I94"/>
+      <c s="15" r="J94"/>
+      <c s="15" r="K94"/>
       <c s="44" r="L94"/>
       <c s="30" r="M94"/>
-      <c s="28" r="N94"/>
-      <c s="6" r="O94"/>
-      <c s="6" r="P94"/>
-      <c s="6" r="Q94"/>
-      <c s="6" r="R94"/>
-      <c s="6" r="S94"/>
-      <c s="6" r="T94"/>
-      <c s="6" r="U94"/>
-      <c s="6" r="V94"/>
-      <c s="6" r="W94"/>
-      <c s="6" r="X94"/>
-      <c s="6" r="Y94"/>
+      <c s="26" r="N94"/>
+      <c s="5" r="O94"/>
+      <c s="5" r="P94"/>
+      <c s="5" r="Q94"/>
+      <c s="5" r="R94"/>
+      <c s="5" r="S94"/>
+      <c s="5" r="T94"/>
+      <c s="5" r="U94"/>
+      <c s="5" r="V94"/>
+      <c s="5" r="W94"/>
+      <c s="5" r="X94"/>
+      <c s="5" r="Y94"/>
     </row>
     <row r="95">
-      <c s="4" r="A95"/>
-      <c s="33" r="B95"/>
-      <c s="5" r="C95"/>
-      <c s="3" r="D95"/>
-      <c s="17" r="E95"/>
-      <c s="17" r="F95"/>
-      <c s="17" r="G95"/>
-      <c s="17" r="H95"/>
-      <c s="17" r="I95"/>
-      <c s="17" r="J95"/>
-      <c s="17" r="K95"/>
+      <c s="3" r="A95"/>
+      <c s="32" r="B95"/>
+      <c s="4" r="C95"/>
+      <c s="2" r="D95"/>
+      <c s="15" r="E95"/>
+      <c s="15" r="F95"/>
+      <c s="15" r="G95"/>
+      <c s="15" r="H95"/>
+      <c s="15" r="I95"/>
+      <c s="15" r="J95"/>
+      <c s="15" r="K95"/>
       <c s="44" r="L95"/>
       <c s="30" r="M95"/>
-      <c s="28" r="N95"/>
-      <c s="6" r="O95"/>
-      <c s="6" r="P95"/>
-      <c s="6" r="Q95"/>
-      <c s="6" r="R95"/>
-      <c s="6" r="S95"/>
-      <c s="6" r="T95"/>
-      <c s="6" r="U95"/>
-      <c s="6" r="V95"/>
-      <c s="6" r="W95"/>
-      <c s="6" r="X95"/>
-      <c s="6" r="Y95"/>
+      <c s="26" r="N95"/>
+      <c s="5" r="O95"/>
+      <c s="5" r="P95"/>
+      <c s="5" r="Q95"/>
+      <c s="5" r="R95"/>
+      <c s="5" r="S95"/>
+      <c s="5" r="T95"/>
+      <c s="5" r="U95"/>
+      <c s="5" r="V95"/>
+      <c s="5" r="W95"/>
+      <c s="5" r="X95"/>
+      <c s="5" r="Y95"/>
     </row>
     <row r="96">
-      <c s="4" r="A96"/>
-      <c s="33" r="B96"/>
-      <c s="5" r="C96"/>
-      <c s="3" r="D96"/>
-      <c s="17" r="E96"/>
-      <c s="17" r="F96"/>
-      <c s="17" r="G96"/>
-      <c s="17" r="H96"/>
-      <c s="17" r="I96"/>
-      <c s="17" r="J96"/>
-      <c s="17" r="K96"/>
+      <c s="3" r="A96"/>
+      <c s="32" r="B96"/>
+      <c s="4" r="C96"/>
+      <c s="2" r="D96"/>
+      <c s="15" r="E96"/>
+      <c s="15" r="F96"/>
+      <c s="15" r="G96"/>
+      <c s="15" r="H96"/>
+      <c s="15" r="I96"/>
+      <c s="15" r="J96"/>
+      <c s="15" r="K96"/>
       <c s="44" r="L96"/>
       <c s="30" r="M96"/>
-      <c s="28" r="N96"/>
-      <c s="6" r="O96"/>
-      <c s="6" r="P96"/>
-      <c s="6" r="Q96"/>
-      <c s="6" r="R96"/>
-      <c s="6" r="S96"/>
-      <c s="6" r="T96"/>
-      <c s="6" r="U96"/>
-      <c s="6" r="V96"/>
-      <c s="6" r="W96"/>
-      <c s="6" r="X96"/>
-      <c s="6" r="Y96"/>
+      <c s="26" r="N96"/>
+      <c s="5" r="O96"/>
+      <c s="5" r="P96"/>
+      <c s="5" r="Q96"/>
+      <c s="5" r="R96"/>
+      <c s="5" r="S96"/>
+      <c s="5" r="T96"/>
+      <c s="5" r="U96"/>
+      <c s="5" r="V96"/>
+      <c s="5" r="W96"/>
+      <c s="5" r="X96"/>
+      <c s="5" r="Y96"/>
     </row>
     <row r="97">
-      <c s="4" r="A97"/>
-      <c s="33" r="B97"/>
-      <c s="5" r="C97"/>
-      <c s="3" r="D97"/>
-      <c s="17" r="E97"/>
-      <c s="17" r="F97"/>
-      <c s="17" r="G97"/>
-      <c s="17" r="H97"/>
-      <c s="17" r="I97"/>
-      <c s="17" r="J97"/>
-      <c s="17" r="K97"/>
+      <c s="3" r="A97"/>
+      <c s="32" r="B97"/>
+      <c s="4" r="C97"/>
+      <c s="2" r="D97"/>
+      <c s="15" r="E97"/>
+      <c s="15" r="F97"/>
+      <c s="15" r="G97"/>
+      <c s="15" r="H97"/>
+      <c s="15" r="I97"/>
+      <c s="15" r="J97"/>
+      <c s="15" r="K97"/>
       <c s="44" r="L97"/>
       <c s="30" r="M97"/>
-      <c s="28" r="N97"/>
-      <c s="6" r="O97"/>
-      <c s="6" r="P97"/>
-      <c s="6" r="Q97"/>
-      <c s="6" r="R97"/>
-      <c s="6" r="S97"/>
-      <c s="6" r="T97"/>
-      <c s="6" r="U97"/>
-      <c s="6" r="V97"/>
-      <c s="6" r="W97"/>
-      <c s="6" r="X97"/>
-      <c s="6" r="Y97"/>
+      <c s="26" r="N97"/>
+      <c s="5" r="O97"/>
+      <c s="5" r="P97"/>
+      <c s="5" r="Q97"/>
+      <c s="5" r="R97"/>
+      <c s="5" r="S97"/>
+      <c s="5" r="T97"/>
+      <c s="5" r="U97"/>
+      <c s="5" r="V97"/>
+      <c s="5" r="W97"/>
+      <c s="5" r="X97"/>
+      <c s="5" r="Y97"/>
     </row>
     <row r="98">
-      <c s="4" r="A98"/>
-      <c s="33" r="B98"/>
-      <c s="5" r="C98"/>
-      <c s="3" r="D98"/>
-      <c s="17" r="E98"/>
-      <c s="17" r="F98"/>
-      <c s="17" r="G98"/>
-      <c s="17" r="H98"/>
-      <c s="17" r="I98"/>
-      <c s="17" r="J98"/>
-      <c s="17" r="K98"/>
+      <c s="3" r="A98"/>
+      <c s="32" r="B98"/>
+      <c s="4" r="C98"/>
+      <c s="2" r="D98"/>
+      <c s="15" r="E98"/>
+      <c s="15" r="F98"/>
+      <c s="15" r="G98"/>
+      <c s="15" r="H98"/>
+      <c s="15" r="I98"/>
+      <c s="15" r="J98"/>
+      <c s="15" r="K98"/>
       <c s="44" r="L98"/>
       <c s="30" r="M98"/>
-      <c s="28" r="N98"/>
-      <c s="6" r="O98"/>
-      <c s="6" r="P98"/>
-      <c s="6" r="Q98"/>
-      <c s="6" r="R98"/>
-      <c s="6" r="S98"/>
-      <c s="6" r="T98"/>
-      <c s="6" r="U98"/>
-      <c s="6" r="V98"/>
-      <c s="6" r="W98"/>
-      <c s="6" r="X98"/>
-      <c s="6" r="Y98"/>
+      <c s="26" r="N98"/>
+      <c s="5" r="O98"/>
+      <c s="5" r="P98"/>
+      <c s="5" r="Q98"/>
+      <c s="5" r="R98"/>
+      <c s="5" r="S98"/>
+      <c s="5" r="T98"/>
+      <c s="5" r="U98"/>
+      <c s="5" r="V98"/>
+      <c s="5" r="W98"/>
+      <c s="5" r="X98"/>
+      <c s="5" r="Y98"/>
     </row>
     <row r="99">
-      <c s="4" r="A99"/>
-      <c s="33" r="B99"/>
-      <c s="5" r="C99"/>
-      <c s="3" r="D99"/>
-      <c s="17" r="E99"/>
-      <c s="17" r="F99"/>
-      <c s="17" r="G99"/>
-      <c s="17" r="H99"/>
-      <c s="17" r="I99"/>
-      <c s="17" r="J99"/>
-      <c s="17" r="K99"/>
+      <c s="3" r="A99"/>
+      <c s="32" r="B99"/>
+      <c s="4" r="C99"/>
+      <c s="2" r="D99"/>
+      <c s="15" r="E99"/>
+      <c s="15" r="F99"/>
+      <c s="15" r="G99"/>
+      <c s="15" r="H99"/>
+      <c s="15" r="I99"/>
+      <c s="15" r="J99"/>
+      <c s="15" r="K99"/>
       <c s="44" r="L99"/>
       <c s="30" r="M99"/>
-      <c s="28" r="N99"/>
-      <c s="6" r="O99"/>
-      <c s="6" r="P99"/>
-      <c s="6" r="Q99"/>
-      <c s="6" r="R99"/>
-      <c s="6" r="S99"/>
-      <c s="6" r="T99"/>
-      <c s="6" r="U99"/>
-      <c s="6" r="V99"/>
-      <c s="6" r="W99"/>
-      <c s="6" r="X99"/>
-      <c s="6" r="Y99"/>
+      <c s="26" r="N99"/>
+      <c s="5" r="O99"/>
+      <c s="5" r="P99"/>
+      <c s="5" r="Q99"/>
+      <c s="5" r="R99"/>
+      <c s="5" r="S99"/>
+      <c s="5" r="T99"/>
+      <c s="5" r="U99"/>
+      <c s="5" r="V99"/>
+      <c s="5" r="W99"/>
+      <c s="5" r="X99"/>
+      <c s="5" r="Y99"/>
     </row>
     <row r="100">
-      <c s="4" r="A100"/>
-      <c s="33" r="B100"/>
-      <c s="5" r="C100"/>
-      <c s="3" r="D100"/>
-      <c s="17" r="E100"/>
-      <c s="17" r="F100"/>
-      <c s="17" r="G100"/>
-      <c s="17" r="H100"/>
-      <c s="17" r="I100"/>
-      <c s="17" r="J100"/>
-      <c s="17" r="K100"/>
+      <c s="3" r="A100"/>
+      <c s="32" r="B100"/>
+      <c s="4" r="C100"/>
+      <c s="2" r="D100"/>
+      <c s="15" r="E100"/>
+      <c s="15" r="F100"/>
+      <c s="15" r="G100"/>
+      <c s="15" r="H100"/>
+      <c s="15" r="I100"/>
+      <c s="15" r="J100"/>
+      <c s="15" r="K100"/>
       <c s="44" r="L100"/>
       <c s="30" r="M100"/>
-      <c s="28" r="N100"/>
-      <c s="6" r="O100"/>
-      <c s="6" r="P100"/>
-      <c s="6" r="Q100"/>
-      <c s="6" r="R100"/>
-      <c s="6" r="S100"/>
-      <c s="6" r="T100"/>
-      <c s="6" r="U100"/>
-      <c s="6" r="V100"/>
-      <c s="6" r="W100"/>
-      <c s="6" r="X100"/>
-      <c s="6" r="Y100"/>
+      <c s="26" r="N100"/>
+      <c s="5" r="O100"/>
+      <c s="5" r="P100"/>
+      <c s="5" r="Q100"/>
+      <c s="5" r="R100"/>
+      <c s="5" r="S100"/>
+      <c s="5" r="T100"/>
+      <c s="5" r="U100"/>
+      <c s="5" r="V100"/>
+      <c s="5" r="W100"/>
+      <c s="5" r="X100"/>
+      <c s="5" r="Y100"/>
     </row>
     <row r="101">
-      <c s="13" r="A101"/>
-      <c s="20" r="B101"/>
-      <c s="22" r="C101"/>
-      <c s="10" r="D101"/>
-      <c s="39" r="E101"/>
-      <c s="39" r="F101"/>
-      <c s="39" r="G101"/>
-      <c s="39" r="H101"/>
-      <c s="39" r="I101"/>
-      <c s="39" r="J101"/>
-      <c s="39" r="K101"/>
+      <c s="12" r="A101"/>
+      <c s="19" r="B101"/>
+      <c s="21" r="C101"/>
+      <c s="9" r="D101"/>
+      <c s="37" r="E101"/>
+      <c s="37" r="F101"/>
+      <c s="37" r="G101"/>
+      <c s="37" r="H101"/>
+      <c s="37" r="I101"/>
+      <c s="37" r="J101"/>
+      <c s="37" r="K101"/>
       <c s="46" r="L101"/>
-      <c s="29" r="M101"/>
-      <c s="40" r="N101"/>
-      <c s="6" r="O101"/>
-      <c s="6" r="P101"/>
-      <c s="6" r="Q101"/>
-      <c s="6" r="R101"/>
-      <c s="6" r="S101"/>
-      <c s="6" r="T101"/>
-      <c s="6" r="U101"/>
-      <c s="6" r="V101"/>
-      <c s="6" r="W101"/>
-      <c s="6" r="X101"/>
-      <c s="6" r="Y101"/>
+      <c s="28" r="M101"/>
+      <c s="38" r="N101"/>
+      <c s="5" r="O101"/>
+      <c s="5" r="P101"/>
+      <c s="5" r="Q101"/>
+      <c s="5" r="R101"/>
+      <c s="5" r="S101"/>
+      <c s="5" r="T101"/>
+      <c s="5" r="U101"/>
+      <c s="5" r="V101"/>
+      <c s="5" r="W101"/>
+      <c s="5" r="X101"/>
+      <c s="5" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5437,7 +5596,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <f>D2+E2</f>
@@ -5451,13 +5610,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -5468,7 +5627,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <f>D3+E3</f>
@@ -5482,7 +5641,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5491,7 +5650,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -5502,7 +5661,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <f>D4+E4</f>
@@ -5516,13 +5675,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c t="s" r="N4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -5533,7 +5692,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <f>D5+E5</f>
@@ -5547,13 +5706,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c t="s" r="N5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O5">
         <v>6</v>
@@ -5564,7 +5723,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <f>D6+E6</f>
@@ -5578,7 +5737,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5590,7 +5749,7 @@
         <v>0.5</v>
       </c>
       <c t="s" r="N6">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -5601,7 +5760,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <f>D7+E7</f>
@@ -5615,13 +5774,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -5632,18 +5791,21 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <f>D8+E8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f>SUM(G8:M8)</f>
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c t="s" r="F8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>1.5</v>
@@ -5652,26 +5814,41 @@
         <v>4.5</v>
       </c>
       <c t="s" r="N8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O8">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row customHeight="1" r="9" ht="41.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <f>D9+E9</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" r="F9">
+        <v>58</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c t="s" r="N9">
+        <v>59</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5747,7 +5924,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -5759,13 +5936,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -5776,7 +5953,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -5788,7 +5965,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5800,7 +5977,7 @@
         <v>2</v>
       </c>
       <c t="s" r="N3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -5811,7 +5988,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -5823,13 +6000,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c t="s" r="N4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -5840,7 +6017,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -5852,7 +6029,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5867,7 +6044,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -5878,7 +6055,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5890,7 +6067,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5902,7 +6079,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N6">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -5913,7 +6090,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -5925,7 +6102,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -5934,7 +6111,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -5945,7 +6122,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5957,7 +6134,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5969,9 +6146,38 @@
         <v>1</v>
       </c>
       <c t="s" r="N8">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" r="F9">
+        <v>73</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c t="s" r="N9">
+        <v>74</v>
+      </c>
+      <c r="O9">
         <v>8</v>
       </c>
     </row>
@@ -6047,7 +6253,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6059,7 +6265,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6068,10 +6274,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c t="s" r="O2">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -6079,7 +6285,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -6091,7 +6297,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6103,10 +6309,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="O3">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -6114,7 +6320,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6126,7 +6332,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6138,10 +6344,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N4">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c t="s" r="O4">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -6149,7 +6355,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -6161,7 +6367,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6173,10 +6379,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N5">
+        <v>86</v>
+      </c>
+      <c t="s" r="O5">
         <v>81</v>
-      </c>
-      <c t="s" r="O5">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -6184,7 +6390,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -6196,16 +6402,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c t="s" r="O6">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -6213,7 +6419,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6225,7 +6431,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6234,10 +6440,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c t="s" r="O7">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -6245,7 +6451,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6257,7 +6463,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6266,15 +6472,50 @@
         <v>2</v>
       </c>
       <c t="s" r="N8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c t="s" r="O8">
-        <v>76</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" r="F9">
+        <v>93</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c t="s" r="N9">
+        <v>94</v>
+      </c>
+      <c t="s" r="O9">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O8">
-    <sortState ref="A1:O8"/>
+  <autoFilter ref="A1:O9">
+    <sortState ref="A1:O9"/>
   </autoFilter>
 </worksheet>
 </file>
@@ -6348,7 +6589,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6360,13 +6601,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -6377,7 +6618,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -6389,7 +6630,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -6398,7 +6639,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -6409,7 +6650,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6421,7 +6662,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -6430,7 +6671,7 @@
         <v>6.5</v>
       </c>
       <c t="s" r="N4">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -6441,7 +6682,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -6453,7 +6694,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6462,7 +6703,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N5">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6473,7 +6714,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -6485,7 +6726,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6497,7 +6738,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -6508,7 +6749,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -6520,13 +6761,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -6537,7 +6778,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6549,16 +6790,48 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c t="s" r="N8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" r="F9">
+        <v>110</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c t="s" r="N9">
+        <v>111</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6637,7 +6910,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6649,7 +6922,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -6661,7 +6934,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -6669,7 +6942,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6681,7 +6954,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6693,7 +6966,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -6701,7 +6974,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6713,7 +6986,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6728,7 +7001,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N4">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -6736,7 +7009,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -6748,7 +7021,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6760,7 +7033,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N5">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -6768,7 +7041,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -6780,7 +7053,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6803,7 +7076,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -6815,7 +7088,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -6829,7 +7102,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6841,7 +7114,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -6855,7 +7128,25 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c t="s" r="F9">
+        <v>124</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6863,7 +7154,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -6871,7 +7162,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -6889,407 +7180,457 @@
     <col min="3" customWidth="1" max="3" width="11.29"/>
     <col min="4" customWidth="1" max="4" width="11.14"/>
     <col min="5" customWidth="1" max="5" width="8.14"/>
-    <col min="6" customWidth="1" max="6" width="53.71"/>
+    <col min="6" customWidth="1" max="6" width="57.29"/>
     <col min="7" customWidth="1" max="13" width="7.0"/>
-    <col min="14" customWidth="1" max="14" width="49.86"/>
+    <col min="14" customWidth="1" max="14" width="56.14"/>
     <col min="15" customWidth="1" max="15" width="15.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="42" r="A1">
+      <c t="s" s="40" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="42" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="42" r="C1">
-        <v>115</v>
-      </c>
-      <c t="s" s="42" r="D1">
+      <c t="s" s="40" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="40" r="C1">
+        <v>125</v>
+      </c>
+      <c t="s" s="40" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="42" r="E1">
+      <c t="s" s="40" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="42" r="F1">
+      <c t="s" s="40" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="42" r="G1">
-        <v>116</v>
-      </c>
-      <c t="s" s="42" r="H1">
-        <v>117</v>
-      </c>
-      <c t="s" s="42" r="I1">
-        <v>118</v>
-      </c>
-      <c t="s" s="42" r="J1">
-        <v>119</v>
-      </c>
-      <c t="s" s="42" r="K1">
-        <v>120</v>
-      </c>
-      <c t="s" s="42" r="L1">
-        <v>121</v>
-      </c>
-      <c t="s" s="42" r="M1">
-        <v>122</v>
-      </c>
-      <c t="s" s="42" r="N1">
-        <v>123</v>
-      </c>
-      <c t="s" s="42" r="O1">
-        <v>124</v>
-      </c>
-      <c s="32" r="P1"/>
-      <c s="32" r="Q1"/>
-      <c s="32" r="R1"/>
-      <c s="32" r="S1"/>
-      <c s="32" r="T1"/>
-      <c s="32" r="U1"/>
-      <c s="32" r="V1"/>
-      <c s="32" r="W1"/>
-      <c s="32" r="X1"/>
-      <c s="32" r="Y1"/>
-      <c s="32" r="Z1"/>
-    </row>
-    <row customHeight="1" r="2" ht="39.0">
-      <c s="14" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="B2">
-        <v>125</v>
-      </c>
-      <c s="14" r="C2">
+      <c t="s" s="40" r="G1">
+        <v>126</v>
+      </c>
+      <c t="s" s="40" r="H1">
+        <v>127</v>
+      </c>
+      <c t="s" s="40" r="I1">
+        <v>128</v>
+      </c>
+      <c t="s" s="40" r="J1">
+        <v>129</v>
+      </c>
+      <c t="s" s="40" r="K1">
+        <v>130</v>
+      </c>
+      <c t="s" s="40" r="L1">
+        <v>131</v>
+      </c>
+      <c t="s" s="40" r="M1">
+        <v>132</v>
+      </c>
+      <c t="s" s="40" r="N1">
+        <v>133</v>
+      </c>
+      <c t="s" s="40" r="O1">
+        <v>134</v>
+      </c>
+      <c s="31" r="P1"/>
+      <c s="31" r="Q1"/>
+      <c s="31" r="R1"/>
+      <c s="31" r="S1"/>
+      <c s="31" r="T1"/>
+      <c s="31" r="U1"/>
+      <c s="31" r="V1"/>
+      <c s="31" r="W1"/>
+      <c s="31" r="X1"/>
+      <c s="31" r="Y1"/>
+      <c s="31" r="Z1"/>
+    </row>
+    <row customHeight="1" r="2" ht="51.0">
+      <c s="13" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="B2">
+        <v>135</v>
+      </c>
+      <c s="13" r="C2">
         <v>5</v>
       </c>
-      <c s="14" r="D2">
+      <c s="13" r="D2">
         <v>4</v>
       </c>
-      <c s="14" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F2">
-        <v>126</v>
-      </c>
-      <c s="14" r="G2">
+      <c s="13" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F2">
+        <v>136</v>
+      </c>
+      <c s="13" r="G2">
         <v>4</v>
       </c>
-      <c s="14" r="H2"/>
-      <c s="14" r="I2"/>
-      <c s="14" r="J2"/>
-      <c s="14" r="K2"/>
-      <c s="14" r="L2"/>
-      <c s="14" r="M2"/>
-      <c t="s" s="14" r="N2">
-        <v>127</v>
-      </c>
-      <c s="14" r="O2">
+      <c s="13" r="H2"/>
+      <c s="13" r="I2"/>
+      <c s="13" r="J2"/>
+      <c s="13" r="K2"/>
+      <c s="13" r="L2"/>
+      <c s="13" r="M2"/>
+      <c t="s" s="13" r="N2">
+        <v>137</v>
+      </c>
+      <c s="13" r="O2">
         <v>8</v>
       </c>
-      <c s="34" r="P2"/>
-      <c s="34" r="Q2"/>
-      <c s="34" r="R2"/>
-      <c s="34" r="S2"/>
-      <c s="34" r="T2"/>
-      <c s="34" r="U2"/>
-      <c s="34" r="V2"/>
-      <c s="34" r="W2"/>
-      <c s="34" r="X2"/>
-      <c s="34" r="Y2"/>
-      <c s="34" r="Z2"/>
-    </row>
-    <row r="3">
-      <c s="14" r="A3">
+      <c s="33" r="P2"/>
+      <c s="33" r="Q2"/>
+      <c s="33" r="R2"/>
+      <c s="33" r="S2"/>
+      <c s="33" r="T2"/>
+      <c s="33" r="U2"/>
+      <c s="33" r="V2"/>
+      <c s="33" r="W2"/>
+      <c s="33" r="X2"/>
+      <c s="33" r="Y2"/>
+      <c s="33" r="Z2"/>
+    </row>
+    <row customHeight="1" r="3" ht="51.0">
+      <c s="13" r="A3">
         <v>2</v>
       </c>
-      <c t="s" s="14" r="B3">
-        <v>125</v>
-      </c>
-      <c s="14" r="C3">
+      <c t="s" s="13" r="B3">
+        <v>135</v>
+      </c>
+      <c s="13" r="C3">
         <v>5</v>
       </c>
-      <c s="14" r="D3">
+      <c s="13" r="D3">
         <v>4</v>
       </c>
-      <c s="14" r="E3">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F3">
-        <v>128</v>
-      </c>
-      <c s="14" r="G3">
+      <c s="13" r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F3">
+        <v>138</v>
+      </c>
+      <c s="13" r="G3">
         <v>3.5</v>
       </c>
-      <c s="14" r="H3">
+      <c s="13" r="H3">
         <v>1.5</v>
       </c>
-      <c s="14" r="I3"/>
-      <c s="14" r="J3"/>
-      <c s="14" r="K3"/>
-      <c s="14" r="L3"/>
-      <c s="14" r="M3"/>
-      <c t="s" s="14" r="N3">
-        <v>129</v>
-      </c>
-      <c s="14" r="O3">
+      <c s="13" r="I3"/>
+      <c s="13" r="J3"/>
+      <c s="13" r="K3"/>
+      <c s="13" r="L3"/>
+      <c s="13" r="M3"/>
+      <c t="s" s="13" r="N3">
+        <v>139</v>
+      </c>
+      <c s="13" r="O3">
         <v>8</v>
       </c>
-      <c s="14" r="P3"/>
-      <c s="14" r="Q3"/>
-      <c s="14" r="R3"/>
-      <c s="14" r="S3"/>
-      <c s="14" r="T3"/>
-      <c s="14" r="U3"/>
-      <c s="14" r="V3"/>
-      <c s="14" r="W3"/>
-      <c s="14" r="X3"/>
-      <c s="14" r="Y3"/>
-      <c s="14" r="Z3"/>
-    </row>
-    <row r="4">
-      <c s="14" r="A4">
+      <c s="13" r="P3"/>
+      <c s="13" r="Q3"/>
+      <c s="13" r="R3"/>
+      <c s="13" r="S3"/>
+      <c s="13" r="T3"/>
+      <c s="13" r="U3"/>
+      <c s="13" r="V3"/>
+      <c s="13" r="W3"/>
+      <c s="13" r="X3"/>
+      <c s="13" r="Y3"/>
+      <c s="13" r="Z3"/>
+    </row>
+    <row customHeight="1" r="4" ht="51.0">
+      <c s="13" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="14" r="B4">
-        <v>125</v>
-      </c>
-      <c s="14" r="C4">
+      <c t="s" s="13" r="B4">
+        <v>135</v>
+      </c>
+      <c s="13" r="C4">
         <v>10</v>
       </c>
-      <c s="14" r="D4">
+      <c s="13" r="D4">
         <v>9</v>
       </c>
-      <c s="14" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F4">
-        <v>130</v>
-      </c>
-      <c s="14" r="G4">
+      <c s="13" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F4">
+        <v>140</v>
+      </c>
+      <c s="13" r="G4">
         <v>4</v>
       </c>
-      <c s="14" r="H4"/>
-      <c s="14" r="I4"/>
-      <c s="14" r="J4">
+      <c s="13" r="H4"/>
+      <c s="13" r="I4"/>
+      <c s="13" r="J4">
         <v>4</v>
       </c>
-      <c s="14" r="K4">
-        <v>1</v>
-      </c>
-      <c s="14" r="L4"/>
-      <c s="14" r="M4"/>
-      <c t="s" s="14" r="N4">
-        <v>131</v>
-      </c>
-      <c s="14" r="O4">
+      <c s="13" r="K4">
+        <v>1</v>
+      </c>
+      <c s="13" r="L4"/>
+      <c s="13" r="M4"/>
+      <c t="s" s="13" r="N4">
+        <v>141</v>
+      </c>
+      <c s="13" r="O4">
         <v>12</v>
       </c>
-      <c s="14" r="P4"/>
-      <c s="14" r="Q4"/>
-      <c s="14" r="R4"/>
-      <c s="14" r="S4"/>
-      <c s="14" r="T4"/>
-      <c s="14" r="U4"/>
-      <c s="14" r="V4"/>
-      <c s="14" r="W4"/>
-      <c s="14" r="X4"/>
-      <c s="14" r="Y4"/>
-      <c s="14" r="Z4"/>
-    </row>
-    <row r="5">
-      <c s="14" r="A5">
+      <c s="13" r="P4"/>
+      <c s="13" r="Q4"/>
+      <c s="13" r="R4"/>
+      <c s="13" r="S4"/>
+      <c s="13" r="T4"/>
+      <c s="13" r="U4"/>
+      <c s="13" r="V4"/>
+      <c s="13" r="W4"/>
+      <c s="13" r="X4"/>
+      <c s="13" r="Y4"/>
+      <c s="13" r="Z4"/>
+    </row>
+    <row customHeight="1" r="5" ht="51.0">
+      <c s="13" r="A5">
         <v>4</v>
       </c>
-      <c t="s" s="14" r="B5">
-        <v>125</v>
-      </c>
-      <c s="14" r="C5">
+      <c t="s" s="13" r="B5">
+        <v>135</v>
+      </c>
+      <c s="13" r="C5">
         <v>10</v>
       </c>
-      <c s="14" r="D5">
+      <c s="13" r="D5">
         <v>9</v>
       </c>
-      <c s="14" r="E5">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F5">
-        <v>132</v>
-      </c>
-      <c s="14" r="G5">
+      <c s="13" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F5">
+        <v>142</v>
+      </c>
+      <c s="13" r="G5">
         <v>6</v>
       </c>
-      <c s="14" r="H5"/>
-      <c s="14" r="I5"/>
-      <c s="14" r="J5">
+      <c s="13" r="H5"/>
+      <c s="13" r="I5"/>
+      <c s="13" r="J5">
         <v>3</v>
       </c>
-      <c s="14" r="K5"/>
-      <c s="14" r="L5"/>
-      <c s="14" r="M5"/>
-      <c t="s" s="14" r="N5">
-        <v>133</v>
-      </c>
-      <c s="14" r="O5">
+      <c s="13" r="K5"/>
+      <c s="13" r="L5"/>
+      <c s="13" r="M5"/>
+      <c t="s" s="13" r="N5">
+        <v>143</v>
+      </c>
+      <c s="13" r="O5">
         <v>12</v>
       </c>
-      <c s="14" r="P5"/>
-      <c s="14" r="Q5"/>
-      <c s="14" r="R5"/>
-      <c s="14" r="S5"/>
-      <c s="14" r="T5"/>
-      <c s="14" r="U5"/>
-      <c s="14" r="V5"/>
-      <c s="14" r="W5"/>
-      <c s="14" r="X5"/>
-      <c s="14" r="Y5"/>
-      <c s="14" r="Z5"/>
-    </row>
-    <row r="6">
-      <c s="14" r="A6">
+      <c s="13" r="P5"/>
+      <c s="13" r="Q5"/>
+      <c s="13" r="R5"/>
+      <c s="13" r="S5"/>
+      <c s="13" r="T5"/>
+      <c s="13" r="U5"/>
+      <c s="13" r="V5"/>
+      <c s="13" r="W5"/>
+      <c s="13" r="X5"/>
+      <c s="13" r="Y5"/>
+      <c s="13" r="Z5"/>
+    </row>
+    <row customHeight="1" r="6" ht="51.0">
+      <c s="13" r="A6">
         <v>5</v>
       </c>
-      <c t="s" s="14" r="B6">
-        <v>125</v>
-      </c>
-      <c s="14" r="C6">
+      <c t="s" s="13" r="B6">
+        <v>135</v>
+      </c>
+      <c s="13" r="C6">
         <v>11</v>
       </c>
-      <c s="14" r="D6">
+      <c s="13" r="D6">
         <v>10</v>
       </c>
-      <c s="14" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F6">
-        <v>134</v>
-      </c>
-      <c s="14" r="G6">
+      <c s="13" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F6">
+        <v>144</v>
+      </c>
+      <c s="13" r="G6">
         <v>5</v>
       </c>
-      <c s="14" r="H6"/>
-      <c s="14" r="I6"/>
-      <c s="14" r="J6">
+      <c s="13" r="H6"/>
+      <c s="13" r="I6"/>
+      <c s="13" r="J6">
         <v>4</v>
       </c>
-      <c s="14" r="K6">
-        <v>1</v>
-      </c>
-      <c s="14" r="L6"/>
-      <c s="14" r="M6"/>
-      <c t="s" s="14" r="N6">
+      <c s="13" r="K6">
+        <v>1</v>
+      </c>
+      <c s="13" r="L6"/>
+      <c s="13" r="M6"/>
+      <c t="s" s="13" r="N6">
+        <v>145</v>
+      </c>
+      <c s="13" r="O6">
+        <v>12</v>
+      </c>
+      <c s="13" r="P6"/>
+      <c s="13" r="Q6"/>
+      <c s="13" r="R6"/>
+      <c s="13" r="S6"/>
+      <c s="13" r="T6"/>
+      <c s="13" r="U6"/>
+      <c s="13" r="V6"/>
+      <c s="13" r="W6"/>
+      <c s="13" r="X6"/>
+      <c s="13" r="Y6"/>
+      <c s="13" r="Z6"/>
+    </row>
+    <row customHeight="1" r="7" ht="51.0">
+      <c s="13" r="A7">
+        <v>6</v>
+      </c>
+      <c t="s" s="13" r="B7">
         <v>135</v>
       </c>
-      <c s="14" r="O6">
-        <v>12</v>
-      </c>
-      <c s="14" r="P6"/>
-      <c s="14" r="Q6"/>
-      <c s="14" r="R6"/>
-      <c s="14" r="S6"/>
-      <c s="14" r="T6"/>
-      <c s="14" r="U6"/>
-      <c s="14" r="V6"/>
-      <c s="14" r="W6"/>
-      <c s="14" r="X6"/>
-      <c s="14" r="Y6"/>
-      <c s="14" r="Z6"/>
-    </row>
-    <row r="7">
-      <c s="14" r="A7">
+      <c s="13" r="C7">
         <v>6</v>
       </c>
-      <c t="s" s="14" r="B7">
-        <v>125</v>
-      </c>
-      <c s="14" r="C7">
-        <v>6</v>
-      </c>
-      <c s="14" r="D7">
+      <c s="13" r="D7">
         <v>5</v>
       </c>
-      <c s="14" r="E7">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F7">
-        <v>136</v>
-      </c>
-      <c s="14" r="G7">
+      <c s="13" r="E7">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F7">
+        <v>146</v>
+      </c>
+      <c s="13" r="G7">
         <v>5</v>
       </c>
-      <c s="14" r="H7"/>
-      <c s="14" r="I7"/>
-      <c s="14" r="J7"/>
-      <c s="14" r="K7"/>
-      <c s="14" r="L7"/>
-      <c s="14" r="M7"/>
-      <c t="s" s="14" r="N7">
-        <v>137</v>
-      </c>
-      <c s="14" r="O7">
+      <c s="13" r="H7"/>
+      <c s="13" r="I7"/>
+      <c s="13" r="J7"/>
+      <c s="13" r="K7"/>
+      <c s="13" r="L7"/>
+      <c s="13" r="M7"/>
+      <c t="s" s="13" r="N7">
+        <v>147</v>
+      </c>
+      <c s="13" r="O7">
         <v>10</v>
       </c>
-      <c s="14" r="P7"/>
-      <c s="14" r="Q7"/>
-      <c s="14" r="R7"/>
-      <c s="14" r="S7"/>
-      <c s="14" r="T7"/>
-      <c s="14" r="U7"/>
-      <c s="14" r="V7"/>
-      <c s="14" r="W7"/>
-      <c s="14" r="X7"/>
-      <c s="14" r="Y7"/>
-      <c s="14" r="Z7"/>
-    </row>
-    <row r="8">
-      <c s="14" r="A8">
+      <c s="13" r="P7"/>
+      <c s="13" r="Q7"/>
+      <c s="13" r="R7"/>
+      <c s="13" r="S7"/>
+      <c s="13" r="T7"/>
+      <c s="13" r="U7"/>
+      <c s="13" r="V7"/>
+      <c s="13" r="W7"/>
+      <c s="13" r="X7"/>
+      <c s="13" r="Y7"/>
+      <c s="13" r="Z7"/>
+    </row>
+    <row customHeight="1" r="8" ht="51.0">
+      <c s="13" r="A8">
         <v>7</v>
       </c>
-      <c t="s" s="14" r="B8">
-        <v>125</v>
-      </c>
-      <c s="14" r="C8">
+      <c t="s" s="13" r="B8">
+        <v>135</v>
+      </c>
+      <c s="13" r="C8">
         <v>8.5</v>
       </c>
-      <c s="14" r="D8">
+      <c s="13" r="D8">
         <v>7.5</v>
       </c>
-      <c s="14" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="F8">
-        <v>138</v>
-      </c>
-      <c s="14" r="G8">
+      <c s="13" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F8">
+        <v>148</v>
+      </c>
+      <c s="13" r="G8">
         <v>2</v>
       </c>
-      <c s="14" r="H8"/>
-      <c s="14" r="I8"/>
-      <c s="14" r="J8">
+      <c s="13" r="H8"/>
+      <c s="13" r="I8"/>
+      <c s="13" r="J8">
         <v>5</v>
       </c>
-      <c s="14" r="K8">
+      <c s="13" r="K8">
         <v>0.5</v>
       </c>
-      <c s="14" r="L8"/>
-      <c s="14" r="M8"/>
-      <c t="s" s="14" r="N8">
-        <v>139</v>
-      </c>
-      <c s="14" r="O8">
+      <c s="13" r="L8"/>
+      <c s="13" r="M8"/>
+      <c t="s" s="13" r="N8">
+        <v>149</v>
+      </c>
+      <c s="13" r="O8">
         <v>10</v>
       </c>
-      <c s="14" r="P8"/>
-      <c s="14" r="Q8"/>
-      <c s="14" r="R8"/>
-      <c s="14" r="S8"/>
-      <c s="14" r="T8"/>
-      <c s="14" r="U8"/>
-      <c s="14" r="V8"/>
-      <c s="14" r="W8"/>
-      <c s="14" r="X8"/>
-      <c s="14" r="Y8"/>
-      <c s="14" r="Z8"/>
+      <c s="13" r="P8"/>
+      <c s="13" r="Q8"/>
+      <c s="13" r="R8"/>
+      <c s="13" r="S8"/>
+      <c s="13" r="T8"/>
+      <c s="13" r="U8"/>
+      <c s="13" r="V8"/>
+      <c s="13" r="W8"/>
+      <c s="13" r="X8"/>
+      <c s="13" r="Y8"/>
+      <c s="13" r="Z8"/>
+    </row>
+    <row customHeight="1" r="9" ht="51.0">
+      <c s="13" r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" s="13" r="B9">
+        <v>135</v>
+      </c>
+      <c s="13" r="C9">
+        <v>10</v>
+      </c>
+      <c s="13" r="D9">
+        <v>9</v>
+      </c>
+      <c s="13" r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F9">
+        <v>150</v>
+      </c>
+      <c s="13" r="G9"/>
+      <c s="13" r="H9"/>
+      <c s="13" r="I9"/>
+      <c s="13" r="J9">
+        <v>6.5</v>
+      </c>
+      <c s="13" r="K9">
+        <v>2</v>
+      </c>
+      <c s="13" r="L9">
+        <v>0.5</v>
+      </c>
+      <c s="13" r="M9"/>
+      <c t="s" s="13" r="N9">
+        <v>151</v>
+      </c>
+      <c s="13" r="O9">
+        <v>10</v>
+      </c>
+      <c s="13" r="P9"/>
+      <c s="13" r="Q9"/>
+      <c s="13" r="R9"/>
+      <c s="13" r="S9"/>
+      <c s="13" r="T9"/>
+      <c s="13" r="U9"/>
+      <c s="13" r="V9"/>
+      <c s="13" r="W9"/>
+      <c s="13" r="X9"/>
+      <c s="13" r="Y9"/>
+      <c s="13" r="Z9"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -214,12 +214,62 @@
         <t xml:space="preserve">Talked to Gloria and the rest of the team about what sort of User experience is desired.</t>
       </text>
     </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <t xml:space="preserve">Figuring out how to properly generate a hash</t>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <t xml:space="preserve">* Created a strategy patter when different types of questions are added to the survey update for.
+* Made the model return state specific values to the view.</t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <t xml:space="preserve">made sure debug and test my code from this and last week.</t>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
+      <text>
+        <t xml:space="preserve">communicated with team about current tasks they are one, and how to make them work.
+</t>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <t xml:space="preserve">Researching how to deploy yii Projects</t>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <t xml:space="preserve">1. Added confirmation modal to unpublish &amp; delete survey actions.
+2.Commented code &amp; added documentation.
+3. bug/issue fixes.
+</t>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <t xml:space="preserve">testing my issue resolutions.</t>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0">
+      <text>
+        <t xml:space="preserve">Feedback to survey take implementation.</t>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0">
+      <text>
+        <t xml:space="preserve">Added SSD documentation.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>week #</t>
   </si>
@@ -397,6 +447,40 @@
 - plan next meeting and communicate plan with the group</t>
   </si>
   <si>
+    <t>Fliden </t>
+  </si>
+  <si>
+    <t>3 - Went thourgh the latest version of the code in master branch and added any remaining tasks or bugs in GitHub for the existing functionality
+3 - Went through GitHub and closed a few bugs
+3 - Run PhpDocumentor to get the current documentation. Added some more docs as well. I also did some refactoring of the code and changes to make the class hierarchy play better with PhpDocumentor
+5 - Went through Pivotal Tracker stories, updated stories and reastimated for iteration 3
+5 - Help with SDD document
+5 - Plan next meeting and communicate plan with the group</t>
+  </si>
+  <si>
+    <t>- create the architecture diagram for the SDD
+- fix bugs from GitHub
+- help with the implementation of survey taker part
+- plan next meeting and communicate plan with the group</t>
+  </si>
+  <si>
+    <t>1 - go through the SDD document
+3 - fix bugs from GitHub
+3 - help with the implementation of survey taker part, edit only unpublished surveys, regenerate hash when unpublishing
+3 - merged everything to master and fix the conflicts
+3 - went through and reviewed all the latest code
+5 - plan next meeting and communicate plan with the group</t>
+  </si>
+  <si>
+    <t>- fix the survey versioning, add preview to the published surveys and resolve the hash vs id issue
+- work on the implementation of the survey report part. Focus on short answer questions and the "word counter" section to generate list of most used words.
+- re-generate documentation with PhpDocumentor and check the structure of the docs and make any needed changes 
+- work on deploying the project
+- plan for the final presentation
+- send reminders to the group about everybody's tasks to get ready for the final demo and presentation
+</t>
+  </si>
+  <si>
     <t>week</t>
   </si>
   <si>
@@ -507,6 +591,12 @@
 Help with take survey page</t>
   </si>
   <si>
+    <t>3 - Worked on take survey page</t>
+  </si>
+  <si>
+    <t>Continue to work on take survey page</t>
+  </si>
+  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -551,6 +641,18 @@
   </si>
   <si>
     <t>3 - Refactor CSS, 6 - SDD document, 2 - Design Survey View for Survey Taker, 3 - Implementation of View Survey</t>
+  </si>
+  <si>
+    <t>3 - Implementation of Survey Taker Views</t>
+  </si>
+  <si>
+    <t>3 - Implementation of Survey Taker Views, 3 - Fix UX bugs, 3 - Create Thank You page, 3 - Update Footer and Homepage About Section</t>
+  </si>
+  <si>
+    <t>4 - Browser testing, 3 - Add Contact Us page content, 3 - finish About section on Homepage, 3 - Reports UI, 3 - UX bugs, 6 - Create final presentation deck</t>
+  </si>
+  <si>
+    <t>20* (*for 2 weeks)</t>
   </si>
   <si>
     <t>Beth</t>
@@ -633,6 +735,21 @@
 functional test use cases</t>
   </si>
   <si>
+    <t>0 - code review
+2 - worked on SDD
+3 - tried to implement PHPUnit, Selenium Server
+4 - reviewed functional test cases, some testing</t>
+  </si>
+  <si>
+    <t>work on reports with Fliden and Chao-Te</t>
+  </si>
+  <si>
+    <t>2 - worked on software architecture diagram, outline for presentation</t>
+  </si>
+  <si>
+    <t>document code, work on reports with Fliden</t>
+  </si>
+  <si>
     <t>Imaad</t>
   </si>
   <si>
@@ -710,6 +827,12 @@
   <si>
     <t>1. Start Implementing survey/take
 render a survey form from the database</t>
+  </si>
+  <si>
+    <t>3 - Partial implementation of survey/take</t>
+  </si>
+  <si>
+    <t>1. Finish implementing survey/take</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -792,6 +915,16 @@
 5 - communication (mail)</t>
   </si>
   <si>
+    <t>4 - Test case design
+4 - Functional test documentation (using selenium)
+4 - Functional test
+5 - communication (mail)</t>
+  </si>
+  <si>
+    <t>4 - Functional test documentation (using selenium)
+5 - communication (mail)</t>
+  </si>
+  <si>
     <t>Total actual time</t>
   </si>
   <si>
@@ -905,6 +1038,16 @@
 More Selenium test cases for latest UI
 Work with Vincent and Imaad (user report or create user survey)
 </t>
+  </si>
+  <si>
+    <t>0 - Generate charts and reports in Yii
+4 - New test case document
+5 - Document for Selenium setup, integration, and sample code</t>
+  </si>
+  <si>
+    <t>Create new branch - Report
+Implement report page
+Add more test cases</t>
   </si>
 </sst>
 </file>
@@ -1086,13 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFFCE5CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,12 +1289,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1188,7 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,6 +1367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1242,6 +1385,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1249,18 +1398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,6 +1425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1326,109 +1469,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1449,12 +1492,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1467,6 +1532,32 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1494,6 +1585,17 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1506,9 +1608,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1534,7 +1634,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1548,7 +1650,48 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1580,21 +1723,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1661,7 +1789,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1684,30 +1814,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1736,12 +1842,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1787,6 +1915,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1809,14 +1952,14 @@
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="1" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -1851,20 +1994,20 @@
     <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="5" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="5" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="6" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="6" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="18" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="7" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
@@ -1878,26 +2021,26 @@
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="8" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="8" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="9" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="10">
+    <xf applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="27" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="10" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="11" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
@@ -1908,41 +2051,41 @@
     <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="12" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="32" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="12">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" applyFont="1" fontId="13" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="36" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="37" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="14" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="14" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="36" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="37" fontId="0">
+    <xf applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="38" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="15" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="15" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1954,7 +2097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
@@ -2016,62 +2162,62 @@
       </c>
     </row>
     <row customHeight="1" r="2" ht="51.75">
-      <c s="48" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="48" r="B2">
+      <c s="47" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="B2">
         <v>15</v>
       </c>
-      <c s="48" r="C2">
+      <c s="47" r="C2">
         <v>7</v>
       </c>
-      <c s="48" r="D2">
+      <c s="47" r="D2">
         <v>6</v>
       </c>
-      <c s="48" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="48" r="F2">
+      <c s="47" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F2">
         <v>16</v>
       </c>
-      <c s="48" r="G2">
-        <v>1</v>
-      </c>
-      <c s="48" r="H2">
-        <v>1</v>
-      </c>
-      <c s="48" r="I2">
-        <v>0</v>
-      </c>
-      <c s="48" r="J2">
-        <v>0</v>
-      </c>
-      <c s="48" r="K2">
-        <v>0</v>
-      </c>
-      <c s="48" r="L2">
+      <c s="47" r="G2">
+        <v>1</v>
+      </c>
+      <c s="47" r="H2">
+        <v>1</v>
+      </c>
+      <c s="47" r="I2">
+        <v>0</v>
+      </c>
+      <c s="47" r="J2">
+        <v>0</v>
+      </c>
+      <c s="47" r="K2">
+        <v>0</v>
+      </c>
+      <c s="47" r="L2">
         <v>2</v>
       </c>
-      <c s="48" r="M2">
+      <c s="47" r="M2">
         <v>2</v>
       </c>
-      <c t="s" s="48" r="N2">
+      <c t="s" s="47" r="N2">
         <v>17</v>
       </c>
-      <c s="48" r="O2">
+      <c s="47" r="O2">
         <v>10</v>
       </c>
-      <c s="48" r="P2"/>
-      <c s="48" r="Q2"/>
-      <c s="48" r="R2"/>
-      <c s="48" r="S2"/>
-      <c s="48" r="T2"/>
-      <c s="48" r="U2"/>
-      <c s="48" r="V2"/>
-      <c s="48" r="W2"/>
-      <c s="48" r="X2"/>
-      <c s="48" r="Y2"/>
-      <c s="48" r="Z2"/>
+      <c s="47" r="P2"/>
+      <c s="47" r="Q2"/>
+      <c s="47" r="R2"/>
+      <c s="47" r="S2"/>
+      <c s="47" r="T2"/>
+      <c s="47" r="U2"/>
+      <c s="47" r="V2"/>
+      <c s="47" r="W2"/>
+      <c s="47" r="X2"/>
+      <c s="47" r="Y2"/>
+      <c s="47" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="74.25">
       <c s="1" r="A3">
@@ -2132,62 +2278,62 @@
       <c s="1" r="Z3"/>
     </row>
     <row r="4">
-      <c s="48" r="A4">
+      <c s="47" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="48" r="B4">
+      <c t="s" s="47" r="B4">
         <v>15</v>
       </c>
-      <c s="48" r="C4">
+      <c s="47" r="C4">
         <v>9</v>
       </c>
-      <c s="48" r="D4">
+      <c s="47" r="D4">
         <v>8</v>
       </c>
-      <c s="48" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="48" r="F4">
+      <c s="47" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F4">
         <v>20</v>
       </c>
-      <c s="48" r="G4">
+      <c s="47" r="G4">
         <v>3</v>
       </c>
-      <c s="48" r="H4">
+      <c s="47" r="H4">
         <v>2</v>
       </c>
-      <c s="48" r="I4">
-        <v>1</v>
-      </c>
-      <c s="48" r="J4">
-        <v>1</v>
-      </c>
-      <c s="48" r="K4">
-        <v>0</v>
-      </c>
-      <c s="48" r="L4">
-        <v>1</v>
-      </c>
-      <c s="48" r="M4">
-        <v>0</v>
-      </c>
-      <c t="s" s="48" r="N4">
+      <c s="47" r="I4">
+        <v>1</v>
+      </c>
+      <c s="47" r="J4">
+        <v>1</v>
+      </c>
+      <c s="47" r="K4">
+        <v>0</v>
+      </c>
+      <c s="47" r="L4">
+        <v>1</v>
+      </c>
+      <c s="47" r="M4">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N4">
         <v>21</v>
       </c>
-      <c s="48" r="O4">
+      <c s="47" r="O4">
         <v>10</v>
       </c>
-      <c s="48" r="P4"/>
-      <c s="48" r="Q4"/>
-      <c s="48" r="R4"/>
-      <c s="48" r="S4"/>
-      <c s="48" r="T4"/>
-      <c s="48" r="U4"/>
-      <c s="48" r="V4"/>
-      <c s="48" r="W4"/>
-      <c s="48" r="X4"/>
-      <c s="48" r="Y4"/>
-      <c s="48" r="Z4"/>
+      <c s="47" r="P4"/>
+      <c s="47" r="Q4"/>
+      <c s="47" r="R4"/>
+      <c s="47" r="S4"/>
+      <c s="47" r="T4"/>
+      <c s="47" r="U4"/>
+      <c s="47" r="V4"/>
+      <c s="47" r="W4"/>
+      <c s="47" r="X4"/>
+      <c s="47" r="Y4"/>
+      <c s="47" r="Z4"/>
     </row>
     <row r="5">
       <c s="1" r="A5">
@@ -2248,62 +2394,62 @@
       <c s="1" r="Z5"/>
     </row>
     <row r="6">
-      <c s="48" r="A6">
+      <c s="47" r="A6">
         <v>5</v>
       </c>
-      <c t="s" s="48" r="B6">
+      <c t="s" s="47" r="B6">
         <v>15</v>
       </c>
-      <c s="48" r="C6">
+      <c s="47" r="C6">
         <v>15</v>
       </c>
-      <c s="48" r="D6">
+      <c s="47" r="D6">
         <v>14</v>
       </c>
-      <c s="48" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="48" r="F6">
+      <c s="47" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F6">
         <v>24</v>
       </c>
-      <c s="48" r="G6">
-        <v>0</v>
-      </c>
-      <c s="48" r="H6">
-        <v>0</v>
-      </c>
-      <c s="48" r="I6">
-        <v>0</v>
-      </c>
-      <c s="48" r="J6">
+      <c s="47" r="G6">
+        <v>0</v>
+      </c>
+      <c s="47" r="H6">
+        <v>0</v>
+      </c>
+      <c s="47" r="I6">
+        <v>0</v>
+      </c>
+      <c s="47" r="J6">
         <v>10</v>
       </c>
-      <c s="48" r="K6">
-        <v>0</v>
-      </c>
-      <c s="48" r="L6">
+      <c s="47" r="K6">
+        <v>0</v>
+      </c>
+      <c s="47" r="L6">
         <v>4</v>
       </c>
-      <c s="48" r="M6">
-        <v>0</v>
-      </c>
-      <c t="s" s="48" r="N6">
+      <c s="47" r="M6">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N6">
         <v>25</v>
       </c>
-      <c s="48" r="O6">
+      <c s="47" r="O6">
         <v>7</v>
       </c>
-      <c s="48" r="P6"/>
-      <c s="48" r="Q6"/>
-      <c s="48" r="R6"/>
-      <c s="48" r="S6"/>
-      <c s="48" r="T6"/>
-      <c s="48" r="U6"/>
-      <c s="48" r="V6"/>
-      <c s="48" r="W6"/>
-      <c s="48" r="X6"/>
-      <c s="48" r="Y6"/>
-      <c s="48" r="Z6"/>
+      <c s="47" r="P6"/>
+      <c s="47" r="Q6"/>
+      <c s="47" r="R6"/>
+      <c s="47" r="S6"/>
+      <c s="47" r="T6"/>
+      <c s="47" r="U6"/>
+      <c s="47" r="V6"/>
+      <c s="47" r="W6"/>
+      <c s="47" r="X6"/>
+      <c s="47" r="Y6"/>
+      <c s="47" r="Z6"/>
     </row>
     <row r="7">
       <c s="1" r="A7">
@@ -2364,62 +2510,62 @@
       <c s="1" r="Z7"/>
     </row>
     <row r="8">
-      <c s="48" r="A8">
+      <c s="47" r="A8">
         <v>7</v>
       </c>
-      <c t="s" s="48" r="B8">
+      <c t="s" s="47" r="B8">
         <v>15</v>
       </c>
-      <c s="48" r="C8">
+      <c s="47" r="C8">
         <v>6</v>
       </c>
-      <c s="48" r="D8">
+      <c s="47" r="D8">
         <v>5</v>
       </c>
-      <c s="48" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="48" r="F8">
+      <c s="47" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F8">
         <v>28</v>
       </c>
-      <c s="48" r="G8">
-        <v>0</v>
-      </c>
-      <c s="48" r="H8">
-        <v>0</v>
-      </c>
-      <c s="48" r="I8">
-        <v>0</v>
-      </c>
-      <c s="48" r="J8">
+      <c s="47" r="G8">
+        <v>0</v>
+      </c>
+      <c s="47" r="H8">
+        <v>0</v>
+      </c>
+      <c s="47" r="I8">
+        <v>0</v>
+      </c>
+      <c s="47" r="J8">
         <v>3</v>
       </c>
-      <c s="48" r="K8">
-        <v>0</v>
-      </c>
-      <c s="48" r="L8">
+      <c s="47" r="K8">
+        <v>0</v>
+      </c>
+      <c s="47" r="L8">
         <v>2</v>
       </c>
-      <c s="48" r="M8">
-        <v>0</v>
-      </c>
-      <c t="s" s="48" r="N8">
+      <c s="47" r="M8">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N8">
         <v>29</v>
       </c>
-      <c s="48" r="O8">
+      <c s="47" r="O8">
         <v>12</v>
       </c>
-      <c s="48" r="P8"/>
-      <c s="48" r="Q8"/>
-      <c s="48" r="R8"/>
-      <c s="48" r="S8"/>
-      <c s="48" r="T8"/>
-      <c s="48" r="U8"/>
-      <c s="48" r="V8"/>
-      <c s="48" r="W8"/>
-      <c s="48" r="X8"/>
-      <c s="48" r="Y8"/>
-      <c s="48" r="Z8"/>
+      <c s="47" r="P8"/>
+      <c s="47" r="Q8"/>
+      <c s="47" r="R8"/>
+      <c s="47" r="S8"/>
+      <c s="47" r="T8"/>
+      <c s="47" r="U8"/>
+      <c s="47" r="V8"/>
+      <c s="47" r="W8"/>
+      <c s="47" r="X8"/>
+      <c s="47" r="Y8"/>
+      <c s="47" r="Z8"/>
     </row>
     <row r="9">
       <c s="1" r="A9">
@@ -2453,13 +2599,13 @@
         <v>0</v>
       </c>
       <c s="1" r="K9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c s="1" r="L9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="1" r="M9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c t="s" s="1" r="N9">
         <v>31</v>
@@ -2478,6 +2624,122 @@
       <c s="1" r="X9"/>
       <c s="1" r="Y9"/>
       <c s="1" r="Z9"/>
+    </row>
+    <row r="10">
+      <c s="47" r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" s="47" r="B10">
+        <v>32</v>
+      </c>
+      <c s="47" r="C10">
+        <v>8</v>
+      </c>
+      <c s="47" r="D10">
+        <v>7</v>
+      </c>
+      <c s="47" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F10">
+        <v>33</v>
+      </c>
+      <c s="47" r="G10">
+        <v>0</v>
+      </c>
+      <c s="47" r="H10">
+        <v>0</v>
+      </c>
+      <c s="47" r="I10">
+        <v>0</v>
+      </c>
+      <c s="47" r="J10">
+        <v>4</v>
+      </c>
+      <c s="47" r="K10">
+        <v>0</v>
+      </c>
+      <c s="47" r="L10">
+        <v>3</v>
+      </c>
+      <c s="47" r="M10">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N10">
+        <v>34</v>
+      </c>
+      <c s="47" r="O10">
+        <v>7</v>
+      </c>
+      <c s="47" r="P10"/>
+      <c s="47" r="Q10"/>
+      <c s="47" r="R10"/>
+      <c s="47" r="S10"/>
+      <c s="47" r="T10"/>
+      <c s="47" r="U10"/>
+      <c s="47" r="V10"/>
+      <c s="47" r="W10"/>
+      <c s="47" r="X10"/>
+      <c s="47" r="Y10"/>
+      <c s="47" r="Z10"/>
+    </row>
+    <row r="11">
+      <c s="1" r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="B11">
+        <v>15</v>
+      </c>
+      <c s="1" r="C11">
+        <v>8</v>
+      </c>
+      <c s="1" r="D11">
+        <v>7</v>
+      </c>
+      <c s="1" r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="F11">
+        <v>35</v>
+      </c>
+      <c s="1" r="G11">
+        <v>0</v>
+      </c>
+      <c s="1" r="H11">
+        <v>1</v>
+      </c>
+      <c s="1" r="I11">
+        <v>0</v>
+      </c>
+      <c s="1" r="J11">
+        <v>5</v>
+      </c>
+      <c s="1" r="K11">
+        <v>0</v>
+      </c>
+      <c s="1" r="L11">
+        <v>1</v>
+      </c>
+      <c s="1" r="M11">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="N11">
+        <v>36</v>
+      </c>
+      <c s="1" r="O11">
+        <v>10</v>
+      </c>
+      <c s="1" r="P11"/>
+      <c s="1" r="Q11"/>
+      <c s="1" r="R11"/>
+      <c s="1" r="S11"/>
+      <c s="1" r="T11"/>
+      <c s="1" r="U11"/>
+      <c s="1" r="V11"/>
+      <c s="1" r="W11"/>
+      <c s="1" r="X11"/>
+      <c s="1" r="Y11"/>
+      <c s="1" r="Z11"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2503,86 +2765,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="29" r="A1">
-        <v>32</v>
-      </c>
-      <c t="s" s="43" r="B1">
-        <v>33</v>
-      </c>
-      <c t="s" s="42" r="C1">
-        <v>34</v>
-      </c>
-      <c t="s" s="6" r="D1">
+      <c t="s" s="28" r="A1">
+        <v>37</v>
+      </c>
+      <c t="s" s="23" r="B1">
+        <v>38</v>
+      </c>
+      <c t="s" s="48" r="C1">
+        <v>39</v>
+      </c>
+      <c t="s" s="37" r="D1">
         <v>4</v>
       </c>
-      <c t="s" s="20" r="E1">
-        <v>35</v>
-      </c>
-      <c s="20" r="F1"/>
-      <c s="20" r="G1"/>
-      <c s="20" r="H1"/>
-      <c s="20" r="I1"/>
-      <c s="20" r="J1"/>
-      <c s="20" r="K1"/>
-      <c t="s" s="27" r="L1">
+      <c t="s" s="19" r="E1">
+        <v>40</v>
+      </c>
+      <c s="19" r="F1"/>
+      <c s="19" r="G1"/>
+      <c s="19" r="H1"/>
+      <c s="19" r="I1"/>
+      <c s="19" r="J1"/>
+      <c s="19" r="K1"/>
+      <c t="s" s="4" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="16" r="M1">
+      <c t="s" s="34" r="M1">
         <v>14</v>
       </c>
       <c s="7" r="N1"/>
-      <c s="5" r="O1"/>
-      <c s="5" r="P1"/>
-      <c s="5" r="Q1"/>
-      <c s="5" r="R1"/>
-      <c s="5" r="S1"/>
-      <c s="5" r="T1"/>
-      <c s="5" r="U1"/>
-      <c s="5" r="V1"/>
-      <c s="5" r="W1"/>
-      <c s="5" r="X1"/>
-      <c s="5" r="Y1"/>
+      <c s="6" r="O1"/>
+      <c s="6" r="P1"/>
+      <c s="6" r="Q1"/>
+      <c s="6" r="R1"/>
+      <c s="6" r="S1"/>
+      <c s="6" r="T1"/>
+      <c s="6" r="U1"/>
+      <c s="6" r="V1"/>
+      <c s="6" r="W1"/>
+      <c s="6" r="X1"/>
+      <c s="6" r="Y1"/>
     </row>
     <row r="2">
-      <c s="23" r="A2"/>
-      <c s="34" r="B2"/>
-      <c s="47" r="C2"/>
-      <c s="18" r="D2"/>
-      <c t="s" s="20" r="E2">
-        <v>36</v>
-      </c>
-      <c t="s" s="20" r="F2">
-        <v>37</v>
-      </c>
-      <c t="s" s="20" r="G2">
-        <v>38</v>
-      </c>
-      <c t="s" s="20" r="H2">
-        <v>39</v>
-      </c>
-      <c t="s" s="20" r="I2">
-        <v>40</v>
-      </c>
-      <c t="s" s="20" r="J2">
+      <c s="22" r="A2"/>
+      <c s="33" r="B2"/>
+      <c s="46" r="C2"/>
+      <c s="17" r="D2"/>
+      <c t="s" s="19" r="E2">
         <v>41</v>
       </c>
-      <c t="s" s="20" r="K2">
+      <c t="s" s="19" r="F2">
         <v>42</v>
       </c>
-      <c s="17" r="L2"/>
+      <c t="s" s="19" r="G2">
+        <v>43</v>
+      </c>
+      <c t="s" s="19" r="H2">
+        <v>44</v>
+      </c>
+      <c t="s" s="19" r="I2">
+        <v>45</v>
+      </c>
+      <c t="s" s="19" r="J2">
+        <v>46</v>
+      </c>
+      <c t="s" s="19" r="K2">
+        <v>47</v>
+      </c>
+      <c s="16" r="L2"/>
       <c s="14" r="M2"/>
       <c s="26" r="N2"/>
-      <c s="5" r="O2"/>
-      <c s="5" r="P2"/>
-      <c s="5" r="Q2"/>
-      <c s="5" r="R2"/>
-      <c s="5" r="S2"/>
-      <c s="5" r="T2"/>
-      <c s="5" r="U2"/>
-      <c s="5" r="V2"/>
-      <c s="5" r="W2"/>
-      <c s="5" r="X2"/>
-      <c s="5" r="Y2"/>
+      <c s="6" r="O2"/>
+      <c s="6" r="P2"/>
+      <c s="6" r="Q2"/>
+      <c s="6" r="R2"/>
+      <c s="6" r="S2"/>
+      <c s="6" r="T2"/>
+      <c s="6" r="U2"/>
+      <c s="6" r="V2"/>
+      <c s="6" r="W2"/>
+      <c s="6" r="X2"/>
+      <c s="6" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
       <c s="3" r="A3">
@@ -2620,34 +2882,34 @@
       <c s="8" r="K3">
         <v>1</v>
       </c>
-      <c s="41" r="L3">
+      <c s="42" r="L3">
         <v>3</v>
       </c>
       <c s="10" r="M3">
         <v>5</v>
       </c>
       <c s="26" r="N3"/>
-      <c s="5" r="O3"/>
-      <c s="5" r="P3"/>
-      <c s="5" r="Q3"/>
-      <c s="5" r="R3"/>
-      <c s="5" r="S3"/>
-      <c s="5" r="T3"/>
-      <c s="5" r="U3"/>
-      <c s="5" r="V3"/>
-      <c s="5" r="W3"/>
-      <c s="5" r="X3"/>
-      <c s="5" r="Y3"/>
+      <c s="6" r="O3"/>
+      <c s="6" r="P3"/>
+      <c s="6" r="Q3"/>
+      <c s="6" r="R3"/>
+      <c s="6" r="S3"/>
+      <c s="6" r="T3"/>
+      <c s="6" r="U3"/>
+      <c s="6" r="V3"/>
+      <c s="6" r="W3"/>
+      <c s="6" r="X3"/>
+      <c s="6" r="Y3"/>
     </row>
     <row r="4">
       <c s="3" r="A4">
         <v>2</v>
       </c>
-      <c s="32" r="B4">
+      <c s="31" r="B4">
         <f>SUM(C4:D4)</f>
         <v>3.5</v>
       </c>
-      <c s="4" r="C4">
+      <c s="5" r="C4">
         <f>SUM(E4:K4)</f>
         <v>3.5</v>
       </c>
@@ -2675,34 +2937,34 @@
       <c s="15" r="K4">
         <v>0</v>
       </c>
-      <c s="44" r="L4">
+      <c s="43" r="L4">
         <v>4</v>
       </c>
-      <c s="30" r="M4">
+      <c s="29" r="M4">
         <v>5</v>
       </c>
       <c s="26" r="N4"/>
-      <c s="5" r="O4"/>
-      <c s="5" r="P4"/>
-      <c s="5" r="Q4"/>
-      <c s="5" r="R4"/>
-      <c s="5" r="S4"/>
-      <c s="5" r="T4"/>
-      <c s="5" r="U4"/>
-      <c s="5" r="V4"/>
-      <c s="5" r="W4"/>
-      <c s="5" r="X4"/>
-      <c s="5" r="Y4"/>
+      <c s="6" r="O4"/>
+      <c s="6" r="P4"/>
+      <c s="6" r="Q4"/>
+      <c s="6" r="R4"/>
+      <c s="6" r="S4"/>
+      <c s="6" r="T4"/>
+      <c s="6" r="U4"/>
+      <c s="6" r="V4"/>
+      <c s="6" r="W4"/>
+      <c s="6" r="X4"/>
+      <c s="6" r="Y4"/>
     </row>
     <row r="5">
       <c s="3" r="A5">
         <v>3</v>
       </c>
-      <c s="32" r="B5">
+      <c s="31" r="B5">
         <f>SUM(C5:D5)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C5">
+      <c s="5" r="C5">
         <f>SUM(E5:K5)</f>
         <v>8</v>
       </c>
@@ -2730,34 +2992,34 @@
       <c s="15" r="K5">
         <v>1</v>
       </c>
-      <c s="44" r="L5">
+      <c s="43" r="L5">
         <v>6</v>
       </c>
-      <c s="30" r="M5">
+      <c s="29" r="M5">
         <v>8</v>
       </c>
       <c s="26" r="N5"/>
-      <c s="5" r="O5"/>
-      <c s="5" r="P5"/>
-      <c s="5" r="Q5"/>
-      <c s="5" r="R5"/>
-      <c s="5" r="S5"/>
-      <c s="5" r="T5"/>
-      <c s="5" r="U5"/>
-      <c s="5" r="V5"/>
-      <c s="5" r="W5"/>
-      <c s="5" r="X5"/>
-      <c s="5" r="Y5"/>
+      <c s="6" r="O5"/>
+      <c s="6" r="P5"/>
+      <c s="6" r="Q5"/>
+      <c s="6" r="R5"/>
+      <c s="6" r="S5"/>
+      <c s="6" r="T5"/>
+      <c s="6" r="U5"/>
+      <c s="6" r="V5"/>
+      <c s="6" r="W5"/>
+      <c s="6" r="X5"/>
+      <c s="6" r="Y5"/>
     </row>
     <row r="6">
       <c s="3" r="A6">
         <v>4</v>
       </c>
-      <c s="32" r="B6">
+      <c s="31" r="B6">
         <f>SUM(C6:D6)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C6">
+      <c s="5" r="C6">
         <f>SUM(E6:K6)</f>
         <v>8</v>
       </c>
@@ -2785,34 +3047,34 @@
       <c s="15" r="K6">
         <v>0</v>
       </c>
-      <c s="44" r="L6">
+      <c s="43" r="L6">
         <v>7</v>
       </c>
-      <c s="30" r="M6">
+      <c s="29" r="M6">
         <v>9</v>
       </c>
       <c s="26" r="N6"/>
-      <c s="5" r="O6"/>
-      <c s="5" r="P6"/>
-      <c s="5" r="Q6"/>
-      <c s="5" r="R6"/>
-      <c s="5" r="S6"/>
-      <c s="5" r="T6"/>
-      <c s="5" r="U6"/>
-      <c s="5" r="V6"/>
-      <c s="5" r="W6"/>
-      <c s="5" r="X6"/>
-      <c s="5" r="Y6"/>
+      <c s="6" r="O6"/>
+      <c s="6" r="P6"/>
+      <c s="6" r="Q6"/>
+      <c s="6" r="R6"/>
+      <c s="6" r="S6"/>
+      <c s="6" r="T6"/>
+      <c s="6" r="U6"/>
+      <c s="6" r="V6"/>
+      <c s="6" r="W6"/>
+      <c s="6" r="X6"/>
+      <c s="6" r="Y6"/>
     </row>
     <row r="7">
       <c s="3" r="A7">
         <v>5</v>
       </c>
-      <c s="32" r="B7">
+      <c s="31" r="B7">
         <f>SUM(C7:D7)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C7">
+      <c s="5" r="C7">
         <f>SUM(E7:K7)</f>
         <v>8</v>
       </c>
@@ -2840,34 +3102,34 @@
       <c s="15" r="K7">
         <v>1</v>
       </c>
-      <c s="44" r="L7">
+      <c s="43" r="L7">
         <v>6</v>
       </c>
-      <c s="30" r="M7">
+      <c s="29" r="M7">
         <v>8</v>
       </c>
       <c s="26" r="N7"/>
-      <c s="5" r="O7"/>
-      <c s="5" r="P7"/>
-      <c s="5" r="Q7"/>
-      <c s="5" r="R7"/>
-      <c s="5" r="S7"/>
-      <c s="5" r="T7"/>
-      <c s="5" r="U7"/>
-      <c s="5" r="V7"/>
-      <c s="5" r="W7"/>
-      <c s="5" r="X7"/>
-      <c s="5" r="Y7"/>
+      <c s="6" r="O7"/>
+      <c s="6" r="P7"/>
+      <c s="6" r="Q7"/>
+      <c s="6" r="R7"/>
+      <c s="6" r="S7"/>
+      <c s="6" r="T7"/>
+      <c s="6" r="U7"/>
+      <c s="6" r="V7"/>
+      <c s="6" r="W7"/>
+      <c s="6" r="X7"/>
+      <c s="6" r="Y7"/>
     </row>
     <row r="8">
       <c s="3" r="A8">
         <v>6</v>
       </c>
-      <c s="32" r="B8">
+      <c s="31" r="B8">
         <f>SUM(C8:D8)</f>
         <v>8</v>
       </c>
-      <c s="4" r="C8">
+      <c s="5" r="C8">
         <f>SUM(E8:K8)</f>
         <v>7</v>
       </c>
@@ -2895,34 +3157,34 @@
       <c s="15" r="K8">
         <v>0</v>
       </c>
-      <c s="44" r="L8">
+      <c s="43" r="L8">
         <v>8</v>
       </c>
-      <c s="30" r="M8">
+      <c s="29" r="M8">
         <v>9</v>
       </c>
       <c s="26" r="N8"/>
-      <c s="5" r="O8"/>
-      <c s="5" r="P8"/>
-      <c s="5" r="Q8"/>
-      <c s="5" r="R8"/>
-      <c s="5" r="S8"/>
-      <c s="5" r="T8"/>
-      <c s="5" r="U8"/>
-      <c s="5" r="V8"/>
-      <c s="5" r="W8"/>
-      <c s="5" r="X8"/>
-      <c s="5" r="Y8"/>
+      <c s="6" r="O8"/>
+      <c s="6" r="P8"/>
+      <c s="6" r="Q8"/>
+      <c s="6" r="R8"/>
+      <c s="6" r="S8"/>
+      <c s="6" r="T8"/>
+      <c s="6" r="U8"/>
+      <c s="6" r="V8"/>
+      <c s="6" r="W8"/>
+      <c s="6" r="X8"/>
+      <c s="6" r="Y8"/>
     </row>
     <row r="9">
       <c s="3" r="A9">
         <v>7</v>
       </c>
-      <c s="32" r="B9">
+      <c s="31" r="B9">
         <f>SUM(C9:D9)</f>
         <v>10</v>
       </c>
-      <c s="4" r="C9">
+      <c s="5" r="C9">
         <f>SUM(E9:K9)</f>
         <v>9</v>
       </c>
@@ -2950,34 +3212,34 @@
       <c s="15" r="K9">
         <v>0</v>
       </c>
-      <c s="44" r="L9">
+      <c s="43" r="L9">
         <v>8</v>
       </c>
-      <c s="30" r="M9">
+      <c s="29" r="M9">
         <v>10</v>
       </c>
       <c s="26" r="N9"/>
-      <c s="5" r="O9"/>
-      <c s="5" r="P9"/>
-      <c s="5" r="Q9"/>
-      <c s="5" r="R9"/>
-      <c s="5" r="S9"/>
-      <c s="5" r="T9"/>
-      <c s="5" r="U9"/>
-      <c s="5" r="V9"/>
-      <c s="5" r="W9"/>
-      <c s="5" r="X9"/>
-      <c s="5" r="Y9"/>
+      <c s="6" r="O9"/>
+      <c s="6" r="P9"/>
+      <c s="6" r="Q9"/>
+      <c s="6" r="R9"/>
+      <c s="6" r="S9"/>
+      <c s="6" r="T9"/>
+      <c s="6" r="U9"/>
+      <c s="6" r="V9"/>
+      <c s="6" r="W9"/>
+      <c s="6" r="X9"/>
+      <c s="6" r="Y9"/>
     </row>
     <row r="10">
       <c s="3" r="A10">
         <v>8</v>
       </c>
-      <c s="32" r="B10">
+      <c s="31" r="B10">
         <f>SUM(C10:D10)</f>
         <v>10</v>
       </c>
-      <c s="4" r="C10">
+      <c s="5" r="C10">
         <f>SUM(E10:K10)</f>
         <v>9</v>
       </c>
@@ -3005,104 +3267,140 @@
       <c s="15" r="K10">
         <v>0</v>
       </c>
-      <c s="44" r="L10">
+      <c s="43" r="L10">
         <v>7</v>
       </c>
-      <c s="30" r="M10">
+      <c s="29" r="M10">
         <v>8</v>
       </c>
       <c s="26" r="N10"/>
-      <c s="5" r="O10"/>
-      <c s="5" r="P10"/>
-      <c s="5" r="Q10"/>
-      <c s="5" r="R10"/>
-      <c s="5" r="S10"/>
-      <c s="5" r="T10"/>
-      <c s="5" r="U10"/>
-      <c s="5" r="V10"/>
-      <c s="5" r="W10"/>
-      <c s="5" r="X10"/>
-      <c s="5" r="Y10"/>
+      <c s="6" r="O10"/>
+      <c s="6" r="P10"/>
+      <c s="6" r="Q10"/>
+      <c s="6" r="R10"/>
+      <c s="6" r="S10"/>
+      <c s="6" r="T10"/>
+      <c s="6" r="U10"/>
+      <c s="6" r="V10"/>
+      <c s="6" r="W10"/>
+      <c s="6" r="X10"/>
+      <c s="6" r="Y10"/>
     </row>
     <row r="11">
       <c s="3" r="A11">
         <v>9</v>
       </c>
-      <c s="32" r="B11">
+      <c s="31" r="B11">
         <f>SUM(C11:D11)</f>
-        <v>0</v>
-      </c>
-      <c s="4" r="C11">
+        <v>8</v>
+      </c>
+      <c s="5" r="C11">
         <f>SUM(E11:K11)</f>
-        <v>0</v>
-      </c>
-      <c s="2" r="D11"/>
-      <c s="15" r="E11"/>
-      <c s="15" r="F11"/>
-      <c s="15" r="G11"/>
-      <c s="15" r="H11"/>
-      <c s="15" r="I11"/>
-      <c s="15" r="J11"/>
-      <c s="15" r="K11"/>
-      <c s="44" r="L11"/>
-      <c s="30" r="M11"/>
+        <v>7</v>
+      </c>
+      <c s="2" r="D11">
+        <v>1</v>
+      </c>
+      <c s="15" r="E11">
+        <v>1</v>
+      </c>
+      <c s="15" r="F11">
+        <v>1</v>
+      </c>
+      <c s="15" r="G11">
+        <v>0</v>
+      </c>
+      <c s="15" r="H11">
+        <v>2</v>
+      </c>
+      <c s="15" r="I11">
+        <v>2</v>
+      </c>
+      <c s="15" r="J11">
+        <v>1</v>
+      </c>
+      <c s="15" r="K11">
+        <v>0</v>
+      </c>
+      <c s="43" r="L11">
+        <v>7</v>
+      </c>
+      <c s="29" r="M11">
+        <v>8</v>
+      </c>
       <c s="26" r="N11"/>
-      <c s="5" r="O11"/>
-      <c s="5" r="P11"/>
-      <c s="5" r="Q11"/>
-      <c s="5" r="R11"/>
-      <c s="5" r="S11"/>
-      <c s="5" r="T11"/>
-      <c s="5" r="U11"/>
-      <c s="5" r="V11"/>
-      <c s="5" r="W11"/>
-      <c s="5" r="X11"/>
-      <c s="5" r="Y11"/>
+      <c s="6" r="O11"/>
+      <c s="6" r="P11"/>
+      <c s="6" r="Q11"/>
+      <c s="6" r="R11"/>
+      <c s="6" r="S11"/>
+      <c s="6" r="T11"/>
+      <c s="6" r="U11"/>
+      <c s="6" r="V11"/>
+      <c s="6" r="W11"/>
+      <c s="6" r="X11"/>
+      <c s="6" r="Y11"/>
     </row>
     <row r="12">
       <c s="3" r="A12">
         <v>10</v>
       </c>
-      <c s="32" r="B12">
+      <c s="31" r="B12">
         <f>SUM(C12:D12)</f>
-        <v>0</v>
-      </c>
-      <c s="4" r="C12">
+        <v>9</v>
+      </c>
+      <c s="5" r="C12">
         <f>SUM(E12:K12)</f>
-        <v>0</v>
-      </c>
-      <c s="2" r="D12"/>
-      <c s="15" r="E12"/>
-      <c s="15" r="F12"/>
-      <c s="15" r="G12"/>
-      <c s="15" r="H12"/>
-      <c s="15" r="I12"/>
-      <c s="15" r="J12"/>
-      <c s="15" r="K12"/>
-      <c s="44" r="L12"/>
-      <c s="30" r="M12"/>
+        <v>8</v>
+      </c>
+      <c s="2" r="D12">
+        <v>1</v>
+      </c>
+      <c s="15" r="E12">
+        <v>1</v>
+      </c>
+      <c s="15" r="F12">
+        <v>0</v>
+      </c>
+      <c s="15" r="G12">
+        <v>0</v>
+      </c>
+      <c s="15" r="H12">
+        <v>4</v>
+      </c>
+      <c s="15" r="I12">
+        <v>1</v>
+      </c>
+      <c s="15" r="J12">
+        <v>1</v>
+      </c>
+      <c s="15" r="K12">
+        <v>1</v>
+      </c>
+      <c s="43" r="L12"/>
+      <c s="29" r="M12"/>
       <c s="26" r="N12"/>
-      <c s="5" r="O12"/>
-      <c s="5" r="P12"/>
-      <c s="5" r="Q12"/>
-      <c s="5" r="R12"/>
-      <c s="5" r="S12"/>
-      <c s="5" r="T12"/>
-      <c s="5" r="U12"/>
-      <c s="5" r="V12"/>
-      <c s="5" r="W12"/>
-      <c s="5" r="X12"/>
-      <c s="5" r="Y12"/>
+      <c s="6" r="O12"/>
+      <c s="6" r="P12"/>
+      <c s="6" r="Q12"/>
+      <c s="6" r="R12"/>
+      <c s="6" r="S12"/>
+      <c s="6" r="T12"/>
+      <c s="6" r="U12"/>
+      <c s="6" r="V12"/>
+      <c s="6" r="W12"/>
+      <c s="6" r="X12"/>
+      <c s="6" r="Y12"/>
     </row>
     <row r="13">
       <c s="3" r="A13">
         <v>11</v>
       </c>
-      <c s="32" r="B13">
+      <c s="31" r="B13">
         <f>SUM(C13:D13)</f>
         <v>0</v>
       </c>
-      <c s="4" r="C13">
+      <c s="5" r="C13">
         <f>SUM(E13:K13)</f>
         <v>0</v>
       </c>
@@ -3114,30 +3412,30 @@
       <c s="15" r="I13"/>
       <c s="15" r="J13"/>
       <c s="15" r="K13"/>
-      <c s="44" r="L13"/>
-      <c s="30" r="M13"/>
+      <c s="43" r="L13"/>
+      <c s="29" r="M13"/>
       <c s="26" r="N13"/>
-      <c s="5" r="O13"/>
-      <c s="5" r="P13"/>
-      <c s="5" r="Q13"/>
-      <c s="5" r="R13"/>
-      <c s="5" r="S13"/>
-      <c s="5" r="T13"/>
-      <c s="5" r="U13"/>
-      <c s="5" r="V13"/>
-      <c s="5" r="W13"/>
-      <c s="5" r="X13"/>
-      <c s="5" r="Y13"/>
+      <c s="6" r="O13"/>
+      <c s="6" r="P13"/>
+      <c s="6" r="Q13"/>
+      <c s="6" r="R13"/>
+      <c s="6" r="S13"/>
+      <c s="6" r="T13"/>
+      <c s="6" r="U13"/>
+      <c s="6" r="V13"/>
+      <c s="6" r="W13"/>
+      <c s="6" r="X13"/>
+      <c s="6" r="Y13"/>
     </row>
     <row r="14">
       <c s="3" r="A14">
         <v>12</v>
       </c>
-      <c s="32" r="B14">
+      <c s="31" r="B14">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c s="4" r="C14">
+      <c s="5" r="C14">
         <f>SUM(E14:K14)</f>
         <v>0</v>
       </c>
@@ -3149,25 +3447,25 @@
       <c s="15" r="I14"/>
       <c s="15" r="J14"/>
       <c s="15" r="K14"/>
-      <c s="44" r="L14"/>
-      <c s="30" r="M14"/>
+      <c s="43" r="L14"/>
+      <c s="29" r="M14"/>
       <c s="26" r="N14"/>
-      <c s="5" r="O14"/>
-      <c s="5" r="P14"/>
-      <c s="5" r="Q14"/>
-      <c s="5" r="R14"/>
-      <c s="5" r="S14"/>
-      <c s="5" r="T14"/>
-      <c s="5" r="U14"/>
-      <c s="5" r="V14"/>
-      <c s="5" r="W14"/>
-      <c s="5" r="X14"/>
-      <c s="5" r="Y14"/>
+      <c s="6" r="O14"/>
+      <c s="6" r="P14"/>
+      <c s="6" r="Q14"/>
+      <c s="6" r="R14"/>
+      <c s="6" r="S14"/>
+      <c s="6" r="T14"/>
+      <c s="6" r="U14"/>
+      <c s="6" r="V14"/>
+      <c s="6" r="W14"/>
+      <c s="6" r="X14"/>
+      <c s="6" r="Y14"/>
     </row>
     <row r="15">
       <c s="3" r="A15"/>
-      <c s="32" r="B15"/>
-      <c s="4" r="C15"/>
+      <c s="31" r="B15"/>
+      <c s="5" r="C15"/>
       <c s="2" r="D15"/>
       <c s="15" r="E15"/>
       <c s="15" r="F15"/>
@@ -3176,25 +3474,25 @@
       <c s="15" r="I15"/>
       <c s="15" r="J15"/>
       <c s="15" r="K15"/>
-      <c s="44" r="L15"/>
-      <c s="30" r="M15"/>
+      <c s="43" r="L15"/>
+      <c s="29" r="M15"/>
       <c s="26" r="N15"/>
-      <c s="5" r="O15"/>
-      <c s="5" r="P15"/>
-      <c s="5" r="Q15"/>
-      <c s="5" r="R15"/>
-      <c s="5" r="S15"/>
-      <c s="5" r="T15"/>
-      <c s="5" r="U15"/>
-      <c s="5" r="V15"/>
-      <c s="5" r="W15"/>
-      <c s="5" r="X15"/>
-      <c s="5" r="Y15"/>
+      <c s="6" r="O15"/>
+      <c s="6" r="P15"/>
+      <c s="6" r="Q15"/>
+      <c s="6" r="R15"/>
+      <c s="6" r="S15"/>
+      <c s="6" r="T15"/>
+      <c s="6" r="U15"/>
+      <c s="6" r="V15"/>
+      <c s="6" r="W15"/>
+      <c s="6" r="X15"/>
+      <c s="6" r="Y15"/>
     </row>
     <row r="16">
       <c s="3" r="A16"/>
-      <c s="32" r="B16"/>
-      <c s="4" r="C16"/>
+      <c s="31" r="B16"/>
+      <c s="5" r="C16"/>
       <c s="2" r="D16"/>
       <c s="15" r="E16"/>
       <c s="15" r="F16"/>
@@ -3203,25 +3501,25 @@
       <c s="15" r="I16"/>
       <c s="15" r="J16"/>
       <c s="15" r="K16"/>
-      <c s="44" r="L16"/>
-      <c s="30" r="M16"/>
+      <c s="43" r="L16"/>
+      <c s="29" r="M16"/>
       <c s="26" r="N16"/>
-      <c s="5" r="O16"/>
-      <c s="5" r="P16"/>
-      <c s="5" r="Q16"/>
-      <c s="5" r="R16"/>
-      <c s="5" r="S16"/>
-      <c s="5" r="T16"/>
-      <c s="5" r="U16"/>
-      <c s="5" r="V16"/>
-      <c s="5" r="W16"/>
-      <c s="5" r="X16"/>
-      <c s="5" r="Y16"/>
+      <c s="6" r="O16"/>
+      <c s="6" r="P16"/>
+      <c s="6" r="Q16"/>
+      <c s="6" r="R16"/>
+      <c s="6" r="S16"/>
+      <c s="6" r="T16"/>
+      <c s="6" r="U16"/>
+      <c s="6" r="V16"/>
+      <c s="6" r="W16"/>
+      <c s="6" r="X16"/>
+      <c s="6" r="Y16"/>
     </row>
     <row r="17">
       <c s="3" r="A17"/>
-      <c s="32" r="B17"/>
-      <c s="4" r="C17"/>
+      <c s="31" r="B17"/>
+      <c s="5" r="C17"/>
       <c s="2" r="D17"/>
       <c s="15" r="E17"/>
       <c s="15" r="F17"/>
@@ -3230,25 +3528,25 @@
       <c s="15" r="I17"/>
       <c s="15" r="J17"/>
       <c s="15" r="K17"/>
-      <c s="44" r="L17"/>
-      <c s="30" r="M17"/>
+      <c s="43" r="L17"/>
+      <c s="29" r="M17"/>
       <c s="26" r="N17"/>
-      <c s="5" r="O17"/>
-      <c s="5" r="P17"/>
-      <c s="5" r="Q17"/>
-      <c s="5" r="R17"/>
-      <c s="5" r="S17"/>
-      <c s="5" r="T17"/>
-      <c s="5" r="U17"/>
-      <c s="5" r="V17"/>
-      <c s="5" r="W17"/>
-      <c s="5" r="X17"/>
-      <c s="5" r="Y17"/>
+      <c s="6" r="O17"/>
+      <c s="6" r="P17"/>
+      <c s="6" r="Q17"/>
+      <c s="6" r="R17"/>
+      <c s="6" r="S17"/>
+      <c s="6" r="T17"/>
+      <c s="6" r="U17"/>
+      <c s="6" r="V17"/>
+      <c s="6" r="W17"/>
+      <c s="6" r="X17"/>
+      <c s="6" r="Y17"/>
     </row>
     <row r="18">
       <c s="3" r="A18"/>
-      <c s="32" r="B18"/>
-      <c s="4" r="C18"/>
+      <c s="31" r="B18"/>
+      <c s="5" r="C18"/>
       <c s="2" r="D18"/>
       <c s="15" r="E18"/>
       <c s="15" r="F18"/>
@@ -3257,25 +3555,25 @@
       <c s="15" r="I18"/>
       <c s="15" r="J18"/>
       <c s="15" r="K18"/>
-      <c s="44" r="L18"/>
-      <c s="30" r="M18"/>
+      <c s="43" r="L18"/>
+      <c s="29" r="M18"/>
       <c s="26" r="N18"/>
-      <c s="5" r="O18"/>
-      <c s="5" r="P18"/>
-      <c s="5" r="Q18"/>
-      <c s="5" r="R18"/>
-      <c s="5" r="S18"/>
-      <c s="5" r="T18"/>
-      <c s="5" r="U18"/>
-      <c s="5" r="V18"/>
-      <c s="5" r="W18"/>
-      <c s="5" r="X18"/>
-      <c s="5" r="Y18"/>
+      <c s="6" r="O18"/>
+      <c s="6" r="P18"/>
+      <c s="6" r="Q18"/>
+      <c s="6" r="R18"/>
+      <c s="6" r="S18"/>
+      <c s="6" r="T18"/>
+      <c s="6" r="U18"/>
+      <c s="6" r="V18"/>
+      <c s="6" r="W18"/>
+      <c s="6" r="X18"/>
+      <c s="6" r="Y18"/>
     </row>
     <row r="19">
       <c s="3" r="A19"/>
-      <c s="32" r="B19"/>
-      <c s="4" r="C19"/>
+      <c s="31" r="B19"/>
+      <c s="5" r="C19"/>
       <c s="2" r="D19"/>
       <c s="15" r="E19"/>
       <c s="15" r="F19"/>
@@ -3284,25 +3582,25 @@
       <c s="15" r="I19"/>
       <c s="15" r="J19"/>
       <c s="15" r="K19"/>
-      <c s="44" r="L19"/>
-      <c s="30" r="M19"/>
+      <c s="43" r="L19"/>
+      <c s="29" r="M19"/>
       <c s="26" r="N19"/>
-      <c s="5" r="O19"/>
-      <c s="5" r="P19"/>
-      <c s="5" r="Q19"/>
-      <c s="5" r="R19"/>
-      <c s="5" r="S19"/>
-      <c s="5" r="T19"/>
-      <c s="5" r="U19"/>
-      <c s="5" r="V19"/>
-      <c s="5" r="W19"/>
-      <c s="5" r="X19"/>
-      <c s="5" r="Y19"/>
+      <c s="6" r="O19"/>
+      <c s="6" r="P19"/>
+      <c s="6" r="Q19"/>
+      <c s="6" r="R19"/>
+      <c s="6" r="S19"/>
+      <c s="6" r="T19"/>
+      <c s="6" r="U19"/>
+      <c s="6" r="V19"/>
+      <c s="6" r="W19"/>
+      <c s="6" r="X19"/>
+      <c s="6" r="Y19"/>
     </row>
     <row r="20">
       <c s="3" r="A20"/>
-      <c s="32" r="B20"/>
-      <c s="4" r="C20"/>
+      <c s="31" r="B20"/>
+      <c s="5" r="C20"/>
       <c s="2" r="D20"/>
       <c s="15" r="E20"/>
       <c s="15" r="F20"/>
@@ -3311,25 +3609,25 @@
       <c s="15" r="I20"/>
       <c s="15" r="J20"/>
       <c s="15" r="K20"/>
-      <c s="44" r="L20"/>
-      <c s="30" r="M20"/>
+      <c s="43" r="L20"/>
+      <c s="29" r="M20"/>
       <c s="26" r="N20"/>
-      <c s="5" r="O20"/>
-      <c s="5" r="P20"/>
-      <c s="5" r="Q20"/>
-      <c s="5" r="R20"/>
-      <c s="5" r="S20"/>
-      <c s="5" r="T20"/>
-      <c s="5" r="U20"/>
-      <c s="5" r="V20"/>
-      <c s="5" r="W20"/>
-      <c s="5" r="X20"/>
-      <c s="5" r="Y20"/>
+      <c s="6" r="O20"/>
+      <c s="6" r="P20"/>
+      <c s="6" r="Q20"/>
+      <c s="6" r="R20"/>
+      <c s="6" r="S20"/>
+      <c s="6" r="T20"/>
+      <c s="6" r="U20"/>
+      <c s="6" r="V20"/>
+      <c s="6" r="W20"/>
+      <c s="6" r="X20"/>
+      <c s="6" r="Y20"/>
     </row>
     <row r="21">
       <c s="3" r="A21"/>
-      <c s="32" r="B21"/>
-      <c s="4" r="C21"/>
+      <c s="31" r="B21"/>
+      <c s="5" r="C21"/>
       <c s="2" r="D21"/>
       <c s="15" r="E21"/>
       <c s="15" r="F21"/>
@@ -3338,25 +3636,25 @@
       <c s="15" r="I21"/>
       <c s="15" r="J21"/>
       <c s="15" r="K21"/>
-      <c s="44" r="L21"/>
-      <c s="30" r="M21"/>
+      <c s="43" r="L21"/>
+      <c s="29" r="M21"/>
       <c s="26" r="N21"/>
-      <c s="5" r="O21"/>
-      <c s="5" r="P21"/>
-      <c s="5" r="Q21"/>
-      <c s="5" r="R21"/>
-      <c s="5" r="S21"/>
-      <c s="5" r="T21"/>
-      <c s="5" r="U21"/>
-      <c s="5" r="V21"/>
-      <c s="5" r="W21"/>
-      <c s="5" r="X21"/>
-      <c s="5" r="Y21"/>
+      <c s="6" r="O21"/>
+      <c s="6" r="P21"/>
+      <c s="6" r="Q21"/>
+      <c s="6" r="R21"/>
+      <c s="6" r="S21"/>
+      <c s="6" r="T21"/>
+      <c s="6" r="U21"/>
+      <c s="6" r="V21"/>
+      <c s="6" r="W21"/>
+      <c s="6" r="X21"/>
+      <c s="6" r="Y21"/>
     </row>
     <row r="22">
       <c s="3" r="A22"/>
-      <c s="32" r="B22"/>
-      <c s="4" r="C22"/>
+      <c s="31" r="B22"/>
+      <c s="5" r="C22"/>
       <c s="2" r="D22"/>
       <c s="15" r="E22"/>
       <c s="15" r="F22"/>
@@ -3365,25 +3663,25 @@
       <c s="15" r="I22"/>
       <c s="15" r="J22"/>
       <c s="15" r="K22"/>
-      <c s="44" r="L22"/>
-      <c s="30" r="M22"/>
+      <c s="43" r="L22"/>
+      <c s="29" r="M22"/>
       <c s="26" r="N22"/>
-      <c s="5" r="O22"/>
-      <c s="5" r="P22"/>
-      <c s="5" r="Q22"/>
-      <c s="5" r="R22"/>
-      <c s="5" r="S22"/>
-      <c s="5" r="T22"/>
-      <c s="5" r="U22"/>
-      <c s="5" r="V22"/>
-      <c s="5" r="W22"/>
-      <c s="5" r="X22"/>
-      <c s="5" r="Y22"/>
+      <c s="6" r="O22"/>
+      <c s="6" r="P22"/>
+      <c s="6" r="Q22"/>
+      <c s="6" r="R22"/>
+      <c s="6" r="S22"/>
+      <c s="6" r="T22"/>
+      <c s="6" r="U22"/>
+      <c s="6" r="V22"/>
+      <c s="6" r="W22"/>
+      <c s="6" r="X22"/>
+      <c s="6" r="Y22"/>
     </row>
     <row r="23">
       <c s="3" r="A23"/>
-      <c s="32" r="B23"/>
-      <c s="4" r="C23"/>
+      <c s="31" r="B23"/>
+      <c s="5" r="C23"/>
       <c s="2" r="D23"/>
       <c s="15" r="E23"/>
       <c s="15" r="F23"/>
@@ -3392,25 +3690,25 @@
       <c s="15" r="I23"/>
       <c s="15" r="J23"/>
       <c s="15" r="K23"/>
-      <c s="44" r="L23"/>
-      <c s="30" r="M23"/>
+      <c s="43" r="L23"/>
+      <c s="29" r="M23"/>
       <c s="26" r="N23"/>
-      <c s="5" r="O23"/>
-      <c s="5" r="P23"/>
-      <c s="5" r="Q23"/>
-      <c s="5" r="R23"/>
-      <c s="5" r="S23"/>
-      <c s="5" r="T23"/>
-      <c s="5" r="U23"/>
-      <c s="5" r="V23"/>
-      <c s="5" r="W23"/>
-      <c s="5" r="X23"/>
-      <c s="5" r="Y23"/>
+      <c s="6" r="O23"/>
+      <c s="6" r="P23"/>
+      <c s="6" r="Q23"/>
+      <c s="6" r="R23"/>
+      <c s="6" r="S23"/>
+      <c s="6" r="T23"/>
+      <c s="6" r="U23"/>
+      <c s="6" r="V23"/>
+      <c s="6" r="W23"/>
+      <c s="6" r="X23"/>
+      <c s="6" r="Y23"/>
     </row>
     <row r="24">
       <c s="3" r="A24"/>
-      <c s="32" r="B24"/>
-      <c s="4" r="C24"/>
+      <c s="31" r="B24"/>
+      <c s="5" r="C24"/>
       <c s="2" r="D24"/>
       <c s="15" r="E24"/>
       <c s="15" r="F24"/>
@@ -3419,25 +3717,25 @@
       <c s="15" r="I24"/>
       <c s="15" r="J24"/>
       <c s="15" r="K24"/>
-      <c s="44" r="L24"/>
-      <c s="30" r="M24"/>
+      <c s="43" r="L24"/>
+      <c s="29" r="M24"/>
       <c s="26" r="N24"/>
-      <c s="5" r="O24"/>
-      <c s="5" r="P24"/>
-      <c s="5" r="Q24"/>
-      <c s="5" r="R24"/>
-      <c s="5" r="S24"/>
-      <c s="5" r="T24"/>
-      <c s="5" r="U24"/>
-      <c s="5" r="V24"/>
-      <c s="5" r="W24"/>
-      <c s="5" r="X24"/>
-      <c s="5" r="Y24"/>
+      <c s="6" r="O24"/>
+      <c s="6" r="P24"/>
+      <c s="6" r="Q24"/>
+      <c s="6" r="R24"/>
+      <c s="6" r="S24"/>
+      <c s="6" r="T24"/>
+      <c s="6" r="U24"/>
+      <c s="6" r="V24"/>
+      <c s="6" r="W24"/>
+      <c s="6" r="X24"/>
+      <c s="6" r="Y24"/>
     </row>
     <row r="25">
       <c s="3" r="A25"/>
-      <c s="32" r="B25"/>
-      <c s="4" r="C25"/>
+      <c s="31" r="B25"/>
+      <c s="5" r="C25"/>
       <c s="2" r="D25"/>
       <c s="15" r="E25"/>
       <c s="15" r="F25"/>
@@ -3446,25 +3744,25 @@
       <c s="15" r="I25"/>
       <c s="15" r="J25"/>
       <c s="15" r="K25"/>
-      <c s="44" r="L25"/>
-      <c s="30" r="M25"/>
+      <c s="43" r="L25"/>
+      <c s="29" r="M25"/>
       <c s="26" r="N25"/>
-      <c s="5" r="O25"/>
-      <c s="5" r="P25"/>
-      <c s="5" r="Q25"/>
-      <c s="5" r="R25"/>
-      <c s="5" r="S25"/>
-      <c s="5" r="T25"/>
-      <c s="5" r="U25"/>
-      <c s="5" r="V25"/>
-      <c s="5" r="W25"/>
-      <c s="5" r="X25"/>
-      <c s="5" r="Y25"/>
+      <c s="6" r="O25"/>
+      <c s="6" r="P25"/>
+      <c s="6" r="Q25"/>
+      <c s="6" r="R25"/>
+      <c s="6" r="S25"/>
+      <c s="6" r="T25"/>
+      <c s="6" r="U25"/>
+      <c s="6" r="V25"/>
+      <c s="6" r="W25"/>
+      <c s="6" r="X25"/>
+      <c s="6" r="Y25"/>
     </row>
     <row r="26">
       <c s="3" r="A26"/>
-      <c s="32" r="B26"/>
-      <c s="4" r="C26"/>
+      <c s="31" r="B26"/>
+      <c s="5" r="C26"/>
       <c s="2" r="D26"/>
       <c s="15" r="E26"/>
       <c s="15" r="F26"/>
@@ -3473,25 +3771,25 @@
       <c s="15" r="I26"/>
       <c s="15" r="J26"/>
       <c s="15" r="K26"/>
-      <c s="44" r="L26"/>
-      <c s="30" r="M26"/>
+      <c s="43" r="L26"/>
+      <c s="29" r="M26"/>
       <c s="26" r="N26"/>
-      <c s="5" r="O26"/>
-      <c s="5" r="P26"/>
-      <c s="5" r="Q26"/>
-      <c s="5" r="R26"/>
-      <c s="5" r="S26"/>
-      <c s="5" r="T26"/>
-      <c s="5" r="U26"/>
-      <c s="5" r="V26"/>
-      <c s="5" r="W26"/>
-      <c s="5" r="X26"/>
-      <c s="5" r="Y26"/>
+      <c s="6" r="O26"/>
+      <c s="6" r="P26"/>
+      <c s="6" r="Q26"/>
+      <c s="6" r="R26"/>
+      <c s="6" r="S26"/>
+      <c s="6" r="T26"/>
+      <c s="6" r="U26"/>
+      <c s="6" r="V26"/>
+      <c s="6" r="W26"/>
+      <c s="6" r="X26"/>
+      <c s="6" r="Y26"/>
     </row>
     <row r="27">
       <c s="3" r="A27"/>
-      <c s="32" r="B27"/>
-      <c s="4" r="C27"/>
+      <c s="31" r="B27"/>
+      <c s="5" r="C27"/>
       <c s="2" r="D27"/>
       <c s="15" r="E27"/>
       <c s="15" r="F27"/>
@@ -3500,25 +3798,25 @@
       <c s="15" r="I27"/>
       <c s="15" r="J27"/>
       <c s="15" r="K27"/>
-      <c s="44" r="L27"/>
-      <c s="30" r="M27"/>
+      <c s="43" r="L27"/>
+      <c s="29" r="M27"/>
       <c s="26" r="N27"/>
-      <c s="5" r="O27"/>
-      <c s="5" r="P27"/>
-      <c s="5" r="Q27"/>
-      <c s="5" r="R27"/>
-      <c s="5" r="S27"/>
-      <c s="5" r="T27"/>
-      <c s="5" r="U27"/>
-      <c s="5" r="V27"/>
-      <c s="5" r="W27"/>
-      <c s="5" r="X27"/>
-      <c s="5" r="Y27"/>
+      <c s="6" r="O27"/>
+      <c s="6" r="P27"/>
+      <c s="6" r="Q27"/>
+      <c s="6" r="R27"/>
+      <c s="6" r="S27"/>
+      <c s="6" r="T27"/>
+      <c s="6" r="U27"/>
+      <c s="6" r="V27"/>
+      <c s="6" r="W27"/>
+      <c s="6" r="X27"/>
+      <c s="6" r="Y27"/>
     </row>
     <row r="28">
       <c s="3" r="A28"/>
-      <c s="32" r="B28"/>
-      <c s="4" r="C28"/>
+      <c s="31" r="B28"/>
+      <c s="5" r="C28"/>
       <c s="2" r="D28"/>
       <c s="15" r="E28"/>
       <c s="15" r="F28"/>
@@ -3527,25 +3825,25 @@
       <c s="15" r="I28"/>
       <c s="15" r="J28"/>
       <c s="15" r="K28"/>
-      <c s="44" r="L28"/>
-      <c s="30" r="M28"/>
+      <c s="43" r="L28"/>
+      <c s="29" r="M28"/>
       <c s="26" r="N28"/>
-      <c s="5" r="O28"/>
-      <c s="5" r="P28"/>
-      <c s="5" r="Q28"/>
-      <c s="5" r="R28"/>
-      <c s="5" r="S28"/>
-      <c s="5" r="T28"/>
-      <c s="5" r="U28"/>
-      <c s="5" r="V28"/>
-      <c s="5" r="W28"/>
-      <c s="5" r="X28"/>
-      <c s="5" r="Y28"/>
+      <c s="6" r="O28"/>
+      <c s="6" r="P28"/>
+      <c s="6" r="Q28"/>
+      <c s="6" r="R28"/>
+      <c s="6" r="S28"/>
+      <c s="6" r="T28"/>
+      <c s="6" r="U28"/>
+      <c s="6" r="V28"/>
+      <c s="6" r="W28"/>
+      <c s="6" r="X28"/>
+      <c s="6" r="Y28"/>
     </row>
     <row r="29">
       <c s="3" r="A29"/>
-      <c s="32" r="B29"/>
-      <c s="4" r="C29"/>
+      <c s="31" r="B29"/>
+      <c s="5" r="C29"/>
       <c s="2" r="D29"/>
       <c s="15" r="E29"/>
       <c s="15" r="F29"/>
@@ -3554,25 +3852,25 @@
       <c s="15" r="I29"/>
       <c s="15" r="J29"/>
       <c s="15" r="K29"/>
-      <c s="44" r="L29"/>
-      <c s="30" r="M29"/>
+      <c s="43" r="L29"/>
+      <c s="29" r="M29"/>
       <c s="26" r="N29"/>
-      <c s="5" r="O29"/>
-      <c s="5" r="P29"/>
-      <c s="5" r="Q29"/>
-      <c s="5" r="R29"/>
-      <c s="5" r="S29"/>
-      <c s="5" r="T29"/>
-      <c s="5" r="U29"/>
-      <c s="5" r="V29"/>
-      <c s="5" r="W29"/>
-      <c s="5" r="X29"/>
-      <c s="5" r="Y29"/>
+      <c s="6" r="O29"/>
+      <c s="6" r="P29"/>
+      <c s="6" r="Q29"/>
+      <c s="6" r="R29"/>
+      <c s="6" r="S29"/>
+      <c s="6" r="T29"/>
+      <c s="6" r="U29"/>
+      <c s="6" r="V29"/>
+      <c s="6" r="W29"/>
+      <c s="6" r="X29"/>
+      <c s="6" r="Y29"/>
     </row>
     <row r="30">
       <c s="3" r="A30"/>
-      <c s="32" r="B30"/>
-      <c s="4" r="C30"/>
+      <c s="31" r="B30"/>
+      <c s="5" r="C30"/>
       <c s="2" r="D30"/>
       <c s="15" r="E30"/>
       <c s="15" r="F30"/>
@@ -3581,25 +3879,25 @@
       <c s="15" r="I30"/>
       <c s="15" r="J30"/>
       <c s="15" r="K30"/>
-      <c s="44" r="L30"/>
-      <c s="30" r="M30"/>
+      <c s="43" r="L30"/>
+      <c s="29" r="M30"/>
       <c s="26" r="N30"/>
-      <c s="5" r="O30"/>
-      <c s="5" r="P30"/>
-      <c s="5" r="Q30"/>
-      <c s="5" r="R30"/>
-      <c s="5" r="S30"/>
-      <c s="5" r="T30"/>
-      <c s="5" r="U30"/>
-      <c s="5" r="V30"/>
-      <c s="5" r="W30"/>
-      <c s="5" r="X30"/>
-      <c s="5" r="Y30"/>
+      <c s="6" r="O30"/>
+      <c s="6" r="P30"/>
+      <c s="6" r="Q30"/>
+      <c s="6" r="R30"/>
+      <c s="6" r="S30"/>
+      <c s="6" r="T30"/>
+      <c s="6" r="U30"/>
+      <c s="6" r="V30"/>
+      <c s="6" r="W30"/>
+      <c s="6" r="X30"/>
+      <c s="6" r="Y30"/>
     </row>
     <row r="31">
       <c s="3" r="A31"/>
-      <c s="32" r="B31"/>
-      <c s="4" r="C31"/>
+      <c s="31" r="B31"/>
+      <c s="5" r="C31"/>
       <c s="2" r="D31"/>
       <c s="15" r="E31"/>
       <c s="15" r="F31"/>
@@ -3608,25 +3906,25 @@
       <c s="15" r="I31"/>
       <c s="15" r="J31"/>
       <c s="15" r="K31"/>
-      <c s="44" r="L31"/>
-      <c s="30" r="M31"/>
+      <c s="43" r="L31"/>
+      <c s="29" r="M31"/>
       <c s="26" r="N31"/>
-      <c s="5" r="O31"/>
-      <c s="5" r="P31"/>
-      <c s="5" r="Q31"/>
-      <c s="5" r="R31"/>
-      <c s="5" r="S31"/>
-      <c s="5" r="T31"/>
-      <c s="5" r="U31"/>
-      <c s="5" r="V31"/>
-      <c s="5" r="W31"/>
-      <c s="5" r="X31"/>
-      <c s="5" r="Y31"/>
+      <c s="6" r="O31"/>
+      <c s="6" r="P31"/>
+      <c s="6" r="Q31"/>
+      <c s="6" r="R31"/>
+      <c s="6" r="S31"/>
+      <c s="6" r="T31"/>
+      <c s="6" r="U31"/>
+      <c s="6" r="V31"/>
+      <c s="6" r="W31"/>
+      <c s="6" r="X31"/>
+      <c s="6" r="Y31"/>
     </row>
     <row r="32">
       <c s="3" r="A32"/>
-      <c s="32" r="B32"/>
-      <c s="4" r="C32"/>
+      <c s="31" r="B32"/>
+      <c s="5" r="C32"/>
       <c s="2" r="D32"/>
       <c s="15" r="E32"/>
       <c s="15" r="F32"/>
@@ -3635,25 +3933,25 @@
       <c s="15" r="I32"/>
       <c s="15" r="J32"/>
       <c s="15" r="K32"/>
-      <c s="44" r="L32"/>
-      <c s="30" r="M32"/>
+      <c s="43" r="L32"/>
+      <c s="29" r="M32"/>
       <c s="26" r="N32"/>
-      <c s="5" r="O32"/>
-      <c s="5" r="P32"/>
-      <c s="5" r="Q32"/>
-      <c s="5" r="R32"/>
-      <c s="5" r="S32"/>
-      <c s="5" r="T32"/>
-      <c s="5" r="U32"/>
-      <c s="5" r="V32"/>
-      <c s="5" r="W32"/>
-      <c s="5" r="X32"/>
-      <c s="5" r="Y32"/>
+      <c s="6" r="O32"/>
+      <c s="6" r="P32"/>
+      <c s="6" r="Q32"/>
+      <c s="6" r="R32"/>
+      <c s="6" r="S32"/>
+      <c s="6" r="T32"/>
+      <c s="6" r="U32"/>
+      <c s="6" r="V32"/>
+      <c s="6" r="W32"/>
+      <c s="6" r="X32"/>
+      <c s="6" r="Y32"/>
     </row>
     <row r="33">
       <c s="3" r="A33"/>
-      <c s="32" r="B33"/>
-      <c s="4" r="C33"/>
+      <c s="31" r="B33"/>
+      <c s="5" r="C33"/>
       <c s="2" r="D33"/>
       <c s="15" r="E33"/>
       <c s="15" r="F33"/>
@@ -3662,25 +3960,25 @@
       <c s="15" r="I33"/>
       <c s="15" r="J33"/>
       <c s="15" r="K33"/>
-      <c s="44" r="L33"/>
-      <c s="30" r="M33"/>
+      <c s="43" r="L33"/>
+      <c s="29" r="M33"/>
       <c s="26" r="N33"/>
-      <c s="5" r="O33"/>
-      <c s="5" r="P33"/>
-      <c s="5" r="Q33"/>
-      <c s="5" r="R33"/>
-      <c s="5" r="S33"/>
-      <c s="5" r="T33"/>
-      <c s="5" r="U33"/>
-      <c s="5" r="V33"/>
-      <c s="5" r="W33"/>
-      <c s="5" r="X33"/>
-      <c s="5" r="Y33"/>
+      <c s="6" r="O33"/>
+      <c s="6" r="P33"/>
+      <c s="6" r="Q33"/>
+      <c s="6" r="R33"/>
+      <c s="6" r="S33"/>
+      <c s="6" r="T33"/>
+      <c s="6" r="U33"/>
+      <c s="6" r="V33"/>
+      <c s="6" r="W33"/>
+      <c s="6" r="X33"/>
+      <c s="6" r="Y33"/>
     </row>
     <row r="34">
       <c s="3" r="A34"/>
-      <c s="32" r="B34"/>
-      <c s="4" r="C34"/>
+      <c s="31" r="B34"/>
+      <c s="5" r="C34"/>
       <c s="2" r="D34"/>
       <c s="15" r="E34"/>
       <c s="15" r="F34"/>
@@ -3689,25 +3987,25 @@
       <c s="15" r="I34"/>
       <c s="15" r="J34"/>
       <c s="15" r="K34"/>
-      <c s="44" r="L34"/>
-      <c s="30" r="M34"/>
+      <c s="43" r="L34"/>
+      <c s="29" r="M34"/>
       <c s="26" r="N34"/>
-      <c s="5" r="O34"/>
-      <c s="5" r="P34"/>
-      <c s="5" r="Q34"/>
-      <c s="5" r="R34"/>
-      <c s="5" r="S34"/>
-      <c s="5" r="T34"/>
-      <c s="5" r="U34"/>
-      <c s="5" r="V34"/>
-      <c s="5" r="W34"/>
-      <c s="5" r="X34"/>
-      <c s="5" r="Y34"/>
+      <c s="6" r="O34"/>
+      <c s="6" r="P34"/>
+      <c s="6" r="Q34"/>
+      <c s="6" r="R34"/>
+      <c s="6" r="S34"/>
+      <c s="6" r="T34"/>
+      <c s="6" r="U34"/>
+      <c s="6" r="V34"/>
+      <c s="6" r="W34"/>
+      <c s="6" r="X34"/>
+      <c s="6" r="Y34"/>
     </row>
     <row r="35">
       <c s="3" r="A35"/>
-      <c s="32" r="B35"/>
-      <c s="4" r="C35"/>
+      <c s="31" r="B35"/>
+      <c s="5" r="C35"/>
       <c s="2" r="D35"/>
       <c s="15" r="E35"/>
       <c s="15" r="F35"/>
@@ -3716,25 +4014,25 @@
       <c s="15" r="I35"/>
       <c s="15" r="J35"/>
       <c s="15" r="K35"/>
-      <c s="44" r="L35"/>
-      <c s="30" r="M35"/>
+      <c s="43" r="L35"/>
+      <c s="29" r="M35"/>
       <c s="26" r="N35"/>
-      <c s="5" r="O35"/>
-      <c s="5" r="P35"/>
-      <c s="5" r="Q35"/>
-      <c s="5" r="R35"/>
-      <c s="5" r="S35"/>
-      <c s="5" r="T35"/>
-      <c s="5" r="U35"/>
-      <c s="5" r="V35"/>
-      <c s="5" r="W35"/>
-      <c s="5" r="X35"/>
-      <c s="5" r="Y35"/>
+      <c s="6" r="O35"/>
+      <c s="6" r="P35"/>
+      <c s="6" r="Q35"/>
+      <c s="6" r="R35"/>
+      <c s="6" r="S35"/>
+      <c s="6" r="T35"/>
+      <c s="6" r="U35"/>
+      <c s="6" r="V35"/>
+      <c s="6" r="W35"/>
+      <c s="6" r="X35"/>
+      <c s="6" r="Y35"/>
     </row>
     <row r="36">
       <c s="3" r="A36"/>
-      <c s="32" r="B36"/>
-      <c s="4" r="C36"/>
+      <c s="31" r="B36"/>
+      <c s="5" r="C36"/>
       <c s="2" r="D36"/>
       <c s="15" r="E36"/>
       <c s="15" r="F36"/>
@@ -3743,25 +4041,25 @@
       <c s="15" r="I36"/>
       <c s="15" r="J36"/>
       <c s="15" r="K36"/>
-      <c s="44" r="L36"/>
-      <c s="30" r="M36"/>
+      <c s="43" r="L36"/>
+      <c s="29" r="M36"/>
       <c s="26" r="N36"/>
-      <c s="5" r="O36"/>
-      <c s="5" r="P36"/>
-      <c s="5" r="Q36"/>
-      <c s="5" r="R36"/>
-      <c s="5" r="S36"/>
-      <c s="5" r="T36"/>
-      <c s="5" r="U36"/>
-      <c s="5" r="V36"/>
-      <c s="5" r="W36"/>
-      <c s="5" r="X36"/>
-      <c s="5" r="Y36"/>
+      <c s="6" r="O36"/>
+      <c s="6" r="P36"/>
+      <c s="6" r="Q36"/>
+      <c s="6" r="R36"/>
+      <c s="6" r="S36"/>
+      <c s="6" r="T36"/>
+      <c s="6" r="U36"/>
+      <c s="6" r="V36"/>
+      <c s="6" r="W36"/>
+      <c s="6" r="X36"/>
+      <c s="6" r="Y36"/>
     </row>
     <row r="37">
       <c s="3" r="A37"/>
-      <c s="32" r="B37"/>
-      <c s="4" r="C37"/>
+      <c s="31" r="B37"/>
+      <c s="5" r="C37"/>
       <c s="2" r="D37"/>
       <c s="15" r="E37"/>
       <c s="15" r="F37"/>
@@ -3770,25 +4068,25 @@
       <c s="15" r="I37"/>
       <c s="15" r="J37"/>
       <c s="15" r="K37"/>
-      <c s="44" r="L37"/>
-      <c s="30" r="M37"/>
+      <c s="43" r="L37"/>
+      <c s="29" r="M37"/>
       <c s="26" r="N37"/>
-      <c s="5" r="O37"/>
-      <c s="5" r="P37"/>
-      <c s="5" r="Q37"/>
-      <c s="5" r="R37"/>
-      <c s="5" r="S37"/>
-      <c s="5" r="T37"/>
-      <c s="5" r="U37"/>
-      <c s="5" r="V37"/>
-      <c s="5" r="W37"/>
-      <c s="5" r="X37"/>
-      <c s="5" r="Y37"/>
+      <c s="6" r="O37"/>
+      <c s="6" r="P37"/>
+      <c s="6" r="Q37"/>
+      <c s="6" r="R37"/>
+      <c s="6" r="S37"/>
+      <c s="6" r="T37"/>
+      <c s="6" r="U37"/>
+      <c s="6" r="V37"/>
+      <c s="6" r="W37"/>
+      <c s="6" r="X37"/>
+      <c s="6" r="Y37"/>
     </row>
     <row r="38">
       <c s="3" r="A38"/>
-      <c s="32" r="B38"/>
-      <c s="4" r="C38"/>
+      <c s="31" r="B38"/>
+      <c s="5" r="C38"/>
       <c s="2" r="D38"/>
       <c s="15" r="E38"/>
       <c s="15" r="F38"/>
@@ -3797,25 +4095,25 @@
       <c s="15" r="I38"/>
       <c s="15" r="J38"/>
       <c s="15" r="K38"/>
-      <c s="44" r="L38"/>
-      <c s="30" r="M38"/>
+      <c s="43" r="L38"/>
+      <c s="29" r="M38"/>
       <c s="26" r="N38"/>
-      <c s="5" r="O38"/>
-      <c s="5" r="P38"/>
-      <c s="5" r="Q38"/>
-      <c s="5" r="R38"/>
-      <c s="5" r="S38"/>
-      <c s="5" r="T38"/>
-      <c s="5" r="U38"/>
-      <c s="5" r="V38"/>
-      <c s="5" r="W38"/>
-      <c s="5" r="X38"/>
-      <c s="5" r="Y38"/>
+      <c s="6" r="O38"/>
+      <c s="6" r="P38"/>
+      <c s="6" r="Q38"/>
+      <c s="6" r="R38"/>
+      <c s="6" r="S38"/>
+      <c s="6" r="T38"/>
+      <c s="6" r="U38"/>
+      <c s="6" r="V38"/>
+      <c s="6" r="W38"/>
+      <c s="6" r="X38"/>
+      <c s="6" r="Y38"/>
     </row>
     <row r="39">
       <c s="3" r="A39"/>
-      <c s="32" r="B39"/>
-      <c s="4" r="C39"/>
+      <c s="31" r="B39"/>
+      <c s="5" r="C39"/>
       <c s="2" r="D39"/>
       <c s="15" r="E39"/>
       <c s="15" r="F39"/>
@@ -3824,25 +4122,25 @@
       <c s="15" r="I39"/>
       <c s="15" r="J39"/>
       <c s="15" r="K39"/>
-      <c s="44" r="L39"/>
-      <c s="30" r="M39"/>
+      <c s="43" r="L39"/>
+      <c s="29" r="M39"/>
       <c s="26" r="N39"/>
-      <c s="5" r="O39"/>
-      <c s="5" r="P39"/>
-      <c s="5" r="Q39"/>
-      <c s="5" r="R39"/>
-      <c s="5" r="S39"/>
-      <c s="5" r="T39"/>
-      <c s="5" r="U39"/>
-      <c s="5" r="V39"/>
-      <c s="5" r="W39"/>
-      <c s="5" r="X39"/>
-      <c s="5" r="Y39"/>
+      <c s="6" r="O39"/>
+      <c s="6" r="P39"/>
+      <c s="6" r="Q39"/>
+      <c s="6" r="R39"/>
+      <c s="6" r="S39"/>
+      <c s="6" r="T39"/>
+      <c s="6" r="U39"/>
+      <c s="6" r="V39"/>
+      <c s="6" r="W39"/>
+      <c s="6" r="X39"/>
+      <c s="6" r="Y39"/>
     </row>
     <row r="40">
       <c s="3" r="A40"/>
-      <c s="32" r="B40"/>
-      <c s="4" r="C40"/>
+      <c s="31" r="B40"/>
+      <c s="5" r="C40"/>
       <c s="2" r="D40"/>
       <c s="15" r="E40"/>
       <c s="15" r="F40"/>
@@ -3851,25 +4149,25 @@
       <c s="15" r="I40"/>
       <c s="15" r="J40"/>
       <c s="15" r="K40"/>
-      <c s="44" r="L40"/>
-      <c s="30" r="M40"/>
+      <c s="43" r="L40"/>
+      <c s="29" r="M40"/>
       <c s="26" r="N40"/>
-      <c s="5" r="O40"/>
-      <c s="5" r="P40"/>
-      <c s="5" r="Q40"/>
-      <c s="5" r="R40"/>
-      <c s="5" r="S40"/>
-      <c s="5" r="T40"/>
-      <c s="5" r="U40"/>
-      <c s="5" r="V40"/>
-      <c s="5" r="W40"/>
-      <c s="5" r="X40"/>
-      <c s="5" r="Y40"/>
+      <c s="6" r="O40"/>
+      <c s="6" r="P40"/>
+      <c s="6" r="Q40"/>
+      <c s="6" r="R40"/>
+      <c s="6" r="S40"/>
+      <c s="6" r="T40"/>
+      <c s="6" r="U40"/>
+      <c s="6" r="V40"/>
+      <c s="6" r="W40"/>
+      <c s="6" r="X40"/>
+      <c s="6" r="Y40"/>
     </row>
     <row r="41">
       <c s="3" r="A41"/>
-      <c s="32" r="B41"/>
-      <c s="4" r="C41"/>
+      <c s="31" r="B41"/>
+      <c s="5" r="C41"/>
       <c s="2" r="D41"/>
       <c s="15" r="E41"/>
       <c s="15" r="F41"/>
@@ -3878,25 +4176,25 @@
       <c s="15" r="I41"/>
       <c s="15" r="J41"/>
       <c s="15" r="K41"/>
-      <c s="44" r="L41"/>
-      <c s="30" r="M41"/>
+      <c s="43" r="L41"/>
+      <c s="29" r="M41"/>
       <c s="26" r="N41"/>
-      <c s="5" r="O41"/>
-      <c s="5" r="P41"/>
-      <c s="5" r="Q41"/>
-      <c s="5" r="R41"/>
-      <c s="5" r="S41"/>
-      <c s="5" r="T41"/>
-      <c s="5" r="U41"/>
-      <c s="5" r="V41"/>
-      <c s="5" r="W41"/>
-      <c s="5" r="X41"/>
-      <c s="5" r="Y41"/>
+      <c s="6" r="O41"/>
+      <c s="6" r="P41"/>
+      <c s="6" r="Q41"/>
+      <c s="6" r="R41"/>
+      <c s="6" r="S41"/>
+      <c s="6" r="T41"/>
+      <c s="6" r="U41"/>
+      <c s="6" r="V41"/>
+      <c s="6" r="W41"/>
+      <c s="6" r="X41"/>
+      <c s="6" r="Y41"/>
     </row>
     <row r="42">
       <c s="3" r="A42"/>
-      <c s="32" r="B42"/>
-      <c s="4" r="C42"/>
+      <c s="31" r="B42"/>
+      <c s="5" r="C42"/>
       <c s="2" r="D42"/>
       <c s="15" r="E42"/>
       <c s="15" r="F42"/>
@@ -3905,25 +4203,25 @@
       <c s="15" r="I42"/>
       <c s="15" r="J42"/>
       <c s="15" r="K42"/>
-      <c s="44" r="L42"/>
-      <c s="30" r="M42"/>
+      <c s="43" r="L42"/>
+      <c s="29" r="M42"/>
       <c s="26" r="N42"/>
-      <c s="5" r="O42"/>
-      <c s="5" r="P42"/>
-      <c s="5" r="Q42"/>
-      <c s="5" r="R42"/>
-      <c s="5" r="S42"/>
-      <c s="5" r="T42"/>
-      <c s="5" r="U42"/>
-      <c s="5" r="V42"/>
-      <c s="5" r="W42"/>
-      <c s="5" r="X42"/>
-      <c s="5" r="Y42"/>
+      <c s="6" r="O42"/>
+      <c s="6" r="P42"/>
+      <c s="6" r="Q42"/>
+      <c s="6" r="R42"/>
+      <c s="6" r="S42"/>
+      <c s="6" r="T42"/>
+      <c s="6" r="U42"/>
+      <c s="6" r="V42"/>
+      <c s="6" r="W42"/>
+      <c s="6" r="X42"/>
+      <c s="6" r="Y42"/>
     </row>
     <row r="43">
       <c s="3" r="A43"/>
-      <c s="32" r="B43"/>
-      <c s="4" r="C43"/>
+      <c s="31" r="B43"/>
+      <c s="5" r="C43"/>
       <c s="2" r="D43"/>
       <c s="15" r="E43"/>
       <c s="15" r="F43"/>
@@ -3932,25 +4230,25 @@
       <c s="15" r="I43"/>
       <c s="15" r="J43"/>
       <c s="15" r="K43"/>
-      <c s="44" r="L43"/>
-      <c s="30" r="M43"/>
+      <c s="43" r="L43"/>
+      <c s="29" r="M43"/>
       <c s="26" r="N43"/>
-      <c s="5" r="O43"/>
-      <c s="5" r="P43"/>
-      <c s="5" r="Q43"/>
-      <c s="5" r="R43"/>
-      <c s="5" r="S43"/>
-      <c s="5" r="T43"/>
-      <c s="5" r="U43"/>
-      <c s="5" r="V43"/>
-      <c s="5" r="W43"/>
-      <c s="5" r="X43"/>
-      <c s="5" r="Y43"/>
+      <c s="6" r="O43"/>
+      <c s="6" r="P43"/>
+      <c s="6" r="Q43"/>
+      <c s="6" r="R43"/>
+      <c s="6" r="S43"/>
+      <c s="6" r="T43"/>
+      <c s="6" r="U43"/>
+      <c s="6" r="V43"/>
+      <c s="6" r="W43"/>
+      <c s="6" r="X43"/>
+      <c s="6" r="Y43"/>
     </row>
     <row r="44">
       <c s="3" r="A44"/>
-      <c s="32" r="B44"/>
-      <c s="4" r="C44"/>
+      <c s="31" r="B44"/>
+      <c s="5" r="C44"/>
       <c s="2" r="D44"/>
       <c s="15" r="E44"/>
       <c s="15" r="F44"/>
@@ -3959,25 +4257,25 @@
       <c s="15" r="I44"/>
       <c s="15" r="J44"/>
       <c s="15" r="K44"/>
-      <c s="44" r="L44"/>
-      <c s="30" r="M44"/>
+      <c s="43" r="L44"/>
+      <c s="29" r="M44"/>
       <c s="26" r="N44"/>
-      <c s="5" r="O44"/>
-      <c s="5" r="P44"/>
-      <c s="5" r="Q44"/>
-      <c s="5" r="R44"/>
-      <c s="5" r="S44"/>
-      <c s="5" r="T44"/>
-      <c s="5" r="U44"/>
-      <c s="5" r="V44"/>
-      <c s="5" r="W44"/>
-      <c s="5" r="X44"/>
-      <c s="5" r="Y44"/>
+      <c s="6" r="O44"/>
+      <c s="6" r="P44"/>
+      <c s="6" r="Q44"/>
+      <c s="6" r="R44"/>
+      <c s="6" r="S44"/>
+      <c s="6" r="T44"/>
+      <c s="6" r="U44"/>
+      <c s="6" r="V44"/>
+      <c s="6" r="W44"/>
+      <c s="6" r="X44"/>
+      <c s="6" r="Y44"/>
     </row>
     <row r="45">
       <c s="3" r="A45"/>
-      <c s="32" r="B45"/>
-      <c s="4" r="C45"/>
+      <c s="31" r="B45"/>
+      <c s="5" r="C45"/>
       <c s="2" r="D45"/>
       <c s="15" r="E45"/>
       <c s="15" r="F45"/>
@@ -3986,25 +4284,25 @@
       <c s="15" r="I45"/>
       <c s="15" r="J45"/>
       <c s="15" r="K45"/>
-      <c s="44" r="L45"/>
-      <c s="30" r="M45"/>
+      <c s="43" r="L45"/>
+      <c s="29" r="M45"/>
       <c s="26" r="N45"/>
-      <c s="5" r="O45"/>
-      <c s="5" r="P45"/>
-      <c s="5" r="Q45"/>
-      <c s="5" r="R45"/>
-      <c s="5" r="S45"/>
-      <c s="5" r="T45"/>
-      <c s="5" r="U45"/>
-      <c s="5" r="V45"/>
-      <c s="5" r="W45"/>
-      <c s="5" r="X45"/>
-      <c s="5" r="Y45"/>
+      <c s="6" r="O45"/>
+      <c s="6" r="P45"/>
+      <c s="6" r="Q45"/>
+      <c s="6" r="R45"/>
+      <c s="6" r="S45"/>
+      <c s="6" r="T45"/>
+      <c s="6" r="U45"/>
+      <c s="6" r="V45"/>
+      <c s="6" r="W45"/>
+      <c s="6" r="X45"/>
+      <c s="6" r="Y45"/>
     </row>
     <row r="46">
       <c s="3" r="A46"/>
-      <c s="32" r="B46"/>
-      <c s="4" r="C46"/>
+      <c s="31" r="B46"/>
+      <c s="5" r="C46"/>
       <c s="2" r="D46"/>
       <c s="15" r="E46"/>
       <c s="15" r="F46"/>
@@ -4013,25 +4311,25 @@
       <c s="15" r="I46"/>
       <c s="15" r="J46"/>
       <c s="15" r="K46"/>
-      <c s="44" r="L46"/>
-      <c s="30" r="M46"/>
+      <c s="43" r="L46"/>
+      <c s="29" r="M46"/>
       <c s="26" r="N46"/>
-      <c s="5" r="O46"/>
-      <c s="5" r="P46"/>
-      <c s="5" r="Q46"/>
-      <c s="5" r="R46"/>
-      <c s="5" r="S46"/>
-      <c s="5" r="T46"/>
-      <c s="5" r="U46"/>
-      <c s="5" r="V46"/>
-      <c s="5" r="W46"/>
-      <c s="5" r="X46"/>
-      <c s="5" r="Y46"/>
+      <c s="6" r="O46"/>
+      <c s="6" r="P46"/>
+      <c s="6" r="Q46"/>
+      <c s="6" r="R46"/>
+      <c s="6" r="S46"/>
+      <c s="6" r="T46"/>
+      <c s="6" r="U46"/>
+      <c s="6" r="V46"/>
+      <c s="6" r="W46"/>
+      <c s="6" r="X46"/>
+      <c s="6" r="Y46"/>
     </row>
     <row r="47">
       <c s="3" r="A47"/>
-      <c s="32" r="B47"/>
-      <c s="4" r="C47"/>
+      <c s="31" r="B47"/>
+      <c s="5" r="C47"/>
       <c s="2" r="D47"/>
       <c s="15" r="E47"/>
       <c s="15" r="F47"/>
@@ -4040,25 +4338,25 @@
       <c s="15" r="I47"/>
       <c s="15" r="J47"/>
       <c s="15" r="K47"/>
-      <c s="44" r="L47"/>
-      <c s="30" r="M47"/>
+      <c s="43" r="L47"/>
+      <c s="29" r="M47"/>
       <c s="26" r="N47"/>
-      <c s="5" r="O47"/>
-      <c s="5" r="P47"/>
-      <c s="5" r="Q47"/>
-      <c s="5" r="R47"/>
-      <c s="5" r="S47"/>
-      <c s="5" r="T47"/>
-      <c s="5" r="U47"/>
-      <c s="5" r="V47"/>
-      <c s="5" r="W47"/>
-      <c s="5" r="X47"/>
-      <c s="5" r="Y47"/>
+      <c s="6" r="O47"/>
+      <c s="6" r="P47"/>
+      <c s="6" r="Q47"/>
+      <c s="6" r="R47"/>
+      <c s="6" r="S47"/>
+      <c s="6" r="T47"/>
+      <c s="6" r="U47"/>
+      <c s="6" r="V47"/>
+      <c s="6" r="W47"/>
+      <c s="6" r="X47"/>
+      <c s="6" r="Y47"/>
     </row>
     <row r="48">
       <c s="3" r="A48"/>
-      <c s="32" r="B48"/>
-      <c s="4" r="C48"/>
+      <c s="31" r="B48"/>
+      <c s="5" r="C48"/>
       <c s="2" r="D48"/>
       <c s="15" r="E48"/>
       <c s="15" r="F48"/>
@@ -4067,25 +4365,25 @@
       <c s="15" r="I48"/>
       <c s="15" r="J48"/>
       <c s="15" r="K48"/>
-      <c s="44" r="L48"/>
-      <c s="30" r="M48"/>
+      <c s="43" r="L48"/>
+      <c s="29" r="M48"/>
       <c s="26" r="N48"/>
-      <c s="5" r="O48"/>
-      <c s="5" r="P48"/>
-      <c s="5" r="Q48"/>
-      <c s="5" r="R48"/>
-      <c s="5" r="S48"/>
-      <c s="5" r="T48"/>
-      <c s="5" r="U48"/>
-      <c s="5" r="V48"/>
-      <c s="5" r="W48"/>
-      <c s="5" r="X48"/>
-      <c s="5" r="Y48"/>
+      <c s="6" r="O48"/>
+      <c s="6" r="P48"/>
+      <c s="6" r="Q48"/>
+      <c s="6" r="R48"/>
+      <c s="6" r="S48"/>
+      <c s="6" r="T48"/>
+      <c s="6" r="U48"/>
+      <c s="6" r="V48"/>
+      <c s="6" r="W48"/>
+      <c s="6" r="X48"/>
+      <c s="6" r="Y48"/>
     </row>
     <row r="49">
       <c s="3" r="A49"/>
-      <c s="32" r="B49"/>
-      <c s="4" r="C49"/>
+      <c s="31" r="B49"/>
+      <c s="5" r="C49"/>
       <c s="2" r="D49"/>
       <c s="15" r="E49"/>
       <c s="15" r="F49"/>
@@ -4094,25 +4392,25 @@
       <c s="15" r="I49"/>
       <c s="15" r="J49"/>
       <c s="15" r="K49"/>
-      <c s="44" r="L49"/>
-      <c s="30" r="M49"/>
+      <c s="43" r="L49"/>
+      <c s="29" r="M49"/>
       <c s="26" r="N49"/>
-      <c s="5" r="O49"/>
-      <c s="5" r="P49"/>
-      <c s="5" r="Q49"/>
-      <c s="5" r="R49"/>
-      <c s="5" r="S49"/>
-      <c s="5" r="T49"/>
-      <c s="5" r="U49"/>
-      <c s="5" r="V49"/>
-      <c s="5" r="W49"/>
-      <c s="5" r="X49"/>
-      <c s="5" r="Y49"/>
+      <c s="6" r="O49"/>
+      <c s="6" r="P49"/>
+      <c s="6" r="Q49"/>
+      <c s="6" r="R49"/>
+      <c s="6" r="S49"/>
+      <c s="6" r="T49"/>
+      <c s="6" r="U49"/>
+      <c s="6" r="V49"/>
+      <c s="6" r="W49"/>
+      <c s="6" r="X49"/>
+      <c s="6" r="Y49"/>
     </row>
     <row r="50">
       <c s="3" r="A50"/>
-      <c s="32" r="B50"/>
-      <c s="4" r="C50"/>
+      <c s="31" r="B50"/>
+      <c s="5" r="C50"/>
       <c s="2" r="D50"/>
       <c s="15" r="E50"/>
       <c s="15" r="F50"/>
@@ -4121,25 +4419,25 @@
       <c s="15" r="I50"/>
       <c s="15" r="J50"/>
       <c s="15" r="K50"/>
-      <c s="44" r="L50"/>
-      <c s="30" r="M50"/>
+      <c s="43" r="L50"/>
+      <c s="29" r="M50"/>
       <c s="26" r="N50"/>
-      <c s="5" r="O50"/>
-      <c s="5" r="P50"/>
-      <c s="5" r="Q50"/>
-      <c s="5" r="R50"/>
-      <c s="5" r="S50"/>
-      <c s="5" r="T50"/>
-      <c s="5" r="U50"/>
-      <c s="5" r="V50"/>
-      <c s="5" r="W50"/>
-      <c s="5" r="X50"/>
-      <c s="5" r="Y50"/>
+      <c s="6" r="O50"/>
+      <c s="6" r="P50"/>
+      <c s="6" r="Q50"/>
+      <c s="6" r="R50"/>
+      <c s="6" r="S50"/>
+      <c s="6" r="T50"/>
+      <c s="6" r="U50"/>
+      <c s="6" r="V50"/>
+      <c s="6" r="W50"/>
+      <c s="6" r="X50"/>
+      <c s="6" r="Y50"/>
     </row>
     <row r="51">
       <c s="3" r="A51"/>
-      <c s="32" r="B51"/>
-      <c s="4" r="C51"/>
+      <c s="31" r="B51"/>
+      <c s="5" r="C51"/>
       <c s="2" r="D51"/>
       <c s="15" r="E51"/>
       <c s="15" r="F51"/>
@@ -4148,25 +4446,25 @@
       <c s="15" r="I51"/>
       <c s="15" r="J51"/>
       <c s="15" r="K51"/>
-      <c s="44" r="L51"/>
-      <c s="30" r="M51"/>
+      <c s="43" r="L51"/>
+      <c s="29" r="M51"/>
       <c s="26" r="N51"/>
-      <c s="5" r="O51"/>
-      <c s="5" r="P51"/>
-      <c s="5" r="Q51"/>
-      <c s="5" r="R51"/>
-      <c s="5" r="S51"/>
-      <c s="5" r="T51"/>
-      <c s="5" r="U51"/>
-      <c s="5" r="V51"/>
-      <c s="5" r="W51"/>
-      <c s="5" r="X51"/>
-      <c s="5" r="Y51"/>
+      <c s="6" r="O51"/>
+      <c s="6" r="P51"/>
+      <c s="6" r="Q51"/>
+      <c s="6" r="R51"/>
+      <c s="6" r="S51"/>
+      <c s="6" r="T51"/>
+      <c s="6" r="U51"/>
+      <c s="6" r="V51"/>
+      <c s="6" r="W51"/>
+      <c s="6" r="X51"/>
+      <c s="6" r="Y51"/>
     </row>
     <row r="52">
       <c s="3" r="A52"/>
-      <c s="32" r="B52"/>
-      <c s="4" r="C52"/>
+      <c s="31" r="B52"/>
+      <c s="5" r="C52"/>
       <c s="2" r="D52"/>
       <c s="15" r="E52"/>
       <c s="15" r="F52"/>
@@ -4175,25 +4473,25 @@
       <c s="15" r="I52"/>
       <c s="15" r="J52"/>
       <c s="15" r="K52"/>
-      <c s="44" r="L52"/>
-      <c s="30" r="M52"/>
+      <c s="43" r="L52"/>
+      <c s="29" r="M52"/>
       <c s="26" r="N52"/>
-      <c s="5" r="O52"/>
-      <c s="5" r="P52"/>
-      <c s="5" r="Q52"/>
-      <c s="5" r="R52"/>
-      <c s="5" r="S52"/>
-      <c s="5" r="T52"/>
-      <c s="5" r="U52"/>
-      <c s="5" r="V52"/>
-      <c s="5" r="W52"/>
-      <c s="5" r="X52"/>
-      <c s="5" r="Y52"/>
+      <c s="6" r="O52"/>
+      <c s="6" r="P52"/>
+      <c s="6" r="Q52"/>
+      <c s="6" r="R52"/>
+      <c s="6" r="S52"/>
+      <c s="6" r="T52"/>
+      <c s="6" r="U52"/>
+      <c s="6" r="V52"/>
+      <c s="6" r="W52"/>
+      <c s="6" r="X52"/>
+      <c s="6" r="Y52"/>
     </row>
     <row r="53">
       <c s="3" r="A53"/>
-      <c s="32" r="B53"/>
-      <c s="4" r="C53"/>
+      <c s="31" r="B53"/>
+      <c s="5" r="C53"/>
       <c s="2" r="D53"/>
       <c s="15" r="E53"/>
       <c s="15" r="F53"/>
@@ -4202,25 +4500,25 @@
       <c s="15" r="I53"/>
       <c s="15" r="J53"/>
       <c s="15" r="K53"/>
-      <c s="44" r="L53"/>
-      <c s="30" r="M53"/>
+      <c s="43" r="L53"/>
+      <c s="29" r="M53"/>
       <c s="26" r="N53"/>
-      <c s="5" r="O53"/>
-      <c s="5" r="P53"/>
-      <c s="5" r="Q53"/>
-      <c s="5" r="R53"/>
-      <c s="5" r="S53"/>
-      <c s="5" r="T53"/>
-      <c s="5" r="U53"/>
-      <c s="5" r="V53"/>
-      <c s="5" r="W53"/>
-      <c s="5" r="X53"/>
-      <c s="5" r="Y53"/>
+      <c s="6" r="O53"/>
+      <c s="6" r="P53"/>
+      <c s="6" r="Q53"/>
+      <c s="6" r="R53"/>
+      <c s="6" r="S53"/>
+      <c s="6" r="T53"/>
+      <c s="6" r="U53"/>
+      <c s="6" r="V53"/>
+      <c s="6" r="W53"/>
+      <c s="6" r="X53"/>
+      <c s="6" r="Y53"/>
     </row>
     <row r="54">
       <c s="3" r="A54"/>
-      <c s="32" r="B54"/>
-      <c s="4" r="C54"/>
+      <c s="31" r="B54"/>
+      <c s="5" r="C54"/>
       <c s="2" r="D54"/>
       <c s="15" r="E54"/>
       <c s="15" r="F54"/>
@@ -4229,25 +4527,25 @@
       <c s="15" r="I54"/>
       <c s="15" r="J54"/>
       <c s="15" r="K54"/>
-      <c s="44" r="L54"/>
-      <c s="30" r="M54"/>
+      <c s="43" r="L54"/>
+      <c s="29" r="M54"/>
       <c s="26" r="N54"/>
-      <c s="5" r="O54"/>
-      <c s="5" r="P54"/>
-      <c s="5" r="Q54"/>
-      <c s="5" r="R54"/>
-      <c s="5" r="S54"/>
-      <c s="5" r="T54"/>
-      <c s="5" r="U54"/>
-      <c s="5" r="V54"/>
-      <c s="5" r="W54"/>
-      <c s="5" r="X54"/>
-      <c s="5" r="Y54"/>
+      <c s="6" r="O54"/>
+      <c s="6" r="P54"/>
+      <c s="6" r="Q54"/>
+      <c s="6" r="R54"/>
+      <c s="6" r="S54"/>
+      <c s="6" r="T54"/>
+      <c s="6" r="U54"/>
+      <c s="6" r="V54"/>
+      <c s="6" r="W54"/>
+      <c s="6" r="X54"/>
+      <c s="6" r="Y54"/>
     </row>
     <row r="55">
       <c s="3" r="A55"/>
-      <c s="32" r="B55"/>
-      <c s="4" r="C55"/>
+      <c s="31" r="B55"/>
+      <c s="5" r="C55"/>
       <c s="2" r="D55"/>
       <c s="15" r="E55"/>
       <c s="15" r="F55"/>
@@ -4256,25 +4554,25 @@
       <c s="15" r="I55"/>
       <c s="15" r="J55"/>
       <c s="15" r="K55"/>
-      <c s="44" r="L55"/>
-      <c s="30" r="M55"/>
+      <c s="43" r="L55"/>
+      <c s="29" r="M55"/>
       <c s="26" r="N55"/>
-      <c s="5" r="O55"/>
-      <c s="5" r="P55"/>
-      <c s="5" r="Q55"/>
-      <c s="5" r="R55"/>
-      <c s="5" r="S55"/>
-      <c s="5" r="T55"/>
-      <c s="5" r="U55"/>
-      <c s="5" r="V55"/>
-      <c s="5" r="W55"/>
-      <c s="5" r="X55"/>
-      <c s="5" r="Y55"/>
+      <c s="6" r="O55"/>
+      <c s="6" r="P55"/>
+      <c s="6" r="Q55"/>
+      <c s="6" r="R55"/>
+      <c s="6" r="S55"/>
+      <c s="6" r="T55"/>
+      <c s="6" r="U55"/>
+      <c s="6" r="V55"/>
+      <c s="6" r="W55"/>
+      <c s="6" r="X55"/>
+      <c s="6" r="Y55"/>
     </row>
     <row r="56">
       <c s="3" r="A56"/>
-      <c s="32" r="B56"/>
-      <c s="4" r="C56"/>
+      <c s="31" r="B56"/>
+      <c s="5" r="C56"/>
       <c s="2" r="D56"/>
       <c s="15" r="E56"/>
       <c s="15" r="F56"/>
@@ -4283,25 +4581,25 @@
       <c s="15" r="I56"/>
       <c s="15" r="J56"/>
       <c s="15" r="K56"/>
-      <c s="44" r="L56"/>
-      <c s="30" r="M56"/>
+      <c s="43" r="L56"/>
+      <c s="29" r="M56"/>
       <c s="26" r="N56"/>
-      <c s="5" r="O56"/>
-      <c s="5" r="P56"/>
-      <c s="5" r="Q56"/>
-      <c s="5" r="R56"/>
-      <c s="5" r="S56"/>
-      <c s="5" r="T56"/>
-      <c s="5" r="U56"/>
-      <c s="5" r="V56"/>
-      <c s="5" r="W56"/>
-      <c s="5" r="X56"/>
-      <c s="5" r="Y56"/>
+      <c s="6" r="O56"/>
+      <c s="6" r="P56"/>
+      <c s="6" r="Q56"/>
+      <c s="6" r="R56"/>
+      <c s="6" r="S56"/>
+      <c s="6" r="T56"/>
+      <c s="6" r="U56"/>
+      <c s="6" r="V56"/>
+      <c s="6" r="W56"/>
+      <c s="6" r="X56"/>
+      <c s="6" r="Y56"/>
     </row>
     <row r="57">
       <c s="3" r="A57"/>
-      <c s="32" r="B57"/>
-      <c s="4" r="C57"/>
+      <c s="31" r="B57"/>
+      <c s="5" r="C57"/>
       <c s="2" r="D57"/>
       <c s="15" r="E57"/>
       <c s="15" r="F57"/>
@@ -4310,25 +4608,25 @@
       <c s="15" r="I57"/>
       <c s="15" r="J57"/>
       <c s="15" r="K57"/>
-      <c s="44" r="L57"/>
-      <c s="30" r="M57"/>
+      <c s="43" r="L57"/>
+      <c s="29" r="M57"/>
       <c s="26" r="N57"/>
-      <c s="5" r="O57"/>
-      <c s="5" r="P57"/>
-      <c s="5" r="Q57"/>
-      <c s="5" r="R57"/>
-      <c s="5" r="S57"/>
-      <c s="5" r="T57"/>
-      <c s="5" r="U57"/>
-      <c s="5" r="V57"/>
-      <c s="5" r="W57"/>
-      <c s="5" r="X57"/>
-      <c s="5" r="Y57"/>
+      <c s="6" r="O57"/>
+      <c s="6" r="P57"/>
+      <c s="6" r="Q57"/>
+      <c s="6" r="R57"/>
+      <c s="6" r="S57"/>
+      <c s="6" r="T57"/>
+      <c s="6" r="U57"/>
+      <c s="6" r="V57"/>
+      <c s="6" r="W57"/>
+      <c s="6" r="X57"/>
+      <c s="6" r="Y57"/>
     </row>
     <row r="58">
       <c s="3" r="A58"/>
-      <c s="32" r="B58"/>
-      <c s="4" r="C58"/>
+      <c s="31" r="B58"/>
+      <c s="5" r="C58"/>
       <c s="2" r="D58"/>
       <c s="15" r="E58"/>
       <c s="15" r="F58"/>
@@ -4337,25 +4635,25 @@
       <c s="15" r="I58"/>
       <c s="15" r="J58"/>
       <c s="15" r="K58"/>
-      <c s="44" r="L58"/>
-      <c s="30" r="M58"/>
+      <c s="43" r="L58"/>
+      <c s="29" r="M58"/>
       <c s="26" r="N58"/>
-      <c s="5" r="O58"/>
-      <c s="5" r="P58"/>
-      <c s="5" r="Q58"/>
-      <c s="5" r="R58"/>
-      <c s="5" r="S58"/>
-      <c s="5" r="T58"/>
-      <c s="5" r="U58"/>
-      <c s="5" r="V58"/>
-      <c s="5" r="W58"/>
-      <c s="5" r="X58"/>
-      <c s="5" r="Y58"/>
+      <c s="6" r="O58"/>
+      <c s="6" r="P58"/>
+      <c s="6" r="Q58"/>
+      <c s="6" r="R58"/>
+      <c s="6" r="S58"/>
+      <c s="6" r="T58"/>
+      <c s="6" r="U58"/>
+      <c s="6" r="V58"/>
+      <c s="6" r="W58"/>
+      <c s="6" r="X58"/>
+      <c s="6" r="Y58"/>
     </row>
     <row r="59">
       <c s="3" r="A59"/>
-      <c s="32" r="B59"/>
-      <c s="4" r="C59"/>
+      <c s="31" r="B59"/>
+      <c s="5" r="C59"/>
       <c s="2" r="D59"/>
       <c s="15" r="E59"/>
       <c s="15" r="F59"/>
@@ -4364,25 +4662,25 @@
       <c s="15" r="I59"/>
       <c s="15" r="J59"/>
       <c s="15" r="K59"/>
-      <c s="44" r="L59"/>
-      <c s="30" r="M59"/>
+      <c s="43" r="L59"/>
+      <c s="29" r="M59"/>
       <c s="26" r="N59"/>
-      <c s="5" r="O59"/>
-      <c s="5" r="P59"/>
-      <c s="5" r="Q59"/>
-      <c s="5" r="R59"/>
-      <c s="5" r="S59"/>
-      <c s="5" r="T59"/>
-      <c s="5" r="U59"/>
-      <c s="5" r="V59"/>
-      <c s="5" r="W59"/>
-      <c s="5" r="X59"/>
-      <c s="5" r="Y59"/>
+      <c s="6" r="O59"/>
+      <c s="6" r="P59"/>
+      <c s="6" r="Q59"/>
+      <c s="6" r="R59"/>
+      <c s="6" r="S59"/>
+      <c s="6" r="T59"/>
+      <c s="6" r="U59"/>
+      <c s="6" r="V59"/>
+      <c s="6" r="W59"/>
+      <c s="6" r="X59"/>
+      <c s="6" r="Y59"/>
     </row>
     <row r="60">
       <c s="3" r="A60"/>
-      <c s="32" r="B60"/>
-      <c s="4" r="C60"/>
+      <c s="31" r="B60"/>
+      <c s="5" r="C60"/>
       <c s="2" r="D60"/>
       <c s="15" r="E60"/>
       <c s="15" r="F60"/>
@@ -4391,25 +4689,25 @@
       <c s="15" r="I60"/>
       <c s="15" r="J60"/>
       <c s="15" r="K60"/>
-      <c s="44" r="L60"/>
-      <c s="30" r="M60"/>
+      <c s="43" r="L60"/>
+      <c s="29" r="M60"/>
       <c s="26" r="N60"/>
-      <c s="5" r="O60"/>
-      <c s="5" r="P60"/>
-      <c s="5" r="Q60"/>
-      <c s="5" r="R60"/>
-      <c s="5" r="S60"/>
-      <c s="5" r="T60"/>
-      <c s="5" r="U60"/>
-      <c s="5" r="V60"/>
-      <c s="5" r="W60"/>
-      <c s="5" r="X60"/>
-      <c s="5" r="Y60"/>
+      <c s="6" r="O60"/>
+      <c s="6" r="P60"/>
+      <c s="6" r="Q60"/>
+      <c s="6" r="R60"/>
+      <c s="6" r="S60"/>
+      <c s="6" r="T60"/>
+      <c s="6" r="U60"/>
+      <c s="6" r="V60"/>
+      <c s="6" r="W60"/>
+      <c s="6" r="X60"/>
+      <c s="6" r="Y60"/>
     </row>
     <row r="61">
       <c s="3" r="A61"/>
-      <c s="32" r="B61"/>
-      <c s="4" r="C61"/>
+      <c s="31" r="B61"/>
+      <c s="5" r="C61"/>
       <c s="2" r="D61"/>
       <c s="15" r="E61"/>
       <c s="15" r="F61"/>
@@ -4418,25 +4716,25 @@
       <c s="15" r="I61"/>
       <c s="15" r="J61"/>
       <c s="15" r="K61"/>
-      <c s="44" r="L61"/>
-      <c s="30" r="M61"/>
+      <c s="43" r="L61"/>
+      <c s="29" r="M61"/>
       <c s="26" r="N61"/>
-      <c s="5" r="O61"/>
-      <c s="5" r="P61"/>
-      <c s="5" r="Q61"/>
-      <c s="5" r="R61"/>
-      <c s="5" r="S61"/>
-      <c s="5" r="T61"/>
-      <c s="5" r="U61"/>
-      <c s="5" r="V61"/>
-      <c s="5" r="W61"/>
-      <c s="5" r="X61"/>
-      <c s="5" r="Y61"/>
+      <c s="6" r="O61"/>
+      <c s="6" r="P61"/>
+      <c s="6" r="Q61"/>
+      <c s="6" r="R61"/>
+      <c s="6" r="S61"/>
+      <c s="6" r="T61"/>
+      <c s="6" r="U61"/>
+      <c s="6" r="V61"/>
+      <c s="6" r="W61"/>
+      <c s="6" r="X61"/>
+      <c s="6" r="Y61"/>
     </row>
     <row r="62">
       <c s="3" r="A62"/>
-      <c s="32" r="B62"/>
-      <c s="4" r="C62"/>
+      <c s="31" r="B62"/>
+      <c s="5" r="C62"/>
       <c s="2" r="D62"/>
       <c s="15" r="E62"/>
       <c s="15" r="F62"/>
@@ -4445,25 +4743,25 @@
       <c s="15" r="I62"/>
       <c s="15" r="J62"/>
       <c s="15" r="K62"/>
-      <c s="44" r="L62"/>
-      <c s="30" r="M62"/>
+      <c s="43" r="L62"/>
+      <c s="29" r="M62"/>
       <c s="26" r="N62"/>
-      <c s="5" r="O62"/>
-      <c s="5" r="P62"/>
-      <c s="5" r="Q62"/>
-      <c s="5" r="R62"/>
-      <c s="5" r="S62"/>
-      <c s="5" r="T62"/>
-      <c s="5" r="U62"/>
-      <c s="5" r="V62"/>
-      <c s="5" r="W62"/>
-      <c s="5" r="X62"/>
-      <c s="5" r="Y62"/>
+      <c s="6" r="O62"/>
+      <c s="6" r="P62"/>
+      <c s="6" r="Q62"/>
+      <c s="6" r="R62"/>
+      <c s="6" r="S62"/>
+      <c s="6" r="T62"/>
+      <c s="6" r="U62"/>
+      <c s="6" r="V62"/>
+      <c s="6" r="W62"/>
+      <c s="6" r="X62"/>
+      <c s="6" r="Y62"/>
     </row>
     <row r="63">
       <c s="3" r="A63"/>
-      <c s="32" r="B63"/>
-      <c s="4" r="C63"/>
+      <c s="31" r="B63"/>
+      <c s="5" r="C63"/>
       <c s="2" r="D63"/>
       <c s="15" r="E63"/>
       <c s="15" r="F63"/>
@@ -4472,25 +4770,25 @@
       <c s="15" r="I63"/>
       <c s="15" r="J63"/>
       <c s="15" r="K63"/>
-      <c s="44" r="L63"/>
-      <c s="30" r="M63"/>
+      <c s="43" r="L63"/>
+      <c s="29" r="M63"/>
       <c s="26" r="N63"/>
-      <c s="5" r="O63"/>
-      <c s="5" r="P63"/>
-      <c s="5" r="Q63"/>
-      <c s="5" r="R63"/>
-      <c s="5" r="S63"/>
-      <c s="5" r="T63"/>
-      <c s="5" r="U63"/>
-      <c s="5" r="V63"/>
-      <c s="5" r="W63"/>
-      <c s="5" r="X63"/>
-      <c s="5" r="Y63"/>
+      <c s="6" r="O63"/>
+      <c s="6" r="P63"/>
+      <c s="6" r="Q63"/>
+      <c s="6" r="R63"/>
+      <c s="6" r="S63"/>
+      <c s="6" r="T63"/>
+      <c s="6" r="U63"/>
+      <c s="6" r="V63"/>
+      <c s="6" r="W63"/>
+      <c s="6" r="X63"/>
+      <c s="6" r="Y63"/>
     </row>
     <row r="64">
       <c s="3" r="A64"/>
-      <c s="32" r="B64"/>
-      <c s="4" r="C64"/>
+      <c s="31" r="B64"/>
+      <c s="5" r="C64"/>
       <c s="2" r="D64"/>
       <c s="15" r="E64"/>
       <c s="15" r="F64"/>
@@ -4499,25 +4797,25 @@
       <c s="15" r="I64"/>
       <c s="15" r="J64"/>
       <c s="15" r="K64"/>
-      <c s="44" r="L64"/>
-      <c s="30" r="M64"/>
+      <c s="43" r="L64"/>
+      <c s="29" r="M64"/>
       <c s="26" r="N64"/>
-      <c s="5" r="O64"/>
-      <c s="5" r="P64"/>
-      <c s="5" r="Q64"/>
-      <c s="5" r="R64"/>
-      <c s="5" r="S64"/>
-      <c s="5" r="T64"/>
-      <c s="5" r="U64"/>
-      <c s="5" r="V64"/>
-      <c s="5" r="W64"/>
-      <c s="5" r="X64"/>
-      <c s="5" r="Y64"/>
+      <c s="6" r="O64"/>
+      <c s="6" r="P64"/>
+      <c s="6" r="Q64"/>
+      <c s="6" r="R64"/>
+      <c s="6" r="S64"/>
+      <c s="6" r="T64"/>
+      <c s="6" r="U64"/>
+      <c s="6" r="V64"/>
+      <c s="6" r="W64"/>
+      <c s="6" r="X64"/>
+      <c s="6" r="Y64"/>
     </row>
     <row r="65">
       <c s="3" r="A65"/>
-      <c s="32" r="B65"/>
-      <c s="4" r="C65"/>
+      <c s="31" r="B65"/>
+      <c s="5" r="C65"/>
       <c s="2" r="D65"/>
       <c s="15" r="E65"/>
       <c s="15" r="F65"/>
@@ -4526,25 +4824,25 @@
       <c s="15" r="I65"/>
       <c s="15" r="J65"/>
       <c s="15" r="K65"/>
-      <c s="44" r="L65"/>
-      <c s="30" r="M65"/>
+      <c s="43" r="L65"/>
+      <c s="29" r="M65"/>
       <c s="26" r="N65"/>
-      <c s="5" r="O65"/>
-      <c s="5" r="P65"/>
-      <c s="5" r="Q65"/>
-      <c s="5" r="R65"/>
-      <c s="5" r="S65"/>
-      <c s="5" r="T65"/>
-      <c s="5" r="U65"/>
-      <c s="5" r="V65"/>
-      <c s="5" r="W65"/>
-      <c s="5" r="X65"/>
-      <c s="5" r="Y65"/>
+      <c s="6" r="O65"/>
+      <c s="6" r="P65"/>
+      <c s="6" r="Q65"/>
+      <c s="6" r="R65"/>
+      <c s="6" r="S65"/>
+      <c s="6" r="T65"/>
+      <c s="6" r="U65"/>
+      <c s="6" r="V65"/>
+      <c s="6" r="W65"/>
+      <c s="6" r="X65"/>
+      <c s="6" r="Y65"/>
     </row>
     <row r="66">
       <c s="3" r="A66"/>
-      <c s="32" r="B66"/>
-      <c s="4" r="C66"/>
+      <c s="31" r="B66"/>
+      <c s="5" r="C66"/>
       <c s="2" r="D66"/>
       <c s="15" r="E66"/>
       <c s="15" r="F66"/>
@@ -4553,25 +4851,25 @@
       <c s="15" r="I66"/>
       <c s="15" r="J66"/>
       <c s="15" r="K66"/>
-      <c s="44" r="L66"/>
-      <c s="30" r="M66"/>
+      <c s="43" r="L66"/>
+      <c s="29" r="M66"/>
       <c s="26" r="N66"/>
-      <c s="5" r="O66"/>
-      <c s="5" r="P66"/>
-      <c s="5" r="Q66"/>
-      <c s="5" r="R66"/>
-      <c s="5" r="S66"/>
-      <c s="5" r="T66"/>
-      <c s="5" r="U66"/>
-      <c s="5" r="V66"/>
-      <c s="5" r="W66"/>
-      <c s="5" r="X66"/>
-      <c s="5" r="Y66"/>
+      <c s="6" r="O66"/>
+      <c s="6" r="P66"/>
+      <c s="6" r="Q66"/>
+      <c s="6" r="R66"/>
+      <c s="6" r="S66"/>
+      <c s="6" r="T66"/>
+      <c s="6" r="U66"/>
+      <c s="6" r="V66"/>
+      <c s="6" r="W66"/>
+      <c s="6" r="X66"/>
+      <c s="6" r="Y66"/>
     </row>
     <row r="67">
       <c s="3" r="A67"/>
-      <c s="32" r="B67"/>
-      <c s="4" r="C67"/>
+      <c s="31" r="B67"/>
+      <c s="5" r="C67"/>
       <c s="2" r="D67"/>
       <c s="15" r="E67"/>
       <c s="15" r="F67"/>
@@ -4580,25 +4878,25 @@
       <c s="15" r="I67"/>
       <c s="15" r="J67"/>
       <c s="15" r="K67"/>
-      <c s="44" r="L67"/>
-      <c s="30" r="M67"/>
+      <c s="43" r="L67"/>
+      <c s="29" r="M67"/>
       <c s="26" r="N67"/>
-      <c s="5" r="O67"/>
-      <c s="5" r="P67"/>
-      <c s="5" r="Q67"/>
-      <c s="5" r="R67"/>
-      <c s="5" r="S67"/>
-      <c s="5" r="T67"/>
-      <c s="5" r="U67"/>
-      <c s="5" r="V67"/>
-      <c s="5" r="W67"/>
-      <c s="5" r="X67"/>
-      <c s="5" r="Y67"/>
+      <c s="6" r="O67"/>
+      <c s="6" r="P67"/>
+      <c s="6" r="Q67"/>
+      <c s="6" r="R67"/>
+      <c s="6" r="S67"/>
+      <c s="6" r="T67"/>
+      <c s="6" r="U67"/>
+      <c s="6" r="V67"/>
+      <c s="6" r="W67"/>
+      <c s="6" r="X67"/>
+      <c s="6" r="Y67"/>
     </row>
     <row r="68">
       <c s="3" r="A68"/>
-      <c s="32" r="B68"/>
-      <c s="4" r="C68"/>
+      <c s="31" r="B68"/>
+      <c s="5" r="C68"/>
       <c s="2" r="D68"/>
       <c s="15" r="E68"/>
       <c s="15" r="F68"/>
@@ -4607,25 +4905,25 @@
       <c s="15" r="I68"/>
       <c s="15" r="J68"/>
       <c s="15" r="K68"/>
-      <c s="44" r="L68"/>
-      <c s="30" r="M68"/>
+      <c s="43" r="L68"/>
+      <c s="29" r="M68"/>
       <c s="26" r="N68"/>
-      <c s="5" r="O68"/>
-      <c s="5" r="P68"/>
-      <c s="5" r="Q68"/>
-      <c s="5" r="R68"/>
-      <c s="5" r="S68"/>
-      <c s="5" r="T68"/>
-      <c s="5" r="U68"/>
-      <c s="5" r="V68"/>
-      <c s="5" r="W68"/>
-      <c s="5" r="X68"/>
-      <c s="5" r="Y68"/>
+      <c s="6" r="O68"/>
+      <c s="6" r="P68"/>
+      <c s="6" r="Q68"/>
+      <c s="6" r="R68"/>
+      <c s="6" r="S68"/>
+      <c s="6" r="T68"/>
+      <c s="6" r="U68"/>
+      <c s="6" r="V68"/>
+      <c s="6" r="W68"/>
+      <c s="6" r="X68"/>
+      <c s="6" r="Y68"/>
     </row>
     <row r="69">
       <c s="3" r="A69"/>
-      <c s="32" r="B69"/>
-      <c s="4" r="C69"/>
+      <c s="31" r="B69"/>
+      <c s="5" r="C69"/>
       <c s="2" r="D69"/>
       <c s="15" r="E69"/>
       <c s="15" r="F69"/>
@@ -4634,25 +4932,25 @@
       <c s="15" r="I69"/>
       <c s="15" r="J69"/>
       <c s="15" r="K69"/>
-      <c s="44" r="L69"/>
-      <c s="30" r="M69"/>
+      <c s="43" r="L69"/>
+      <c s="29" r="M69"/>
       <c s="26" r="N69"/>
-      <c s="5" r="O69"/>
-      <c s="5" r="P69"/>
-      <c s="5" r="Q69"/>
-      <c s="5" r="R69"/>
-      <c s="5" r="S69"/>
-      <c s="5" r="T69"/>
-      <c s="5" r="U69"/>
-      <c s="5" r="V69"/>
-      <c s="5" r="W69"/>
-      <c s="5" r="X69"/>
-      <c s="5" r="Y69"/>
+      <c s="6" r="O69"/>
+      <c s="6" r="P69"/>
+      <c s="6" r="Q69"/>
+      <c s="6" r="R69"/>
+      <c s="6" r="S69"/>
+      <c s="6" r="T69"/>
+      <c s="6" r="U69"/>
+      <c s="6" r="V69"/>
+      <c s="6" r="W69"/>
+      <c s="6" r="X69"/>
+      <c s="6" r="Y69"/>
     </row>
     <row r="70">
       <c s="3" r="A70"/>
-      <c s="32" r="B70"/>
-      <c s="4" r="C70"/>
+      <c s="31" r="B70"/>
+      <c s="5" r="C70"/>
       <c s="2" r="D70"/>
       <c s="15" r="E70"/>
       <c s="15" r="F70"/>
@@ -4661,25 +4959,25 @@
       <c s="15" r="I70"/>
       <c s="15" r="J70"/>
       <c s="15" r="K70"/>
-      <c s="44" r="L70"/>
-      <c s="30" r="M70"/>
+      <c s="43" r="L70"/>
+      <c s="29" r="M70"/>
       <c s="26" r="N70"/>
-      <c s="5" r="O70"/>
-      <c s="5" r="P70"/>
-      <c s="5" r="Q70"/>
-      <c s="5" r="R70"/>
-      <c s="5" r="S70"/>
-      <c s="5" r="T70"/>
-      <c s="5" r="U70"/>
-      <c s="5" r="V70"/>
-      <c s="5" r="W70"/>
-      <c s="5" r="X70"/>
-      <c s="5" r="Y70"/>
+      <c s="6" r="O70"/>
+      <c s="6" r="P70"/>
+      <c s="6" r="Q70"/>
+      <c s="6" r="R70"/>
+      <c s="6" r="S70"/>
+      <c s="6" r="T70"/>
+      <c s="6" r="U70"/>
+      <c s="6" r="V70"/>
+      <c s="6" r="W70"/>
+      <c s="6" r="X70"/>
+      <c s="6" r="Y70"/>
     </row>
     <row r="71">
       <c s="3" r="A71"/>
-      <c s="32" r="B71"/>
-      <c s="4" r="C71"/>
+      <c s="31" r="B71"/>
+      <c s="5" r="C71"/>
       <c s="2" r="D71"/>
       <c s="15" r="E71"/>
       <c s="15" r="F71"/>
@@ -4688,25 +4986,25 @@
       <c s="15" r="I71"/>
       <c s="15" r="J71"/>
       <c s="15" r="K71"/>
-      <c s="44" r="L71"/>
-      <c s="30" r="M71"/>
+      <c s="43" r="L71"/>
+      <c s="29" r="M71"/>
       <c s="26" r="N71"/>
-      <c s="5" r="O71"/>
-      <c s="5" r="P71"/>
-      <c s="5" r="Q71"/>
-      <c s="5" r="R71"/>
-      <c s="5" r="S71"/>
-      <c s="5" r="T71"/>
-      <c s="5" r="U71"/>
-      <c s="5" r="V71"/>
-      <c s="5" r="W71"/>
-      <c s="5" r="X71"/>
-      <c s="5" r="Y71"/>
+      <c s="6" r="O71"/>
+      <c s="6" r="P71"/>
+      <c s="6" r="Q71"/>
+      <c s="6" r="R71"/>
+      <c s="6" r="S71"/>
+      <c s="6" r="T71"/>
+      <c s="6" r="U71"/>
+      <c s="6" r="V71"/>
+      <c s="6" r="W71"/>
+      <c s="6" r="X71"/>
+      <c s="6" r="Y71"/>
     </row>
     <row r="72">
       <c s="3" r="A72"/>
-      <c s="32" r="B72"/>
-      <c s="4" r="C72"/>
+      <c s="31" r="B72"/>
+      <c s="5" r="C72"/>
       <c s="2" r="D72"/>
       <c s="15" r="E72"/>
       <c s="15" r="F72"/>
@@ -4715,25 +5013,25 @@
       <c s="15" r="I72"/>
       <c s="15" r="J72"/>
       <c s="15" r="K72"/>
-      <c s="44" r="L72"/>
-      <c s="30" r="M72"/>
+      <c s="43" r="L72"/>
+      <c s="29" r="M72"/>
       <c s="26" r="N72"/>
-      <c s="5" r="O72"/>
-      <c s="5" r="P72"/>
-      <c s="5" r="Q72"/>
-      <c s="5" r="R72"/>
-      <c s="5" r="S72"/>
-      <c s="5" r="T72"/>
-      <c s="5" r="U72"/>
-      <c s="5" r="V72"/>
-      <c s="5" r="W72"/>
-      <c s="5" r="X72"/>
-      <c s="5" r="Y72"/>
+      <c s="6" r="O72"/>
+      <c s="6" r="P72"/>
+      <c s="6" r="Q72"/>
+      <c s="6" r="R72"/>
+      <c s="6" r="S72"/>
+      <c s="6" r="T72"/>
+      <c s="6" r="U72"/>
+      <c s="6" r="V72"/>
+      <c s="6" r="W72"/>
+      <c s="6" r="X72"/>
+      <c s="6" r="Y72"/>
     </row>
     <row r="73">
       <c s="3" r="A73"/>
-      <c s="32" r="B73"/>
-      <c s="4" r="C73"/>
+      <c s="31" r="B73"/>
+      <c s="5" r="C73"/>
       <c s="2" r="D73"/>
       <c s="15" r="E73"/>
       <c s="15" r="F73"/>
@@ -4742,25 +5040,25 @@
       <c s="15" r="I73"/>
       <c s="15" r="J73"/>
       <c s="15" r="K73"/>
-      <c s="44" r="L73"/>
-      <c s="30" r="M73"/>
+      <c s="43" r="L73"/>
+      <c s="29" r="M73"/>
       <c s="26" r="N73"/>
-      <c s="5" r="O73"/>
-      <c s="5" r="P73"/>
-      <c s="5" r="Q73"/>
-      <c s="5" r="R73"/>
-      <c s="5" r="S73"/>
-      <c s="5" r="T73"/>
-      <c s="5" r="U73"/>
-      <c s="5" r="V73"/>
-      <c s="5" r="W73"/>
-      <c s="5" r="X73"/>
-      <c s="5" r="Y73"/>
+      <c s="6" r="O73"/>
+      <c s="6" r="P73"/>
+      <c s="6" r="Q73"/>
+      <c s="6" r="R73"/>
+      <c s="6" r="S73"/>
+      <c s="6" r="T73"/>
+      <c s="6" r="U73"/>
+      <c s="6" r="V73"/>
+      <c s="6" r="W73"/>
+      <c s="6" r="X73"/>
+      <c s="6" r="Y73"/>
     </row>
     <row r="74">
       <c s="3" r="A74"/>
-      <c s="32" r="B74"/>
-      <c s="4" r="C74"/>
+      <c s="31" r="B74"/>
+      <c s="5" r="C74"/>
       <c s="2" r="D74"/>
       <c s="15" r="E74"/>
       <c s="15" r="F74"/>
@@ -4769,25 +5067,25 @@
       <c s="15" r="I74"/>
       <c s="15" r="J74"/>
       <c s="15" r="K74"/>
-      <c s="44" r="L74"/>
-      <c s="30" r="M74"/>
+      <c s="43" r="L74"/>
+      <c s="29" r="M74"/>
       <c s="26" r="N74"/>
-      <c s="5" r="O74"/>
-      <c s="5" r="P74"/>
-      <c s="5" r="Q74"/>
-      <c s="5" r="R74"/>
-      <c s="5" r="S74"/>
-      <c s="5" r="T74"/>
-      <c s="5" r="U74"/>
-      <c s="5" r="V74"/>
-      <c s="5" r="W74"/>
-      <c s="5" r="X74"/>
-      <c s="5" r="Y74"/>
+      <c s="6" r="O74"/>
+      <c s="6" r="P74"/>
+      <c s="6" r="Q74"/>
+      <c s="6" r="R74"/>
+      <c s="6" r="S74"/>
+      <c s="6" r="T74"/>
+      <c s="6" r="U74"/>
+      <c s="6" r="V74"/>
+      <c s="6" r="W74"/>
+      <c s="6" r="X74"/>
+      <c s="6" r="Y74"/>
     </row>
     <row r="75">
       <c s="3" r="A75"/>
-      <c s="32" r="B75"/>
-      <c s="4" r="C75"/>
+      <c s="31" r="B75"/>
+      <c s="5" r="C75"/>
       <c s="2" r="D75"/>
       <c s="15" r="E75"/>
       <c s="15" r="F75"/>
@@ -4796,25 +5094,25 @@
       <c s="15" r="I75"/>
       <c s="15" r="J75"/>
       <c s="15" r="K75"/>
-      <c s="44" r="L75"/>
-      <c s="30" r="M75"/>
+      <c s="43" r="L75"/>
+      <c s="29" r="M75"/>
       <c s="26" r="N75"/>
-      <c s="5" r="O75"/>
-      <c s="5" r="P75"/>
-      <c s="5" r="Q75"/>
-      <c s="5" r="R75"/>
-      <c s="5" r="S75"/>
-      <c s="5" r="T75"/>
-      <c s="5" r="U75"/>
-      <c s="5" r="V75"/>
-      <c s="5" r="W75"/>
-      <c s="5" r="X75"/>
-      <c s="5" r="Y75"/>
+      <c s="6" r="O75"/>
+      <c s="6" r="P75"/>
+      <c s="6" r="Q75"/>
+      <c s="6" r="R75"/>
+      <c s="6" r="S75"/>
+      <c s="6" r="T75"/>
+      <c s="6" r="U75"/>
+      <c s="6" r="V75"/>
+      <c s="6" r="W75"/>
+      <c s="6" r="X75"/>
+      <c s="6" r="Y75"/>
     </row>
     <row r="76">
       <c s="3" r="A76"/>
-      <c s="32" r="B76"/>
-      <c s="4" r="C76"/>
+      <c s="31" r="B76"/>
+      <c s="5" r="C76"/>
       <c s="2" r="D76"/>
       <c s="15" r="E76"/>
       <c s="15" r="F76"/>
@@ -4823,25 +5121,25 @@
       <c s="15" r="I76"/>
       <c s="15" r="J76"/>
       <c s="15" r="K76"/>
-      <c s="44" r="L76"/>
-      <c s="30" r="M76"/>
+      <c s="43" r="L76"/>
+      <c s="29" r="M76"/>
       <c s="26" r="N76"/>
-      <c s="5" r="O76"/>
-      <c s="5" r="P76"/>
-      <c s="5" r="Q76"/>
-      <c s="5" r="R76"/>
-      <c s="5" r="S76"/>
-      <c s="5" r="T76"/>
-      <c s="5" r="U76"/>
-      <c s="5" r="V76"/>
-      <c s="5" r="W76"/>
-      <c s="5" r="X76"/>
-      <c s="5" r="Y76"/>
+      <c s="6" r="O76"/>
+      <c s="6" r="P76"/>
+      <c s="6" r="Q76"/>
+      <c s="6" r="R76"/>
+      <c s="6" r="S76"/>
+      <c s="6" r="T76"/>
+      <c s="6" r="U76"/>
+      <c s="6" r="V76"/>
+      <c s="6" r="W76"/>
+      <c s="6" r="X76"/>
+      <c s="6" r="Y76"/>
     </row>
     <row r="77">
       <c s="3" r="A77"/>
-      <c s="32" r="B77"/>
-      <c s="4" r="C77"/>
+      <c s="31" r="B77"/>
+      <c s="5" r="C77"/>
       <c s="2" r="D77"/>
       <c s="15" r="E77"/>
       <c s="15" r="F77"/>
@@ -4850,25 +5148,25 @@
       <c s="15" r="I77"/>
       <c s="15" r="J77"/>
       <c s="15" r="K77"/>
-      <c s="44" r="L77"/>
-      <c s="30" r="M77"/>
+      <c s="43" r="L77"/>
+      <c s="29" r="M77"/>
       <c s="26" r="N77"/>
-      <c s="5" r="O77"/>
-      <c s="5" r="P77"/>
-      <c s="5" r="Q77"/>
-      <c s="5" r="R77"/>
-      <c s="5" r="S77"/>
-      <c s="5" r="T77"/>
-      <c s="5" r="U77"/>
-      <c s="5" r="V77"/>
-      <c s="5" r="W77"/>
-      <c s="5" r="X77"/>
-      <c s="5" r="Y77"/>
+      <c s="6" r="O77"/>
+      <c s="6" r="P77"/>
+      <c s="6" r="Q77"/>
+      <c s="6" r="R77"/>
+      <c s="6" r="S77"/>
+      <c s="6" r="T77"/>
+      <c s="6" r="U77"/>
+      <c s="6" r="V77"/>
+      <c s="6" r="W77"/>
+      <c s="6" r="X77"/>
+      <c s="6" r="Y77"/>
     </row>
     <row r="78">
       <c s="3" r="A78"/>
-      <c s="32" r="B78"/>
-      <c s="4" r="C78"/>
+      <c s="31" r="B78"/>
+      <c s="5" r="C78"/>
       <c s="2" r="D78"/>
       <c s="15" r="E78"/>
       <c s="15" r="F78"/>
@@ -4877,25 +5175,25 @@
       <c s="15" r="I78"/>
       <c s="15" r="J78"/>
       <c s="15" r="K78"/>
-      <c s="44" r="L78"/>
-      <c s="30" r="M78"/>
+      <c s="43" r="L78"/>
+      <c s="29" r="M78"/>
       <c s="26" r="N78"/>
-      <c s="5" r="O78"/>
-      <c s="5" r="P78"/>
-      <c s="5" r="Q78"/>
-      <c s="5" r="R78"/>
-      <c s="5" r="S78"/>
-      <c s="5" r="T78"/>
-      <c s="5" r="U78"/>
-      <c s="5" r="V78"/>
-      <c s="5" r="W78"/>
-      <c s="5" r="X78"/>
-      <c s="5" r="Y78"/>
+      <c s="6" r="O78"/>
+      <c s="6" r="P78"/>
+      <c s="6" r="Q78"/>
+      <c s="6" r="R78"/>
+      <c s="6" r="S78"/>
+      <c s="6" r="T78"/>
+      <c s="6" r="U78"/>
+      <c s="6" r="V78"/>
+      <c s="6" r="W78"/>
+      <c s="6" r="X78"/>
+      <c s="6" r="Y78"/>
     </row>
     <row r="79">
       <c s="3" r="A79"/>
-      <c s="32" r="B79"/>
-      <c s="4" r="C79"/>
+      <c s="31" r="B79"/>
+      <c s="5" r="C79"/>
       <c s="2" r="D79"/>
       <c s="15" r="E79"/>
       <c s="15" r="F79"/>
@@ -4904,25 +5202,25 @@
       <c s="15" r="I79"/>
       <c s="15" r="J79"/>
       <c s="15" r="K79"/>
-      <c s="44" r="L79"/>
-      <c s="30" r="M79"/>
+      <c s="43" r="L79"/>
+      <c s="29" r="M79"/>
       <c s="26" r="N79"/>
-      <c s="5" r="O79"/>
-      <c s="5" r="P79"/>
-      <c s="5" r="Q79"/>
-      <c s="5" r="R79"/>
-      <c s="5" r="S79"/>
-      <c s="5" r="T79"/>
-      <c s="5" r="U79"/>
-      <c s="5" r="V79"/>
-      <c s="5" r="W79"/>
-      <c s="5" r="X79"/>
-      <c s="5" r="Y79"/>
+      <c s="6" r="O79"/>
+      <c s="6" r="P79"/>
+      <c s="6" r="Q79"/>
+      <c s="6" r="R79"/>
+      <c s="6" r="S79"/>
+      <c s="6" r="T79"/>
+      <c s="6" r="U79"/>
+      <c s="6" r="V79"/>
+      <c s="6" r="W79"/>
+      <c s="6" r="X79"/>
+      <c s="6" r="Y79"/>
     </row>
     <row r="80">
       <c s="3" r="A80"/>
-      <c s="32" r="B80"/>
-      <c s="4" r="C80"/>
+      <c s="31" r="B80"/>
+      <c s="5" r="C80"/>
       <c s="2" r="D80"/>
       <c s="15" r="E80"/>
       <c s="15" r="F80"/>
@@ -4931,25 +5229,25 @@
       <c s="15" r="I80"/>
       <c s="15" r="J80"/>
       <c s="15" r="K80"/>
-      <c s="44" r="L80"/>
-      <c s="30" r="M80"/>
+      <c s="43" r="L80"/>
+      <c s="29" r="M80"/>
       <c s="26" r="N80"/>
-      <c s="5" r="O80"/>
-      <c s="5" r="P80"/>
-      <c s="5" r="Q80"/>
-      <c s="5" r="R80"/>
-      <c s="5" r="S80"/>
-      <c s="5" r="T80"/>
-      <c s="5" r="U80"/>
-      <c s="5" r="V80"/>
-      <c s="5" r="W80"/>
-      <c s="5" r="X80"/>
-      <c s="5" r="Y80"/>
+      <c s="6" r="O80"/>
+      <c s="6" r="P80"/>
+      <c s="6" r="Q80"/>
+      <c s="6" r="R80"/>
+      <c s="6" r="S80"/>
+      <c s="6" r="T80"/>
+      <c s="6" r="U80"/>
+      <c s="6" r="V80"/>
+      <c s="6" r="W80"/>
+      <c s="6" r="X80"/>
+      <c s="6" r="Y80"/>
     </row>
     <row r="81">
       <c s="3" r="A81"/>
-      <c s="32" r="B81"/>
-      <c s="4" r="C81"/>
+      <c s="31" r="B81"/>
+      <c s="5" r="C81"/>
       <c s="2" r="D81"/>
       <c s="15" r="E81"/>
       <c s="15" r="F81"/>
@@ -4958,25 +5256,25 @@
       <c s="15" r="I81"/>
       <c s="15" r="J81"/>
       <c s="15" r="K81"/>
-      <c s="44" r="L81"/>
-      <c s="30" r="M81"/>
+      <c s="43" r="L81"/>
+      <c s="29" r="M81"/>
       <c s="26" r="N81"/>
-      <c s="5" r="O81"/>
-      <c s="5" r="P81"/>
-      <c s="5" r="Q81"/>
-      <c s="5" r="R81"/>
-      <c s="5" r="S81"/>
-      <c s="5" r="T81"/>
-      <c s="5" r="U81"/>
-      <c s="5" r="V81"/>
-      <c s="5" r="W81"/>
-      <c s="5" r="X81"/>
-      <c s="5" r="Y81"/>
+      <c s="6" r="O81"/>
+      <c s="6" r="P81"/>
+      <c s="6" r="Q81"/>
+      <c s="6" r="R81"/>
+      <c s="6" r="S81"/>
+      <c s="6" r="T81"/>
+      <c s="6" r="U81"/>
+      <c s="6" r="V81"/>
+      <c s="6" r="W81"/>
+      <c s="6" r="X81"/>
+      <c s="6" r="Y81"/>
     </row>
     <row r="82">
       <c s="3" r="A82"/>
-      <c s="32" r="B82"/>
-      <c s="4" r="C82"/>
+      <c s="31" r="B82"/>
+      <c s="5" r="C82"/>
       <c s="2" r="D82"/>
       <c s="15" r="E82"/>
       <c s="15" r="F82"/>
@@ -4985,25 +5283,25 @@
       <c s="15" r="I82"/>
       <c s="15" r="J82"/>
       <c s="15" r="K82"/>
-      <c s="44" r="L82"/>
-      <c s="30" r="M82"/>
+      <c s="43" r="L82"/>
+      <c s="29" r="M82"/>
       <c s="26" r="N82"/>
-      <c s="5" r="O82"/>
-      <c s="5" r="P82"/>
-      <c s="5" r="Q82"/>
-      <c s="5" r="R82"/>
-      <c s="5" r="S82"/>
-      <c s="5" r="T82"/>
-      <c s="5" r="U82"/>
-      <c s="5" r="V82"/>
-      <c s="5" r="W82"/>
-      <c s="5" r="X82"/>
-      <c s="5" r="Y82"/>
+      <c s="6" r="O82"/>
+      <c s="6" r="P82"/>
+      <c s="6" r="Q82"/>
+      <c s="6" r="R82"/>
+      <c s="6" r="S82"/>
+      <c s="6" r="T82"/>
+      <c s="6" r="U82"/>
+      <c s="6" r="V82"/>
+      <c s="6" r="W82"/>
+      <c s="6" r="X82"/>
+      <c s="6" r="Y82"/>
     </row>
     <row r="83">
       <c s="3" r="A83"/>
-      <c s="32" r="B83"/>
-      <c s="4" r="C83"/>
+      <c s="31" r="B83"/>
+      <c s="5" r="C83"/>
       <c s="2" r="D83"/>
       <c s="15" r="E83"/>
       <c s="15" r="F83"/>
@@ -5012,25 +5310,25 @@
       <c s="15" r="I83"/>
       <c s="15" r="J83"/>
       <c s="15" r="K83"/>
-      <c s="44" r="L83"/>
-      <c s="30" r="M83"/>
+      <c s="43" r="L83"/>
+      <c s="29" r="M83"/>
       <c s="26" r="N83"/>
-      <c s="5" r="O83"/>
-      <c s="5" r="P83"/>
-      <c s="5" r="Q83"/>
-      <c s="5" r="R83"/>
-      <c s="5" r="S83"/>
-      <c s="5" r="T83"/>
-      <c s="5" r="U83"/>
-      <c s="5" r="V83"/>
-      <c s="5" r="W83"/>
-      <c s="5" r="X83"/>
-      <c s="5" r="Y83"/>
+      <c s="6" r="O83"/>
+      <c s="6" r="P83"/>
+      <c s="6" r="Q83"/>
+      <c s="6" r="R83"/>
+      <c s="6" r="S83"/>
+      <c s="6" r="T83"/>
+      <c s="6" r="U83"/>
+      <c s="6" r="V83"/>
+      <c s="6" r="W83"/>
+      <c s="6" r="X83"/>
+      <c s="6" r="Y83"/>
     </row>
     <row r="84">
       <c s="3" r="A84"/>
-      <c s="32" r="B84"/>
-      <c s="4" r="C84"/>
+      <c s="31" r="B84"/>
+      <c s="5" r="C84"/>
       <c s="2" r="D84"/>
       <c s="15" r="E84"/>
       <c s="15" r="F84"/>
@@ -5039,25 +5337,25 @@
       <c s="15" r="I84"/>
       <c s="15" r="J84"/>
       <c s="15" r="K84"/>
-      <c s="44" r="L84"/>
-      <c s="30" r="M84"/>
+      <c s="43" r="L84"/>
+      <c s="29" r="M84"/>
       <c s="26" r="N84"/>
-      <c s="5" r="O84"/>
-      <c s="5" r="P84"/>
-      <c s="5" r="Q84"/>
-      <c s="5" r="R84"/>
-      <c s="5" r="S84"/>
-      <c s="5" r="T84"/>
-      <c s="5" r="U84"/>
-      <c s="5" r="V84"/>
-      <c s="5" r="W84"/>
-      <c s="5" r="X84"/>
-      <c s="5" r="Y84"/>
+      <c s="6" r="O84"/>
+      <c s="6" r="P84"/>
+      <c s="6" r="Q84"/>
+      <c s="6" r="R84"/>
+      <c s="6" r="S84"/>
+      <c s="6" r="T84"/>
+      <c s="6" r="U84"/>
+      <c s="6" r="V84"/>
+      <c s="6" r="W84"/>
+      <c s="6" r="X84"/>
+      <c s="6" r="Y84"/>
     </row>
     <row r="85">
       <c s="3" r="A85"/>
-      <c s="32" r="B85"/>
-      <c s="4" r="C85"/>
+      <c s="31" r="B85"/>
+      <c s="5" r="C85"/>
       <c s="2" r="D85"/>
       <c s="15" r="E85"/>
       <c s="15" r="F85"/>
@@ -5066,25 +5364,25 @@
       <c s="15" r="I85"/>
       <c s="15" r="J85"/>
       <c s="15" r="K85"/>
-      <c s="44" r="L85"/>
-      <c s="30" r="M85"/>
+      <c s="43" r="L85"/>
+      <c s="29" r="M85"/>
       <c s="26" r="N85"/>
-      <c s="5" r="O85"/>
-      <c s="5" r="P85"/>
-      <c s="5" r="Q85"/>
-      <c s="5" r="R85"/>
-      <c s="5" r="S85"/>
-      <c s="5" r="T85"/>
-      <c s="5" r="U85"/>
-      <c s="5" r="V85"/>
-      <c s="5" r="W85"/>
-      <c s="5" r="X85"/>
-      <c s="5" r="Y85"/>
+      <c s="6" r="O85"/>
+      <c s="6" r="P85"/>
+      <c s="6" r="Q85"/>
+      <c s="6" r="R85"/>
+      <c s="6" r="S85"/>
+      <c s="6" r="T85"/>
+      <c s="6" r="U85"/>
+      <c s="6" r="V85"/>
+      <c s="6" r="W85"/>
+      <c s="6" r="X85"/>
+      <c s="6" r="Y85"/>
     </row>
     <row r="86">
       <c s="3" r="A86"/>
-      <c s="32" r="B86"/>
-      <c s="4" r="C86"/>
+      <c s="31" r="B86"/>
+      <c s="5" r="C86"/>
       <c s="2" r="D86"/>
       <c s="15" r="E86"/>
       <c s="15" r="F86"/>
@@ -5093,25 +5391,25 @@
       <c s="15" r="I86"/>
       <c s="15" r="J86"/>
       <c s="15" r="K86"/>
-      <c s="44" r="L86"/>
-      <c s="30" r="M86"/>
+      <c s="43" r="L86"/>
+      <c s="29" r="M86"/>
       <c s="26" r="N86"/>
-      <c s="5" r="O86"/>
-      <c s="5" r="P86"/>
-      <c s="5" r="Q86"/>
-      <c s="5" r="R86"/>
-      <c s="5" r="S86"/>
-      <c s="5" r="T86"/>
-      <c s="5" r="U86"/>
-      <c s="5" r="V86"/>
-      <c s="5" r="W86"/>
-      <c s="5" r="X86"/>
-      <c s="5" r="Y86"/>
+      <c s="6" r="O86"/>
+      <c s="6" r="P86"/>
+      <c s="6" r="Q86"/>
+      <c s="6" r="R86"/>
+      <c s="6" r="S86"/>
+      <c s="6" r="T86"/>
+      <c s="6" r="U86"/>
+      <c s="6" r="V86"/>
+      <c s="6" r="W86"/>
+      <c s="6" r="X86"/>
+      <c s="6" r="Y86"/>
     </row>
     <row r="87">
       <c s="3" r="A87"/>
-      <c s="32" r="B87"/>
-      <c s="4" r="C87"/>
+      <c s="31" r="B87"/>
+      <c s="5" r="C87"/>
       <c s="2" r="D87"/>
       <c s="15" r="E87"/>
       <c s="15" r="F87"/>
@@ -5120,25 +5418,25 @@
       <c s="15" r="I87"/>
       <c s="15" r="J87"/>
       <c s="15" r="K87"/>
-      <c s="44" r="L87"/>
-      <c s="30" r="M87"/>
+      <c s="43" r="L87"/>
+      <c s="29" r="M87"/>
       <c s="26" r="N87"/>
-      <c s="5" r="O87"/>
-      <c s="5" r="P87"/>
-      <c s="5" r="Q87"/>
-      <c s="5" r="R87"/>
-      <c s="5" r="S87"/>
-      <c s="5" r="T87"/>
-      <c s="5" r="U87"/>
-      <c s="5" r="V87"/>
-      <c s="5" r="W87"/>
-      <c s="5" r="X87"/>
-      <c s="5" r="Y87"/>
+      <c s="6" r="O87"/>
+      <c s="6" r="P87"/>
+      <c s="6" r="Q87"/>
+      <c s="6" r="R87"/>
+      <c s="6" r="S87"/>
+      <c s="6" r="T87"/>
+      <c s="6" r="U87"/>
+      <c s="6" r="V87"/>
+      <c s="6" r="W87"/>
+      <c s="6" r="X87"/>
+      <c s="6" r="Y87"/>
     </row>
     <row r="88">
       <c s="3" r="A88"/>
-      <c s="32" r="B88"/>
-      <c s="4" r="C88"/>
+      <c s="31" r="B88"/>
+      <c s="5" r="C88"/>
       <c s="2" r="D88"/>
       <c s="15" r="E88"/>
       <c s="15" r="F88"/>
@@ -5147,25 +5445,25 @@
       <c s="15" r="I88"/>
       <c s="15" r="J88"/>
       <c s="15" r="K88"/>
-      <c s="44" r="L88"/>
-      <c s="30" r="M88"/>
+      <c s="43" r="L88"/>
+      <c s="29" r="M88"/>
       <c s="26" r="N88"/>
-      <c s="5" r="O88"/>
-      <c s="5" r="P88"/>
-      <c s="5" r="Q88"/>
-      <c s="5" r="R88"/>
-      <c s="5" r="S88"/>
-      <c s="5" r="T88"/>
-      <c s="5" r="U88"/>
-      <c s="5" r="V88"/>
-      <c s="5" r="W88"/>
-      <c s="5" r="X88"/>
-      <c s="5" r="Y88"/>
+      <c s="6" r="O88"/>
+      <c s="6" r="P88"/>
+      <c s="6" r="Q88"/>
+      <c s="6" r="R88"/>
+      <c s="6" r="S88"/>
+      <c s="6" r="T88"/>
+      <c s="6" r="U88"/>
+      <c s="6" r="V88"/>
+      <c s="6" r="W88"/>
+      <c s="6" r="X88"/>
+      <c s="6" r="Y88"/>
     </row>
     <row r="89">
       <c s="3" r="A89"/>
-      <c s="32" r="B89"/>
-      <c s="4" r="C89"/>
+      <c s="31" r="B89"/>
+      <c s="5" r="C89"/>
       <c s="2" r="D89"/>
       <c s="15" r="E89"/>
       <c s="15" r="F89"/>
@@ -5174,25 +5472,25 @@
       <c s="15" r="I89"/>
       <c s="15" r="J89"/>
       <c s="15" r="K89"/>
-      <c s="44" r="L89"/>
-      <c s="30" r="M89"/>
+      <c s="43" r="L89"/>
+      <c s="29" r="M89"/>
       <c s="26" r="N89"/>
-      <c s="5" r="O89"/>
-      <c s="5" r="P89"/>
-      <c s="5" r="Q89"/>
-      <c s="5" r="R89"/>
-      <c s="5" r="S89"/>
-      <c s="5" r="T89"/>
-      <c s="5" r="U89"/>
-      <c s="5" r="V89"/>
-      <c s="5" r="W89"/>
-      <c s="5" r="X89"/>
-      <c s="5" r="Y89"/>
+      <c s="6" r="O89"/>
+      <c s="6" r="P89"/>
+      <c s="6" r="Q89"/>
+      <c s="6" r="R89"/>
+      <c s="6" r="S89"/>
+      <c s="6" r="T89"/>
+      <c s="6" r="U89"/>
+      <c s="6" r="V89"/>
+      <c s="6" r="W89"/>
+      <c s="6" r="X89"/>
+      <c s="6" r="Y89"/>
     </row>
     <row r="90">
       <c s="3" r="A90"/>
-      <c s="32" r="B90"/>
-      <c s="4" r="C90"/>
+      <c s="31" r="B90"/>
+      <c s="5" r="C90"/>
       <c s="2" r="D90"/>
       <c s="15" r="E90"/>
       <c s="15" r="F90"/>
@@ -5201,25 +5499,25 @@
       <c s="15" r="I90"/>
       <c s="15" r="J90"/>
       <c s="15" r="K90"/>
-      <c s="44" r="L90"/>
-      <c s="30" r="M90"/>
+      <c s="43" r="L90"/>
+      <c s="29" r="M90"/>
       <c s="26" r="N90"/>
-      <c s="5" r="O90"/>
-      <c s="5" r="P90"/>
-      <c s="5" r="Q90"/>
-      <c s="5" r="R90"/>
-      <c s="5" r="S90"/>
-      <c s="5" r="T90"/>
-      <c s="5" r="U90"/>
-      <c s="5" r="V90"/>
-      <c s="5" r="W90"/>
-      <c s="5" r="X90"/>
-      <c s="5" r="Y90"/>
+      <c s="6" r="O90"/>
+      <c s="6" r="P90"/>
+      <c s="6" r="Q90"/>
+      <c s="6" r="R90"/>
+      <c s="6" r="S90"/>
+      <c s="6" r="T90"/>
+      <c s="6" r="U90"/>
+      <c s="6" r="V90"/>
+      <c s="6" r="W90"/>
+      <c s="6" r="X90"/>
+      <c s="6" r="Y90"/>
     </row>
     <row r="91">
       <c s="3" r="A91"/>
-      <c s="32" r="B91"/>
-      <c s="4" r="C91"/>
+      <c s="31" r="B91"/>
+      <c s="5" r="C91"/>
       <c s="2" r="D91"/>
       <c s="15" r="E91"/>
       <c s="15" r="F91"/>
@@ -5228,25 +5526,25 @@
       <c s="15" r="I91"/>
       <c s="15" r="J91"/>
       <c s="15" r="K91"/>
-      <c s="44" r="L91"/>
-      <c s="30" r="M91"/>
+      <c s="43" r="L91"/>
+      <c s="29" r="M91"/>
       <c s="26" r="N91"/>
-      <c s="5" r="O91"/>
-      <c s="5" r="P91"/>
-      <c s="5" r="Q91"/>
-      <c s="5" r="R91"/>
-      <c s="5" r="S91"/>
-      <c s="5" r="T91"/>
-      <c s="5" r="U91"/>
-      <c s="5" r="V91"/>
-      <c s="5" r="W91"/>
-      <c s="5" r="X91"/>
-      <c s="5" r="Y91"/>
+      <c s="6" r="O91"/>
+      <c s="6" r="P91"/>
+      <c s="6" r="Q91"/>
+      <c s="6" r="R91"/>
+      <c s="6" r="S91"/>
+      <c s="6" r="T91"/>
+      <c s="6" r="U91"/>
+      <c s="6" r="V91"/>
+      <c s="6" r="W91"/>
+      <c s="6" r="X91"/>
+      <c s="6" r="Y91"/>
     </row>
     <row r="92">
       <c s="3" r="A92"/>
-      <c s="32" r="B92"/>
-      <c s="4" r="C92"/>
+      <c s="31" r="B92"/>
+      <c s="5" r="C92"/>
       <c s="2" r="D92"/>
       <c s="15" r="E92"/>
       <c s="15" r="F92"/>
@@ -5255,25 +5553,25 @@
       <c s="15" r="I92"/>
       <c s="15" r="J92"/>
       <c s="15" r="K92"/>
-      <c s="44" r="L92"/>
-      <c s="30" r="M92"/>
+      <c s="43" r="L92"/>
+      <c s="29" r="M92"/>
       <c s="26" r="N92"/>
-      <c s="5" r="O92"/>
-      <c s="5" r="P92"/>
-      <c s="5" r="Q92"/>
-      <c s="5" r="R92"/>
-      <c s="5" r="S92"/>
-      <c s="5" r="T92"/>
-      <c s="5" r="U92"/>
-      <c s="5" r="V92"/>
-      <c s="5" r="W92"/>
-      <c s="5" r="X92"/>
-      <c s="5" r="Y92"/>
+      <c s="6" r="O92"/>
+      <c s="6" r="P92"/>
+      <c s="6" r="Q92"/>
+      <c s="6" r="R92"/>
+      <c s="6" r="S92"/>
+      <c s="6" r="T92"/>
+      <c s="6" r="U92"/>
+      <c s="6" r="V92"/>
+      <c s="6" r="W92"/>
+      <c s="6" r="X92"/>
+      <c s="6" r="Y92"/>
     </row>
     <row r="93">
       <c s="3" r="A93"/>
-      <c s="32" r="B93"/>
-      <c s="4" r="C93"/>
+      <c s="31" r="B93"/>
+      <c s="5" r="C93"/>
       <c s="2" r="D93"/>
       <c s="15" r="E93"/>
       <c s="15" r="F93"/>
@@ -5282,25 +5580,25 @@
       <c s="15" r="I93"/>
       <c s="15" r="J93"/>
       <c s="15" r="K93"/>
-      <c s="44" r="L93"/>
-      <c s="30" r="M93"/>
+      <c s="43" r="L93"/>
+      <c s="29" r="M93"/>
       <c s="26" r="N93"/>
-      <c s="5" r="O93"/>
-      <c s="5" r="P93"/>
-      <c s="5" r="Q93"/>
-      <c s="5" r="R93"/>
-      <c s="5" r="S93"/>
-      <c s="5" r="T93"/>
-      <c s="5" r="U93"/>
-      <c s="5" r="V93"/>
-      <c s="5" r="W93"/>
-      <c s="5" r="X93"/>
-      <c s="5" r="Y93"/>
+      <c s="6" r="O93"/>
+      <c s="6" r="P93"/>
+      <c s="6" r="Q93"/>
+      <c s="6" r="R93"/>
+      <c s="6" r="S93"/>
+      <c s="6" r="T93"/>
+      <c s="6" r="U93"/>
+      <c s="6" r="V93"/>
+      <c s="6" r="W93"/>
+      <c s="6" r="X93"/>
+      <c s="6" r="Y93"/>
     </row>
     <row r="94">
       <c s="3" r="A94"/>
-      <c s="32" r="B94"/>
-      <c s="4" r="C94"/>
+      <c s="31" r="B94"/>
+      <c s="5" r="C94"/>
       <c s="2" r="D94"/>
       <c s="15" r="E94"/>
       <c s="15" r="F94"/>
@@ -5309,25 +5607,25 @@
       <c s="15" r="I94"/>
       <c s="15" r="J94"/>
       <c s="15" r="K94"/>
-      <c s="44" r="L94"/>
-      <c s="30" r="M94"/>
+      <c s="43" r="L94"/>
+      <c s="29" r="M94"/>
       <c s="26" r="N94"/>
-      <c s="5" r="O94"/>
-      <c s="5" r="P94"/>
-      <c s="5" r="Q94"/>
-      <c s="5" r="R94"/>
-      <c s="5" r="S94"/>
-      <c s="5" r="T94"/>
-      <c s="5" r="U94"/>
-      <c s="5" r="V94"/>
-      <c s="5" r="W94"/>
-      <c s="5" r="X94"/>
-      <c s="5" r="Y94"/>
+      <c s="6" r="O94"/>
+      <c s="6" r="P94"/>
+      <c s="6" r="Q94"/>
+      <c s="6" r="R94"/>
+      <c s="6" r="S94"/>
+      <c s="6" r="T94"/>
+      <c s="6" r="U94"/>
+      <c s="6" r="V94"/>
+      <c s="6" r="W94"/>
+      <c s="6" r="X94"/>
+      <c s="6" r="Y94"/>
     </row>
     <row r="95">
       <c s="3" r="A95"/>
-      <c s="32" r="B95"/>
-      <c s="4" r="C95"/>
+      <c s="31" r="B95"/>
+      <c s="5" r="C95"/>
       <c s="2" r="D95"/>
       <c s="15" r="E95"/>
       <c s="15" r="F95"/>
@@ -5336,25 +5634,25 @@
       <c s="15" r="I95"/>
       <c s="15" r="J95"/>
       <c s="15" r="K95"/>
-      <c s="44" r="L95"/>
-      <c s="30" r="M95"/>
+      <c s="43" r="L95"/>
+      <c s="29" r="M95"/>
       <c s="26" r="N95"/>
-      <c s="5" r="O95"/>
-      <c s="5" r="P95"/>
-      <c s="5" r="Q95"/>
-      <c s="5" r="R95"/>
-      <c s="5" r="S95"/>
-      <c s="5" r="T95"/>
-      <c s="5" r="U95"/>
-      <c s="5" r="V95"/>
-      <c s="5" r="W95"/>
-      <c s="5" r="X95"/>
-      <c s="5" r="Y95"/>
+      <c s="6" r="O95"/>
+      <c s="6" r="P95"/>
+      <c s="6" r="Q95"/>
+      <c s="6" r="R95"/>
+      <c s="6" r="S95"/>
+      <c s="6" r="T95"/>
+      <c s="6" r="U95"/>
+      <c s="6" r="V95"/>
+      <c s="6" r="W95"/>
+      <c s="6" r="X95"/>
+      <c s="6" r="Y95"/>
     </row>
     <row r="96">
       <c s="3" r="A96"/>
-      <c s="32" r="B96"/>
-      <c s="4" r="C96"/>
+      <c s="31" r="B96"/>
+      <c s="5" r="C96"/>
       <c s="2" r="D96"/>
       <c s="15" r="E96"/>
       <c s="15" r="F96"/>
@@ -5363,25 +5661,25 @@
       <c s="15" r="I96"/>
       <c s="15" r="J96"/>
       <c s="15" r="K96"/>
-      <c s="44" r="L96"/>
-      <c s="30" r="M96"/>
+      <c s="43" r="L96"/>
+      <c s="29" r="M96"/>
       <c s="26" r="N96"/>
-      <c s="5" r="O96"/>
-      <c s="5" r="P96"/>
-      <c s="5" r="Q96"/>
-      <c s="5" r="R96"/>
-      <c s="5" r="S96"/>
-      <c s="5" r="T96"/>
-      <c s="5" r="U96"/>
-      <c s="5" r="V96"/>
-      <c s="5" r="W96"/>
-      <c s="5" r="X96"/>
-      <c s="5" r="Y96"/>
+      <c s="6" r="O96"/>
+      <c s="6" r="P96"/>
+      <c s="6" r="Q96"/>
+      <c s="6" r="R96"/>
+      <c s="6" r="S96"/>
+      <c s="6" r="T96"/>
+      <c s="6" r="U96"/>
+      <c s="6" r="V96"/>
+      <c s="6" r="W96"/>
+      <c s="6" r="X96"/>
+      <c s="6" r="Y96"/>
     </row>
     <row r="97">
       <c s="3" r="A97"/>
-      <c s="32" r="B97"/>
-      <c s="4" r="C97"/>
+      <c s="31" r="B97"/>
+      <c s="5" r="C97"/>
       <c s="2" r="D97"/>
       <c s="15" r="E97"/>
       <c s="15" r="F97"/>
@@ -5390,25 +5688,25 @@
       <c s="15" r="I97"/>
       <c s="15" r="J97"/>
       <c s="15" r="K97"/>
-      <c s="44" r="L97"/>
-      <c s="30" r="M97"/>
+      <c s="43" r="L97"/>
+      <c s="29" r="M97"/>
       <c s="26" r="N97"/>
-      <c s="5" r="O97"/>
-      <c s="5" r="P97"/>
-      <c s="5" r="Q97"/>
-      <c s="5" r="R97"/>
-      <c s="5" r="S97"/>
-      <c s="5" r="T97"/>
-      <c s="5" r="U97"/>
-      <c s="5" r="V97"/>
-      <c s="5" r="W97"/>
-      <c s="5" r="X97"/>
-      <c s="5" r="Y97"/>
+      <c s="6" r="O97"/>
+      <c s="6" r="P97"/>
+      <c s="6" r="Q97"/>
+      <c s="6" r="R97"/>
+      <c s="6" r="S97"/>
+      <c s="6" r="T97"/>
+      <c s="6" r="U97"/>
+      <c s="6" r="V97"/>
+      <c s="6" r="W97"/>
+      <c s="6" r="X97"/>
+      <c s="6" r="Y97"/>
     </row>
     <row r="98">
       <c s="3" r="A98"/>
-      <c s="32" r="B98"/>
-      <c s="4" r="C98"/>
+      <c s="31" r="B98"/>
+      <c s="5" r="C98"/>
       <c s="2" r="D98"/>
       <c s="15" r="E98"/>
       <c s="15" r="F98"/>
@@ -5417,25 +5715,25 @@
       <c s="15" r="I98"/>
       <c s="15" r="J98"/>
       <c s="15" r="K98"/>
-      <c s="44" r="L98"/>
-      <c s="30" r="M98"/>
+      <c s="43" r="L98"/>
+      <c s="29" r="M98"/>
       <c s="26" r="N98"/>
-      <c s="5" r="O98"/>
-      <c s="5" r="P98"/>
-      <c s="5" r="Q98"/>
-      <c s="5" r="R98"/>
-      <c s="5" r="S98"/>
-      <c s="5" r="T98"/>
-      <c s="5" r="U98"/>
-      <c s="5" r="V98"/>
-      <c s="5" r="W98"/>
-      <c s="5" r="X98"/>
-      <c s="5" r="Y98"/>
+      <c s="6" r="O98"/>
+      <c s="6" r="P98"/>
+      <c s="6" r="Q98"/>
+      <c s="6" r="R98"/>
+      <c s="6" r="S98"/>
+      <c s="6" r="T98"/>
+      <c s="6" r="U98"/>
+      <c s="6" r="V98"/>
+      <c s="6" r="W98"/>
+      <c s="6" r="X98"/>
+      <c s="6" r="Y98"/>
     </row>
     <row r="99">
       <c s="3" r="A99"/>
-      <c s="32" r="B99"/>
-      <c s="4" r="C99"/>
+      <c s="31" r="B99"/>
+      <c s="5" r="C99"/>
       <c s="2" r="D99"/>
       <c s="15" r="E99"/>
       <c s="15" r="F99"/>
@@ -5444,25 +5742,25 @@
       <c s="15" r="I99"/>
       <c s="15" r="J99"/>
       <c s="15" r="K99"/>
-      <c s="44" r="L99"/>
-      <c s="30" r="M99"/>
+      <c s="43" r="L99"/>
+      <c s="29" r="M99"/>
       <c s="26" r="N99"/>
-      <c s="5" r="O99"/>
-      <c s="5" r="P99"/>
-      <c s="5" r="Q99"/>
-      <c s="5" r="R99"/>
-      <c s="5" r="S99"/>
-      <c s="5" r="T99"/>
-      <c s="5" r="U99"/>
-      <c s="5" r="V99"/>
-      <c s="5" r="W99"/>
-      <c s="5" r="X99"/>
-      <c s="5" r="Y99"/>
+      <c s="6" r="O99"/>
+      <c s="6" r="P99"/>
+      <c s="6" r="Q99"/>
+      <c s="6" r="R99"/>
+      <c s="6" r="S99"/>
+      <c s="6" r="T99"/>
+      <c s="6" r="U99"/>
+      <c s="6" r="V99"/>
+      <c s="6" r="W99"/>
+      <c s="6" r="X99"/>
+      <c s="6" r="Y99"/>
     </row>
     <row r="100">
       <c s="3" r="A100"/>
-      <c s="32" r="B100"/>
-      <c s="4" r="C100"/>
+      <c s="31" r="B100"/>
+      <c s="5" r="C100"/>
       <c s="2" r="D100"/>
       <c s="15" r="E100"/>
       <c s="15" r="F100"/>
@@ -5471,47 +5769,47 @@
       <c s="15" r="I100"/>
       <c s="15" r="J100"/>
       <c s="15" r="K100"/>
-      <c s="44" r="L100"/>
-      <c s="30" r="M100"/>
+      <c s="43" r="L100"/>
+      <c s="29" r="M100"/>
       <c s="26" r="N100"/>
-      <c s="5" r="O100"/>
-      <c s="5" r="P100"/>
-      <c s="5" r="Q100"/>
-      <c s="5" r="R100"/>
-      <c s="5" r="S100"/>
-      <c s="5" r="T100"/>
-      <c s="5" r="U100"/>
-      <c s="5" r="V100"/>
-      <c s="5" r="W100"/>
-      <c s="5" r="X100"/>
-      <c s="5" r="Y100"/>
+      <c s="6" r="O100"/>
+      <c s="6" r="P100"/>
+      <c s="6" r="Q100"/>
+      <c s="6" r="R100"/>
+      <c s="6" r="S100"/>
+      <c s="6" r="T100"/>
+      <c s="6" r="U100"/>
+      <c s="6" r="V100"/>
+      <c s="6" r="W100"/>
+      <c s="6" r="X100"/>
+      <c s="6" r="Y100"/>
     </row>
     <row r="101">
       <c s="12" r="A101"/>
-      <c s="19" r="B101"/>
-      <c s="21" r="C101"/>
+      <c s="18" r="B101"/>
+      <c s="20" r="C101"/>
       <c s="9" r="D101"/>
-      <c s="37" r="E101"/>
-      <c s="37" r="F101"/>
-      <c s="37" r="G101"/>
-      <c s="37" r="H101"/>
-      <c s="37" r="I101"/>
-      <c s="37" r="J101"/>
-      <c s="37" r="K101"/>
-      <c s="46" r="L101"/>
-      <c s="28" r="M101"/>
-      <c s="38" r="N101"/>
-      <c s="5" r="O101"/>
-      <c s="5" r="P101"/>
-      <c s="5" r="Q101"/>
-      <c s="5" r="R101"/>
-      <c s="5" r="S101"/>
-      <c s="5" r="T101"/>
-      <c s="5" r="U101"/>
-      <c s="5" r="V101"/>
-      <c s="5" r="W101"/>
-      <c s="5" r="X101"/>
-      <c s="5" r="Y101"/>
+      <c s="38" r="E101"/>
+      <c s="38" r="F101"/>
+      <c s="38" r="G101"/>
+      <c s="38" r="H101"/>
+      <c s="38" r="I101"/>
+      <c s="38" r="J101"/>
+      <c s="38" r="K101"/>
+      <c s="45" r="L101"/>
+      <c s="27" r="M101"/>
+      <c s="39" r="N101"/>
+      <c s="6" r="O101"/>
+      <c s="6" r="P101"/>
+      <c s="6" r="Q101"/>
+      <c s="6" r="R101"/>
+      <c s="6" r="S101"/>
+      <c s="6" r="T101"/>
+      <c s="6" r="U101"/>
+      <c s="6" r="V101"/>
+      <c s="6" r="W101"/>
+      <c s="6" r="X101"/>
+      <c s="6" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5596,7 +5894,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <f>D2+E2</f>
@@ -5610,13 +5908,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -5627,7 +5925,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <f>D3+E3</f>
@@ -5641,7 +5939,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5650,7 +5948,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -5661,7 +5959,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <f>D4+E4</f>
@@ -5675,13 +5973,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c t="s" r="N4">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -5692,7 +5990,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <f>D5+E5</f>
@@ -5706,13 +6004,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c t="s" r="N5">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O5">
         <v>6</v>
@@ -5723,7 +6021,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <f>D6+E6</f>
@@ -5737,7 +6035,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5749,7 +6047,7 @@
         <v>0.5</v>
       </c>
       <c t="s" r="N6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -5760,7 +6058,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <f>D7+E7</f>
@@ -5774,13 +6072,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -5791,7 +6089,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <f>D8+E8</f>
@@ -5805,7 +6103,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>1.5</v>
@@ -5814,7 +6112,7 @@
         <v>4.5</v>
       </c>
       <c t="s" r="N8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -5825,7 +6123,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <f>D9+E9</f>
@@ -5839,15 +6137,46 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c t="s" r="N9">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" r="10" ht="45.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <f>D10+E10</f>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>SUM(G10:M10)</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" r="F10">
+        <v>65</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c t="s" r="N10">
+        <v>66</v>
+      </c>
+      <c r="O10">
         <v>8</v>
       </c>
     </row>
@@ -5924,7 +6253,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -5936,13 +6265,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -5953,7 +6282,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -5965,7 +6294,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5977,7 +6306,7 @@
         <v>2</v>
       </c>
       <c t="s" r="N3">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -5988,7 +6317,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6000,13 +6329,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c t="s" r="N4">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -6017,7 +6346,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -6029,7 +6358,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6044,7 +6373,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N5">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6055,7 +6384,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -6067,7 +6396,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6079,7 +6408,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N6">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -6090,7 +6419,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6102,7 +6431,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -6111,7 +6440,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N7">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -6122,7 +6451,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6134,7 +6463,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -6146,7 +6475,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -6157,7 +6486,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -6169,16 +6498,80 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c t="s" r="N9">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" r="B10">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" r="F10">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c t="s" r="N10">
+        <v>82</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" r="B11">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>83</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c t="s" r="N11">
+        <v>84</v>
+      </c>
+      <c t="s" r="O11">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6253,19 +6646,19 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6274,10 +6667,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c t="s" r="O2">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -6285,19 +6678,19 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6309,10 +6702,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N3">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c t="s" r="O3">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -6320,19 +6713,19 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6344,10 +6737,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N4">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="O4">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -6355,19 +6748,19 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6379,10 +6772,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N5">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c t="s" r="O5">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -6390,28 +6783,28 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c t="s" r="O6">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -6419,7 +6812,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6431,7 +6824,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6440,10 +6833,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N7">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c t="s" r="O7">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -6451,7 +6844,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6463,7 +6856,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6472,10 +6865,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N8">
+        <v>103</v>
+      </c>
+      <c t="s" r="O8">
         <v>92</v>
-      </c>
-      <c t="s" r="O8">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -6483,7 +6876,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6495,7 +6888,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6507,15 +6900,79 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c t="s" r="O9">
-        <v>81</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" r="F10">
+        <v>106</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c t="s" r="N10">
+        <v>107</v>
+      </c>
+      <c t="s" r="O10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" r="B11">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>108</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c t="s" r="N11">
+        <v>109</v>
+      </c>
+      <c t="s" r="O11">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O9">
-    <sortState ref="A1:O9"/>
+  <autoFilter ref="A1:O11">
+    <sortState ref="A1:O11"/>
   </autoFilter>
 </worksheet>
 </file>
@@ -6589,7 +7046,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6601,13 +7058,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -6618,7 +7075,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -6630,7 +7087,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -6639,7 +7096,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -6650,7 +7107,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6662,7 +7119,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -6671,7 +7128,7 @@
         <v>6.5</v>
       </c>
       <c t="s" r="N4">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -6682,7 +7139,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -6694,7 +7151,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6703,7 +7160,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N5">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6714,7 +7171,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -6726,7 +7183,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6738,7 +7195,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -6749,7 +7206,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -6761,13 +7218,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -6778,7 +7235,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6790,13 +7247,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c t="s" r="N8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O8">
         <v>12</v>
@@ -6807,7 +7264,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -6819,7 +7276,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -6828,10 +7285,39 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="O9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" r="F10">
+        <v>127</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c t="s" r="N10">
+        <v>128</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6910,7 +7396,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6922,7 +7408,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -6934,7 +7420,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -6942,7 +7428,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6954,7 +7440,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6966,7 +7452,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -6974,7 +7460,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6986,7 +7472,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7001,7 +7487,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N4">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -7009,7 +7495,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -7021,7 +7507,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7033,7 +7519,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N5">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -7041,7 +7527,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -7053,7 +7539,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7076,7 +7562,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -7088,7 +7574,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7102,7 +7588,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7114,7 +7600,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -7128,7 +7614,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7140,7 +7626,7 @@
         <v>0</v>
       </c>
       <c t="s" r="F9">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7154,7 +7640,25 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>112</v>
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" r="F10">
+        <v>142</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7162,7 +7666,25 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>112</v>
+        <v>129</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>143</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7187,69 +7709,69 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="40" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="40" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="40" r="C1">
-        <v>125</v>
-      </c>
-      <c t="s" s="40" r="D1">
+      <c t="s" s="41" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="41" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="41" r="C1">
+        <v>144</v>
+      </c>
+      <c t="s" s="41" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="40" r="E1">
+      <c t="s" s="41" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="40" r="F1">
+      <c t="s" s="41" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="40" r="G1">
-        <v>126</v>
-      </c>
-      <c t="s" s="40" r="H1">
-        <v>127</v>
-      </c>
-      <c t="s" s="40" r="I1">
-        <v>128</v>
-      </c>
-      <c t="s" s="40" r="J1">
-        <v>129</v>
-      </c>
-      <c t="s" s="40" r="K1">
-        <v>130</v>
-      </c>
-      <c t="s" s="40" r="L1">
-        <v>131</v>
-      </c>
-      <c t="s" s="40" r="M1">
-        <v>132</v>
-      </c>
-      <c t="s" s="40" r="N1">
-        <v>133</v>
-      </c>
-      <c t="s" s="40" r="O1">
-        <v>134</v>
-      </c>
-      <c s="31" r="P1"/>
-      <c s="31" r="Q1"/>
-      <c s="31" r="R1"/>
-      <c s="31" r="S1"/>
-      <c s="31" r="T1"/>
-      <c s="31" r="U1"/>
-      <c s="31" r="V1"/>
-      <c s="31" r="W1"/>
-      <c s="31" r="X1"/>
-      <c s="31" r="Y1"/>
-      <c s="31" r="Z1"/>
+      <c t="s" s="41" r="G1">
+        <v>145</v>
+      </c>
+      <c t="s" s="41" r="H1">
+        <v>146</v>
+      </c>
+      <c t="s" s="41" r="I1">
+        <v>147</v>
+      </c>
+      <c t="s" s="41" r="J1">
+        <v>148</v>
+      </c>
+      <c t="s" s="41" r="K1">
+        <v>149</v>
+      </c>
+      <c t="s" s="41" r="L1">
+        <v>150</v>
+      </c>
+      <c t="s" s="41" r="M1">
+        <v>151</v>
+      </c>
+      <c t="s" s="41" r="N1">
+        <v>152</v>
+      </c>
+      <c t="s" s="41" r="O1">
+        <v>153</v>
+      </c>
+      <c s="30" r="P1"/>
+      <c s="30" r="Q1"/>
+      <c s="30" r="R1"/>
+      <c s="30" r="S1"/>
+      <c s="30" r="T1"/>
+      <c s="30" r="U1"/>
+      <c s="30" r="V1"/>
+      <c s="30" r="W1"/>
+      <c s="30" r="X1"/>
+      <c s="30" r="Y1"/>
+      <c s="30" r="Z1"/>
     </row>
     <row customHeight="1" r="2" ht="51.0">
       <c s="13" r="A2">
         <v>1</v>
       </c>
       <c t="s" s="13" r="B2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C2">
         <v>5</v>
@@ -7261,7 +7783,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c s="13" r="G2">
         <v>4</v>
@@ -7273,29 +7795,29 @@
       <c s="13" r="L2"/>
       <c s="13" r="M2"/>
       <c t="s" s="13" r="N2">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c s="13" r="O2">
         <v>8</v>
       </c>
-      <c s="33" r="P2"/>
-      <c s="33" r="Q2"/>
-      <c s="33" r="R2"/>
-      <c s="33" r="S2"/>
-      <c s="33" r="T2"/>
-      <c s="33" r="U2"/>
-      <c s="33" r="V2"/>
-      <c s="33" r="W2"/>
-      <c s="33" r="X2"/>
-      <c s="33" r="Y2"/>
-      <c s="33" r="Z2"/>
+      <c s="32" r="P2"/>
+      <c s="32" r="Q2"/>
+      <c s="32" r="R2"/>
+      <c s="32" r="S2"/>
+      <c s="32" r="T2"/>
+      <c s="32" r="U2"/>
+      <c s="32" r="V2"/>
+      <c s="32" r="W2"/>
+      <c s="32" r="X2"/>
+      <c s="32" r="Y2"/>
+      <c s="32" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="51.0">
       <c s="13" r="A3">
         <v>2</v>
       </c>
       <c t="s" s="13" r="B3">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C3">
         <v>5</v>
@@ -7307,7 +7829,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F3">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c s="13" r="G3">
         <v>3.5</v>
@@ -7321,7 +7843,7 @@
       <c s="13" r="L3"/>
       <c s="13" r="M3"/>
       <c t="s" s="13" r="N3">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c s="13" r="O3">
         <v>8</v>
@@ -7343,7 +7865,7 @@
         <v>3</v>
       </c>
       <c t="s" s="13" r="B4">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C4">
         <v>10</v>
@@ -7355,7 +7877,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F4">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c s="13" r="G4">
         <v>4</v>
@@ -7371,7 +7893,7 @@
       <c s="13" r="L4"/>
       <c s="13" r="M4"/>
       <c t="s" s="13" r="N4">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c s="13" r="O4">
         <v>12</v>
@@ -7393,7 +7915,7 @@
         <v>4</v>
       </c>
       <c t="s" s="13" r="B5">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C5">
         <v>10</v>
@@ -7405,7 +7927,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F5">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c s="13" r="G5">
         <v>6</v>
@@ -7419,7 +7941,7 @@
       <c s="13" r="L5"/>
       <c s="13" r="M5"/>
       <c t="s" s="13" r="N5">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c s="13" r="O5">
         <v>12</v>
@@ -7441,7 +7963,7 @@
         <v>5</v>
       </c>
       <c t="s" s="13" r="B6">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C6">
         <v>11</v>
@@ -7453,7 +7975,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F6">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c s="13" r="G6">
         <v>5</v>
@@ -7469,7 +7991,7 @@
       <c s="13" r="L6"/>
       <c s="13" r="M6"/>
       <c t="s" s="13" r="N6">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c s="13" r="O6">
         <v>12</v>
@@ -7491,7 +8013,7 @@
         <v>6</v>
       </c>
       <c t="s" s="13" r="B7">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C7">
         <v>6</v>
@@ -7503,7 +8025,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F7">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c s="13" r="G7">
         <v>5</v>
@@ -7515,7 +8037,7 @@
       <c s="13" r="L7"/>
       <c s="13" r="M7"/>
       <c t="s" s="13" r="N7">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c s="13" r="O7">
         <v>10</v>
@@ -7537,7 +8059,7 @@
         <v>7</v>
       </c>
       <c t="s" s="13" r="B8">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C8">
         <v>8.5</v>
@@ -7549,7 +8071,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F8">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c s="13" r="G8">
         <v>2</v>
@@ -7565,7 +8087,7 @@
       <c s="13" r="L8"/>
       <c s="13" r="M8"/>
       <c t="s" s="13" r="N8">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c s="13" r="O8">
         <v>10</v>
@@ -7587,7 +8109,7 @@
         <v>8</v>
       </c>
       <c t="s" s="13" r="B9">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c s="13" r="C9">
         <v>10</v>
@@ -7599,7 +8121,7 @@
         <v>1</v>
       </c>
       <c t="s" s="13" r="F9">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c s="13" r="G9"/>
       <c s="13" r="H9"/>
@@ -7615,7 +8137,7 @@
       </c>
       <c s="13" r="M9"/>
       <c t="s" s="13" r="N9">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c s="13" r="O9">
         <v>10</v>
@@ -7632,6 +8154,56 @@
       <c s="13" r="Y9"/>
       <c s="13" r="Z9"/>
     </row>
+    <row customHeight="1" r="10" ht="52.5">
+      <c s="13" r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" s="13" r="B10">
+        <v>154</v>
+      </c>
+      <c s="13" r="C10">
+        <v>9</v>
+      </c>
+      <c s="13" r="D10">
+        <v>7</v>
+      </c>
+      <c s="13" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F10">
+        <v>171</v>
+      </c>
+      <c s="13" r="G10">
+        <v>2</v>
+      </c>
+      <c s="13" r="H10"/>
+      <c s="13" r="I10"/>
+      <c s="13" r="J10"/>
+      <c s="13" r="K10">
+        <v>2.5</v>
+      </c>
+      <c s="13" r="L10">
+        <v>3.5</v>
+      </c>
+      <c s="13" r="M10"/>
+      <c t="s" s="13" r="N10">
+        <v>172</v>
+      </c>
+      <c s="13" r="O10">
+        <v>10</v>
+      </c>
+      <c s="13" r="P10"/>
+      <c s="13" r="Q10"/>
+      <c s="13" r="R10"/>
+      <c s="13" r="S10"/>
+      <c s="13" r="T10"/>
+      <c s="13" r="U10"/>
+      <c s="13" r="V10"/>
+      <c s="13" r="W10"/>
+      <c s="13" r="X10"/>
+      <c s="13" r="Y10"/>
+      <c s="13" r="Z10"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="179">
   <si>
     <t>week #</t>
   </si>
@@ -597,6 +597,13 @@
     <t>Continue to work on take survey page</t>
   </si>
   <si>
+    <t>3 - Complete take survey page</t>
+  </si>
+  <si>
+    <t>Help with report page
+Presentation notes</t>
+  </si>
+  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -833,6 +840,13 @@
   </si>
   <si>
     <t>1. Finish implementing survey/take</t>
+  </si>
+  <si>
+    <t>3 - Completed take survey, along with authentication for taking and cookie authetication</t>
+  </si>
+  <si>
+    <t>1. Help Gloria with contact page
+2. Work on reports</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -1048,6 +1062,16 @@
     <t>Create new branch - Report
 Implement report page
 Add more test cases</t>
+  </si>
+  <si>
+    <t>0 - Display interactive charts using Yii
+3 - Reports view, added Yii plugin for charts
+3 - Controller for reports (in SiteController)</t>
+  </si>
+  <si>
+    <t>Finish report page
+Work on testing document
+Prepare for presentation</t>
   </si>
 </sst>
 </file>
@@ -1229,12 +1253,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1325,7 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,7 +1355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
+        <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,12 +1385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1385,7 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFDD7E6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,6 +1427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1427,7 +1445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,9 +1493,94 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1492,30 +1601,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1532,10 +1617,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1545,10 +1630,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1595,87 +1695,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1692,19 +1714,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1789,21 +1798,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1914,7 +1908,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1952,16 +1976,16 @@
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" fontId="0">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="5" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="6" fontId="0" applyFill="1">
@@ -1976,113 +2000,113 @@
     <xf applyBorder="1" applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="9" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="1" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="2" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="2" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="4" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="5" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="5" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="6" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="7" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="6" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="22" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="8" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="7" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
+    <xf applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="9" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="27" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="10" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="10" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="11" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="12" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="31" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="36" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="34" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="37" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="14" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="36" applyFont="1" fontId="12" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="37" applyFont="1" fontId="13" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="14" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="15" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
@@ -2162,62 +2186,62 @@
       </c>
     </row>
     <row customHeight="1" r="2" ht="51.75">
-      <c s="47" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="47" r="B2">
+      <c s="46" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="46" r="B2">
         <v>15</v>
       </c>
-      <c s="47" r="C2">
+      <c s="46" r="C2">
         <v>7</v>
       </c>
-      <c s="47" r="D2">
+      <c s="46" r="D2">
         <v>6</v>
       </c>
-      <c s="47" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="47" r="F2">
+      <c s="46" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="46" r="F2">
         <v>16</v>
       </c>
-      <c s="47" r="G2">
-        <v>1</v>
-      </c>
-      <c s="47" r="H2">
-        <v>1</v>
-      </c>
-      <c s="47" r="I2">
-        <v>0</v>
-      </c>
-      <c s="47" r="J2">
-        <v>0</v>
-      </c>
-      <c s="47" r="K2">
-        <v>0</v>
-      </c>
-      <c s="47" r="L2">
+      <c s="46" r="G2">
+        <v>1</v>
+      </c>
+      <c s="46" r="H2">
+        <v>1</v>
+      </c>
+      <c s="46" r="I2">
+        <v>0</v>
+      </c>
+      <c s="46" r="J2">
+        <v>0</v>
+      </c>
+      <c s="46" r="K2">
+        <v>0</v>
+      </c>
+      <c s="46" r="L2">
         <v>2</v>
       </c>
-      <c s="47" r="M2">
+      <c s="46" r="M2">
         <v>2</v>
       </c>
-      <c t="s" s="47" r="N2">
+      <c t="s" s="46" r="N2">
         <v>17</v>
       </c>
-      <c s="47" r="O2">
+      <c s="46" r="O2">
         <v>10</v>
       </c>
-      <c s="47" r="P2"/>
-      <c s="47" r="Q2"/>
-      <c s="47" r="R2"/>
-      <c s="47" r="S2"/>
-      <c s="47" r="T2"/>
-      <c s="47" r="U2"/>
-      <c s="47" r="V2"/>
-      <c s="47" r="W2"/>
-      <c s="47" r="X2"/>
-      <c s="47" r="Y2"/>
-      <c s="47" r="Z2"/>
+      <c s="46" r="P2"/>
+      <c s="46" r="Q2"/>
+      <c s="46" r="R2"/>
+      <c s="46" r="S2"/>
+      <c s="46" r="T2"/>
+      <c s="46" r="U2"/>
+      <c s="46" r="V2"/>
+      <c s="46" r="W2"/>
+      <c s="46" r="X2"/>
+      <c s="46" r="Y2"/>
+      <c s="46" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="74.25">
       <c s="1" r="A3">
@@ -2278,62 +2302,62 @@
       <c s="1" r="Z3"/>
     </row>
     <row r="4">
-      <c s="47" r="A4">
+      <c s="46" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="47" r="B4">
+      <c t="s" s="46" r="B4">
         <v>15</v>
       </c>
-      <c s="47" r="C4">
+      <c s="46" r="C4">
         <v>9</v>
       </c>
-      <c s="47" r="D4">
+      <c s="46" r="D4">
         <v>8</v>
       </c>
-      <c s="47" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="47" r="F4">
+      <c s="46" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="46" r="F4">
         <v>20</v>
       </c>
-      <c s="47" r="G4">
+      <c s="46" r="G4">
         <v>3</v>
       </c>
-      <c s="47" r="H4">
+      <c s="46" r="H4">
         <v>2</v>
       </c>
-      <c s="47" r="I4">
-        <v>1</v>
-      </c>
-      <c s="47" r="J4">
-        <v>1</v>
-      </c>
-      <c s="47" r="K4">
-        <v>0</v>
-      </c>
-      <c s="47" r="L4">
-        <v>1</v>
-      </c>
-      <c s="47" r="M4">
-        <v>0</v>
-      </c>
-      <c t="s" s="47" r="N4">
+      <c s="46" r="I4">
+        <v>1</v>
+      </c>
+      <c s="46" r="J4">
+        <v>1</v>
+      </c>
+      <c s="46" r="K4">
+        <v>0</v>
+      </c>
+      <c s="46" r="L4">
+        <v>1</v>
+      </c>
+      <c s="46" r="M4">
+        <v>0</v>
+      </c>
+      <c t="s" s="46" r="N4">
         <v>21</v>
       </c>
-      <c s="47" r="O4">
+      <c s="46" r="O4">
         <v>10</v>
       </c>
-      <c s="47" r="P4"/>
-      <c s="47" r="Q4"/>
-      <c s="47" r="R4"/>
-      <c s="47" r="S4"/>
-      <c s="47" r="T4"/>
-      <c s="47" r="U4"/>
-      <c s="47" r="V4"/>
-      <c s="47" r="W4"/>
-      <c s="47" r="X4"/>
-      <c s="47" r="Y4"/>
-      <c s="47" r="Z4"/>
+      <c s="46" r="P4"/>
+      <c s="46" r="Q4"/>
+      <c s="46" r="R4"/>
+      <c s="46" r="S4"/>
+      <c s="46" r="T4"/>
+      <c s="46" r="U4"/>
+      <c s="46" r="V4"/>
+      <c s="46" r="W4"/>
+      <c s="46" r="X4"/>
+      <c s="46" r="Y4"/>
+      <c s="46" r="Z4"/>
     </row>
     <row r="5">
       <c s="1" r="A5">
@@ -2394,62 +2418,62 @@
       <c s="1" r="Z5"/>
     </row>
     <row r="6">
-      <c s="47" r="A6">
+      <c s="46" r="A6">
         <v>5</v>
       </c>
-      <c t="s" s="47" r="B6">
+      <c t="s" s="46" r="B6">
         <v>15</v>
       </c>
-      <c s="47" r="C6">
+      <c s="46" r="C6">
         <v>15</v>
       </c>
-      <c s="47" r="D6">
+      <c s="46" r="D6">
         <v>14</v>
       </c>
-      <c s="47" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="47" r="F6">
+      <c s="46" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="46" r="F6">
         <v>24</v>
       </c>
-      <c s="47" r="G6">
-        <v>0</v>
-      </c>
-      <c s="47" r="H6">
-        <v>0</v>
-      </c>
-      <c s="47" r="I6">
-        <v>0</v>
-      </c>
-      <c s="47" r="J6">
+      <c s="46" r="G6">
+        <v>0</v>
+      </c>
+      <c s="46" r="H6">
+        <v>0</v>
+      </c>
+      <c s="46" r="I6">
+        <v>0</v>
+      </c>
+      <c s="46" r="J6">
         <v>10</v>
       </c>
-      <c s="47" r="K6">
-        <v>0</v>
-      </c>
-      <c s="47" r="L6">
+      <c s="46" r="K6">
+        <v>0</v>
+      </c>
+      <c s="46" r="L6">
         <v>4</v>
       </c>
-      <c s="47" r="M6">
-        <v>0</v>
-      </c>
-      <c t="s" s="47" r="N6">
+      <c s="46" r="M6">
+        <v>0</v>
+      </c>
+      <c t="s" s="46" r="N6">
         <v>25</v>
       </c>
-      <c s="47" r="O6">
+      <c s="46" r="O6">
         <v>7</v>
       </c>
-      <c s="47" r="P6"/>
-      <c s="47" r="Q6"/>
-      <c s="47" r="R6"/>
-      <c s="47" r="S6"/>
-      <c s="47" r="T6"/>
-      <c s="47" r="U6"/>
-      <c s="47" r="V6"/>
-      <c s="47" r="W6"/>
-      <c s="47" r="X6"/>
-      <c s="47" r="Y6"/>
-      <c s="47" r="Z6"/>
+      <c s="46" r="P6"/>
+      <c s="46" r="Q6"/>
+      <c s="46" r="R6"/>
+      <c s="46" r="S6"/>
+      <c s="46" r="T6"/>
+      <c s="46" r="U6"/>
+      <c s="46" r="V6"/>
+      <c s="46" r="W6"/>
+      <c s="46" r="X6"/>
+      <c s="46" r="Y6"/>
+      <c s="46" r="Z6"/>
     </row>
     <row r="7">
       <c s="1" r="A7">
@@ -2510,62 +2534,62 @@
       <c s="1" r="Z7"/>
     </row>
     <row r="8">
-      <c s="47" r="A8">
+      <c s="46" r="A8">
         <v>7</v>
       </c>
-      <c t="s" s="47" r="B8">
+      <c t="s" s="46" r="B8">
         <v>15</v>
       </c>
-      <c s="47" r="C8">
+      <c s="46" r="C8">
         <v>6</v>
       </c>
-      <c s="47" r="D8">
+      <c s="46" r="D8">
         <v>5</v>
       </c>
-      <c s="47" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="47" r="F8">
+      <c s="46" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="46" r="F8">
         <v>28</v>
       </c>
-      <c s="47" r="G8">
-        <v>0</v>
-      </c>
-      <c s="47" r="H8">
-        <v>0</v>
-      </c>
-      <c s="47" r="I8">
-        <v>0</v>
-      </c>
-      <c s="47" r="J8">
+      <c s="46" r="G8">
+        <v>0</v>
+      </c>
+      <c s="46" r="H8">
+        <v>0</v>
+      </c>
+      <c s="46" r="I8">
+        <v>0</v>
+      </c>
+      <c s="46" r="J8">
         <v>3</v>
       </c>
-      <c s="47" r="K8">
-        <v>0</v>
-      </c>
-      <c s="47" r="L8">
+      <c s="46" r="K8">
+        <v>0</v>
+      </c>
+      <c s="46" r="L8">
         <v>2</v>
       </c>
-      <c s="47" r="M8">
-        <v>0</v>
-      </c>
-      <c t="s" s="47" r="N8">
+      <c s="46" r="M8">
+        <v>0</v>
+      </c>
+      <c t="s" s="46" r="N8">
         <v>29</v>
       </c>
-      <c s="47" r="O8">
+      <c s="46" r="O8">
         <v>12</v>
       </c>
-      <c s="47" r="P8"/>
-      <c s="47" r="Q8"/>
-      <c s="47" r="R8"/>
-      <c s="47" r="S8"/>
-      <c s="47" r="T8"/>
-      <c s="47" r="U8"/>
-      <c s="47" r="V8"/>
-      <c s="47" r="W8"/>
-      <c s="47" r="X8"/>
-      <c s="47" r="Y8"/>
-      <c s="47" r="Z8"/>
+      <c s="46" r="P8"/>
+      <c s="46" r="Q8"/>
+      <c s="46" r="R8"/>
+      <c s="46" r="S8"/>
+      <c s="46" r="T8"/>
+      <c s="46" r="U8"/>
+      <c s="46" r="V8"/>
+      <c s="46" r="W8"/>
+      <c s="46" r="X8"/>
+      <c s="46" r="Y8"/>
+      <c s="46" r="Z8"/>
     </row>
     <row r="9">
       <c s="1" r="A9">
@@ -2626,62 +2650,62 @@
       <c s="1" r="Z9"/>
     </row>
     <row r="10">
-      <c s="47" r="A10">
+      <c s="46" r="A10">
         <v>9</v>
       </c>
-      <c t="s" s="47" r="B10">
+      <c t="s" s="46" r="B10">
         <v>32</v>
       </c>
-      <c s="47" r="C10">
+      <c s="46" r="C10">
         <v>8</v>
       </c>
-      <c s="47" r="D10">
+      <c s="46" r="D10">
         <v>7</v>
       </c>
-      <c s="47" r="E10">
-        <v>1</v>
-      </c>
-      <c t="s" s="47" r="F10">
+      <c s="46" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="46" r="F10">
         <v>33</v>
       </c>
-      <c s="47" r="G10">
-        <v>0</v>
-      </c>
-      <c s="47" r="H10">
-        <v>0</v>
-      </c>
-      <c s="47" r="I10">
-        <v>0</v>
-      </c>
-      <c s="47" r="J10">
+      <c s="46" r="G10">
+        <v>0</v>
+      </c>
+      <c s="46" r="H10">
+        <v>0</v>
+      </c>
+      <c s="46" r="I10">
+        <v>0</v>
+      </c>
+      <c s="46" r="J10">
         <v>4</v>
       </c>
-      <c s="47" r="K10">
-        <v>0</v>
-      </c>
-      <c s="47" r="L10">
+      <c s="46" r="K10">
+        <v>0</v>
+      </c>
+      <c s="46" r="L10">
         <v>3</v>
       </c>
-      <c s="47" r="M10">
-        <v>0</v>
-      </c>
-      <c t="s" s="47" r="N10">
+      <c s="46" r="M10">
+        <v>0</v>
+      </c>
+      <c t="s" s="46" r="N10">
         <v>34</v>
       </c>
-      <c s="47" r="O10">
+      <c s="46" r="O10">
         <v>7</v>
       </c>
-      <c s="47" r="P10"/>
-      <c s="47" r="Q10"/>
-      <c s="47" r="R10"/>
-      <c s="47" r="S10"/>
-      <c s="47" r="T10"/>
-      <c s="47" r="U10"/>
-      <c s="47" r="V10"/>
-      <c s="47" r="W10"/>
-      <c s="47" r="X10"/>
-      <c s="47" r="Y10"/>
-      <c s="47" r="Z10"/>
+      <c s="46" r="P10"/>
+      <c s="46" r="Q10"/>
+      <c s="46" r="R10"/>
+      <c s="46" r="S10"/>
+      <c s="46" r="T10"/>
+      <c s="46" r="U10"/>
+      <c s="46" r="V10"/>
+      <c s="46" r="W10"/>
+      <c s="46" r="X10"/>
+      <c s="46" r="Y10"/>
+      <c s="46" r="Z10"/>
     </row>
     <row r="11">
       <c s="1" r="A11">
@@ -2765,3051 +2789,3051 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="28" r="A1">
+      <c t="s" s="35" r="A1">
         <v>37</v>
       </c>
-      <c t="s" s="23" r="B1">
+      <c t="s" s="44" r="B1">
         <v>38</v>
       </c>
-      <c t="s" s="48" r="C1">
+      <c t="s" s="24" r="C1">
         <v>39</v>
       </c>
-      <c t="s" s="37" r="D1">
+      <c t="s" s="47" r="D1">
         <v>4</v>
       </c>
-      <c t="s" s="19" r="E1">
+      <c t="s" s="18" r="E1">
         <v>40</v>
       </c>
-      <c s="19" r="F1"/>
-      <c s="19" r="G1"/>
-      <c s="19" r="H1"/>
-      <c s="19" r="I1"/>
-      <c s="19" r="J1"/>
-      <c s="19" r="K1"/>
-      <c t="s" s="4" r="L1">
+      <c s="18" r="F1"/>
+      <c s="18" r="G1"/>
+      <c s="18" r="H1"/>
+      <c s="18" r="I1"/>
+      <c s="18" r="J1"/>
+      <c s="18" r="K1"/>
+      <c t="s" s="27" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="34" r="M1">
+      <c t="s" s="48" r="M1">
         <v>14</v>
       </c>
-      <c s="7" r="N1"/>
-      <c s="6" r="O1"/>
-      <c s="6" r="P1"/>
-      <c s="6" r="Q1"/>
-      <c s="6" r="R1"/>
-      <c s="6" r="S1"/>
-      <c s="6" r="T1"/>
-      <c s="6" r="U1"/>
-      <c s="6" r="V1"/>
-      <c s="6" r="W1"/>
-      <c s="6" r="X1"/>
-      <c s="6" r="Y1"/>
+      <c s="6" r="N1"/>
+      <c s="5" r="O1"/>
+      <c s="5" r="P1"/>
+      <c s="5" r="Q1"/>
+      <c s="5" r="R1"/>
+      <c s="5" r="S1"/>
+      <c s="5" r="T1"/>
+      <c s="5" r="U1"/>
+      <c s="5" r="V1"/>
+      <c s="5" r="W1"/>
+      <c s="5" r="X1"/>
+      <c s="5" r="Y1"/>
     </row>
     <row r="2">
-      <c s="22" r="A2"/>
-      <c s="33" r="B2"/>
-      <c s="46" r="C2"/>
-      <c s="17" r="D2"/>
-      <c t="s" s="19" r="E2">
+      <c s="21" r="A2"/>
+      <c s="32" r="B2"/>
+      <c s="45" r="C2"/>
+      <c s="16" r="D2"/>
+      <c t="s" s="18" r="E2">
         <v>41</v>
       </c>
-      <c t="s" s="19" r="F2">
+      <c t="s" s="18" r="F2">
         <v>42</v>
       </c>
-      <c t="s" s="19" r="G2">
+      <c t="s" s="18" r="G2">
         <v>43</v>
       </c>
-      <c t="s" s="19" r="H2">
+      <c t="s" s="18" r="H2">
         <v>44</v>
       </c>
-      <c t="s" s="19" r="I2">
+      <c t="s" s="18" r="I2">
         <v>45</v>
       </c>
-      <c t="s" s="19" r="J2">
+      <c t="s" s="18" r="J2">
         <v>46</v>
       </c>
-      <c t="s" s="19" r="K2">
+      <c t="s" s="18" r="K2">
         <v>47</v>
       </c>
-      <c s="16" r="L2"/>
-      <c s="14" r="M2"/>
-      <c s="26" r="N2"/>
-      <c s="6" r="O2"/>
-      <c s="6" r="P2"/>
-      <c s="6" r="Q2"/>
-      <c s="6" r="R2"/>
-      <c s="6" r="S2"/>
-      <c s="6" r="T2"/>
-      <c s="6" r="U2"/>
-      <c s="6" r="V2"/>
-      <c s="6" r="W2"/>
-      <c s="6" r="X2"/>
-      <c s="6" r="Y2"/>
+      <c s="15" r="L2"/>
+      <c s="13" r="M2"/>
+      <c s="25" r="N2"/>
+      <c s="5" r="O2"/>
+      <c s="5" r="P2"/>
+      <c s="5" r="Q2"/>
+      <c s="5" r="R2"/>
+      <c s="5" r="S2"/>
+      <c s="5" r="T2"/>
+      <c s="5" r="U2"/>
+      <c s="5" r="V2"/>
+      <c s="5" r="W2"/>
+      <c s="5" r="X2"/>
+      <c s="5" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
       <c s="3" r="A3">
         <v>1</v>
       </c>
-      <c s="35" r="B3">
+      <c s="33" r="B3">
         <f>SUM(C3:D3)</f>
         <v>5</v>
       </c>
-      <c s="11" r="C3">
+      <c s="10" r="C3">
         <f>SUM(E3:K3)</f>
         <v>4</v>
       </c>
-      <c s="36" r="D3">
-        <v>1</v>
-      </c>
-      <c s="8" r="E3">
-        <v>0</v>
-      </c>
-      <c s="8" r="F3">
-        <v>1</v>
-      </c>
-      <c s="8" r="G3">
-        <v>0</v>
-      </c>
-      <c s="8" r="H3">
-        <v>1</v>
-      </c>
-      <c s="8" r="I3">
-        <v>0</v>
-      </c>
-      <c s="8" r="J3">
-        <v>1</v>
-      </c>
-      <c s="8" r="K3">
-        <v>1</v>
-      </c>
-      <c s="42" r="L3">
+      <c s="34" r="D3">
+        <v>1</v>
+      </c>
+      <c s="7" r="E3">
+        <v>0</v>
+      </c>
+      <c s="7" r="F3">
+        <v>1</v>
+      </c>
+      <c s="7" r="G3">
+        <v>0</v>
+      </c>
+      <c s="7" r="H3">
+        <v>1</v>
+      </c>
+      <c s="7" r="I3">
+        <v>0</v>
+      </c>
+      <c s="7" r="J3">
+        <v>1</v>
+      </c>
+      <c s="7" r="K3">
+        <v>1</v>
+      </c>
+      <c s="40" r="L3">
         <v>3</v>
       </c>
-      <c s="10" r="M3">
+      <c s="9" r="M3">
         <v>5</v>
       </c>
-      <c s="26" r="N3"/>
-      <c s="6" r="O3"/>
-      <c s="6" r="P3"/>
-      <c s="6" r="Q3"/>
-      <c s="6" r="R3"/>
-      <c s="6" r="S3"/>
-      <c s="6" r="T3"/>
-      <c s="6" r="U3"/>
-      <c s="6" r="V3"/>
-      <c s="6" r="W3"/>
-      <c s="6" r="X3"/>
-      <c s="6" r="Y3"/>
+      <c s="25" r="N3"/>
+      <c s="5" r="O3"/>
+      <c s="5" r="P3"/>
+      <c s="5" r="Q3"/>
+      <c s="5" r="R3"/>
+      <c s="5" r="S3"/>
+      <c s="5" r="T3"/>
+      <c s="5" r="U3"/>
+      <c s="5" r="V3"/>
+      <c s="5" r="W3"/>
+      <c s="5" r="X3"/>
+      <c s="5" r="Y3"/>
     </row>
     <row r="4">
       <c s="3" r="A4">
         <v>2</v>
       </c>
-      <c s="31" r="B4">
+      <c s="30" r="B4">
         <f>SUM(C4:D4)</f>
         <v>3.5</v>
       </c>
-      <c s="5" r="C4">
+      <c s="4" r="C4">
         <f>SUM(E4:K4)</f>
         <v>3.5</v>
       </c>
       <c s="2" r="D4">
         <v>0</v>
       </c>
-      <c s="15" r="E4">
-        <v>0</v>
-      </c>
-      <c s="15" r="F4">
-        <v>1</v>
-      </c>
-      <c s="15" r="G4">
-        <v>1</v>
-      </c>
-      <c s="15" r="H4">
+      <c s="14" r="E4">
+        <v>0</v>
+      </c>
+      <c s="14" r="F4">
+        <v>1</v>
+      </c>
+      <c s="14" r="G4">
+        <v>1</v>
+      </c>
+      <c s="14" r="H4">
         <v>0.5</v>
       </c>
-      <c s="15" r="I4">
-        <v>0</v>
-      </c>
-      <c s="15" r="J4">
-        <v>1</v>
-      </c>
-      <c s="15" r="K4">
-        <v>0</v>
-      </c>
-      <c s="43" r="L4">
+      <c s="14" r="I4">
+        <v>0</v>
+      </c>
+      <c s="14" r="J4">
+        <v>1</v>
+      </c>
+      <c s="14" r="K4">
+        <v>0</v>
+      </c>
+      <c s="41" r="L4">
         <v>4</v>
       </c>
-      <c s="29" r="M4">
+      <c s="28" r="M4">
         <v>5</v>
       </c>
-      <c s="26" r="N4"/>
-      <c s="6" r="O4"/>
-      <c s="6" r="P4"/>
-      <c s="6" r="Q4"/>
-      <c s="6" r="R4"/>
-      <c s="6" r="S4"/>
-      <c s="6" r="T4"/>
-      <c s="6" r="U4"/>
-      <c s="6" r="V4"/>
-      <c s="6" r="W4"/>
-      <c s="6" r="X4"/>
-      <c s="6" r="Y4"/>
+      <c s="25" r="N4"/>
+      <c s="5" r="O4"/>
+      <c s="5" r="P4"/>
+      <c s="5" r="Q4"/>
+      <c s="5" r="R4"/>
+      <c s="5" r="S4"/>
+      <c s="5" r="T4"/>
+      <c s="5" r="U4"/>
+      <c s="5" r="V4"/>
+      <c s="5" r="W4"/>
+      <c s="5" r="X4"/>
+      <c s="5" r="Y4"/>
     </row>
     <row r="5">
       <c s="3" r="A5">
         <v>3</v>
       </c>
-      <c s="31" r="B5">
+      <c s="30" r="B5">
         <f>SUM(C5:D5)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C5">
+      <c s="4" r="C5">
         <f>SUM(E5:K5)</f>
         <v>8</v>
       </c>
       <c s="2" r="D5">
         <v>1</v>
       </c>
-      <c s="15" r="E5">
-        <v>1</v>
-      </c>
-      <c s="15" r="F5">
-        <v>0</v>
-      </c>
-      <c s="15" r="G5">
-        <v>0</v>
-      </c>
-      <c s="15" r="H5">
+      <c s="14" r="E5">
+        <v>1</v>
+      </c>
+      <c s="14" r="F5">
+        <v>0</v>
+      </c>
+      <c s="14" r="G5">
+        <v>0</v>
+      </c>
+      <c s="14" r="H5">
         <v>5</v>
       </c>
-      <c s="15" r="I5">
-        <v>0</v>
-      </c>
-      <c s="15" r="J5">
-        <v>1</v>
-      </c>
-      <c s="15" r="K5">
-        <v>1</v>
-      </c>
-      <c s="43" r="L5">
+      <c s="14" r="I5">
+        <v>0</v>
+      </c>
+      <c s="14" r="J5">
+        <v>1</v>
+      </c>
+      <c s="14" r="K5">
+        <v>1</v>
+      </c>
+      <c s="41" r="L5">
         <v>6</v>
       </c>
-      <c s="29" r="M5">
+      <c s="28" r="M5">
         <v>8</v>
       </c>
-      <c s="26" r="N5"/>
-      <c s="6" r="O5"/>
-      <c s="6" r="P5"/>
-      <c s="6" r="Q5"/>
-      <c s="6" r="R5"/>
-      <c s="6" r="S5"/>
-      <c s="6" r="T5"/>
-      <c s="6" r="U5"/>
-      <c s="6" r="V5"/>
-      <c s="6" r="W5"/>
-      <c s="6" r="X5"/>
-      <c s="6" r="Y5"/>
+      <c s="25" r="N5"/>
+      <c s="5" r="O5"/>
+      <c s="5" r="P5"/>
+      <c s="5" r="Q5"/>
+      <c s="5" r="R5"/>
+      <c s="5" r="S5"/>
+      <c s="5" r="T5"/>
+      <c s="5" r="U5"/>
+      <c s="5" r="V5"/>
+      <c s="5" r="W5"/>
+      <c s="5" r="X5"/>
+      <c s="5" r="Y5"/>
     </row>
     <row r="6">
       <c s="3" r="A6">
         <v>4</v>
       </c>
-      <c s="31" r="B6">
+      <c s="30" r="B6">
         <f>SUM(C6:D6)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C6">
+      <c s="4" r="C6">
         <f>SUM(E6:K6)</f>
         <v>8</v>
       </c>
       <c s="2" r="D6">
         <v>1</v>
       </c>
-      <c s="15" r="E6">
-        <v>0</v>
-      </c>
-      <c s="15" r="F6">
-        <v>0</v>
-      </c>
-      <c s="15" r="G6">
+      <c s="14" r="E6">
+        <v>0</v>
+      </c>
+      <c s="14" r="F6">
+        <v>0</v>
+      </c>
+      <c s="14" r="G6">
         <v>2</v>
       </c>
-      <c s="15" r="H6">
+      <c s="14" r="H6">
         <v>3</v>
       </c>
-      <c s="15" r="I6">
-        <v>1</v>
-      </c>
-      <c s="15" r="J6">
+      <c s="14" r="I6">
+        <v>1</v>
+      </c>
+      <c s="14" r="J6">
         <v>2</v>
       </c>
-      <c s="15" r="K6">
-        <v>0</v>
-      </c>
-      <c s="43" r="L6">
+      <c s="14" r="K6">
+        <v>0</v>
+      </c>
+      <c s="41" r="L6">
         <v>7</v>
       </c>
-      <c s="29" r="M6">
+      <c s="28" r="M6">
         <v>9</v>
       </c>
-      <c s="26" r="N6"/>
-      <c s="6" r="O6"/>
-      <c s="6" r="P6"/>
-      <c s="6" r="Q6"/>
-      <c s="6" r="R6"/>
-      <c s="6" r="S6"/>
-      <c s="6" r="T6"/>
-      <c s="6" r="U6"/>
-      <c s="6" r="V6"/>
-      <c s="6" r="W6"/>
-      <c s="6" r="X6"/>
-      <c s="6" r="Y6"/>
+      <c s="25" r="N6"/>
+      <c s="5" r="O6"/>
+      <c s="5" r="P6"/>
+      <c s="5" r="Q6"/>
+      <c s="5" r="R6"/>
+      <c s="5" r="S6"/>
+      <c s="5" r="T6"/>
+      <c s="5" r="U6"/>
+      <c s="5" r="V6"/>
+      <c s="5" r="W6"/>
+      <c s="5" r="X6"/>
+      <c s="5" r="Y6"/>
     </row>
     <row r="7">
       <c s="3" r="A7">
         <v>5</v>
       </c>
-      <c s="31" r="B7">
+      <c s="30" r="B7">
         <f>SUM(C7:D7)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C7">
+      <c s="4" r="C7">
         <f>SUM(E7:K7)</f>
         <v>8</v>
       </c>
       <c s="2" r="D7">
         <v>1</v>
       </c>
-      <c s="15" r="E7">
-        <v>1</v>
-      </c>
-      <c s="15" r="F7">
-        <v>0</v>
-      </c>
-      <c s="15" r="G7">
-        <v>1</v>
-      </c>
-      <c s="15" r="H7">
+      <c s="14" r="E7">
+        <v>1</v>
+      </c>
+      <c s="14" r="F7">
+        <v>0</v>
+      </c>
+      <c s="14" r="G7">
+        <v>1</v>
+      </c>
+      <c s="14" r="H7">
         <v>3</v>
       </c>
-      <c s="15" r="I7">
-        <v>0</v>
-      </c>
-      <c s="15" r="J7">
+      <c s="14" r="I7">
+        <v>0</v>
+      </c>
+      <c s="14" r="J7">
         <v>2</v>
       </c>
-      <c s="15" r="K7">
-        <v>1</v>
-      </c>
-      <c s="43" r="L7">
+      <c s="14" r="K7">
+        <v>1</v>
+      </c>
+      <c s="41" r="L7">
         <v>6</v>
       </c>
-      <c s="29" r="M7">
+      <c s="28" r="M7">
         <v>8</v>
       </c>
-      <c s="26" r="N7"/>
-      <c s="6" r="O7"/>
-      <c s="6" r="P7"/>
-      <c s="6" r="Q7"/>
-      <c s="6" r="R7"/>
-      <c s="6" r="S7"/>
-      <c s="6" r="T7"/>
-      <c s="6" r="U7"/>
-      <c s="6" r="V7"/>
-      <c s="6" r="W7"/>
-      <c s="6" r="X7"/>
-      <c s="6" r="Y7"/>
+      <c s="25" r="N7"/>
+      <c s="5" r="O7"/>
+      <c s="5" r="P7"/>
+      <c s="5" r="Q7"/>
+      <c s="5" r="R7"/>
+      <c s="5" r="S7"/>
+      <c s="5" r="T7"/>
+      <c s="5" r="U7"/>
+      <c s="5" r="V7"/>
+      <c s="5" r="W7"/>
+      <c s="5" r="X7"/>
+      <c s="5" r="Y7"/>
     </row>
     <row r="8">
       <c s="3" r="A8">
         <v>6</v>
       </c>
-      <c s="31" r="B8">
+      <c s="30" r="B8">
         <f>SUM(C8:D8)</f>
         <v>8</v>
       </c>
-      <c s="5" r="C8">
+      <c s="4" r="C8">
         <f>SUM(E8:K8)</f>
         <v>7</v>
       </c>
       <c s="2" r="D8">
         <v>1</v>
       </c>
-      <c s="15" r="E8">
-        <v>0</v>
-      </c>
-      <c s="15" r="F8">
-        <v>0</v>
-      </c>
-      <c s="15" r="G8">
-        <v>1</v>
-      </c>
-      <c s="15" r="H8">
+      <c s="14" r="E8">
+        <v>0</v>
+      </c>
+      <c s="14" r="F8">
+        <v>0</v>
+      </c>
+      <c s="14" r="G8">
+        <v>1</v>
+      </c>
+      <c s="14" r="H8">
         <v>4</v>
       </c>
-      <c s="15" r="I8">
-        <v>0</v>
-      </c>
-      <c s="15" r="J8">
+      <c s="14" r="I8">
+        <v>0</v>
+      </c>
+      <c s="14" r="J8">
         <v>2</v>
       </c>
-      <c s="15" r="K8">
-        <v>0</v>
-      </c>
-      <c s="43" r="L8">
+      <c s="14" r="K8">
+        <v>0</v>
+      </c>
+      <c s="41" r="L8">
         <v>8</v>
       </c>
-      <c s="29" r="M8">
+      <c s="28" r="M8">
         <v>9</v>
       </c>
-      <c s="26" r="N8"/>
-      <c s="6" r="O8"/>
-      <c s="6" r="P8"/>
-      <c s="6" r="Q8"/>
-      <c s="6" r="R8"/>
-      <c s="6" r="S8"/>
-      <c s="6" r="T8"/>
-      <c s="6" r="U8"/>
-      <c s="6" r="V8"/>
-      <c s="6" r="W8"/>
-      <c s="6" r="X8"/>
-      <c s="6" r="Y8"/>
+      <c s="25" r="N8"/>
+      <c s="5" r="O8"/>
+      <c s="5" r="P8"/>
+      <c s="5" r="Q8"/>
+      <c s="5" r="R8"/>
+      <c s="5" r="S8"/>
+      <c s="5" r="T8"/>
+      <c s="5" r="U8"/>
+      <c s="5" r="V8"/>
+      <c s="5" r="W8"/>
+      <c s="5" r="X8"/>
+      <c s="5" r="Y8"/>
     </row>
     <row r="9">
       <c s="3" r="A9">
         <v>7</v>
       </c>
-      <c s="31" r="B9">
+      <c s="30" r="B9">
         <f>SUM(C9:D9)</f>
         <v>10</v>
       </c>
-      <c s="5" r="C9">
+      <c s="4" r="C9">
         <f>SUM(E9:K9)</f>
         <v>9</v>
       </c>
       <c s="2" r="D9">
         <v>1</v>
       </c>
-      <c s="15" r="E9">
-        <v>0</v>
-      </c>
-      <c s="15" r="F9">
-        <v>1</v>
-      </c>
-      <c s="15" r="G9">
-        <v>1</v>
-      </c>
-      <c s="15" r="H9">
+      <c s="14" r="E9">
+        <v>0</v>
+      </c>
+      <c s="14" r="F9">
+        <v>1</v>
+      </c>
+      <c s="14" r="G9">
+        <v>1</v>
+      </c>
+      <c s="14" r="H9">
         <v>4</v>
       </c>
-      <c s="15" r="I9">
-        <v>1</v>
-      </c>
-      <c s="15" r="J9">
+      <c s="14" r="I9">
+        <v>1</v>
+      </c>
+      <c s="14" r="J9">
         <v>2</v>
       </c>
-      <c s="15" r="K9">
-        <v>0</v>
-      </c>
-      <c s="43" r="L9">
+      <c s="14" r="K9">
+        <v>0</v>
+      </c>
+      <c s="41" r="L9">
         <v>8</v>
       </c>
-      <c s="29" r="M9">
+      <c s="28" r="M9">
         <v>10</v>
       </c>
-      <c s="26" r="N9"/>
-      <c s="6" r="O9"/>
-      <c s="6" r="P9"/>
-      <c s="6" r="Q9"/>
-      <c s="6" r="R9"/>
-      <c s="6" r="S9"/>
-      <c s="6" r="T9"/>
-      <c s="6" r="U9"/>
-      <c s="6" r="V9"/>
-      <c s="6" r="W9"/>
-      <c s="6" r="X9"/>
-      <c s="6" r="Y9"/>
+      <c s="25" r="N9"/>
+      <c s="5" r="O9"/>
+      <c s="5" r="P9"/>
+      <c s="5" r="Q9"/>
+      <c s="5" r="R9"/>
+      <c s="5" r="S9"/>
+      <c s="5" r="T9"/>
+      <c s="5" r="U9"/>
+      <c s="5" r="V9"/>
+      <c s="5" r="W9"/>
+      <c s="5" r="X9"/>
+      <c s="5" r="Y9"/>
     </row>
     <row r="10">
       <c s="3" r="A10">
         <v>8</v>
       </c>
-      <c s="31" r="B10">
+      <c s="30" r="B10">
         <f>SUM(C10:D10)</f>
         <v>10</v>
       </c>
-      <c s="5" r="C10">
+      <c s="4" r="C10">
         <f>SUM(E10:K10)</f>
         <v>9</v>
       </c>
       <c s="2" r="D10">
         <v>1</v>
       </c>
-      <c s="15" r="E10">
-        <v>0</v>
-      </c>
-      <c s="15" r="F10">
-        <v>0</v>
-      </c>
-      <c s="15" r="G10">
-        <v>1</v>
-      </c>
-      <c s="15" r="H10">
+      <c s="14" r="E10">
+        <v>0</v>
+      </c>
+      <c s="14" r="F10">
+        <v>0</v>
+      </c>
+      <c s="14" r="G10">
+        <v>1</v>
+      </c>
+      <c s="14" r="H10">
         <v>5</v>
       </c>
-      <c s="15" r="I10">
-        <v>1</v>
-      </c>
-      <c s="15" r="J10">
+      <c s="14" r="I10">
+        <v>1</v>
+      </c>
+      <c s="14" r="J10">
         <v>2</v>
       </c>
-      <c s="15" r="K10">
-        <v>0</v>
-      </c>
-      <c s="43" r="L10">
+      <c s="14" r="K10">
+        <v>0</v>
+      </c>
+      <c s="41" r="L10">
         <v>7</v>
       </c>
-      <c s="29" r="M10">
+      <c s="28" r="M10">
         <v>8</v>
       </c>
-      <c s="26" r="N10"/>
-      <c s="6" r="O10"/>
-      <c s="6" r="P10"/>
-      <c s="6" r="Q10"/>
-      <c s="6" r="R10"/>
-      <c s="6" r="S10"/>
-      <c s="6" r="T10"/>
-      <c s="6" r="U10"/>
-      <c s="6" r="V10"/>
-      <c s="6" r="W10"/>
-      <c s="6" r="X10"/>
-      <c s="6" r="Y10"/>
+      <c s="25" r="N10"/>
+      <c s="5" r="O10"/>
+      <c s="5" r="P10"/>
+      <c s="5" r="Q10"/>
+      <c s="5" r="R10"/>
+      <c s="5" r="S10"/>
+      <c s="5" r="T10"/>
+      <c s="5" r="U10"/>
+      <c s="5" r="V10"/>
+      <c s="5" r="W10"/>
+      <c s="5" r="X10"/>
+      <c s="5" r="Y10"/>
     </row>
     <row r="11">
       <c s="3" r="A11">
         <v>9</v>
       </c>
-      <c s="31" r="B11">
+      <c s="30" r="B11">
         <f>SUM(C11:D11)</f>
         <v>8</v>
       </c>
-      <c s="5" r="C11">
+      <c s="4" r="C11">
         <f>SUM(E11:K11)</f>
         <v>7</v>
       </c>
       <c s="2" r="D11">
         <v>1</v>
       </c>
-      <c s="15" r="E11">
-        <v>1</v>
-      </c>
-      <c s="15" r="F11">
-        <v>1</v>
-      </c>
-      <c s="15" r="G11">
-        <v>0</v>
-      </c>
-      <c s="15" r="H11">
+      <c s="14" r="E11">
+        <v>1</v>
+      </c>
+      <c s="14" r="F11">
+        <v>1</v>
+      </c>
+      <c s="14" r="G11">
+        <v>0</v>
+      </c>
+      <c s="14" r="H11">
         <v>2</v>
       </c>
-      <c s="15" r="I11">
+      <c s="14" r="I11">
         <v>2</v>
       </c>
-      <c s="15" r="J11">
-        <v>1</v>
-      </c>
-      <c s="15" r="K11">
-        <v>0</v>
-      </c>
-      <c s="43" r="L11">
+      <c s="14" r="J11">
+        <v>1</v>
+      </c>
+      <c s="14" r="K11">
+        <v>0</v>
+      </c>
+      <c s="41" r="L11">
         <v>7</v>
       </c>
-      <c s="29" r="M11">
+      <c s="28" r="M11">
         <v>8</v>
       </c>
-      <c s="26" r="N11"/>
-      <c s="6" r="O11"/>
-      <c s="6" r="P11"/>
-      <c s="6" r="Q11"/>
-      <c s="6" r="R11"/>
-      <c s="6" r="S11"/>
-      <c s="6" r="T11"/>
-      <c s="6" r="U11"/>
-      <c s="6" r="V11"/>
-      <c s="6" r="W11"/>
-      <c s="6" r="X11"/>
-      <c s="6" r="Y11"/>
+      <c s="25" r="N11"/>
+      <c s="5" r="O11"/>
+      <c s="5" r="P11"/>
+      <c s="5" r="Q11"/>
+      <c s="5" r="R11"/>
+      <c s="5" r="S11"/>
+      <c s="5" r="T11"/>
+      <c s="5" r="U11"/>
+      <c s="5" r="V11"/>
+      <c s="5" r="W11"/>
+      <c s="5" r="X11"/>
+      <c s="5" r="Y11"/>
     </row>
     <row r="12">
       <c s="3" r="A12">
         <v>10</v>
       </c>
-      <c s="31" r="B12">
+      <c s="30" r="B12">
         <f>SUM(C12:D12)</f>
         <v>9</v>
       </c>
-      <c s="5" r="C12">
+      <c s="4" r="C12">
         <f>SUM(E12:K12)</f>
         <v>8</v>
       </c>
       <c s="2" r="D12">
         <v>1</v>
       </c>
-      <c s="15" r="E12">
-        <v>1</v>
-      </c>
-      <c s="15" r="F12">
-        <v>0</v>
-      </c>
-      <c s="15" r="G12">
-        <v>0</v>
-      </c>
-      <c s="15" r="H12">
+      <c s="14" r="E12">
+        <v>1</v>
+      </c>
+      <c s="14" r="F12">
+        <v>0</v>
+      </c>
+      <c s="14" r="G12">
+        <v>0</v>
+      </c>
+      <c s="14" r="H12">
         <v>4</v>
       </c>
-      <c s="15" r="I12">
-        <v>1</v>
-      </c>
-      <c s="15" r="J12">
-        <v>1</v>
-      </c>
-      <c s="15" r="K12">
-        <v>1</v>
-      </c>
-      <c s="43" r="L12"/>
-      <c s="29" r="M12"/>
-      <c s="26" r="N12"/>
-      <c s="6" r="O12"/>
-      <c s="6" r="P12"/>
-      <c s="6" r="Q12"/>
-      <c s="6" r="R12"/>
-      <c s="6" r="S12"/>
-      <c s="6" r="T12"/>
-      <c s="6" r="U12"/>
-      <c s="6" r="V12"/>
-      <c s="6" r="W12"/>
-      <c s="6" r="X12"/>
-      <c s="6" r="Y12"/>
+      <c s="14" r="I12">
+        <v>1</v>
+      </c>
+      <c s="14" r="J12">
+        <v>1</v>
+      </c>
+      <c s="14" r="K12">
+        <v>1</v>
+      </c>
+      <c s="41" r="L12"/>
+      <c s="28" r="M12"/>
+      <c s="25" r="N12"/>
+      <c s="5" r="O12"/>
+      <c s="5" r="P12"/>
+      <c s="5" r="Q12"/>
+      <c s="5" r="R12"/>
+      <c s="5" r="S12"/>
+      <c s="5" r="T12"/>
+      <c s="5" r="U12"/>
+      <c s="5" r="V12"/>
+      <c s="5" r="W12"/>
+      <c s="5" r="X12"/>
+      <c s="5" r="Y12"/>
     </row>
     <row r="13">
       <c s="3" r="A13">
         <v>11</v>
       </c>
-      <c s="31" r="B13">
+      <c s="30" r="B13">
         <f>SUM(C13:D13)</f>
         <v>0</v>
       </c>
-      <c s="5" r="C13">
+      <c s="4" r="C13">
         <f>SUM(E13:K13)</f>
         <v>0</v>
       </c>
       <c s="2" r="D13"/>
-      <c s="15" r="E13"/>
-      <c s="15" r="F13"/>
-      <c s="15" r="G13"/>
-      <c s="15" r="H13"/>
-      <c s="15" r="I13"/>
-      <c s="15" r="J13"/>
-      <c s="15" r="K13"/>
-      <c s="43" r="L13"/>
-      <c s="29" r="M13"/>
-      <c s="26" r="N13"/>
-      <c s="6" r="O13"/>
-      <c s="6" r="P13"/>
-      <c s="6" r="Q13"/>
-      <c s="6" r="R13"/>
-      <c s="6" r="S13"/>
-      <c s="6" r="T13"/>
-      <c s="6" r="U13"/>
-      <c s="6" r="V13"/>
-      <c s="6" r="W13"/>
-      <c s="6" r="X13"/>
-      <c s="6" r="Y13"/>
+      <c s="14" r="E13"/>
+      <c s="14" r="F13"/>
+      <c s="14" r="G13"/>
+      <c s="14" r="H13"/>
+      <c s="14" r="I13"/>
+      <c s="14" r="J13"/>
+      <c s="14" r="K13"/>
+      <c s="41" r="L13"/>
+      <c s="28" r="M13"/>
+      <c s="25" r="N13"/>
+      <c s="5" r="O13"/>
+      <c s="5" r="P13"/>
+      <c s="5" r="Q13"/>
+      <c s="5" r="R13"/>
+      <c s="5" r="S13"/>
+      <c s="5" r="T13"/>
+      <c s="5" r="U13"/>
+      <c s="5" r="V13"/>
+      <c s="5" r="W13"/>
+      <c s="5" r="X13"/>
+      <c s="5" r="Y13"/>
     </row>
     <row r="14">
       <c s="3" r="A14">
         <v>12</v>
       </c>
-      <c s="31" r="B14">
+      <c s="30" r="B14">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c s="5" r="C14">
+      <c s="4" r="C14">
         <f>SUM(E14:K14)</f>
         <v>0</v>
       </c>
       <c s="2" r="D14"/>
-      <c s="15" r="E14"/>
-      <c s="15" r="F14"/>
-      <c s="15" r="G14"/>
-      <c s="15" r="H14"/>
-      <c s="15" r="I14"/>
-      <c s="15" r="J14"/>
-      <c s="15" r="K14"/>
-      <c s="43" r="L14"/>
-      <c s="29" r="M14"/>
-      <c s="26" r="N14"/>
-      <c s="6" r="O14"/>
-      <c s="6" r="P14"/>
-      <c s="6" r="Q14"/>
-      <c s="6" r="R14"/>
-      <c s="6" r="S14"/>
-      <c s="6" r="T14"/>
-      <c s="6" r="U14"/>
-      <c s="6" r="V14"/>
-      <c s="6" r="W14"/>
-      <c s="6" r="X14"/>
-      <c s="6" r="Y14"/>
+      <c s="14" r="E14"/>
+      <c s="14" r="F14"/>
+      <c s="14" r="G14"/>
+      <c s="14" r="H14"/>
+      <c s="14" r="I14"/>
+      <c s="14" r="J14"/>
+      <c s="14" r="K14"/>
+      <c s="41" r="L14"/>
+      <c s="28" r="M14"/>
+      <c s="25" r="N14"/>
+      <c s="5" r="O14"/>
+      <c s="5" r="P14"/>
+      <c s="5" r="Q14"/>
+      <c s="5" r="R14"/>
+      <c s="5" r="S14"/>
+      <c s="5" r="T14"/>
+      <c s="5" r="U14"/>
+      <c s="5" r="V14"/>
+      <c s="5" r="W14"/>
+      <c s="5" r="X14"/>
+      <c s="5" r="Y14"/>
     </row>
     <row r="15">
       <c s="3" r="A15"/>
-      <c s="31" r="B15"/>
-      <c s="5" r="C15"/>
+      <c s="30" r="B15"/>
+      <c s="4" r="C15"/>
       <c s="2" r="D15"/>
-      <c s="15" r="E15"/>
-      <c s="15" r="F15"/>
-      <c s="15" r="G15"/>
-      <c s="15" r="H15"/>
-      <c s="15" r="I15"/>
-      <c s="15" r="J15"/>
-      <c s="15" r="K15"/>
-      <c s="43" r="L15"/>
-      <c s="29" r="M15"/>
-      <c s="26" r="N15"/>
-      <c s="6" r="O15"/>
-      <c s="6" r="P15"/>
-      <c s="6" r="Q15"/>
-      <c s="6" r="R15"/>
-      <c s="6" r="S15"/>
-      <c s="6" r="T15"/>
-      <c s="6" r="U15"/>
-      <c s="6" r="V15"/>
-      <c s="6" r="W15"/>
-      <c s="6" r="X15"/>
-      <c s="6" r="Y15"/>
+      <c s="14" r="E15"/>
+      <c s="14" r="F15"/>
+      <c s="14" r="G15"/>
+      <c s="14" r="H15"/>
+      <c s="14" r="I15"/>
+      <c s="14" r="J15"/>
+      <c s="14" r="K15"/>
+      <c s="41" r="L15"/>
+      <c s="28" r="M15"/>
+      <c s="25" r="N15"/>
+      <c s="5" r="O15"/>
+      <c s="5" r="P15"/>
+      <c s="5" r="Q15"/>
+      <c s="5" r="R15"/>
+      <c s="5" r="S15"/>
+      <c s="5" r="T15"/>
+      <c s="5" r="U15"/>
+      <c s="5" r="V15"/>
+      <c s="5" r="W15"/>
+      <c s="5" r="X15"/>
+      <c s="5" r="Y15"/>
     </row>
     <row r="16">
       <c s="3" r="A16"/>
-      <c s="31" r="B16"/>
-      <c s="5" r="C16"/>
+      <c s="30" r="B16"/>
+      <c s="4" r="C16"/>
       <c s="2" r="D16"/>
-      <c s="15" r="E16"/>
-      <c s="15" r="F16"/>
-      <c s="15" r="G16"/>
-      <c s="15" r="H16"/>
-      <c s="15" r="I16"/>
-      <c s="15" r="J16"/>
-      <c s="15" r="K16"/>
-      <c s="43" r="L16"/>
-      <c s="29" r="M16"/>
-      <c s="26" r="N16"/>
-      <c s="6" r="O16"/>
-      <c s="6" r="P16"/>
-      <c s="6" r="Q16"/>
-      <c s="6" r="R16"/>
-      <c s="6" r="S16"/>
-      <c s="6" r="T16"/>
-      <c s="6" r="U16"/>
-      <c s="6" r="V16"/>
-      <c s="6" r="W16"/>
-      <c s="6" r="X16"/>
-      <c s="6" r="Y16"/>
+      <c s="14" r="E16"/>
+      <c s="14" r="F16"/>
+      <c s="14" r="G16"/>
+      <c s="14" r="H16"/>
+      <c s="14" r="I16"/>
+      <c s="14" r="J16"/>
+      <c s="14" r="K16"/>
+      <c s="41" r="L16"/>
+      <c s="28" r="M16"/>
+      <c s="25" r="N16"/>
+      <c s="5" r="O16"/>
+      <c s="5" r="P16"/>
+      <c s="5" r="Q16"/>
+      <c s="5" r="R16"/>
+      <c s="5" r="S16"/>
+      <c s="5" r="T16"/>
+      <c s="5" r="U16"/>
+      <c s="5" r="V16"/>
+      <c s="5" r="W16"/>
+      <c s="5" r="X16"/>
+      <c s="5" r="Y16"/>
     </row>
     <row r="17">
       <c s="3" r="A17"/>
-      <c s="31" r="B17"/>
-      <c s="5" r="C17"/>
+      <c s="30" r="B17"/>
+      <c s="4" r="C17"/>
       <c s="2" r="D17"/>
-      <c s="15" r="E17"/>
-      <c s="15" r="F17"/>
-      <c s="15" r="G17"/>
-      <c s="15" r="H17"/>
-      <c s="15" r="I17"/>
-      <c s="15" r="J17"/>
-      <c s="15" r="K17"/>
-      <c s="43" r="L17"/>
-      <c s="29" r="M17"/>
-      <c s="26" r="N17"/>
-      <c s="6" r="O17"/>
-      <c s="6" r="P17"/>
-      <c s="6" r="Q17"/>
-      <c s="6" r="R17"/>
-      <c s="6" r="S17"/>
-      <c s="6" r="T17"/>
-      <c s="6" r="U17"/>
-      <c s="6" r="V17"/>
-      <c s="6" r="W17"/>
-      <c s="6" r="X17"/>
-      <c s="6" r="Y17"/>
+      <c s="14" r="E17"/>
+      <c s="14" r="F17"/>
+      <c s="14" r="G17"/>
+      <c s="14" r="H17"/>
+      <c s="14" r="I17"/>
+      <c s="14" r="J17"/>
+      <c s="14" r="K17"/>
+      <c s="41" r="L17"/>
+      <c s="28" r="M17"/>
+      <c s="25" r="N17"/>
+      <c s="5" r="O17"/>
+      <c s="5" r="P17"/>
+      <c s="5" r="Q17"/>
+      <c s="5" r="R17"/>
+      <c s="5" r="S17"/>
+      <c s="5" r="T17"/>
+      <c s="5" r="U17"/>
+      <c s="5" r="V17"/>
+      <c s="5" r="W17"/>
+      <c s="5" r="X17"/>
+      <c s="5" r="Y17"/>
     </row>
     <row r="18">
       <c s="3" r="A18"/>
-      <c s="31" r="B18"/>
-      <c s="5" r="C18"/>
+      <c s="30" r="B18"/>
+      <c s="4" r="C18"/>
       <c s="2" r="D18"/>
-      <c s="15" r="E18"/>
-      <c s="15" r="F18"/>
-      <c s="15" r="G18"/>
-      <c s="15" r="H18"/>
-      <c s="15" r="I18"/>
-      <c s="15" r="J18"/>
-      <c s="15" r="K18"/>
-      <c s="43" r="L18"/>
-      <c s="29" r="M18"/>
-      <c s="26" r="N18"/>
-      <c s="6" r="O18"/>
-      <c s="6" r="P18"/>
-      <c s="6" r="Q18"/>
-      <c s="6" r="R18"/>
-      <c s="6" r="S18"/>
-      <c s="6" r="T18"/>
-      <c s="6" r="U18"/>
-      <c s="6" r="V18"/>
-      <c s="6" r="W18"/>
-      <c s="6" r="X18"/>
-      <c s="6" r="Y18"/>
+      <c s="14" r="E18"/>
+      <c s="14" r="F18"/>
+      <c s="14" r="G18"/>
+      <c s="14" r="H18"/>
+      <c s="14" r="I18"/>
+      <c s="14" r="J18"/>
+      <c s="14" r="K18"/>
+      <c s="41" r="L18"/>
+      <c s="28" r="M18"/>
+      <c s="25" r="N18"/>
+      <c s="5" r="O18"/>
+      <c s="5" r="P18"/>
+      <c s="5" r="Q18"/>
+      <c s="5" r="R18"/>
+      <c s="5" r="S18"/>
+      <c s="5" r="T18"/>
+      <c s="5" r="U18"/>
+      <c s="5" r="V18"/>
+      <c s="5" r="W18"/>
+      <c s="5" r="X18"/>
+      <c s="5" r="Y18"/>
     </row>
     <row r="19">
       <c s="3" r="A19"/>
-      <c s="31" r="B19"/>
-      <c s="5" r="C19"/>
+      <c s="30" r="B19"/>
+      <c s="4" r="C19"/>
       <c s="2" r="D19"/>
-      <c s="15" r="E19"/>
-      <c s="15" r="F19"/>
-      <c s="15" r="G19"/>
-      <c s="15" r="H19"/>
-      <c s="15" r="I19"/>
-      <c s="15" r="J19"/>
-      <c s="15" r="K19"/>
-      <c s="43" r="L19"/>
-      <c s="29" r="M19"/>
-      <c s="26" r="N19"/>
-      <c s="6" r="O19"/>
-      <c s="6" r="P19"/>
-      <c s="6" r="Q19"/>
-      <c s="6" r="R19"/>
-      <c s="6" r="S19"/>
-      <c s="6" r="T19"/>
-      <c s="6" r="U19"/>
-      <c s="6" r="V19"/>
-      <c s="6" r="W19"/>
-      <c s="6" r="X19"/>
-      <c s="6" r="Y19"/>
+      <c s="14" r="E19"/>
+      <c s="14" r="F19"/>
+      <c s="14" r="G19"/>
+      <c s="14" r="H19"/>
+      <c s="14" r="I19"/>
+      <c s="14" r="J19"/>
+      <c s="14" r="K19"/>
+      <c s="41" r="L19"/>
+      <c s="28" r="M19"/>
+      <c s="25" r="N19"/>
+      <c s="5" r="O19"/>
+      <c s="5" r="P19"/>
+      <c s="5" r="Q19"/>
+      <c s="5" r="R19"/>
+      <c s="5" r="S19"/>
+      <c s="5" r="T19"/>
+      <c s="5" r="U19"/>
+      <c s="5" r="V19"/>
+      <c s="5" r="W19"/>
+      <c s="5" r="X19"/>
+      <c s="5" r="Y19"/>
     </row>
     <row r="20">
       <c s="3" r="A20"/>
-      <c s="31" r="B20"/>
-      <c s="5" r="C20"/>
+      <c s="30" r="B20"/>
+      <c s="4" r="C20"/>
       <c s="2" r="D20"/>
-      <c s="15" r="E20"/>
-      <c s="15" r="F20"/>
-      <c s="15" r="G20"/>
-      <c s="15" r="H20"/>
-      <c s="15" r="I20"/>
-      <c s="15" r="J20"/>
-      <c s="15" r="K20"/>
-      <c s="43" r="L20"/>
-      <c s="29" r="M20"/>
-      <c s="26" r="N20"/>
-      <c s="6" r="O20"/>
-      <c s="6" r="P20"/>
-      <c s="6" r="Q20"/>
-      <c s="6" r="R20"/>
-      <c s="6" r="S20"/>
-      <c s="6" r="T20"/>
-      <c s="6" r="U20"/>
-      <c s="6" r="V20"/>
-      <c s="6" r="W20"/>
-      <c s="6" r="X20"/>
-      <c s="6" r="Y20"/>
+      <c s="14" r="E20"/>
+      <c s="14" r="F20"/>
+      <c s="14" r="G20"/>
+      <c s="14" r="H20"/>
+      <c s="14" r="I20"/>
+      <c s="14" r="J20"/>
+      <c s="14" r="K20"/>
+      <c s="41" r="L20"/>
+      <c s="28" r="M20"/>
+      <c s="25" r="N20"/>
+      <c s="5" r="O20"/>
+      <c s="5" r="P20"/>
+      <c s="5" r="Q20"/>
+      <c s="5" r="R20"/>
+      <c s="5" r="S20"/>
+      <c s="5" r="T20"/>
+      <c s="5" r="U20"/>
+      <c s="5" r="V20"/>
+      <c s="5" r="W20"/>
+      <c s="5" r="X20"/>
+      <c s="5" r="Y20"/>
     </row>
     <row r="21">
       <c s="3" r="A21"/>
-      <c s="31" r="B21"/>
-      <c s="5" r="C21"/>
+      <c s="30" r="B21"/>
+      <c s="4" r="C21"/>
       <c s="2" r="D21"/>
-      <c s="15" r="E21"/>
-      <c s="15" r="F21"/>
-      <c s="15" r="G21"/>
-      <c s="15" r="H21"/>
-      <c s="15" r="I21"/>
-      <c s="15" r="J21"/>
-      <c s="15" r="K21"/>
-      <c s="43" r="L21"/>
-      <c s="29" r="M21"/>
-      <c s="26" r="N21"/>
-      <c s="6" r="O21"/>
-      <c s="6" r="P21"/>
-      <c s="6" r="Q21"/>
-      <c s="6" r="R21"/>
-      <c s="6" r="S21"/>
-      <c s="6" r="T21"/>
-      <c s="6" r="U21"/>
-      <c s="6" r="V21"/>
-      <c s="6" r="W21"/>
-      <c s="6" r="X21"/>
-      <c s="6" r="Y21"/>
+      <c s="14" r="E21"/>
+      <c s="14" r="F21"/>
+      <c s="14" r="G21"/>
+      <c s="14" r="H21"/>
+      <c s="14" r="I21"/>
+      <c s="14" r="J21"/>
+      <c s="14" r="K21"/>
+      <c s="41" r="L21"/>
+      <c s="28" r="M21"/>
+      <c s="25" r="N21"/>
+      <c s="5" r="O21"/>
+      <c s="5" r="P21"/>
+      <c s="5" r="Q21"/>
+      <c s="5" r="R21"/>
+      <c s="5" r="S21"/>
+      <c s="5" r="T21"/>
+      <c s="5" r="U21"/>
+      <c s="5" r="V21"/>
+      <c s="5" r="W21"/>
+      <c s="5" r="X21"/>
+      <c s="5" r="Y21"/>
     </row>
     <row r="22">
       <c s="3" r="A22"/>
-      <c s="31" r="B22"/>
-      <c s="5" r="C22"/>
+      <c s="30" r="B22"/>
+      <c s="4" r="C22"/>
       <c s="2" r="D22"/>
-      <c s="15" r="E22"/>
-      <c s="15" r="F22"/>
-      <c s="15" r="G22"/>
-      <c s="15" r="H22"/>
-      <c s="15" r="I22"/>
-      <c s="15" r="J22"/>
-      <c s="15" r="K22"/>
-      <c s="43" r="L22"/>
-      <c s="29" r="M22"/>
-      <c s="26" r="N22"/>
-      <c s="6" r="O22"/>
-      <c s="6" r="P22"/>
-      <c s="6" r="Q22"/>
-      <c s="6" r="R22"/>
-      <c s="6" r="S22"/>
-      <c s="6" r="T22"/>
-      <c s="6" r="U22"/>
-      <c s="6" r="V22"/>
-      <c s="6" r="W22"/>
-      <c s="6" r="X22"/>
-      <c s="6" r="Y22"/>
+      <c s="14" r="E22"/>
+      <c s="14" r="F22"/>
+      <c s="14" r="G22"/>
+      <c s="14" r="H22"/>
+      <c s="14" r="I22"/>
+      <c s="14" r="J22"/>
+      <c s="14" r="K22"/>
+      <c s="41" r="L22"/>
+      <c s="28" r="M22"/>
+      <c s="25" r="N22"/>
+      <c s="5" r="O22"/>
+      <c s="5" r="P22"/>
+      <c s="5" r="Q22"/>
+      <c s="5" r="R22"/>
+      <c s="5" r="S22"/>
+      <c s="5" r="T22"/>
+      <c s="5" r="U22"/>
+      <c s="5" r="V22"/>
+      <c s="5" r="W22"/>
+      <c s="5" r="X22"/>
+      <c s="5" r="Y22"/>
     </row>
     <row r="23">
       <c s="3" r="A23"/>
-      <c s="31" r="B23"/>
-      <c s="5" r="C23"/>
+      <c s="30" r="B23"/>
+      <c s="4" r="C23"/>
       <c s="2" r="D23"/>
-      <c s="15" r="E23"/>
-      <c s="15" r="F23"/>
-      <c s="15" r="G23"/>
-      <c s="15" r="H23"/>
-      <c s="15" r="I23"/>
-      <c s="15" r="J23"/>
-      <c s="15" r="K23"/>
-      <c s="43" r="L23"/>
-      <c s="29" r="M23"/>
-      <c s="26" r="N23"/>
-      <c s="6" r="O23"/>
-      <c s="6" r="P23"/>
-      <c s="6" r="Q23"/>
-      <c s="6" r="R23"/>
-      <c s="6" r="S23"/>
-      <c s="6" r="T23"/>
-      <c s="6" r="U23"/>
-      <c s="6" r="V23"/>
-      <c s="6" r="W23"/>
-      <c s="6" r="X23"/>
-      <c s="6" r="Y23"/>
+      <c s="14" r="E23"/>
+      <c s="14" r="F23"/>
+      <c s="14" r="G23"/>
+      <c s="14" r="H23"/>
+      <c s="14" r="I23"/>
+      <c s="14" r="J23"/>
+      <c s="14" r="K23"/>
+      <c s="41" r="L23"/>
+      <c s="28" r="M23"/>
+      <c s="25" r="N23"/>
+      <c s="5" r="O23"/>
+      <c s="5" r="P23"/>
+      <c s="5" r="Q23"/>
+      <c s="5" r="R23"/>
+      <c s="5" r="S23"/>
+      <c s="5" r="T23"/>
+      <c s="5" r="U23"/>
+      <c s="5" r="V23"/>
+      <c s="5" r="W23"/>
+      <c s="5" r="X23"/>
+      <c s="5" r="Y23"/>
     </row>
     <row r="24">
       <c s="3" r="A24"/>
-      <c s="31" r="B24"/>
-      <c s="5" r="C24"/>
+      <c s="30" r="B24"/>
+      <c s="4" r="C24"/>
       <c s="2" r="D24"/>
-      <c s="15" r="E24"/>
-      <c s="15" r="F24"/>
-      <c s="15" r="G24"/>
-      <c s="15" r="H24"/>
-      <c s="15" r="I24"/>
-      <c s="15" r="J24"/>
-      <c s="15" r="K24"/>
-      <c s="43" r="L24"/>
-      <c s="29" r="M24"/>
-      <c s="26" r="N24"/>
-      <c s="6" r="O24"/>
-      <c s="6" r="P24"/>
-      <c s="6" r="Q24"/>
-      <c s="6" r="R24"/>
-      <c s="6" r="S24"/>
-      <c s="6" r="T24"/>
-      <c s="6" r="U24"/>
-      <c s="6" r="V24"/>
-      <c s="6" r="W24"/>
-      <c s="6" r="X24"/>
-      <c s="6" r="Y24"/>
+      <c s="14" r="E24"/>
+      <c s="14" r="F24"/>
+      <c s="14" r="G24"/>
+      <c s="14" r="H24"/>
+      <c s="14" r="I24"/>
+      <c s="14" r="J24"/>
+      <c s="14" r="K24"/>
+      <c s="41" r="L24"/>
+      <c s="28" r="M24"/>
+      <c s="25" r="N24"/>
+      <c s="5" r="O24"/>
+      <c s="5" r="P24"/>
+      <c s="5" r="Q24"/>
+      <c s="5" r="R24"/>
+      <c s="5" r="S24"/>
+      <c s="5" r="T24"/>
+      <c s="5" r="U24"/>
+      <c s="5" r="V24"/>
+      <c s="5" r="W24"/>
+      <c s="5" r="X24"/>
+      <c s="5" r="Y24"/>
     </row>
     <row r="25">
       <c s="3" r="A25"/>
-      <c s="31" r="B25"/>
-      <c s="5" r="C25"/>
+      <c s="30" r="B25"/>
+      <c s="4" r="C25"/>
       <c s="2" r="D25"/>
-      <c s="15" r="E25"/>
-      <c s="15" r="F25"/>
-      <c s="15" r="G25"/>
-      <c s="15" r="H25"/>
-      <c s="15" r="I25"/>
-      <c s="15" r="J25"/>
-      <c s="15" r="K25"/>
-      <c s="43" r="L25"/>
-      <c s="29" r="M25"/>
-      <c s="26" r="N25"/>
-      <c s="6" r="O25"/>
-      <c s="6" r="P25"/>
-      <c s="6" r="Q25"/>
-      <c s="6" r="R25"/>
-      <c s="6" r="S25"/>
-      <c s="6" r="T25"/>
-      <c s="6" r="U25"/>
-      <c s="6" r="V25"/>
-      <c s="6" r="W25"/>
-      <c s="6" r="X25"/>
-      <c s="6" r="Y25"/>
+      <c s="14" r="E25"/>
+      <c s="14" r="F25"/>
+      <c s="14" r="G25"/>
+      <c s="14" r="H25"/>
+      <c s="14" r="I25"/>
+      <c s="14" r="J25"/>
+      <c s="14" r="K25"/>
+      <c s="41" r="L25"/>
+      <c s="28" r="M25"/>
+      <c s="25" r="N25"/>
+      <c s="5" r="O25"/>
+      <c s="5" r="P25"/>
+      <c s="5" r="Q25"/>
+      <c s="5" r="R25"/>
+      <c s="5" r="S25"/>
+      <c s="5" r="T25"/>
+      <c s="5" r="U25"/>
+      <c s="5" r="V25"/>
+      <c s="5" r="W25"/>
+      <c s="5" r="X25"/>
+      <c s="5" r="Y25"/>
     </row>
     <row r="26">
       <c s="3" r="A26"/>
-      <c s="31" r="B26"/>
-      <c s="5" r="C26"/>
+      <c s="30" r="B26"/>
+      <c s="4" r="C26"/>
       <c s="2" r="D26"/>
-      <c s="15" r="E26"/>
-      <c s="15" r="F26"/>
-      <c s="15" r="G26"/>
-      <c s="15" r="H26"/>
-      <c s="15" r="I26"/>
-      <c s="15" r="J26"/>
-      <c s="15" r="K26"/>
-      <c s="43" r="L26"/>
-      <c s="29" r="M26"/>
-      <c s="26" r="N26"/>
-      <c s="6" r="O26"/>
-      <c s="6" r="P26"/>
-      <c s="6" r="Q26"/>
-      <c s="6" r="R26"/>
-      <c s="6" r="S26"/>
-      <c s="6" r="T26"/>
-      <c s="6" r="U26"/>
-      <c s="6" r="V26"/>
-      <c s="6" r="W26"/>
-      <c s="6" r="X26"/>
-      <c s="6" r="Y26"/>
+      <c s="14" r="E26"/>
+      <c s="14" r="F26"/>
+      <c s="14" r="G26"/>
+      <c s="14" r="H26"/>
+      <c s="14" r="I26"/>
+      <c s="14" r="J26"/>
+      <c s="14" r="K26"/>
+      <c s="41" r="L26"/>
+      <c s="28" r="M26"/>
+      <c s="25" r="N26"/>
+      <c s="5" r="O26"/>
+      <c s="5" r="P26"/>
+      <c s="5" r="Q26"/>
+      <c s="5" r="R26"/>
+      <c s="5" r="S26"/>
+      <c s="5" r="T26"/>
+      <c s="5" r="U26"/>
+      <c s="5" r="V26"/>
+      <c s="5" r="W26"/>
+      <c s="5" r="X26"/>
+      <c s="5" r="Y26"/>
     </row>
     <row r="27">
       <c s="3" r="A27"/>
-      <c s="31" r="B27"/>
-      <c s="5" r="C27"/>
+      <c s="30" r="B27"/>
+      <c s="4" r="C27"/>
       <c s="2" r="D27"/>
-      <c s="15" r="E27"/>
-      <c s="15" r="F27"/>
-      <c s="15" r="G27"/>
-      <c s="15" r="H27"/>
-      <c s="15" r="I27"/>
-      <c s="15" r="J27"/>
-      <c s="15" r="K27"/>
-      <c s="43" r="L27"/>
-      <c s="29" r="M27"/>
-      <c s="26" r="N27"/>
-      <c s="6" r="O27"/>
-      <c s="6" r="P27"/>
-      <c s="6" r="Q27"/>
-      <c s="6" r="R27"/>
-      <c s="6" r="S27"/>
-      <c s="6" r="T27"/>
-      <c s="6" r="U27"/>
-      <c s="6" r="V27"/>
-      <c s="6" r="W27"/>
-      <c s="6" r="X27"/>
-      <c s="6" r="Y27"/>
+      <c s="14" r="E27"/>
+      <c s="14" r="F27"/>
+      <c s="14" r="G27"/>
+      <c s="14" r="H27"/>
+      <c s="14" r="I27"/>
+      <c s="14" r="J27"/>
+      <c s="14" r="K27"/>
+      <c s="41" r="L27"/>
+      <c s="28" r="M27"/>
+      <c s="25" r="N27"/>
+      <c s="5" r="O27"/>
+      <c s="5" r="P27"/>
+      <c s="5" r="Q27"/>
+      <c s="5" r="R27"/>
+      <c s="5" r="S27"/>
+      <c s="5" r="T27"/>
+      <c s="5" r="U27"/>
+      <c s="5" r="V27"/>
+      <c s="5" r="W27"/>
+      <c s="5" r="X27"/>
+      <c s="5" r="Y27"/>
     </row>
     <row r="28">
       <c s="3" r="A28"/>
-      <c s="31" r="B28"/>
-      <c s="5" r="C28"/>
+      <c s="30" r="B28"/>
+      <c s="4" r="C28"/>
       <c s="2" r="D28"/>
-      <c s="15" r="E28"/>
-      <c s="15" r="F28"/>
-      <c s="15" r="G28"/>
-      <c s="15" r="H28"/>
-      <c s="15" r="I28"/>
-      <c s="15" r="J28"/>
-      <c s="15" r="K28"/>
-      <c s="43" r="L28"/>
-      <c s="29" r="M28"/>
-      <c s="26" r="N28"/>
-      <c s="6" r="O28"/>
-      <c s="6" r="P28"/>
-      <c s="6" r="Q28"/>
-      <c s="6" r="R28"/>
-      <c s="6" r="S28"/>
-      <c s="6" r="T28"/>
-      <c s="6" r="U28"/>
-      <c s="6" r="V28"/>
-      <c s="6" r="W28"/>
-      <c s="6" r="X28"/>
-      <c s="6" r="Y28"/>
+      <c s="14" r="E28"/>
+      <c s="14" r="F28"/>
+      <c s="14" r="G28"/>
+      <c s="14" r="H28"/>
+      <c s="14" r="I28"/>
+      <c s="14" r="J28"/>
+      <c s="14" r="K28"/>
+      <c s="41" r="L28"/>
+      <c s="28" r="M28"/>
+      <c s="25" r="N28"/>
+      <c s="5" r="O28"/>
+      <c s="5" r="P28"/>
+      <c s="5" r="Q28"/>
+      <c s="5" r="R28"/>
+      <c s="5" r="S28"/>
+      <c s="5" r="T28"/>
+      <c s="5" r="U28"/>
+      <c s="5" r="V28"/>
+      <c s="5" r="W28"/>
+      <c s="5" r="X28"/>
+      <c s="5" r="Y28"/>
     </row>
     <row r="29">
       <c s="3" r="A29"/>
-      <c s="31" r="B29"/>
-      <c s="5" r="C29"/>
+      <c s="30" r="B29"/>
+      <c s="4" r="C29"/>
       <c s="2" r="D29"/>
-      <c s="15" r="E29"/>
-      <c s="15" r="F29"/>
-      <c s="15" r="G29"/>
-      <c s="15" r="H29"/>
-      <c s="15" r="I29"/>
-      <c s="15" r="J29"/>
-      <c s="15" r="K29"/>
-      <c s="43" r="L29"/>
-      <c s="29" r="M29"/>
-      <c s="26" r="N29"/>
-      <c s="6" r="O29"/>
-      <c s="6" r="P29"/>
-      <c s="6" r="Q29"/>
-      <c s="6" r="R29"/>
-      <c s="6" r="S29"/>
-      <c s="6" r="T29"/>
-      <c s="6" r="U29"/>
-      <c s="6" r="V29"/>
-      <c s="6" r="W29"/>
-      <c s="6" r="X29"/>
-      <c s="6" r="Y29"/>
+      <c s="14" r="E29"/>
+      <c s="14" r="F29"/>
+      <c s="14" r="G29"/>
+      <c s="14" r="H29"/>
+      <c s="14" r="I29"/>
+      <c s="14" r="J29"/>
+      <c s="14" r="K29"/>
+      <c s="41" r="L29"/>
+      <c s="28" r="M29"/>
+      <c s="25" r="N29"/>
+      <c s="5" r="O29"/>
+      <c s="5" r="P29"/>
+      <c s="5" r="Q29"/>
+      <c s="5" r="R29"/>
+      <c s="5" r="S29"/>
+      <c s="5" r="T29"/>
+      <c s="5" r="U29"/>
+      <c s="5" r="V29"/>
+      <c s="5" r="W29"/>
+      <c s="5" r="X29"/>
+      <c s="5" r="Y29"/>
     </row>
     <row r="30">
       <c s="3" r="A30"/>
-      <c s="31" r="B30"/>
-      <c s="5" r="C30"/>
+      <c s="30" r="B30"/>
+      <c s="4" r="C30"/>
       <c s="2" r="D30"/>
-      <c s="15" r="E30"/>
-      <c s="15" r="F30"/>
-      <c s="15" r="G30"/>
-      <c s="15" r="H30"/>
-      <c s="15" r="I30"/>
-      <c s="15" r="J30"/>
-      <c s="15" r="K30"/>
-      <c s="43" r="L30"/>
-      <c s="29" r="M30"/>
-      <c s="26" r="N30"/>
-      <c s="6" r="O30"/>
-      <c s="6" r="P30"/>
-      <c s="6" r="Q30"/>
-      <c s="6" r="R30"/>
-      <c s="6" r="S30"/>
-      <c s="6" r="T30"/>
-      <c s="6" r="U30"/>
-      <c s="6" r="V30"/>
-      <c s="6" r="W30"/>
-      <c s="6" r="X30"/>
-      <c s="6" r="Y30"/>
+      <c s="14" r="E30"/>
+      <c s="14" r="F30"/>
+      <c s="14" r="G30"/>
+      <c s="14" r="H30"/>
+      <c s="14" r="I30"/>
+      <c s="14" r="J30"/>
+      <c s="14" r="K30"/>
+      <c s="41" r="L30"/>
+      <c s="28" r="M30"/>
+      <c s="25" r="N30"/>
+      <c s="5" r="O30"/>
+      <c s="5" r="P30"/>
+      <c s="5" r="Q30"/>
+      <c s="5" r="R30"/>
+      <c s="5" r="S30"/>
+      <c s="5" r="T30"/>
+      <c s="5" r="U30"/>
+      <c s="5" r="V30"/>
+      <c s="5" r="W30"/>
+      <c s="5" r="X30"/>
+      <c s="5" r="Y30"/>
     </row>
     <row r="31">
       <c s="3" r="A31"/>
-      <c s="31" r="B31"/>
-      <c s="5" r="C31"/>
+      <c s="30" r="B31"/>
+      <c s="4" r="C31"/>
       <c s="2" r="D31"/>
-      <c s="15" r="E31"/>
-      <c s="15" r="F31"/>
-      <c s="15" r="G31"/>
-      <c s="15" r="H31"/>
-      <c s="15" r="I31"/>
-      <c s="15" r="J31"/>
-      <c s="15" r="K31"/>
-      <c s="43" r="L31"/>
-      <c s="29" r="M31"/>
-      <c s="26" r="N31"/>
-      <c s="6" r="O31"/>
-      <c s="6" r="P31"/>
-      <c s="6" r="Q31"/>
-      <c s="6" r="R31"/>
-      <c s="6" r="S31"/>
-      <c s="6" r="T31"/>
-      <c s="6" r="U31"/>
-      <c s="6" r="V31"/>
-      <c s="6" r="W31"/>
-      <c s="6" r="X31"/>
-      <c s="6" r="Y31"/>
+      <c s="14" r="E31"/>
+      <c s="14" r="F31"/>
+      <c s="14" r="G31"/>
+      <c s="14" r="H31"/>
+      <c s="14" r="I31"/>
+      <c s="14" r="J31"/>
+      <c s="14" r="K31"/>
+      <c s="41" r="L31"/>
+      <c s="28" r="M31"/>
+      <c s="25" r="N31"/>
+      <c s="5" r="O31"/>
+      <c s="5" r="P31"/>
+      <c s="5" r="Q31"/>
+      <c s="5" r="R31"/>
+      <c s="5" r="S31"/>
+      <c s="5" r="T31"/>
+      <c s="5" r="U31"/>
+      <c s="5" r="V31"/>
+      <c s="5" r="W31"/>
+      <c s="5" r="X31"/>
+      <c s="5" r="Y31"/>
     </row>
     <row r="32">
       <c s="3" r="A32"/>
-      <c s="31" r="B32"/>
-      <c s="5" r="C32"/>
+      <c s="30" r="B32"/>
+      <c s="4" r="C32"/>
       <c s="2" r="D32"/>
-      <c s="15" r="E32"/>
-      <c s="15" r="F32"/>
-      <c s="15" r="G32"/>
-      <c s="15" r="H32"/>
-      <c s="15" r="I32"/>
-      <c s="15" r="J32"/>
-      <c s="15" r="K32"/>
-      <c s="43" r="L32"/>
-      <c s="29" r="M32"/>
-      <c s="26" r="N32"/>
-      <c s="6" r="O32"/>
-      <c s="6" r="P32"/>
-      <c s="6" r="Q32"/>
-      <c s="6" r="R32"/>
-      <c s="6" r="S32"/>
-      <c s="6" r="T32"/>
-      <c s="6" r="U32"/>
-      <c s="6" r="V32"/>
-      <c s="6" r="W32"/>
-      <c s="6" r="X32"/>
-      <c s="6" r="Y32"/>
+      <c s="14" r="E32"/>
+      <c s="14" r="F32"/>
+      <c s="14" r="G32"/>
+      <c s="14" r="H32"/>
+      <c s="14" r="I32"/>
+      <c s="14" r="J32"/>
+      <c s="14" r="K32"/>
+      <c s="41" r="L32"/>
+      <c s="28" r="M32"/>
+      <c s="25" r="N32"/>
+      <c s="5" r="O32"/>
+      <c s="5" r="P32"/>
+      <c s="5" r="Q32"/>
+      <c s="5" r="R32"/>
+      <c s="5" r="S32"/>
+      <c s="5" r="T32"/>
+      <c s="5" r="U32"/>
+      <c s="5" r="V32"/>
+      <c s="5" r="W32"/>
+      <c s="5" r="X32"/>
+      <c s="5" r="Y32"/>
     </row>
     <row r="33">
       <c s="3" r="A33"/>
-      <c s="31" r="B33"/>
-      <c s="5" r="C33"/>
+      <c s="30" r="B33"/>
+      <c s="4" r="C33"/>
       <c s="2" r="D33"/>
-      <c s="15" r="E33"/>
-      <c s="15" r="F33"/>
-      <c s="15" r="G33"/>
-      <c s="15" r="H33"/>
-      <c s="15" r="I33"/>
-      <c s="15" r="J33"/>
-      <c s="15" r="K33"/>
-      <c s="43" r="L33"/>
-      <c s="29" r="M33"/>
-      <c s="26" r="N33"/>
-      <c s="6" r="O33"/>
-      <c s="6" r="P33"/>
-      <c s="6" r="Q33"/>
-      <c s="6" r="R33"/>
-      <c s="6" r="S33"/>
-      <c s="6" r="T33"/>
-      <c s="6" r="U33"/>
-      <c s="6" r="V33"/>
-      <c s="6" r="W33"/>
-      <c s="6" r="X33"/>
-      <c s="6" r="Y33"/>
+      <c s="14" r="E33"/>
+      <c s="14" r="F33"/>
+      <c s="14" r="G33"/>
+      <c s="14" r="H33"/>
+      <c s="14" r="I33"/>
+      <c s="14" r="J33"/>
+      <c s="14" r="K33"/>
+      <c s="41" r="L33"/>
+      <c s="28" r="M33"/>
+      <c s="25" r="N33"/>
+      <c s="5" r="O33"/>
+      <c s="5" r="P33"/>
+      <c s="5" r="Q33"/>
+      <c s="5" r="R33"/>
+      <c s="5" r="S33"/>
+      <c s="5" r="T33"/>
+      <c s="5" r="U33"/>
+      <c s="5" r="V33"/>
+      <c s="5" r="W33"/>
+      <c s="5" r="X33"/>
+      <c s="5" r="Y33"/>
     </row>
     <row r="34">
       <c s="3" r="A34"/>
-      <c s="31" r="B34"/>
-      <c s="5" r="C34"/>
+      <c s="30" r="B34"/>
+      <c s="4" r="C34"/>
       <c s="2" r="D34"/>
-      <c s="15" r="E34"/>
-      <c s="15" r="F34"/>
-      <c s="15" r="G34"/>
-      <c s="15" r="H34"/>
-      <c s="15" r="I34"/>
-      <c s="15" r="J34"/>
-      <c s="15" r="K34"/>
-      <c s="43" r="L34"/>
-      <c s="29" r="M34"/>
-      <c s="26" r="N34"/>
-      <c s="6" r="O34"/>
-      <c s="6" r="P34"/>
-      <c s="6" r="Q34"/>
-      <c s="6" r="R34"/>
-      <c s="6" r="S34"/>
-      <c s="6" r="T34"/>
-      <c s="6" r="U34"/>
-      <c s="6" r="V34"/>
-      <c s="6" r="W34"/>
-      <c s="6" r="X34"/>
-      <c s="6" r="Y34"/>
+      <c s="14" r="E34"/>
+      <c s="14" r="F34"/>
+      <c s="14" r="G34"/>
+      <c s="14" r="H34"/>
+      <c s="14" r="I34"/>
+      <c s="14" r="J34"/>
+      <c s="14" r="K34"/>
+      <c s="41" r="L34"/>
+      <c s="28" r="M34"/>
+      <c s="25" r="N34"/>
+      <c s="5" r="O34"/>
+      <c s="5" r="P34"/>
+      <c s="5" r="Q34"/>
+      <c s="5" r="R34"/>
+      <c s="5" r="S34"/>
+      <c s="5" r="T34"/>
+      <c s="5" r="U34"/>
+      <c s="5" r="V34"/>
+      <c s="5" r="W34"/>
+      <c s="5" r="X34"/>
+      <c s="5" r="Y34"/>
     </row>
     <row r="35">
       <c s="3" r="A35"/>
-      <c s="31" r="B35"/>
-      <c s="5" r="C35"/>
+      <c s="30" r="B35"/>
+      <c s="4" r="C35"/>
       <c s="2" r="D35"/>
-      <c s="15" r="E35"/>
-      <c s="15" r="F35"/>
-      <c s="15" r="G35"/>
-      <c s="15" r="H35"/>
-      <c s="15" r="I35"/>
-      <c s="15" r="J35"/>
-      <c s="15" r="K35"/>
-      <c s="43" r="L35"/>
-      <c s="29" r="M35"/>
-      <c s="26" r="N35"/>
-      <c s="6" r="O35"/>
-      <c s="6" r="P35"/>
-      <c s="6" r="Q35"/>
-      <c s="6" r="R35"/>
-      <c s="6" r="S35"/>
-      <c s="6" r="T35"/>
-      <c s="6" r="U35"/>
-      <c s="6" r="V35"/>
-      <c s="6" r="W35"/>
-      <c s="6" r="X35"/>
-      <c s="6" r="Y35"/>
+      <c s="14" r="E35"/>
+      <c s="14" r="F35"/>
+      <c s="14" r="G35"/>
+      <c s="14" r="H35"/>
+      <c s="14" r="I35"/>
+      <c s="14" r="J35"/>
+      <c s="14" r="K35"/>
+      <c s="41" r="L35"/>
+      <c s="28" r="M35"/>
+      <c s="25" r="N35"/>
+      <c s="5" r="O35"/>
+      <c s="5" r="P35"/>
+      <c s="5" r="Q35"/>
+      <c s="5" r="R35"/>
+      <c s="5" r="S35"/>
+      <c s="5" r="T35"/>
+      <c s="5" r="U35"/>
+      <c s="5" r="V35"/>
+      <c s="5" r="W35"/>
+      <c s="5" r="X35"/>
+      <c s="5" r="Y35"/>
     </row>
     <row r="36">
       <c s="3" r="A36"/>
-      <c s="31" r="B36"/>
-      <c s="5" r="C36"/>
+      <c s="30" r="B36"/>
+      <c s="4" r="C36"/>
       <c s="2" r="D36"/>
-      <c s="15" r="E36"/>
-      <c s="15" r="F36"/>
-      <c s="15" r="G36"/>
-      <c s="15" r="H36"/>
-      <c s="15" r="I36"/>
-      <c s="15" r="J36"/>
-      <c s="15" r="K36"/>
-      <c s="43" r="L36"/>
-      <c s="29" r="M36"/>
-      <c s="26" r="N36"/>
-      <c s="6" r="O36"/>
-      <c s="6" r="P36"/>
-      <c s="6" r="Q36"/>
-      <c s="6" r="R36"/>
-      <c s="6" r="S36"/>
-      <c s="6" r="T36"/>
-      <c s="6" r="U36"/>
-      <c s="6" r="V36"/>
-      <c s="6" r="W36"/>
-      <c s="6" r="X36"/>
-      <c s="6" r="Y36"/>
+      <c s="14" r="E36"/>
+      <c s="14" r="F36"/>
+      <c s="14" r="G36"/>
+      <c s="14" r="H36"/>
+      <c s="14" r="I36"/>
+      <c s="14" r="J36"/>
+      <c s="14" r="K36"/>
+      <c s="41" r="L36"/>
+      <c s="28" r="M36"/>
+      <c s="25" r="N36"/>
+      <c s="5" r="O36"/>
+      <c s="5" r="P36"/>
+      <c s="5" r="Q36"/>
+      <c s="5" r="R36"/>
+      <c s="5" r="S36"/>
+      <c s="5" r="T36"/>
+      <c s="5" r="U36"/>
+      <c s="5" r="V36"/>
+      <c s="5" r="W36"/>
+      <c s="5" r="X36"/>
+      <c s="5" r="Y36"/>
     </row>
     <row r="37">
       <c s="3" r="A37"/>
-      <c s="31" r="B37"/>
-      <c s="5" r="C37"/>
+      <c s="30" r="B37"/>
+      <c s="4" r="C37"/>
       <c s="2" r="D37"/>
-      <c s="15" r="E37"/>
-      <c s="15" r="F37"/>
-      <c s="15" r="G37"/>
-      <c s="15" r="H37"/>
-      <c s="15" r="I37"/>
-      <c s="15" r="J37"/>
-      <c s="15" r="K37"/>
-      <c s="43" r="L37"/>
-      <c s="29" r="M37"/>
-      <c s="26" r="N37"/>
-      <c s="6" r="O37"/>
-      <c s="6" r="P37"/>
-      <c s="6" r="Q37"/>
-      <c s="6" r="R37"/>
-      <c s="6" r="S37"/>
-      <c s="6" r="T37"/>
-      <c s="6" r="U37"/>
-      <c s="6" r="V37"/>
-      <c s="6" r="W37"/>
-      <c s="6" r="X37"/>
-      <c s="6" r="Y37"/>
+      <c s="14" r="E37"/>
+      <c s="14" r="F37"/>
+      <c s="14" r="G37"/>
+      <c s="14" r="H37"/>
+      <c s="14" r="I37"/>
+      <c s="14" r="J37"/>
+      <c s="14" r="K37"/>
+      <c s="41" r="L37"/>
+      <c s="28" r="M37"/>
+      <c s="25" r="N37"/>
+      <c s="5" r="O37"/>
+      <c s="5" r="P37"/>
+      <c s="5" r="Q37"/>
+      <c s="5" r="R37"/>
+      <c s="5" r="S37"/>
+      <c s="5" r="T37"/>
+      <c s="5" r="U37"/>
+      <c s="5" r="V37"/>
+      <c s="5" r="W37"/>
+      <c s="5" r="X37"/>
+      <c s="5" r="Y37"/>
     </row>
     <row r="38">
       <c s="3" r="A38"/>
-      <c s="31" r="B38"/>
-      <c s="5" r="C38"/>
+      <c s="30" r="B38"/>
+      <c s="4" r="C38"/>
       <c s="2" r="D38"/>
-      <c s="15" r="E38"/>
-      <c s="15" r="F38"/>
-      <c s="15" r="G38"/>
-      <c s="15" r="H38"/>
-      <c s="15" r="I38"/>
-      <c s="15" r="J38"/>
-      <c s="15" r="K38"/>
-      <c s="43" r="L38"/>
-      <c s="29" r="M38"/>
-      <c s="26" r="N38"/>
-      <c s="6" r="O38"/>
-      <c s="6" r="P38"/>
-      <c s="6" r="Q38"/>
-      <c s="6" r="R38"/>
-      <c s="6" r="S38"/>
-      <c s="6" r="T38"/>
-      <c s="6" r="U38"/>
-      <c s="6" r="V38"/>
-      <c s="6" r="W38"/>
-      <c s="6" r="X38"/>
-      <c s="6" r="Y38"/>
+      <c s="14" r="E38"/>
+      <c s="14" r="F38"/>
+      <c s="14" r="G38"/>
+      <c s="14" r="H38"/>
+      <c s="14" r="I38"/>
+      <c s="14" r="J38"/>
+      <c s="14" r="K38"/>
+      <c s="41" r="L38"/>
+      <c s="28" r="M38"/>
+      <c s="25" r="N38"/>
+      <c s="5" r="O38"/>
+      <c s="5" r="P38"/>
+      <c s="5" r="Q38"/>
+      <c s="5" r="R38"/>
+      <c s="5" r="S38"/>
+      <c s="5" r="T38"/>
+      <c s="5" r="U38"/>
+      <c s="5" r="V38"/>
+      <c s="5" r="W38"/>
+      <c s="5" r="X38"/>
+      <c s="5" r="Y38"/>
     </row>
     <row r="39">
       <c s="3" r="A39"/>
-      <c s="31" r="B39"/>
-      <c s="5" r="C39"/>
+      <c s="30" r="B39"/>
+      <c s="4" r="C39"/>
       <c s="2" r="D39"/>
-      <c s="15" r="E39"/>
-      <c s="15" r="F39"/>
-      <c s="15" r="G39"/>
-      <c s="15" r="H39"/>
-      <c s="15" r="I39"/>
-      <c s="15" r="J39"/>
-      <c s="15" r="K39"/>
-      <c s="43" r="L39"/>
-      <c s="29" r="M39"/>
-      <c s="26" r="N39"/>
-      <c s="6" r="O39"/>
-      <c s="6" r="P39"/>
-      <c s="6" r="Q39"/>
-      <c s="6" r="R39"/>
-      <c s="6" r="S39"/>
-      <c s="6" r="T39"/>
-      <c s="6" r="U39"/>
-      <c s="6" r="V39"/>
-      <c s="6" r="W39"/>
-      <c s="6" r="X39"/>
-      <c s="6" r="Y39"/>
+      <c s="14" r="E39"/>
+      <c s="14" r="F39"/>
+      <c s="14" r="G39"/>
+      <c s="14" r="H39"/>
+      <c s="14" r="I39"/>
+      <c s="14" r="J39"/>
+      <c s="14" r="K39"/>
+      <c s="41" r="L39"/>
+      <c s="28" r="M39"/>
+      <c s="25" r="N39"/>
+      <c s="5" r="O39"/>
+      <c s="5" r="P39"/>
+      <c s="5" r="Q39"/>
+      <c s="5" r="R39"/>
+      <c s="5" r="S39"/>
+      <c s="5" r="T39"/>
+      <c s="5" r="U39"/>
+      <c s="5" r="V39"/>
+      <c s="5" r="W39"/>
+      <c s="5" r="X39"/>
+      <c s="5" r="Y39"/>
     </row>
     <row r="40">
       <c s="3" r="A40"/>
-      <c s="31" r="B40"/>
-      <c s="5" r="C40"/>
+      <c s="30" r="B40"/>
+      <c s="4" r="C40"/>
       <c s="2" r="D40"/>
-      <c s="15" r="E40"/>
-      <c s="15" r="F40"/>
-      <c s="15" r="G40"/>
-      <c s="15" r="H40"/>
-      <c s="15" r="I40"/>
-      <c s="15" r="J40"/>
-      <c s="15" r="K40"/>
-      <c s="43" r="L40"/>
-      <c s="29" r="M40"/>
-      <c s="26" r="N40"/>
-      <c s="6" r="O40"/>
-      <c s="6" r="P40"/>
-      <c s="6" r="Q40"/>
-      <c s="6" r="R40"/>
-      <c s="6" r="S40"/>
-      <c s="6" r="T40"/>
-      <c s="6" r="U40"/>
-      <c s="6" r="V40"/>
-      <c s="6" r="W40"/>
-      <c s="6" r="X40"/>
-      <c s="6" r="Y40"/>
+      <c s="14" r="E40"/>
+      <c s="14" r="F40"/>
+      <c s="14" r="G40"/>
+      <c s="14" r="H40"/>
+      <c s="14" r="I40"/>
+      <c s="14" r="J40"/>
+      <c s="14" r="K40"/>
+      <c s="41" r="L40"/>
+      <c s="28" r="M40"/>
+      <c s="25" r="N40"/>
+      <c s="5" r="O40"/>
+      <c s="5" r="P40"/>
+      <c s="5" r="Q40"/>
+      <c s="5" r="R40"/>
+      <c s="5" r="S40"/>
+      <c s="5" r="T40"/>
+      <c s="5" r="U40"/>
+      <c s="5" r="V40"/>
+      <c s="5" r="W40"/>
+      <c s="5" r="X40"/>
+      <c s="5" r="Y40"/>
     </row>
     <row r="41">
       <c s="3" r="A41"/>
-      <c s="31" r="B41"/>
-      <c s="5" r="C41"/>
+      <c s="30" r="B41"/>
+      <c s="4" r="C41"/>
       <c s="2" r="D41"/>
-      <c s="15" r="E41"/>
-      <c s="15" r="F41"/>
-      <c s="15" r="G41"/>
-      <c s="15" r="H41"/>
-      <c s="15" r="I41"/>
-      <c s="15" r="J41"/>
-      <c s="15" r="K41"/>
-      <c s="43" r="L41"/>
-      <c s="29" r="M41"/>
-      <c s="26" r="N41"/>
-      <c s="6" r="O41"/>
-      <c s="6" r="P41"/>
-      <c s="6" r="Q41"/>
-      <c s="6" r="R41"/>
-      <c s="6" r="S41"/>
-      <c s="6" r="T41"/>
-      <c s="6" r="U41"/>
-      <c s="6" r="V41"/>
-      <c s="6" r="W41"/>
-      <c s="6" r="X41"/>
-      <c s="6" r="Y41"/>
+      <c s="14" r="E41"/>
+      <c s="14" r="F41"/>
+      <c s="14" r="G41"/>
+      <c s="14" r="H41"/>
+      <c s="14" r="I41"/>
+      <c s="14" r="J41"/>
+      <c s="14" r="K41"/>
+      <c s="41" r="L41"/>
+      <c s="28" r="M41"/>
+      <c s="25" r="N41"/>
+      <c s="5" r="O41"/>
+      <c s="5" r="P41"/>
+      <c s="5" r="Q41"/>
+      <c s="5" r="R41"/>
+      <c s="5" r="S41"/>
+      <c s="5" r="T41"/>
+      <c s="5" r="U41"/>
+      <c s="5" r="V41"/>
+      <c s="5" r="W41"/>
+      <c s="5" r="X41"/>
+      <c s="5" r="Y41"/>
     </row>
     <row r="42">
       <c s="3" r="A42"/>
-      <c s="31" r="B42"/>
-      <c s="5" r="C42"/>
+      <c s="30" r="B42"/>
+      <c s="4" r="C42"/>
       <c s="2" r="D42"/>
-      <c s="15" r="E42"/>
-      <c s="15" r="F42"/>
-      <c s="15" r="G42"/>
-      <c s="15" r="H42"/>
-      <c s="15" r="I42"/>
-      <c s="15" r="J42"/>
-      <c s="15" r="K42"/>
-      <c s="43" r="L42"/>
-      <c s="29" r="M42"/>
-      <c s="26" r="N42"/>
-      <c s="6" r="O42"/>
-      <c s="6" r="P42"/>
-      <c s="6" r="Q42"/>
-      <c s="6" r="R42"/>
-      <c s="6" r="S42"/>
-      <c s="6" r="T42"/>
-      <c s="6" r="U42"/>
-      <c s="6" r="V42"/>
-      <c s="6" r="W42"/>
-      <c s="6" r="X42"/>
-      <c s="6" r="Y42"/>
+      <c s="14" r="E42"/>
+      <c s="14" r="F42"/>
+      <c s="14" r="G42"/>
+      <c s="14" r="H42"/>
+      <c s="14" r="I42"/>
+      <c s="14" r="J42"/>
+      <c s="14" r="K42"/>
+      <c s="41" r="L42"/>
+      <c s="28" r="M42"/>
+      <c s="25" r="N42"/>
+      <c s="5" r="O42"/>
+      <c s="5" r="P42"/>
+      <c s="5" r="Q42"/>
+      <c s="5" r="R42"/>
+      <c s="5" r="S42"/>
+      <c s="5" r="T42"/>
+      <c s="5" r="U42"/>
+      <c s="5" r="V42"/>
+      <c s="5" r="W42"/>
+      <c s="5" r="X42"/>
+      <c s="5" r="Y42"/>
     </row>
     <row r="43">
       <c s="3" r="A43"/>
-      <c s="31" r="B43"/>
-      <c s="5" r="C43"/>
+      <c s="30" r="B43"/>
+      <c s="4" r="C43"/>
       <c s="2" r="D43"/>
-      <c s="15" r="E43"/>
-      <c s="15" r="F43"/>
-      <c s="15" r="G43"/>
-      <c s="15" r="H43"/>
-      <c s="15" r="I43"/>
-      <c s="15" r="J43"/>
-      <c s="15" r="K43"/>
-      <c s="43" r="L43"/>
-      <c s="29" r="M43"/>
-      <c s="26" r="N43"/>
-      <c s="6" r="O43"/>
-      <c s="6" r="P43"/>
-      <c s="6" r="Q43"/>
-      <c s="6" r="R43"/>
-      <c s="6" r="S43"/>
-      <c s="6" r="T43"/>
-      <c s="6" r="U43"/>
-      <c s="6" r="V43"/>
-      <c s="6" r="W43"/>
-      <c s="6" r="X43"/>
-      <c s="6" r="Y43"/>
+      <c s="14" r="E43"/>
+      <c s="14" r="F43"/>
+      <c s="14" r="G43"/>
+      <c s="14" r="H43"/>
+      <c s="14" r="I43"/>
+      <c s="14" r="J43"/>
+      <c s="14" r="K43"/>
+      <c s="41" r="L43"/>
+      <c s="28" r="M43"/>
+      <c s="25" r="N43"/>
+      <c s="5" r="O43"/>
+      <c s="5" r="P43"/>
+      <c s="5" r="Q43"/>
+      <c s="5" r="R43"/>
+      <c s="5" r="S43"/>
+      <c s="5" r="T43"/>
+      <c s="5" r="U43"/>
+      <c s="5" r="V43"/>
+      <c s="5" r="W43"/>
+      <c s="5" r="X43"/>
+      <c s="5" r="Y43"/>
     </row>
     <row r="44">
       <c s="3" r="A44"/>
-      <c s="31" r="B44"/>
-      <c s="5" r="C44"/>
+      <c s="30" r="B44"/>
+      <c s="4" r="C44"/>
       <c s="2" r="D44"/>
-      <c s="15" r="E44"/>
-      <c s="15" r="F44"/>
-      <c s="15" r="G44"/>
-      <c s="15" r="H44"/>
-      <c s="15" r="I44"/>
-      <c s="15" r="J44"/>
-      <c s="15" r="K44"/>
-      <c s="43" r="L44"/>
-      <c s="29" r="M44"/>
-      <c s="26" r="N44"/>
-      <c s="6" r="O44"/>
-      <c s="6" r="P44"/>
-      <c s="6" r="Q44"/>
-      <c s="6" r="R44"/>
-      <c s="6" r="S44"/>
-      <c s="6" r="T44"/>
-      <c s="6" r="U44"/>
-      <c s="6" r="V44"/>
-      <c s="6" r="W44"/>
-      <c s="6" r="X44"/>
-      <c s="6" r="Y44"/>
+      <c s="14" r="E44"/>
+      <c s="14" r="F44"/>
+      <c s="14" r="G44"/>
+      <c s="14" r="H44"/>
+      <c s="14" r="I44"/>
+      <c s="14" r="J44"/>
+      <c s="14" r="K44"/>
+      <c s="41" r="L44"/>
+      <c s="28" r="M44"/>
+      <c s="25" r="N44"/>
+      <c s="5" r="O44"/>
+      <c s="5" r="P44"/>
+      <c s="5" r="Q44"/>
+      <c s="5" r="R44"/>
+      <c s="5" r="S44"/>
+      <c s="5" r="T44"/>
+      <c s="5" r="U44"/>
+      <c s="5" r="V44"/>
+      <c s="5" r="W44"/>
+      <c s="5" r="X44"/>
+      <c s="5" r="Y44"/>
     </row>
     <row r="45">
       <c s="3" r="A45"/>
-      <c s="31" r="B45"/>
-      <c s="5" r="C45"/>
+      <c s="30" r="B45"/>
+      <c s="4" r="C45"/>
       <c s="2" r="D45"/>
-      <c s="15" r="E45"/>
-      <c s="15" r="F45"/>
-      <c s="15" r="G45"/>
-      <c s="15" r="H45"/>
-      <c s="15" r="I45"/>
-      <c s="15" r="J45"/>
-      <c s="15" r="K45"/>
-      <c s="43" r="L45"/>
-      <c s="29" r="M45"/>
-      <c s="26" r="N45"/>
-      <c s="6" r="O45"/>
-      <c s="6" r="P45"/>
-      <c s="6" r="Q45"/>
-      <c s="6" r="R45"/>
-      <c s="6" r="S45"/>
-      <c s="6" r="T45"/>
-      <c s="6" r="U45"/>
-      <c s="6" r="V45"/>
-      <c s="6" r="W45"/>
-      <c s="6" r="X45"/>
-      <c s="6" r="Y45"/>
+      <c s="14" r="E45"/>
+      <c s="14" r="F45"/>
+      <c s="14" r="G45"/>
+      <c s="14" r="H45"/>
+      <c s="14" r="I45"/>
+      <c s="14" r="J45"/>
+      <c s="14" r="K45"/>
+      <c s="41" r="L45"/>
+      <c s="28" r="M45"/>
+      <c s="25" r="N45"/>
+      <c s="5" r="O45"/>
+      <c s="5" r="P45"/>
+      <c s="5" r="Q45"/>
+      <c s="5" r="R45"/>
+      <c s="5" r="S45"/>
+      <c s="5" r="T45"/>
+      <c s="5" r="U45"/>
+      <c s="5" r="V45"/>
+      <c s="5" r="W45"/>
+      <c s="5" r="X45"/>
+      <c s="5" r="Y45"/>
     </row>
     <row r="46">
       <c s="3" r="A46"/>
-      <c s="31" r="B46"/>
-      <c s="5" r="C46"/>
+      <c s="30" r="B46"/>
+      <c s="4" r="C46"/>
       <c s="2" r="D46"/>
-      <c s="15" r="E46"/>
-      <c s="15" r="F46"/>
-      <c s="15" r="G46"/>
-      <c s="15" r="H46"/>
-      <c s="15" r="I46"/>
-      <c s="15" r="J46"/>
-      <c s="15" r="K46"/>
-      <c s="43" r="L46"/>
-      <c s="29" r="M46"/>
-      <c s="26" r="N46"/>
-      <c s="6" r="O46"/>
-      <c s="6" r="P46"/>
-      <c s="6" r="Q46"/>
-      <c s="6" r="R46"/>
-      <c s="6" r="S46"/>
-      <c s="6" r="T46"/>
-      <c s="6" r="U46"/>
-      <c s="6" r="V46"/>
-      <c s="6" r="W46"/>
-      <c s="6" r="X46"/>
-      <c s="6" r="Y46"/>
+      <c s="14" r="E46"/>
+      <c s="14" r="F46"/>
+      <c s="14" r="G46"/>
+      <c s="14" r="H46"/>
+      <c s="14" r="I46"/>
+      <c s="14" r="J46"/>
+      <c s="14" r="K46"/>
+      <c s="41" r="L46"/>
+      <c s="28" r="M46"/>
+      <c s="25" r="N46"/>
+      <c s="5" r="O46"/>
+      <c s="5" r="P46"/>
+      <c s="5" r="Q46"/>
+      <c s="5" r="R46"/>
+      <c s="5" r="S46"/>
+      <c s="5" r="T46"/>
+      <c s="5" r="U46"/>
+      <c s="5" r="V46"/>
+      <c s="5" r="W46"/>
+      <c s="5" r="X46"/>
+      <c s="5" r="Y46"/>
     </row>
     <row r="47">
       <c s="3" r="A47"/>
-      <c s="31" r="B47"/>
-      <c s="5" r="C47"/>
+      <c s="30" r="B47"/>
+      <c s="4" r="C47"/>
       <c s="2" r="D47"/>
-      <c s="15" r="E47"/>
-      <c s="15" r="F47"/>
-      <c s="15" r="G47"/>
-      <c s="15" r="H47"/>
-      <c s="15" r="I47"/>
-      <c s="15" r="J47"/>
-      <c s="15" r="K47"/>
-      <c s="43" r="L47"/>
-      <c s="29" r="M47"/>
-      <c s="26" r="N47"/>
-      <c s="6" r="O47"/>
-      <c s="6" r="P47"/>
-      <c s="6" r="Q47"/>
-      <c s="6" r="R47"/>
-      <c s="6" r="S47"/>
-      <c s="6" r="T47"/>
-      <c s="6" r="U47"/>
-      <c s="6" r="V47"/>
-      <c s="6" r="W47"/>
-      <c s="6" r="X47"/>
-      <c s="6" r="Y47"/>
+      <c s="14" r="E47"/>
+      <c s="14" r="F47"/>
+      <c s="14" r="G47"/>
+      <c s="14" r="H47"/>
+      <c s="14" r="I47"/>
+      <c s="14" r="J47"/>
+      <c s="14" r="K47"/>
+      <c s="41" r="L47"/>
+      <c s="28" r="M47"/>
+      <c s="25" r="N47"/>
+      <c s="5" r="O47"/>
+      <c s="5" r="P47"/>
+      <c s="5" r="Q47"/>
+      <c s="5" r="R47"/>
+      <c s="5" r="S47"/>
+      <c s="5" r="T47"/>
+      <c s="5" r="U47"/>
+      <c s="5" r="V47"/>
+      <c s="5" r="W47"/>
+      <c s="5" r="X47"/>
+      <c s="5" r="Y47"/>
     </row>
     <row r="48">
       <c s="3" r="A48"/>
-      <c s="31" r="B48"/>
-      <c s="5" r="C48"/>
+      <c s="30" r="B48"/>
+      <c s="4" r="C48"/>
       <c s="2" r="D48"/>
-      <c s="15" r="E48"/>
-      <c s="15" r="F48"/>
-      <c s="15" r="G48"/>
-      <c s="15" r="H48"/>
-      <c s="15" r="I48"/>
-      <c s="15" r="J48"/>
-      <c s="15" r="K48"/>
-      <c s="43" r="L48"/>
-      <c s="29" r="M48"/>
-      <c s="26" r="N48"/>
-      <c s="6" r="O48"/>
-      <c s="6" r="P48"/>
-      <c s="6" r="Q48"/>
-      <c s="6" r="R48"/>
-      <c s="6" r="S48"/>
-      <c s="6" r="T48"/>
-      <c s="6" r="U48"/>
-      <c s="6" r="V48"/>
-      <c s="6" r="W48"/>
-      <c s="6" r="X48"/>
-      <c s="6" r="Y48"/>
+      <c s="14" r="E48"/>
+      <c s="14" r="F48"/>
+      <c s="14" r="G48"/>
+      <c s="14" r="H48"/>
+      <c s="14" r="I48"/>
+      <c s="14" r="J48"/>
+      <c s="14" r="K48"/>
+      <c s="41" r="L48"/>
+      <c s="28" r="M48"/>
+      <c s="25" r="N48"/>
+      <c s="5" r="O48"/>
+      <c s="5" r="P48"/>
+      <c s="5" r="Q48"/>
+      <c s="5" r="R48"/>
+      <c s="5" r="S48"/>
+      <c s="5" r="T48"/>
+      <c s="5" r="U48"/>
+      <c s="5" r="V48"/>
+      <c s="5" r="W48"/>
+      <c s="5" r="X48"/>
+      <c s="5" r="Y48"/>
     </row>
     <row r="49">
       <c s="3" r="A49"/>
-      <c s="31" r="B49"/>
-      <c s="5" r="C49"/>
+      <c s="30" r="B49"/>
+      <c s="4" r="C49"/>
       <c s="2" r="D49"/>
-      <c s="15" r="E49"/>
-      <c s="15" r="F49"/>
-      <c s="15" r="G49"/>
-      <c s="15" r="H49"/>
-      <c s="15" r="I49"/>
-      <c s="15" r="J49"/>
-      <c s="15" r="K49"/>
-      <c s="43" r="L49"/>
-      <c s="29" r="M49"/>
-      <c s="26" r="N49"/>
-      <c s="6" r="O49"/>
-      <c s="6" r="P49"/>
-      <c s="6" r="Q49"/>
-      <c s="6" r="R49"/>
-      <c s="6" r="S49"/>
-      <c s="6" r="T49"/>
-      <c s="6" r="U49"/>
-      <c s="6" r="V49"/>
-      <c s="6" r="W49"/>
-      <c s="6" r="X49"/>
-      <c s="6" r="Y49"/>
+      <c s="14" r="E49"/>
+      <c s="14" r="F49"/>
+      <c s="14" r="G49"/>
+      <c s="14" r="H49"/>
+      <c s="14" r="I49"/>
+      <c s="14" r="J49"/>
+      <c s="14" r="K49"/>
+      <c s="41" r="L49"/>
+      <c s="28" r="M49"/>
+      <c s="25" r="N49"/>
+      <c s="5" r="O49"/>
+      <c s="5" r="P49"/>
+      <c s="5" r="Q49"/>
+      <c s="5" r="R49"/>
+      <c s="5" r="S49"/>
+      <c s="5" r="T49"/>
+      <c s="5" r="U49"/>
+      <c s="5" r="V49"/>
+      <c s="5" r="W49"/>
+      <c s="5" r="X49"/>
+      <c s="5" r="Y49"/>
     </row>
     <row r="50">
       <c s="3" r="A50"/>
-      <c s="31" r="B50"/>
-      <c s="5" r="C50"/>
+      <c s="30" r="B50"/>
+      <c s="4" r="C50"/>
       <c s="2" r="D50"/>
-      <c s="15" r="E50"/>
-      <c s="15" r="F50"/>
-      <c s="15" r="G50"/>
-      <c s="15" r="H50"/>
-      <c s="15" r="I50"/>
-      <c s="15" r="J50"/>
-      <c s="15" r="K50"/>
-      <c s="43" r="L50"/>
-      <c s="29" r="M50"/>
-      <c s="26" r="N50"/>
-      <c s="6" r="O50"/>
-      <c s="6" r="P50"/>
-      <c s="6" r="Q50"/>
-      <c s="6" r="R50"/>
-      <c s="6" r="S50"/>
-      <c s="6" r="T50"/>
-      <c s="6" r="U50"/>
-      <c s="6" r="V50"/>
-      <c s="6" r="W50"/>
-      <c s="6" r="X50"/>
-      <c s="6" r="Y50"/>
+      <c s="14" r="E50"/>
+      <c s="14" r="F50"/>
+      <c s="14" r="G50"/>
+      <c s="14" r="H50"/>
+      <c s="14" r="I50"/>
+      <c s="14" r="J50"/>
+      <c s="14" r="K50"/>
+      <c s="41" r="L50"/>
+      <c s="28" r="M50"/>
+      <c s="25" r="N50"/>
+      <c s="5" r="O50"/>
+      <c s="5" r="P50"/>
+      <c s="5" r="Q50"/>
+      <c s="5" r="R50"/>
+      <c s="5" r="S50"/>
+      <c s="5" r="T50"/>
+      <c s="5" r="U50"/>
+      <c s="5" r="V50"/>
+      <c s="5" r="W50"/>
+      <c s="5" r="X50"/>
+      <c s="5" r="Y50"/>
     </row>
     <row r="51">
       <c s="3" r="A51"/>
-      <c s="31" r="B51"/>
-      <c s="5" r="C51"/>
+      <c s="30" r="B51"/>
+      <c s="4" r="C51"/>
       <c s="2" r="D51"/>
-      <c s="15" r="E51"/>
-      <c s="15" r="F51"/>
-      <c s="15" r="G51"/>
-      <c s="15" r="H51"/>
-      <c s="15" r="I51"/>
-      <c s="15" r="J51"/>
-      <c s="15" r="K51"/>
-      <c s="43" r="L51"/>
-      <c s="29" r="M51"/>
-      <c s="26" r="N51"/>
-      <c s="6" r="O51"/>
-      <c s="6" r="P51"/>
-      <c s="6" r="Q51"/>
-      <c s="6" r="R51"/>
-      <c s="6" r="S51"/>
-      <c s="6" r="T51"/>
-      <c s="6" r="U51"/>
-      <c s="6" r="V51"/>
-      <c s="6" r="W51"/>
-      <c s="6" r="X51"/>
-      <c s="6" r="Y51"/>
+      <c s="14" r="E51"/>
+      <c s="14" r="F51"/>
+      <c s="14" r="G51"/>
+      <c s="14" r="H51"/>
+      <c s="14" r="I51"/>
+      <c s="14" r="J51"/>
+      <c s="14" r="K51"/>
+      <c s="41" r="L51"/>
+      <c s="28" r="M51"/>
+      <c s="25" r="N51"/>
+      <c s="5" r="O51"/>
+      <c s="5" r="P51"/>
+      <c s="5" r="Q51"/>
+      <c s="5" r="R51"/>
+      <c s="5" r="S51"/>
+      <c s="5" r="T51"/>
+      <c s="5" r="U51"/>
+      <c s="5" r="V51"/>
+      <c s="5" r="W51"/>
+      <c s="5" r="X51"/>
+      <c s="5" r="Y51"/>
     </row>
     <row r="52">
       <c s="3" r="A52"/>
-      <c s="31" r="B52"/>
-      <c s="5" r="C52"/>
+      <c s="30" r="B52"/>
+      <c s="4" r="C52"/>
       <c s="2" r="D52"/>
-      <c s="15" r="E52"/>
-      <c s="15" r="F52"/>
-      <c s="15" r="G52"/>
-      <c s="15" r="H52"/>
-      <c s="15" r="I52"/>
-      <c s="15" r="J52"/>
-      <c s="15" r="K52"/>
-      <c s="43" r="L52"/>
-      <c s="29" r="M52"/>
-      <c s="26" r="N52"/>
-      <c s="6" r="O52"/>
-      <c s="6" r="P52"/>
-      <c s="6" r="Q52"/>
-      <c s="6" r="R52"/>
-      <c s="6" r="S52"/>
-      <c s="6" r="T52"/>
-      <c s="6" r="U52"/>
-      <c s="6" r="V52"/>
-      <c s="6" r="W52"/>
-      <c s="6" r="X52"/>
-      <c s="6" r="Y52"/>
+      <c s="14" r="E52"/>
+      <c s="14" r="F52"/>
+      <c s="14" r="G52"/>
+      <c s="14" r="H52"/>
+      <c s="14" r="I52"/>
+      <c s="14" r="J52"/>
+      <c s="14" r="K52"/>
+      <c s="41" r="L52"/>
+      <c s="28" r="M52"/>
+      <c s="25" r="N52"/>
+      <c s="5" r="O52"/>
+      <c s="5" r="P52"/>
+      <c s="5" r="Q52"/>
+      <c s="5" r="R52"/>
+      <c s="5" r="S52"/>
+      <c s="5" r="T52"/>
+      <c s="5" r="U52"/>
+      <c s="5" r="V52"/>
+      <c s="5" r="W52"/>
+      <c s="5" r="X52"/>
+      <c s="5" r="Y52"/>
     </row>
     <row r="53">
       <c s="3" r="A53"/>
-      <c s="31" r="B53"/>
-      <c s="5" r="C53"/>
+      <c s="30" r="B53"/>
+      <c s="4" r="C53"/>
       <c s="2" r="D53"/>
-      <c s="15" r="E53"/>
-      <c s="15" r="F53"/>
-      <c s="15" r="G53"/>
-      <c s="15" r="H53"/>
-      <c s="15" r="I53"/>
-      <c s="15" r="J53"/>
-      <c s="15" r="K53"/>
-      <c s="43" r="L53"/>
-      <c s="29" r="M53"/>
-      <c s="26" r="N53"/>
-      <c s="6" r="O53"/>
-      <c s="6" r="P53"/>
-      <c s="6" r="Q53"/>
-      <c s="6" r="R53"/>
-      <c s="6" r="S53"/>
-      <c s="6" r="T53"/>
-      <c s="6" r="U53"/>
-      <c s="6" r="V53"/>
-      <c s="6" r="W53"/>
-      <c s="6" r="X53"/>
-      <c s="6" r="Y53"/>
+      <c s="14" r="E53"/>
+      <c s="14" r="F53"/>
+      <c s="14" r="G53"/>
+      <c s="14" r="H53"/>
+      <c s="14" r="I53"/>
+      <c s="14" r="J53"/>
+      <c s="14" r="K53"/>
+      <c s="41" r="L53"/>
+      <c s="28" r="M53"/>
+      <c s="25" r="N53"/>
+      <c s="5" r="O53"/>
+      <c s="5" r="P53"/>
+      <c s="5" r="Q53"/>
+      <c s="5" r="R53"/>
+      <c s="5" r="S53"/>
+      <c s="5" r="T53"/>
+      <c s="5" r="U53"/>
+      <c s="5" r="V53"/>
+      <c s="5" r="W53"/>
+      <c s="5" r="X53"/>
+      <c s="5" r="Y53"/>
     </row>
     <row r="54">
       <c s="3" r="A54"/>
-      <c s="31" r="B54"/>
-      <c s="5" r="C54"/>
+      <c s="30" r="B54"/>
+      <c s="4" r="C54"/>
       <c s="2" r="D54"/>
-      <c s="15" r="E54"/>
-      <c s="15" r="F54"/>
-      <c s="15" r="G54"/>
-      <c s="15" r="H54"/>
-      <c s="15" r="I54"/>
-      <c s="15" r="J54"/>
-      <c s="15" r="K54"/>
-      <c s="43" r="L54"/>
-      <c s="29" r="M54"/>
-      <c s="26" r="N54"/>
-      <c s="6" r="O54"/>
-      <c s="6" r="P54"/>
-      <c s="6" r="Q54"/>
-      <c s="6" r="R54"/>
-      <c s="6" r="S54"/>
-      <c s="6" r="T54"/>
-      <c s="6" r="U54"/>
-      <c s="6" r="V54"/>
-      <c s="6" r="W54"/>
-      <c s="6" r="X54"/>
-      <c s="6" r="Y54"/>
+      <c s="14" r="E54"/>
+      <c s="14" r="F54"/>
+      <c s="14" r="G54"/>
+      <c s="14" r="H54"/>
+      <c s="14" r="I54"/>
+      <c s="14" r="J54"/>
+      <c s="14" r="K54"/>
+      <c s="41" r="L54"/>
+      <c s="28" r="M54"/>
+      <c s="25" r="N54"/>
+      <c s="5" r="O54"/>
+      <c s="5" r="P54"/>
+      <c s="5" r="Q54"/>
+      <c s="5" r="R54"/>
+      <c s="5" r="S54"/>
+      <c s="5" r="T54"/>
+      <c s="5" r="U54"/>
+      <c s="5" r="V54"/>
+      <c s="5" r="W54"/>
+      <c s="5" r="X54"/>
+      <c s="5" r="Y54"/>
     </row>
     <row r="55">
       <c s="3" r="A55"/>
-      <c s="31" r="B55"/>
-      <c s="5" r="C55"/>
+      <c s="30" r="B55"/>
+      <c s="4" r="C55"/>
       <c s="2" r="D55"/>
-      <c s="15" r="E55"/>
-      <c s="15" r="F55"/>
-      <c s="15" r="G55"/>
-      <c s="15" r="H55"/>
-      <c s="15" r="I55"/>
-      <c s="15" r="J55"/>
-      <c s="15" r="K55"/>
-      <c s="43" r="L55"/>
-      <c s="29" r="M55"/>
-      <c s="26" r="N55"/>
-      <c s="6" r="O55"/>
-      <c s="6" r="P55"/>
-      <c s="6" r="Q55"/>
-      <c s="6" r="R55"/>
-      <c s="6" r="S55"/>
-      <c s="6" r="T55"/>
-      <c s="6" r="U55"/>
-      <c s="6" r="V55"/>
-      <c s="6" r="W55"/>
-      <c s="6" r="X55"/>
-      <c s="6" r="Y55"/>
+      <c s="14" r="E55"/>
+      <c s="14" r="F55"/>
+      <c s="14" r="G55"/>
+      <c s="14" r="H55"/>
+      <c s="14" r="I55"/>
+      <c s="14" r="J55"/>
+      <c s="14" r="K55"/>
+      <c s="41" r="L55"/>
+      <c s="28" r="M55"/>
+      <c s="25" r="N55"/>
+      <c s="5" r="O55"/>
+      <c s="5" r="P55"/>
+      <c s="5" r="Q55"/>
+      <c s="5" r="R55"/>
+      <c s="5" r="S55"/>
+      <c s="5" r="T55"/>
+      <c s="5" r="U55"/>
+      <c s="5" r="V55"/>
+      <c s="5" r="W55"/>
+      <c s="5" r="X55"/>
+      <c s="5" r="Y55"/>
     </row>
     <row r="56">
       <c s="3" r="A56"/>
-      <c s="31" r="B56"/>
-      <c s="5" r="C56"/>
+      <c s="30" r="B56"/>
+      <c s="4" r="C56"/>
       <c s="2" r="D56"/>
-      <c s="15" r="E56"/>
-      <c s="15" r="F56"/>
-      <c s="15" r="G56"/>
-      <c s="15" r="H56"/>
-      <c s="15" r="I56"/>
-      <c s="15" r="J56"/>
-      <c s="15" r="K56"/>
-      <c s="43" r="L56"/>
-      <c s="29" r="M56"/>
-      <c s="26" r="N56"/>
-      <c s="6" r="O56"/>
-      <c s="6" r="P56"/>
-      <c s="6" r="Q56"/>
-      <c s="6" r="R56"/>
-      <c s="6" r="S56"/>
-      <c s="6" r="T56"/>
-      <c s="6" r="U56"/>
-      <c s="6" r="V56"/>
-      <c s="6" r="W56"/>
-      <c s="6" r="X56"/>
-      <c s="6" r="Y56"/>
+      <c s="14" r="E56"/>
+      <c s="14" r="F56"/>
+      <c s="14" r="G56"/>
+      <c s="14" r="H56"/>
+      <c s="14" r="I56"/>
+      <c s="14" r="J56"/>
+      <c s="14" r="K56"/>
+      <c s="41" r="L56"/>
+      <c s="28" r="M56"/>
+      <c s="25" r="N56"/>
+      <c s="5" r="O56"/>
+      <c s="5" r="P56"/>
+      <c s="5" r="Q56"/>
+      <c s="5" r="R56"/>
+      <c s="5" r="S56"/>
+      <c s="5" r="T56"/>
+      <c s="5" r="U56"/>
+      <c s="5" r="V56"/>
+      <c s="5" r="W56"/>
+      <c s="5" r="X56"/>
+      <c s="5" r="Y56"/>
     </row>
     <row r="57">
       <c s="3" r="A57"/>
-      <c s="31" r="B57"/>
-      <c s="5" r="C57"/>
+      <c s="30" r="B57"/>
+      <c s="4" r="C57"/>
       <c s="2" r="D57"/>
-      <c s="15" r="E57"/>
-      <c s="15" r="F57"/>
-      <c s="15" r="G57"/>
-      <c s="15" r="H57"/>
-      <c s="15" r="I57"/>
-      <c s="15" r="J57"/>
-      <c s="15" r="K57"/>
-      <c s="43" r="L57"/>
-      <c s="29" r="M57"/>
-      <c s="26" r="N57"/>
-      <c s="6" r="O57"/>
-      <c s="6" r="P57"/>
-      <c s="6" r="Q57"/>
-      <c s="6" r="R57"/>
-      <c s="6" r="S57"/>
-      <c s="6" r="T57"/>
-      <c s="6" r="U57"/>
-      <c s="6" r="V57"/>
-      <c s="6" r="W57"/>
-      <c s="6" r="X57"/>
-      <c s="6" r="Y57"/>
+      <c s="14" r="E57"/>
+      <c s="14" r="F57"/>
+      <c s="14" r="G57"/>
+      <c s="14" r="H57"/>
+      <c s="14" r="I57"/>
+      <c s="14" r="J57"/>
+      <c s="14" r="K57"/>
+      <c s="41" r="L57"/>
+      <c s="28" r="M57"/>
+      <c s="25" r="N57"/>
+      <c s="5" r="O57"/>
+      <c s="5" r="P57"/>
+      <c s="5" r="Q57"/>
+      <c s="5" r="R57"/>
+      <c s="5" r="S57"/>
+      <c s="5" r="T57"/>
+      <c s="5" r="U57"/>
+      <c s="5" r="V57"/>
+      <c s="5" r="W57"/>
+      <c s="5" r="X57"/>
+      <c s="5" r="Y57"/>
     </row>
     <row r="58">
       <c s="3" r="A58"/>
-      <c s="31" r="B58"/>
-      <c s="5" r="C58"/>
+      <c s="30" r="B58"/>
+      <c s="4" r="C58"/>
       <c s="2" r="D58"/>
-      <c s="15" r="E58"/>
-      <c s="15" r="F58"/>
-      <c s="15" r="G58"/>
-      <c s="15" r="H58"/>
-      <c s="15" r="I58"/>
-      <c s="15" r="J58"/>
-      <c s="15" r="K58"/>
-      <c s="43" r="L58"/>
-      <c s="29" r="M58"/>
-      <c s="26" r="N58"/>
-      <c s="6" r="O58"/>
-      <c s="6" r="P58"/>
-      <c s="6" r="Q58"/>
-      <c s="6" r="R58"/>
-      <c s="6" r="S58"/>
-      <c s="6" r="T58"/>
-      <c s="6" r="U58"/>
-      <c s="6" r="V58"/>
-      <c s="6" r="W58"/>
-      <c s="6" r="X58"/>
-      <c s="6" r="Y58"/>
+      <c s="14" r="E58"/>
+      <c s="14" r="F58"/>
+      <c s="14" r="G58"/>
+      <c s="14" r="H58"/>
+      <c s="14" r="I58"/>
+      <c s="14" r="J58"/>
+      <c s="14" r="K58"/>
+      <c s="41" r="L58"/>
+      <c s="28" r="M58"/>
+      <c s="25" r="N58"/>
+      <c s="5" r="O58"/>
+      <c s="5" r="P58"/>
+      <c s="5" r="Q58"/>
+      <c s="5" r="R58"/>
+      <c s="5" r="S58"/>
+      <c s="5" r="T58"/>
+      <c s="5" r="U58"/>
+      <c s="5" r="V58"/>
+      <c s="5" r="W58"/>
+      <c s="5" r="X58"/>
+      <c s="5" r="Y58"/>
     </row>
     <row r="59">
       <c s="3" r="A59"/>
-      <c s="31" r="B59"/>
-      <c s="5" r="C59"/>
+      <c s="30" r="B59"/>
+      <c s="4" r="C59"/>
       <c s="2" r="D59"/>
-      <c s="15" r="E59"/>
-      <c s="15" r="F59"/>
-      <c s="15" r="G59"/>
-      <c s="15" r="H59"/>
-      <c s="15" r="I59"/>
-      <c s="15" r="J59"/>
-      <c s="15" r="K59"/>
-      <c s="43" r="L59"/>
-      <c s="29" r="M59"/>
-      <c s="26" r="N59"/>
-      <c s="6" r="O59"/>
-      <c s="6" r="P59"/>
-      <c s="6" r="Q59"/>
-      <c s="6" r="R59"/>
-      <c s="6" r="S59"/>
-      <c s="6" r="T59"/>
-      <c s="6" r="U59"/>
-      <c s="6" r="V59"/>
-      <c s="6" r="W59"/>
-      <c s="6" r="X59"/>
-      <c s="6" r="Y59"/>
+      <c s="14" r="E59"/>
+      <c s="14" r="F59"/>
+      <c s="14" r="G59"/>
+      <c s="14" r="H59"/>
+      <c s="14" r="I59"/>
+      <c s="14" r="J59"/>
+      <c s="14" r="K59"/>
+      <c s="41" r="L59"/>
+      <c s="28" r="M59"/>
+      <c s="25" r="N59"/>
+      <c s="5" r="O59"/>
+      <c s="5" r="P59"/>
+      <c s="5" r="Q59"/>
+      <c s="5" r="R59"/>
+      <c s="5" r="S59"/>
+      <c s="5" r="T59"/>
+      <c s="5" r="U59"/>
+      <c s="5" r="V59"/>
+      <c s="5" r="W59"/>
+      <c s="5" r="X59"/>
+      <c s="5" r="Y59"/>
     </row>
     <row r="60">
       <c s="3" r="A60"/>
-      <c s="31" r="B60"/>
-      <c s="5" r="C60"/>
+      <c s="30" r="B60"/>
+      <c s="4" r="C60"/>
       <c s="2" r="D60"/>
-      <c s="15" r="E60"/>
-      <c s="15" r="F60"/>
-      <c s="15" r="G60"/>
-      <c s="15" r="H60"/>
-      <c s="15" r="I60"/>
-      <c s="15" r="J60"/>
-      <c s="15" r="K60"/>
-      <c s="43" r="L60"/>
-      <c s="29" r="M60"/>
-      <c s="26" r="N60"/>
-      <c s="6" r="O60"/>
-      <c s="6" r="P60"/>
-      <c s="6" r="Q60"/>
-      <c s="6" r="R60"/>
-      <c s="6" r="S60"/>
-      <c s="6" r="T60"/>
-      <c s="6" r="U60"/>
-      <c s="6" r="V60"/>
-      <c s="6" r="W60"/>
-      <c s="6" r="X60"/>
-      <c s="6" r="Y60"/>
+      <c s="14" r="E60"/>
+      <c s="14" r="F60"/>
+      <c s="14" r="G60"/>
+      <c s="14" r="H60"/>
+      <c s="14" r="I60"/>
+      <c s="14" r="J60"/>
+      <c s="14" r="K60"/>
+      <c s="41" r="L60"/>
+      <c s="28" r="M60"/>
+      <c s="25" r="N60"/>
+      <c s="5" r="O60"/>
+      <c s="5" r="P60"/>
+      <c s="5" r="Q60"/>
+      <c s="5" r="R60"/>
+      <c s="5" r="S60"/>
+      <c s="5" r="T60"/>
+      <c s="5" r="U60"/>
+      <c s="5" r="V60"/>
+      <c s="5" r="W60"/>
+      <c s="5" r="X60"/>
+      <c s="5" r="Y60"/>
     </row>
     <row r="61">
       <c s="3" r="A61"/>
-      <c s="31" r="B61"/>
-      <c s="5" r="C61"/>
+      <c s="30" r="B61"/>
+      <c s="4" r="C61"/>
       <c s="2" r="D61"/>
-      <c s="15" r="E61"/>
-      <c s="15" r="F61"/>
-      <c s="15" r="G61"/>
-      <c s="15" r="H61"/>
-      <c s="15" r="I61"/>
-      <c s="15" r="J61"/>
-      <c s="15" r="K61"/>
-      <c s="43" r="L61"/>
-      <c s="29" r="M61"/>
-      <c s="26" r="N61"/>
-      <c s="6" r="O61"/>
-      <c s="6" r="P61"/>
-      <c s="6" r="Q61"/>
-      <c s="6" r="R61"/>
-      <c s="6" r="S61"/>
-      <c s="6" r="T61"/>
-      <c s="6" r="U61"/>
-      <c s="6" r="V61"/>
-      <c s="6" r="W61"/>
-      <c s="6" r="X61"/>
-      <c s="6" r="Y61"/>
+      <c s="14" r="E61"/>
+      <c s="14" r="F61"/>
+      <c s="14" r="G61"/>
+      <c s="14" r="H61"/>
+      <c s="14" r="I61"/>
+      <c s="14" r="J61"/>
+      <c s="14" r="K61"/>
+      <c s="41" r="L61"/>
+      <c s="28" r="M61"/>
+      <c s="25" r="N61"/>
+      <c s="5" r="O61"/>
+      <c s="5" r="P61"/>
+      <c s="5" r="Q61"/>
+      <c s="5" r="R61"/>
+      <c s="5" r="S61"/>
+      <c s="5" r="T61"/>
+      <c s="5" r="U61"/>
+      <c s="5" r="V61"/>
+      <c s="5" r="W61"/>
+      <c s="5" r="X61"/>
+      <c s="5" r="Y61"/>
     </row>
     <row r="62">
       <c s="3" r="A62"/>
-      <c s="31" r="B62"/>
-      <c s="5" r="C62"/>
+      <c s="30" r="B62"/>
+      <c s="4" r="C62"/>
       <c s="2" r="D62"/>
-      <c s="15" r="E62"/>
-      <c s="15" r="F62"/>
-      <c s="15" r="G62"/>
-      <c s="15" r="H62"/>
-      <c s="15" r="I62"/>
-      <c s="15" r="J62"/>
-      <c s="15" r="K62"/>
-      <c s="43" r="L62"/>
-      <c s="29" r="M62"/>
-      <c s="26" r="N62"/>
-      <c s="6" r="O62"/>
-      <c s="6" r="P62"/>
-      <c s="6" r="Q62"/>
-      <c s="6" r="R62"/>
-      <c s="6" r="S62"/>
-      <c s="6" r="T62"/>
-      <c s="6" r="U62"/>
-      <c s="6" r="V62"/>
-      <c s="6" r="W62"/>
-      <c s="6" r="X62"/>
-      <c s="6" r="Y62"/>
+      <c s="14" r="E62"/>
+      <c s="14" r="F62"/>
+      <c s="14" r="G62"/>
+      <c s="14" r="H62"/>
+      <c s="14" r="I62"/>
+      <c s="14" r="J62"/>
+      <c s="14" r="K62"/>
+      <c s="41" r="L62"/>
+      <c s="28" r="M62"/>
+      <c s="25" r="N62"/>
+      <c s="5" r="O62"/>
+      <c s="5" r="P62"/>
+      <c s="5" r="Q62"/>
+      <c s="5" r="R62"/>
+      <c s="5" r="S62"/>
+      <c s="5" r="T62"/>
+      <c s="5" r="U62"/>
+      <c s="5" r="V62"/>
+      <c s="5" r="W62"/>
+      <c s="5" r="X62"/>
+      <c s="5" r="Y62"/>
     </row>
     <row r="63">
       <c s="3" r="A63"/>
-      <c s="31" r="B63"/>
-      <c s="5" r="C63"/>
+      <c s="30" r="B63"/>
+      <c s="4" r="C63"/>
       <c s="2" r="D63"/>
-      <c s="15" r="E63"/>
-      <c s="15" r="F63"/>
-      <c s="15" r="G63"/>
-      <c s="15" r="H63"/>
-      <c s="15" r="I63"/>
-      <c s="15" r="J63"/>
-      <c s="15" r="K63"/>
-      <c s="43" r="L63"/>
-      <c s="29" r="M63"/>
-      <c s="26" r="N63"/>
-      <c s="6" r="O63"/>
-      <c s="6" r="P63"/>
-      <c s="6" r="Q63"/>
-      <c s="6" r="R63"/>
-      <c s="6" r="S63"/>
-      <c s="6" r="T63"/>
-      <c s="6" r="U63"/>
-      <c s="6" r="V63"/>
-      <c s="6" r="W63"/>
-      <c s="6" r="X63"/>
-      <c s="6" r="Y63"/>
+      <c s="14" r="E63"/>
+      <c s="14" r="F63"/>
+      <c s="14" r="G63"/>
+      <c s="14" r="H63"/>
+      <c s="14" r="I63"/>
+      <c s="14" r="J63"/>
+      <c s="14" r="K63"/>
+      <c s="41" r="L63"/>
+      <c s="28" r="M63"/>
+      <c s="25" r="N63"/>
+      <c s="5" r="O63"/>
+      <c s="5" r="P63"/>
+      <c s="5" r="Q63"/>
+      <c s="5" r="R63"/>
+      <c s="5" r="S63"/>
+      <c s="5" r="T63"/>
+      <c s="5" r="U63"/>
+      <c s="5" r="V63"/>
+      <c s="5" r="W63"/>
+      <c s="5" r="X63"/>
+      <c s="5" r="Y63"/>
     </row>
     <row r="64">
       <c s="3" r="A64"/>
-      <c s="31" r="B64"/>
-      <c s="5" r="C64"/>
+      <c s="30" r="B64"/>
+      <c s="4" r="C64"/>
       <c s="2" r="D64"/>
-      <c s="15" r="E64"/>
-      <c s="15" r="F64"/>
-      <c s="15" r="G64"/>
-      <c s="15" r="H64"/>
-      <c s="15" r="I64"/>
-      <c s="15" r="J64"/>
-      <c s="15" r="K64"/>
-      <c s="43" r="L64"/>
-      <c s="29" r="M64"/>
-      <c s="26" r="N64"/>
-      <c s="6" r="O64"/>
-      <c s="6" r="P64"/>
-      <c s="6" r="Q64"/>
-      <c s="6" r="R64"/>
-      <c s="6" r="S64"/>
-      <c s="6" r="T64"/>
-      <c s="6" r="U64"/>
-      <c s="6" r="V64"/>
-      <c s="6" r="W64"/>
-      <c s="6" r="X64"/>
-      <c s="6" r="Y64"/>
+      <c s="14" r="E64"/>
+      <c s="14" r="F64"/>
+      <c s="14" r="G64"/>
+      <c s="14" r="H64"/>
+      <c s="14" r="I64"/>
+      <c s="14" r="J64"/>
+      <c s="14" r="K64"/>
+      <c s="41" r="L64"/>
+      <c s="28" r="M64"/>
+      <c s="25" r="N64"/>
+      <c s="5" r="O64"/>
+      <c s="5" r="P64"/>
+      <c s="5" r="Q64"/>
+      <c s="5" r="R64"/>
+      <c s="5" r="S64"/>
+      <c s="5" r="T64"/>
+      <c s="5" r="U64"/>
+      <c s="5" r="V64"/>
+      <c s="5" r="W64"/>
+      <c s="5" r="X64"/>
+      <c s="5" r="Y64"/>
     </row>
     <row r="65">
       <c s="3" r="A65"/>
-      <c s="31" r="B65"/>
-      <c s="5" r="C65"/>
+      <c s="30" r="B65"/>
+      <c s="4" r="C65"/>
       <c s="2" r="D65"/>
-      <c s="15" r="E65"/>
-      <c s="15" r="F65"/>
-      <c s="15" r="G65"/>
-      <c s="15" r="H65"/>
-      <c s="15" r="I65"/>
-      <c s="15" r="J65"/>
-      <c s="15" r="K65"/>
-      <c s="43" r="L65"/>
-      <c s="29" r="M65"/>
-      <c s="26" r="N65"/>
-      <c s="6" r="O65"/>
-      <c s="6" r="P65"/>
-      <c s="6" r="Q65"/>
-      <c s="6" r="R65"/>
-      <c s="6" r="S65"/>
-      <c s="6" r="T65"/>
-      <c s="6" r="U65"/>
-      <c s="6" r="V65"/>
-      <c s="6" r="W65"/>
-      <c s="6" r="X65"/>
-      <c s="6" r="Y65"/>
+      <c s="14" r="E65"/>
+      <c s="14" r="F65"/>
+      <c s="14" r="G65"/>
+      <c s="14" r="H65"/>
+      <c s="14" r="I65"/>
+      <c s="14" r="J65"/>
+      <c s="14" r="K65"/>
+      <c s="41" r="L65"/>
+      <c s="28" r="M65"/>
+      <c s="25" r="N65"/>
+      <c s="5" r="O65"/>
+      <c s="5" r="P65"/>
+      <c s="5" r="Q65"/>
+      <c s="5" r="R65"/>
+      <c s="5" r="S65"/>
+      <c s="5" r="T65"/>
+      <c s="5" r="U65"/>
+      <c s="5" r="V65"/>
+      <c s="5" r="W65"/>
+      <c s="5" r="X65"/>
+      <c s="5" r="Y65"/>
     </row>
     <row r="66">
       <c s="3" r="A66"/>
-      <c s="31" r="B66"/>
-      <c s="5" r="C66"/>
+      <c s="30" r="B66"/>
+      <c s="4" r="C66"/>
       <c s="2" r="D66"/>
-      <c s="15" r="E66"/>
-      <c s="15" r="F66"/>
-      <c s="15" r="G66"/>
-      <c s="15" r="H66"/>
-      <c s="15" r="I66"/>
-      <c s="15" r="J66"/>
-      <c s="15" r="K66"/>
-      <c s="43" r="L66"/>
-      <c s="29" r="M66"/>
-      <c s="26" r="N66"/>
-      <c s="6" r="O66"/>
-      <c s="6" r="P66"/>
-      <c s="6" r="Q66"/>
-      <c s="6" r="R66"/>
-      <c s="6" r="S66"/>
-      <c s="6" r="T66"/>
-      <c s="6" r="U66"/>
-      <c s="6" r="V66"/>
-      <c s="6" r="W66"/>
-      <c s="6" r="X66"/>
-      <c s="6" r="Y66"/>
+      <c s="14" r="E66"/>
+      <c s="14" r="F66"/>
+      <c s="14" r="G66"/>
+      <c s="14" r="H66"/>
+      <c s="14" r="I66"/>
+      <c s="14" r="J66"/>
+      <c s="14" r="K66"/>
+      <c s="41" r="L66"/>
+      <c s="28" r="M66"/>
+      <c s="25" r="N66"/>
+      <c s="5" r="O66"/>
+      <c s="5" r="P66"/>
+      <c s="5" r="Q66"/>
+      <c s="5" r="R66"/>
+      <c s="5" r="S66"/>
+      <c s="5" r="T66"/>
+      <c s="5" r="U66"/>
+      <c s="5" r="V66"/>
+      <c s="5" r="W66"/>
+      <c s="5" r="X66"/>
+      <c s="5" r="Y66"/>
     </row>
     <row r="67">
       <c s="3" r="A67"/>
-      <c s="31" r="B67"/>
-      <c s="5" r="C67"/>
+      <c s="30" r="B67"/>
+      <c s="4" r="C67"/>
       <c s="2" r="D67"/>
-      <c s="15" r="E67"/>
-      <c s="15" r="F67"/>
-      <c s="15" r="G67"/>
-      <c s="15" r="H67"/>
-      <c s="15" r="I67"/>
-      <c s="15" r="J67"/>
-      <c s="15" r="K67"/>
-      <c s="43" r="L67"/>
-      <c s="29" r="M67"/>
-      <c s="26" r="N67"/>
-      <c s="6" r="O67"/>
-      <c s="6" r="P67"/>
-      <c s="6" r="Q67"/>
-      <c s="6" r="R67"/>
-      <c s="6" r="S67"/>
-      <c s="6" r="T67"/>
-      <c s="6" r="U67"/>
-      <c s="6" r="V67"/>
-      <c s="6" r="W67"/>
-      <c s="6" r="X67"/>
-      <c s="6" r="Y67"/>
+      <c s="14" r="E67"/>
+      <c s="14" r="F67"/>
+      <c s="14" r="G67"/>
+      <c s="14" r="H67"/>
+      <c s="14" r="I67"/>
+      <c s="14" r="J67"/>
+      <c s="14" r="K67"/>
+      <c s="41" r="L67"/>
+      <c s="28" r="M67"/>
+      <c s="25" r="N67"/>
+      <c s="5" r="O67"/>
+      <c s="5" r="P67"/>
+      <c s="5" r="Q67"/>
+      <c s="5" r="R67"/>
+      <c s="5" r="S67"/>
+      <c s="5" r="T67"/>
+      <c s="5" r="U67"/>
+      <c s="5" r="V67"/>
+      <c s="5" r="W67"/>
+      <c s="5" r="X67"/>
+      <c s="5" r="Y67"/>
     </row>
     <row r="68">
       <c s="3" r="A68"/>
-      <c s="31" r="B68"/>
-      <c s="5" r="C68"/>
+      <c s="30" r="B68"/>
+      <c s="4" r="C68"/>
       <c s="2" r="D68"/>
-      <c s="15" r="E68"/>
-      <c s="15" r="F68"/>
-      <c s="15" r="G68"/>
-      <c s="15" r="H68"/>
-      <c s="15" r="I68"/>
-      <c s="15" r="J68"/>
-      <c s="15" r="K68"/>
-      <c s="43" r="L68"/>
-      <c s="29" r="M68"/>
-      <c s="26" r="N68"/>
-      <c s="6" r="O68"/>
-      <c s="6" r="P68"/>
-      <c s="6" r="Q68"/>
-      <c s="6" r="R68"/>
-      <c s="6" r="S68"/>
-      <c s="6" r="T68"/>
-      <c s="6" r="U68"/>
-      <c s="6" r="V68"/>
-      <c s="6" r="W68"/>
-      <c s="6" r="X68"/>
-      <c s="6" r="Y68"/>
+      <c s="14" r="E68"/>
+      <c s="14" r="F68"/>
+      <c s="14" r="G68"/>
+      <c s="14" r="H68"/>
+      <c s="14" r="I68"/>
+      <c s="14" r="J68"/>
+      <c s="14" r="K68"/>
+      <c s="41" r="L68"/>
+      <c s="28" r="M68"/>
+      <c s="25" r="N68"/>
+      <c s="5" r="O68"/>
+      <c s="5" r="P68"/>
+      <c s="5" r="Q68"/>
+      <c s="5" r="R68"/>
+      <c s="5" r="S68"/>
+      <c s="5" r="T68"/>
+      <c s="5" r="U68"/>
+      <c s="5" r="V68"/>
+      <c s="5" r="W68"/>
+      <c s="5" r="X68"/>
+      <c s="5" r="Y68"/>
     </row>
     <row r="69">
       <c s="3" r="A69"/>
-      <c s="31" r="B69"/>
-      <c s="5" r="C69"/>
+      <c s="30" r="B69"/>
+      <c s="4" r="C69"/>
       <c s="2" r="D69"/>
-      <c s="15" r="E69"/>
-      <c s="15" r="F69"/>
-      <c s="15" r="G69"/>
-      <c s="15" r="H69"/>
-      <c s="15" r="I69"/>
-      <c s="15" r="J69"/>
-      <c s="15" r="K69"/>
-      <c s="43" r="L69"/>
-      <c s="29" r="M69"/>
-      <c s="26" r="N69"/>
-      <c s="6" r="O69"/>
-      <c s="6" r="P69"/>
-      <c s="6" r="Q69"/>
-      <c s="6" r="R69"/>
-      <c s="6" r="S69"/>
-      <c s="6" r="T69"/>
-      <c s="6" r="U69"/>
-      <c s="6" r="V69"/>
-      <c s="6" r="W69"/>
-      <c s="6" r="X69"/>
-      <c s="6" r="Y69"/>
+      <c s="14" r="E69"/>
+      <c s="14" r="F69"/>
+      <c s="14" r="G69"/>
+      <c s="14" r="H69"/>
+      <c s="14" r="I69"/>
+      <c s="14" r="J69"/>
+      <c s="14" r="K69"/>
+      <c s="41" r="L69"/>
+      <c s="28" r="M69"/>
+      <c s="25" r="N69"/>
+      <c s="5" r="O69"/>
+      <c s="5" r="P69"/>
+      <c s="5" r="Q69"/>
+      <c s="5" r="R69"/>
+      <c s="5" r="S69"/>
+      <c s="5" r="T69"/>
+      <c s="5" r="U69"/>
+      <c s="5" r="V69"/>
+      <c s="5" r="W69"/>
+      <c s="5" r="X69"/>
+      <c s="5" r="Y69"/>
     </row>
     <row r="70">
       <c s="3" r="A70"/>
-      <c s="31" r="B70"/>
-      <c s="5" r="C70"/>
+      <c s="30" r="B70"/>
+      <c s="4" r="C70"/>
       <c s="2" r="D70"/>
-      <c s="15" r="E70"/>
-      <c s="15" r="F70"/>
-      <c s="15" r="G70"/>
-      <c s="15" r="H70"/>
-      <c s="15" r="I70"/>
-      <c s="15" r="J70"/>
-      <c s="15" r="K70"/>
-      <c s="43" r="L70"/>
-      <c s="29" r="M70"/>
-      <c s="26" r="N70"/>
-      <c s="6" r="O70"/>
-      <c s="6" r="P70"/>
-      <c s="6" r="Q70"/>
-      <c s="6" r="R70"/>
-      <c s="6" r="S70"/>
-      <c s="6" r="T70"/>
-      <c s="6" r="U70"/>
-      <c s="6" r="V70"/>
-      <c s="6" r="W70"/>
-      <c s="6" r="X70"/>
-      <c s="6" r="Y70"/>
+      <c s="14" r="E70"/>
+      <c s="14" r="F70"/>
+      <c s="14" r="G70"/>
+      <c s="14" r="H70"/>
+      <c s="14" r="I70"/>
+      <c s="14" r="J70"/>
+      <c s="14" r="K70"/>
+      <c s="41" r="L70"/>
+      <c s="28" r="M70"/>
+      <c s="25" r="N70"/>
+      <c s="5" r="O70"/>
+      <c s="5" r="P70"/>
+      <c s="5" r="Q70"/>
+      <c s="5" r="R70"/>
+      <c s="5" r="S70"/>
+      <c s="5" r="T70"/>
+      <c s="5" r="U70"/>
+      <c s="5" r="V70"/>
+      <c s="5" r="W70"/>
+      <c s="5" r="X70"/>
+      <c s="5" r="Y70"/>
     </row>
     <row r="71">
       <c s="3" r="A71"/>
-      <c s="31" r="B71"/>
-      <c s="5" r="C71"/>
+      <c s="30" r="B71"/>
+      <c s="4" r="C71"/>
       <c s="2" r="D71"/>
-      <c s="15" r="E71"/>
-      <c s="15" r="F71"/>
-      <c s="15" r="G71"/>
-      <c s="15" r="H71"/>
-      <c s="15" r="I71"/>
-      <c s="15" r="J71"/>
-      <c s="15" r="K71"/>
-      <c s="43" r="L71"/>
-      <c s="29" r="M71"/>
-      <c s="26" r="N71"/>
-      <c s="6" r="O71"/>
-      <c s="6" r="P71"/>
-      <c s="6" r="Q71"/>
-      <c s="6" r="R71"/>
-      <c s="6" r="S71"/>
-      <c s="6" r="T71"/>
-      <c s="6" r="U71"/>
-      <c s="6" r="V71"/>
-      <c s="6" r="W71"/>
-      <c s="6" r="X71"/>
-      <c s="6" r="Y71"/>
+      <c s="14" r="E71"/>
+      <c s="14" r="F71"/>
+      <c s="14" r="G71"/>
+      <c s="14" r="H71"/>
+      <c s="14" r="I71"/>
+      <c s="14" r="J71"/>
+      <c s="14" r="K71"/>
+      <c s="41" r="L71"/>
+      <c s="28" r="M71"/>
+      <c s="25" r="N71"/>
+      <c s="5" r="O71"/>
+      <c s="5" r="P71"/>
+      <c s="5" r="Q71"/>
+      <c s="5" r="R71"/>
+      <c s="5" r="S71"/>
+      <c s="5" r="T71"/>
+      <c s="5" r="U71"/>
+      <c s="5" r="V71"/>
+      <c s="5" r="W71"/>
+      <c s="5" r="X71"/>
+      <c s="5" r="Y71"/>
     </row>
     <row r="72">
       <c s="3" r="A72"/>
-      <c s="31" r="B72"/>
-      <c s="5" r="C72"/>
+      <c s="30" r="B72"/>
+      <c s="4" r="C72"/>
       <c s="2" r="D72"/>
-      <c s="15" r="E72"/>
-      <c s="15" r="F72"/>
-      <c s="15" r="G72"/>
-      <c s="15" r="H72"/>
-      <c s="15" r="I72"/>
-      <c s="15" r="J72"/>
-      <c s="15" r="K72"/>
-      <c s="43" r="L72"/>
-      <c s="29" r="M72"/>
-      <c s="26" r="N72"/>
-      <c s="6" r="O72"/>
-      <c s="6" r="P72"/>
-      <c s="6" r="Q72"/>
-      <c s="6" r="R72"/>
-      <c s="6" r="S72"/>
-      <c s="6" r="T72"/>
-      <c s="6" r="U72"/>
-      <c s="6" r="V72"/>
-      <c s="6" r="W72"/>
-      <c s="6" r="X72"/>
-      <c s="6" r="Y72"/>
+      <c s="14" r="E72"/>
+      <c s="14" r="F72"/>
+      <c s="14" r="G72"/>
+      <c s="14" r="H72"/>
+      <c s="14" r="I72"/>
+      <c s="14" r="J72"/>
+      <c s="14" r="K72"/>
+      <c s="41" r="L72"/>
+      <c s="28" r="M72"/>
+      <c s="25" r="N72"/>
+      <c s="5" r="O72"/>
+      <c s="5" r="P72"/>
+      <c s="5" r="Q72"/>
+      <c s="5" r="R72"/>
+      <c s="5" r="S72"/>
+      <c s="5" r="T72"/>
+      <c s="5" r="U72"/>
+      <c s="5" r="V72"/>
+      <c s="5" r="W72"/>
+      <c s="5" r="X72"/>
+      <c s="5" r="Y72"/>
     </row>
     <row r="73">
       <c s="3" r="A73"/>
-      <c s="31" r="B73"/>
-      <c s="5" r="C73"/>
+      <c s="30" r="B73"/>
+      <c s="4" r="C73"/>
       <c s="2" r="D73"/>
-      <c s="15" r="E73"/>
-      <c s="15" r="F73"/>
-      <c s="15" r="G73"/>
-      <c s="15" r="H73"/>
-      <c s="15" r="I73"/>
-      <c s="15" r="J73"/>
-      <c s="15" r="K73"/>
-      <c s="43" r="L73"/>
-      <c s="29" r="M73"/>
-      <c s="26" r="N73"/>
-      <c s="6" r="O73"/>
-      <c s="6" r="P73"/>
-      <c s="6" r="Q73"/>
-      <c s="6" r="R73"/>
-      <c s="6" r="S73"/>
-      <c s="6" r="T73"/>
-      <c s="6" r="U73"/>
-      <c s="6" r="V73"/>
-      <c s="6" r="W73"/>
-      <c s="6" r="X73"/>
-      <c s="6" r="Y73"/>
+      <c s="14" r="E73"/>
+      <c s="14" r="F73"/>
+      <c s="14" r="G73"/>
+      <c s="14" r="H73"/>
+      <c s="14" r="I73"/>
+      <c s="14" r="J73"/>
+      <c s="14" r="K73"/>
+      <c s="41" r="L73"/>
+      <c s="28" r="M73"/>
+      <c s="25" r="N73"/>
+      <c s="5" r="O73"/>
+      <c s="5" r="P73"/>
+      <c s="5" r="Q73"/>
+      <c s="5" r="R73"/>
+      <c s="5" r="S73"/>
+      <c s="5" r="T73"/>
+      <c s="5" r="U73"/>
+      <c s="5" r="V73"/>
+      <c s="5" r="W73"/>
+      <c s="5" r="X73"/>
+      <c s="5" r="Y73"/>
     </row>
     <row r="74">
       <c s="3" r="A74"/>
-      <c s="31" r="B74"/>
-      <c s="5" r="C74"/>
+      <c s="30" r="B74"/>
+      <c s="4" r="C74"/>
       <c s="2" r="D74"/>
-      <c s="15" r="E74"/>
-      <c s="15" r="F74"/>
-      <c s="15" r="G74"/>
-      <c s="15" r="H74"/>
-      <c s="15" r="I74"/>
-      <c s="15" r="J74"/>
-      <c s="15" r="K74"/>
-      <c s="43" r="L74"/>
-      <c s="29" r="M74"/>
-      <c s="26" r="N74"/>
-      <c s="6" r="O74"/>
-      <c s="6" r="P74"/>
-      <c s="6" r="Q74"/>
-      <c s="6" r="R74"/>
-      <c s="6" r="S74"/>
-      <c s="6" r="T74"/>
-      <c s="6" r="U74"/>
-      <c s="6" r="V74"/>
-      <c s="6" r="W74"/>
-      <c s="6" r="X74"/>
-      <c s="6" r="Y74"/>
+      <c s="14" r="E74"/>
+      <c s="14" r="F74"/>
+      <c s="14" r="G74"/>
+      <c s="14" r="H74"/>
+      <c s="14" r="I74"/>
+      <c s="14" r="J74"/>
+      <c s="14" r="K74"/>
+      <c s="41" r="L74"/>
+      <c s="28" r="M74"/>
+      <c s="25" r="N74"/>
+      <c s="5" r="O74"/>
+      <c s="5" r="P74"/>
+      <c s="5" r="Q74"/>
+      <c s="5" r="R74"/>
+      <c s="5" r="S74"/>
+      <c s="5" r="T74"/>
+      <c s="5" r="U74"/>
+      <c s="5" r="V74"/>
+      <c s="5" r="W74"/>
+      <c s="5" r="X74"/>
+      <c s="5" r="Y74"/>
     </row>
     <row r="75">
       <c s="3" r="A75"/>
-      <c s="31" r="B75"/>
-      <c s="5" r="C75"/>
+      <c s="30" r="B75"/>
+      <c s="4" r="C75"/>
       <c s="2" r="D75"/>
-      <c s="15" r="E75"/>
-      <c s="15" r="F75"/>
-      <c s="15" r="G75"/>
-      <c s="15" r="H75"/>
-      <c s="15" r="I75"/>
-      <c s="15" r="J75"/>
-      <c s="15" r="K75"/>
-      <c s="43" r="L75"/>
-      <c s="29" r="M75"/>
-      <c s="26" r="N75"/>
-      <c s="6" r="O75"/>
-      <c s="6" r="P75"/>
-      <c s="6" r="Q75"/>
-      <c s="6" r="R75"/>
-      <c s="6" r="S75"/>
-      <c s="6" r="T75"/>
-      <c s="6" r="U75"/>
-      <c s="6" r="V75"/>
-      <c s="6" r="W75"/>
-      <c s="6" r="X75"/>
-      <c s="6" r="Y75"/>
+      <c s="14" r="E75"/>
+      <c s="14" r="F75"/>
+      <c s="14" r="G75"/>
+      <c s="14" r="H75"/>
+      <c s="14" r="I75"/>
+      <c s="14" r="J75"/>
+      <c s="14" r="K75"/>
+      <c s="41" r="L75"/>
+      <c s="28" r="M75"/>
+      <c s="25" r="N75"/>
+      <c s="5" r="O75"/>
+      <c s="5" r="P75"/>
+      <c s="5" r="Q75"/>
+      <c s="5" r="R75"/>
+      <c s="5" r="S75"/>
+      <c s="5" r="T75"/>
+      <c s="5" r="U75"/>
+      <c s="5" r="V75"/>
+      <c s="5" r="W75"/>
+      <c s="5" r="X75"/>
+      <c s="5" r="Y75"/>
     </row>
     <row r="76">
       <c s="3" r="A76"/>
-      <c s="31" r="B76"/>
-      <c s="5" r="C76"/>
+      <c s="30" r="B76"/>
+      <c s="4" r="C76"/>
       <c s="2" r="D76"/>
-      <c s="15" r="E76"/>
-      <c s="15" r="F76"/>
-      <c s="15" r="G76"/>
-      <c s="15" r="H76"/>
-      <c s="15" r="I76"/>
-      <c s="15" r="J76"/>
-      <c s="15" r="K76"/>
-      <c s="43" r="L76"/>
-      <c s="29" r="M76"/>
-      <c s="26" r="N76"/>
-      <c s="6" r="O76"/>
-      <c s="6" r="P76"/>
-      <c s="6" r="Q76"/>
-      <c s="6" r="R76"/>
-      <c s="6" r="S76"/>
-      <c s="6" r="T76"/>
-      <c s="6" r="U76"/>
-      <c s="6" r="V76"/>
-      <c s="6" r="W76"/>
-      <c s="6" r="X76"/>
-      <c s="6" r="Y76"/>
+      <c s="14" r="E76"/>
+      <c s="14" r="F76"/>
+      <c s="14" r="G76"/>
+      <c s="14" r="H76"/>
+      <c s="14" r="I76"/>
+      <c s="14" r="J76"/>
+      <c s="14" r="K76"/>
+      <c s="41" r="L76"/>
+      <c s="28" r="M76"/>
+      <c s="25" r="N76"/>
+      <c s="5" r="O76"/>
+      <c s="5" r="P76"/>
+      <c s="5" r="Q76"/>
+      <c s="5" r="R76"/>
+      <c s="5" r="S76"/>
+      <c s="5" r="T76"/>
+      <c s="5" r="U76"/>
+      <c s="5" r="V76"/>
+      <c s="5" r="W76"/>
+      <c s="5" r="X76"/>
+      <c s="5" r="Y76"/>
     </row>
     <row r="77">
       <c s="3" r="A77"/>
-      <c s="31" r="B77"/>
-      <c s="5" r="C77"/>
+      <c s="30" r="B77"/>
+      <c s="4" r="C77"/>
       <c s="2" r="D77"/>
-      <c s="15" r="E77"/>
-      <c s="15" r="F77"/>
-      <c s="15" r="G77"/>
-      <c s="15" r="H77"/>
-      <c s="15" r="I77"/>
-      <c s="15" r="J77"/>
-      <c s="15" r="K77"/>
-      <c s="43" r="L77"/>
-      <c s="29" r="M77"/>
-      <c s="26" r="N77"/>
-      <c s="6" r="O77"/>
-      <c s="6" r="P77"/>
-      <c s="6" r="Q77"/>
-      <c s="6" r="R77"/>
-      <c s="6" r="S77"/>
-      <c s="6" r="T77"/>
-      <c s="6" r="U77"/>
-      <c s="6" r="V77"/>
-      <c s="6" r="W77"/>
-      <c s="6" r="X77"/>
-      <c s="6" r="Y77"/>
+      <c s="14" r="E77"/>
+      <c s="14" r="F77"/>
+      <c s="14" r="G77"/>
+      <c s="14" r="H77"/>
+      <c s="14" r="I77"/>
+      <c s="14" r="J77"/>
+      <c s="14" r="K77"/>
+      <c s="41" r="L77"/>
+      <c s="28" r="M77"/>
+      <c s="25" r="N77"/>
+      <c s="5" r="O77"/>
+      <c s="5" r="P77"/>
+      <c s="5" r="Q77"/>
+      <c s="5" r="R77"/>
+      <c s="5" r="S77"/>
+      <c s="5" r="T77"/>
+      <c s="5" r="U77"/>
+      <c s="5" r="V77"/>
+      <c s="5" r="W77"/>
+      <c s="5" r="X77"/>
+      <c s="5" r="Y77"/>
     </row>
     <row r="78">
       <c s="3" r="A78"/>
-      <c s="31" r="B78"/>
-      <c s="5" r="C78"/>
+      <c s="30" r="B78"/>
+      <c s="4" r="C78"/>
       <c s="2" r="D78"/>
-      <c s="15" r="E78"/>
-      <c s="15" r="F78"/>
-      <c s="15" r="G78"/>
-      <c s="15" r="H78"/>
-      <c s="15" r="I78"/>
-      <c s="15" r="J78"/>
-      <c s="15" r="K78"/>
-      <c s="43" r="L78"/>
-      <c s="29" r="M78"/>
-      <c s="26" r="N78"/>
-      <c s="6" r="O78"/>
-      <c s="6" r="P78"/>
-      <c s="6" r="Q78"/>
-      <c s="6" r="R78"/>
-      <c s="6" r="S78"/>
-      <c s="6" r="T78"/>
-      <c s="6" r="U78"/>
-      <c s="6" r="V78"/>
-      <c s="6" r="W78"/>
-      <c s="6" r="X78"/>
-      <c s="6" r="Y78"/>
+      <c s="14" r="E78"/>
+      <c s="14" r="F78"/>
+      <c s="14" r="G78"/>
+      <c s="14" r="H78"/>
+      <c s="14" r="I78"/>
+      <c s="14" r="J78"/>
+      <c s="14" r="K78"/>
+      <c s="41" r="L78"/>
+      <c s="28" r="M78"/>
+      <c s="25" r="N78"/>
+      <c s="5" r="O78"/>
+      <c s="5" r="P78"/>
+      <c s="5" r="Q78"/>
+      <c s="5" r="R78"/>
+      <c s="5" r="S78"/>
+      <c s="5" r="T78"/>
+      <c s="5" r="U78"/>
+      <c s="5" r="V78"/>
+      <c s="5" r="W78"/>
+      <c s="5" r="X78"/>
+      <c s="5" r="Y78"/>
     </row>
     <row r="79">
       <c s="3" r="A79"/>
-      <c s="31" r="B79"/>
-      <c s="5" r="C79"/>
+      <c s="30" r="B79"/>
+      <c s="4" r="C79"/>
       <c s="2" r="D79"/>
-      <c s="15" r="E79"/>
-      <c s="15" r="F79"/>
-      <c s="15" r="G79"/>
-      <c s="15" r="H79"/>
-      <c s="15" r="I79"/>
-      <c s="15" r="J79"/>
-      <c s="15" r="K79"/>
-      <c s="43" r="L79"/>
-      <c s="29" r="M79"/>
-      <c s="26" r="N79"/>
-      <c s="6" r="O79"/>
-      <c s="6" r="P79"/>
-      <c s="6" r="Q79"/>
-      <c s="6" r="R79"/>
-      <c s="6" r="S79"/>
-      <c s="6" r="T79"/>
-      <c s="6" r="U79"/>
-      <c s="6" r="V79"/>
-      <c s="6" r="W79"/>
-      <c s="6" r="X79"/>
-      <c s="6" r="Y79"/>
+      <c s="14" r="E79"/>
+      <c s="14" r="F79"/>
+      <c s="14" r="G79"/>
+      <c s="14" r="H79"/>
+      <c s="14" r="I79"/>
+      <c s="14" r="J79"/>
+      <c s="14" r="K79"/>
+      <c s="41" r="L79"/>
+      <c s="28" r="M79"/>
+      <c s="25" r="N79"/>
+      <c s="5" r="O79"/>
+      <c s="5" r="P79"/>
+      <c s="5" r="Q79"/>
+      <c s="5" r="R79"/>
+      <c s="5" r="S79"/>
+      <c s="5" r="T79"/>
+      <c s="5" r="U79"/>
+      <c s="5" r="V79"/>
+      <c s="5" r="W79"/>
+      <c s="5" r="X79"/>
+      <c s="5" r="Y79"/>
     </row>
     <row r="80">
       <c s="3" r="A80"/>
-      <c s="31" r="B80"/>
-      <c s="5" r="C80"/>
+      <c s="30" r="B80"/>
+      <c s="4" r="C80"/>
       <c s="2" r="D80"/>
-      <c s="15" r="E80"/>
-      <c s="15" r="F80"/>
-      <c s="15" r="G80"/>
-      <c s="15" r="H80"/>
-      <c s="15" r="I80"/>
-      <c s="15" r="J80"/>
-      <c s="15" r="K80"/>
-      <c s="43" r="L80"/>
-      <c s="29" r="M80"/>
-      <c s="26" r="N80"/>
-      <c s="6" r="O80"/>
-      <c s="6" r="P80"/>
-      <c s="6" r="Q80"/>
-      <c s="6" r="R80"/>
-      <c s="6" r="S80"/>
-      <c s="6" r="T80"/>
-      <c s="6" r="U80"/>
-      <c s="6" r="V80"/>
-      <c s="6" r="W80"/>
-      <c s="6" r="X80"/>
-      <c s="6" r="Y80"/>
+      <c s="14" r="E80"/>
+      <c s="14" r="F80"/>
+      <c s="14" r="G80"/>
+      <c s="14" r="H80"/>
+      <c s="14" r="I80"/>
+      <c s="14" r="J80"/>
+      <c s="14" r="K80"/>
+      <c s="41" r="L80"/>
+      <c s="28" r="M80"/>
+      <c s="25" r="N80"/>
+      <c s="5" r="O80"/>
+      <c s="5" r="P80"/>
+      <c s="5" r="Q80"/>
+      <c s="5" r="R80"/>
+      <c s="5" r="S80"/>
+      <c s="5" r="T80"/>
+      <c s="5" r="U80"/>
+      <c s="5" r="V80"/>
+      <c s="5" r="W80"/>
+      <c s="5" r="X80"/>
+      <c s="5" r="Y80"/>
     </row>
     <row r="81">
       <c s="3" r="A81"/>
-      <c s="31" r="B81"/>
-      <c s="5" r="C81"/>
+      <c s="30" r="B81"/>
+      <c s="4" r="C81"/>
       <c s="2" r="D81"/>
-      <c s="15" r="E81"/>
-      <c s="15" r="F81"/>
-      <c s="15" r="G81"/>
-      <c s="15" r="H81"/>
-      <c s="15" r="I81"/>
-      <c s="15" r="J81"/>
-      <c s="15" r="K81"/>
-      <c s="43" r="L81"/>
-      <c s="29" r="M81"/>
-      <c s="26" r="N81"/>
-      <c s="6" r="O81"/>
-      <c s="6" r="P81"/>
-      <c s="6" r="Q81"/>
-      <c s="6" r="R81"/>
-      <c s="6" r="S81"/>
-      <c s="6" r="T81"/>
-      <c s="6" r="U81"/>
-      <c s="6" r="V81"/>
-      <c s="6" r="W81"/>
-      <c s="6" r="X81"/>
-      <c s="6" r="Y81"/>
+      <c s="14" r="E81"/>
+      <c s="14" r="F81"/>
+      <c s="14" r="G81"/>
+      <c s="14" r="H81"/>
+      <c s="14" r="I81"/>
+      <c s="14" r="J81"/>
+      <c s="14" r="K81"/>
+      <c s="41" r="L81"/>
+      <c s="28" r="M81"/>
+      <c s="25" r="N81"/>
+      <c s="5" r="O81"/>
+      <c s="5" r="P81"/>
+      <c s="5" r="Q81"/>
+      <c s="5" r="R81"/>
+      <c s="5" r="S81"/>
+      <c s="5" r="T81"/>
+      <c s="5" r="U81"/>
+      <c s="5" r="V81"/>
+      <c s="5" r="W81"/>
+      <c s="5" r="X81"/>
+      <c s="5" r="Y81"/>
     </row>
     <row r="82">
       <c s="3" r="A82"/>
-      <c s="31" r="B82"/>
-      <c s="5" r="C82"/>
+      <c s="30" r="B82"/>
+      <c s="4" r="C82"/>
       <c s="2" r="D82"/>
-      <c s="15" r="E82"/>
-      <c s="15" r="F82"/>
-      <c s="15" r="G82"/>
-      <c s="15" r="H82"/>
-      <c s="15" r="I82"/>
-      <c s="15" r="J82"/>
-      <c s="15" r="K82"/>
-      <c s="43" r="L82"/>
-      <c s="29" r="M82"/>
-      <c s="26" r="N82"/>
-      <c s="6" r="O82"/>
-      <c s="6" r="P82"/>
-      <c s="6" r="Q82"/>
-      <c s="6" r="R82"/>
-      <c s="6" r="S82"/>
-      <c s="6" r="T82"/>
-      <c s="6" r="U82"/>
-      <c s="6" r="V82"/>
-      <c s="6" r="W82"/>
-      <c s="6" r="X82"/>
-      <c s="6" r="Y82"/>
+      <c s="14" r="E82"/>
+      <c s="14" r="F82"/>
+      <c s="14" r="G82"/>
+      <c s="14" r="H82"/>
+      <c s="14" r="I82"/>
+      <c s="14" r="J82"/>
+      <c s="14" r="K82"/>
+      <c s="41" r="L82"/>
+      <c s="28" r="M82"/>
+      <c s="25" r="N82"/>
+      <c s="5" r="O82"/>
+      <c s="5" r="P82"/>
+      <c s="5" r="Q82"/>
+      <c s="5" r="R82"/>
+      <c s="5" r="S82"/>
+      <c s="5" r="T82"/>
+      <c s="5" r="U82"/>
+      <c s="5" r="V82"/>
+      <c s="5" r="W82"/>
+      <c s="5" r="X82"/>
+      <c s="5" r="Y82"/>
     </row>
     <row r="83">
       <c s="3" r="A83"/>
-      <c s="31" r="B83"/>
-      <c s="5" r="C83"/>
+      <c s="30" r="B83"/>
+      <c s="4" r="C83"/>
       <c s="2" r="D83"/>
-      <c s="15" r="E83"/>
-      <c s="15" r="F83"/>
-      <c s="15" r="G83"/>
-      <c s="15" r="H83"/>
-      <c s="15" r="I83"/>
-      <c s="15" r="J83"/>
-      <c s="15" r="K83"/>
-      <c s="43" r="L83"/>
-      <c s="29" r="M83"/>
-      <c s="26" r="N83"/>
-      <c s="6" r="O83"/>
-      <c s="6" r="P83"/>
-      <c s="6" r="Q83"/>
-      <c s="6" r="R83"/>
-      <c s="6" r="S83"/>
-      <c s="6" r="T83"/>
-      <c s="6" r="U83"/>
-      <c s="6" r="V83"/>
-      <c s="6" r="W83"/>
-      <c s="6" r="X83"/>
-      <c s="6" r="Y83"/>
+      <c s="14" r="E83"/>
+      <c s="14" r="F83"/>
+      <c s="14" r="G83"/>
+      <c s="14" r="H83"/>
+      <c s="14" r="I83"/>
+      <c s="14" r="J83"/>
+      <c s="14" r="K83"/>
+      <c s="41" r="L83"/>
+      <c s="28" r="M83"/>
+      <c s="25" r="N83"/>
+      <c s="5" r="O83"/>
+      <c s="5" r="P83"/>
+      <c s="5" r="Q83"/>
+      <c s="5" r="R83"/>
+      <c s="5" r="S83"/>
+      <c s="5" r="T83"/>
+      <c s="5" r="U83"/>
+      <c s="5" r="V83"/>
+      <c s="5" r="W83"/>
+      <c s="5" r="X83"/>
+      <c s="5" r="Y83"/>
     </row>
     <row r="84">
       <c s="3" r="A84"/>
-      <c s="31" r="B84"/>
-      <c s="5" r="C84"/>
+      <c s="30" r="B84"/>
+      <c s="4" r="C84"/>
       <c s="2" r="D84"/>
-      <c s="15" r="E84"/>
-      <c s="15" r="F84"/>
-      <c s="15" r="G84"/>
-      <c s="15" r="H84"/>
-      <c s="15" r="I84"/>
-      <c s="15" r="J84"/>
-      <c s="15" r="K84"/>
-      <c s="43" r="L84"/>
-      <c s="29" r="M84"/>
-      <c s="26" r="N84"/>
-      <c s="6" r="O84"/>
-      <c s="6" r="P84"/>
-      <c s="6" r="Q84"/>
-      <c s="6" r="R84"/>
-      <c s="6" r="S84"/>
-      <c s="6" r="T84"/>
-      <c s="6" r="U84"/>
-      <c s="6" r="V84"/>
-      <c s="6" r="W84"/>
-      <c s="6" r="X84"/>
-      <c s="6" r="Y84"/>
+      <c s="14" r="E84"/>
+      <c s="14" r="F84"/>
+      <c s="14" r="G84"/>
+      <c s="14" r="H84"/>
+      <c s="14" r="I84"/>
+      <c s="14" r="J84"/>
+      <c s="14" r="K84"/>
+      <c s="41" r="L84"/>
+      <c s="28" r="M84"/>
+      <c s="25" r="N84"/>
+      <c s="5" r="O84"/>
+      <c s="5" r="P84"/>
+      <c s="5" r="Q84"/>
+      <c s="5" r="R84"/>
+      <c s="5" r="S84"/>
+      <c s="5" r="T84"/>
+      <c s="5" r="U84"/>
+      <c s="5" r="V84"/>
+      <c s="5" r="W84"/>
+      <c s="5" r="X84"/>
+      <c s="5" r="Y84"/>
     </row>
     <row r="85">
       <c s="3" r="A85"/>
-      <c s="31" r="B85"/>
-      <c s="5" r="C85"/>
+      <c s="30" r="B85"/>
+      <c s="4" r="C85"/>
       <c s="2" r="D85"/>
-      <c s="15" r="E85"/>
-      <c s="15" r="F85"/>
-      <c s="15" r="G85"/>
-      <c s="15" r="H85"/>
-      <c s="15" r="I85"/>
-      <c s="15" r="J85"/>
-      <c s="15" r="K85"/>
-      <c s="43" r="L85"/>
-      <c s="29" r="M85"/>
-      <c s="26" r="N85"/>
-      <c s="6" r="O85"/>
-      <c s="6" r="P85"/>
-      <c s="6" r="Q85"/>
-      <c s="6" r="R85"/>
-      <c s="6" r="S85"/>
-      <c s="6" r="T85"/>
-      <c s="6" r="U85"/>
-      <c s="6" r="V85"/>
-      <c s="6" r="W85"/>
-      <c s="6" r="X85"/>
-      <c s="6" r="Y85"/>
+      <c s="14" r="E85"/>
+      <c s="14" r="F85"/>
+      <c s="14" r="G85"/>
+      <c s="14" r="H85"/>
+      <c s="14" r="I85"/>
+      <c s="14" r="J85"/>
+      <c s="14" r="K85"/>
+      <c s="41" r="L85"/>
+      <c s="28" r="M85"/>
+      <c s="25" r="N85"/>
+      <c s="5" r="O85"/>
+      <c s="5" r="P85"/>
+      <c s="5" r="Q85"/>
+      <c s="5" r="R85"/>
+      <c s="5" r="S85"/>
+      <c s="5" r="T85"/>
+      <c s="5" r="U85"/>
+      <c s="5" r="V85"/>
+      <c s="5" r="W85"/>
+      <c s="5" r="X85"/>
+      <c s="5" r="Y85"/>
     </row>
     <row r="86">
       <c s="3" r="A86"/>
-      <c s="31" r="B86"/>
-      <c s="5" r="C86"/>
+      <c s="30" r="B86"/>
+      <c s="4" r="C86"/>
       <c s="2" r="D86"/>
-      <c s="15" r="E86"/>
-      <c s="15" r="F86"/>
-      <c s="15" r="G86"/>
-      <c s="15" r="H86"/>
-      <c s="15" r="I86"/>
-      <c s="15" r="J86"/>
-      <c s="15" r="K86"/>
-      <c s="43" r="L86"/>
-      <c s="29" r="M86"/>
-      <c s="26" r="N86"/>
-      <c s="6" r="O86"/>
-      <c s="6" r="P86"/>
-      <c s="6" r="Q86"/>
-      <c s="6" r="R86"/>
-      <c s="6" r="S86"/>
-      <c s="6" r="T86"/>
-      <c s="6" r="U86"/>
-      <c s="6" r="V86"/>
-      <c s="6" r="W86"/>
-      <c s="6" r="X86"/>
-      <c s="6" r="Y86"/>
+      <c s="14" r="E86"/>
+      <c s="14" r="F86"/>
+      <c s="14" r="G86"/>
+      <c s="14" r="H86"/>
+      <c s="14" r="I86"/>
+      <c s="14" r="J86"/>
+      <c s="14" r="K86"/>
+      <c s="41" r="L86"/>
+      <c s="28" r="M86"/>
+      <c s="25" r="N86"/>
+      <c s="5" r="O86"/>
+      <c s="5" r="P86"/>
+      <c s="5" r="Q86"/>
+      <c s="5" r="R86"/>
+      <c s="5" r="S86"/>
+      <c s="5" r="T86"/>
+      <c s="5" r="U86"/>
+      <c s="5" r="V86"/>
+      <c s="5" r="W86"/>
+      <c s="5" r="X86"/>
+      <c s="5" r="Y86"/>
     </row>
     <row r="87">
       <c s="3" r="A87"/>
-      <c s="31" r="B87"/>
-      <c s="5" r="C87"/>
+      <c s="30" r="B87"/>
+      <c s="4" r="C87"/>
       <c s="2" r="D87"/>
-      <c s="15" r="E87"/>
-      <c s="15" r="F87"/>
-      <c s="15" r="G87"/>
-      <c s="15" r="H87"/>
-      <c s="15" r="I87"/>
-      <c s="15" r="J87"/>
-      <c s="15" r="K87"/>
-      <c s="43" r="L87"/>
-      <c s="29" r="M87"/>
-      <c s="26" r="N87"/>
-      <c s="6" r="O87"/>
-      <c s="6" r="P87"/>
-      <c s="6" r="Q87"/>
-      <c s="6" r="R87"/>
-      <c s="6" r="S87"/>
-      <c s="6" r="T87"/>
-      <c s="6" r="U87"/>
-      <c s="6" r="V87"/>
-      <c s="6" r="W87"/>
-      <c s="6" r="X87"/>
-      <c s="6" r="Y87"/>
+      <c s="14" r="E87"/>
+      <c s="14" r="F87"/>
+      <c s="14" r="G87"/>
+      <c s="14" r="H87"/>
+      <c s="14" r="I87"/>
+      <c s="14" r="J87"/>
+      <c s="14" r="K87"/>
+      <c s="41" r="L87"/>
+      <c s="28" r="M87"/>
+      <c s="25" r="N87"/>
+      <c s="5" r="O87"/>
+      <c s="5" r="P87"/>
+      <c s="5" r="Q87"/>
+      <c s="5" r="R87"/>
+      <c s="5" r="S87"/>
+      <c s="5" r="T87"/>
+      <c s="5" r="U87"/>
+      <c s="5" r="V87"/>
+      <c s="5" r="W87"/>
+      <c s="5" r="X87"/>
+      <c s="5" r="Y87"/>
     </row>
     <row r="88">
       <c s="3" r="A88"/>
-      <c s="31" r="B88"/>
-      <c s="5" r="C88"/>
+      <c s="30" r="B88"/>
+      <c s="4" r="C88"/>
       <c s="2" r="D88"/>
-      <c s="15" r="E88"/>
-      <c s="15" r="F88"/>
-      <c s="15" r="G88"/>
-      <c s="15" r="H88"/>
-      <c s="15" r="I88"/>
-      <c s="15" r="J88"/>
-      <c s="15" r="K88"/>
-      <c s="43" r="L88"/>
-      <c s="29" r="M88"/>
-      <c s="26" r="N88"/>
-      <c s="6" r="O88"/>
-      <c s="6" r="P88"/>
-      <c s="6" r="Q88"/>
-      <c s="6" r="R88"/>
-      <c s="6" r="S88"/>
-      <c s="6" r="T88"/>
-      <c s="6" r="U88"/>
-      <c s="6" r="V88"/>
-      <c s="6" r="W88"/>
-      <c s="6" r="X88"/>
-      <c s="6" r="Y88"/>
+      <c s="14" r="E88"/>
+      <c s="14" r="F88"/>
+      <c s="14" r="G88"/>
+      <c s="14" r="H88"/>
+      <c s="14" r="I88"/>
+      <c s="14" r="J88"/>
+      <c s="14" r="K88"/>
+      <c s="41" r="L88"/>
+      <c s="28" r="M88"/>
+      <c s="25" r="N88"/>
+      <c s="5" r="O88"/>
+      <c s="5" r="P88"/>
+      <c s="5" r="Q88"/>
+      <c s="5" r="R88"/>
+      <c s="5" r="S88"/>
+      <c s="5" r="T88"/>
+      <c s="5" r="U88"/>
+      <c s="5" r="V88"/>
+      <c s="5" r="W88"/>
+      <c s="5" r="X88"/>
+      <c s="5" r="Y88"/>
     </row>
     <row r="89">
       <c s="3" r="A89"/>
-      <c s="31" r="B89"/>
-      <c s="5" r="C89"/>
+      <c s="30" r="B89"/>
+      <c s="4" r="C89"/>
       <c s="2" r="D89"/>
-      <c s="15" r="E89"/>
-      <c s="15" r="F89"/>
-      <c s="15" r="G89"/>
-      <c s="15" r="H89"/>
-      <c s="15" r="I89"/>
-      <c s="15" r="J89"/>
-      <c s="15" r="K89"/>
-      <c s="43" r="L89"/>
-      <c s="29" r="M89"/>
-      <c s="26" r="N89"/>
-      <c s="6" r="O89"/>
-      <c s="6" r="P89"/>
-      <c s="6" r="Q89"/>
-      <c s="6" r="R89"/>
-      <c s="6" r="S89"/>
-      <c s="6" r="T89"/>
-      <c s="6" r="U89"/>
-      <c s="6" r="V89"/>
-      <c s="6" r="W89"/>
-      <c s="6" r="X89"/>
-      <c s="6" r="Y89"/>
+      <c s="14" r="E89"/>
+      <c s="14" r="F89"/>
+      <c s="14" r="G89"/>
+      <c s="14" r="H89"/>
+      <c s="14" r="I89"/>
+      <c s="14" r="J89"/>
+      <c s="14" r="K89"/>
+      <c s="41" r="L89"/>
+      <c s="28" r="M89"/>
+      <c s="25" r="N89"/>
+      <c s="5" r="O89"/>
+      <c s="5" r="P89"/>
+      <c s="5" r="Q89"/>
+      <c s="5" r="R89"/>
+      <c s="5" r="S89"/>
+      <c s="5" r="T89"/>
+      <c s="5" r="U89"/>
+      <c s="5" r="V89"/>
+      <c s="5" r="W89"/>
+      <c s="5" r="X89"/>
+      <c s="5" r="Y89"/>
     </row>
     <row r="90">
       <c s="3" r="A90"/>
-      <c s="31" r="B90"/>
-      <c s="5" r="C90"/>
+      <c s="30" r="B90"/>
+      <c s="4" r="C90"/>
       <c s="2" r="D90"/>
-      <c s="15" r="E90"/>
-      <c s="15" r="F90"/>
-      <c s="15" r="G90"/>
-      <c s="15" r="H90"/>
-      <c s="15" r="I90"/>
-      <c s="15" r="J90"/>
-      <c s="15" r="K90"/>
-      <c s="43" r="L90"/>
-      <c s="29" r="M90"/>
-      <c s="26" r="N90"/>
-      <c s="6" r="O90"/>
-      <c s="6" r="P90"/>
-      <c s="6" r="Q90"/>
-      <c s="6" r="R90"/>
-      <c s="6" r="S90"/>
-      <c s="6" r="T90"/>
-      <c s="6" r="U90"/>
-      <c s="6" r="V90"/>
-      <c s="6" r="W90"/>
-      <c s="6" r="X90"/>
-      <c s="6" r="Y90"/>
+      <c s="14" r="E90"/>
+      <c s="14" r="F90"/>
+      <c s="14" r="G90"/>
+      <c s="14" r="H90"/>
+      <c s="14" r="I90"/>
+      <c s="14" r="J90"/>
+      <c s="14" r="K90"/>
+      <c s="41" r="L90"/>
+      <c s="28" r="M90"/>
+      <c s="25" r="N90"/>
+      <c s="5" r="O90"/>
+      <c s="5" r="P90"/>
+      <c s="5" r="Q90"/>
+      <c s="5" r="R90"/>
+      <c s="5" r="S90"/>
+      <c s="5" r="T90"/>
+      <c s="5" r="U90"/>
+      <c s="5" r="V90"/>
+      <c s="5" r="W90"/>
+      <c s="5" r="X90"/>
+      <c s="5" r="Y90"/>
     </row>
     <row r="91">
       <c s="3" r="A91"/>
-      <c s="31" r="B91"/>
-      <c s="5" r="C91"/>
+      <c s="30" r="B91"/>
+      <c s="4" r="C91"/>
       <c s="2" r="D91"/>
-      <c s="15" r="E91"/>
-      <c s="15" r="F91"/>
-      <c s="15" r="G91"/>
-      <c s="15" r="H91"/>
-      <c s="15" r="I91"/>
-      <c s="15" r="J91"/>
-      <c s="15" r="K91"/>
-      <c s="43" r="L91"/>
-      <c s="29" r="M91"/>
-      <c s="26" r="N91"/>
-      <c s="6" r="O91"/>
-      <c s="6" r="P91"/>
-      <c s="6" r="Q91"/>
-      <c s="6" r="R91"/>
-      <c s="6" r="S91"/>
-      <c s="6" r="T91"/>
-      <c s="6" r="U91"/>
-      <c s="6" r="V91"/>
-      <c s="6" r="W91"/>
-      <c s="6" r="X91"/>
-      <c s="6" r="Y91"/>
+      <c s="14" r="E91"/>
+      <c s="14" r="F91"/>
+      <c s="14" r="G91"/>
+      <c s="14" r="H91"/>
+      <c s="14" r="I91"/>
+      <c s="14" r="J91"/>
+      <c s="14" r="K91"/>
+      <c s="41" r="L91"/>
+      <c s="28" r="M91"/>
+      <c s="25" r="N91"/>
+      <c s="5" r="O91"/>
+      <c s="5" r="P91"/>
+      <c s="5" r="Q91"/>
+      <c s="5" r="R91"/>
+      <c s="5" r="S91"/>
+      <c s="5" r="T91"/>
+      <c s="5" r="U91"/>
+      <c s="5" r="V91"/>
+      <c s="5" r="W91"/>
+      <c s="5" r="X91"/>
+      <c s="5" r="Y91"/>
     </row>
     <row r="92">
       <c s="3" r="A92"/>
-      <c s="31" r="B92"/>
-      <c s="5" r="C92"/>
+      <c s="30" r="B92"/>
+      <c s="4" r="C92"/>
       <c s="2" r="D92"/>
-      <c s="15" r="E92"/>
-      <c s="15" r="F92"/>
-      <c s="15" r="G92"/>
-      <c s="15" r="H92"/>
-      <c s="15" r="I92"/>
-      <c s="15" r="J92"/>
-      <c s="15" r="K92"/>
-      <c s="43" r="L92"/>
-      <c s="29" r="M92"/>
-      <c s="26" r="N92"/>
-      <c s="6" r="O92"/>
-      <c s="6" r="P92"/>
-      <c s="6" r="Q92"/>
-      <c s="6" r="R92"/>
-      <c s="6" r="S92"/>
-      <c s="6" r="T92"/>
-      <c s="6" r="U92"/>
-      <c s="6" r="V92"/>
-      <c s="6" r="W92"/>
-      <c s="6" r="X92"/>
-      <c s="6" r="Y92"/>
+      <c s="14" r="E92"/>
+      <c s="14" r="F92"/>
+      <c s="14" r="G92"/>
+      <c s="14" r="H92"/>
+      <c s="14" r="I92"/>
+      <c s="14" r="J92"/>
+      <c s="14" r="K92"/>
+      <c s="41" r="L92"/>
+      <c s="28" r="M92"/>
+      <c s="25" r="N92"/>
+      <c s="5" r="O92"/>
+      <c s="5" r="P92"/>
+      <c s="5" r="Q92"/>
+      <c s="5" r="R92"/>
+      <c s="5" r="S92"/>
+      <c s="5" r="T92"/>
+      <c s="5" r="U92"/>
+      <c s="5" r="V92"/>
+      <c s="5" r="W92"/>
+      <c s="5" r="X92"/>
+      <c s="5" r="Y92"/>
     </row>
     <row r="93">
       <c s="3" r="A93"/>
-      <c s="31" r="B93"/>
-      <c s="5" r="C93"/>
+      <c s="30" r="B93"/>
+      <c s="4" r="C93"/>
       <c s="2" r="D93"/>
-      <c s="15" r="E93"/>
-      <c s="15" r="F93"/>
-      <c s="15" r="G93"/>
-      <c s="15" r="H93"/>
-      <c s="15" r="I93"/>
-      <c s="15" r="J93"/>
-      <c s="15" r="K93"/>
-      <c s="43" r="L93"/>
-      <c s="29" r="M93"/>
-      <c s="26" r="N93"/>
-      <c s="6" r="O93"/>
-      <c s="6" r="P93"/>
-      <c s="6" r="Q93"/>
-      <c s="6" r="R93"/>
-      <c s="6" r="S93"/>
-      <c s="6" r="T93"/>
-      <c s="6" r="U93"/>
-      <c s="6" r="V93"/>
-      <c s="6" r="W93"/>
-      <c s="6" r="X93"/>
-      <c s="6" r="Y93"/>
+      <c s="14" r="E93"/>
+      <c s="14" r="F93"/>
+      <c s="14" r="G93"/>
+      <c s="14" r="H93"/>
+      <c s="14" r="I93"/>
+      <c s="14" r="J93"/>
+      <c s="14" r="K93"/>
+      <c s="41" r="L93"/>
+      <c s="28" r="M93"/>
+      <c s="25" r="N93"/>
+      <c s="5" r="O93"/>
+      <c s="5" r="P93"/>
+      <c s="5" r="Q93"/>
+      <c s="5" r="R93"/>
+      <c s="5" r="S93"/>
+      <c s="5" r="T93"/>
+      <c s="5" r="U93"/>
+      <c s="5" r="V93"/>
+      <c s="5" r="W93"/>
+      <c s="5" r="X93"/>
+      <c s="5" r="Y93"/>
     </row>
     <row r="94">
       <c s="3" r="A94"/>
-      <c s="31" r="B94"/>
-      <c s="5" r="C94"/>
+      <c s="30" r="B94"/>
+      <c s="4" r="C94"/>
       <c s="2" r="D94"/>
-      <c s="15" r="E94"/>
-      <c s="15" r="F94"/>
-      <c s="15" r="G94"/>
-      <c s="15" r="H94"/>
-      <c s="15" r="I94"/>
-      <c s="15" r="J94"/>
-      <c s="15" r="K94"/>
-      <c s="43" r="L94"/>
-      <c s="29" r="M94"/>
-      <c s="26" r="N94"/>
-      <c s="6" r="O94"/>
-      <c s="6" r="P94"/>
-      <c s="6" r="Q94"/>
-      <c s="6" r="R94"/>
-      <c s="6" r="S94"/>
-      <c s="6" r="T94"/>
-      <c s="6" r="U94"/>
-      <c s="6" r="V94"/>
-      <c s="6" r="W94"/>
-      <c s="6" r="X94"/>
-      <c s="6" r="Y94"/>
+      <c s="14" r="E94"/>
+      <c s="14" r="F94"/>
+      <c s="14" r="G94"/>
+      <c s="14" r="H94"/>
+      <c s="14" r="I94"/>
+      <c s="14" r="J94"/>
+      <c s="14" r="K94"/>
+      <c s="41" r="L94"/>
+      <c s="28" r="M94"/>
+      <c s="25" r="N94"/>
+      <c s="5" r="O94"/>
+      <c s="5" r="P94"/>
+      <c s="5" r="Q94"/>
+      <c s="5" r="R94"/>
+      <c s="5" r="S94"/>
+      <c s="5" r="T94"/>
+      <c s="5" r="U94"/>
+      <c s="5" r="V94"/>
+      <c s="5" r="W94"/>
+      <c s="5" r="X94"/>
+      <c s="5" r="Y94"/>
     </row>
     <row r="95">
       <c s="3" r="A95"/>
-      <c s="31" r="B95"/>
-      <c s="5" r="C95"/>
+      <c s="30" r="B95"/>
+      <c s="4" r="C95"/>
       <c s="2" r="D95"/>
-      <c s="15" r="E95"/>
-      <c s="15" r="F95"/>
-      <c s="15" r="G95"/>
-      <c s="15" r="H95"/>
-      <c s="15" r="I95"/>
-      <c s="15" r="J95"/>
-      <c s="15" r="K95"/>
-      <c s="43" r="L95"/>
-      <c s="29" r="M95"/>
-      <c s="26" r="N95"/>
-      <c s="6" r="O95"/>
-      <c s="6" r="P95"/>
-      <c s="6" r="Q95"/>
-      <c s="6" r="R95"/>
-      <c s="6" r="S95"/>
-      <c s="6" r="T95"/>
-      <c s="6" r="U95"/>
-      <c s="6" r="V95"/>
-      <c s="6" r="W95"/>
-      <c s="6" r="X95"/>
-      <c s="6" r="Y95"/>
+      <c s="14" r="E95"/>
+      <c s="14" r="F95"/>
+      <c s="14" r="G95"/>
+      <c s="14" r="H95"/>
+      <c s="14" r="I95"/>
+      <c s="14" r="J95"/>
+      <c s="14" r="K95"/>
+      <c s="41" r="L95"/>
+      <c s="28" r="M95"/>
+      <c s="25" r="N95"/>
+      <c s="5" r="O95"/>
+      <c s="5" r="P95"/>
+      <c s="5" r="Q95"/>
+      <c s="5" r="R95"/>
+      <c s="5" r="S95"/>
+      <c s="5" r="T95"/>
+      <c s="5" r="U95"/>
+      <c s="5" r="V95"/>
+      <c s="5" r="W95"/>
+      <c s="5" r="X95"/>
+      <c s="5" r="Y95"/>
     </row>
     <row r="96">
       <c s="3" r="A96"/>
-      <c s="31" r="B96"/>
-      <c s="5" r="C96"/>
+      <c s="30" r="B96"/>
+      <c s="4" r="C96"/>
       <c s="2" r="D96"/>
-      <c s="15" r="E96"/>
-      <c s="15" r="F96"/>
-      <c s="15" r="G96"/>
-      <c s="15" r="H96"/>
-      <c s="15" r="I96"/>
-      <c s="15" r="J96"/>
-      <c s="15" r="K96"/>
-      <c s="43" r="L96"/>
-      <c s="29" r="M96"/>
-      <c s="26" r="N96"/>
-      <c s="6" r="O96"/>
-      <c s="6" r="P96"/>
-      <c s="6" r="Q96"/>
-      <c s="6" r="R96"/>
-      <c s="6" r="S96"/>
-      <c s="6" r="T96"/>
-      <c s="6" r="U96"/>
-      <c s="6" r="V96"/>
-      <c s="6" r="W96"/>
-      <c s="6" r="X96"/>
-      <c s="6" r="Y96"/>
+      <c s="14" r="E96"/>
+      <c s="14" r="F96"/>
+      <c s="14" r="G96"/>
+      <c s="14" r="H96"/>
+      <c s="14" r="I96"/>
+      <c s="14" r="J96"/>
+      <c s="14" r="K96"/>
+      <c s="41" r="L96"/>
+      <c s="28" r="M96"/>
+      <c s="25" r="N96"/>
+      <c s="5" r="O96"/>
+      <c s="5" r="P96"/>
+      <c s="5" r="Q96"/>
+      <c s="5" r="R96"/>
+      <c s="5" r="S96"/>
+      <c s="5" r="T96"/>
+      <c s="5" r="U96"/>
+      <c s="5" r="V96"/>
+      <c s="5" r="W96"/>
+      <c s="5" r="X96"/>
+      <c s="5" r="Y96"/>
     </row>
     <row r="97">
       <c s="3" r="A97"/>
-      <c s="31" r="B97"/>
-      <c s="5" r="C97"/>
+      <c s="30" r="B97"/>
+      <c s="4" r="C97"/>
       <c s="2" r="D97"/>
-      <c s="15" r="E97"/>
-      <c s="15" r="F97"/>
-      <c s="15" r="G97"/>
-      <c s="15" r="H97"/>
-      <c s="15" r="I97"/>
-      <c s="15" r="J97"/>
-      <c s="15" r="K97"/>
-      <c s="43" r="L97"/>
-      <c s="29" r="M97"/>
-      <c s="26" r="N97"/>
-      <c s="6" r="O97"/>
-      <c s="6" r="P97"/>
-      <c s="6" r="Q97"/>
-      <c s="6" r="R97"/>
-      <c s="6" r="S97"/>
-      <c s="6" r="T97"/>
-      <c s="6" r="U97"/>
-      <c s="6" r="V97"/>
-      <c s="6" r="W97"/>
-      <c s="6" r="X97"/>
-      <c s="6" r="Y97"/>
+      <c s="14" r="E97"/>
+      <c s="14" r="F97"/>
+      <c s="14" r="G97"/>
+      <c s="14" r="H97"/>
+      <c s="14" r="I97"/>
+      <c s="14" r="J97"/>
+      <c s="14" r="K97"/>
+      <c s="41" r="L97"/>
+      <c s="28" r="M97"/>
+      <c s="25" r="N97"/>
+      <c s="5" r="O97"/>
+      <c s="5" r="P97"/>
+      <c s="5" r="Q97"/>
+      <c s="5" r="R97"/>
+      <c s="5" r="S97"/>
+      <c s="5" r="T97"/>
+      <c s="5" r="U97"/>
+      <c s="5" r="V97"/>
+      <c s="5" r="W97"/>
+      <c s="5" r="X97"/>
+      <c s="5" r="Y97"/>
     </row>
     <row r="98">
       <c s="3" r="A98"/>
-      <c s="31" r="B98"/>
-      <c s="5" r="C98"/>
+      <c s="30" r="B98"/>
+      <c s="4" r="C98"/>
       <c s="2" r="D98"/>
-      <c s="15" r="E98"/>
-      <c s="15" r="F98"/>
-      <c s="15" r="G98"/>
-      <c s="15" r="H98"/>
-      <c s="15" r="I98"/>
-      <c s="15" r="J98"/>
-      <c s="15" r="K98"/>
-      <c s="43" r="L98"/>
-      <c s="29" r="M98"/>
-      <c s="26" r="N98"/>
-      <c s="6" r="O98"/>
-      <c s="6" r="P98"/>
-      <c s="6" r="Q98"/>
-      <c s="6" r="R98"/>
-      <c s="6" r="S98"/>
-      <c s="6" r="T98"/>
-      <c s="6" r="U98"/>
-      <c s="6" r="V98"/>
-      <c s="6" r="W98"/>
-      <c s="6" r="X98"/>
-      <c s="6" r="Y98"/>
+      <c s="14" r="E98"/>
+      <c s="14" r="F98"/>
+      <c s="14" r="G98"/>
+      <c s="14" r="H98"/>
+      <c s="14" r="I98"/>
+      <c s="14" r="J98"/>
+      <c s="14" r="K98"/>
+      <c s="41" r="L98"/>
+      <c s="28" r="M98"/>
+      <c s="25" r="N98"/>
+      <c s="5" r="O98"/>
+      <c s="5" r="P98"/>
+      <c s="5" r="Q98"/>
+      <c s="5" r="R98"/>
+      <c s="5" r="S98"/>
+      <c s="5" r="T98"/>
+      <c s="5" r="U98"/>
+      <c s="5" r="V98"/>
+      <c s="5" r="W98"/>
+      <c s="5" r="X98"/>
+      <c s="5" r="Y98"/>
     </row>
     <row r="99">
       <c s="3" r="A99"/>
-      <c s="31" r="B99"/>
-      <c s="5" r="C99"/>
+      <c s="30" r="B99"/>
+      <c s="4" r="C99"/>
       <c s="2" r="D99"/>
-      <c s="15" r="E99"/>
-      <c s="15" r="F99"/>
-      <c s="15" r="G99"/>
-      <c s="15" r="H99"/>
-      <c s="15" r="I99"/>
-      <c s="15" r="J99"/>
-      <c s="15" r="K99"/>
-      <c s="43" r="L99"/>
-      <c s="29" r="M99"/>
-      <c s="26" r="N99"/>
-      <c s="6" r="O99"/>
-      <c s="6" r="P99"/>
-      <c s="6" r="Q99"/>
-      <c s="6" r="R99"/>
-      <c s="6" r="S99"/>
-      <c s="6" r="T99"/>
-      <c s="6" r="U99"/>
-      <c s="6" r="V99"/>
-      <c s="6" r="W99"/>
-      <c s="6" r="X99"/>
-      <c s="6" r="Y99"/>
+      <c s="14" r="E99"/>
+      <c s="14" r="F99"/>
+      <c s="14" r="G99"/>
+      <c s="14" r="H99"/>
+      <c s="14" r="I99"/>
+      <c s="14" r="J99"/>
+      <c s="14" r="K99"/>
+      <c s="41" r="L99"/>
+      <c s="28" r="M99"/>
+      <c s="25" r="N99"/>
+      <c s="5" r="O99"/>
+      <c s="5" r="P99"/>
+      <c s="5" r="Q99"/>
+      <c s="5" r="R99"/>
+      <c s="5" r="S99"/>
+      <c s="5" r="T99"/>
+      <c s="5" r="U99"/>
+      <c s="5" r="V99"/>
+      <c s="5" r="W99"/>
+      <c s="5" r="X99"/>
+      <c s="5" r="Y99"/>
     </row>
     <row r="100">
       <c s="3" r="A100"/>
-      <c s="31" r="B100"/>
-      <c s="5" r="C100"/>
+      <c s="30" r="B100"/>
+      <c s="4" r="C100"/>
       <c s="2" r="D100"/>
-      <c s="15" r="E100"/>
-      <c s="15" r="F100"/>
-      <c s="15" r="G100"/>
-      <c s="15" r="H100"/>
-      <c s="15" r="I100"/>
-      <c s="15" r="J100"/>
-      <c s="15" r="K100"/>
-      <c s="43" r="L100"/>
-      <c s="29" r="M100"/>
-      <c s="26" r="N100"/>
-      <c s="6" r="O100"/>
-      <c s="6" r="P100"/>
-      <c s="6" r="Q100"/>
-      <c s="6" r="R100"/>
-      <c s="6" r="S100"/>
-      <c s="6" r="T100"/>
-      <c s="6" r="U100"/>
-      <c s="6" r="V100"/>
-      <c s="6" r="W100"/>
-      <c s="6" r="X100"/>
-      <c s="6" r="Y100"/>
+      <c s="14" r="E100"/>
+      <c s="14" r="F100"/>
+      <c s="14" r="G100"/>
+      <c s="14" r="H100"/>
+      <c s="14" r="I100"/>
+      <c s="14" r="J100"/>
+      <c s="14" r="K100"/>
+      <c s="41" r="L100"/>
+      <c s="28" r="M100"/>
+      <c s="25" r="N100"/>
+      <c s="5" r="O100"/>
+      <c s="5" r="P100"/>
+      <c s="5" r="Q100"/>
+      <c s="5" r="R100"/>
+      <c s="5" r="S100"/>
+      <c s="5" r="T100"/>
+      <c s="5" r="U100"/>
+      <c s="5" r="V100"/>
+      <c s="5" r="W100"/>
+      <c s="5" r="X100"/>
+      <c s="5" r="Y100"/>
     </row>
     <row r="101">
-      <c s="12" r="A101"/>
-      <c s="18" r="B101"/>
-      <c s="20" r="C101"/>
-      <c s="9" r="D101"/>
-      <c s="38" r="E101"/>
-      <c s="38" r="F101"/>
-      <c s="38" r="G101"/>
-      <c s="38" r="H101"/>
-      <c s="38" r="I101"/>
-      <c s="38" r="J101"/>
-      <c s="38" r="K101"/>
-      <c s="45" r="L101"/>
-      <c s="27" r="M101"/>
-      <c s="39" r="N101"/>
-      <c s="6" r="O101"/>
-      <c s="6" r="P101"/>
-      <c s="6" r="Q101"/>
-      <c s="6" r="R101"/>
-      <c s="6" r="S101"/>
-      <c s="6" r="T101"/>
-      <c s="6" r="U101"/>
-      <c s="6" r="V101"/>
-      <c s="6" r="W101"/>
-      <c s="6" r="X101"/>
-      <c s="6" r="Y101"/>
+      <c s="11" r="A101"/>
+      <c s="17" r="B101"/>
+      <c s="19" r="C101"/>
+      <c s="8" r="D101"/>
+      <c s="36" r="E101"/>
+      <c s="36" r="F101"/>
+      <c s="36" r="G101"/>
+      <c s="36" r="H101"/>
+      <c s="36" r="I101"/>
+      <c s="36" r="J101"/>
+      <c s="36" r="K101"/>
+      <c s="43" r="L101"/>
+      <c s="26" r="M101"/>
+      <c s="37" r="N101"/>
+      <c s="5" r="O101"/>
+      <c s="5" r="P101"/>
+      <c s="5" r="Q101"/>
+      <c s="5" r="R101"/>
+      <c s="5" r="S101"/>
+      <c s="5" r="T101"/>
+      <c s="5" r="U101"/>
+      <c s="5" r="V101"/>
+      <c s="5" r="W101"/>
+      <c s="5" r="X101"/>
+      <c s="5" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6180,6 +6204,37 @@
         <v>8</v>
       </c>
     </row>
+    <row customHeight="1" r="11" ht="21.0">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <f>D11+E11</f>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>SUM(G11:M11)</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c t="s" r="N11">
+        <v>68</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -6253,7 +6308,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6265,13 +6320,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -6282,7 +6337,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -6294,7 +6349,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -6306,7 +6361,7 @@
         <v>2</v>
       </c>
       <c t="s" r="N3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -6317,7 +6372,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6329,13 +6384,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c t="s" r="N4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -6346,7 +6401,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -6358,7 +6413,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6373,7 +6428,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6384,7 +6439,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -6396,7 +6451,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6408,7 +6463,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -6419,7 +6474,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6431,7 +6486,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -6440,7 +6495,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -6451,7 +6506,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6463,7 +6518,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -6475,7 +6530,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -6486,7 +6541,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -6498,13 +6553,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c t="s" r="N9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>8</v>
@@ -6515,7 +6570,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -6527,7 +6582,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6539,7 +6594,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -6550,7 +6605,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -6562,16 +6617,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c t="s" r="N11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="O11">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6701,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6658,7 +6713,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6667,10 +6722,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="O2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -6678,7 +6733,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -6690,7 +6745,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6702,10 +6757,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="O3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -6713,7 +6768,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6725,7 +6780,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6737,10 +6792,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="O4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -6748,7 +6803,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -6760,7 +6815,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6772,10 +6827,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="O5">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -6783,7 +6838,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -6795,16 +6850,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="O6">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -6812,7 +6867,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6824,7 +6879,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6833,10 +6888,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="O7">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -6844,7 +6899,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6856,7 +6911,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6865,10 +6920,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="O8">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -6876,7 +6931,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6888,7 +6943,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6900,10 +6955,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="O9">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -6911,7 +6966,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -6923,7 +6978,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6935,10 +6990,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="O10">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -6946,7 +7001,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -6958,16 +7013,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c t="s" r="N11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="O11">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -7046,7 +7101,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -7058,13 +7113,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -7075,7 +7130,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -7087,7 +7142,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -7096,7 +7151,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -7107,7 +7162,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -7119,7 +7174,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -7128,7 +7183,7 @@
         <v>6.5</v>
       </c>
       <c t="s" r="N4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -7139,7 +7194,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -7151,7 +7206,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7160,7 +7215,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N5">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -7171,7 +7226,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -7183,7 +7238,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -7195,7 +7250,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -7206,7 +7261,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -7218,13 +7273,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -7235,7 +7290,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -7247,13 +7302,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c t="s" r="N8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8">
         <v>12</v>
@@ -7264,7 +7319,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -7276,7 +7331,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -7285,7 +7340,7 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -7296,7 +7351,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -7308,15 +7363,44 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c t="s" r="N10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" r="B11">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>131</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c t="s" r="N11">
+        <v>132</v>
+      </c>
+      <c r="O11">
         <v>12</v>
       </c>
     </row>
@@ -7396,7 +7480,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -7408,7 +7492,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -7420,7 +7504,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -7428,7 +7512,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -7440,7 +7524,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7452,7 +7536,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -7460,7 +7544,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -7472,7 +7556,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7487,7 +7571,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N4">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -7495,7 +7579,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -7507,7 +7591,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7519,7 +7603,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N5">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -7527,7 +7611,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -7539,7 +7623,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7562,7 +7646,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -7574,7 +7658,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7588,7 +7672,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7600,7 +7684,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -7614,7 +7698,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7626,7 +7710,7 @@
         <v>0</v>
       </c>
       <c t="s" r="F9">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7640,7 +7724,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -7652,7 +7736,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -7666,7 +7750,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -7678,7 +7762,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7709,500 +7793,546 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="41" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="41" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="41" r="C1">
-        <v>144</v>
-      </c>
-      <c t="s" s="41" r="D1">
+      <c t="s" s="39" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="39" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="39" r="C1">
+        <v>148</v>
+      </c>
+      <c t="s" s="39" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="41" r="E1">
+      <c t="s" s="39" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="41" r="F1">
+      <c t="s" s="39" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="41" r="G1">
-        <v>145</v>
-      </c>
-      <c t="s" s="41" r="H1">
-        <v>146</v>
-      </c>
-      <c t="s" s="41" r="I1">
-        <v>147</v>
-      </c>
-      <c t="s" s="41" r="J1">
-        <v>148</v>
-      </c>
-      <c t="s" s="41" r="K1">
+      <c t="s" s="39" r="G1">
         <v>149</v>
       </c>
-      <c t="s" s="41" r="L1">
+      <c t="s" s="39" r="H1">
         <v>150</v>
       </c>
-      <c t="s" s="41" r="M1">
+      <c t="s" s="39" r="I1">
         <v>151</v>
       </c>
-      <c t="s" s="41" r="N1">
+      <c t="s" s="39" r="J1">
         <v>152</v>
       </c>
-      <c t="s" s="41" r="O1">
+      <c t="s" s="39" r="K1">
         <v>153</v>
       </c>
-      <c s="30" r="P1"/>
-      <c s="30" r="Q1"/>
-      <c s="30" r="R1"/>
-      <c s="30" r="S1"/>
-      <c s="30" r="T1"/>
-      <c s="30" r="U1"/>
-      <c s="30" r="V1"/>
-      <c s="30" r="W1"/>
-      <c s="30" r="X1"/>
-      <c s="30" r="Y1"/>
-      <c s="30" r="Z1"/>
+      <c t="s" s="39" r="L1">
+        <v>154</v>
+      </c>
+      <c t="s" s="39" r="M1">
+        <v>155</v>
+      </c>
+      <c t="s" s="39" r="N1">
+        <v>156</v>
+      </c>
+      <c t="s" s="39" r="O1">
+        <v>157</v>
+      </c>
+      <c s="29" r="P1"/>
+      <c s="29" r="Q1"/>
+      <c s="29" r="R1"/>
+      <c s="29" r="S1"/>
+      <c s="29" r="T1"/>
+      <c s="29" r="U1"/>
+      <c s="29" r="V1"/>
+      <c s="29" r="W1"/>
+      <c s="29" r="X1"/>
+      <c s="29" r="Y1"/>
+      <c s="29" r="Z1"/>
     </row>
     <row customHeight="1" r="2" ht="51.0">
-      <c s="13" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="B2">
-        <v>154</v>
-      </c>
-      <c s="13" r="C2">
+      <c s="12" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="B2">
+        <v>158</v>
+      </c>
+      <c s="12" r="C2">
         <v>5</v>
       </c>
-      <c s="13" r="D2">
+      <c s="12" r="D2">
         <v>4</v>
       </c>
-      <c s="13" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F2">
-        <v>155</v>
-      </c>
-      <c s="13" r="G2">
+      <c s="12" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F2">
+        <v>159</v>
+      </c>
+      <c s="12" r="G2">
         <v>4</v>
       </c>
-      <c s="13" r="H2"/>
-      <c s="13" r="I2"/>
-      <c s="13" r="J2"/>
-      <c s="13" r="K2"/>
-      <c s="13" r="L2"/>
-      <c s="13" r="M2"/>
-      <c t="s" s="13" r="N2">
-        <v>156</v>
-      </c>
-      <c s="13" r="O2">
+      <c s="12" r="H2"/>
+      <c s="12" r="I2"/>
+      <c s="12" r="J2"/>
+      <c s="12" r="K2"/>
+      <c s="12" r="L2"/>
+      <c s="12" r="M2"/>
+      <c t="s" s="12" r="N2">
+        <v>160</v>
+      </c>
+      <c s="12" r="O2">
         <v>8</v>
       </c>
-      <c s="32" r="P2"/>
-      <c s="32" r="Q2"/>
-      <c s="32" r="R2"/>
-      <c s="32" r="S2"/>
-      <c s="32" r="T2"/>
-      <c s="32" r="U2"/>
-      <c s="32" r="V2"/>
-      <c s="32" r="W2"/>
-      <c s="32" r="X2"/>
-      <c s="32" r="Y2"/>
-      <c s="32" r="Z2"/>
+      <c s="31" r="P2"/>
+      <c s="31" r="Q2"/>
+      <c s="31" r="R2"/>
+      <c s="31" r="S2"/>
+      <c s="31" r="T2"/>
+      <c s="31" r="U2"/>
+      <c s="31" r="V2"/>
+      <c s="31" r="W2"/>
+      <c s="31" r="X2"/>
+      <c s="31" r="Y2"/>
+      <c s="31" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="51.0">
-      <c s="13" r="A3">
+      <c s="12" r="A3">
         <v>2</v>
       </c>
-      <c t="s" s="13" r="B3">
-        <v>154</v>
-      </c>
-      <c s="13" r="C3">
+      <c t="s" s="12" r="B3">
+        <v>158</v>
+      </c>
+      <c s="12" r="C3">
         <v>5</v>
       </c>
-      <c s="13" r="D3">
+      <c s="12" r="D3">
         <v>4</v>
       </c>
-      <c s="13" r="E3">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F3">
-        <v>157</v>
-      </c>
-      <c s="13" r="G3">
+      <c s="12" r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F3">
+        <v>161</v>
+      </c>
+      <c s="12" r="G3">
         <v>3.5</v>
       </c>
-      <c s="13" r="H3">
+      <c s="12" r="H3">
         <v>1.5</v>
       </c>
-      <c s="13" r="I3"/>
-      <c s="13" r="J3"/>
-      <c s="13" r="K3"/>
-      <c s="13" r="L3"/>
-      <c s="13" r="M3"/>
-      <c t="s" s="13" r="N3">
+      <c s="12" r="I3"/>
+      <c s="12" r="J3"/>
+      <c s="12" r="K3"/>
+      <c s="12" r="L3"/>
+      <c s="12" r="M3"/>
+      <c t="s" s="12" r="N3">
+        <v>162</v>
+      </c>
+      <c s="12" r="O3">
+        <v>8</v>
+      </c>
+      <c s="12" r="P3"/>
+      <c s="12" r="Q3"/>
+      <c s="12" r="R3"/>
+      <c s="12" r="S3"/>
+      <c s="12" r="T3"/>
+      <c s="12" r="U3"/>
+      <c s="12" r="V3"/>
+      <c s="12" r="W3"/>
+      <c s="12" r="X3"/>
+      <c s="12" r="Y3"/>
+      <c s="12" r="Z3"/>
+    </row>
+    <row customHeight="1" r="4" ht="51.0">
+      <c s="12" r="A4">
+        <v>3</v>
+      </c>
+      <c t="s" s="12" r="B4">
         <v>158</v>
       </c>
-      <c s="13" r="O3">
+      <c s="12" r="C4">
+        <v>10</v>
+      </c>
+      <c s="12" r="D4">
+        <v>9</v>
+      </c>
+      <c s="12" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F4">
+        <v>163</v>
+      </c>
+      <c s="12" r="G4">
+        <v>4</v>
+      </c>
+      <c s="12" r="H4"/>
+      <c s="12" r="I4"/>
+      <c s="12" r="J4">
+        <v>4</v>
+      </c>
+      <c s="12" r="K4">
+        <v>1</v>
+      </c>
+      <c s="12" r="L4"/>
+      <c s="12" r="M4"/>
+      <c t="s" s="12" r="N4">
+        <v>164</v>
+      </c>
+      <c s="12" r="O4">
+        <v>12</v>
+      </c>
+      <c s="12" r="P4"/>
+      <c s="12" r="Q4"/>
+      <c s="12" r="R4"/>
+      <c s="12" r="S4"/>
+      <c s="12" r="T4"/>
+      <c s="12" r="U4"/>
+      <c s="12" r="V4"/>
+      <c s="12" r="W4"/>
+      <c s="12" r="X4"/>
+      <c s="12" r="Y4"/>
+      <c s="12" r="Z4"/>
+    </row>
+    <row customHeight="1" r="5" ht="51.0">
+      <c s="12" r="A5">
+        <v>4</v>
+      </c>
+      <c t="s" s="12" r="B5">
+        <v>158</v>
+      </c>
+      <c s="12" r="C5">
+        <v>10</v>
+      </c>
+      <c s="12" r="D5">
+        <v>9</v>
+      </c>
+      <c s="12" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F5">
+        <v>165</v>
+      </c>
+      <c s="12" r="G5">
+        <v>6</v>
+      </c>
+      <c s="12" r="H5"/>
+      <c s="12" r="I5"/>
+      <c s="12" r="J5">
+        <v>3</v>
+      </c>
+      <c s="12" r="K5"/>
+      <c s="12" r="L5"/>
+      <c s="12" r="M5"/>
+      <c t="s" s="12" r="N5">
+        <v>166</v>
+      </c>
+      <c s="12" r="O5">
+        <v>12</v>
+      </c>
+      <c s="12" r="P5"/>
+      <c s="12" r="Q5"/>
+      <c s="12" r="R5"/>
+      <c s="12" r="S5"/>
+      <c s="12" r="T5"/>
+      <c s="12" r="U5"/>
+      <c s="12" r="V5"/>
+      <c s="12" r="W5"/>
+      <c s="12" r="X5"/>
+      <c s="12" r="Y5"/>
+      <c s="12" r="Z5"/>
+    </row>
+    <row customHeight="1" r="6" ht="51.0">
+      <c s="12" r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" s="12" r="B6">
+        <v>158</v>
+      </c>
+      <c s="12" r="C6">
+        <v>11</v>
+      </c>
+      <c s="12" r="D6">
+        <v>10</v>
+      </c>
+      <c s="12" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F6">
+        <v>167</v>
+      </c>
+      <c s="12" r="G6">
+        <v>5</v>
+      </c>
+      <c s="12" r="H6"/>
+      <c s="12" r="I6"/>
+      <c s="12" r="J6">
+        <v>4</v>
+      </c>
+      <c s="12" r="K6">
+        <v>1</v>
+      </c>
+      <c s="12" r="L6"/>
+      <c s="12" r="M6"/>
+      <c t="s" s="12" r="N6">
+        <v>168</v>
+      </c>
+      <c s="12" r="O6">
+        <v>12</v>
+      </c>
+      <c s="12" r="P6"/>
+      <c s="12" r="Q6"/>
+      <c s="12" r="R6"/>
+      <c s="12" r="S6"/>
+      <c s="12" r="T6"/>
+      <c s="12" r="U6"/>
+      <c s="12" r="V6"/>
+      <c s="12" r="W6"/>
+      <c s="12" r="X6"/>
+      <c s="12" r="Y6"/>
+      <c s="12" r="Z6"/>
+    </row>
+    <row customHeight="1" r="7" ht="51.0">
+      <c s="12" r="A7">
+        <v>6</v>
+      </c>
+      <c t="s" s="12" r="B7">
+        <v>158</v>
+      </c>
+      <c s="12" r="C7">
+        <v>6</v>
+      </c>
+      <c s="12" r="D7">
+        <v>5</v>
+      </c>
+      <c s="12" r="E7">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F7">
+        <v>169</v>
+      </c>
+      <c s="12" r="G7">
+        <v>5</v>
+      </c>
+      <c s="12" r="H7"/>
+      <c s="12" r="I7"/>
+      <c s="12" r="J7"/>
+      <c s="12" r="K7"/>
+      <c s="12" r="L7"/>
+      <c s="12" r="M7"/>
+      <c t="s" s="12" r="N7">
+        <v>170</v>
+      </c>
+      <c s="12" r="O7">
+        <v>10</v>
+      </c>
+      <c s="12" r="P7"/>
+      <c s="12" r="Q7"/>
+      <c s="12" r="R7"/>
+      <c s="12" r="S7"/>
+      <c s="12" r="T7"/>
+      <c s="12" r="U7"/>
+      <c s="12" r="V7"/>
+      <c s="12" r="W7"/>
+      <c s="12" r="X7"/>
+      <c s="12" r="Y7"/>
+      <c s="12" r="Z7"/>
+    </row>
+    <row customHeight="1" r="8" ht="51.0">
+      <c s="12" r="A8">
+        <v>7</v>
+      </c>
+      <c t="s" s="12" r="B8">
+        <v>158</v>
+      </c>
+      <c s="12" r="C8">
+        <v>8.5</v>
+      </c>
+      <c s="12" r="D8">
+        <v>7.5</v>
+      </c>
+      <c s="12" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F8">
+        <v>171</v>
+      </c>
+      <c s="12" r="G8">
+        <v>2</v>
+      </c>
+      <c s="12" r="H8"/>
+      <c s="12" r="I8"/>
+      <c s="12" r="J8">
+        <v>5</v>
+      </c>
+      <c s="12" r="K8">
+        <v>0.5</v>
+      </c>
+      <c s="12" r="L8"/>
+      <c s="12" r="M8"/>
+      <c t="s" s="12" r="N8">
+        <v>172</v>
+      </c>
+      <c s="12" r="O8">
+        <v>10</v>
+      </c>
+      <c s="12" r="P8"/>
+      <c s="12" r="Q8"/>
+      <c s="12" r="R8"/>
+      <c s="12" r="S8"/>
+      <c s="12" r="T8"/>
+      <c s="12" r="U8"/>
+      <c s="12" r="V8"/>
+      <c s="12" r="W8"/>
+      <c s="12" r="X8"/>
+      <c s="12" r="Y8"/>
+      <c s="12" r="Z8"/>
+    </row>
+    <row customHeight="1" r="9" ht="51.0">
+      <c s="12" r="A9">
         <v>8</v>
       </c>
-      <c s="13" r="P3"/>
-      <c s="13" r="Q3"/>
-      <c s="13" r="R3"/>
-      <c s="13" r="S3"/>
-      <c s="13" r="T3"/>
-      <c s="13" r="U3"/>
-      <c s="13" r="V3"/>
-      <c s="13" r="W3"/>
-      <c s="13" r="X3"/>
-      <c s="13" r="Y3"/>
-      <c s="13" r="Z3"/>
-    </row>
-    <row customHeight="1" r="4" ht="51.0">
-      <c s="13" r="A4">
-        <v>3</v>
-      </c>
-      <c t="s" s="13" r="B4">
-        <v>154</v>
-      </c>
-      <c s="13" r="C4">
+      <c t="s" s="12" r="B9">
+        <v>158</v>
+      </c>
+      <c s="12" r="C9">
         <v>10</v>
       </c>
-      <c s="13" r="D4">
+      <c s="12" r="D9">
         <v>9</v>
       </c>
-      <c s="13" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F4">
-        <v>159</v>
-      </c>
-      <c s="13" r="G4">
-        <v>4</v>
-      </c>
-      <c s="13" r="H4"/>
-      <c s="13" r="I4"/>
-      <c s="13" r="J4">
-        <v>4</v>
-      </c>
-      <c s="13" r="K4">
-        <v>1</v>
-      </c>
-      <c s="13" r="L4"/>
-      <c s="13" r="M4"/>
-      <c t="s" s="13" r="N4">
-        <v>160</v>
-      </c>
-      <c s="13" r="O4">
-        <v>12</v>
-      </c>
-      <c s="13" r="P4"/>
-      <c s="13" r="Q4"/>
-      <c s="13" r="R4"/>
-      <c s="13" r="S4"/>
-      <c s="13" r="T4"/>
-      <c s="13" r="U4"/>
-      <c s="13" r="V4"/>
-      <c s="13" r="W4"/>
-      <c s="13" r="X4"/>
-      <c s="13" r="Y4"/>
-      <c s="13" r="Z4"/>
-    </row>
-    <row customHeight="1" r="5" ht="51.0">
-      <c s="13" r="A5">
-        <v>4</v>
-      </c>
-      <c t="s" s="13" r="B5">
-        <v>154</v>
-      </c>
-      <c s="13" r="C5">
+      <c s="12" r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F9">
+        <v>173</v>
+      </c>
+      <c s="12" r="G9"/>
+      <c s="12" r="H9"/>
+      <c s="12" r="I9"/>
+      <c s="12" r="J9">
+        <v>6.5</v>
+      </c>
+      <c s="12" r="K9">
+        <v>2</v>
+      </c>
+      <c s="12" r="L9">
+        <v>0.5</v>
+      </c>
+      <c s="12" r="M9"/>
+      <c t="s" s="12" r="N9">
+        <v>174</v>
+      </c>
+      <c s="12" r="O9">
         <v>10</v>
       </c>
-      <c s="13" r="D5">
+      <c s="12" r="P9"/>
+      <c s="12" r="Q9"/>
+      <c s="12" r="R9"/>
+      <c s="12" r="S9"/>
+      <c s="12" r="T9"/>
+      <c s="12" r="U9"/>
+      <c s="12" r="V9"/>
+      <c s="12" r="W9"/>
+      <c s="12" r="X9"/>
+      <c s="12" r="Y9"/>
+      <c s="12" r="Z9"/>
+    </row>
+    <row customHeight="1" r="10" ht="52.5">
+      <c s="12" r="A10">
         <v>9</v>
       </c>
-      <c s="13" r="E5">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F5">
-        <v>161</v>
-      </c>
-      <c s="13" r="G5">
-        <v>6</v>
-      </c>
-      <c s="13" r="H5"/>
-      <c s="13" r="I5"/>
-      <c s="13" r="J5">
-        <v>3</v>
-      </c>
-      <c s="13" r="K5"/>
-      <c s="13" r="L5"/>
-      <c s="13" r="M5"/>
-      <c t="s" s="13" r="N5">
-        <v>162</v>
-      </c>
-      <c s="13" r="O5">
-        <v>12</v>
-      </c>
-      <c s="13" r="P5"/>
-      <c s="13" r="Q5"/>
-      <c s="13" r="R5"/>
-      <c s="13" r="S5"/>
-      <c s="13" r="T5"/>
-      <c s="13" r="U5"/>
-      <c s="13" r="V5"/>
-      <c s="13" r="W5"/>
-      <c s="13" r="X5"/>
-      <c s="13" r="Y5"/>
-      <c s="13" r="Z5"/>
-    </row>
-    <row customHeight="1" r="6" ht="51.0">
-      <c s="13" r="A6">
-        <v>5</v>
-      </c>
-      <c t="s" s="13" r="B6">
-        <v>154</v>
-      </c>
-      <c s="13" r="C6">
-        <v>11</v>
-      </c>
-      <c s="13" r="D6">
+      <c t="s" s="12" r="B10">
+        <v>158</v>
+      </c>
+      <c s="12" r="C10">
+        <v>9</v>
+      </c>
+      <c s="12" r="D10">
+        <v>7</v>
+      </c>
+      <c s="12" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F10">
+        <v>175</v>
+      </c>
+      <c s="12" r="G10">
+        <v>2</v>
+      </c>
+      <c s="12" r="H10"/>
+      <c s="12" r="I10"/>
+      <c s="12" r="J10"/>
+      <c s="12" r="K10">
+        <v>2.5</v>
+      </c>
+      <c s="12" r="L10">
+        <v>3.5</v>
+      </c>
+      <c s="12" r="M10"/>
+      <c t="s" s="12" r="N10">
+        <v>176</v>
+      </c>
+      <c s="12" r="O10">
         <v>10</v>
       </c>
-      <c s="13" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F6">
-        <v>163</v>
-      </c>
-      <c s="13" r="G6">
-        <v>5</v>
-      </c>
-      <c s="13" r="H6"/>
-      <c s="13" r="I6"/>
-      <c s="13" r="J6">
-        <v>4</v>
-      </c>
-      <c s="13" r="K6">
-        <v>1</v>
-      </c>
-      <c s="13" r="L6"/>
-      <c s="13" r="M6"/>
-      <c t="s" s="13" r="N6">
-        <v>164</v>
-      </c>
-      <c s="13" r="O6">
-        <v>12</v>
-      </c>
-      <c s="13" r="P6"/>
-      <c s="13" r="Q6"/>
-      <c s="13" r="R6"/>
-      <c s="13" r="S6"/>
-      <c s="13" r="T6"/>
-      <c s="13" r="U6"/>
-      <c s="13" r="V6"/>
-      <c s="13" r="W6"/>
-      <c s="13" r="X6"/>
-      <c s="13" r="Y6"/>
-      <c s="13" r="Z6"/>
-    </row>
-    <row customHeight="1" r="7" ht="51.0">
-      <c s="13" r="A7">
-        <v>6</v>
-      </c>
-      <c t="s" s="13" r="B7">
-        <v>154</v>
-      </c>
-      <c s="13" r="C7">
-        <v>6</v>
-      </c>
-      <c s="13" r="D7">
-        <v>5</v>
-      </c>
-      <c s="13" r="E7">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F7">
-        <v>165</v>
-      </c>
-      <c s="13" r="G7">
-        <v>5</v>
-      </c>
-      <c s="13" r="H7"/>
-      <c s="13" r="I7"/>
-      <c s="13" r="J7"/>
-      <c s="13" r="K7"/>
-      <c s="13" r="L7"/>
-      <c s="13" r="M7"/>
-      <c t="s" s="13" r="N7">
-        <v>166</v>
-      </c>
-      <c s="13" r="O7">
+      <c s="12" r="P10"/>
+      <c s="12" r="Q10"/>
+      <c s="12" r="R10"/>
+      <c s="12" r="S10"/>
+      <c s="12" r="T10"/>
+      <c s="12" r="U10"/>
+      <c s="12" r="V10"/>
+      <c s="12" r="W10"/>
+      <c s="12" r="X10"/>
+      <c s="12" r="Y10"/>
+      <c s="12" r="Z10"/>
+    </row>
+    <row customHeight="1" r="11" ht="51.0">
+      <c s="12" r="A11">
         <v>10</v>
       </c>
-      <c s="13" r="P7"/>
-      <c s="13" r="Q7"/>
-      <c s="13" r="R7"/>
-      <c s="13" r="S7"/>
-      <c s="13" r="T7"/>
-      <c s="13" r="U7"/>
-      <c s="13" r="V7"/>
-      <c s="13" r="W7"/>
-      <c s="13" r="X7"/>
-      <c s="13" r="Y7"/>
-      <c s="13" r="Z7"/>
-    </row>
-    <row customHeight="1" r="8" ht="51.0">
-      <c s="13" r="A8">
+      <c t="s" s="12" r="B11">
+        <v>158</v>
+      </c>
+      <c s="12" r="C11">
+        <v>10</v>
+      </c>
+      <c s="12" r="D11">
+        <v>9</v>
+      </c>
+      <c s="12" r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" s="12" r="F11">
+        <v>177</v>
+      </c>
+      <c s="12" r="G11"/>
+      <c s="12" r="H11"/>
+      <c s="12" r="I11"/>
+      <c s="12" r="J11">
         <v>7</v>
       </c>
-      <c t="s" s="13" r="B8">
-        <v>154</v>
-      </c>
-      <c s="13" r="C8">
-        <v>8.5</v>
-      </c>
-      <c s="13" r="D8">
-        <v>7.5</v>
-      </c>
-      <c s="13" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F8">
-        <v>167</v>
-      </c>
-      <c s="13" r="G8">
-        <v>2</v>
-      </c>
-      <c s="13" r="H8"/>
-      <c s="13" r="I8"/>
-      <c s="13" r="J8">
-        <v>5</v>
-      </c>
-      <c s="13" r="K8">
-        <v>0.5</v>
-      </c>
-      <c s="13" r="L8"/>
-      <c s="13" r="M8"/>
-      <c t="s" s="13" r="N8">
-        <v>168</v>
-      </c>
-      <c s="13" r="O8">
+      <c s="12" r="K11"/>
+      <c s="12" r="L11"/>
+      <c s="12" r="M11"/>
+      <c t="s" s="12" r="N11">
+        <v>178</v>
+      </c>
+      <c s="12" r="O11">
         <v>10</v>
       </c>
-      <c s="13" r="P8"/>
-      <c s="13" r="Q8"/>
-      <c s="13" r="R8"/>
-      <c s="13" r="S8"/>
-      <c s="13" r="T8"/>
-      <c s="13" r="U8"/>
-      <c s="13" r="V8"/>
-      <c s="13" r="W8"/>
-      <c s="13" r="X8"/>
-      <c s="13" r="Y8"/>
-      <c s="13" r="Z8"/>
-    </row>
-    <row customHeight="1" r="9" ht="51.0">
-      <c s="13" r="A9">
-        <v>8</v>
-      </c>
-      <c t="s" s="13" r="B9">
-        <v>154</v>
-      </c>
-      <c s="13" r="C9">
-        <v>10</v>
-      </c>
-      <c s="13" r="D9">
-        <v>9</v>
-      </c>
-      <c s="13" r="E9">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F9">
-        <v>169</v>
-      </c>
-      <c s="13" r="G9"/>
-      <c s="13" r="H9"/>
-      <c s="13" r="I9"/>
-      <c s="13" r="J9">
-        <v>6.5</v>
-      </c>
-      <c s="13" r="K9">
-        <v>2</v>
-      </c>
-      <c s="13" r="L9">
-        <v>0.5</v>
-      </c>
-      <c s="13" r="M9"/>
-      <c t="s" s="13" r="N9">
-        <v>170</v>
-      </c>
-      <c s="13" r="O9">
-        <v>10</v>
-      </c>
-      <c s="13" r="P9"/>
-      <c s="13" r="Q9"/>
-      <c s="13" r="R9"/>
-      <c s="13" r="S9"/>
-      <c s="13" r="T9"/>
-      <c s="13" r="U9"/>
-      <c s="13" r="V9"/>
-      <c s="13" r="W9"/>
-      <c s="13" r="X9"/>
-      <c s="13" r="Y9"/>
-      <c s="13" r="Z9"/>
-    </row>
-    <row customHeight="1" r="10" ht="52.5">
-      <c s="13" r="A10">
-        <v>9</v>
-      </c>
-      <c t="s" s="13" r="B10">
-        <v>154</v>
-      </c>
-      <c s="13" r="C10">
-        <v>9</v>
-      </c>
-      <c s="13" r="D10">
-        <v>7</v>
-      </c>
-      <c s="13" r="E10">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F10">
-        <v>171</v>
-      </c>
-      <c s="13" r="G10">
-        <v>2</v>
-      </c>
-      <c s="13" r="H10"/>
-      <c s="13" r="I10"/>
-      <c s="13" r="J10"/>
-      <c s="13" r="K10">
-        <v>2.5</v>
-      </c>
-      <c s="13" r="L10">
-        <v>3.5</v>
-      </c>
-      <c s="13" r="M10"/>
-      <c t="s" s="13" r="N10">
-        <v>172</v>
-      </c>
-      <c s="13" r="O10">
-        <v>10</v>
-      </c>
-      <c s="13" r="P10"/>
-      <c s="13" r="Q10"/>
-      <c s="13" r="R10"/>
-      <c s="13" r="S10"/>
-      <c s="13" r="T10"/>
-      <c s="13" r="U10"/>
-      <c s="13" r="V10"/>
-      <c s="13" r="W10"/>
-      <c s="13" r="X10"/>
-      <c s="13" r="Y10"/>
-      <c s="13" r="Z10"/>
+      <c s="12" r="P11"/>
+      <c s="12" r="Q11"/>
+      <c s="12" r="R11"/>
+      <c s="12" r="S11"/>
+      <c s="12" r="T11"/>
+      <c s="12" r="U11"/>
+      <c s="12" r="V11"/>
+      <c s="12" r="W11"/>
+      <c s="12" r="X11"/>
+      <c s="12" r="Y11"/>
+      <c s="12" r="Z11"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>week #</t>
   </si>
@@ -597,13 +597,6 @@
     <t>Continue to work on take survey page</t>
   </si>
   <si>
-    <t>3 - Complete take survey page</t>
-  </si>
-  <si>
-    <t>Help with report page
-Presentation notes</t>
-  </si>
-  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -840,13 +833,6 @@
   </si>
   <si>
     <t>1. Finish implementing survey/take</t>
-  </si>
-  <si>
-    <t>3 - Completed take survey, along with authentication for taking and cookie authetication</t>
-  </si>
-  <si>
-    <t>1. Help Gloria with contact page
-2. Work on reports</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -1062,16 +1048,6 @@
     <t>Create new branch - Report
 Implement report page
 Add more test cases</t>
-  </si>
-  <si>
-    <t>0 - Display interactive charts using Yii
-3 - Reports view, added Yii plugin for charts
-3 - Controller for reports (in SiteController)</t>
-  </si>
-  <si>
-    <t>Finish report page
-Work on testing document
-Prepare for presentation</t>
   </si>
 </sst>
 </file>
@@ -1253,6 +1229,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1343,7 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,7 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
+        <fgColor rgb="FFDD7E6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1397,7 +1385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,12 +1415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1445,13 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,94 +1469,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1601,6 +1492,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1617,10 +1532,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1630,25 +1545,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1695,9 +1595,87 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1714,6 +1692,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1798,6 +1789,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1908,37 +1914,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1976,16 +1952,16 @@
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="1" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" fontId="0">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="5" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="6" fontId="0" applyFill="1">
@@ -2000,113 +1976,113 @@
     <xf applyBorder="1" applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="9" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="1" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="2" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="2" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="4" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="5" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="5" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="6" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="7" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="6" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="22" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="7" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="8" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="9" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="10" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="27" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="11" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="10" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="31" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="12" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="34" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="33" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="34" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="36" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="33" xfId="0" numFmtId="0" borderId="35" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="37" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="36" applyFont="1" fontId="12" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="14" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="35" xfId="0" numFmtId="0" borderId="37" applyFont="1" fontId="13" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+    <xf applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="14" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="15" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
@@ -2186,62 +2162,62 @@
       </c>
     </row>
     <row customHeight="1" r="2" ht="51.75">
-      <c s="46" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="46" r="B2">
+      <c s="47" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="B2">
         <v>15</v>
       </c>
-      <c s="46" r="C2">
+      <c s="47" r="C2">
         <v>7</v>
       </c>
-      <c s="46" r="D2">
+      <c s="47" r="D2">
         <v>6</v>
       </c>
-      <c s="46" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="46" r="F2">
+      <c s="47" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F2">
         <v>16</v>
       </c>
-      <c s="46" r="G2">
-        <v>1</v>
-      </c>
-      <c s="46" r="H2">
-        <v>1</v>
-      </c>
-      <c s="46" r="I2">
-        <v>0</v>
-      </c>
-      <c s="46" r="J2">
-        <v>0</v>
-      </c>
-      <c s="46" r="K2">
-        <v>0</v>
-      </c>
-      <c s="46" r="L2">
+      <c s="47" r="G2">
+        <v>1</v>
+      </c>
+      <c s="47" r="H2">
+        <v>1</v>
+      </c>
+      <c s="47" r="I2">
+        <v>0</v>
+      </c>
+      <c s="47" r="J2">
+        <v>0</v>
+      </c>
+      <c s="47" r="K2">
+        <v>0</v>
+      </c>
+      <c s="47" r="L2">
         <v>2</v>
       </c>
-      <c s="46" r="M2">
+      <c s="47" r="M2">
         <v>2</v>
       </c>
-      <c t="s" s="46" r="N2">
+      <c t="s" s="47" r="N2">
         <v>17</v>
       </c>
-      <c s="46" r="O2">
+      <c s="47" r="O2">
         <v>10</v>
       </c>
-      <c s="46" r="P2"/>
-      <c s="46" r="Q2"/>
-      <c s="46" r="R2"/>
-      <c s="46" r="S2"/>
-      <c s="46" r="T2"/>
-      <c s="46" r="U2"/>
-      <c s="46" r="V2"/>
-      <c s="46" r="W2"/>
-      <c s="46" r="X2"/>
-      <c s="46" r="Y2"/>
-      <c s="46" r="Z2"/>
+      <c s="47" r="P2"/>
+      <c s="47" r="Q2"/>
+      <c s="47" r="R2"/>
+      <c s="47" r="S2"/>
+      <c s="47" r="T2"/>
+      <c s="47" r="U2"/>
+      <c s="47" r="V2"/>
+      <c s="47" r="W2"/>
+      <c s="47" r="X2"/>
+      <c s="47" r="Y2"/>
+      <c s="47" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="74.25">
       <c s="1" r="A3">
@@ -2302,62 +2278,62 @@
       <c s="1" r="Z3"/>
     </row>
     <row r="4">
-      <c s="46" r="A4">
+      <c s="47" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="46" r="B4">
+      <c t="s" s="47" r="B4">
         <v>15</v>
       </c>
-      <c s="46" r="C4">
+      <c s="47" r="C4">
         <v>9</v>
       </c>
-      <c s="46" r="D4">
+      <c s="47" r="D4">
         <v>8</v>
       </c>
-      <c s="46" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="46" r="F4">
+      <c s="47" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F4">
         <v>20</v>
       </c>
-      <c s="46" r="G4">
+      <c s="47" r="G4">
         <v>3</v>
       </c>
-      <c s="46" r="H4">
+      <c s="47" r="H4">
         <v>2</v>
       </c>
-      <c s="46" r="I4">
-        <v>1</v>
-      </c>
-      <c s="46" r="J4">
-        <v>1</v>
-      </c>
-      <c s="46" r="K4">
-        <v>0</v>
-      </c>
-      <c s="46" r="L4">
-        <v>1</v>
-      </c>
-      <c s="46" r="M4">
-        <v>0</v>
-      </c>
-      <c t="s" s="46" r="N4">
+      <c s="47" r="I4">
+        <v>1</v>
+      </c>
+      <c s="47" r="J4">
+        <v>1</v>
+      </c>
+      <c s="47" r="K4">
+        <v>0</v>
+      </c>
+      <c s="47" r="L4">
+        <v>1</v>
+      </c>
+      <c s="47" r="M4">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N4">
         <v>21</v>
       </c>
-      <c s="46" r="O4">
+      <c s="47" r="O4">
         <v>10</v>
       </c>
-      <c s="46" r="P4"/>
-      <c s="46" r="Q4"/>
-      <c s="46" r="R4"/>
-      <c s="46" r="S4"/>
-      <c s="46" r="T4"/>
-      <c s="46" r="U4"/>
-      <c s="46" r="V4"/>
-      <c s="46" r="W4"/>
-      <c s="46" r="X4"/>
-      <c s="46" r="Y4"/>
-      <c s="46" r="Z4"/>
+      <c s="47" r="P4"/>
+      <c s="47" r="Q4"/>
+      <c s="47" r="R4"/>
+      <c s="47" r="S4"/>
+      <c s="47" r="T4"/>
+      <c s="47" r="U4"/>
+      <c s="47" r="V4"/>
+      <c s="47" r="W4"/>
+      <c s="47" r="X4"/>
+      <c s="47" r="Y4"/>
+      <c s="47" r="Z4"/>
     </row>
     <row r="5">
       <c s="1" r="A5">
@@ -2418,62 +2394,62 @@
       <c s="1" r="Z5"/>
     </row>
     <row r="6">
-      <c s="46" r="A6">
+      <c s="47" r="A6">
         <v>5</v>
       </c>
-      <c t="s" s="46" r="B6">
+      <c t="s" s="47" r="B6">
         <v>15</v>
       </c>
-      <c s="46" r="C6">
+      <c s="47" r="C6">
         <v>15</v>
       </c>
-      <c s="46" r="D6">
+      <c s="47" r="D6">
         <v>14</v>
       </c>
-      <c s="46" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="46" r="F6">
+      <c s="47" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F6">
         <v>24</v>
       </c>
-      <c s="46" r="G6">
-        <v>0</v>
-      </c>
-      <c s="46" r="H6">
-        <v>0</v>
-      </c>
-      <c s="46" r="I6">
-        <v>0</v>
-      </c>
-      <c s="46" r="J6">
+      <c s="47" r="G6">
+        <v>0</v>
+      </c>
+      <c s="47" r="H6">
+        <v>0</v>
+      </c>
+      <c s="47" r="I6">
+        <v>0</v>
+      </c>
+      <c s="47" r="J6">
         <v>10</v>
       </c>
-      <c s="46" r="K6">
-        <v>0</v>
-      </c>
-      <c s="46" r="L6">
+      <c s="47" r="K6">
+        <v>0</v>
+      </c>
+      <c s="47" r="L6">
         <v>4</v>
       </c>
-      <c s="46" r="M6">
-        <v>0</v>
-      </c>
-      <c t="s" s="46" r="N6">
+      <c s="47" r="M6">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N6">
         <v>25</v>
       </c>
-      <c s="46" r="O6">
+      <c s="47" r="O6">
         <v>7</v>
       </c>
-      <c s="46" r="P6"/>
-      <c s="46" r="Q6"/>
-      <c s="46" r="R6"/>
-      <c s="46" r="S6"/>
-      <c s="46" r="T6"/>
-      <c s="46" r="U6"/>
-      <c s="46" r="V6"/>
-      <c s="46" r="W6"/>
-      <c s="46" r="X6"/>
-      <c s="46" r="Y6"/>
-      <c s="46" r="Z6"/>
+      <c s="47" r="P6"/>
+      <c s="47" r="Q6"/>
+      <c s="47" r="R6"/>
+      <c s="47" r="S6"/>
+      <c s="47" r="T6"/>
+      <c s="47" r="U6"/>
+      <c s="47" r="V6"/>
+      <c s="47" r="W6"/>
+      <c s="47" r="X6"/>
+      <c s="47" r="Y6"/>
+      <c s="47" r="Z6"/>
     </row>
     <row r="7">
       <c s="1" r="A7">
@@ -2534,62 +2510,62 @@
       <c s="1" r="Z7"/>
     </row>
     <row r="8">
-      <c s="46" r="A8">
+      <c s="47" r="A8">
         <v>7</v>
       </c>
-      <c t="s" s="46" r="B8">
+      <c t="s" s="47" r="B8">
         <v>15</v>
       </c>
-      <c s="46" r="C8">
+      <c s="47" r="C8">
         <v>6</v>
       </c>
-      <c s="46" r="D8">
+      <c s="47" r="D8">
         <v>5</v>
       </c>
-      <c s="46" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="46" r="F8">
+      <c s="47" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F8">
         <v>28</v>
       </c>
-      <c s="46" r="G8">
-        <v>0</v>
-      </c>
-      <c s="46" r="H8">
-        <v>0</v>
-      </c>
-      <c s="46" r="I8">
-        <v>0</v>
-      </c>
-      <c s="46" r="J8">
+      <c s="47" r="G8">
+        <v>0</v>
+      </c>
+      <c s="47" r="H8">
+        <v>0</v>
+      </c>
+      <c s="47" r="I8">
+        <v>0</v>
+      </c>
+      <c s="47" r="J8">
         <v>3</v>
       </c>
-      <c s="46" r="K8">
-        <v>0</v>
-      </c>
-      <c s="46" r="L8">
+      <c s="47" r="K8">
+        <v>0</v>
+      </c>
+      <c s="47" r="L8">
         <v>2</v>
       </c>
-      <c s="46" r="M8">
-        <v>0</v>
-      </c>
-      <c t="s" s="46" r="N8">
+      <c s="47" r="M8">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N8">
         <v>29</v>
       </c>
-      <c s="46" r="O8">
+      <c s="47" r="O8">
         <v>12</v>
       </c>
-      <c s="46" r="P8"/>
-      <c s="46" r="Q8"/>
-      <c s="46" r="R8"/>
-      <c s="46" r="S8"/>
-      <c s="46" r="T8"/>
-      <c s="46" r="U8"/>
-      <c s="46" r="V8"/>
-      <c s="46" r="W8"/>
-      <c s="46" r="X8"/>
-      <c s="46" r="Y8"/>
-      <c s="46" r="Z8"/>
+      <c s="47" r="P8"/>
+      <c s="47" r="Q8"/>
+      <c s="47" r="R8"/>
+      <c s="47" r="S8"/>
+      <c s="47" r="T8"/>
+      <c s="47" r="U8"/>
+      <c s="47" r="V8"/>
+      <c s="47" r="W8"/>
+      <c s="47" r="X8"/>
+      <c s="47" r="Y8"/>
+      <c s="47" r="Z8"/>
     </row>
     <row r="9">
       <c s="1" r="A9">
@@ -2650,62 +2626,62 @@
       <c s="1" r="Z9"/>
     </row>
     <row r="10">
-      <c s="46" r="A10">
+      <c s="47" r="A10">
         <v>9</v>
       </c>
-      <c t="s" s="46" r="B10">
+      <c t="s" s="47" r="B10">
         <v>32</v>
       </c>
-      <c s="46" r="C10">
+      <c s="47" r="C10">
         <v>8</v>
       </c>
-      <c s="46" r="D10">
+      <c s="47" r="D10">
         <v>7</v>
       </c>
-      <c s="46" r="E10">
-        <v>1</v>
-      </c>
-      <c t="s" s="46" r="F10">
+      <c s="47" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="47" r="F10">
         <v>33</v>
       </c>
-      <c s="46" r="G10">
-        <v>0</v>
-      </c>
-      <c s="46" r="H10">
-        <v>0</v>
-      </c>
-      <c s="46" r="I10">
-        <v>0</v>
-      </c>
-      <c s="46" r="J10">
+      <c s="47" r="G10">
+        <v>0</v>
+      </c>
+      <c s="47" r="H10">
+        <v>0</v>
+      </c>
+      <c s="47" r="I10">
+        <v>0</v>
+      </c>
+      <c s="47" r="J10">
         <v>4</v>
       </c>
-      <c s="46" r="K10">
-        <v>0</v>
-      </c>
-      <c s="46" r="L10">
+      <c s="47" r="K10">
+        <v>0</v>
+      </c>
+      <c s="47" r="L10">
         <v>3</v>
       </c>
-      <c s="46" r="M10">
-        <v>0</v>
-      </c>
-      <c t="s" s="46" r="N10">
+      <c s="47" r="M10">
+        <v>0</v>
+      </c>
+      <c t="s" s="47" r="N10">
         <v>34</v>
       </c>
-      <c s="46" r="O10">
+      <c s="47" r="O10">
         <v>7</v>
       </c>
-      <c s="46" r="P10"/>
-      <c s="46" r="Q10"/>
-      <c s="46" r="R10"/>
-      <c s="46" r="S10"/>
-      <c s="46" r="T10"/>
-      <c s="46" r="U10"/>
-      <c s="46" r="V10"/>
-      <c s="46" r="W10"/>
-      <c s="46" r="X10"/>
-      <c s="46" r="Y10"/>
-      <c s="46" r="Z10"/>
+      <c s="47" r="P10"/>
+      <c s="47" r="Q10"/>
+      <c s="47" r="R10"/>
+      <c s="47" r="S10"/>
+      <c s="47" r="T10"/>
+      <c s="47" r="U10"/>
+      <c s="47" r="V10"/>
+      <c s="47" r="W10"/>
+      <c s="47" r="X10"/>
+      <c s="47" r="Y10"/>
+      <c s="47" r="Z10"/>
     </row>
     <row r="11">
       <c s="1" r="A11">
@@ -2789,3051 +2765,3051 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="35" r="A1">
+      <c t="s" s="28" r="A1">
         <v>37</v>
       </c>
-      <c t="s" s="44" r="B1">
+      <c t="s" s="23" r="B1">
         <v>38</v>
       </c>
-      <c t="s" s="24" r="C1">
+      <c t="s" s="48" r="C1">
         <v>39</v>
       </c>
-      <c t="s" s="47" r="D1">
+      <c t="s" s="37" r="D1">
         <v>4</v>
       </c>
-      <c t="s" s="18" r="E1">
+      <c t="s" s="19" r="E1">
         <v>40</v>
       </c>
-      <c s="18" r="F1"/>
-      <c s="18" r="G1"/>
-      <c s="18" r="H1"/>
-      <c s="18" r="I1"/>
-      <c s="18" r="J1"/>
-      <c s="18" r="K1"/>
-      <c t="s" s="27" r="L1">
+      <c s="19" r="F1"/>
+      <c s="19" r="G1"/>
+      <c s="19" r="H1"/>
+      <c s="19" r="I1"/>
+      <c s="19" r="J1"/>
+      <c s="19" r="K1"/>
+      <c t="s" s="4" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="48" r="M1">
+      <c t="s" s="34" r="M1">
         <v>14</v>
       </c>
-      <c s="6" r="N1"/>
-      <c s="5" r="O1"/>
-      <c s="5" r="P1"/>
-      <c s="5" r="Q1"/>
-      <c s="5" r="R1"/>
-      <c s="5" r="S1"/>
-      <c s="5" r="T1"/>
-      <c s="5" r="U1"/>
-      <c s="5" r="V1"/>
-      <c s="5" r="W1"/>
-      <c s="5" r="X1"/>
-      <c s="5" r="Y1"/>
+      <c s="7" r="N1"/>
+      <c s="6" r="O1"/>
+      <c s="6" r="P1"/>
+      <c s="6" r="Q1"/>
+      <c s="6" r="R1"/>
+      <c s="6" r="S1"/>
+      <c s="6" r="T1"/>
+      <c s="6" r="U1"/>
+      <c s="6" r="V1"/>
+      <c s="6" r="W1"/>
+      <c s="6" r="X1"/>
+      <c s="6" r="Y1"/>
     </row>
     <row r="2">
-      <c s="21" r="A2"/>
-      <c s="32" r="B2"/>
-      <c s="45" r="C2"/>
-      <c s="16" r="D2"/>
-      <c t="s" s="18" r="E2">
+      <c s="22" r="A2"/>
+      <c s="33" r="B2"/>
+      <c s="46" r="C2"/>
+      <c s="17" r="D2"/>
+      <c t="s" s="19" r="E2">
         <v>41</v>
       </c>
-      <c t="s" s="18" r="F2">
+      <c t="s" s="19" r="F2">
         <v>42</v>
       </c>
-      <c t="s" s="18" r="G2">
+      <c t="s" s="19" r="G2">
         <v>43</v>
       </c>
-      <c t="s" s="18" r="H2">
+      <c t="s" s="19" r="H2">
         <v>44</v>
       </c>
-      <c t="s" s="18" r="I2">
+      <c t="s" s="19" r="I2">
         <v>45</v>
       </c>
-      <c t="s" s="18" r="J2">
+      <c t="s" s="19" r="J2">
         <v>46</v>
       </c>
-      <c t="s" s="18" r="K2">
+      <c t="s" s="19" r="K2">
         <v>47</v>
       </c>
-      <c s="15" r="L2"/>
-      <c s="13" r="M2"/>
-      <c s="25" r="N2"/>
-      <c s="5" r="O2"/>
-      <c s="5" r="P2"/>
-      <c s="5" r="Q2"/>
-      <c s="5" r="R2"/>
-      <c s="5" r="S2"/>
-      <c s="5" r="T2"/>
-      <c s="5" r="U2"/>
-      <c s="5" r="V2"/>
-      <c s="5" r="W2"/>
-      <c s="5" r="X2"/>
-      <c s="5" r="Y2"/>
+      <c s="16" r="L2"/>
+      <c s="14" r="M2"/>
+      <c s="26" r="N2"/>
+      <c s="6" r="O2"/>
+      <c s="6" r="P2"/>
+      <c s="6" r="Q2"/>
+      <c s="6" r="R2"/>
+      <c s="6" r="S2"/>
+      <c s="6" r="T2"/>
+      <c s="6" r="U2"/>
+      <c s="6" r="V2"/>
+      <c s="6" r="W2"/>
+      <c s="6" r="X2"/>
+      <c s="6" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
       <c s="3" r="A3">
         <v>1</v>
       </c>
-      <c s="33" r="B3">
+      <c s="35" r="B3">
         <f>SUM(C3:D3)</f>
         <v>5</v>
       </c>
-      <c s="10" r="C3">
+      <c s="11" r="C3">
         <f>SUM(E3:K3)</f>
         <v>4</v>
       </c>
-      <c s="34" r="D3">
-        <v>1</v>
-      </c>
-      <c s="7" r="E3">
-        <v>0</v>
-      </c>
-      <c s="7" r="F3">
-        <v>1</v>
-      </c>
-      <c s="7" r="G3">
-        <v>0</v>
-      </c>
-      <c s="7" r="H3">
-        <v>1</v>
-      </c>
-      <c s="7" r="I3">
-        <v>0</v>
-      </c>
-      <c s="7" r="J3">
-        <v>1</v>
-      </c>
-      <c s="7" r="K3">
-        <v>1</v>
-      </c>
-      <c s="40" r="L3">
+      <c s="36" r="D3">
+        <v>1</v>
+      </c>
+      <c s="8" r="E3">
+        <v>0</v>
+      </c>
+      <c s="8" r="F3">
+        <v>1</v>
+      </c>
+      <c s="8" r="G3">
+        <v>0</v>
+      </c>
+      <c s="8" r="H3">
+        <v>1</v>
+      </c>
+      <c s="8" r="I3">
+        <v>0</v>
+      </c>
+      <c s="8" r="J3">
+        <v>1</v>
+      </c>
+      <c s="8" r="K3">
+        <v>1</v>
+      </c>
+      <c s="42" r="L3">
         <v>3</v>
       </c>
-      <c s="9" r="M3">
+      <c s="10" r="M3">
         <v>5</v>
       </c>
-      <c s="25" r="N3"/>
-      <c s="5" r="O3"/>
-      <c s="5" r="P3"/>
-      <c s="5" r="Q3"/>
-      <c s="5" r="R3"/>
-      <c s="5" r="S3"/>
-      <c s="5" r="T3"/>
-      <c s="5" r="U3"/>
-      <c s="5" r="V3"/>
-      <c s="5" r="W3"/>
-      <c s="5" r="X3"/>
-      <c s="5" r="Y3"/>
+      <c s="26" r="N3"/>
+      <c s="6" r="O3"/>
+      <c s="6" r="P3"/>
+      <c s="6" r="Q3"/>
+      <c s="6" r="R3"/>
+      <c s="6" r="S3"/>
+      <c s="6" r="T3"/>
+      <c s="6" r="U3"/>
+      <c s="6" r="V3"/>
+      <c s="6" r="W3"/>
+      <c s="6" r="X3"/>
+      <c s="6" r="Y3"/>
     </row>
     <row r="4">
       <c s="3" r="A4">
         <v>2</v>
       </c>
-      <c s="30" r="B4">
+      <c s="31" r="B4">
         <f>SUM(C4:D4)</f>
         <v>3.5</v>
       </c>
-      <c s="4" r="C4">
+      <c s="5" r="C4">
         <f>SUM(E4:K4)</f>
         <v>3.5</v>
       </c>
       <c s="2" r="D4">
         <v>0</v>
       </c>
-      <c s="14" r="E4">
-        <v>0</v>
-      </c>
-      <c s="14" r="F4">
-        <v>1</v>
-      </c>
-      <c s="14" r="G4">
-        <v>1</v>
-      </c>
-      <c s="14" r="H4">
+      <c s="15" r="E4">
+        <v>0</v>
+      </c>
+      <c s="15" r="F4">
+        <v>1</v>
+      </c>
+      <c s="15" r="G4">
+        <v>1</v>
+      </c>
+      <c s="15" r="H4">
         <v>0.5</v>
       </c>
-      <c s="14" r="I4">
-        <v>0</v>
-      </c>
-      <c s="14" r="J4">
-        <v>1</v>
-      </c>
-      <c s="14" r="K4">
-        <v>0</v>
-      </c>
-      <c s="41" r="L4">
+      <c s="15" r="I4">
+        <v>0</v>
+      </c>
+      <c s="15" r="J4">
+        <v>1</v>
+      </c>
+      <c s="15" r="K4">
+        <v>0</v>
+      </c>
+      <c s="43" r="L4">
         <v>4</v>
       </c>
-      <c s="28" r="M4">
+      <c s="29" r="M4">
         <v>5</v>
       </c>
-      <c s="25" r="N4"/>
-      <c s="5" r="O4"/>
-      <c s="5" r="P4"/>
-      <c s="5" r="Q4"/>
-      <c s="5" r="R4"/>
-      <c s="5" r="S4"/>
-      <c s="5" r="T4"/>
-      <c s="5" r="U4"/>
-      <c s="5" r="V4"/>
-      <c s="5" r="W4"/>
-      <c s="5" r="X4"/>
-      <c s="5" r="Y4"/>
+      <c s="26" r="N4"/>
+      <c s="6" r="O4"/>
+      <c s="6" r="P4"/>
+      <c s="6" r="Q4"/>
+      <c s="6" r="R4"/>
+      <c s="6" r="S4"/>
+      <c s="6" r="T4"/>
+      <c s="6" r="U4"/>
+      <c s="6" r="V4"/>
+      <c s="6" r="W4"/>
+      <c s="6" r="X4"/>
+      <c s="6" r="Y4"/>
     </row>
     <row r="5">
       <c s="3" r="A5">
         <v>3</v>
       </c>
-      <c s="30" r="B5">
+      <c s="31" r="B5">
         <f>SUM(C5:D5)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C5">
+      <c s="5" r="C5">
         <f>SUM(E5:K5)</f>
         <v>8</v>
       </c>
       <c s="2" r="D5">
         <v>1</v>
       </c>
-      <c s="14" r="E5">
-        <v>1</v>
-      </c>
-      <c s="14" r="F5">
-        <v>0</v>
-      </c>
-      <c s="14" r="G5">
-        <v>0</v>
-      </c>
-      <c s="14" r="H5">
+      <c s="15" r="E5">
+        <v>1</v>
+      </c>
+      <c s="15" r="F5">
+        <v>0</v>
+      </c>
+      <c s="15" r="G5">
+        <v>0</v>
+      </c>
+      <c s="15" r="H5">
         <v>5</v>
       </c>
-      <c s="14" r="I5">
-        <v>0</v>
-      </c>
-      <c s="14" r="J5">
-        <v>1</v>
-      </c>
-      <c s="14" r="K5">
-        <v>1</v>
-      </c>
-      <c s="41" r="L5">
+      <c s="15" r="I5">
+        <v>0</v>
+      </c>
+      <c s="15" r="J5">
+        <v>1</v>
+      </c>
+      <c s="15" r="K5">
+        <v>1</v>
+      </c>
+      <c s="43" r="L5">
         <v>6</v>
       </c>
-      <c s="28" r="M5">
+      <c s="29" r="M5">
         <v>8</v>
       </c>
-      <c s="25" r="N5"/>
-      <c s="5" r="O5"/>
-      <c s="5" r="P5"/>
-      <c s="5" r="Q5"/>
-      <c s="5" r="R5"/>
-      <c s="5" r="S5"/>
-      <c s="5" r="T5"/>
-      <c s="5" r="U5"/>
-      <c s="5" r="V5"/>
-      <c s="5" r="W5"/>
-      <c s="5" r="X5"/>
-      <c s="5" r="Y5"/>
+      <c s="26" r="N5"/>
+      <c s="6" r="O5"/>
+      <c s="6" r="P5"/>
+      <c s="6" r="Q5"/>
+      <c s="6" r="R5"/>
+      <c s="6" r="S5"/>
+      <c s="6" r="T5"/>
+      <c s="6" r="U5"/>
+      <c s="6" r="V5"/>
+      <c s="6" r="W5"/>
+      <c s="6" r="X5"/>
+      <c s="6" r="Y5"/>
     </row>
     <row r="6">
       <c s="3" r="A6">
         <v>4</v>
       </c>
-      <c s="30" r="B6">
+      <c s="31" r="B6">
         <f>SUM(C6:D6)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C6">
+      <c s="5" r="C6">
         <f>SUM(E6:K6)</f>
         <v>8</v>
       </c>
       <c s="2" r="D6">
         <v>1</v>
       </c>
-      <c s="14" r="E6">
-        <v>0</v>
-      </c>
-      <c s="14" r="F6">
-        <v>0</v>
-      </c>
-      <c s="14" r="G6">
+      <c s="15" r="E6">
+        <v>0</v>
+      </c>
+      <c s="15" r="F6">
+        <v>0</v>
+      </c>
+      <c s="15" r="G6">
         <v>2</v>
       </c>
-      <c s="14" r="H6">
+      <c s="15" r="H6">
         <v>3</v>
       </c>
-      <c s="14" r="I6">
-        <v>1</v>
-      </c>
-      <c s="14" r="J6">
+      <c s="15" r="I6">
+        <v>1</v>
+      </c>
+      <c s="15" r="J6">
         <v>2</v>
       </c>
-      <c s="14" r="K6">
-        <v>0</v>
-      </c>
-      <c s="41" r="L6">
+      <c s="15" r="K6">
+        <v>0</v>
+      </c>
+      <c s="43" r="L6">
         <v>7</v>
       </c>
-      <c s="28" r="M6">
+      <c s="29" r="M6">
         <v>9</v>
       </c>
-      <c s="25" r="N6"/>
-      <c s="5" r="O6"/>
-      <c s="5" r="P6"/>
-      <c s="5" r="Q6"/>
-      <c s="5" r="R6"/>
-      <c s="5" r="S6"/>
-      <c s="5" r="T6"/>
-      <c s="5" r="U6"/>
-      <c s="5" r="V6"/>
-      <c s="5" r="W6"/>
-      <c s="5" r="X6"/>
-      <c s="5" r="Y6"/>
+      <c s="26" r="N6"/>
+      <c s="6" r="O6"/>
+      <c s="6" r="P6"/>
+      <c s="6" r="Q6"/>
+      <c s="6" r="R6"/>
+      <c s="6" r="S6"/>
+      <c s="6" r="T6"/>
+      <c s="6" r="U6"/>
+      <c s="6" r="V6"/>
+      <c s="6" r="W6"/>
+      <c s="6" r="X6"/>
+      <c s="6" r="Y6"/>
     </row>
     <row r="7">
       <c s="3" r="A7">
         <v>5</v>
       </c>
-      <c s="30" r="B7">
+      <c s="31" r="B7">
         <f>SUM(C7:D7)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C7">
+      <c s="5" r="C7">
         <f>SUM(E7:K7)</f>
         <v>8</v>
       </c>
       <c s="2" r="D7">
         <v>1</v>
       </c>
-      <c s="14" r="E7">
-        <v>1</v>
-      </c>
-      <c s="14" r="F7">
-        <v>0</v>
-      </c>
-      <c s="14" r="G7">
-        <v>1</v>
-      </c>
-      <c s="14" r="H7">
+      <c s="15" r="E7">
+        <v>1</v>
+      </c>
+      <c s="15" r="F7">
+        <v>0</v>
+      </c>
+      <c s="15" r="G7">
+        <v>1</v>
+      </c>
+      <c s="15" r="H7">
         <v>3</v>
       </c>
-      <c s="14" r="I7">
-        <v>0</v>
-      </c>
-      <c s="14" r="J7">
+      <c s="15" r="I7">
+        <v>0</v>
+      </c>
+      <c s="15" r="J7">
         <v>2</v>
       </c>
-      <c s="14" r="K7">
-        <v>1</v>
-      </c>
-      <c s="41" r="L7">
+      <c s="15" r="K7">
+        <v>1</v>
+      </c>
+      <c s="43" r="L7">
         <v>6</v>
       </c>
-      <c s="28" r="M7">
+      <c s="29" r="M7">
         <v>8</v>
       </c>
-      <c s="25" r="N7"/>
-      <c s="5" r="O7"/>
-      <c s="5" r="P7"/>
-      <c s="5" r="Q7"/>
-      <c s="5" r="R7"/>
-      <c s="5" r="S7"/>
-      <c s="5" r="T7"/>
-      <c s="5" r="U7"/>
-      <c s="5" r="V7"/>
-      <c s="5" r="W7"/>
-      <c s="5" r="X7"/>
-      <c s="5" r="Y7"/>
+      <c s="26" r="N7"/>
+      <c s="6" r="O7"/>
+      <c s="6" r="P7"/>
+      <c s="6" r="Q7"/>
+      <c s="6" r="R7"/>
+      <c s="6" r="S7"/>
+      <c s="6" r="T7"/>
+      <c s="6" r="U7"/>
+      <c s="6" r="V7"/>
+      <c s="6" r="W7"/>
+      <c s="6" r="X7"/>
+      <c s="6" r="Y7"/>
     </row>
     <row r="8">
       <c s="3" r="A8">
         <v>6</v>
       </c>
-      <c s="30" r="B8">
+      <c s="31" r="B8">
         <f>SUM(C8:D8)</f>
         <v>8</v>
       </c>
-      <c s="4" r="C8">
+      <c s="5" r="C8">
         <f>SUM(E8:K8)</f>
         <v>7</v>
       </c>
       <c s="2" r="D8">
         <v>1</v>
       </c>
-      <c s="14" r="E8">
-        <v>0</v>
-      </c>
-      <c s="14" r="F8">
-        <v>0</v>
-      </c>
-      <c s="14" r="G8">
-        <v>1</v>
-      </c>
-      <c s="14" r="H8">
+      <c s="15" r="E8">
+        <v>0</v>
+      </c>
+      <c s="15" r="F8">
+        <v>0</v>
+      </c>
+      <c s="15" r="G8">
+        <v>1</v>
+      </c>
+      <c s="15" r="H8">
         <v>4</v>
       </c>
-      <c s="14" r="I8">
-        <v>0</v>
-      </c>
-      <c s="14" r="J8">
+      <c s="15" r="I8">
+        <v>0</v>
+      </c>
+      <c s="15" r="J8">
         <v>2</v>
       </c>
-      <c s="14" r="K8">
-        <v>0</v>
-      </c>
-      <c s="41" r="L8">
+      <c s="15" r="K8">
+        <v>0</v>
+      </c>
+      <c s="43" r="L8">
         <v>8</v>
       </c>
-      <c s="28" r="M8">
+      <c s="29" r="M8">
         <v>9</v>
       </c>
-      <c s="25" r="N8"/>
-      <c s="5" r="O8"/>
-      <c s="5" r="P8"/>
-      <c s="5" r="Q8"/>
-      <c s="5" r="R8"/>
-      <c s="5" r="S8"/>
-      <c s="5" r="T8"/>
-      <c s="5" r="U8"/>
-      <c s="5" r="V8"/>
-      <c s="5" r="W8"/>
-      <c s="5" r="X8"/>
-      <c s="5" r="Y8"/>
+      <c s="26" r="N8"/>
+      <c s="6" r="O8"/>
+      <c s="6" r="P8"/>
+      <c s="6" r="Q8"/>
+      <c s="6" r="R8"/>
+      <c s="6" r="S8"/>
+      <c s="6" r="T8"/>
+      <c s="6" r="U8"/>
+      <c s="6" r="V8"/>
+      <c s="6" r="W8"/>
+      <c s="6" r="X8"/>
+      <c s="6" r="Y8"/>
     </row>
     <row r="9">
       <c s="3" r="A9">
         <v>7</v>
       </c>
-      <c s="30" r="B9">
+      <c s="31" r="B9">
         <f>SUM(C9:D9)</f>
         <v>10</v>
       </c>
-      <c s="4" r="C9">
+      <c s="5" r="C9">
         <f>SUM(E9:K9)</f>
         <v>9</v>
       </c>
       <c s="2" r="D9">
         <v>1</v>
       </c>
-      <c s="14" r="E9">
-        <v>0</v>
-      </c>
-      <c s="14" r="F9">
-        <v>1</v>
-      </c>
-      <c s="14" r="G9">
-        <v>1</v>
-      </c>
-      <c s="14" r="H9">
+      <c s="15" r="E9">
+        <v>0</v>
+      </c>
+      <c s="15" r="F9">
+        <v>1</v>
+      </c>
+      <c s="15" r="G9">
+        <v>1</v>
+      </c>
+      <c s="15" r="H9">
         <v>4</v>
       </c>
-      <c s="14" r="I9">
-        <v>1</v>
-      </c>
-      <c s="14" r="J9">
+      <c s="15" r="I9">
+        <v>1</v>
+      </c>
+      <c s="15" r="J9">
         <v>2</v>
       </c>
-      <c s="14" r="K9">
-        <v>0</v>
-      </c>
-      <c s="41" r="L9">
+      <c s="15" r="K9">
+        <v>0</v>
+      </c>
+      <c s="43" r="L9">
         <v>8</v>
       </c>
-      <c s="28" r="M9">
+      <c s="29" r="M9">
         <v>10</v>
       </c>
-      <c s="25" r="N9"/>
-      <c s="5" r="O9"/>
-      <c s="5" r="P9"/>
-      <c s="5" r="Q9"/>
-      <c s="5" r="R9"/>
-      <c s="5" r="S9"/>
-      <c s="5" r="T9"/>
-      <c s="5" r="U9"/>
-      <c s="5" r="V9"/>
-      <c s="5" r="W9"/>
-      <c s="5" r="X9"/>
-      <c s="5" r="Y9"/>
+      <c s="26" r="N9"/>
+      <c s="6" r="O9"/>
+      <c s="6" r="P9"/>
+      <c s="6" r="Q9"/>
+      <c s="6" r="R9"/>
+      <c s="6" r="S9"/>
+      <c s="6" r="T9"/>
+      <c s="6" r="U9"/>
+      <c s="6" r="V9"/>
+      <c s="6" r="W9"/>
+      <c s="6" r="X9"/>
+      <c s="6" r="Y9"/>
     </row>
     <row r="10">
       <c s="3" r="A10">
         <v>8</v>
       </c>
-      <c s="30" r="B10">
+      <c s="31" r="B10">
         <f>SUM(C10:D10)</f>
         <v>10</v>
       </c>
-      <c s="4" r="C10">
+      <c s="5" r="C10">
         <f>SUM(E10:K10)</f>
         <v>9</v>
       </c>
       <c s="2" r="D10">
         <v>1</v>
       </c>
-      <c s="14" r="E10">
-        <v>0</v>
-      </c>
-      <c s="14" r="F10">
-        <v>0</v>
-      </c>
-      <c s="14" r="G10">
-        <v>1</v>
-      </c>
-      <c s="14" r="H10">
+      <c s="15" r="E10">
+        <v>0</v>
+      </c>
+      <c s="15" r="F10">
+        <v>0</v>
+      </c>
+      <c s="15" r="G10">
+        <v>1</v>
+      </c>
+      <c s="15" r="H10">
         <v>5</v>
       </c>
-      <c s="14" r="I10">
-        <v>1</v>
-      </c>
-      <c s="14" r="J10">
+      <c s="15" r="I10">
+        <v>1</v>
+      </c>
+      <c s="15" r="J10">
         <v>2</v>
       </c>
-      <c s="14" r="K10">
-        <v>0</v>
-      </c>
-      <c s="41" r="L10">
+      <c s="15" r="K10">
+        <v>0</v>
+      </c>
+      <c s="43" r="L10">
         <v>7</v>
       </c>
-      <c s="28" r="M10">
+      <c s="29" r="M10">
         <v>8</v>
       </c>
-      <c s="25" r="N10"/>
-      <c s="5" r="O10"/>
-      <c s="5" r="P10"/>
-      <c s="5" r="Q10"/>
-      <c s="5" r="R10"/>
-      <c s="5" r="S10"/>
-      <c s="5" r="T10"/>
-      <c s="5" r="U10"/>
-      <c s="5" r="V10"/>
-      <c s="5" r="W10"/>
-      <c s="5" r="X10"/>
-      <c s="5" r="Y10"/>
+      <c s="26" r="N10"/>
+      <c s="6" r="O10"/>
+      <c s="6" r="P10"/>
+      <c s="6" r="Q10"/>
+      <c s="6" r="R10"/>
+      <c s="6" r="S10"/>
+      <c s="6" r="T10"/>
+      <c s="6" r="U10"/>
+      <c s="6" r="V10"/>
+      <c s="6" r="W10"/>
+      <c s="6" r="X10"/>
+      <c s="6" r="Y10"/>
     </row>
     <row r="11">
       <c s="3" r="A11">
         <v>9</v>
       </c>
-      <c s="30" r="B11">
+      <c s="31" r="B11">
         <f>SUM(C11:D11)</f>
         <v>8</v>
       </c>
-      <c s="4" r="C11">
+      <c s="5" r="C11">
         <f>SUM(E11:K11)</f>
         <v>7</v>
       </c>
       <c s="2" r="D11">
         <v>1</v>
       </c>
-      <c s="14" r="E11">
-        <v>1</v>
-      </c>
-      <c s="14" r="F11">
-        <v>1</v>
-      </c>
-      <c s="14" r="G11">
-        <v>0</v>
-      </c>
-      <c s="14" r="H11">
+      <c s="15" r="E11">
+        <v>1</v>
+      </c>
+      <c s="15" r="F11">
+        <v>1</v>
+      </c>
+      <c s="15" r="G11">
+        <v>0</v>
+      </c>
+      <c s="15" r="H11">
         <v>2</v>
       </c>
-      <c s="14" r="I11">
+      <c s="15" r="I11">
         <v>2</v>
       </c>
-      <c s="14" r="J11">
-        <v>1</v>
-      </c>
-      <c s="14" r="K11">
-        <v>0</v>
-      </c>
-      <c s="41" r="L11">
+      <c s="15" r="J11">
+        <v>1</v>
+      </c>
+      <c s="15" r="K11">
+        <v>0</v>
+      </c>
+      <c s="43" r="L11">
         <v>7</v>
       </c>
-      <c s="28" r="M11">
+      <c s="29" r="M11">
         <v>8</v>
       </c>
-      <c s="25" r="N11"/>
-      <c s="5" r="O11"/>
-      <c s="5" r="P11"/>
-      <c s="5" r="Q11"/>
-      <c s="5" r="R11"/>
-      <c s="5" r="S11"/>
-      <c s="5" r="T11"/>
-      <c s="5" r="U11"/>
-      <c s="5" r="V11"/>
-      <c s="5" r="W11"/>
-      <c s="5" r="X11"/>
-      <c s="5" r="Y11"/>
+      <c s="26" r="N11"/>
+      <c s="6" r="O11"/>
+      <c s="6" r="P11"/>
+      <c s="6" r="Q11"/>
+      <c s="6" r="R11"/>
+      <c s="6" r="S11"/>
+      <c s="6" r="T11"/>
+      <c s="6" r="U11"/>
+      <c s="6" r="V11"/>
+      <c s="6" r="W11"/>
+      <c s="6" r="X11"/>
+      <c s="6" r="Y11"/>
     </row>
     <row r="12">
       <c s="3" r="A12">
         <v>10</v>
       </c>
-      <c s="30" r="B12">
+      <c s="31" r="B12">
         <f>SUM(C12:D12)</f>
         <v>9</v>
       </c>
-      <c s="4" r="C12">
+      <c s="5" r="C12">
         <f>SUM(E12:K12)</f>
         <v>8</v>
       </c>
       <c s="2" r="D12">
         <v>1</v>
       </c>
-      <c s="14" r="E12">
-        <v>1</v>
-      </c>
-      <c s="14" r="F12">
-        <v>0</v>
-      </c>
-      <c s="14" r="G12">
-        <v>0</v>
-      </c>
-      <c s="14" r="H12">
+      <c s="15" r="E12">
+        <v>1</v>
+      </c>
+      <c s="15" r="F12">
+        <v>0</v>
+      </c>
+      <c s="15" r="G12">
+        <v>0</v>
+      </c>
+      <c s="15" r="H12">
         <v>4</v>
       </c>
-      <c s="14" r="I12">
-        <v>1</v>
-      </c>
-      <c s="14" r="J12">
-        <v>1</v>
-      </c>
-      <c s="14" r="K12">
-        <v>1</v>
-      </c>
-      <c s="41" r="L12"/>
-      <c s="28" r="M12"/>
-      <c s="25" r="N12"/>
-      <c s="5" r="O12"/>
-      <c s="5" r="P12"/>
-      <c s="5" r="Q12"/>
-      <c s="5" r="R12"/>
-      <c s="5" r="S12"/>
-      <c s="5" r="T12"/>
-      <c s="5" r="U12"/>
-      <c s="5" r="V12"/>
-      <c s="5" r="W12"/>
-      <c s="5" r="X12"/>
-      <c s="5" r="Y12"/>
+      <c s="15" r="I12">
+        <v>1</v>
+      </c>
+      <c s="15" r="J12">
+        <v>1</v>
+      </c>
+      <c s="15" r="K12">
+        <v>1</v>
+      </c>
+      <c s="43" r="L12"/>
+      <c s="29" r="M12"/>
+      <c s="26" r="N12"/>
+      <c s="6" r="O12"/>
+      <c s="6" r="P12"/>
+      <c s="6" r="Q12"/>
+      <c s="6" r="R12"/>
+      <c s="6" r="S12"/>
+      <c s="6" r="T12"/>
+      <c s="6" r="U12"/>
+      <c s="6" r="V12"/>
+      <c s="6" r="W12"/>
+      <c s="6" r="X12"/>
+      <c s="6" r="Y12"/>
     </row>
     <row r="13">
       <c s="3" r="A13">
         <v>11</v>
       </c>
-      <c s="30" r="B13">
+      <c s="31" r="B13">
         <f>SUM(C13:D13)</f>
         <v>0</v>
       </c>
-      <c s="4" r="C13">
+      <c s="5" r="C13">
         <f>SUM(E13:K13)</f>
         <v>0</v>
       </c>
       <c s="2" r="D13"/>
-      <c s="14" r="E13"/>
-      <c s="14" r="F13"/>
-      <c s="14" r="G13"/>
-      <c s="14" r="H13"/>
-      <c s="14" r="I13"/>
-      <c s="14" r="J13"/>
-      <c s="14" r="K13"/>
-      <c s="41" r="L13"/>
-      <c s="28" r="M13"/>
-      <c s="25" r="N13"/>
-      <c s="5" r="O13"/>
-      <c s="5" r="P13"/>
-      <c s="5" r="Q13"/>
-      <c s="5" r="R13"/>
-      <c s="5" r="S13"/>
-      <c s="5" r="T13"/>
-      <c s="5" r="U13"/>
-      <c s="5" r="V13"/>
-      <c s="5" r="W13"/>
-      <c s="5" r="X13"/>
-      <c s="5" r="Y13"/>
+      <c s="15" r="E13"/>
+      <c s="15" r="F13"/>
+      <c s="15" r="G13"/>
+      <c s="15" r="H13"/>
+      <c s="15" r="I13"/>
+      <c s="15" r="J13"/>
+      <c s="15" r="K13"/>
+      <c s="43" r="L13"/>
+      <c s="29" r="M13"/>
+      <c s="26" r="N13"/>
+      <c s="6" r="O13"/>
+      <c s="6" r="P13"/>
+      <c s="6" r="Q13"/>
+      <c s="6" r="R13"/>
+      <c s="6" r="S13"/>
+      <c s="6" r="T13"/>
+      <c s="6" r="U13"/>
+      <c s="6" r="V13"/>
+      <c s="6" r="W13"/>
+      <c s="6" r="X13"/>
+      <c s="6" r="Y13"/>
     </row>
     <row r="14">
       <c s="3" r="A14">
         <v>12</v>
       </c>
-      <c s="30" r="B14">
+      <c s="31" r="B14">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c s="4" r="C14">
+      <c s="5" r="C14">
         <f>SUM(E14:K14)</f>
         <v>0</v>
       </c>
       <c s="2" r="D14"/>
-      <c s="14" r="E14"/>
-      <c s="14" r="F14"/>
-      <c s="14" r="G14"/>
-      <c s="14" r="H14"/>
-      <c s="14" r="I14"/>
-      <c s="14" r="J14"/>
-      <c s="14" r="K14"/>
-      <c s="41" r="L14"/>
-      <c s="28" r="M14"/>
-      <c s="25" r="N14"/>
-      <c s="5" r="O14"/>
-      <c s="5" r="P14"/>
-      <c s="5" r="Q14"/>
-      <c s="5" r="R14"/>
-      <c s="5" r="S14"/>
-      <c s="5" r="T14"/>
-      <c s="5" r="U14"/>
-      <c s="5" r="V14"/>
-      <c s="5" r="W14"/>
-      <c s="5" r="X14"/>
-      <c s="5" r="Y14"/>
+      <c s="15" r="E14"/>
+      <c s="15" r="F14"/>
+      <c s="15" r="G14"/>
+      <c s="15" r="H14"/>
+      <c s="15" r="I14"/>
+      <c s="15" r="J14"/>
+      <c s="15" r="K14"/>
+      <c s="43" r="L14"/>
+      <c s="29" r="M14"/>
+      <c s="26" r="N14"/>
+      <c s="6" r="O14"/>
+      <c s="6" r="P14"/>
+      <c s="6" r="Q14"/>
+      <c s="6" r="R14"/>
+      <c s="6" r="S14"/>
+      <c s="6" r="T14"/>
+      <c s="6" r="U14"/>
+      <c s="6" r="V14"/>
+      <c s="6" r="W14"/>
+      <c s="6" r="X14"/>
+      <c s="6" r="Y14"/>
     </row>
     <row r="15">
       <c s="3" r="A15"/>
-      <c s="30" r="B15"/>
-      <c s="4" r="C15"/>
+      <c s="31" r="B15"/>
+      <c s="5" r="C15"/>
       <c s="2" r="D15"/>
-      <c s="14" r="E15"/>
-      <c s="14" r="F15"/>
-      <c s="14" r="G15"/>
-      <c s="14" r="H15"/>
-      <c s="14" r="I15"/>
-      <c s="14" r="J15"/>
-      <c s="14" r="K15"/>
-      <c s="41" r="L15"/>
-      <c s="28" r="M15"/>
-      <c s="25" r="N15"/>
-      <c s="5" r="O15"/>
-      <c s="5" r="P15"/>
-      <c s="5" r="Q15"/>
-      <c s="5" r="R15"/>
-      <c s="5" r="S15"/>
-      <c s="5" r="T15"/>
-      <c s="5" r="U15"/>
-      <c s="5" r="V15"/>
-      <c s="5" r="W15"/>
-      <c s="5" r="X15"/>
-      <c s="5" r="Y15"/>
+      <c s="15" r="E15"/>
+      <c s="15" r="F15"/>
+      <c s="15" r="G15"/>
+      <c s="15" r="H15"/>
+      <c s="15" r="I15"/>
+      <c s="15" r="J15"/>
+      <c s="15" r="K15"/>
+      <c s="43" r="L15"/>
+      <c s="29" r="M15"/>
+      <c s="26" r="N15"/>
+      <c s="6" r="O15"/>
+      <c s="6" r="P15"/>
+      <c s="6" r="Q15"/>
+      <c s="6" r="R15"/>
+      <c s="6" r="S15"/>
+      <c s="6" r="T15"/>
+      <c s="6" r="U15"/>
+      <c s="6" r="V15"/>
+      <c s="6" r="W15"/>
+      <c s="6" r="X15"/>
+      <c s="6" r="Y15"/>
     </row>
     <row r="16">
       <c s="3" r="A16"/>
-      <c s="30" r="B16"/>
-      <c s="4" r="C16"/>
+      <c s="31" r="B16"/>
+      <c s="5" r="C16"/>
       <c s="2" r="D16"/>
-      <c s="14" r="E16"/>
-      <c s="14" r="F16"/>
-      <c s="14" r="G16"/>
-      <c s="14" r="H16"/>
-      <c s="14" r="I16"/>
-      <c s="14" r="J16"/>
-      <c s="14" r="K16"/>
-      <c s="41" r="L16"/>
-      <c s="28" r="M16"/>
-      <c s="25" r="N16"/>
-      <c s="5" r="O16"/>
-      <c s="5" r="P16"/>
-      <c s="5" r="Q16"/>
-      <c s="5" r="R16"/>
-      <c s="5" r="S16"/>
-      <c s="5" r="T16"/>
-      <c s="5" r="U16"/>
-      <c s="5" r="V16"/>
-      <c s="5" r="W16"/>
-      <c s="5" r="X16"/>
-      <c s="5" r="Y16"/>
+      <c s="15" r="E16"/>
+      <c s="15" r="F16"/>
+      <c s="15" r="G16"/>
+      <c s="15" r="H16"/>
+      <c s="15" r="I16"/>
+      <c s="15" r="J16"/>
+      <c s="15" r="K16"/>
+      <c s="43" r="L16"/>
+      <c s="29" r="M16"/>
+      <c s="26" r="N16"/>
+      <c s="6" r="O16"/>
+      <c s="6" r="P16"/>
+      <c s="6" r="Q16"/>
+      <c s="6" r="R16"/>
+      <c s="6" r="S16"/>
+      <c s="6" r="T16"/>
+      <c s="6" r="U16"/>
+      <c s="6" r="V16"/>
+      <c s="6" r="W16"/>
+      <c s="6" r="X16"/>
+      <c s="6" r="Y16"/>
     </row>
     <row r="17">
       <c s="3" r="A17"/>
-      <c s="30" r="B17"/>
-      <c s="4" r="C17"/>
+      <c s="31" r="B17"/>
+      <c s="5" r="C17"/>
       <c s="2" r="D17"/>
-      <c s="14" r="E17"/>
-      <c s="14" r="F17"/>
-      <c s="14" r="G17"/>
-      <c s="14" r="H17"/>
-      <c s="14" r="I17"/>
-      <c s="14" r="J17"/>
-      <c s="14" r="K17"/>
-      <c s="41" r="L17"/>
-      <c s="28" r="M17"/>
-      <c s="25" r="N17"/>
-      <c s="5" r="O17"/>
-      <c s="5" r="P17"/>
-      <c s="5" r="Q17"/>
-      <c s="5" r="R17"/>
-      <c s="5" r="S17"/>
-      <c s="5" r="T17"/>
-      <c s="5" r="U17"/>
-      <c s="5" r="V17"/>
-      <c s="5" r="W17"/>
-      <c s="5" r="X17"/>
-      <c s="5" r="Y17"/>
+      <c s="15" r="E17"/>
+      <c s="15" r="F17"/>
+      <c s="15" r="G17"/>
+      <c s="15" r="H17"/>
+      <c s="15" r="I17"/>
+      <c s="15" r="J17"/>
+      <c s="15" r="K17"/>
+      <c s="43" r="L17"/>
+      <c s="29" r="M17"/>
+      <c s="26" r="N17"/>
+      <c s="6" r="O17"/>
+      <c s="6" r="P17"/>
+      <c s="6" r="Q17"/>
+      <c s="6" r="R17"/>
+      <c s="6" r="S17"/>
+      <c s="6" r="T17"/>
+      <c s="6" r="U17"/>
+      <c s="6" r="V17"/>
+      <c s="6" r="W17"/>
+      <c s="6" r="X17"/>
+      <c s="6" r="Y17"/>
     </row>
     <row r="18">
       <c s="3" r="A18"/>
-      <c s="30" r="B18"/>
-      <c s="4" r="C18"/>
+      <c s="31" r="B18"/>
+      <c s="5" r="C18"/>
       <c s="2" r="D18"/>
-      <c s="14" r="E18"/>
-      <c s="14" r="F18"/>
-      <c s="14" r="G18"/>
-      <c s="14" r="H18"/>
-      <c s="14" r="I18"/>
-      <c s="14" r="J18"/>
-      <c s="14" r="K18"/>
-      <c s="41" r="L18"/>
-      <c s="28" r="M18"/>
-      <c s="25" r="N18"/>
-      <c s="5" r="O18"/>
-      <c s="5" r="P18"/>
-      <c s="5" r="Q18"/>
-      <c s="5" r="R18"/>
-      <c s="5" r="S18"/>
-      <c s="5" r="T18"/>
-      <c s="5" r="U18"/>
-      <c s="5" r="V18"/>
-      <c s="5" r="W18"/>
-      <c s="5" r="X18"/>
-      <c s="5" r="Y18"/>
+      <c s="15" r="E18"/>
+      <c s="15" r="F18"/>
+      <c s="15" r="G18"/>
+      <c s="15" r="H18"/>
+      <c s="15" r="I18"/>
+      <c s="15" r="J18"/>
+      <c s="15" r="K18"/>
+      <c s="43" r="L18"/>
+      <c s="29" r="M18"/>
+      <c s="26" r="N18"/>
+      <c s="6" r="O18"/>
+      <c s="6" r="P18"/>
+      <c s="6" r="Q18"/>
+      <c s="6" r="R18"/>
+      <c s="6" r="S18"/>
+      <c s="6" r="T18"/>
+      <c s="6" r="U18"/>
+      <c s="6" r="V18"/>
+      <c s="6" r="W18"/>
+      <c s="6" r="X18"/>
+      <c s="6" r="Y18"/>
     </row>
     <row r="19">
       <c s="3" r="A19"/>
-      <c s="30" r="B19"/>
-      <c s="4" r="C19"/>
+      <c s="31" r="B19"/>
+      <c s="5" r="C19"/>
       <c s="2" r="D19"/>
-      <c s="14" r="E19"/>
-      <c s="14" r="F19"/>
-      <c s="14" r="G19"/>
-      <c s="14" r="H19"/>
-      <c s="14" r="I19"/>
-      <c s="14" r="J19"/>
-      <c s="14" r="K19"/>
-      <c s="41" r="L19"/>
-      <c s="28" r="M19"/>
-      <c s="25" r="N19"/>
-      <c s="5" r="O19"/>
-      <c s="5" r="P19"/>
-      <c s="5" r="Q19"/>
-      <c s="5" r="R19"/>
-      <c s="5" r="S19"/>
-      <c s="5" r="T19"/>
-      <c s="5" r="U19"/>
-      <c s="5" r="V19"/>
-      <c s="5" r="W19"/>
-      <c s="5" r="X19"/>
-      <c s="5" r="Y19"/>
+      <c s="15" r="E19"/>
+      <c s="15" r="F19"/>
+      <c s="15" r="G19"/>
+      <c s="15" r="H19"/>
+      <c s="15" r="I19"/>
+      <c s="15" r="J19"/>
+      <c s="15" r="K19"/>
+      <c s="43" r="L19"/>
+      <c s="29" r="M19"/>
+      <c s="26" r="N19"/>
+      <c s="6" r="O19"/>
+      <c s="6" r="P19"/>
+      <c s="6" r="Q19"/>
+      <c s="6" r="R19"/>
+      <c s="6" r="S19"/>
+      <c s="6" r="T19"/>
+      <c s="6" r="U19"/>
+      <c s="6" r="V19"/>
+      <c s="6" r="W19"/>
+      <c s="6" r="X19"/>
+      <c s="6" r="Y19"/>
     </row>
     <row r="20">
       <c s="3" r="A20"/>
-      <c s="30" r="B20"/>
-      <c s="4" r="C20"/>
+      <c s="31" r="B20"/>
+      <c s="5" r="C20"/>
       <c s="2" r="D20"/>
-      <c s="14" r="E20"/>
-      <c s="14" r="F20"/>
-      <c s="14" r="G20"/>
-      <c s="14" r="H20"/>
-      <c s="14" r="I20"/>
-      <c s="14" r="J20"/>
-      <c s="14" r="K20"/>
-      <c s="41" r="L20"/>
-      <c s="28" r="M20"/>
-      <c s="25" r="N20"/>
-      <c s="5" r="O20"/>
-      <c s="5" r="P20"/>
-      <c s="5" r="Q20"/>
-      <c s="5" r="R20"/>
-      <c s="5" r="S20"/>
-      <c s="5" r="T20"/>
-      <c s="5" r="U20"/>
-      <c s="5" r="V20"/>
-      <c s="5" r="W20"/>
-      <c s="5" r="X20"/>
-      <c s="5" r="Y20"/>
+      <c s="15" r="E20"/>
+      <c s="15" r="F20"/>
+      <c s="15" r="G20"/>
+      <c s="15" r="H20"/>
+      <c s="15" r="I20"/>
+      <c s="15" r="J20"/>
+      <c s="15" r="K20"/>
+      <c s="43" r="L20"/>
+      <c s="29" r="M20"/>
+      <c s="26" r="N20"/>
+      <c s="6" r="O20"/>
+      <c s="6" r="P20"/>
+      <c s="6" r="Q20"/>
+      <c s="6" r="R20"/>
+      <c s="6" r="S20"/>
+      <c s="6" r="T20"/>
+      <c s="6" r="U20"/>
+      <c s="6" r="V20"/>
+      <c s="6" r="W20"/>
+      <c s="6" r="X20"/>
+      <c s="6" r="Y20"/>
     </row>
     <row r="21">
       <c s="3" r="A21"/>
-      <c s="30" r="B21"/>
-      <c s="4" r="C21"/>
+      <c s="31" r="B21"/>
+      <c s="5" r="C21"/>
       <c s="2" r="D21"/>
-      <c s="14" r="E21"/>
-      <c s="14" r="F21"/>
-      <c s="14" r="G21"/>
-      <c s="14" r="H21"/>
-      <c s="14" r="I21"/>
-      <c s="14" r="J21"/>
-      <c s="14" r="K21"/>
-      <c s="41" r="L21"/>
-      <c s="28" r="M21"/>
-      <c s="25" r="N21"/>
-      <c s="5" r="O21"/>
-      <c s="5" r="P21"/>
-      <c s="5" r="Q21"/>
-      <c s="5" r="R21"/>
-      <c s="5" r="S21"/>
-      <c s="5" r="T21"/>
-      <c s="5" r="U21"/>
-      <c s="5" r="V21"/>
-      <c s="5" r="W21"/>
-      <c s="5" r="X21"/>
-      <c s="5" r="Y21"/>
+      <c s="15" r="E21"/>
+      <c s="15" r="F21"/>
+      <c s="15" r="G21"/>
+      <c s="15" r="H21"/>
+      <c s="15" r="I21"/>
+      <c s="15" r="J21"/>
+      <c s="15" r="K21"/>
+      <c s="43" r="L21"/>
+      <c s="29" r="M21"/>
+      <c s="26" r="N21"/>
+      <c s="6" r="O21"/>
+      <c s="6" r="P21"/>
+      <c s="6" r="Q21"/>
+      <c s="6" r="R21"/>
+      <c s="6" r="S21"/>
+      <c s="6" r="T21"/>
+      <c s="6" r="U21"/>
+      <c s="6" r="V21"/>
+      <c s="6" r="W21"/>
+      <c s="6" r="X21"/>
+      <c s="6" r="Y21"/>
     </row>
     <row r="22">
       <c s="3" r="A22"/>
-      <c s="30" r="B22"/>
-      <c s="4" r="C22"/>
+      <c s="31" r="B22"/>
+      <c s="5" r="C22"/>
       <c s="2" r="D22"/>
-      <c s="14" r="E22"/>
-      <c s="14" r="F22"/>
-      <c s="14" r="G22"/>
-      <c s="14" r="H22"/>
-      <c s="14" r="I22"/>
-      <c s="14" r="J22"/>
-      <c s="14" r="K22"/>
-      <c s="41" r="L22"/>
-      <c s="28" r="M22"/>
-      <c s="25" r="N22"/>
-      <c s="5" r="O22"/>
-      <c s="5" r="P22"/>
-      <c s="5" r="Q22"/>
-      <c s="5" r="R22"/>
-      <c s="5" r="S22"/>
-      <c s="5" r="T22"/>
-      <c s="5" r="U22"/>
-      <c s="5" r="V22"/>
-      <c s="5" r="W22"/>
-      <c s="5" r="X22"/>
-      <c s="5" r="Y22"/>
+      <c s="15" r="E22"/>
+      <c s="15" r="F22"/>
+      <c s="15" r="G22"/>
+      <c s="15" r="H22"/>
+      <c s="15" r="I22"/>
+      <c s="15" r="J22"/>
+      <c s="15" r="K22"/>
+      <c s="43" r="L22"/>
+      <c s="29" r="M22"/>
+      <c s="26" r="N22"/>
+      <c s="6" r="O22"/>
+      <c s="6" r="P22"/>
+      <c s="6" r="Q22"/>
+      <c s="6" r="R22"/>
+      <c s="6" r="S22"/>
+      <c s="6" r="T22"/>
+      <c s="6" r="U22"/>
+      <c s="6" r="V22"/>
+      <c s="6" r="W22"/>
+      <c s="6" r="X22"/>
+      <c s="6" r="Y22"/>
     </row>
     <row r="23">
       <c s="3" r="A23"/>
-      <c s="30" r="B23"/>
-      <c s="4" r="C23"/>
+      <c s="31" r="B23"/>
+      <c s="5" r="C23"/>
       <c s="2" r="D23"/>
-      <c s="14" r="E23"/>
-      <c s="14" r="F23"/>
-      <c s="14" r="G23"/>
-      <c s="14" r="H23"/>
-      <c s="14" r="I23"/>
-      <c s="14" r="J23"/>
-      <c s="14" r="K23"/>
-      <c s="41" r="L23"/>
-      <c s="28" r="M23"/>
-      <c s="25" r="N23"/>
-      <c s="5" r="O23"/>
-      <c s="5" r="P23"/>
-      <c s="5" r="Q23"/>
-      <c s="5" r="R23"/>
-      <c s="5" r="S23"/>
-      <c s="5" r="T23"/>
-      <c s="5" r="U23"/>
-      <c s="5" r="V23"/>
-      <c s="5" r="W23"/>
-      <c s="5" r="X23"/>
-      <c s="5" r="Y23"/>
+      <c s="15" r="E23"/>
+      <c s="15" r="F23"/>
+      <c s="15" r="G23"/>
+      <c s="15" r="H23"/>
+      <c s="15" r="I23"/>
+      <c s="15" r="J23"/>
+      <c s="15" r="K23"/>
+      <c s="43" r="L23"/>
+      <c s="29" r="M23"/>
+      <c s="26" r="N23"/>
+      <c s="6" r="O23"/>
+      <c s="6" r="P23"/>
+      <c s="6" r="Q23"/>
+      <c s="6" r="R23"/>
+      <c s="6" r="S23"/>
+      <c s="6" r="T23"/>
+      <c s="6" r="U23"/>
+      <c s="6" r="V23"/>
+      <c s="6" r="W23"/>
+      <c s="6" r="X23"/>
+      <c s="6" r="Y23"/>
     </row>
     <row r="24">
       <c s="3" r="A24"/>
-      <c s="30" r="B24"/>
-      <c s="4" r="C24"/>
+      <c s="31" r="B24"/>
+      <c s="5" r="C24"/>
       <c s="2" r="D24"/>
-      <c s="14" r="E24"/>
-      <c s="14" r="F24"/>
-      <c s="14" r="G24"/>
-      <c s="14" r="H24"/>
-      <c s="14" r="I24"/>
-      <c s="14" r="J24"/>
-      <c s="14" r="K24"/>
-      <c s="41" r="L24"/>
-      <c s="28" r="M24"/>
-      <c s="25" r="N24"/>
-      <c s="5" r="O24"/>
-      <c s="5" r="P24"/>
-      <c s="5" r="Q24"/>
-      <c s="5" r="R24"/>
-      <c s="5" r="S24"/>
-      <c s="5" r="T24"/>
-      <c s="5" r="U24"/>
-      <c s="5" r="V24"/>
-      <c s="5" r="W24"/>
-      <c s="5" r="X24"/>
-      <c s="5" r="Y24"/>
+      <c s="15" r="E24"/>
+      <c s="15" r="F24"/>
+      <c s="15" r="G24"/>
+      <c s="15" r="H24"/>
+      <c s="15" r="I24"/>
+      <c s="15" r="J24"/>
+      <c s="15" r="K24"/>
+      <c s="43" r="L24"/>
+      <c s="29" r="M24"/>
+      <c s="26" r="N24"/>
+      <c s="6" r="O24"/>
+      <c s="6" r="P24"/>
+      <c s="6" r="Q24"/>
+      <c s="6" r="R24"/>
+      <c s="6" r="S24"/>
+      <c s="6" r="T24"/>
+      <c s="6" r="U24"/>
+      <c s="6" r="V24"/>
+      <c s="6" r="W24"/>
+      <c s="6" r="X24"/>
+      <c s="6" r="Y24"/>
     </row>
     <row r="25">
       <c s="3" r="A25"/>
-      <c s="30" r="B25"/>
-      <c s="4" r="C25"/>
+      <c s="31" r="B25"/>
+      <c s="5" r="C25"/>
       <c s="2" r="D25"/>
-      <c s="14" r="E25"/>
-      <c s="14" r="F25"/>
-      <c s="14" r="G25"/>
-      <c s="14" r="H25"/>
-      <c s="14" r="I25"/>
-      <c s="14" r="J25"/>
-      <c s="14" r="K25"/>
-      <c s="41" r="L25"/>
-      <c s="28" r="M25"/>
-      <c s="25" r="N25"/>
-      <c s="5" r="O25"/>
-      <c s="5" r="P25"/>
-      <c s="5" r="Q25"/>
-      <c s="5" r="R25"/>
-      <c s="5" r="S25"/>
-      <c s="5" r="T25"/>
-      <c s="5" r="U25"/>
-      <c s="5" r="V25"/>
-      <c s="5" r="W25"/>
-      <c s="5" r="X25"/>
-      <c s="5" r="Y25"/>
+      <c s="15" r="E25"/>
+      <c s="15" r="F25"/>
+      <c s="15" r="G25"/>
+      <c s="15" r="H25"/>
+      <c s="15" r="I25"/>
+      <c s="15" r="J25"/>
+      <c s="15" r="K25"/>
+      <c s="43" r="L25"/>
+      <c s="29" r="M25"/>
+      <c s="26" r="N25"/>
+      <c s="6" r="O25"/>
+      <c s="6" r="P25"/>
+      <c s="6" r="Q25"/>
+      <c s="6" r="R25"/>
+      <c s="6" r="S25"/>
+      <c s="6" r="T25"/>
+      <c s="6" r="U25"/>
+      <c s="6" r="V25"/>
+      <c s="6" r="W25"/>
+      <c s="6" r="X25"/>
+      <c s="6" r="Y25"/>
     </row>
     <row r="26">
       <c s="3" r="A26"/>
-      <c s="30" r="B26"/>
-      <c s="4" r="C26"/>
+      <c s="31" r="B26"/>
+      <c s="5" r="C26"/>
       <c s="2" r="D26"/>
-      <c s="14" r="E26"/>
-      <c s="14" r="F26"/>
-      <c s="14" r="G26"/>
-      <c s="14" r="H26"/>
-      <c s="14" r="I26"/>
-      <c s="14" r="J26"/>
-      <c s="14" r="K26"/>
-      <c s="41" r="L26"/>
-      <c s="28" r="M26"/>
-      <c s="25" r="N26"/>
-      <c s="5" r="O26"/>
-      <c s="5" r="P26"/>
-      <c s="5" r="Q26"/>
-      <c s="5" r="R26"/>
-      <c s="5" r="S26"/>
-      <c s="5" r="T26"/>
-      <c s="5" r="U26"/>
-      <c s="5" r="V26"/>
-      <c s="5" r="W26"/>
-      <c s="5" r="X26"/>
-      <c s="5" r="Y26"/>
+      <c s="15" r="E26"/>
+      <c s="15" r="F26"/>
+      <c s="15" r="G26"/>
+      <c s="15" r="H26"/>
+      <c s="15" r="I26"/>
+      <c s="15" r="J26"/>
+      <c s="15" r="K26"/>
+      <c s="43" r="L26"/>
+      <c s="29" r="M26"/>
+      <c s="26" r="N26"/>
+      <c s="6" r="O26"/>
+      <c s="6" r="P26"/>
+      <c s="6" r="Q26"/>
+      <c s="6" r="R26"/>
+      <c s="6" r="S26"/>
+      <c s="6" r="T26"/>
+      <c s="6" r="U26"/>
+      <c s="6" r="V26"/>
+      <c s="6" r="W26"/>
+      <c s="6" r="X26"/>
+      <c s="6" r="Y26"/>
     </row>
     <row r="27">
       <c s="3" r="A27"/>
-      <c s="30" r="B27"/>
-      <c s="4" r="C27"/>
+      <c s="31" r="B27"/>
+      <c s="5" r="C27"/>
       <c s="2" r="D27"/>
-      <c s="14" r="E27"/>
-      <c s="14" r="F27"/>
-      <c s="14" r="G27"/>
-      <c s="14" r="H27"/>
-      <c s="14" r="I27"/>
-      <c s="14" r="J27"/>
-      <c s="14" r="K27"/>
-      <c s="41" r="L27"/>
-      <c s="28" r="M27"/>
-      <c s="25" r="N27"/>
-      <c s="5" r="O27"/>
-      <c s="5" r="P27"/>
-      <c s="5" r="Q27"/>
-      <c s="5" r="R27"/>
-      <c s="5" r="S27"/>
-      <c s="5" r="T27"/>
-      <c s="5" r="U27"/>
-      <c s="5" r="V27"/>
-      <c s="5" r="W27"/>
-      <c s="5" r="X27"/>
-      <c s="5" r="Y27"/>
+      <c s="15" r="E27"/>
+      <c s="15" r="F27"/>
+      <c s="15" r="G27"/>
+      <c s="15" r="H27"/>
+      <c s="15" r="I27"/>
+      <c s="15" r="J27"/>
+      <c s="15" r="K27"/>
+      <c s="43" r="L27"/>
+      <c s="29" r="M27"/>
+      <c s="26" r="N27"/>
+      <c s="6" r="O27"/>
+      <c s="6" r="P27"/>
+      <c s="6" r="Q27"/>
+      <c s="6" r="R27"/>
+      <c s="6" r="S27"/>
+      <c s="6" r="T27"/>
+      <c s="6" r="U27"/>
+      <c s="6" r="V27"/>
+      <c s="6" r="W27"/>
+      <c s="6" r="X27"/>
+      <c s="6" r="Y27"/>
     </row>
     <row r="28">
       <c s="3" r="A28"/>
-      <c s="30" r="B28"/>
-      <c s="4" r="C28"/>
+      <c s="31" r="B28"/>
+      <c s="5" r="C28"/>
       <c s="2" r="D28"/>
-      <c s="14" r="E28"/>
-      <c s="14" r="F28"/>
-      <c s="14" r="G28"/>
-      <c s="14" r="H28"/>
-      <c s="14" r="I28"/>
-      <c s="14" r="J28"/>
-      <c s="14" r="K28"/>
-      <c s="41" r="L28"/>
-      <c s="28" r="M28"/>
-      <c s="25" r="N28"/>
-      <c s="5" r="O28"/>
-      <c s="5" r="P28"/>
-      <c s="5" r="Q28"/>
-      <c s="5" r="R28"/>
-      <c s="5" r="S28"/>
-      <c s="5" r="T28"/>
-      <c s="5" r="U28"/>
-      <c s="5" r="V28"/>
-      <c s="5" r="W28"/>
-      <c s="5" r="X28"/>
-      <c s="5" r="Y28"/>
+      <c s="15" r="E28"/>
+      <c s="15" r="F28"/>
+      <c s="15" r="G28"/>
+      <c s="15" r="H28"/>
+      <c s="15" r="I28"/>
+      <c s="15" r="J28"/>
+      <c s="15" r="K28"/>
+      <c s="43" r="L28"/>
+      <c s="29" r="M28"/>
+      <c s="26" r="N28"/>
+      <c s="6" r="O28"/>
+      <c s="6" r="P28"/>
+      <c s="6" r="Q28"/>
+      <c s="6" r="R28"/>
+      <c s="6" r="S28"/>
+      <c s="6" r="T28"/>
+      <c s="6" r="U28"/>
+      <c s="6" r="V28"/>
+      <c s="6" r="W28"/>
+      <c s="6" r="X28"/>
+      <c s="6" r="Y28"/>
     </row>
     <row r="29">
       <c s="3" r="A29"/>
-      <c s="30" r="B29"/>
-      <c s="4" r="C29"/>
+      <c s="31" r="B29"/>
+      <c s="5" r="C29"/>
       <c s="2" r="D29"/>
-      <c s="14" r="E29"/>
-      <c s="14" r="F29"/>
-      <c s="14" r="G29"/>
-      <c s="14" r="H29"/>
-      <c s="14" r="I29"/>
-      <c s="14" r="J29"/>
-      <c s="14" r="K29"/>
-      <c s="41" r="L29"/>
-      <c s="28" r="M29"/>
-      <c s="25" r="N29"/>
-      <c s="5" r="O29"/>
-      <c s="5" r="P29"/>
-      <c s="5" r="Q29"/>
-      <c s="5" r="R29"/>
-      <c s="5" r="S29"/>
-      <c s="5" r="T29"/>
-      <c s="5" r="U29"/>
-      <c s="5" r="V29"/>
-      <c s="5" r="W29"/>
-      <c s="5" r="X29"/>
-      <c s="5" r="Y29"/>
+      <c s="15" r="E29"/>
+      <c s="15" r="F29"/>
+      <c s="15" r="G29"/>
+      <c s="15" r="H29"/>
+      <c s="15" r="I29"/>
+      <c s="15" r="J29"/>
+      <c s="15" r="K29"/>
+      <c s="43" r="L29"/>
+      <c s="29" r="M29"/>
+      <c s="26" r="N29"/>
+      <c s="6" r="O29"/>
+      <c s="6" r="P29"/>
+      <c s="6" r="Q29"/>
+      <c s="6" r="R29"/>
+      <c s="6" r="S29"/>
+      <c s="6" r="T29"/>
+      <c s="6" r="U29"/>
+      <c s="6" r="V29"/>
+      <c s="6" r="W29"/>
+      <c s="6" r="X29"/>
+      <c s="6" r="Y29"/>
     </row>
     <row r="30">
       <c s="3" r="A30"/>
-      <c s="30" r="B30"/>
-      <c s="4" r="C30"/>
+      <c s="31" r="B30"/>
+      <c s="5" r="C30"/>
       <c s="2" r="D30"/>
-      <c s="14" r="E30"/>
-      <c s="14" r="F30"/>
-      <c s="14" r="G30"/>
-      <c s="14" r="H30"/>
-      <c s="14" r="I30"/>
-      <c s="14" r="J30"/>
-      <c s="14" r="K30"/>
-      <c s="41" r="L30"/>
-      <c s="28" r="M30"/>
-      <c s="25" r="N30"/>
-      <c s="5" r="O30"/>
-      <c s="5" r="P30"/>
-      <c s="5" r="Q30"/>
-      <c s="5" r="R30"/>
-      <c s="5" r="S30"/>
-      <c s="5" r="T30"/>
-      <c s="5" r="U30"/>
-      <c s="5" r="V30"/>
-      <c s="5" r="W30"/>
-      <c s="5" r="X30"/>
-      <c s="5" r="Y30"/>
+      <c s="15" r="E30"/>
+      <c s="15" r="F30"/>
+      <c s="15" r="G30"/>
+      <c s="15" r="H30"/>
+      <c s="15" r="I30"/>
+      <c s="15" r="J30"/>
+      <c s="15" r="K30"/>
+      <c s="43" r="L30"/>
+      <c s="29" r="M30"/>
+      <c s="26" r="N30"/>
+      <c s="6" r="O30"/>
+      <c s="6" r="P30"/>
+      <c s="6" r="Q30"/>
+      <c s="6" r="R30"/>
+      <c s="6" r="S30"/>
+      <c s="6" r="T30"/>
+      <c s="6" r="U30"/>
+      <c s="6" r="V30"/>
+      <c s="6" r="W30"/>
+      <c s="6" r="X30"/>
+      <c s="6" r="Y30"/>
     </row>
     <row r="31">
       <c s="3" r="A31"/>
-      <c s="30" r="B31"/>
-      <c s="4" r="C31"/>
+      <c s="31" r="B31"/>
+      <c s="5" r="C31"/>
       <c s="2" r="D31"/>
-      <c s="14" r="E31"/>
-      <c s="14" r="F31"/>
-      <c s="14" r="G31"/>
-      <c s="14" r="H31"/>
-      <c s="14" r="I31"/>
-      <c s="14" r="J31"/>
-      <c s="14" r="K31"/>
-      <c s="41" r="L31"/>
-      <c s="28" r="M31"/>
-      <c s="25" r="N31"/>
-      <c s="5" r="O31"/>
-      <c s="5" r="P31"/>
-      <c s="5" r="Q31"/>
-      <c s="5" r="R31"/>
-      <c s="5" r="S31"/>
-      <c s="5" r="T31"/>
-      <c s="5" r="U31"/>
-      <c s="5" r="V31"/>
-      <c s="5" r="W31"/>
-      <c s="5" r="X31"/>
-      <c s="5" r="Y31"/>
+      <c s="15" r="E31"/>
+      <c s="15" r="F31"/>
+      <c s="15" r="G31"/>
+      <c s="15" r="H31"/>
+      <c s="15" r="I31"/>
+      <c s="15" r="J31"/>
+      <c s="15" r="K31"/>
+      <c s="43" r="L31"/>
+      <c s="29" r="M31"/>
+      <c s="26" r="N31"/>
+      <c s="6" r="O31"/>
+      <c s="6" r="P31"/>
+      <c s="6" r="Q31"/>
+      <c s="6" r="R31"/>
+      <c s="6" r="S31"/>
+      <c s="6" r="T31"/>
+      <c s="6" r="U31"/>
+      <c s="6" r="V31"/>
+      <c s="6" r="W31"/>
+      <c s="6" r="X31"/>
+      <c s="6" r="Y31"/>
     </row>
     <row r="32">
       <c s="3" r="A32"/>
-      <c s="30" r="B32"/>
-      <c s="4" r="C32"/>
+      <c s="31" r="B32"/>
+      <c s="5" r="C32"/>
       <c s="2" r="D32"/>
-      <c s="14" r="E32"/>
-      <c s="14" r="F32"/>
-      <c s="14" r="G32"/>
-      <c s="14" r="H32"/>
-      <c s="14" r="I32"/>
-      <c s="14" r="J32"/>
-      <c s="14" r="K32"/>
-      <c s="41" r="L32"/>
-      <c s="28" r="M32"/>
-      <c s="25" r="N32"/>
-      <c s="5" r="O32"/>
-      <c s="5" r="P32"/>
-      <c s="5" r="Q32"/>
-      <c s="5" r="R32"/>
-      <c s="5" r="S32"/>
-      <c s="5" r="T32"/>
-      <c s="5" r="U32"/>
-      <c s="5" r="V32"/>
-      <c s="5" r="W32"/>
-      <c s="5" r="X32"/>
-      <c s="5" r="Y32"/>
+      <c s="15" r="E32"/>
+      <c s="15" r="F32"/>
+      <c s="15" r="G32"/>
+      <c s="15" r="H32"/>
+      <c s="15" r="I32"/>
+      <c s="15" r="J32"/>
+      <c s="15" r="K32"/>
+      <c s="43" r="L32"/>
+      <c s="29" r="M32"/>
+      <c s="26" r="N32"/>
+      <c s="6" r="O32"/>
+      <c s="6" r="P32"/>
+      <c s="6" r="Q32"/>
+      <c s="6" r="R32"/>
+      <c s="6" r="S32"/>
+      <c s="6" r="T32"/>
+      <c s="6" r="U32"/>
+      <c s="6" r="V32"/>
+      <c s="6" r="W32"/>
+      <c s="6" r="X32"/>
+      <c s="6" r="Y32"/>
     </row>
     <row r="33">
       <c s="3" r="A33"/>
-      <c s="30" r="B33"/>
-      <c s="4" r="C33"/>
+      <c s="31" r="B33"/>
+      <c s="5" r="C33"/>
       <c s="2" r="D33"/>
-      <c s="14" r="E33"/>
-      <c s="14" r="F33"/>
-      <c s="14" r="G33"/>
-      <c s="14" r="H33"/>
-      <c s="14" r="I33"/>
-      <c s="14" r="J33"/>
-      <c s="14" r="K33"/>
-      <c s="41" r="L33"/>
-      <c s="28" r="M33"/>
-      <c s="25" r="N33"/>
-      <c s="5" r="O33"/>
-      <c s="5" r="P33"/>
-      <c s="5" r="Q33"/>
-      <c s="5" r="R33"/>
-      <c s="5" r="S33"/>
-      <c s="5" r="T33"/>
-      <c s="5" r="U33"/>
-      <c s="5" r="V33"/>
-      <c s="5" r="W33"/>
-      <c s="5" r="X33"/>
-      <c s="5" r="Y33"/>
+      <c s="15" r="E33"/>
+      <c s="15" r="F33"/>
+      <c s="15" r="G33"/>
+      <c s="15" r="H33"/>
+      <c s="15" r="I33"/>
+      <c s="15" r="J33"/>
+      <c s="15" r="K33"/>
+      <c s="43" r="L33"/>
+      <c s="29" r="M33"/>
+      <c s="26" r="N33"/>
+      <c s="6" r="O33"/>
+      <c s="6" r="P33"/>
+      <c s="6" r="Q33"/>
+      <c s="6" r="R33"/>
+      <c s="6" r="S33"/>
+      <c s="6" r="T33"/>
+      <c s="6" r="U33"/>
+      <c s="6" r="V33"/>
+      <c s="6" r="W33"/>
+      <c s="6" r="X33"/>
+      <c s="6" r="Y33"/>
     </row>
     <row r="34">
       <c s="3" r="A34"/>
-      <c s="30" r="B34"/>
-      <c s="4" r="C34"/>
+      <c s="31" r="B34"/>
+      <c s="5" r="C34"/>
       <c s="2" r="D34"/>
-      <c s="14" r="E34"/>
-      <c s="14" r="F34"/>
-      <c s="14" r="G34"/>
-      <c s="14" r="H34"/>
-      <c s="14" r="I34"/>
-      <c s="14" r="J34"/>
-      <c s="14" r="K34"/>
-      <c s="41" r="L34"/>
-      <c s="28" r="M34"/>
-      <c s="25" r="N34"/>
-      <c s="5" r="O34"/>
-      <c s="5" r="P34"/>
-      <c s="5" r="Q34"/>
-      <c s="5" r="R34"/>
-      <c s="5" r="S34"/>
-      <c s="5" r="T34"/>
-      <c s="5" r="U34"/>
-      <c s="5" r="V34"/>
-      <c s="5" r="W34"/>
-      <c s="5" r="X34"/>
-      <c s="5" r="Y34"/>
+      <c s="15" r="E34"/>
+      <c s="15" r="F34"/>
+      <c s="15" r="G34"/>
+      <c s="15" r="H34"/>
+      <c s="15" r="I34"/>
+      <c s="15" r="J34"/>
+      <c s="15" r="K34"/>
+      <c s="43" r="L34"/>
+      <c s="29" r="M34"/>
+      <c s="26" r="N34"/>
+      <c s="6" r="O34"/>
+      <c s="6" r="P34"/>
+      <c s="6" r="Q34"/>
+      <c s="6" r="R34"/>
+      <c s="6" r="S34"/>
+      <c s="6" r="T34"/>
+      <c s="6" r="U34"/>
+      <c s="6" r="V34"/>
+      <c s="6" r="W34"/>
+      <c s="6" r="X34"/>
+      <c s="6" r="Y34"/>
     </row>
     <row r="35">
       <c s="3" r="A35"/>
-      <c s="30" r="B35"/>
-      <c s="4" r="C35"/>
+      <c s="31" r="B35"/>
+      <c s="5" r="C35"/>
       <c s="2" r="D35"/>
-      <c s="14" r="E35"/>
-      <c s="14" r="F35"/>
-      <c s="14" r="G35"/>
-      <c s="14" r="H35"/>
-      <c s="14" r="I35"/>
-      <c s="14" r="J35"/>
-      <c s="14" r="K35"/>
-      <c s="41" r="L35"/>
-      <c s="28" r="M35"/>
-      <c s="25" r="N35"/>
-      <c s="5" r="O35"/>
-      <c s="5" r="P35"/>
-      <c s="5" r="Q35"/>
-      <c s="5" r="R35"/>
-      <c s="5" r="S35"/>
-      <c s="5" r="T35"/>
-      <c s="5" r="U35"/>
-      <c s="5" r="V35"/>
-      <c s="5" r="W35"/>
-      <c s="5" r="X35"/>
-      <c s="5" r="Y35"/>
+      <c s="15" r="E35"/>
+      <c s="15" r="F35"/>
+      <c s="15" r="G35"/>
+      <c s="15" r="H35"/>
+      <c s="15" r="I35"/>
+      <c s="15" r="J35"/>
+      <c s="15" r="K35"/>
+      <c s="43" r="L35"/>
+      <c s="29" r="M35"/>
+      <c s="26" r="N35"/>
+      <c s="6" r="O35"/>
+      <c s="6" r="P35"/>
+      <c s="6" r="Q35"/>
+      <c s="6" r="R35"/>
+      <c s="6" r="S35"/>
+      <c s="6" r="T35"/>
+      <c s="6" r="U35"/>
+      <c s="6" r="V35"/>
+      <c s="6" r="W35"/>
+      <c s="6" r="X35"/>
+      <c s="6" r="Y35"/>
     </row>
     <row r="36">
       <c s="3" r="A36"/>
-      <c s="30" r="B36"/>
-      <c s="4" r="C36"/>
+      <c s="31" r="B36"/>
+      <c s="5" r="C36"/>
       <c s="2" r="D36"/>
-      <c s="14" r="E36"/>
-      <c s="14" r="F36"/>
-      <c s="14" r="G36"/>
-      <c s="14" r="H36"/>
-      <c s="14" r="I36"/>
-      <c s="14" r="J36"/>
-      <c s="14" r="K36"/>
-      <c s="41" r="L36"/>
-      <c s="28" r="M36"/>
-      <c s="25" r="N36"/>
-      <c s="5" r="O36"/>
-      <c s="5" r="P36"/>
-      <c s="5" r="Q36"/>
-      <c s="5" r="R36"/>
-      <c s="5" r="S36"/>
-      <c s="5" r="T36"/>
-      <c s="5" r="U36"/>
-      <c s="5" r="V36"/>
-      <c s="5" r="W36"/>
-      <c s="5" r="X36"/>
-      <c s="5" r="Y36"/>
+      <c s="15" r="E36"/>
+      <c s="15" r="F36"/>
+      <c s="15" r="G36"/>
+      <c s="15" r="H36"/>
+      <c s="15" r="I36"/>
+      <c s="15" r="J36"/>
+      <c s="15" r="K36"/>
+      <c s="43" r="L36"/>
+      <c s="29" r="M36"/>
+      <c s="26" r="N36"/>
+      <c s="6" r="O36"/>
+      <c s="6" r="P36"/>
+      <c s="6" r="Q36"/>
+      <c s="6" r="R36"/>
+      <c s="6" r="S36"/>
+      <c s="6" r="T36"/>
+      <c s="6" r="U36"/>
+      <c s="6" r="V36"/>
+      <c s="6" r="W36"/>
+      <c s="6" r="X36"/>
+      <c s="6" r="Y36"/>
     </row>
     <row r="37">
       <c s="3" r="A37"/>
-      <c s="30" r="B37"/>
-      <c s="4" r="C37"/>
+      <c s="31" r="B37"/>
+      <c s="5" r="C37"/>
       <c s="2" r="D37"/>
-      <c s="14" r="E37"/>
-      <c s="14" r="F37"/>
-      <c s="14" r="G37"/>
-      <c s="14" r="H37"/>
-      <c s="14" r="I37"/>
-      <c s="14" r="J37"/>
-      <c s="14" r="K37"/>
-      <c s="41" r="L37"/>
-      <c s="28" r="M37"/>
-      <c s="25" r="N37"/>
-      <c s="5" r="O37"/>
-      <c s="5" r="P37"/>
-      <c s="5" r="Q37"/>
-      <c s="5" r="R37"/>
-      <c s="5" r="S37"/>
-      <c s="5" r="T37"/>
-      <c s="5" r="U37"/>
-      <c s="5" r="V37"/>
-      <c s="5" r="W37"/>
-      <c s="5" r="X37"/>
-      <c s="5" r="Y37"/>
+      <c s="15" r="E37"/>
+      <c s="15" r="F37"/>
+      <c s="15" r="G37"/>
+      <c s="15" r="H37"/>
+      <c s="15" r="I37"/>
+      <c s="15" r="J37"/>
+      <c s="15" r="K37"/>
+      <c s="43" r="L37"/>
+      <c s="29" r="M37"/>
+      <c s="26" r="N37"/>
+      <c s="6" r="O37"/>
+      <c s="6" r="P37"/>
+      <c s="6" r="Q37"/>
+      <c s="6" r="R37"/>
+      <c s="6" r="S37"/>
+      <c s="6" r="T37"/>
+      <c s="6" r="U37"/>
+      <c s="6" r="V37"/>
+      <c s="6" r="W37"/>
+      <c s="6" r="X37"/>
+      <c s="6" r="Y37"/>
     </row>
     <row r="38">
       <c s="3" r="A38"/>
-      <c s="30" r="B38"/>
-      <c s="4" r="C38"/>
+      <c s="31" r="B38"/>
+      <c s="5" r="C38"/>
       <c s="2" r="D38"/>
-      <c s="14" r="E38"/>
-      <c s="14" r="F38"/>
-      <c s="14" r="G38"/>
-      <c s="14" r="H38"/>
-      <c s="14" r="I38"/>
-      <c s="14" r="J38"/>
-      <c s="14" r="K38"/>
-      <c s="41" r="L38"/>
-      <c s="28" r="M38"/>
-      <c s="25" r="N38"/>
-      <c s="5" r="O38"/>
-      <c s="5" r="P38"/>
-      <c s="5" r="Q38"/>
-      <c s="5" r="R38"/>
-      <c s="5" r="S38"/>
-      <c s="5" r="T38"/>
-      <c s="5" r="U38"/>
-      <c s="5" r="V38"/>
-      <c s="5" r="W38"/>
-      <c s="5" r="X38"/>
-      <c s="5" r="Y38"/>
+      <c s="15" r="E38"/>
+      <c s="15" r="F38"/>
+      <c s="15" r="G38"/>
+      <c s="15" r="H38"/>
+      <c s="15" r="I38"/>
+      <c s="15" r="J38"/>
+      <c s="15" r="K38"/>
+      <c s="43" r="L38"/>
+      <c s="29" r="M38"/>
+      <c s="26" r="N38"/>
+      <c s="6" r="O38"/>
+      <c s="6" r="P38"/>
+      <c s="6" r="Q38"/>
+      <c s="6" r="R38"/>
+      <c s="6" r="S38"/>
+      <c s="6" r="T38"/>
+      <c s="6" r="U38"/>
+      <c s="6" r="V38"/>
+      <c s="6" r="W38"/>
+      <c s="6" r="X38"/>
+      <c s="6" r="Y38"/>
     </row>
     <row r="39">
       <c s="3" r="A39"/>
-      <c s="30" r="B39"/>
-      <c s="4" r="C39"/>
+      <c s="31" r="B39"/>
+      <c s="5" r="C39"/>
       <c s="2" r="D39"/>
-      <c s="14" r="E39"/>
-      <c s="14" r="F39"/>
-      <c s="14" r="G39"/>
-      <c s="14" r="H39"/>
-      <c s="14" r="I39"/>
-      <c s="14" r="J39"/>
-      <c s="14" r="K39"/>
-      <c s="41" r="L39"/>
-      <c s="28" r="M39"/>
-      <c s="25" r="N39"/>
-      <c s="5" r="O39"/>
-      <c s="5" r="P39"/>
-      <c s="5" r="Q39"/>
-      <c s="5" r="R39"/>
-      <c s="5" r="S39"/>
-      <c s="5" r="T39"/>
-      <c s="5" r="U39"/>
-      <c s="5" r="V39"/>
-      <c s="5" r="W39"/>
-      <c s="5" r="X39"/>
-      <c s="5" r="Y39"/>
+      <c s="15" r="E39"/>
+      <c s="15" r="F39"/>
+      <c s="15" r="G39"/>
+      <c s="15" r="H39"/>
+      <c s="15" r="I39"/>
+      <c s="15" r="J39"/>
+      <c s="15" r="K39"/>
+      <c s="43" r="L39"/>
+      <c s="29" r="M39"/>
+      <c s="26" r="N39"/>
+      <c s="6" r="O39"/>
+      <c s="6" r="P39"/>
+      <c s="6" r="Q39"/>
+      <c s="6" r="R39"/>
+      <c s="6" r="S39"/>
+      <c s="6" r="T39"/>
+      <c s="6" r="U39"/>
+      <c s="6" r="V39"/>
+      <c s="6" r="W39"/>
+      <c s="6" r="X39"/>
+      <c s="6" r="Y39"/>
     </row>
     <row r="40">
       <c s="3" r="A40"/>
-      <c s="30" r="B40"/>
-      <c s="4" r="C40"/>
+      <c s="31" r="B40"/>
+      <c s="5" r="C40"/>
       <c s="2" r="D40"/>
-      <c s="14" r="E40"/>
-      <c s="14" r="F40"/>
-      <c s="14" r="G40"/>
-      <c s="14" r="H40"/>
-      <c s="14" r="I40"/>
-      <c s="14" r="J40"/>
-      <c s="14" r="K40"/>
-      <c s="41" r="L40"/>
-      <c s="28" r="M40"/>
-      <c s="25" r="N40"/>
-      <c s="5" r="O40"/>
-      <c s="5" r="P40"/>
-      <c s="5" r="Q40"/>
-      <c s="5" r="R40"/>
-      <c s="5" r="S40"/>
-      <c s="5" r="T40"/>
-      <c s="5" r="U40"/>
-      <c s="5" r="V40"/>
-      <c s="5" r="W40"/>
-      <c s="5" r="X40"/>
-      <c s="5" r="Y40"/>
+      <c s="15" r="E40"/>
+      <c s="15" r="F40"/>
+      <c s="15" r="G40"/>
+      <c s="15" r="H40"/>
+      <c s="15" r="I40"/>
+      <c s="15" r="J40"/>
+      <c s="15" r="K40"/>
+      <c s="43" r="L40"/>
+      <c s="29" r="M40"/>
+      <c s="26" r="N40"/>
+      <c s="6" r="O40"/>
+      <c s="6" r="P40"/>
+      <c s="6" r="Q40"/>
+      <c s="6" r="R40"/>
+      <c s="6" r="S40"/>
+      <c s="6" r="T40"/>
+      <c s="6" r="U40"/>
+      <c s="6" r="V40"/>
+      <c s="6" r="W40"/>
+      <c s="6" r="X40"/>
+      <c s="6" r="Y40"/>
     </row>
     <row r="41">
       <c s="3" r="A41"/>
-      <c s="30" r="B41"/>
-      <c s="4" r="C41"/>
+      <c s="31" r="B41"/>
+      <c s="5" r="C41"/>
       <c s="2" r="D41"/>
-      <c s="14" r="E41"/>
-      <c s="14" r="F41"/>
-      <c s="14" r="G41"/>
-      <c s="14" r="H41"/>
-      <c s="14" r="I41"/>
-      <c s="14" r="J41"/>
-      <c s="14" r="K41"/>
-      <c s="41" r="L41"/>
-      <c s="28" r="M41"/>
-      <c s="25" r="N41"/>
-      <c s="5" r="O41"/>
-      <c s="5" r="P41"/>
-      <c s="5" r="Q41"/>
-      <c s="5" r="R41"/>
-      <c s="5" r="S41"/>
-      <c s="5" r="T41"/>
-      <c s="5" r="U41"/>
-      <c s="5" r="V41"/>
-      <c s="5" r="W41"/>
-      <c s="5" r="X41"/>
-      <c s="5" r="Y41"/>
+      <c s="15" r="E41"/>
+      <c s="15" r="F41"/>
+      <c s="15" r="G41"/>
+      <c s="15" r="H41"/>
+      <c s="15" r="I41"/>
+      <c s="15" r="J41"/>
+      <c s="15" r="K41"/>
+      <c s="43" r="L41"/>
+      <c s="29" r="M41"/>
+      <c s="26" r="N41"/>
+      <c s="6" r="O41"/>
+      <c s="6" r="P41"/>
+      <c s="6" r="Q41"/>
+      <c s="6" r="R41"/>
+      <c s="6" r="S41"/>
+      <c s="6" r="T41"/>
+      <c s="6" r="U41"/>
+      <c s="6" r="V41"/>
+      <c s="6" r="W41"/>
+      <c s="6" r="X41"/>
+      <c s="6" r="Y41"/>
     </row>
     <row r="42">
       <c s="3" r="A42"/>
-      <c s="30" r="B42"/>
-      <c s="4" r="C42"/>
+      <c s="31" r="B42"/>
+      <c s="5" r="C42"/>
       <c s="2" r="D42"/>
-      <c s="14" r="E42"/>
-      <c s="14" r="F42"/>
-      <c s="14" r="G42"/>
-      <c s="14" r="H42"/>
-      <c s="14" r="I42"/>
-      <c s="14" r="J42"/>
-      <c s="14" r="K42"/>
-      <c s="41" r="L42"/>
-      <c s="28" r="M42"/>
-      <c s="25" r="N42"/>
-      <c s="5" r="O42"/>
-      <c s="5" r="P42"/>
-      <c s="5" r="Q42"/>
-      <c s="5" r="R42"/>
-      <c s="5" r="S42"/>
-      <c s="5" r="T42"/>
-      <c s="5" r="U42"/>
-      <c s="5" r="V42"/>
-      <c s="5" r="W42"/>
-      <c s="5" r="X42"/>
-      <c s="5" r="Y42"/>
+      <c s="15" r="E42"/>
+      <c s="15" r="F42"/>
+      <c s="15" r="G42"/>
+      <c s="15" r="H42"/>
+      <c s="15" r="I42"/>
+      <c s="15" r="J42"/>
+      <c s="15" r="K42"/>
+      <c s="43" r="L42"/>
+      <c s="29" r="M42"/>
+      <c s="26" r="N42"/>
+      <c s="6" r="O42"/>
+      <c s="6" r="P42"/>
+      <c s="6" r="Q42"/>
+      <c s="6" r="R42"/>
+      <c s="6" r="S42"/>
+      <c s="6" r="T42"/>
+      <c s="6" r="U42"/>
+      <c s="6" r="V42"/>
+      <c s="6" r="W42"/>
+      <c s="6" r="X42"/>
+      <c s="6" r="Y42"/>
     </row>
     <row r="43">
       <c s="3" r="A43"/>
-      <c s="30" r="B43"/>
-      <c s="4" r="C43"/>
+      <c s="31" r="B43"/>
+      <c s="5" r="C43"/>
       <c s="2" r="D43"/>
-      <c s="14" r="E43"/>
-      <c s="14" r="F43"/>
-      <c s="14" r="G43"/>
-      <c s="14" r="H43"/>
-      <c s="14" r="I43"/>
-      <c s="14" r="J43"/>
-      <c s="14" r="K43"/>
-      <c s="41" r="L43"/>
-      <c s="28" r="M43"/>
-      <c s="25" r="N43"/>
-      <c s="5" r="O43"/>
-      <c s="5" r="P43"/>
-      <c s="5" r="Q43"/>
-      <c s="5" r="R43"/>
-      <c s="5" r="S43"/>
-      <c s="5" r="T43"/>
-      <c s="5" r="U43"/>
-      <c s="5" r="V43"/>
-      <c s="5" r="W43"/>
-      <c s="5" r="X43"/>
-      <c s="5" r="Y43"/>
+      <c s="15" r="E43"/>
+      <c s="15" r="F43"/>
+      <c s="15" r="G43"/>
+      <c s="15" r="H43"/>
+      <c s="15" r="I43"/>
+      <c s="15" r="J43"/>
+      <c s="15" r="K43"/>
+      <c s="43" r="L43"/>
+      <c s="29" r="M43"/>
+      <c s="26" r="N43"/>
+      <c s="6" r="O43"/>
+      <c s="6" r="P43"/>
+      <c s="6" r="Q43"/>
+      <c s="6" r="R43"/>
+      <c s="6" r="S43"/>
+      <c s="6" r="T43"/>
+      <c s="6" r="U43"/>
+      <c s="6" r="V43"/>
+      <c s="6" r="W43"/>
+      <c s="6" r="X43"/>
+      <c s="6" r="Y43"/>
     </row>
     <row r="44">
       <c s="3" r="A44"/>
-      <c s="30" r="B44"/>
-      <c s="4" r="C44"/>
+      <c s="31" r="B44"/>
+      <c s="5" r="C44"/>
       <c s="2" r="D44"/>
-      <c s="14" r="E44"/>
-      <c s="14" r="F44"/>
-      <c s="14" r="G44"/>
-      <c s="14" r="H44"/>
-      <c s="14" r="I44"/>
-      <c s="14" r="J44"/>
-      <c s="14" r="K44"/>
-      <c s="41" r="L44"/>
-      <c s="28" r="M44"/>
-      <c s="25" r="N44"/>
-      <c s="5" r="O44"/>
-      <c s="5" r="P44"/>
-      <c s="5" r="Q44"/>
-      <c s="5" r="R44"/>
-      <c s="5" r="S44"/>
-      <c s="5" r="T44"/>
-      <c s="5" r="U44"/>
-      <c s="5" r="V44"/>
-      <c s="5" r="W44"/>
-      <c s="5" r="X44"/>
-      <c s="5" r="Y44"/>
+      <c s="15" r="E44"/>
+      <c s="15" r="F44"/>
+      <c s="15" r="G44"/>
+      <c s="15" r="H44"/>
+      <c s="15" r="I44"/>
+      <c s="15" r="J44"/>
+      <c s="15" r="K44"/>
+      <c s="43" r="L44"/>
+      <c s="29" r="M44"/>
+      <c s="26" r="N44"/>
+      <c s="6" r="O44"/>
+      <c s="6" r="P44"/>
+      <c s="6" r="Q44"/>
+      <c s="6" r="R44"/>
+      <c s="6" r="S44"/>
+      <c s="6" r="T44"/>
+      <c s="6" r="U44"/>
+      <c s="6" r="V44"/>
+      <c s="6" r="W44"/>
+      <c s="6" r="X44"/>
+      <c s="6" r="Y44"/>
     </row>
     <row r="45">
       <c s="3" r="A45"/>
-      <c s="30" r="B45"/>
-      <c s="4" r="C45"/>
+      <c s="31" r="B45"/>
+      <c s="5" r="C45"/>
       <c s="2" r="D45"/>
-      <c s="14" r="E45"/>
-      <c s="14" r="F45"/>
-      <c s="14" r="G45"/>
-      <c s="14" r="H45"/>
-      <c s="14" r="I45"/>
-      <c s="14" r="J45"/>
-      <c s="14" r="K45"/>
-      <c s="41" r="L45"/>
-      <c s="28" r="M45"/>
-      <c s="25" r="N45"/>
-      <c s="5" r="O45"/>
-      <c s="5" r="P45"/>
-      <c s="5" r="Q45"/>
-      <c s="5" r="R45"/>
-      <c s="5" r="S45"/>
-      <c s="5" r="T45"/>
-      <c s="5" r="U45"/>
-      <c s="5" r="V45"/>
-      <c s="5" r="W45"/>
-      <c s="5" r="X45"/>
-      <c s="5" r="Y45"/>
+      <c s="15" r="E45"/>
+      <c s="15" r="F45"/>
+      <c s="15" r="G45"/>
+      <c s="15" r="H45"/>
+      <c s="15" r="I45"/>
+      <c s="15" r="J45"/>
+      <c s="15" r="K45"/>
+      <c s="43" r="L45"/>
+      <c s="29" r="M45"/>
+      <c s="26" r="N45"/>
+      <c s="6" r="O45"/>
+      <c s="6" r="P45"/>
+      <c s="6" r="Q45"/>
+      <c s="6" r="R45"/>
+      <c s="6" r="S45"/>
+      <c s="6" r="T45"/>
+      <c s="6" r="U45"/>
+      <c s="6" r="V45"/>
+      <c s="6" r="W45"/>
+      <c s="6" r="X45"/>
+      <c s="6" r="Y45"/>
     </row>
     <row r="46">
       <c s="3" r="A46"/>
-      <c s="30" r="B46"/>
-      <c s="4" r="C46"/>
+      <c s="31" r="B46"/>
+      <c s="5" r="C46"/>
       <c s="2" r="D46"/>
-      <c s="14" r="E46"/>
-      <c s="14" r="F46"/>
-      <c s="14" r="G46"/>
-      <c s="14" r="H46"/>
-      <c s="14" r="I46"/>
-      <c s="14" r="J46"/>
-      <c s="14" r="K46"/>
-      <c s="41" r="L46"/>
-      <c s="28" r="M46"/>
-      <c s="25" r="N46"/>
-      <c s="5" r="O46"/>
-      <c s="5" r="P46"/>
-      <c s="5" r="Q46"/>
-      <c s="5" r="R46"/>
-      <c s="5" r="S46"/>
-      <c s="5" r="T46"/>
-      <c s="5" r="U46"/>
-      <c s="5" r="V46"/>
-      <c s="5" r="W46"/>
-      <c s="5" r="X46"/>
-      <c s="5" r="Y46"/>
+      <c s="15" r="E46"/>
+      <c s="15" r="F46"/>
+      <c s="15" r="G46"/>
+      <c s="15" r="H46"/>
+      <c s="15" r="I46"/>
+      <c s="15" r="J46"/>
+      <c s="15" r="K46"/>
+      <c s="43" r="L46"/>
+      <c s="29" r="M46"/>
+      <c s="26" r="N46"/>
+      <c s="6" r="O46"/>
+      <c s="6" r="P46"/>
+      <c s="6" r="Q46"/>
+      <c s="6" r="R46"/>
+      <c s="6" r="S46"/>
+      <c s="6" r="T46"/>
+      <c s="6" r="U46"/>
+      <c s="6" r="V46"/>
+      <c s="6" r="W46"/>
+      <c s="6" r="X46"/>
+      <c s="6" r="Y46"/>
     </row>
     <row r="47">
       <c s="3" r="A47"/>
-      <c s="30" r="B47"/>
-      <c s="4" r="C47"/>
+      <c s="31" r="B47"/>
+      <c s="5" r="C47"/>
       <c s="2" r="D47"/>
-      <c s="14" r="E47"/>
-      <c s="14" r="F47"/>
-      <c s="14" r="G47"/>
-      <c s="14" r="H47"/>
-      <c s="14" r="I47"/>
-      <c s="14" r="J47"/>
-      <c s="14" r="K47"/>
-      <c s="41" r="L47"/>
-      <c s="28" r="M47"/>
-      <c s="25" r="N47"/>
-      <c s="5" r="O47"/>
-      <c s="5" r="P47"/>
-      <c s="5" r="Q47"/>
-      <c s="5" r="R47"/>
-      <c s="5" r="S47"/>
-      <c s="5" r="T47"/>
-      <c s="5" r="U47"/>
-      <c s="5" r="V47"/>
-      <c s="5" r="W47"/>
-      <c s="5" r="X47"/>
-      <c s="5" r="Y47"/>
+      <c s="15" r="E47"/>
+      <c s="15" r="F47"/>
+      <c s="15" r="G47"/>
+      <c s="15" r="H47"/>
+      <c s="15" r="I47"/>
+      <c s="15" r="J47"/>
+      <c s="15" r="K47"/>
+      <c s="43" r="L47"/>
+      <c s="29" r="M47"/>
+      <c s="26" r="N47"/>
+      <c s="6" r="O47"/>
+      <c s="6" r="P47"/>
+      <c s="6" r="Q47"/>
+      <c s="6" r="R47"/>
+      <c s="6" r="S47"/>
+      <c s="6" r="T47"/>
+      <c s="6" r="U47"/>
+      <c s="6" r="V47"/>
+      <c s="6" r="W47"/>
+      <c s="6" r="X47"/>
+      <c s="6" r="Y47"/>
     </row>
     <row r="48">
       <c s="3" r="A48"/>
-      <c s="30" r="B48"/>
-      <c s="4" r="C48"/>
+      <c s="31" r="B48"/>
+      <c s="5" r="C48"/>
       <c s="2" r="D48"/>
-      <c s="14" r="E48"/>
-      <c s="14" r="F48"/>
-      <c s="14" r="G48"/>
-      <c s="14" r="H48"/>
-      <c s="14" r="I48"/>
-      <c s="14" r="J48"/>
-      <c s="14" r="K48"/>
-      <c s="41" r="L48"/>
-      <c s="28" r="M48"/>
-      <c s="25" r="N48"/>
-      <c s="5" r="O48"/>
-      <c s="5" r="P48"/>
-      <c s="5" r="Q48"/>
-      <c s="5" r="R48"/>
-      <c s="5" r="S48"/>
-      <c s="5" r="T48"/>
-      <c s="5" r="U48"/>
-      <c s="5" r="V48"/>
-      <c s="5" r="W48"/>
-      <c s="5" r="X48"/>
-      <c s="5" r="Y48"/>
+      <c s="15" r="E48"/>
+      <c s="15" r="F48"/>
+      <c s="15" r="G48"/>
+      <c s="15" r="H48"/>
+      <c s="15" r="I48"/>
+      <c s="15" r="J48"/>
+      <c s="15" r="K48"/>
+      <c s="43" r="L48"/>
+      <c s="29" r="M48"/>
+      <c s="26" r="N48"/>
+      <c s="6" r="O48"/>
+      <c s="6" r="P48"/>
+      <c s="6" r="Q48"/>
+      <c s="6" r="R48"/>
+      <c s="6" r="S48"/>
+      <c s="6" r="T48"/>
+      <c s="6" r="U48"/>
+      <c s="6" r="V48"/>
+      <c s="6" r="W48"/>
+      <c s="6" r="X48"/>
+      <c s="6" r="Y48"/>
     </row>
     <row r="49">
       <c s="3" r="A49"/>
-      <c s="30" r="B49"/>
-      <c s="4" r="C49"/>
+      <c s="31" r="B49"/>
+      <c s="5" r="C49"/>
       <c s="2" r="D49"/>
-      <c s="14" r="E49"/>
-      <c s="14" r="F49"/>
-      <c s="14" r="G49"/>
-      <c s="14" r="H49"/>
-      <c s="14" r="I49"/>
-      <c s="14" r="J49"/>
-      <c s="14" r="K49"/>
-      <c s="41" r="L49"/>
-      <c s="28" r="M49"/>
-      <c s="25" r="N49"/>
-      <c s="5" r="O49"/>
-      <c s="5" r="P49"/>
-      <c s="5" r="Q49"/>
-      <c s="5" r="R49"/>
-      <c s="5" r="S49"/>
-      <c s="5" r="T49"/>
-      <c s="5" r="U49"/>
-      <c s="5" r="V49"/>
-      <c s="5" r="W49"/>
-      <c s="5" r="X49"/>
-      <c s="5" r="Y49"/>
+      <c s="15" r="E49"/>
+      <c s="15" r="F49"/>
+      <c s="15" r="G49"/>
+      <c s="15" r="H49"/>
+      <c s="15" r="I49"/>
+      <c s="15" r="J49"/>
+      <c s="15" r="K49"/>
+      <c s="43" r="L49"/>
+      <c s="29" r="M49"/>
+      <c s="26" r="N49"/>
+      <c s="6" r="O49"/>
+      <c s="6" r="P49"/>
+      <c s="6" r="Q49"/>
+      <c s="6" r="R49"/>
+      <c s="6" r="S49"/>
+      <c s="6" r="T49"/>
+      <c s="6" r="U49"/>
+      <c s="6" r="V49"/>
+      <c s="6" r="W49"/>
+      <c s="6" r="X49"/>
+      <c s="6" r="Y49"/>
     </row>
     <row r="50">
       <c s="3" r="A50"/>
-      <c s="30" r="B50"/>
-      <c s="4" r="C50"/>
+      <c s="31" r="B50"/>
+      <c s="5" r="C50"/>
       <c s="2" r="D50"/>
-      <c s="14" r="E50"/>
-      <c s="14" r="F50"/>
-      <c s="14" r="G50"/>
-      <c s="14" r="H50"/>
-      <c s="14" r="I50"/>
-      <c s="14" r="J50"/>
-      <c s="14" r="K50"/>
-      <c s="41" r="L50"/>
-      <c s="28" r="M50"/>
-      <c s="25" r="N50"/>
-      <c s="5" r="O50"/>
-      <c s="5" r="P50"/>
-      <c s="5" r="Q50"/>
-      <c s="5" r="R50"/>
-      <c s="5" r="S50"/>
-      <c s="5" r="T50"/>
-      <c s="5" r="U50"/>
-      <c s="5" r="V50"/>
-      <c s="5" r="W50"/>
-      <c s="5" r="X50"/>
-      <c s="5" r="Y50"/>
+      <c s="15" r="E50"/>
+      <c s="15" r="F50"/>
+      <c s="15" r="G50"/>
+      <c s="15" r="H50"/>
+      <c s="15" r="I50"/>
+      <c s="15" r="J50"/>
+      <c s="15" r="K50"/>
+      <c s="43" r="L50"/>
+      <c s="29" r="M50"/>
+      <c s="26" r="N50"/>
+      <c s="6" r="O50"/>
+      <c s="6" r="P50"/>
+      <c s="6" r="Q50"/>
+      <c s="6" r="R50"/>
+      <c s="6" r="S50"/>
+      <c s="6" r="T50"/>
+      <c s="6" r="U50"/>
+      <c s="6" r="V50"/>
+      <c s="6" r="W50"/>
+      <c s="6" r="X50"/>
+      <c s="6" r="Y50"/>
     </row>
     <row r="51">
       <c s="3" r="A51"/>
-      <c s="30" r="B51"/>
-      <c s="4" r="C51"/>
+      <c s="31" r="B51"/>
+      <c s="5" r="C51"/>
       <c s="2" r="D51"/>
-      <c s="14" r="E51"/>
-      <c s="14" r="F51"/>
-      <c s="14" r="G51"/>
-      <c s="14" r="H51"/>
-      <c s="14" r="I51"/>
-      <c s="14" r="J51"/>
-      <c s="14" r="K51"/>
-      <c s="41" r="L51"/>
-      <c s="28" r="M51"/>
-      <c s="25" r="N51"/>
-      <c s="5" r="O51"/>
-      <c s="5" r="P51"/>
-      <c s="5" r="Q51"/>
-      <c s="5" r="R51"/>
-      <c s="5" r="S51"/>
-      <c s="5" r="T51"/>
-      <c s="5" r="U51"/>
-      <c s="5" r="V51"/>
-      <c s="5" r="W51"/>
-      <c s="5" r="X51"/>
-      <c s="5" r="Y51"/>
+      <c s="15" r="E51"/>
+      <c s="15" r="F51"/>
+      <c s="15" r="G51"/>
+      <c s="15" r="H51"/>
+      <c s="15" r="I51"/>
+      <c s="15" r="J51"/>
+      <c s="15" r="K51"/>
+      <c s="43" r="L51"/>
+      <c s="29" r="M51"/>
+      <c s="26" r="N51"/>
+      <c s="6" r="O51"/>
+      <c s="6" r="P51"/>
+      <c s="6" r="Q51"/>
+      <c s="6" r="R51"/>
+      <c s="6" r="S51"/>
+      <c s="6" r="T51"/>
+      <c s="6" r="U51"/>
+      <c s="6" r="V51"/>
+      <c s="6" r="W51"/>
+      <c s="6" r="X51"/>
+      <c s="6" r="Y51"/>
     </row>
     <row r="52">
       <c s="3" r="A52"/>
-      <c s="30" r="B52"/>
-      <c s="4" r="C52"/>
+      <c s="31" r="B52"/>
+      <c s="5" r="C52"/>
       <c s="2" r="D52"/>
-      <c s="14" r="E52"/>
-      <c s="14" r="F52"/>
-      <c s="14" r="G52"/>
-      <c s="14" r="H52"/>
-      <c s="14" r="I52"/>
-      <c s="14" r="J52"/>
-      <c s="14" r="K52"/>
-      <c s="41" r="L52"/>
-      <c s="28" r="M52"/>
-      <c s="25" r="N52"/>
-      <c s="5" r="O52"/>
-      <c s="5" r="P52"/>
-      <c s="5" r="Q52"/>
-      <c s="5" r="R52"/>
-      <c s="5" r="S52"/>
-      <c s="5" r="T52"/>
-      <c s="5" r="U52"/>
-      <c s="5" r="V52"/>
-      <c s="5" r="W52"/>
-      <c s="5" r="X52"/>
-      <c s="5" r="Y52"/>
+      <c s="15" r="E52"/>
+      <c s="15" r="F52"/>
+      <c s="15" r="G52"/>
+      <c s="15" r="H52"/>
+      <c s="15" r="I52"/>
+      <c s="15" r="J52"/>
+      <c s="15" r="K52"/>
+      <c s="43" r="L52"/>
+      <c s="29" r="M52"/>
+      <c s="26" r="N52"/>
+      <c s="6" r="O52"/>
+      <c s="6" r="P52"/>
+      <c s="6" r="Q52"/>
+      <c s="6" r="R52"/>
+      <c s="6" r="S52"/>
+      <c s="6" r="T52"/>
+      <c s="6" r="U52"/>
+      <c s="6" r="V52"/>
+      <c s="6" r="W52"/>
+      <c s="6" r="X52"/>
+      <c s="6" r="Y52"/>
     </row>
     <row r="53">
       <c s="3" r="A53"/>
-      <c s="30" r="B53"/>
-      <c s="4" r="C53"/>
+      <c s="31" r="B53"/>
+      <c s="5" r="C53"/>
       <c s="2" r="D53"/>
-      <c s="14" r="E53"/>
-      <c s="14" r="F53"/>
-      <c s="14" r="G53"/>
-      <c s="14" r="H53"/>
-      <c s="14" r="I53"/>
-      <c s="14" r="J53"/>
-      <c s="14" r="K53"/>
-      <c s="41" r="L53"/>
-      <c s="28" r="M53"/>
-      <c s="25" r="N53"/>
-      <c s="5" r="O53"/>
-      <c s="5" r="P53"/>
-      <c s="5" r="Q53"/>
-      <c s="5" r="R53"/>
-      <c s="5" r="S53"/>
-      <c s="5" r="T53"/>
-      <c s="5" r="U53"/>
-      <c s="5" r="V53"/>
-      <c s="5" r="W53"/>
-      <c s="5" r="X53"/>
-      <c s="5" r="Y53"/>
+      <c s="15" r="E53"/>
+      <c s="15" r="F53"/>
+      <c s="15" r="G53"/>
+      <c s="15" r="H53"/>
+      <c s="15" r="I53"/>
+      <c s="15" r="J53"/>
+      <c s="15" r="K53"/>
+      <c s="43" r="L53"/>
+      <c s="29" r="M53"/>
+      <c s="26" r="N53"/>
+      <c s="6" r="O53"/>
+      <c s="6" r="P53"/>
+      <c s="6" r="Q53"/>
+      <c s="6" r="R53"/>
+      <c s="6" r="S53"/>
+      <c s="6" r="T53"/>
+      <c s="6" r="U53"/>
+      <c s="6" r="V53"/>
+      <c s="6" r="W53"/>
+      <c s="6" r="X53"/>
+      <c s="6" r="Y53"/>
     </row>
     <row r="54">
       <c s="3" r="A54"/>
-      <c s="30" r="B54"/>
-      <c s="4" r="C54"/>
+      <c s="31" r="B54"/>
+      <c s="5" r="C54"/>
       <c s="2" r="D54"/>
-      <c s="14" r="E54"/>
-      <c s="14" r="F54"/>
-      <c s="14" r="G54"/>
-      <c s="14" r="H54"/>
-      <c s="14" r="I54"/>
-      <c s="14" r="J54"/>
-      <c s="14" r="K54"/>
-      <c s="41" r="L54"/>
-      <c s="28" r="M54"/>
-      <c s="25" r="N54"/>
-      <c s="5" r="O54"/>
-      <c s="5" r="P54"/>
-      <c s="5" r="Q54"/>
-      <c s="5" r="R54"/>
-      <c s="5" r="S54"/>
-      <c s="5" r="T54"/>
-      <c s="5" r="U54"/>
-      <c s="5" r="V54"/>
-      <c s="5" r="W54"/>
-      <c s="5" r="X54"/>
-      <c s="5" r="Y54"/>
+      <c s="15" r="E54"/>
+      <c s="15" r="F54"/>
+      <c s="15" r="G54"/>
+      <c s="15" r="H54"/>
+      <c s="15" r="I54"/>
+      <c s="15" r="J54"/>
+      <c s="15" r="K54"/>
+      <c s="43" r="L54"/>
+      <c s="29" r="M54"/>
+      <c s="26" r="N54"/>
+      <c s="6" r="O54"/>
+      <c s="6" r="P54"/>
+      <c s="6" r="Q54"/>
+      <c s="6" r="R54"/>
+      <c s="6" r="S54"/>
+      <c s="6" r="T54"/>
+      <c s="6" r="U54"/>
+      <c s="6" r="V54"/>
+      <c s="6" r="W54"/>
+      <c s="6" r="X54"/>
+      <c s="6" r="Y54"/>
     </row>
     <row r="55">
       <c s="3" r="A55"/>
-      <c s="30" r="B55"/>
-      <c s="4" r="C55"/>
+      <c s="31" r="B55"/>
+      <c s="5" r="C55"/>
       <c s="2" r="D55"/>
-      <c s="14" r="E55"/>
-      <c s="14" r="F55"/>
-      <c s="14" r="G55"/>
-      <c s="14" r="H55"/>
-      <c s="14" r="I55"/>
-      <c s="14" r="J55"/>
-      <c s="14" r="K55"/>
-      <c s="41" r="L55"/>
-      <c s="28" r="M55"/>
-      <c s="25" r="N55"/>
-      <c s="5" r="O55"/>
-      <c s="5" r="P55"/>
-      <c s="5" r="Q55"/>
-      <c s="5" r="R55"/>
-      <c s="5" r="S55"/>
-      <c s="5" r="T55"/>
-      <c s="5" r="U55"/>
-      <c s="5" r="V55"/>
-      <c s="5" r="W55"/>
-      <c s="5" r="X55"/>
-      <c s="5" r="Y55"/>
+      <c s="15" r="E55"/>
+      <c s="15" r="F55"/>
+      <c s="15" r="G55"/>
+      <c s="15" r="H55"/>
+      <c s="15" r="I55"/>
+      <c s="15" r="J55"/>
+      <c s="15" r="K55"/>
+      <c s="43" r="L55"/>
+      <c s="29" r="M55"/>
+      <c s="26" r="N55"/>
+      <c s="6" r="O55"/>
+      <c s="6" r="P55"/>
+      <c s="6" r="Q55"/>
+      <c s="6" r="R55"/>
+      <c s="6" r="S55"/>
+      <c s="6" r="T55"/>
+      <c s="6" r="U55"/>
+      <c s="6" r="V55"/>
+      <c s="6" r="W55"/>
+      <c s="6" r="X55"/>
+      <c s="6" r="Y55"/>
     </row>
     <row r="56">
       <c s="3" r="A56"/>
-      <c s="30" r="B56"/>
-      <c s="4" r="C56"/>
+      <c s="31" r="B56"/>
+      <c s="5" r="C56"/>
       <c s="2" r="D56"/>
-      <c s="14" r="E56"/>
-      <c s="14" r="F56"/>
-      <c s="14" r="G56"/>
-      <c s="14" r="H56"/>
-      <c s="14" r="I56"/>
-      <c s="14" r="J56"/>
-      <c s="14" r="K56"/>
-      <c s="41" r="L56"/>
-      <c s="28" r="M56"/>
-      <c s="25" r="N56"/>
-      <c s="5" r="O56"/>
-      <c s="5" r="P56"/>
-      <c s="5" r="Q56"/>
-      <c s="5" r="R56"/>
-      <c s="5" r="S56"/>
-      <c s="5" r="T56"/>
-      <c s="5" r="U56"/>
-      <c s="5" r="V56"/>
-      <c s="5" r="W56"/>
-      <c s="5" r="X56"/>
-      <c s="5" r="Y56"/>
+      <c s="15" r="E56"/>
+      <c s="15" r="F56"/>
+      <c s="15" r="G56"/>
+      <c s="15" r="H56"/>
+      <c s="15" r="I56"/>
+      <c s="15" r="J56"/>
+      <c s="15" r="K56"/>
+      <c s="43" r="L56"/>
+      <c s="29" r="M56"/>
+      <c s="26" r="N56"/>
+      <c s="6" r="O56"/>
+      <c s="6" r="P56"/>
+      <c s="6" r="Q56"/>
+      <c s="6" r="R56"/>
+      <c s="6" r="S56"/>
+      <c s="6" r="T56"/>
+      <c s="6" r="U56"/>
+      <c s="6" r="V56"/>
+      <c s="6" r="W56"/>
+      <c s="6" r="X56"/>
+      <c s="6" r="Y56"/>
     </row>
     <row r="57">
       <c s="3" r="A57"/>
-      <c s="30" r="B57"/>
-      <c s="4" r="C57"/>
+      <c s="31" r="B57"/>
+      <c s="5" r="C57"/>
       <c s="2" r="D57"/>
-      <c s="14" r="E57"/>
-      <c s="14" r="F57"/>
-      <c s="14" r="G57"/>
-      <c s="14" r="H57"/>
-      <c s="14" r="I57"/>
-      <c s="14" r="J57"/>
-      <c s="14" r="K57"/>
-      <c s="41" r="L57"/>
-      <c s="28" r="M57"/>
-      <c s="25" r="N57"/>
-      <c s="5" r="O57"/>
-      <c s="5" r="P57"/>
-      <c s="5" r="Q57"/>
-      <c s="5" r="R57"/>
-      <c s="5" r="S57"/>
-      <c s="5" r="T57"/>
-      <c s="5" r="U57"/>
-      <c s="5" r="V57"/>
-      <c s="5" r="W57"/>
-      <c s="5" r="X57"/>
-      <c s="5" r="Y57"/>
+      <c s="15" r="E57"/>
+      <c s="15" r="F57"/>
+      <c s="15" r="G57"/>
+      <c s="15" r="H57"/>
+      <c s="15" r="I57"/>
+      <c s="15" r="J57"/>
+      <c s="15" r="K57"/>
+      <c s="43" r="L57"/>
+      <c s="29" r="M57"/>
+      <c s="26" r="N57"/>
+      <c s="6" r="O57"/>
+      <c s="6" r="P57"/>
+      <c s="6" r="Q57"/>
+      <c s="6" r="R57"/>
+      <c s="6" r="S57"/>
+      <c s="6" r="T57"/>
+      <c s="6" r="U57"/>
+      <c s="6" r="V57"/>
+      <c s="6" r="W57"/>
+      <c s="6" r="X57"/>
+      <c s="6" r="Y57"/>
     </row>
     <row r="58">
       <c s="3" r="A58"/>
-      <c s="30" r="B58"/>
-      <c s="4" r="C58"/>
+      <c s="31" r="B58"/>
+      <c s="5" r="C58"/>
       <c s="2" r="D58"/>
-      <c s="14" r="E58"/>
-      <c s="14" r="F58"/>
-      <c s="14" r="G58"/>
-      <c s="14" r="H58"/>
-      <c s="14" r="I58"/>
-      <c s="14" r="J58"/>
-      <c s="14" r="K58"/>
-      <c s="41" r="L58"/>
-      <c s="28" r="M58"/>
-      <c s="25" r="N58"/>
-      <c s="5" r="O58"/>
-      <c s="5" r="P58"/>
-      <c s="5" r="Q58"/>
-      <c s="5" r="R58"/>
-      <c s="5" r="S58"/>
-      <c s="5" r="T58"/>
-      <c s="5" r="U58"/>
-      <c s="5" r="V58"/>
-      <c s="5" r="W58"/>
-      <c s="5" r="X58"/>
-      <c s="5" r="Y58"/>
+      <c s="15" r="E58"/>
+      <c s="15" r="F58"/>
+      <c s="15" r="G58"/>
+      <c s="15" r="H58"/>
+      <c s="15" r="I58"/>
+      <c s="15" r="J58"/>
+      <c s="15" r="K58"/>
+      <c s="43" r="L58"/>
+      <c s="29" r="M58"/>
+      <c s="26" r="N58"/>
+      <c s="6" r="O58"/>
+      <c s="6" r="P58"/>
+      <c s="6" r="Q58"/>
+      <c s="6" r="R58"/>
+      <c s="6" r="S58"/>
+      <c s="6" r="T58"/>
+      <c s="6" r="U58"/>
+      <c s="6" r="V58"/>
+      <c s="6" r="W58"/>
+      <c s="6" r="X58"/>
+      <c s="6" r="Y58"/>
     </row>
     <row r="59">
       <c s="3" r="A59"/>
-      <c s="30" r="B59"/>
-      <c s="4" r="C59"/>
+      <c s="31" r="B59"/>
+      <c s="5" r="C59"/>
       <c s="2" r="D59"/>
-      <c s="14" r="E59"/>
-      <c s="14" r="F59"/>
-      <c s="14" r="G59"/>
-      <c s="14" r="H59"/>
-      <c s="14" r="I59"/>
-      <c s="14" r="J59"/>
-      <c s="14" r="K59"/>
-      <c s="41" r="L59"/>
-      <c s="28" r="M59"/>
-      <c s="25" r="N59"/>
-      <c s="5" r="O59"/>
-      <c s="5" r="P59"/>
-      <c s="5" r="Q59"/>
-      <c s="5" r="R59"/>
-      <c s="5" r="S59"/>
-      <c s="5" r="T59"/>
-      <c s="5" r="U59"/>
-      <c s="5" r="V59"/>
-      <c s="5" r="W59"/>
-      <c s="5" r="X59"/>
-      <c s="5" r="Y59"/>
+      <c s="15" r="E59"/>
+      <c s="15" r="F59"/>
+      <c s="15" r="G59"/>
+      <c s="15" r="H59"/>
+      <c s="15" r="I59"/>
+      <c s="15" r="J59"/>
+      <c s="15" r="K59"/>
+      <c s="43" r="L59"/>
+      <c s="29" r="M59"/>
+      <c s="26" r="N59"/>
+      <c s="6" r="O59"/>
+      <c s="6" r="P59"/>
+      <c s="6" r="Q59"/>
+      <c s="6" r="R59"/>
+      <c s="6" r="S59"/>
+      <c s="6" r="T59"/>
+      <c s="6" r="U59"/>
+      <c s="6" r="V59"/>
+      <c s="6" r="W59"/>
+      <c s="6" r="X59"/>
+      <c s="6" r="Y59"/>
     </row>
     <row r="60">
       <c s="3" r="A60"/>
-      <c s="30" r="B60"/>
-      <c s="4" r="C60"/>
+      <c s="31" r="B60"/>
+      <c s="5" r="C60"/>
       <c s="2" r="D60"/>
-      <c s="14" r="E60"/>
-      <c s="14" r="F60"/>
-      <c s="14" r="G60"/>
-      <c s="14" r="H60"/>
-      <c s="14" r="I60"/>
-      <c s="14" r="J60"/>
-      <c s="14" r="K60"/>
-      <c s="41" r="L60"/>
-      <c s="28" r="M60"/>
-      <c s="25" r="N60"/>
-      <c s="5" r="O60"/>
-      <c s="5" r="P60"/>
-      <c s="5" r="Q60"/>
-      <c s="5" r="R60"/>
-      <c s="5" r="S60"/>
-      <c s="5" r="T60"/>
-      <c s="5" r="U60"/>
-      <c s="5" r="V60"/>
-      <c s="5" r="W60"/>
-      <c s="5" r="X60"/>
-      <c s="5" r="Y60"/>
+      <c s="15" r="E60"/>
+      <c s="15" r="F60"/>
+      <c s="15" r="G60"/>
+      <c s="15" r="H60"/>
+      <c s="15" r="I60"/>
+      <c s="15" r="J60"/>
+      <c s="15" r="K60"/>
+      <c s="43" r="L60"/>
+      <c s="29" r="M60"/>
+      <c s="26" r="N60"/>
+      <c s="6" r="O60"/>
+      <c s="6" r="P60"/>
+      <c s="6" r="Q60"/>
+      <c s="6" r="R60"/>
+      <c s="6" r="S60"/>
+      <c s="6" r="T60"/>
+      <c s="6" r="U60"/>
+      <c s="6" r="V60"/>
+      <c s="6" r="W60"/>
+      <c s="6" r="X60"/>
+      <c s="6" r="Y60"/>
     </row>
     <row r="61">
       <c s="3" r="A61"/>
-      <c s="30" r="B61"/>
-      <c s="4" r="C61"/>
+      <c s="31" r="B61"/>
+      <c s="5" r="C61"/>
       <c s="2" r="D61"/>
-      <c s="14" r="E61"/>
-      <c s="14" r="F61"/>
-      <c s="14" r="G61"/>
-      <c s="14" r="H61"/>
-      <c s="14" r="I61"/>
-      <c s="14" r="J61"/>
-      <c s="14" r="K61"/>
-      <c s="41" r="L61"/>
-      <c s="28" r="M61"/>
-      <c s="25" r="N61"/>
-      <c s="5" r="O61"/>
-      <c s="5" r="P61"/>
-      <c s="5" r="Q61"/>
-      <c s="5" r="R61"/>
-      <c s="5" r="S61"/>
-      <c s="5" r="T61"/>
-      <c s="5" r="U61"/>
-      <c s="5" r="V61"/>
-      <c s="5" r="W61"/>
-      <c s="5" r="X61"/>
-      <c s="5" r="Y61"/>
+      <c s="15" r="E61"/>
+      <c s="15" r="F61"/>
+      <c s="15" r="G61"/>
+      <c s="15" r="H61"/>
+      <c s="15" r="I61"/>
+      <c s="15" r="J61"/>
+      <c s="15" r="K61"/>
+      <c s="43" r="L61"/>
+      <c s="29" r="M61"/>
+      <c s="26" r="N61"/>
+      <c s="6" r="O61"/>
+      <c s="6" r="P61"/>
+      <c s="6" r="Q61"/>
+      <c s="6" r="R61"/>
+      <c s="6" r="S61"/>
+      <c s="6" r="T61"/>
+      <c s="6" r="U61"/>
+      <c s="6" r="V61"/>
+      <c s="6" r="W61"/>
+      <c s="6" r="X61"/>
+      <c s="6" r="Y61"/>
     </row>
     <row r="62">
       <c s="3" r="A62"/>
-      <c s="30" r="B62"/>
-      <c s="4" r="C62"/>
+      <c s="31" r="B62"/>
+      <c s="5" r="C62"/>
       <c s="2" r="D62"/>
-      <c s="14" r="E62"/>
-      <c s="14" r="F62"/>
-      <c s="14" r="G62"/>
-      <c s="14" r="H62"/>
-      <c s="14" r="I62"/>
-      <c s="14" r="J62"/>
-      <c s="14" r="K62"/>
-      <c s="41" r="L62"/>
-      <c s="28" r="M62"/>
-      <c s="25" r="N62"/>
-      <c s="5" r="O62"/>
-      <c s="5" r="P62"/>
-      <c s="5" r="Q62"/>
-      <c s="5" r="R62"/>
-      <c s="5" r="S62"/>
-      <c s="5" r="T62"/>
-      <c s="5" r="U62"/>
-      <c s="5" r="V62"/>
-      <c s="5" r="W62"/>
-      <c s="5" r="X62"/>
-      <c s="5" r="Y62"/>
+      <c s="15" r="E62"/>
+      <c s="15" r="F62"/>
+      <c s="15" r="G62"/>
+      <c s="15" r="H62"/>
+      <c s="15" r="I62"/>
+      <c s="15" r="J62"/>
+      <c s="15" r="K62"/>
+      <c s="43" r="L62"/>
+      <c s="29" r="M62"/>
+      <c s="26" r="N62"/>
+      <c s="6" r="O62"/>
+      <c s="6" r="P62"/>
+      <c s="6" r="Q62"/>
+      <c s="6" r="R62"/>
+      <c s="6" r="S62"/>
+      <c s="6" r="T62"/>
+      <c s="6" r="U62"/>
+      <c s="6" r="V62"/>
+      <c s="6" r="W62"/>
+      <c s="6" r="X62"/>
+      <c s="6" r="Y62"/>
     </row>
     <row r="63">
       <c s="3" r="A63"/>
-      <c s="30" r="B63"/>
-      <c s="4" r="C63"/>
+      <c s="31" r="B63"/>
+      <c s="5" r="C63"/>
       <c s="2" r="D63"/>
-      <c s="14" r="E63"/>
-      <c s="14" r="F63"/>
-      <c s="14" r="G63"/>
-      <c s="14" r="H63"/>
-      <c s="14" r="I63"/>
-      <c s="14" r="J63"/>
-      <c s="14" r="K63"/>
-      <c s="41" r="L63"/>
-      <c s="28" r="M63"/>
-      <c s="25" r="N63"/>
-      <c s="5" r="O63"/>
-      <c s="5" r="P63"/>
-      <c s="5" r="Q63"/>
-      <c s="5" r="R63"/>
-      <c s="5" r="S63"/>
-      <c s="5" r="T63"/>
-      <c s="5" r="U63"/>
-      <c s="5" r="V63"/>
-      <c s="5" r="W63"/>
-      <c s="5" r="X63"/>
-      <c s="5" r="Y63"/>
+      <c s="15" r="E63"/>
+      <c s="15" r="F63"/>
+      <c s="15" r="G63"/>
+      <c s="15" r="H63"/>
+      <c s="15" r="I63"/>
+      <c s="15" r="J63"/>
+      <c s="15" r="K63"/>
+      <c s="43" r="L63"/>
+      <c s="29" r="M63"/>
+      <c s="26" r="N63"/>
+      <c s="6" r="O63"/>
+      <c s="6" r="P63"/>
+      <c s="6" r="Q63"/>
+      <c s="6" r="R63"/>
+      <c s="6" r="S63"/>
+      <c s="6" r="T63"/>
+      <c s="6" r="U63"/>
+      <c s="6" r="V63"/>
+      <c s="6" r="W63"/>
+      <c s="6" r="X63"/>
+      <c s="6" r="Y63"/>
     </row>
     <row r="64">
       <c s="3" r="A64"/>
-      <c s="30" r="B64"/>
-      <c s="4" r="C64"/>
+      <c s="31" r="B64"/>
+      <c s="5" r="C64"/>
       <c s="2" r="D64"/>
-      <c s="14" r="E64"/>
-      <c s="14" r="F64"/>
-      <c s="14" r="G64"/>
-      <c s="14" r="H64"/>
-      <c s="14" r="I64"/>
-      <c s="14" r="J64"/>
-      <c s="14" r="K64"/>
-      <c s="41" r="L64"/>
-      <c s="28" r="M64"/>
-      <c s="25" r="N64"/>
-      <c s="5" r="O64"/>
-      <c s="5" r="P64"/>
-      <c s="5" r="Q64"/>
-      <c s="5" r="R64"/>
-      <c s="5" r="S64"/>
-      <c s="5" r="T64"/>
-      <c s="5" r="U64"/>
-      <c s="5" r="V64"/>
-      <c s="5" r="W64"/>
-      <c s="5" r="X64"/>
-      <c s="5" r="Y64"/>
+      <c s="15" r="E64"/>
+      <c s="15" r="F64"/>
+      <c s="15" r="G64"/>
+      <c s="15" r="H64"/>
+      <c s="15" r="I64"/>
+      <c s="15" r="J64"/>
+      <c s="15" r="K64"/>
+      <c s="43" r="L64"/>
+      <c s="29" r="M64"/>
+      <c s="26" r="N64"/>
+      <c s="6" r="O64"/>
+      <c s="6" r="P64"/>
+      <c s="6" r="Q64"/>
+      <c s="6" r="R64"/>
+      <c s="6" r="S64"/>
+      <c s="6" r="T64"/>
+      <c s="6" r="U64"/>
+      <c s="6" r="V64"/>
+      <c s="6" r="W64"/>
+      <c s="6" r="X64"/>
+      <c s="6" r="Y64"/>
     </row>
     <row r="65">
       <c s="3" r="A65"/>
-      <c s="30" r="B65"/>
-      <c s="4" r="C65"/>
+      <c s="31" r="B65"/>
+      <c s="5" r="C65"/>
       <c s="2" r="D65"/>
-      <c s="14" r="E65"/>
-      <c s="14" r="F65"/>
-      <c s="14" r="G65"/>
-      <c s="14" r="H65"/>
-      <c s="14" r="I65"/>
-      <c s="14" r="J65"/>
-      <c s="14" r="K65"/>
-      <c s="41" r="L65"/>
-      <c s="28" r="M65"/>
-      <c s="25" r="N65"/>
-      <c s="5" r="O65"/>
-      <c s="5" r="P65"/>
-      <c s="5" r="Q65"/>
-      <c s="5" r="R65"/>
-      <c s="5" r="S65"/>
-      <c s="5" r="T65"/>
-      <c s="5" r="U65"/>
-      <c s="5" r="V65"/>
-      <c s="5" r="W65"/>
-      <c s="5" r="X65"/>
-      <c s="5" r="Y65"/>
+      <c s="15" r="E65"/>
+      <c s="15" r="F65"/>
+      <c s="15" r="G65"/>
+      <c s="15" r="H65"/>
+      <c s="15" r="I65"/>
+      <c s="15" r="J65"/>
+      <c s="15" r="K65"/>
+      <c s="43" r="L65"/>
+      <c s="29" r="M65"/>
+      <c s="26" r="N65"/>
+      <c s="6" r="O65"/>
+      <c s="6" r="P65"/>
+      <c s="6" r="Q65"/>
+      <c s="6" r="R65"/>
+      <c s="6" r="S65"/>
+      <c s="6" r="T65"/>
+      <c s="6" r="U65"/>
+      <c s="6" r="V65"/>
+      <c s="6" r="W65"/>
+      <c s="6" r="X65"/>
+      <c s="6" r="Y65"/>
     </row>
     <row r="66">
       <c s="3" r="A66"/>
-      <c s="30" r="B66"/>
-      <c s="4" r="C66"/>
+      <c s="31" r="B66"/>
+      <c s="5" r="C66"/>
       <c s="2" r="D66"/>
-      <c s="14" r="E66"/>
-      <c s="14" r="F66"/>
-      <c s="14" r="G66"/>
-      <c s="14" r="H66"/>
-      <c s="14" r="I66"/>
-      <c s="14" r="J66"/>
-      <c s="14" r="K66"/>
-      <c s="41" r="L66"/>
-      <c s="28" r="M66"/>
-      <c s="25" r="N66"/>
-      <c s="5" r="O66"/>
-      <c s="5" r="P66"/>
-      <c s="5" r="Q66"/>
-      <c s="5" r="R66"/>
-      <c s="5" r="S66"/>
-      <c s="5" r="T66"/>
-      <c s="5" r="U66"/>
-      <c s="5" r="V66"/>
-      <c s="5" r="W66"/>
-      <c s="5" r="X66"/>
-      <c s="5" r="Y66"/>
+      <c s="15" r="E66"/>
+      <c s="15" r="F66"/>
+      <c s="15" r="G66"/>
+      <c s="15" r="H66"/>
+      <c s="15" r="I66"/>
+      <c s="15" r="J66"/>
+      <c s="15" r="K66"/>
+      <c s="43" r="L66"/>
+      <c s="29" r="M66"/>
+      <c s="26" r="N66"/>
+      <c s="6" r="O66"/>
+      <c s="6" r="P66"/>
+      <c s="6" r="Q66"/>
+      <c s="6" r="R66"/>
+      <c s="6" r="S66"/>
+      <c s="6" r="T66"/>
+      <c s="6" r="U66"/>
+      <c s="6" r="V66"/>
+      <c s="6" r="W66"/>
+      <c s="6" r="X66"/>
+      <c s="6" r="Y66"/>
     </row>
     <row r="67">
       <c s="3" r="A67"/>
-      <c s="30" r="B67"/>
-      <c s="4" r="C67"/>
+      <c s="31" r="B67"/>
+      <c s="5" r="C67"/>
       <c s="2" r="D67"/>
-      <c s="14" r="E67"/>
-      <c s="14" r="F67"/>
-      <c s="14" r="G67"/>
-      <c s="14" r="H67"/>
-      <c s="14" r="I67"/>
-      <c s="14" r="J67"/>
-      <c s="14" r="K67"/>
-      <c s="41" r="L67"/>
-      <c s="28" r="M67"/>
-      <c s="25" r="N67"/>
-      <c s="5" r="O67"/>
-      <c s="5" r="P67"/>
-      <c s="5" r="Q67"/>
-      <c s="5" r="R67"/>
-      <c s="5" r="S67"/>
-      <c s="5" r="T67"/>
-      <c s="5" r="U67"/>
-      <c s="5" r="V67"/>
-      <c s="5" r="W67"/>
-      <c s="5" r="X67"/>
-      <c s="5" r="Y67"/>
+      <c s="15" r="E67"/>
+      <c s="15" r="F67"/>
+      <c s="15" r="G67"/>
+      <c s="15" r="H67"/>
+      <c s="15" r="I67"/>
+      <c s="15" r="J67"/>
+      <c s="15" r="K67"/>
+      <c s="43" r="L67"/>
+      <c s="29" r="M67"/>
+      <c s="26" r="N67"/>
+      <c s="6" r="O67"/>
+      <c s="6" r="P67"/>
+      <c s="6" r="Q67"/>
+      <c s="6" r="R67"/>
+      <c s="6" r="S67"/>
+      <c s="6" r="T67"/>
+      <c s="6" r="U67"/>
+      <c s="6" r="V67"/>
+      <c s="6" r="W67"/>
+      <c s="6" r="X67"/>
+      <c s="6" r="Y67"/>
     </row>
     <row r="68">
       <c s="3" r="A68"/>
-      <c s="30" r="B68"/>
-      <c s="4" r="C68"/>
+      <c s="31" r="B68"/>
+      <c s="5" r="C68"/>
       <c s="2" r="D68"/>
-      <c s="14" r="E68"/>
-      <c s="14" r="F68"/>
-      <c s="14" r="G68"/>
-      <c s="14" r="H68"/>
-      <c s="14" r="I68"/>
-      <c s="14" r="J68"/>
-      <c s="14" r="K68"/>
-      <c s="41" r="L68"/>
-      <c s="28" r="M68"/>
-      <c s="25" r="N68"/>
-      <c s="5" r="O68"/>
-      <c s="5" r="P68"/>
-      <c s="5" r="Q68"/>
-      <c s="5" r="R68"/>
-      <c s="5" r="S68"/>
-      <c s="5" r="T68"/>
-      <c s="5" r="U68"/>
-      <c s="5" r="V68"/>
-      <c s="5" r="W68"/>
-      <c s="5" r="X68"/>
-      <c s="5" r="Y68"/>
+      <c s="15" r="E68"/>
+      <c s="15" r="F68"/>
+      <c s="15" r="G68"/>
+      <c s="15" r="H68"/>
+      <c s="15" r="I68"/>
+      <c s="15" r="J68"/>
+      <c s="15" r="K68"/>
+      <c s="43" r="L68"/>
+      <c s="29" r="M68"/>
+      <c s="26" r="N68"/>
+      <c s="6" r="O68"/>
+      <c s="6" r="P68"/>
+      <c s="6" r="Q68"/>
+      <c s="6" r="R68"/>
+      <c s="6" r="S68"/>
+      <c s="6" r="T68"/>
+      <c s="6" r="U68"/>
+      <c s="6" r="V68"/>
+      <c s="6" r="W68"/>
+      <c s="6" r="X68"/>
+      <c s="6" r="Y68"/>
     </row>
     <row r="69">
       <c s="3" r="A69"/>
-      <c s="30" r="B69"/>
-      <c s="4" r="C69"/>
+      <c s="31" r="B69"/>
+      <c s="5" r="C69"/>
       <c s="2" r="D69"/>
-      <c s="14" r="E69"/>
-      <c s="14" r="F69"/>
-      <c s="14" r="G69"/>
-      <c s="14" r="H69"/>
-      <c s="14" r="I69"/>
-      <c s="14" r="J69"/>
-      <c s="14" r="K69"/>
-      <c s="41" r="L69"/>
-      <c s="28" r="M69"/>
-      <c s="25" r="N69"/>
-      <c s="5" r="O69"/>
-      <c s="5" r="P69"/>
-      <c s="5" r="Q69"/>
-      <c s="5" r="R69"/>
-      <c s="5" r="S69"/>
-      <c s="5" r="T69"/>
-      <c s="5" r="U69"/>
-      <c s="5" r="V69"/>
-      <c s="5" r="W69"/>
-      <c s="5" r="X69"/>
-      <c s="5" r="Y69"/>
+      <c s="15" r="E69"/>
+      <c s="15" r="F69"/>
+      <c s="15" r="G69"/>
+      <c s="15" r="H69"/>
+      <c s="15" r="I69"/>
+      <c s="15" r="J69"/>
+      <c s="15" r="K69"/>
+      <c s="43" r="L69"/>
+      <c s="29" r="M69"/>
+      <c s="26" r="N69"/>
+      <c s="6" r="O69"/>
+      <c s="6" r="P69"/>
+      <c s="6" r="Q69"/>
+      <c s="6" r="R69"/>
+      <c s="6" r="S69"/>
+      <c s="6" r="T69"/>
+      <c s="6" r="U69"/>
+      <c s="6" r="V69"/>
+      <c s="6" r="W69"/>
+      <c s="6" r="X69"/>
+      <c s="6" r="Y69"/>
     </row>
     <row r="70">
       <c s="3" r="A70"/>
-      <c s="30" r="B70"/>
-      <c s="4" r="C70"/>
+      <c s="31" r="B70"/>
+      <c s="5" r="C70"/>
       <c s="2" r="D70"/>
-      <c s="14" r="E70"/>
-      <c s="14" r="F70"/>
-      <c s="14" r="G70"/>
-      <c s="14" r="H70"/>
-      <c s="14" r="I70"/>
-      <c s="14" r="J70"/>
-      <c s="14" r="K70"/>
-      <c s="41" r="L70"/>
-      <c s="28" r="M70"/>
-      <c s="25" r="N70"/>
-      <c s="5" r="O70"/>
-      <c s="5" r="P70"/>
-      <c s="5" r="Q70"/>
-      <c s="5" r="R70"/>
-      <c s="5" r="S70"/>
-      <c s="5" r="T70"/>
-      <c s="5" r="U70"/>
-      <c s="5" r="V70"/>
-      <c s="5" r="W70"/>
-      <c s="5" r="X70"/>
-      <c s="5" r="Y70"/>
+      <c s="15" r="E70"/>
+      <c s="15" r="F70"/>
+      <c s="15" r="G70"/>
+      <c s="15" r="H70"/>
+      <c s="15" r="I70"/>
+      <c s="15" r="J70"/>
+      <c s="15" r="K70"/>
+      <c s="43" r="L70"/>
+      <c s="29" r="M70"/>
+      <c s="26" r="N70"/>
+      <c s="6" r="O70"/>
+      <c s="6" r="P70"/>
+      <c s="6" r="Q70"/>
+      <c s="6" r="R70"/>
+      <c s="6" r="S70"/>
+      <c s="6" r="T70"/>
+      <c s="6" r="U70"/>
+      <c s="6" r="V70"/>
+      <c s="6" r="W70"/>
+      <c s="6" r="X70"/>
+      <c s="6" r="Y70"/>
     </row>
     <row r="71">
       <c s="3" r="A71"/>
-      <c s="30" r="B71"/>
-      <c s="4" r="C71"/>
+      <c s="31" r="B71"/>
+      <c s="5" r="C71"/>
       <c s="2" r="D71"/>
-      <c s="14" r="E71"/>
-      <c s="14" r="F71"/>
-      <c s="14" r="G71"/>
-      <c s="14" r="H71"/>
-      <c s="14" r="I71"/>
-      <c s="14" r="J71"/>
-      <c s="14" r="K71"/>
-      <c s="41" r="L71"/>
-      <c s="28" r="M71"/>
-      <c s="25" r="N71"/>
-      <c s="5" r="O71"/>
-      <c s="5" r="P71"/>
-      <c s="5" r="Q71"/>
-      <c s="5" r="R71"/>
-      <c s="5" r="S71"/>
-      <c s="5" r="T71"/>
-      <c s="5" r="U71"/>
-      <c s="5" r="V71"/>
-      <c s="5" r="W71"/>
-      <c s="5" r="X71"/>
-      <c s="5" r="Y71"/>
+      <c s="15" r="E71"/>
+      <c s="15" r="F71"/>
+      <c s="15" r="G71"/>
+      <c s="15" r="H71"/>
+      <c s="15" r="I71"/>
+      <c s="15" r="J71"/>
+      <c s="15" r="K71"/>
+      <c s="43" r="L71"/>
+      <c s="29" r="M71"/>
+      <c s="26" r="N71"/>
+      <c s="6" r="O71"/>
+      <c s="6" r="P71"/>
+      <c s="6" r="Q71"/>
+      <c s="6" r="R71"/>
+      <c s="6" r="S71"/>
+      <c s="6" r="T71"/>
+      <c s="6" r="U71"/>
+      <c s="6" r="V71"/>
+      <c s="6" r="W71"/>
+      <c s="6" r="X71"/>
+      <c s="6" r="Y71"/>
     </row>
     <row r="72">
       <c s="3" r="A72"/>
-      <c s="30" r="B72"/>
-      <c s="4" r="C72"/>
+      <c s="31" r="B72"/>
+      <c s="5" r="C72"/>
       <c s="2" r="D72"/>
-      <c s="14" r="E72"/>
-      <c s="14" r="F72"/>
-      <c s="14" r="G72"/>
-      <c s="14" r="H72"/>
-      <c s="14" r="I72"/>
-      <c s="14" r="J72"/>
-      <c s="14" r="K72"/>
-      <c s="41" r="L72"/>
-      <c s="28" r="M72"/>
-      <c s="25" r="N72"/>
-      <c s="5" r="O72"/>
-      <c s="5" r="P72"/>
-      <c s="5" r="Q72"/>
-      <c s="5" r="R72"/>
-      <c s="5" r="S72"/>
-      <c s="5" r="T72"/>
-      <c s="5" r="U72"/>
-      <c s="5" r="V72"/>
-      <c s="5" r="W72"/>
-      <c s="5" r="X72"/>
-      <c s="5" r="Y72"/>
+      <c s="15" r="E72"/>
+      <c s="15" r="F72"/>
+      <c s="15" r="G72"/>
+      <c s="15" r="H72"/>
+      <c s="15" r="I72"/>
+      <c s="15" r="J72"/>
+      <c s="15" r="K72"/>
+      <c s="43" r="L72"/>
+      <c s="29" r="M72"/>
+      <c s="26" r="N72"/>
+      <c s="6" r="O72"/>
+      <c s="6" r="P72"/>
+      <c s="6" r="Q72"/>
+      <c s="6" r="R72"/>
+      <c s="6" r="S72"/>
+      <c s="6" r="T72"/>
+      <c s="6" r="U72"/>
+      <c s="6" r="V72"/>
+      <c s="6" r="W72"/>
+      <c s="6" r="X72"/>
+      <c s="6" r="Y72"/>
     </row>
     <row r="73">
       <c s="3" r="A73"/>
-      <c s="30" r="B73"/>
-      <c s="4" r="C73"/>
+      <c s="31" r="B73"/>
+      <c s="5" r="C73"/>
       <c s="2" r="D73"/>
-      <c s="14" r="E73"/>
-      <c s="14" r="F73"/>
-      <c s="14" r="G73"/>
-      <c s="14" r="H73"/>
-      <c s="14" r="I73"/>
-      <c s="14" r="J73"/>
-      <c s="14" r="K73"/>
-      <c s="41" r="L73"/>
-      <c s="28" r="M73"/>
-      <c s="25" r="N73"/>
-      <c s="5" r="O73"/>
-      <c s="5" r="P73"/>
-      <c s="5" r="Q73"/>
-      <c s="5" r="R73"/>
-      <c s="5" r="S73"/>
-      <c s="5" r="T73"/>
-      <c s="5" r="U73"/>
-      <c s="5" r="V73"/>
-      <c s="5" r="W73"/>
-      <c s="5" r="X73"/>
-      <c s="5" r="Y73"/>
+      <c s="15" r="E73"/>
+      <c s="15" r="F73"/>
+      <c s="15" r="G73"/>
+      <c s="15" r="H73"/>
+      <c s="15" r="I73"/>
+      <c s="15" r="J73"/>
+      <c s="15" r="K73"/>
+      <c s="43" r="L73"/>
+      <c s="29" r="M73"/>
+      <c s="26" r="N73"/>
+      <c s="6" r="O73"/>
+      <c s="6" r="P73"/>
+      <c s="6" r="Q73"/>
+      <c s="6" r="R73"/>
+      <c s="6" r="S73"/>
+      <c s="6" r="T73"/>
+      <c s="6" r="U73"/>
+      <c s="6" r="V73"/>
+      <c s="6" r="W73"/>
+      <c s="6" r="X73"/>
+      <c s="6" r="Y73"/>
     </row>
     <row r="74">
       <c s="3" r="A74"/>
-      <c s="30" r="B74"/>
-      <c s="4" r="C74"/>
+      <c s="31" r="B74"/>
+      <c s="5" r="C74"/>
       <c s="2" r="D74"/>
-      <c s="14" r="E74"/>
-      <c s="14" r="F74"/>
-      <c s="14" r="G74"/>
-      <c s="14" r="H74"/>
-      <c s="14" r="I74"/>
-      <c s="14" r="J74"/>
-      <c s="14" r="K74"/>
-      <c s="41" r="L74"/>
-      <c s="28" r="M74"/>
-      <c s="25" r="N74"/>
-      <c s="5" r="O74"/>
-      <c s="5" r="P74"/>
-      <c s="5" r="Q74"/>
-      <c s="5" r="R74"/>
-      <c s="5" r="S74"/>
-      <c s="5" r="T74"/>
-      <c s="5" r="U74"/>
-      <c s="5" r="V74"/>
-      <c s="5" r="W74"/>
-      <c s="5" r="X74"/>
-      <c s="5" r="Y74"/>
+      <c s="15" r="E74"/>
+      <c s="15" r="F74"/>
+      <c s="15" r="G74"/>
+      <c s="15" r="H74"/>
+      <c s="15" r="I74"/>
+      <c s="15" r="J74"/>
+      <c s="15" r="K74"/>
+      <c s="43" r="L74"/>
+      <c s="29" r="M74"/>
+      <c s="26" r="N74"/>
+      <c s="6" r="O74"/>
+      <c s="6" r="P74"/>
+      <c s="6" r="Q74"/>
+      <c s="6" r="R74"/>
+      <c s="6" r="S74"/>
+      <c s="6" r="T74"/>
+      <c s="6" r="U74"/>
+      <c s="6" r="V74"/>
+      <c s="6" r="W74"/>
+      <c s="6" r="X74"/>
+      <c s="6" r="Y74"/>
     </row>
     <row r="75">
       <c s="3" r="A75"/>
-      <c s="30" r="B75"/>
-      <c s="4" r="C75"/>
+      <c s="31" r="B75"/>
+      <c s="5" r="C75"/>
       <c s="2" r="D75"/>
-      <c s="14" r="E75"/>
-      <c s="14" r="F75"/>
-      <c s="14" r="G75"/>
-      <c s="14" r="H75"/>
-      <c s="14" r="I75"/>
-      <c s="14" r="J75"/>
-      <c s="14" r="K75"/>
-      <c s="41" r="L75"/>
-      <c s="28" r="M75"/>
-      <c s="25" r="N75"/>
-      <c s="5" r="O75"/>
-      <c s="5" r="P75"/>
-      <c s="5" r="Q75"/>
-      <c s="5" r="R75"/>
-      <c s="5" r="S75"/>
-      <c s="5" r="T75"/>
-      <c s="5" r="U75"/>
-      <c s="5" r="V75"/>
-      <c s="5" r="W75"/>
-      <c s="5" r="X75"/>
-      <c s="5" r="Y75"/>
+      <c s="15" r="E75"/>
+      <c s="15" r="F75"/>
+      <c s="15" r="G75"/>
+      <c s="15" r="H75"/>
+      <c s="15" r="I75"/>
+      <c s="15" r="J75"/>
+      <c s="15" r="K75"/>
+      <c s="43" r="L75"/>
+      <c s="29" r="M75"/>
+      <c s="26" r="N75"/>
+      <c s="6" r="O75"/>
+      <c s="6" r="P75"/>
+      <c s="6" r="Q75"/>
+      <c s="6" r="R75"/>
+      <c s="6" r="S75"/>
+      <c s="6" r="T75"/>
+      <c s="6" r="U75"/>
+      <c s="6" r="V75"/>
+      <c s="6" r="W75"/>
+      <c s="6" r="X75"/>
+      <c s="6" r="Y75"/>
     </row>
     <row r="76">
       <c s="3" r="A76"/>
-      <c s="30" r="B76"/>
-      <c s="4" r="C76"/>
+      <c s="31" r="B76"/>
+      <c s="5" r="C76"/>
       <c s="2" r="D76"/>
-      <c s="14" r="E76"/>
-      <c s="14" r="F76"/>
-      <c s="14" r="G76"/>
-      <c s="14" r="H76"/>
-      <c s="14" r="I76"/>
-      <c s="14" r="J76"/>
-      <c s="14" r="K76"/>
-      <c s="41" r="L76"/>
-      <c s="28" r="M76"/>
-      <c s="25" r="N76"/>
-      <c s="5" r="O76"/>
-      <c s="5" r="P76"/>
-      <c s="5" r="Q76"/>
-      <c s="5" r="R76"/>
-      <c s="5" r="S76"/>
-      <c s="5" r="T76"/>
-      <c s="5" r="U76"/>
-      <c s="5" r="V76"/>
-      <c s="5" r="W76"/>
-      <c s="5" r="X76"/>
-      <c s="5" r="Y76"/>
+      <c s="15" r="E76"/>
+      <c s="15" r="F76"/>
+      <c s="15" r="G76"/>
+      <c s="15" r="H76"/>
+      <c s="15" r="I76"/>
+      <c s="15" r="J76"/>
+      <c s="15" r="K76"/>
+      <c s="43" r="L76"/>
+      <c s="29" r="M76"/>
+      <c s="26" r="N76"/>
+      <c s="6" r="O76"/>
+      <c s="6" r="P76"/>
+      <c s="6" r="Q76"/>
+      <c s="6" r="R76"/>
+      <c s="6" r="S76"/>
+      <c s="6" r="T76"/>
+      <c s="6" r="U76"/>
+      <c s="6" r="V76"/>
+      <c s="6" r="W76"/>
+      <c s="6" r="X76"/>
+      <c s="6" r="Y76"/>
     </row>
     <row r="77">
       <c s="3" r="A77"/>
-      <c s="30" r="B77"/>
-      <c s="4" r="C77"/>
+      <c s="31" r="B77"/>
+      <c s="5" r="C77"/>
       <c s="2" r="D77"/>
-      <c s="14" r="E77"/>
-      <c s="14" r="F77"/>
-      <c s="14" r="G77"/>
-      <c s="14" r="H77"/>
-      <c s="14" r="I77"/>
-      <c s="14" r="J77"/>
-      <c s="14" r="K77"/>
-      <c s="41" r="L77"/>
-      <c s="28" r="M77"/>
-      <c s="25" r="N77"/>
-      <c s="5" r="O77"/>
-      <c s="5" r="P77"/>
-      <c s="5" r="Q77"/>
-      <c s="5" r="R77"/>
-      <c s="5" r="S77"/>
-      <c s="5" r="T77"/>
-      <c s="5" r="U77"/>
-      <c s="5" r="V77"/>
-      <c s="5" r="W77"/>
-      <c s="5" r="X77"/>
-      <c s="5" r="Y77"/>
+      <c s="15" r="E77"/>
+      <c s="15" r="F77"/>
+      <c s="15" r="G77"/>
+      <c s="15" r="H77"/>
+      <c s="15" r="I77"/>
+      <c s="15" r="J77"/>
+      <c s="15" r="K77"/>
+      <c s="43" r="L77"/>
+      <c s="29" r="M77"/>
+      <c s="26" r="N77"/>
+      <c s="6" r="O77"/>
+      <c s="6" r="P77"/>
+      <c s="6" r="Q77"/>
+      <c s="6" r="R77"/>
+      <c s="6" r="S77"/>
+      <c s="6" r="T77"/>
+      <c s="6" r="U77"/>
+      <c s="6" r="V77"/>
+      <c s="6" r="W77"/>
+      <c s="6" r="X77"/>
+      <c s="6" r="Y77"/>
     </row>
     <row r="78">
       <c s="3" r="A78"/>
-      <c s="30" r="B78"/>
-      <c s="4" r="C78"/>
+      <c s="31" r="B78"/>
+      <c s="5" r="C78"/>
       <c s="2" r="D78"/>
-      <c s="14" r="E78"/>
-      <c s="14" r="F78"/>
-      <c s="14" r="G78"/>
-      <c s="14" r="H78"/>
-      <c s="14" r="I78"/>
-      <c s="14" r="J78"/>
-      <c s="14" r="K78"/>
-      <c s="41" r="L78"/>
-      <c s="28" r="M78"/>
-      <c s="25" r="N78"/>
-      <c s="5" r="O78"/>
-      <c s="5" r="P78"/>
-      <c s="5" r="Q78"/>
-      <c s="5" r="R78"/>
-      <c s="5" r="S78"/>
-      <c s="5" r="T78"/>
-      <c s="5" r="U78"/>
-      <c s="5" r="V78"/>
-      <c s="5" r="W78"/>
-      <c s="5" r="X78"/>
-      <c s="5" r="Y78"/>
+      <c s="15" r="E78"/>
+      <c s="15" r="F78"/>
+      <c s="15" r="G78"/>
+      <c s="15" r="H78"/>
+      <c s="15" r="I78"/>
+      <c s="15" r="J78"/>
+      <c s="15" r="K78"/>
+      <c s="43" r="L78"/>
+      <c s="29" r="M78"/>
+      <c s="26" r="N78"/>
+      <c s="6" r="O78"/>
+      <c s="6" r="P78"/>
+      <c s="6" r="Q78"/>
+      <c s="6" r="R78"/>
+      <c s="6" r="S78"/>
+      <c s="6" r="T78"/>
+      <c s="6" r="U78"/>
+      <c s="6" r="V78"/>
+      <c s="6" r="W78"/>
+      <c s="6" r="X78"/>
+      <c s="6" r="Y78"/>
     </row>
     <row r="79">
       <c s="3" r="A79"/>
-      <c s="30" r="B79"/>
-      <c s="4" r="C79"/>
+      <c s="31" r="B79"/>
+      <c s="5" r="C79"/>
       <c s="2" r="D79"/>
-      <c s="14" r="E79"/>
-      <c s="14" r="F79"/>
-      <c s="14" r="G79"/>
-      <c s="14" r="H79"/>
-      <c s="14" r="I79"/>
-      <c s="14" r="J79"/>
-      <c s="14" r="K79"/>
-      <c s="41" r="L79"/>
-      <c s="28" r="M79"/>
-      <c s="25" r="N79"/>
-      <c s="5" r="O79"/>
-      <c s="5" r="P79"/>
-      <c s="5" r="Q79"/>
-      <c s="5" r="R79"/>
-      <c s="5" r="S79"/>
-      <c s="5" r="T79"/>
-      <c s="5" r="U79"/>
-      <c s="5" r="V79"/>
-      <c s="5" r="W79"/>
-      <c s="5" r="X79"/>
-      <c s="5" r="Y79"/>
+      <c s="15" r="E79"/>
+      <c s="15" r="F79"/>
+      <c s="15" r="G79"/>
+      <c s="15" r="H79"/>
+      <c s="15" r="I79"/>
+      <c s="15" r="J79"/>
+      <c s="15" r="K79"/>
+      <c s="43" r="L79"/>
+      <c s="29" r="M79"/>
+      <c s="26" r="N79"/>
+      <c s="6" r="O79"/>
+      <c s="6" r="P79"/>
+      <c s="6" r="Q79"/>
+      <c s="6" r="R79"/>
+      <c s="6" r="S79"/>
+      <c s="6" r="T79"/>
+      <c s="6" r="U79"/>
+      <c s="6" r="V79"/>
+      <c s="6" r="W79"/>
+      <c s="6" r="X79"/>
+      <c s="6" r="Y79"/>
     </row>
     <row r="80">
       <c s="3" r="A80"/>
-      <c s="30" r="B80"/>
-      <c s="4" r="C80"/>
+      <c s="31" r="B80"/>
+      <c s="5" r="C80"/>
       <c s="2" r="D80"/>
-      <c s="14" r="E80"/>
-      <c s="14" r="F80"/>
-      <c s="14" r="G80"/>
-      <c s="14" r="H80"/>
-      <c s="14" r="I80"/>
-      <c s="14" r="J80"/>
-      <c s="14" r="K80"/>
-      <c s="41" r="L80"/>
-      <c s="28" r="M80"/>
-      <c s="25" r="N80"/>
-      <c s="5" r="O80"/>
-      <c s="5" r="P80"/>
-      <c s="5" r="Q80"/>
-      <c s="5" r="R80"/>
-      <c s="5" r="S80"/>
-      <c s="5" r="T80"/>
-      <c s="5" r="U80"/>
-      <c s="5" r="V80"/>
-      <c s="5" r="W80"/>
-      <c s="5" r="X80"/>
-      <c s="5" r="Y80"/>
+      <c s="15" r="E80"/>
+      <c s="15" r="F80"/>
+      <c s="15" r="G80"/>
+      <c s="15" r="H80"/>
+      <c s="15" r="I80"/>
+      <c s="15" r="J80"/>
+      <c s="15" r="K80"/>
+      <c s="43" r="L80"/>
+      <c s="29" r="M80"/>
+      <c s="26" r="N80"/>
+      <c s="6" r="O80"/>
+      <c s="6" r="P80"/>
+      <c s="6" r="Q80"/>
+      <c s="6" r="R80"/>
+      <c s="6" r="S80"/>
+      <c s="6" r="T80"/>
+      <c s="6" r="U80"/>
+      <c s="6" r="V80"/>
+      <c s="6" r="W80"/>
+      <c s="6" r="X80"/>
+      <c s="6" r="Y80"/>
     </row>
     <row r="81">
       <c s="3" r="A81"/>
-      <c s="30" r="B81"/>
-      <c s="4" r="C81"/>
+      <c s="31" r="B81"/>
+      <c s="5" r="C81"/>
       <c s="2" r="D81"/>
-      <c s="14" r="E81"/>
-      <c s="14" r="F81"/>
-      <c s="14" r="G81"/>
-      <c s="14" r="H81"/>
-      <c s="14" r="I81"/>
-      <c s="14" r="J81"/>
-      <c s="14" r="K81"/>
-      <c s="41" r="L81"/>
-      <c s="28" r="M81"/>
-      <c s="25" r="N81"/>
-      <c s="5" r="O81"/>
-      <c s="5" r="P81"/>
-      <c s="5" r="Q81"/>
-      <c s="5" r="R81"/>
-      <c s="5" r="S81"/>
-      <c s="5" r="T81"/>
-      <c s="5" r="U81"/>
-      <c s="5" r="V81"/>
-      <c s="5" r="W81"/>
-      <c s="5" r="X81"/>
-      <c s="5" r="Y81"/>
+      <c s="15" r="E81"/>
+      <c s="15" r="F81"/>
+      <c s="15" r="G81"/>
+      <c s="15" r="H81"/>
+      <c s="15" r="I81"/>
+      <c s="15" r="J81"/>
+      <c s="15" r="K81"/>
+      <c s="43" r="L81"/>
+      <c s="29" r="M81"/>
+      <c s="26" r="N81"/>
+      <c s="6" r="O81"/>
+      <c s="6" r="P81"/>
+      <c s="6" r="Q81"/>
+      <c s="6" r="R81"/>
+      <c s="6" r="S81"/>
+      <c s="6" r="T81"/>
+      <c s="6" r="U81"/>
+      <c s="6" r="V81"/>
+      <c s="6" r="W81"/>
+      <c s="6" r="X81"/>
+      <c s="6" r="Y81"/>
     </row>
     <row r="82">
       <c s="3" r="A82"/>
-      <c s="30" r="B82"/>
-      <c s="4" r="C82"/>
+      <c s="31" r="B82"/>
+      <c s="5" r="C82"/>
       <c s="2" r="D82"/>
-      <c s="14" r="E82"/>
-      <c s="14" r="F82"/>
-      <c s="14" r="G82"/>
-      <c s="14" r="H82"/>
-      <c s="14" r="I82"/>
-      <c s="14" r="J82"/>
-      <c s="14" r="K82"/>
-      <c s="41" r="L82"/>
-      <c s="28" r="M82"/>
-      <c s="25" r="N82"/>
-      <c s="5" r="O82"/>
-      <c s="5" r="P82"/>
-      <c s="5" r="Q82"/>
-      <c s="5" r="R82"/>
-      <c s="5" r="S82"/>
-      <c s="5" r="T82"/>
-      <c s="5" r="U82"/>
-      <c s="5" r="V82"/>
-      <c s="5" r="W82"/>
-      <c s="5" r="X82"/>
-      <c s="5" r="Y82"/>
+      <c s="15" r="E82"/>
+      <c s="15" r="F82"/>
+      <c s="15" r="G82"/>
+      <c s="15" r="H82"/>
+      <c s="15" r="I82"/>
+      <c s="15" r="J82"/>
+      <c s="15" r="K82"/>
+      <c s="43" r="L82"/>
+      <c s="29" r="M82"/>
+      <c s="26" r="N82"/>
+      <c s="6" r="O82"/>
+      <c s="6" r="P82"/>
+      <c s="6" r="Q82"/>
+      <c s="6" r="R82"/>
+      <c s="6" r="S82"/>
+      <c s="6" r="T82"/>
+      <c s="6" r="U82"/>
+      <c s="6" r="V82"/>
+      <c s="6" r="W82"/>
+      <c s="6" r="X82"/>
+      <c s="6" r="Y82"/>
     </row>
     <row r="83">
       <c s="3" r="A83"/>
-      <c s="30" r="B83"/>
-      <c s="4" r="C83"/>
+      <c s="31" r="B83"/>
+      <c s="5" r="C83"/>
       <c s="2" r="D83"/>
-      <c s="14" r="E83"/>
-      <c s="14" r="F83"/>
-      <c s="14" r="G83"/>
-      <c s="14" r="H83"/>
-      <c s="14" r="I83"/>
-      <c s="14" r="J83"/>
-      <c s="14" r="K83"/>
-      <c s="41" r="L83"/>
-      <c s="28" r="M83"/>
-      <c s="25" r="N83"/>
-      <c s="5" r="O83"/>
-      <c s="5" r="P83"/>
-      <c s="5" r="Q83"/>
-      <c s="5" r="R83"/>
-      <c s="5" r="S83"/>
-      <c s="5" r="T83"/>
-      <c s="5" r="U83"/>
-      <c s="5" r="V83"/>
-      <c s="5" r="W83"/>
-      <c s="5" r="X83"/>
-      <c s="5" r="Y83"/>
+      <c s="15" r="E83"/>
+      <c s="15" r="F83"/>
+      <c s="15" r="G83"/>
+      <c s="15" r="H83"/>
+      <c s="15" r="I83"/>
+      <c s="15" r="J83"/>
+      <c s="15" r="K83"/>
+      <c s="43" r="L83"/>
+      <c s="29" r="M83"/>
+      <c s="26" r="N83"/>
+      <c s="6" r="O83"/>
+      <c s="6" r="P83"/>
+      <c s="6" r="Q83"/>
+      <c s="6" r="R83"/>
+      <c s="6" r="S83"/>
+      <c s="6" r="T83"/>
+      <c s="6" r="U83"/>
+      <c s="6" r="V83"/>
+      <c s="6" r="W83"/>
+      <c s="6" r="X83"/>
+      <c s="6" r="Y83"/>
     </row>
     <row r="84">
       <c s="3" r="A84"/>
-      <c s="30" r="B84"/>
-      <c s="4" r="C84"/>
+      <c s="31" r="B84"/>
+      <c s="5" r="C84"/>
       <c s="2" r="D84"/>
-      <c s="14" r="E84"/>
-      <c s="14" r="F84"/>
-      <c s="14" r="G84"/>
-      <c s="14" r="H84"/>
-      <c s="14" r="I84"/>
-      <c s="14" r="J84"/>
-      <c s="14" r="K84"/>
-      <c s="41" r="L84"/>
-      <c s="28" r="M84"/>
-      <c s="25" r="N84"/>
-      <c s="5" r="O84"/>
-      <c s="5" r="P84"/>
-      <c s="5" r="Q84"/>
-      <c s="5" r="R84"/>
-      <c s="5" r="S84"/>
-      <c s="5" r="T84"/>
-      <c s="5" r="U84"/>
-      <c s="5" r="V84"/>
-      <c s="5" r="W84"/>
-      <c s="5" r="X84"/>
-      <c s="5" r="Y84"/>
+      <c s="15" r="E84"/>
+      <c s="15" r="F84"/>
+      <c s="15" r="G84"/>
+      <c s="15" r="H84"/>
+      <c s="15" r="I84"/>
+      <c s="15" r="J84"/>
+      <c s="15" r="K84"/>
+      <c s="43" r="L84"/>
+      <c s="29" r="M84"/>
+      <c s="26" r="N84"/>
+      <c s="6" r="O84"/>
+      <c s="6" r="P84"/>
+      <c s="6" r="Q84"/>
+      <c s="6" r="R84"/>
+      <c s="6" r="S84"/>
+      <c s="6" r="T84"/>
+      <c s="6" r="U84"/>
+      <c s="6" r="V84"/>
+      <c s="6" r="W84"/>
+      <c s="6" r="X84"/>
+      <c s="6" r="Y84"/>
     </row>
     <row r="85">
       <c s="3" r="A85"/>
-      <c s="30" r="B85"/>
-      <c s="4" r="C85"/>
+      <c s="31" r="B85"/>
+      <c s="5" r="C85"/>
       <c s="2" r="D85"/>
-      <c s="14" r="E85"/>
-      <c s="14" r="F85"/>
-      <c s="14" r="G85"/>
-      <c s="14" r="H85"/>
-      <c s="14" r="I85"/>
-      <c s="14" r="J85"/>
-      <c s="14" r="K85"/>
-      <c s="41" r="L85"/>
-      <c s="28" r="M85"/>
-      <c s="25" r="N85"/>
-      <c s="5" r="O85"/>
-      <c s="5" r="P85"/>
-      <c s="5" r="Q85"/>
-      <c s="5" r="R85"/>
-      <c s="5" r="S85"/>
-      <c s="5" r="T85"/>
-      <c s="5" r="U85"/>
-      <c s="5" r="V85"/>
-      <c s="5" r="W85"/>
-      <c s="5" r="X85"/>
-      <c s="5" r="Y85"/>
+      <c s="15" r="E85"/>
+      <c s="15" r="F85"/>
+      <c s="15" r="G85"/>
+      <c s="15" r="H85"/>
+      <c s="15" r="I85"/>
+      <c s="15" r="J85"/>
+      <c s="15" r="K85"/>
+      <c s="43" r="L85"/>
+      <c s="29" r="M85"/>
+      <c s="26" r="N85"/>
+      <c s="6" r="O85"/>
+      <c s="6" r="P85"/>
+      <c s="6" r="Q85"/>
+      <c s="6" r="R85"/>
+      <c s="6" r="S85"/>
+      <c s="6" r="T85"/>
+      <c s="6" r="U85"/>
+      <c s="6" r="V85"/>
+      <c s="6" r="W85"/>
+      <c s="6" r="X85"/>
+      <c s="6" r="Y85"/>
     </row>
     <row r="86">
       <c s="3" r="A86"/>
-      <c s="30" r="B86"/>
-      <c s="4" r="C86"/>
+      <c s="31" r="B86"/>
+      <c s="5" r="C86"/>
       <c s="2" r="D86"/>
-      <c s="14" r="E86"/>
-      <c s="14" r="F86"/>
-      <c s="14" r="G86"/>
-      <c s="14" r="H86"/>
-      <c s="14" r="I86"/>
-      <c s="14" r="J86"/>
-      <c s="14" r="K86"/>
-      <c s="41" r="L86"/>
-      <c s="28" r="M86"/>
-      <c s="25" r="N86"/>
-      <c s="5" r="O86"/>
-      <c s="5" r="P86"/>
-      <c s="5" r="Q86"/>
-      <c s="5" r="R86"/>
-      <c s="5" r="S86"/>
-      <c s="5" r="T86"/>
-      <c s="5" r="U86"/>
-      <c s="5" r="V86"/>
-      <c s="5" r="W86"/>
-      <c s="5" r="X86"/>
-      <c s="5" r="Y86"/>
+      <c s="15" r="E86"/>
+      <c s="15" r="F86"/>
+      <c s="15" r="G86"/>
+      <c s="15" r="H86"/>
+      <c s="15" r="I86"/>
+      <c s="15" r="J86"/>
+      <c s="15" r="K86"/>
+      <c s="43" r="L86"/>
+      <c s="29" r="M86"/>
+      <c s="26" r="N86"/>
+      <c s="6" r="O86"/>
+      <c s="6" r="P86"/>
+      <c s="6" r="Q86"/>
+      <c s="6" r="R86"/>
+      <c s="6" r="S86"/>
+      <c s="6" r="T86"/>
+      <c s="6" r="U86"/>
+      <c s="6" r="V86"/>
+      <c s="6" r="W86"/>
+      <c s="6" r="X86"/>
+      <c s="6" r="Y86"/>
     </row>
     <row r="87">
       <c s="3" r="A87"/>
-      <c s="30" r="B87"/>
-      <c s="4" r="C87"/>
+      <c s="31" r="B87"/>
+      <c s="5" r="C87"/>
       <c s="2" r="D87"/>
-      <c s="14" r="E87"/>
-      <c s="14" r="F87"/>
-      <c s="14" r="G87"/>
-      <c s="14" r="H87"/>
-      <c s="14" r="I87"/>
-      <c s="14" r="J87"/>
-      <c s="14" r="K87"/>
-      <c s="41" r="L87"/>
-      <c s="28" r="M87"/>
-      <c s="25" r="N87"/>
-      <c s="5" r="O87"/>
-      <c s="5" r="P87"/>
-      <c s="5" r="Q87"/>
-      <c s="5" r="R87"/>
-      <c s="5" r="S87"/>
-      <c s="5" r="T87"/>
-      <c s="5" r="U87"/>
-      <c s="5" r="V87"/>
-      <c s="5" r="W87"/>
-      <c s="5" r="X87"/>
-      <c s="5" r="Y87"/>
+      <c s="15" r="E87"/>
+      <c s="15" r="F87"/>
+      <c s="15" r="G87"/>
+      <c s="15" r="H87"/>
+      <c s="15" r="I87"/>
+      <c s="15" r="J87"/>
+      <c s="15" r="K87"/>
+      <c s="43" r="L87"/>
+      <c s="29" r="M87"/>
+      <c s="26" r="N87"/>
+      <c s="6" r="O87"/>
+      <c s="6" r="P87"/>
+      <c s="6" r="Q87"/>
+      <c s="6" r="R87"/>
+      <c s="6" r="S87"/>
+      <c s="6" r="T87"/>
+      <c s="6" r="U87"/>
+      <c s="6" r="V87"/>
+      <c s="6" r="W87"/>
+      <c s="6" r="X87"/>
+      <c s="6" r="Y87"/>
     </row>
     <row r="88">
       <c s="3" r="A88"/>
-      <c s="30" r="B88"/>
-      <c s="4" r="C88"/>
+      <c s="31" r="B88"/>
+      <c s="5" r="C88"/>
       <c s="2" r="D88"/>
-      <c s="14" r="E88"/>
-      <c s="14" r="F88"/>
-      <c s="14" r="G88"/>
-      <c s="14" r="H88"/>
-      <c s="14" r="I88"/>
-      <c s="14" r="J88"/>
-      <c s="14" r="K88"/>
-      <c s="41" r="L88"/>
-      <c s="28" r="M88"/>
-      <c s="25" r="N88"/>
-      <c s="5" r="O88"/>
-      <c s="5" r="P88"/>
-      <c s="5" r="Q88"/>
-      <c s="5" r="R88"/>
-      <c s="5" r="S88"/>
-      <c s="5" r="T88"/>
-      <c s="5" r="U88"/>
-      <c s="5" r="V88"/>
-      <c s="5" r="W88"/>
-      <c s="5" r="X88"/>
-      <c s="5" r="Y88"/>
+      <c s="15" r="E88"/>
+      <c s="15" r="F88"/>
+      <c s="15" r="G88"/>
+      <c s="15" r="H88"/>
+      <c s="15" r="I88"/>
+      <c s="15" r="J88"/>
+      <c s="15" r="K88"/>
+      <c s="43" r="L88"/>
+      <c s="29" r="M88"/>
+      <c s="26" r="N88"/>
+      <c s="6" r="O88"/>
+      <c s="6" r="P88"/>
+      <c s="6" r="Q88"/>
+      <c s="6" r="R88"/>
+      <c s="6" r="S88"/>
+      <c s="6" r="T88"/>
+      <c s="6" r="U88"/>
+      <c s="6" r="V88"/>
+      <c s="6" r="W88"/>
+      <c s="6" r="X88"/>
+      <c s="6" r="Y88"/>
     </row>
     <row r="89">
       <c s="3" r="A89"/>
-      <c s="30" r="B89"/>
-      <c s="4" r="C89"/>
+      <c s="31" r="B89"/>
+      <c s="5" r="C89"/>
       <c s="2" r="D89"/>
-      <c s="14" r="E89"/>
-      <c s="14" r="F89"/>
-      <c s="14" r="G89"/>
-      <c s="14" r="H89"/>
-      <c s="14" r="I89"/>
-      <c s="14" r="J89"/>
-      <c s="14" r="K89"/>
-      <c s="41" r="L89"/>
-      <c s="28" r="M89"/>
-      <c s="25" r="N89"/>
-      <c s="5" r="O89"/>
-      <c s="5" r="P89"/>
-      <c s="5" r="Q89"/>
-      <c s="5" r="R89"/>
-      <c s="5" r="S89"/>
-      <c s="5" r="T89"/>
-      <c s="5" r="U89"/>
-      <c s="5" r="V89"/>
-      <c s="5" r="W89"/>
-      <c s="5" r="X89"/>
-      <c s="5" r="Y89"/>
+      <c s="15" r="E89"/>
+      <c s="15" r="F89"/>
+      <c s="15" r="G89"/>
+      <c s="15" r="H89"/>
+      <c s="15" r="I89"/>
+      <c s="15" r="J89"/>
+      <c s="15" r="K89"/>
+      <c s="43" r="L89"/>
+      <c s="29" r="M89"/>
+      <c s="26" r="N89"/>
+      <c s="6" r="O89"/>
+      <c s="6" r="P89"/>
+      <c s="6" r="Q89"/>
+      <c s="6" r="R89"/>
+      <c s="6" r="S89"/>
+      <c s="6" r="T89"/>
+      <c s="6" r="U89"/>
+      <c s="6" r="V89"/>
+      <c s="6" r="W89"/>
+      <c s="6" r="X89"/>
+      <c s="6" r="Y89"/>
     </row>
     <row r="90">
       <c s="3" r="A90"/>
-      <c s="30" r="B90"/>
-      <c s="4" r="C90"/>
+      <c s="31" r="B90"/>
+      <c s="5" r="C90"/>
       <c s="2" r="D90"/>
-      <c s="14" r="E90"/>
-      <c s="14" r="F90"/>
-      <c s="14" r="G90"/>
-      <c s="14" r="H90"/>
-      <c s="14" r="I90"/>
-      <c s="14" r="J90"/>
-      <c s="14" r="K90"/>
-      <c s="41" r="L90"/>
-      <c s="28" r="M90"/>
-      <c s="25" r="N90"/>
-      <c s="5" r="O90"/>
-      <c s="5" r="P90"/>
-      <c s="5" r="Q90"/>
-      <c s="5" r="R90"/>
-      <c s="5" r="S90"/>
-      <c s="5" r="T90"/>
-      <c s="5" r="U90"/>
-      <c s="5" r="V90"/>
-      <c s="5" r="W90"/>
-      <c s="5" r="X90"/>
-      <c s="5" r="Y90"/>
+      <c s="15" r="E90"/>
+      <c s="15" r="F90"/>
+      <c s="15" r="G90"/>
+      <c s="15" r="H90"/>
+      <c s="15" r="I90"/>
+      <c s="15" r="J90"/>
+      <c s="15" r="K90"/>
+      <c s="43" r="L90"/>
+      <c s="29" r="M90"/>
+      <c s="26" r="N90"/>
+      <c s="6" r="O90"/>
+      <c s="6" r="P90"/>
+      <c s="6" r="Q90"/>
+      <c s="6" r="R90"/>
+      <c s="6" r="S90"/>
+      <c s="6" r="T90"/>
+      <c s="6" r="U90"/>
+      <c s="6" r="V90"/>
+      <c s="6" r="W90"/>
+      <c s="6" r="X90"/>
+      <c s="6" r="Y90"/>
     </row>
     <row r="91">
       <c s="3" r="A91"/>
-      <c s="30" r="B91"/>
-      <c s="4" r="C91"/>
+      <c s="31" r="B91"/>
+      <c s="5" r="C91"/>
       <c s="2" r="D91"/>
-      <c s="14" r="E91"/>
-      <c s="14" r="F91"/>
-      <c s="14" r="G91"/>
-      <c s="14" r="H91"/>
-      <c s="14" r="I91"/>
-      <c s="14" r="J91"/>
-      <c s="14" r="K91"/>
-      <c s="41" r="L91"/>
-      <c s="28" r="M91"/>
-      <c s="25" r="N91"/>
-      <c s="5" r="O91"/>
-      <c s="5" r="P91"/>
-      <c s="5" r="Q91"/>
-      <c s="5" r="R91"/>
-      <c s="5" r="S91"/>
-      <c s="5" r="T91"/>
-      <c s="5" r="U91"/>
-      <c s="5" r="V91"/>
-      <c s="5" r="W91"/>
-      <c s="5" r="X91"/>
-      <c s="5" r="Y91"/>
+      <c s="15" r="E91"/>
+      <c s="15" r="F91"/>
+      <c s="15" r="G91"/>
+      <c s="15" r="H91"/>
+      <c s="15" r="I91"/>
+      <c s="15" r="J91"/>
+      <c s="15" r="K91"/>
+      <c s="43" r="L91"/>
+      <c s="29" r="M91"/>
+      <c s="26" r="N91"/>
+      <c s="6" r="O91"/>
+      <c s="6" r="P91"/>
+      <c s="6" r="Q91"/>
+      <c s="6" r="R91"/>
+      <c s="6" r="S91"/>
+      <c s="6" r="T91"/>
+      <c s="6" r="U91"/>
+      <c s="6" r="V91"/>
+      <c s="6" r="W91"/>
+      <c s="6" r="X91"/>
+      <c s="6" r="Y91"/>
     </row>
     <row r="92">
       <c s="3" r="A92"/>
-      <c s="30" r="B92"/>
-      <c s="4" r="C92"/>
+      <c s="31" r="B92"/>
+      <c s="5" r="C92"/>
       <c s="2" r="D92"/>
-      <c s="14" r="E92"/>
-      <c s="14" r="F92"/>
-      <c s="14" r="G92"/>
-      <c s="14" r="H92"/>
-      <c s="14" r="I92"/>
-      <c s="14" r="J92"/>
-      <c s="14" r="K92"/>
-      <c s="41" r="L92"/>
-      <c s="28" r="M92"/>
-      <c s="25" r="N92"/>
-      <c s="5" r="O92"/>
-      <c s="5" r="P92"/>
-      <c s="5" r="Q92"/>
-      <c s="5" r="R92"/>
-      <c s="5" r="S92"/>
-      <c s="5" r="T92"/>
-      <c s="5" r="U92"/>
-      <c s="5" r="V92"/>
-      <c s="5" r="W92"/>
-      <c s="5" r="X92"/>
-      <c s="5" r="Y92"/>
+      <c s="15" r="E92"/>
+      <c s="15" r="F92"/>
+      <c s="15" r="G92"/>
+      <c s="15" r="H92"/>
+      <c s="15" r="I92"/>
+      <c s="15" r="J92"/>
+      <c s="15" r="K92"/>
+      <c s="43" r="L92"/>
+      <c s="29" r="M92"/>
+      <c s="26" r="N92"/>
+      <c s="6" r="O92"/>
+      <c s="6" r="P92"/>
+      <c s="6" r="Q92"/>
+      <c s="6" r="R92"/>
+      <c s="6" r="S92"/>
+      <c s="6" r="T92"/>
+      <c s="6" r="U92"/>
+      <c s="6" r="V92"/>
+      <c s="6" r="W92"/>
+      <c s="6" r="X92"/>
+      <c s="6" r="Y92"/>
     </row>
     <row r="93">
       <c s="3" r="A93"/>
-      <c s="30" r="B93"/>
-      <c s="4" r="C93"/>
+      <c s="31" r="B93"/>
+      <c s="5" r="C93"/>
       <c s="2" r="D93"/>
-      <c s="14" r="E93"/>
-      <c s="14" r="F93"/>
-      <c s="14" r="G93"/>
-      <c s="14" r="H93"/>
-      <c s="14" r="I93"/>
-      <c s="14" r="J93"/>
-      <c s="14" r="K93"/>
-      <c s="41" r="L93"/>
-      <c s="28" r="M93"/>
-      <c s="25" r="N93"/>
-      <c s="5" r="O93"/>
-      <c s="5" r="P93"/>
-      <c s="5" r="Q93"/>
-      <c s="5" r="R93"/>
-      <c s="5" r="S93"/>
-      <c s="5" r="T93"/>
-      <c s="5" r="U93"/>
-      <c s="5" r="V93"/>
-      <c s="5" r="W93"/>
-      <c s="5" r="X93"/>
-      <c s="5" r="Y93"/>
+      <c s="15" r="E93"/>
+      <c s="15" r="F93"/>
+      <c s="15" r="G93"/>
+      <c s="15" r="H93"/>
+      <c s="15" r="I93"/>
+      <c s="15" r="J93"/>
+      <c s="15" r="K93"/>
+      <c s="43" r="L93"/>
+      <c s="29" r="M93"/>
+      <c s="26" r="N93"/>
+      <c s="6" r="O93"/>
+      <c s="6" r="P93"/>
+      <c s="6" r="Q93"/>
+      <c s="6" r="R93"/>
+      <c s="6" r="S93"/>
+      <c s="6" r="T93"/>
+      <c s="6" r="U93"/>
+      <c s="6" r="V93"/>
+      <c s="6" r="W93"/>
+      <c s="6" r="X93"/>
+      <c s="6" r="Y93"/>
     </row>
     <row r="94">
       <c s="3" r="A94"/>
-      <c s="30" r="B94"/>
-      <c s="4" r="C94"/>
+      <c s="31" r="B94"/>
+      <c s="5" r="C94"/>
       <c s="2" r="D94"/>
-      <c s="14" r="E94"/>
-      <c s="14" r="F94"/>
-      <c s="14" r="G94"/>
-      <c s="14" r="H94"/>
-      <c s="14" r="I94"/>
-      <c s="14" r="J94"/>
-      <c s="14" r="K94"/>
-      <c s="41" r="L94"/>
-      <c s="28" r="M94"/>
-      <c s="25" r="N94"/>
-      <c s="5" r="O94"/>
-      <c s="5" r="P94"/>
-      <c s="5" r="Q94"/>
-      <c s="5" r="R94"/>
-      <c s="5" r="S94"/>
-      <c s="5" r="T94"/>
-      <c s="5" r="U94"/>
-      <c s="5" r="V94"/>
-      <c s="5" r="W94"/>
-      <c s="5" r="X94"/>
-      <c s="5" r="Y94"/>
+      <c s="15" r="E94"/>
+      <c s="15" r="F94"/>
+      <c s="15" r="G94"/>
+      <c s="15" r="H94"/>
+      <c s="15" r="I94"/>
+      <c s="15" r="J94"/>
+      <c s="15" r="K94"/>
+      <c s="43" r="L94"/>
+      <c s="29" r="M94"/>
+      <c s="26" r="N94"/>
+      <c s="6" r="O94"/>
+      <c s="6" r="P94"/>
+      <c s="6" r="Q94"/>
+      <c s="6" r="R94"/>
+      <c s="6" r="S94"/>
+      <c s="6" r="T94"/>
+      <c s="6" r="U94"/>
+      <c s="6" r="V94"/>
+      <c s="6" r="W94"/>
+      <c s="6" r="X94"/>
+      <c s="6" r="Y94"/>
     </row>
     <row r="95">
       <c s="3" r="A95"/>
-      <c s="30" r="B95"/>
-      <c s="4" r="C95"/>
+      <c s="31" r="B95"/>
+      <c s="5" r="C95"/>
       <c s="2" r="D95"/>
-      <c s="14" r="E95"/>
-      <c s="14" r="F95"/>
-      <c s="14" r="G95"/>
-      <c s="14" r="H95"/>
-      <c s="14" r="I95"/>
-      <c s="14" r="J95"/>
-      <c s="14" r="K95"/>
-      <c s="41" r="L95"/>
-      <c s="28" r="M95"/>
-      <c s="25" r="N95"/>
-      <c s="5" r="O95"/>
-      <c s="5" r="P95"/>
-      <c s="5" r="Q95"/>
-      <c s="5" r="R95"/>
-      <c s="5" r="S95"/>
-      <c s="5" r="T95"/>
-      <c s="5" r="U95"/>
-      <c s="5" r="V95"/>
-      <c s="5" r="W95"/>
-      <c s="5" r="X95"/>
-      <c s="5" r="Y95"/>
+      <c s="15" r="E95"/>
+      <c s="15" r="F95"/>
+      <c s="15" r="G95"/>
+      <c s="15" r="H95"/>
+      <c s="15" r="I95"/>
+      <c s="15" r="J95"/>
+      <c s="15" r="K95"/>
+      <c s="43" r="L95"/>
+      <c s="29" r="M95"/>
+      <c s="26" r="N95"/>
+      <c s="6" r="O95"/>
+      <c s="6" r="P95"/>
+      <c s="6" r="Q95"/>
+      <c s="6" r="R95"/>
+      <c s="6" r="S95"/>
+      <c s="6" r="T95"/>
+      <c s="6" r="U95"/>
+      <c s="6" r="V95"/>
+      <c s="6" r="W95"/>
+      <c s="6" r="X95"/>
+      <c s="6" r="Y95"/>
     </row>
     <row r="96">
       <c s="3" r="A96"/>
-      <c s="30" r="B96"/>
-      <c s="4" r="C96"/>
+      <c s="31" r="B96"/>
+      <c s="5" r="C96"/>
       <c s="2" r="D96"/>
-      <c s="14" r="E96"/>
-      <c s="14" r="F96"/>
-      <c s="14" r="G96"/>
-      <c s="14" r="H96"/>
-      <c s="14" r="I96"/>
-      <c s="14" r="J96"/>
-      <c s="14" r="K96"/>
-      <c s="41" r="L96"/>
-      <c s="28" r="M96"/>
-      <c s="25" r="N96"/>
-      <c s="5" r="O96"/>
-      <c s="5" r="P96"/>
-      <c s="5" r="Q96"/>
-      <c s="5" r="R96"/>
-      <c s="5" r="S96"/>
-      <c s="5" r="T96"/>
-      <c s="5" r="U96"/>
-      <c s="5" r="V96"/>
-      <c s="5" r="W96"/>
-      <c s="5" r="X96"/>
-      <c s="5" r="Y96"/>
+      <c s="15" r="E96"/>
+      <c s="15" r="F96"/>
+      <c s="15" r="G96"/>
+      <c s="15" r="H96"/>
+      <c s="15" r="I96"/>
+      <c s="15" r="J96"/>
+      <c s="15" r="K96"/>
+      <c s="43" r="L96"/>
+      <c s="29" r="M96"/>
+      <c s="26" r="N96"/>
+      <c s="6" r="O96"/>
+      <c s="6" r="P96"/>
+      <c s="6" r="Q96"/>
+      <c s="6" r="R96"/>
+      <c s="6" r="S96"/>
+      <c s="6" r="T96"/>
+      <c s="6" r="U96"/>
+      <c s="6" r="V96"/>
+      <c s="6" r="W96"/>
+      <c s="6" r="X96"/>
+      <c s="6" r="Y96"/>
     </row>
     <row r="97">
       <c s="3" r="A97"/>
-      <c s="30" r="B97"/>
-      <c s="4" r="C97"/>
+      <c s="31" r="B97"/>
+      <c s="5" r="C97"/>
       <c s="2" r="D97"/>
-      <c s="14" r="E97"/>
-      <c s="14" r="F97"/>
-      <c s="14" r="G97"/>
-      <c s="14" r="H97"/>
-      <c s="14" r="I97"/>
-      <c s="14" r="J97"/>
-      <c s="14" r="K97"/>
-      <c s="41" r="L97"/>
-      <c s="28" r="M97"/>
-      <c s="25" r="N97"/>
-      <c s="5" r="O97"/>
-      <c s="5" r="P97"/>
-      <c s="5" r="Q97"/>
-      <c s="5" r="R97"/>
-      <c s="5" r="S97"/>
-      <c s="5" r="T97"/>
-      <c s="5" r="U97"/>
-      <c s="5" r="V97"/>
-      <c s="5" r="W97"/>
-      <c s="5" r="X97"/>
-      <c s="5" r="Y97"/>
+      <c s="15" r="E97"/>
+      <c s="15" r="F97"/>
+      <c s="15" r="G97"/>
+      <c s="15" r="H97"/>
+      <c s="15" r="I97"/>
+      <c s="15" r="J97"/>
+      <c s="15" r="K97"/>
+      <c s="43" r="L97"/>
+      <c s="29" r="M97"/>
+      <c s="26" r="N97"/>
+      <c s="6" r="O97"/>
+      <c s="6" r="P97"/>
+      <c s="6" r="Q97"/>
+      <c s="6" r="R97"/>
+      <c s="6" r="S97"/>
+      <c s="6" r="T97"/>
+      <c s="6" r="U97"/>
+      <c s="6" r="V97"/>
+      <c s="6" r="W97"/>
+      <c s="6" r="X97"/>
+      <c s="6" r="Y97"/>
     </row>
     <row r="98">
       <c s="3" r="A98"/>
-      <c s="30" r="B98"/>
-      <c s="4" r="C98"/>
+      <c s="31" r="B98"/>
+      <c s="5" r="C98"/>
       <c s="2" r="D98"/>
-      <c s="14" r="E98"/>
-      <c s="14" r="F98"/>
-      <c s="14" r="G98"/>
-      <c s="14" r="H98"/>
-      <c s="14" r="I98"/>
-      <c s="14" r="J98"/>
-      <c s="14" r="K98"/>
-      <c s="41" r="L98"/>
-      <c s="28" r="M98"/>
-      <c s="25" r="N98"/>
-      <c s="5" r="O98"/>
-      <c s="5" r="P98"/>
-      <c s="5" r="Q98"/>
-      <c s="5" r="R98"/>
-      <c s="5" r="S98"/>
-      <c s="5" r="T98"/>
-      <c s="5" r="U98"/>
-      <c s="5" r="V98"/>
-      <c s="5" r="W98"/>
-      <c s="5" r="X98"/>
-      <c s="5" r="Y98"/>
+      <c s="15" r="E98"/>
+      <c s="15" r="F98"/>
+      <c s="15" r="G98"/>
+      <c s="15" r="H98"/>
+      <c s="15" r="I98"/>
+      <c s="15" r="J98"/>
+      <c s="15" r="K98"/>
+      <c s="43" r="L98"/>
+      <c s="29" r="M98"/>
+      <c s="26" r="N98"/>
+      <c s="6" r="O98"/>
+      <c s="6" r="P98"/>
+      <c s="6" r="Q98"/>
+      <c s="6" r="R98"/>
+      <c s="6" r="S98"/>
+      <c s="6" r="T98"/>
+      <c s="6" r="U98"/>
+      <c s="6" r="V98"/>
+      <c s="6" r="W98"/>
+      <c s="6" r="X98"/>
+      <c s="6" r="Y98"/>
     </row>
     <row r="99">
       <c s="3" r="A99"/>
-      <c s="30" r="B99"/>
-      <c s="4" r="C99"/>
+      <c s="31" r="B99"/>
+      <c s="5" r="C99"/>
       <c s="2" r="D99"/>
-      <c s="14" r="E99"/>
-      <c s="14" r="F99"/>
-      <c s="14" r="G99"/>
-      <c s="14" r="H99"/>
-      <c s="14" r="I99"/>
-      <c s="14" r="J99"/>
-      <c s="14" r="K99"/>
-      <c s="41" r="L99"/>
-      <c s="28" r="M99"/>
-      <c s="25" r="N99"/>
-      <c s="5" r="O99"/>
-      <c s="5" r="P99"/>
-      <c s="5" r="Q99"/>
-      <c s="5" r="R99"/>
-      <c s="5" r="S99"/>
-      <c s="5" r="T99"/>
-      <c s="5" r="U99"/>
-      <c s="5" r="V99"/>
-      <c s="5" r="W99"/>
-      <c s="5" r="X99"/>
-      <c s="5" r="Y99"/>
+      <c s="15" r="E99"/>
+      <c s="15" r="F99"/>
+      <c s="15" r="G99"/>
+      <c s="15" r="H99"/>
+      <c s="15" r="I99"/>
+      <c s="15" r="J99"/>
+      <c s="15" r="K99"/>
+      <c s="43" r="L99"/>
+      <c s="29" r="M99"/>
+      <c s="26" r="N99"/>
+      <c s="6" r="O99"/>
+      <c s="6" r="P99"/>
+      <c s="6" r="Q99"/>
+      <c s="6" r="R99"/>
+      <c s="6" r="S99"/>
+      <c s="6" r="T99"/>
+      <c s="6" r="U99"/>
+      <c s="6" r="V99"/>
+      <c s="6" r="W99"/>
+      <c s="6" r="X99"/>
+      <c s="6" r="Y99"/>
     </row>
     <row r="100">
       <c s="3" r="A100"/>
-      <c s="30" r="B100"/>
-      <c s="4" r="C100"/>
+      <c s="31" r="B100"/>
+      <c s="5" r="C100"/>
       <c s="2" r="D100"/>
-      <c s="14" r="E100"/>
-      <c s="14" r="F100"/>
-      <c s="14" r="G100"/>
-      <c s="14" r="H100"/>
-      <c s="14" r="I100"/>
-      <c s="14" r="J100"/>
-      <c s="14" r="K100"/>
-      <c s="41" r="L100"/>
-      <c s="28" r="M100"/>
-      <c s="25" r="N100"/>
-      <c s="5" r="O100"/>
-      <c s="5" r="P100"/>
-      <c s="5" r="Q100"/>
-      <c s="5" r="R100"/>
-      <c s="5" r="S100"/>
-      <c s="5" r="T100"/>
-      <c s="5" r="U100"/>
-      <c s="5" r="V100"/>
-      <c s="5" r="W100"/>
-      <c s="5" r="X100"/>
-      <c s="5" r="Y100"/>
+      <c s="15" r="E100"/>
+      <c s="15" r="F100"/>
+      <c s="15" r="G100"/>
+      <c s="15" r="H100"/>
+      <c s="15" r="I100"/>
+      <c s="15" r="J100"/>
+      <c s="15" r="K100"/>
+      <c s="43" r="L100"/>
+      <c s="29" r="M100"/>
+      <c s="26" r="N100"/>
+      <c s="6" r="O100"/>
+      <c s="6" r="P100"/>
+      <c s="6" r="Q100"/>
+      <c s="6" r="R100"/>
+      <c s="6" r="S100"/>
+      <c s="6" r="T100"/>
+      <c s="6" r="U100"/>
+      <c s="6" r="V100"/>
+      <c s="6" r="W100"/>
+      <c s="6" r="X100"/>
+      <c s="6" r="Y100"/>
     </row>
     <row r="101">
-      <c s="11" r="A101"/>
-      <c s="17" r="B101"/>
-      <c s="19" r="C101"/>
-      <c s="8" r="D101"/>
-      <c s="36" r="E101"/>
-      <c s="36" r="F101"/>
-      <c s="36" r="G101"/>
-      <c s="36" r="H101"/>
-      <c s="36" r="I101"/>
-      <c s="36" r="J101"/>
-      <c s="36" r="K101"/>
-      <c s="43" r="L101"/>
-      <c s="26" r="M101"/>
-      <c s="37" r="N101"/>
-      <c s="5" r="O101"/>
-      <c s="5" r="P101"/>
-      <c s="5" r="Q101"/>
-      <c s="5" r="R101"/>
-      <c s="5" r="S101"/>
-      <c s="5" r="T101"/>
-      <c s="5" r="U101"/>
-      <c s="5" r="V101"/>
-      <c s="5" r="W101"/>
-      <c s="5" r="X101"/>
-      <c s="5" r="Y101"/>
+      <c s="12" r="A101"/>
+      <c s="18" r="B101"/>
+      <c s="20" r="C101"/>
+      <c s="9" r="D101"/>
+      <c s="38" r="E101"/>
+      <c s="38" r="F101"/>
+      <c s="38" r="G101"/>
+      <c s="38" r="H101"/>
+      <c s="38" r="I101"/>
+      <c s="38" r="J101"/>
+      <c s="38" r="K101"/>
+      <c s="45" r="L101"/>
+      <c s="27" r="M101"/>
+      <c s="39" r="N101"/>
+      <c s="6" r="O101"/>
+      <c s="6" r="P101"/>
+      <c s="6" r="Q101"/>
+      <c s="6" r="R101"/>
+      <c s="6" r="S101"/>
+      <c s="6" r="T101"/>
+      <c s="6" r="U101"/>
+      <c s="6" r="V101"/>
+      <c s="6" r="W101"/>
+      <c s="6" r="X101"/>
+      <c s="6" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6204,37 +6180,6 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" r="11" ht="21.0">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c t="s" r="B11">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <f>D11+E11</f>
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f>SUM(G11:M11)</f>
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c t="s" r="F11">
-        <v>67</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c t="s" r="N11">
-        <v>68</v>
-      </c>
-      <c r="O11">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -6308,7 +6253,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6320,13 +6265,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -6337,7 +6282,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -6349,7 +6294,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -6361,7 +6306,7 @@
         <v>2</v>
       </c>
       <c t="s" r="N3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -6372,7 +6317,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6384,13 +6329,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c t="s" r="N4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -6401,7 +6346,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -6413,7 +6358,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6428,7 +6373,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6439,7 +6384,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -6451,7 +6396,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6463,7 +6408,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -6474,7 +6419,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6486,7 +6431,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -6495,7 +6440,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -6506,7 +6451,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6518,7 +6463,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -6530,7 +6475,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -6541,7 +6486,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -6553,13 +6498,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c t="s" r="N9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O9">
         <v>8</v>
@@ -6570,7 +6515,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -6582,7 +6527,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6594,7 +6539,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N10">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -6605,7 +6550,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -6617,16 +6562,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c t="s" r="N11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="O11">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6646,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6713,7 +6658,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6722,10 +6667,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="O2">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -6733,7 +6678,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -6745,7 +6690,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6757,10 +6702,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="O3">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -6768,7 +6713,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6780,7 +6725,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6792,10 +6737,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="O4">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -6803,7 +6748,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -6815,7 +6760,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6827,10 +6772,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N5">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="O5">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -6838,7 +6783,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -6850,16 +6795,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="O6">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -6867,7 +6812,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6879,7 +6824,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6888,10 +6833,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="O7">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -6899,7 +6844,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6911,7 +6856,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6920,10 +6865,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="O8">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -6931,7 +6876,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6943,7 +6888,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6955,10 +6900,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="O9">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -6966,7 +6911,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -6978,7 +6923,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6990,10 +6935,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N10">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="O10">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -7001,7 +6946,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -7013,16 +6958,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c t="s" r="N11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="O11">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7101,7 +7046,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -7113,13 +7058,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -7130,7 +7075,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -7142,7 +7087,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -7151,7 +7096,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -7162,7 +7107,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -7174,7 +7119,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -7183,7 +7128,7 @@
         <v>6.5</v>
       </c>
       <c t="s" r="N4">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -7194,7 +7139,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -7206,7 +7151,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7215,7 +7160,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N5">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -7226,7 +7171,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -7238,7 +7183,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -7250,7 +7195,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -7261,7 +7206,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -7273,13 +7218,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -7290,7 +7235,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -7302,13 +7247,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c t="s" r="N8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O8">
         <v>12</v>
@@ -7319,7 +7264,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -7331,7 +7276,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -7340,7 +7285,7 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -7351,7 +7296,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -7363,44 +7308,15 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c t="s" r="N10">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c t="s" r="B11">
-        <v>112</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c t="s" r="F11">
-        <v>131</v>
-      </c>
-      <c r="J11">
-        <v>11</v>
-      </c>
-      <c t="s" r="N11">
-        <v>132</v>
-      </c>
-      <c r="O11">
         <v>12</v>
       </c>
     </row>
@@ -7480,7 +7396,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -7492,7 +7408,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -7504,7 +7420,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -7512,7 +7428,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -7524,7 +7440,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7536,7 +7452,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -7544,7 +7460,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -7556,7 +7472,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7571,7 +7487,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N4">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -7579,7 +7495,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -7591,7 +7507,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7603,7 +7519,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N5">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -7611,7 +7527,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -7623,7 +7539,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7646,7 +7562,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -7658,7 +7574,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7672,7 +7588,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7684,7 +7600,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -7698,7 +7614,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7710,7 +7626,7 @@
         <v>0</v>
       </c>
       <c t="s" r="F9">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7724,7 +7640,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -7736,7 +7652,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -7750,7 +7666,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -7762,7 +7678,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7793,546 +7709,500 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="39" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="39" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="39" r="C1">
+      <c t="s" s="41" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="41" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="41" r="C1">
+        <v>144</v>
+      </c>
+      <c t="s" s="41" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="41" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="41" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="41" r="G1">
+        <v>145</v>
+      </c>
+      <c t="s" s="41" r="H1">
+        <v>146</v>
+      </c>
+      <c t="s" s="41" r="I1">
+        <v>147</v>
+      </c>
+      <c t="s" s="41" r="J1">
         <v>148</v>
       </c>
-      <c t="s" s="39" r="D1">
+      <c t="s" s="41" r="K1">
+        <v>149</v>
+      </c>
+      <c t="s" s="41" r="L1">
+        <v>150</v>
+      </c>
+      <c t="s" s="41" r="M1">
+        <v>151</v>
+      </c>
+      <c t="s" s="41" r="N1">
+        <v>152</v>
+      </c>
+      <c t="s" s="41" r="O1">
+        <v>153</v>
+      </c>
+      <c s="30" r="P1"/>
+      <c s="30" r="Q1"/>
+      <c s="30" r="R1"/>
+      <c s="30" r="S1"/>
+      <c s="30" r="T1"/>
+      <c s="30" r="U1"/>
+      <c s="30" r="V1"/>
+      <c s="30" r="W1"/>
+      <c s="30" r="X1"/>
+      <c s="30" r="Y1"/>
+      <c s="30" r="Z1"/>
+    </row>
+    <row customHeight="1" r="2" ht="51.0">
+      <c s="13" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="B2">
+        <v>154</v>
+      </c>
+      <c s="13" r="C2">
+        <v>5</v>
+      </c>
+      <c s="13" r="D2">
+        <v>4</v>
+      </c>
+      <c s="13" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F2">
+        <v>155</v>
+      </c>
+      <c s="13" r="G2">
+        <v>4</v>
+      </c>
+      <c s="13" r="H2"/>
+      <c s="13" r="I2"/>
+      <c s="13" r="J2"/>
+      <c s="13" r="K2"/>
+      <c s="13" r="L2"/>
+      <c s="13" r="M2"/>
+      <c t="s" s="13" r="N2">
+        <v>156</v>
+      </c>
+      <c s="13" r="O2">
+        <v>8</v>
+      </c>
+      <c s="32" r="P2"/>
+      <c s="32" r="Q2"/>
+      <c s="32" r="R2"/>
+      <c s="32" r="S2"/>
+      <c s="32" r="T2"/>
+      <c s="32" r="U2"/>
+      <c s="32" r="V2"/>
+      <c s="32" r="W2"/>
+      <c s="32" r="X2"/>
+      <c s="32" r="Y2"/>
+      <c s="32" r="Z2"/>
+    </row>
+    <row customHeight="1" r="3" ht="51.0">
+      <c s="13" r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" s="13" r="B3">
+        <v>154</v>
+      </c>
+      <c s="13" r="C3">
+        <v>5</v>
+      </c>
+      <c s="13" r="D3">
+        <v>4</v>
+      </c>
+      <c s="13" r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F3">
+        <v>157</v>
+      </c>
+      <c s="13" r="G3">
+        <v>3.5</v>
+      </c>
+      <c s="13" r="H3">
+        <v>1.5</v>
+      </c>
+      <c s="13" r="I3"/>
+      <c s="13" r="J3"/>
+      <c s="13" r="K3"/>
+      <c s="13" r="L3"/>
+      <c s="13" r="M3"/>
+      <c t="s" s="13" r="N3">
+        <v>158</v>
+      </c>
+      <c s="13" r="O3">
+        <v>8</v>
+      </c>
+      <c s="13" r="P3"/>
+      <c s="13" r="Q3"/>
+      <c s="13" r="R3"/>
+      <c s="13" r="S3"/>
+      <c s="13" r="T3"/>
+      <c s="13" r="U3"/>
+      <c s="13" r="V3"/>
+      <c s="13" r="W3"/>
+      <c s="13" r="X3"/>
+      <c s="13" r="Y3"/>
+      <c s="13" r="Z3"/>
+    </row>
+    <row customHeight="1" r="4" ht="51.0">
+      <c s="13" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="39" r="E1">
+      <c t="s" s="13" r="B4">
+        <v>154</v>
+      </c>
+      <c s="13" r="C4">
+        <v>10</v>
+      </c>
+      <c s="13" r="D4">
+        <v>9</v>
+      </c>
+      <c s="13" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F4">
+        <v>159</v>
+      </c>
+      <c s="13" r="G4">
         <v>4</v>
       </c>
-      <c t="s" s="39" r="F1">
+      <c s="13" r="H4"/>
+      <c s="13" r="I4"/>
+      <c s="13" r="J4">
+        <v>4</v>
+      </c>
+      <c s="13" r="K4">
+        <v>1</v>
+      </c>
+      <c s="13" r="L4"/>
+      <c s="13" r="M4"/>
+      <c t="s" s="13" r="N4">
+        <v>160</v>
+      </c>
+      <c s="13" r="O4">
+        <v>12</v>
+      </c>
+      <c s="13" r="P4"/>
+      <c s="13" r="Q4"/>
+      <c s="13" r="R4"/>
+      <c s="13" r="S4"/>
+      <c s="13" r="T4"/>
+      <c s="13" r="U4"/>
+      <c s="13" r="V4"/>
+      <c s="13" r="W4"/>
+      <c s="13" r="X4"/>
+      <c s="13" r="Y4"/>
+      <c s="13" r="Z4"/>
+    </row>
+    <row customHeight="1" r="5" ht="51.0">
+      <c s="13" r="A5">
+        <v>4</v>
+      </c>
+      <c t="s" s="13" r="B5">
+        <v>154</v>
+      </c>
+      <c s="13" r="C5">
+        <v>10</v>
+      </c>
+      <c s="13" r="D5">
+        <v>9</v>
+      </c>
+      <c s="13" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F5">
+        <v>161</v>
+      </c>
+      <c s="13" r="G5">
+        <v>6</v>
+      </c>
+      <c s="13" r="H5"/>
+      <c s="13" r="I5"/>
+      <c s="13" r="J5">
+        <v>3</v>
+      </c>
+      <c s="13" r="K5"/>
+      <c s="13" r="L5"/>
+      <c s="13" r="M5"/>
+      <c t="s" s="13" r="N5">
+        <v>162</v>
+      </c>
+      <c s="13" r="O5">
+        <v>12</v>
+      </c>
+      <c s="13" r="P5"/>
+      <c s="13" r="Q5"/>
+      <c s="13" r="R5"/>
+      <c s="13" r="S5"/>
+      <c s="13" r="T5"/>
+      <c s="13" r="U5"/>
+      <c s="13" r="V5"/>
+      <c s="13" r="W5"/>
+      <c s="13" r="X5"/>
+      <c s="13" r="Y5"/>
+      <c s="13" r="Z5"/>
+    </row>
+    <row customHeight="1" r="6" ht="51.0">
+      <c s="13" r="A6">
         <v>5</v>
       </c>
-      <c t="s" s="39" r="G1">
-        <v>149</v>
-      </c>
-      <c t="s" s="39" r="H1">
-        <v>150</v>
-      </c>
-      <c t="s" s="39" r="I1">
-        <v>151</v>
-      </c>
-      <c t="s" s="39" r="J1">
-        <v>152</v>
-      </c>
-      <c t="s" s="39" r="K1">
-        <v>153</v>
-      </c>
-      <c t="s" s="39" r="L1">
+      <c t="s" s="13" r="B6">
         <v>154</v>
       </c>
-      <c t="s" s="39" r="M1">
-        <v>155</v>
-      </c>
-      <c t="s" s="39" r="N1">
-        <v>156</v>
-      </c>
-      <c t="s" s="39" r="O1">
-        <v>157</v>
-      </c>
-      <c s="29" r="P1"/>
-      <c s="29" r="Q1"/>
-      <c s="29" r="R1"/>
-      <c s="29" r="S1"/>
-      <c s="29" r="T1"/>
-      <c s="29" r="U1"/>
-      <c s="29" r="V1"/>
-      <c s="29" r="W1"/>
-      <c s="29" r="X1"/>
-      <c s="29" r="Y1"/>
-      <c s="29" r="Z1"/>
-    </row>
-    <row customHeight="1" r="2" ht="51.0">
-      <c s="12" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="B2">
-        <v>158</v>
-      </c>
-      <c s="12" r="C2">
+      <c s="13" r="C6">
+        <v>11</v>
+      </c>
+      <c s="13" r="D6">
+        <v>10</v>
+      </c>
+      <c s="13" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F6">
+        <v>163</v>
+      </c>
+      <c s="13" r="G6">
         <v>5</v>
       </c>
-      <c s="12" r="D2">
+      <c s="13" r="H6"/>
+      <c s="13" r="I6"/>
+      <c s="13" r="J6">
         <v>4</v>
       </c>
-      <c s="12" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F2">
-        <v>159</v>
-      </c>
-      <c s="12" r="G2">
-        <v>4</v>
-      </c>
-      <c s="12" r="H2"/>
-      <c s="12" r="I2"/>
-      <c s="12" r="J2"/>
-      <c s="12" r="K2"/>
-      <c s="12" r="L2"/>
-      <c s="12" r="M2"/>
-      <c t="s" s="12" r="N2">
-        <v>160</v>
-      </c>
-      <c s="12" r="O2">
+      <c s="13" r="K6">
+        <v>1</v>
+      </c>
+      <c s="13" r="L6"/>
+      <c s="13" r="M6"/>
+      <c t="s" s="13" r="N6">
+        <v>164</v>
+      </c>
+      <c s="13" r="O6">
+        <v>12</v>
+      </c>
+      <c s="13" r="P6"/>
+      <c s="13" r="Q6"/>
+      <c s="13" r="R6"/>
+      <c s="13" r="S6"/>
+      <c s="13" r="T6"/>
+      <c s="13" r="U6"/>
+      <c s="13" r="V6"/>
+      <c s="13" r="W6"/>
+      <c s="13" r="X6"/>
+      <c s="13" r="Y6"/>
+      <c s="13" r="Z6"/>
+    </row>
+    <row customHeight="1" r="7" ht="51.0">
+      <c s="13" r="A7">
+        <v>6</v>
+      </c>
+      <c t="s" s="13" r="B7">
+        <v>154</v>
+      </c>
+      <c s="13" r="C7">
+        <v>6</v>
+      </c>
+      <c s="13" r="D7">
+        <v>5</v>
+      </c>
+      <c s="13" r="E7">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F7">
+        <v>165</v>
+      </c>
+      <c s="13" r="G7">
+        <v>5</v>
+      </c>
+      <c s="13" r="H7"/>
+      <c s="13" r="I7"/>
+      <c s="13" r="J7"/>
+      <c s="13" r="K7"/>
+      <c s="13" r="L7"/>
+      <c s="13" r="M7"/>
+      <c t="s" s="13" r="N7">
+        <v>166</v>
+      </c>
+      <c s="13" r="O7">
+        <v>10</v>
+      </c>
+      <c s="13" r="P7"/>
+      <c s="13" r="Q7"/>
+      <c s="13" r="R7"/>
+      <c s="13" r="S7"/>
+      <c s="13" r="T7"/>
+      <c s="13" r="U7"/>
+      <c s="13" r="V7"/>
+      <c s="13" r="W7"/>
+      <c s="13" r="X7"/>
+      <c s="13" r="Y7"/>
+      <c s="13" r="Z7"/>
+    </row>
+    <row customHeight="1" r="8" ht="51.0">
+      <c s="13" r="A8">
+        <v>7</v>
+      </c>
+      <c t="s" s="13" r="B8">
+        <v>154</v>
+      </c>
+      <c s="13" r="C8">
+        <v>8.5</v>
+      </c>
+      <c s="13" r="D8">
+        <v>7.5</v>
+      </c>
+      <c s="13" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F8">
+        <v>167</v>
+      </c>
+      <c s="13" r="G8">
+        <v>2</v>
+      </c>
+      <c s="13" r="H8"/>
+      <c s="13" r="I8"/>
+      <c s="13" r="J8">
+        <v>5</v>
+      </c>
+      <c s="13" r="K8">
+        <v>0.5</v>
+      </c>
+      <c s="13" r="L8"/>
+      <c s="13" r="M8"/>
+      <c t="s" s="13" r="N8">
+        <v>168</v>
+      </c>
+      <c s="13" r="O8">
+        <v>10</v>
+      </c>
+      <c s="13" r="P8"/>
+      <c s="13" r="Q8"/>
+      <c s="13" r="R8"/>
+      <c s="13" r="S8"/>
+      <c s="13" r="T8"/>
+      <c s="13" r="U8"/>
+      <c s="13" r="V8"/>
+      <c s="13" r="W8"/>
+      <c s="13" r="X8"/>
+      <c s="13" r="Y8"/>
+      <c s="13" r="Z8"/>
+    </row>
+    <row customHeight="1" r="9" ht="51.0">
+      <c s="13" r="A9">
         <v>8</v>
       </c>
-      <c s="31" r="P2"/>
-      <c s="31" r="Q2"/>
-      <c s="31" r="R2"/>
-      <c s="31" r="S2"/>
-      <c s="31" r="T2"/>
-      <c s="31" r="U2"/>
-      <c s="31" r="V2"/>
-      <c s="31" r="W2"/>
-      <c s="31" r="X2"/>
-      <c s="31" r="Y2"/>
-      <c s="31" r="Z2"/>
-    </row>
-    <row customHeight="1" r="3" ht="51.0">
-      <c s="12" r="A3">
+      <c t="s" s="13" r="B9">
+        <v>154</v>
+      </c>
+      <c s="13" r="C9">
+        <v>10</v>
+      </c>
+      <c s="13" r="D9">
+        <v>9</v>
+      </c>
+      <c s="13" r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F9">
+        <v>169</v>
+      </c>
+      <c s="13" r="G9"/>
+      <c s="13" r="H9"/>
+      <c s="13" r="I9"/>
+      <c s="13" r="J9">
+        <v>6.5</v>
+      </c>
+      <c s="13" r="K9">
         <v>2</v>
       </c>
-      <c t="s" s="12" r="B3">
-        <v>158</v>
-      </c>
-      <c s="12" r="C3">
-        <v>5</v>
-      </c>
-      <c s="12" r="D3">
-        <v>4</v>
-      </c>
-      <c s="12" r="E3">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F3">
-        <v>161</v>
-      </c>
-      <c s="12" r="G3">
+      <c s="13" r="L9">
+        <v>0.5</v>
+      </c>
+      <c s="13" r="M9"/>
+      <c t="s" s="13" r="N9">
+        <v>170</v>
+      </c>
+      <c s="13" r="O9">
+        <v>10</v>
+      </c>
+      <c s="13" r="P9"/>
+      <c s="13" r="Q9"/>
+      <c s="13" r="R9"/>
+      <c s="13" r="S9"/>
+      <c s="13" r="T9"/>
+      <c s="13" r="U9"/>
+      <c s="13" r="V9"/>
+      <c s="13" r="W9"/>
+      <c s="13" r="X9"/>
+      <c s="13" r="Y9"/>
+      <c s="13" r="Z9"/>
+    </row>
+    <row customHeight="1" r="10" ht="52.5">
+      <c s="13" r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" s="13" r="B10">
+        <v>154</v>
+      </c>
+      <c s="13" r="C10">
+        <v>9</v>
+      </c>
+      <c s="13" r="D10">
+        <v>7</v>
+      </c>
+      <c s="13" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="13" r="F10">
+        <v>171</v>
+      </c>
+      <c s="13" r="G10">
+        <v>2</v>
+      </c>
+      <c s="13" r="H10"/>
+      <c s="13" r="I10"/>
+      <c s="13" r="J10"/>
+      <c s="13" r="K10">
+        <v>2.5</v>
+      </c>
+      <c s="13" r="L10">
         <v>3.5</v>
       </c>
-      <c s="12" r="H3">
-        <v>1.5</v>
-      </c>
-      <c s="12" r="I3"/>
-      <c s="12" r="J3"/>
-      <c s="12" r="K3"/>
-      <c s="12" r="L3"/>
-      <c s="12" r="M3"/>
-      <c t="s" s="12" r="N3">
-        <v>162</v>
-      </c>
-      <c s="12" r="O3">
-        <v>8</v>
-      </c>
-      <c s="12" r="P3"/>
-      <c s="12" r="Q3"/>
-      <c s="12" r="R3"/>
-      <c s="12" r="S3"/>
-      <c s="12" r="T3"/>
-      <c s="12" r="U3"/>
-      <c s="12" r="V3"/>
-      <c s="12" r="W3"/>
-      <c s="12" r="X3"/>
-      <c s="12" r="Y3"/>
-      <c s="12" r="Z3"/>
-    </row>
-    <row customHeight="1" r="4" ht="51.0">
-      <c s="12" r="A4">
-        <v>3</v>
-      </c>
-      <c t="s" s="12" r="B4">
-        <v>158</v>
-      </c>
-      <c s="12" r="C4">
+      <c s="13" r="M10"/>
+      <c t="s" s="13" r="N10">
+        <v>172</v>
+      </c>
+      <c s="13" r="O10">
         <v>10</v>
       </c>
-      <c s="12" r="D4">
-        <v>9</v>
-      </c>
-      <c s="12" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F4">
-        <v>163</v>
-      </c>
-      <c s="12" r="G4">
-        <v>4</v>
-      </c>
-      <c s="12" r="H4"/>
-      <c s="12" r="I4"/>
-      <c s="12" r="J4">
-        <v>4</v>
-      </c>
-      <c s="12" r="K4">
-        <v>1</v>
-      </c>
-      <c s="12" r="L4"/>
-      <c s="12" r="M4"/>
-      <c t="s" s="12" r="N4">
-        <v>164</v>
-      </c>
-      <c s="12" r="O4">
-        <v>12</v>
-      </c>
-      <c s="12" r="P4"/>
-      <c s="12" r="Q4"/>
-      <c s="12" r="R4"/>
-      <c s="12" r="S4"/>
-      <c s="12" r="T4"/>
-      <c s="12" r="U4"/>
-      <c s="12" r="V4"/>
-      <c s="12" r="W4"/>
-      <c s="12" r="X4"/>
-      <c s="12" r="Y4"/>
-      <c s="12" r="Z4"/>
-    </row>
-    <row customHeight="1" r="5" ht="51.0">
-      <c s="12" r="A5">
-        <v>4</v>
-      </c>
-      <c t="s" s="12" r="B5">
-        <v>158</v>
-      </c>
-      <c s="12" r="C5">
-        <v>10</v>
-      </c>
-      <c s="12" r="D5">
-        <v>9</v>
-      </c>
-      <c s="12" r="E5">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F5">
-        <v>165</v>
-      </c>
-      <c s="12" r="G5">
-        <v>6</v>
-      </c>
-      <c s="12" r="H5"/>
-      <c s="12" r="I5"/>
-      <c s="12" r="J5">
-        <v>3</v>
-      </c>
-      <c s="12" r="K5"/>
-      <c s="12" r="L5"/>
-      <c s="12" r="M5"/>
-      <c t="s" s="12" r="N5">
-        <v>166</v>
-      </c>
-      <c s="12" r="O5">
-        <v>12</v>
-      </c>
-      <c s="12" r="P5"/>
-      <c s="12" r="Q5"/>
-      <c s="12" r="R5"/>
-      <c s="12" r="S5"/>
-      <c s="12" r="T5"/>
-      <c s="12" r="U5"/>
-      <c s="12" r="V5"/>
-      <c s="12" r="W5"/>
-      <c s="12" r="X5"/>
-      <c s="12" r="Y5"/>
-      <c s="12" r="Z5"/>
-    </row>
-    <row customHeight="1" r="6" ht="51.0">
-      <c s="12" r="A6">
-        <v>5</v>
-      </c>
-      <c t="s" s="12" r="B6">
-        <v>158</v>
-      </c>
-      <c s="12" r="C6">
-        <v>11</v>
-      </c>
-      <c s="12" r="D6">
-        <v>10</v>
-      </c>
-      <c s="12" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F6">
-        <v>167</v>
-      </c>
-      <c s="12" r="G6">
-        <v>5</v>
-      </c>
-      <c s="12" r="H6"/>
-      <c s="12" r="I6"/>
-      <c s="12" r="J6">
-        <v>4</v>
-      </c>
-      <c s="12" r="K6">
-        <v>1</v>
-      </c>
-      <c s="12" r="L6"/>
-      <c s="12" r="M6"/>
-      <c t="s" s="12" r="N6">
-        <v>168</v>
-      </c>
-      <c s="12" r="O6">
-        <v>12</v>
-      </c>
-      <c s="12" r="P6"/>
-      <c s="12" r="Q6"/>
-      <c s="12" r="R6"/>
-      <c s="12" r="S6"/>
-      <c s="12" r="T6"/>
-      <c s="12" r="U6"/>
-      <c s="12" r="V6"/>
-      <c s="12" r="W6"/>
-      <c s="12" r="X6"/>
-      <c s="12" r="Y6"/>
-      <c s="12" r="Z6"/>
-    </row>
-    <row customHeight="1" r="7" ht="51.0">
-      <c s="12" r="A7">
-        <v>6</v>
-      </c>
-      <c t="s" s="12" r="B7">
-        <v>158</v>
-      </c>
-      <c s="12" r="C7">
-        <v>6</v>
-      </c>
-      <c s="12" r="D7">
-        <v>5</v>
-      </c>
-      <c s="12" r="E7">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F7">
-        <v>169</v>
-      </c>
-      <c s="12" r="G7">
-        <v>5</v>
-      </c>
-      <c s="12" r="H7"/>
-      <c s="12" r="I7"/>
-      <c s="12" r="J7"/>
-      <c s="12" r="K7"/>
-      <c s="12" r="L7"/>
-      <c s="12" r="M7"/>
-      <c t="s" s="12" r="N7">
-        <v>170</v>
-      </c>
-      <c s="12" r="O7">
-        <v>10</v>
-      </c>
-      <c s="12" r="P7"/>
-      <c s="12" r="Q7"/>
-      <c s="12" r="R7"/>
-      <c s="12" r="S7"/>
-      <c s="12" r="T7"/>
-      <c s="12" r="U7"/>
-      <c s="12" r="V7"/>
-      <c s="12" r="W7"/>
-      <c s="12" r="X7"/>
-      <c s="12" r="Y7"/>
-      <c s="12" r="Z7"/>
-    </row>
-    <row customHeight="1" r="8" ht="51.0">
-      <c s="12" r="A8">
-        <v>7</v>
-      </c>
-      <c t="s" s="12" r="B8">
-        <v>158</v>
-      </c>
-      <c s="12" r="C8">
-        <v>8.5</v>
-      </c>
-      <c s="12" r="D8">
-        <v>7.5</v>
-      </c>
-      <c s="12" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F8">
-        <v>171</v>
-      </c>
-      <c s="12" r="G8">
-        <v>2</v>
-      </c>
-      <c s="12" r="H8"/>
-      <c s="12" r="I8"/>
-      <c s="12" r="J8">
-        <v>5</v>
-      </c>
-      <c s="12" r="K8">
-        <v>0.5</v>
-      </c>
-      <c s="12" r="L8"/>
-      <c s="12" r="M8"/>
-      <c t="s" s="12" r="N8">
-        <v>172</v>
-      </c>
-      <c s="12" r="O8">
-        <v>10</v>
-      </c>
-      <c s="12" r="P8"/>
-      <c s="12" r="Q8"/>
-      <c s="12" r="R8"/>
-      <c s="12" r="S8"/>
-      <c s="12" r="T8"/>
-      <c s="12" r="U8"/>
-      <c s="12" r="V8"/>
-      <c s="12" r="W8"/>
-      <c s="12" r="X8"/>
-      <c s="12" r="Y8"/>
-      <c s="12" r="Z8"/>
-    </row>
-    <row customHeight="1" r="9" ht="51.0">
-      <c s="12" r="A9">
-        <v>8</v>
-      </c>
-      <c t="s" s="12" r="B9">
-        <v>158</v>
-      </c>
-      <c s="12" r="C9">
-        <v>10</v>
-      </c>
-      <c s="12" r="D9">
-        <v>9</v>
-      </c>
-      <c s="12" r="E9">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F9">
-        <v>173</v>
-      </c>
-      <c s="12" r="G9"/>
-      <c s="12" r="H9"/>
-      <c s="12" r="I9"/>
-      <c s="12" r="J9">
-        <v>6.5</v>
-      </c>
-      <c s="12" r="K9">
-        <v>2</v>
-      </c>
-      <c s="12" r="L9">
-        <v>0.5</v>
-      </c>
-      <c s="12" r="M9"/>
-      <c t="s" s="12" r="N9">
-        <v>174</v>
-      </c>
-      <c s="12" r="O9">
-        <v>10</v>
-      </c>
-      <c s="12" r="P9"/>
-      <c s="12" r="Q9"/>
-      <c s="12" r="R9"/>
-      <c s="12" r="S9"/>
-      <c s="12" r="T9"/>
-      <c s="12" r="U9"/>
-      <c s="12" r="V9"/>
-      <c s="12" r="W9"/>
-      <c s="12" r="X9"/>
-      <c s="12" r="Y9"/>
-      <c s="12" r="Z9"/>
-    </row>
-    <row customHeight="1" r="10" ht="52.5">
-      <c s="12" r="A10">
-        <v>9</v>
-      </c>
-      <c t="s" s="12" r="B10">
-        <v>158</v>
-      </c>
-      <c s="12" r="C10">
-        <v>9</v>
-      </c>
-      <c s="12" r="D10">
-        <v>7</v>
-      </c>
-      <c s="12" r="E10">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F10">
-        <v>175</v>
-      </c>
-      <c s="12" r="G10">
-        <v>2</v>
-      </c>
-      <c s="12" r="H10"/>
-      <c s="12" r="I10"/>
-      <c s="12" r="J10"/>
-      <c s="12" r="K10">
-        <v>2.5</v>
-      </c>
-      <c s="12" r="L10">
-        <v>3.5</v>
-      </c>
-      <c s="12" r="M10"/>
-      <c t="s" s="12" r="N10">
-        <v>176</v>
-      </c>
-      <c s="12" r="O10">
-        <v>10</v>
-      </c>
-      <c s="12" r="P10"/>
-      <c s="12" r="Q10"/>
-      <c s="12" r="R10"/>
-      <c s="12" r="S10"/>
-      <c s="12" r="T10"/>
-      <c s="12" r="U10"/>
-      <c s="12" r="V10"/>
-      <c s="12" r="W10"/>
-      <c s="12" r="X10"/>
-      <c s="12" r="Y10"/>
-      <c s="12" r="Z10"/>
-    </row>
-    <row customHeight="1" r="11" ht="51.0">
-      <c s="12" r="A11">
-        <v>10</v>
-      </c>
-      <c t="s" s="12" r="B11">
-        <v>158</v>
-      </c>
-      <c s="12" r="C11">
-        <v>10</v>
-      </c>
-      <c s="12" r="D11">
-        <v>9</v>
-      </c>
-      <c s="12" r="E11">
-        <v>1</v>
-      </c>
-      <c t="s" s="12" r="F11">
-        <v>177</v>
-      </c>
-      <c s="12" r="G11"/>
-      <c s="12" r="H11"/>
-      <c s="12" r="I11"/>
-      <c s="12" r="J11">
-        <v>7</v>
-      </c>
-      <c s="12" r="K11"/>
-      <c s="12" r="L11"/>
-      <c s="12" r="M11"/>
-      <c t="s" s="12" r="N11">
-        <v>178</v>
-      </c>
-      <c s="12" r="O11">
-        <v>10</v>
-      </c>
-      <c s="12" r="P11"/>
-      <c s="12" r="Q11"/>
-      <c s="12" r="R11"/>
-      <c s="12" r="S11"/>
-      <c s="12" r="T11"/>
-      <c s="12" r="U11"/>
-      <c s="12" r="V11"/>
-      <c s="12" r="W11"/>
-      <c s="12" r="X11"/>
-      <c s="12" r="Y11"/>
-      <c s="12" r="Z11"/>
+      <c s="13" r="P10"/>
+      <c s="13" r="Q10"/>
+      <c s="13" r="R10"/>
+      <c s="13" r="S10"/>
+      <c s="13" r="T10"/>
+      <c s="13" r="U10"/>
+      <c s="13" r="V10"/>
+      <c s="13" r="W10"/>
+      <c s="13" r="X10"/>
+      <c s="13" r="Y10"/>
+      <c s="13" r="Z10"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Documentation/CS673F13P2_weeklyreport.xlsx
+++ b/Documentation/CS673F13P2_weeklyreport.xlsx
@@ -264,12 +264,40 @@
         <t xml:space="preserve">Added SSD documentation.</t>
       </text>
     </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <t xml:space="preserve">Learning how to implement multiple relations in models skipping certain 'through' relations. (impossible, had to add all of them).</t>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0">
+      <text>
+        <t xml:space="preserve">Making sure we haven't missed anything and that everything in out completed tasks is still relevant.</t>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <t xml:space="preserve">* Added the export functionality.
+* Cleaned up the models to provide useful relations in the models.
+</t>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <t xml:space="preserve">Made sure that things in our requirements doc aren't broken and are presentation ready</t>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0">
+      <text>
+        <t xml:space="preserve">Communicated with beth how to implement certain relations in the model and why she should do it one way over another.
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="182">
   <si>
     <t>week #</t>
   </si>
@@ -597,6 +625,13 @@
     <t>Continue to work on take survey page</t>
   </si>
   <si>
+    <t>3 - Complete take survey page</t>
+  </si>
+  <si>
+    <t>Help with report page
+Presentation notes</t>
+  </si>
+  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -750,6 +785,9 @@
     <t>document code, work on reports with Fliden</t>
   </si>
   <si>
+    <t>3 - wrote report of count of survey takers, worked with Imaad and Fyodor</t>
+  </si>
+  <si>
     <t>Imaad</t>
   </si>
   <si>
@@ -833,6 +871,20 @@
   </si>
   <si>
     <t>1. Finish implementing survey/take</t>
+  </si>
+  <si>
+    <t>3 - Completed take survey, along with authentication for taking and cookie authetication</t>
+  </si>
+  <si>
+    <t>1. Help Gloria with contact page
+2. Work on reports</t>
+  </si>
+  <si>
+    <t>3 - Worked on completing the survey/reports</t>
+  </si>
+  <si>
+    <t>1. Work on the presentation
+2. Test out the functionality of the project</t>
   </si>
   <si>
     <t>Samuel</t>
@@ -1048,6 +1100,16 @@
     <t>Create new branch - Report
 Implement report page
 Add more test cases</t>
+  </si>
+  <si>
+    <t>0 - Display interactive charts using Yii
+3 - Reports view, added Yii plugin for charts
+3 - Controller for reports (in SiteController)</t>
+  </si>
+  <si>
+    <t>Finish report page
+Work on testing document
+Prepare for presentation</t>
   </si>
 </sst>
 </file>
@@ -1241,6 +1303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1325,7 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFC9DAF8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,13 +1405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDD7E6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
+        <fgColor rgb="FFA4C2F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,12 +1448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,6 +1554,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1677,21 +1754,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1736,6 +1798,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1763,7 +1836,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1773,7 +1848,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1818,21 +1895,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1958,13 +2020,13 @@
     <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="4" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="2" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" fontId="0">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="6" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" fontId="0">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="7" fontId="0" applyFill="1">
@@ -1979,35 +2041,35 @@
     <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="10" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="11" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="2" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="12" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="3" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="4" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="5" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="5" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="6" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="17" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="18" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="6" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="7" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
@@ -2024,11 +2086,11 @@
     <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="23" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="8" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="24" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="8" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="25" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
@@ -2045,14 +2107,14 @@
     <xf applyBorder="1" applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="11" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="29" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="12" applyFill="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="12" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="31" xfId="0" numFmtId="0" borderId="31" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="32" xfId="0" numFmtId="0" borderId="32" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -2765,141 +2827,141 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="28" r="A1">
+      <c t="s" s="6" r="A1">
         <v>37</v>
       </c>
-      <c t="s" s="23" r="B1">
+      <c t="s" s="34" r="B1">
         <v>38</v>
       </c>
-      <c t="s" s="48" r="C1">
+      <c t="s" s="35" r="C1">
         <v>39</v>
       </c>
-      <c t="s" s="37" r="D1">
+      <c t="s" s="48" r="D1">
         <v>4</v>
       </c>
-      <c t="s" s="19" r="E1">
+      <c t="s" s="20" r="E1">
         <v>40</v>
       </c>
-      <c s="19" r="F1"/>
-      <c s="19" r="G1"/>
-      <c s="19" r="H1"/>
-      <c s="19" r="I1"/>
-      <c s="19" r="J1"/>
-      <c s="19" r="K1"/>
+      <c s="20" r="F1"/>
+      <c s="20" r="G1"/>
+      <c s="20" r="H1"/>
+      <c s="20" r="I1"/>
+      <c s="20" r="J1"/>
+      <c s="20" r="K1"/>
       <c t="s" s="4" r="L1">
         <v>13</v>
       </c>
-      <c t="s" s="34" r="M1">
+      <c t="s" s="29" r="M1">
         <v>14</v>
       </c>
-      <c s="7" r="N1"/>
-      <c s="6" r="O1"/>
-      <c s="6" r="P1"/>
-      <c s="6" r="Q1"/>
-      <c s="6" r="R1"/>
-      <c s="6" r="S1"/>
-      <c s="6" r="T1"/>
-      <c s="6" r="U1"/>
-      <c s="6" r="V1"/>
-      <c s="6" r="W1"/>
-      <c s="6" r="X1"/>
-      <c s="6" r="Y1"/>
+      <c s="8" r="N1"/>
+      <c s="7" r="O1"/>
+      <c s="7" r="P1"/>
+      <c s="7" r="Q1"/>
+      <c s="7" r="R1"/>
+      <c s="7" r="S1"/>
+      <c s="7" r="T1"/>
+      <c s="7" r="U1"/>
+      <c s="7" r="V1"/>
+      <c s="7" r="W1"/>
+      <c s="7" r="X1"/>
+      <c s="7" r="Y1"/>
     </row>
     <row r="2">
-      <c s="22" r="A2"/>
+      <c s="23" r="A2"/>
       <c s="33" r="B2"/>
       <c s="46" r="C2"/>
-      <c s="17" r="D2"/>
-      <c t="s" s="19" r="E2">
+      <c s="18" r="D2"/>
+      <c t="s" s="20" r="E2">
         <v>41</v>
       </c>
-      <c t="s" s="19" r="F2">
+      <c t="s" s="20" r="F2">
         <v>42</v>
       </c>
-      <c t="s" s="19" r="G2">
+      <c t="s" s="20" r="G2">
         <v>43</v>
       </c>
-      <c t="s" s="19" r="H2">
+      <c t="s" s="20" r="H2">
         <v>44</v>
       </c>
-      <c t="s" s="19" r="I2">
+      <c t="s" s="20" r="I2">
         <v>45</v>
       </c>
-      <c t="s" s="19" r="J2">
+      <c t="s" s="20" r="J2">
         <v>46</v>
       </c>
-      <c t="s" s="19" r="K2">
+      <c t="s" s="20" r="K2">
         <v>47</v>
       </c>
-      <c s="16" r="L2"/>
-      <c s="14" r="M2"/>
+      <c s="17" r="L2"/>
+      <c s="15" r="M2"/>
       <c s="26" r="N2"/>
-      <c s="6" r="O2"/>
-      <c s="6" r="P2"/>
-      <c s="6" r="Q2"/>
-      <c s="6" r="R2"/>
-      <c s="6" r="S2"/>
-      <c s="6" r="T2"/>
-      <c s="6" r="U2"/>
-      <c s="6" r="V2"/>
-      <c s="6" r="W2"/>
-      <c s="6" r="X2"/>
-      <c s="6" r="Y2"/>
+      <c s="7" r="O2"/>
+      <c s="7" r="P2"/>
+      <c s="7" r="Q2"/>
+      <c s="7" r="R2"/>
+      <c s="7" r="S2"/>
+      <c s="7" r="T2"/>
+      <c s="7" r="U2"/>
+      <c s="7" r="V2"/>
+      <c s="7" r="W2"/>
+      <c s="7" r="X2"/>
+      <c s="7" r="Y2"/>
     </row>
     <row customHeight="1" r="3" ht="16.5">
       <c s="3" r="A3">
         <v>1</v>
       </c>
-      <c s="35" r="B3">
+      <c s="36" r="B3">
         <f>SUM(C3:D3)</f>
         <v>5</v>
       </c>
-      <c s="11" r="C3">
+      <c s="12" r="C3">
         <f>SUM(E3:K3)</f>
         <v>4</v>
       </c>
-      <c s="36" r="D3">
-        <v>1</v>
-      </c>
-      <c s="8" r="E3">
+      <c s="37" r="D3">
+        <v>1</v>
+      </c>
+      <c s="9" r="E3">
         <v>0</v>
       </c>
-      <c s="8" r="F3">
-        <v>1</v>
-      </c>
-      <c s="8" r="G3">
+      <c s="9" r="F3">
+        <v>1</v>
+      </c>
+      <c s="9" r="G3">
         <v>0</v>
       </c>
-      <c s="8" r="H3">
-        <v>1</v>
-      </c>
-      <c s="8" r="I3">
+      <c s="9" r="H3">
+        <v>1</v>
+      </c>
+      <c s="9" r="I3">
         <v>0</v>
       </c>
-      <c s="8" r="J3">
-        <v>1</v>
-      </c>
-      <c s="8" r="K3">
+      <c s="9" r="J3">
+        <v>1</v>
+      </c>
+      <c s="9" r="K3">
         <v>1</v>
       </c>
       <c s="42" r="L3">
         <v>3</v>
       </c>
-      <c s="10" r="M3">
+      <c s="11" r="M3">
         <v>5</v>
       </c>
       <c s="26" r="N3"/>
-      <c s="6" r="O3"/>
-      <c s="6" r="P3"/>
-      <c s="6" r="Q3"/>
-      <c s="6" r="R3"/>
-      <c s="6" r="S3"/>
-      <c s="6" r="T3"/>
-      <c s="6" r="U3"/>
-      <c s="6" r="V3"/>
-      <c s="6" r="W3"/>
-      <c s="6" r="X3"/>
-      <c s="6" r="Y3"/>
+      <c s="7" r="O3"/>
+      <c s="7" r="P3"/>
+      <c s="7" r="Q3"/>
+      <c s="7" r="R3"/>
+      <c s="7" r="S3"/>
+      <c s="7" r="T3"/>
+      <c s="7" r="U3"/>
+      <c s="7" r="V3"/>
+      <c s="7" r="W3"/>
+      <c s="7" r="X3"/>
+      <c s="7" r="Y3"/>
     </row>
     <row r="4">
       <c s="3" r="A4">
@@ -2916,45 +2978,45 @@
       <c s="2" r="D4">
         <v>0</v>
       </c>
-      <c s="15" r="E4">
+      <c s="16" r="E4">
         <v>0</v>
       </c>
-      <c s="15" r="F4">
-        <v>1</v>
-      </c>
-      <c s="15" r="G4">
-        <v>1</v>
-      </c>
-      <c s="15" r="H4">
+      <c s="16" r="F4">
+        <v>1</v>
+      </c>
+      <c s="16" r="G4">
+        <v>1</v>
+      </c>
+      <c s="16" r="H4">
         <v>0.5</v>
       </c>
-      <c s="15" r="I4">
+      <c s="16" r="I4">
         <v>0</v>
       </c>
-      <c s="15" r="J4">
-        <v>1</v>
-      </c>
-      <c s="15" r="K4">
+      <c s="16" r="J4">
+        <v>1</v>
+      </c>
+      <c s="16" r="K4">
         <v>0</v>
       </c>
       <c s="43" r="L4">
         <v>4</v>
       </c>
-      <c s="29" r="M4">
+      <c s="28" r="M4">
         <v>5</v>
       </c>
       <c s="26" r="N4"/>
-      <c s="6" r="O4"/>
-      <c s="6" r="P4"/>
-      <c s="6" r="Q4"/>
-      <c s="6" r="R4"/>
-      <c s="6" r="S4"/>
-      <c s="6" r="T4"/>
-      <c s="6" r="U4"/>
-      <c s="6" r="V4"/>
-      <c s="6" r="W4"/>
-      <c s="6" r="X4"/>
-      <c s="6" r="Y4"/>
+      <c s="7" r="O4"/>
+      <c s="7" r="P4"/>
+      <c s="7" r="Q4"/>
+      <c s="7" r="R4"/>
+      <c s="7" r="S4"/>
+      <c s="7" r="T4"/>
+      <c s="7" r="U4"/>
+      <c s="7" r="V4"/>
+      <c s="7" r="W4"/>
+      <c s="7" r="X4"/>
+      <c s="7" r="Y4"/>
     </row>
     <row r="5">
       <c s="3" r="A5">
@@ -2971,45 +3033,45 @@
       <c s="2" r="D5">
         <v>1</v>
       </c>
-      <c s="15" r="E5">
-        <v>1</v>
-      </c>
-      <c s="15" r="F5">
+      <c s="16" r="E5">
+        <v>1</v>
+      </c>
+      <c s="16" r="F5">
         <v>0</v>
       </c>
-      <c s="15" r="G5">
+      <c s="16" r="G5">
         <v>0</v>
       </c>
-      <c s="15" r="H5">
+      <c s="16" r="H5">
         <v>5</v>
       </c>
-      <c s="15" r="I5">
+      <c s="16" r="I5">
         <v>0</v>
       </c>
-      <c s="15" r="J5">
-        <v>1</v>
-      </c>
-      <c s="15" r="K5">
+      <c s="16" r="J5">
+        <v>1</v>
+      </c>
+      <c s="16" r="K5">
         <v>1</v>
       </c>
       <c s="43" r="L5">
         <v>6</v>
       </c>
-      <c s="29" r="M5">
+      <c s="28" r="M5">
         <v>8</v>
       </c>
       <c s="26" r="N5"/>
-      <c s="6" r="O5"/>
-      <c s="6" r="P5"/>
-      <c s="6" r="Q5"/>
-      <c s="6" r="R5"/>
-      <c s="6" r="S5"/>
-      <c s="6" r="T5"/>
-      <c s="6" r="U5"/>
-      <c s="6" r="V5"/>
-      <c s="6" r="W5"/>
-      <c s="6" r="X5"/>
-      <c s="6" r="Y5"/>
+      <c s="7" r="O5"/>
+      <c s="7" r="P5"/>
+      <c s="7" r="Q5"/>
+      <c s="7" r="R5"/>
+      <c s="7" r="S5"/>
+      <c s="7" r="T5"/>
+      <c s="7" r="U5"/>
+      <c s="7" r="V5"/>
+      <c s="7" r="W5"/>
+      <c s="7" r="X5"/>
+      <c s="7" r="Y5"/>
     </row>
     <row r="6">
       <c s="3" r="A6">
@@ -3026,45 +3088,45 @@
       <c s="2" r="D6">
         <v>1</v>
       </c>
-      <c s="15" r="E6">
+      <c s="16" r="E6">
         <v>0</v>
       </c>
-      <c s="15" r="F6">
+      <c s="16" r="F6">
         <v>0</v>
       </c>
-      <c s="15" r="G6">
+      <c s="16" r="G6">
         <v>2</v>
       </c>
-      <c s="15" r="H6">
+      <c s="16" r="H6">
         <v>3</v>
       </c>
-      <c s="15" r="I6">
-        <v>1</v>
-      </c>
-      <c s="15" r="J6">
+      <c s="16" r="I6">
+        <v>1</v>
+      </c>
+      <c s="16" r="J6">
         <v>2</v>
       </c>
-      <c s="15" r="K6">
+      <c s="16" r="K6">
         <v>0</v>
       </c>
       <c s="43" r="L6">
         <v>7</v>
       </c>
-      <c s="29" r="M6">
+      <c s="28" r="M6">
         <v>9</v>
       </c>
       <c s="26" r="N6"/>
-      <c s="6" r="O6"/>
-      <c s="6" r="P6"/>
-      <c s="6" r="Q6"/>
-      <c s="6" r="R6"/>
-      <c s="6" r="S6"/>
-      <c s="6" r="T6"/>
-      <c s="6" r="U6"/>
-      <c s="6" r="V6"/>
-      <c s="6" r="W6"/>
-      <c s="6" r="X6"/>
-      <c s="6" r="Y6"/>
+      <c s="7" r="O6"/>
+      <c s="7" r="P6"/>
+      <c s="7" r="Q6"/>
+      <c s="7" r="R6"/>
+      <c s="7" r="S6"/>
+      <c s="7" r="T6"/>
+      <c s="7" r="U6"/>
+      <c s="7" r="V6"/>
+      <c s="7" r="W6"/>
+      <c s="7" r="X6"/>
+      <c s="7" r="Y6"/>
     </row>
     <row r="7">
       <c s="3" r="A7">
@@ -3081,45 +3143,45 @@
       <c s="2" r="D7">
         <v>1</v>
       </c>
-      <c s="15" r="E7">
-        <v>1</v>
-      </c>
-      <c s="15" r="F7">
+      <c s="16" r="E7">
+        <v>1</v>
+      </c>
+      <c s="16" r="F7">
         <v>0</v>
       </c>
-      <c s="15" r="G7">
-        <v>1</v>
-      </c>
-      <c s="15" r="H7">
+      <c s="16" r="G7">
+        <v>1</v>
+      </c>
+      <c s="16" r="H7">
         <v>3</v>
       </c>
-      <c s="15" r="I7">
+      <c s="16" r="I7">
         <v>0</v>
       </c>
-      <c s="15" r="J7">
+      <c s="16" r="J7">
         <v>2</v>
       </c>
-      <c s="15" r="K7">
+      <c s="16" r="K7">
         <v>1</v>
       </c>
       <c s="43" r="L7">
         <v>6</v>
       </c>
-      <c s="29" r="M7">
+      <c s="28" r="M7">
         <v>8</v>
       </c>
       <c s="26" r="N7"/>
-      <c s="6" r="O7"/>
-      <c s="6" r="P7"/>
-      <c s="6" r="Q7"/>
-      <c s="6" r="R7"/>
-      <c s="6" r="S7"/>
-      <c s="6" r="T7"/>
-      <c s="6" r="U7"/>
-      <c s="6" r="V7"/>
-      <c s="6" r="W7"/>
-      <c s="6" r="X7"/>
-      <c s="6" r="Y7"/>
+      <c s="7" r="O7"/>
+      <c s="7" r="P7"/>
+      <c s="7" r="Q7"/>
+      <c s="7" r="R7"/>
+      <c s="7" r="S7"/>
+      <c s="7" r="T7"/>
+      <c s="7" r="U7"/>
+      <c s="7" r="V7"/>
+      <c s="7" r="W7"/>
+      <c s="7" r="X7"/>
+      <c s="7" r="Y7"/>
     </row>
     <row r="8">
       <c s="3" r="A8">
@@ -3136,45 +3198,45 @@
       <c s="2" r="D8">
         <v>1</v>
       </c>
-      <c s="15" r="E8">
+      <c s="16" r="E8">
         <v>0</v>
       </c>
-      <c s="15" r="F8">
+      <c s="16" r="F8">
         <v>0</v>
       </c>
-      <c s="15" r="G8">
-        <v>1</v>
-      </c>
-      <c s="15" r="H8">
+      <c s="16" r="G8">
+        <v>1</v>
+      </c>
+      <c s="16" r="H8">
         <v>4</v>
       </c>
-      <c s="15" r="I8">
+      <c s="16" r="I8">
         <v>0</v>
       </c>
-      <c s="15" r="J8">
+      <c s="16" r="J8">
         <v>2</v>
       </c>
-      <c s="15" r="K8">
+      <c s="16" r="K8">
         <v>0</v>
       </c>
       <c s="43" r="L8">
         <v>8</v>
       </c>
-      <c s="29" r="M8">
+      <c s="28" r="M8">
         <v>9</v>
       </c>
       <c s="26" r="N8"/>
-      <c s="6" r="O8"/>
-      <c s="6" r="P8"/>
-      <c s="6" r="Q8"/>
-      <c s="6" r="R8"/>
-      <c s="6" r="S8"/>
-      <c s="6" r="T8"/>
-      <c s="6" r="U8"/>
-      <c s="6" r="V8"/>
-      <c s="6" r="W8"/>
-      <c s="6" r="X8"/>
-      <c s="6" r="Y8"/>
+      <c s="7" r="O8"/>
+      <c s="7" r="P8"/>
+      <c s="7" r="Q8"/>
+      <c s="7" r="R8"/>
+      <c s="7" r="S8"/>
+      <c s="7" r="T8"/>
+      <c s="7" r="U8"/>
+      <c s="7" r="V8"/>
+      <c s="7" r="W8"/>
+      <c s="7" r="X8"/>
+      <c s="7" r="Y8"/>
     </row>
     <row r="9">
       <c s="3" r="A9">
@@ -3191,45 +3253,45 @@
       <c s="2" r="D9">
         <v>1</v>
       </c>
-      <c s="15" r="E9">
+      <c s="16" r="E9">
         <v>0</v>
       </c>
-      <c s="15" r="F9">
-        <v>1</v>
-      </c>
-      <c s="15" r="G9">
-        <v>1</v>
-      </c>
-      <c s="15" r="H9">
+      <c s="16" r="F9">
+        <v>1</v>
+      </c>
+      <c s="16" r="G9">
+        <v>1</v>
+      </c>
+      <c s="16" r="H9">
         <v>4</v>
       </c>
-      <c s="15" r="I9">
-        <v>1</v>
-      </c>
-      <c s="15" r="J9">
+      <c s="16" r="I9">
+        <v>1</v>
+      </c>
+      <c s="16" r="J9">
         <v>2</v>
       </c>
-      <c s="15" r="K9">
+      <c s="16" r="K9">
         <v>0</v>
       </c>
       <c s="43" r="L9">
         <v>8</v>
       </c>
-      <c s="29" r="M9">
+      <c s="28" r="M9">
         <v>10</v>
       </c>
       <c s="26" r="N9"/>
-      <c s="6" r="O9"/>
-      <c s="6" r="P9"/>
-      <c s="6" r="Q9"/>
-      <c s="6" r="R9"/>
-      <c s="6" r="S9"/>
-      <c s="6" r="T9"/>
-      <c s="6" r="U9"/>
-      <c s="6" r="V9"/>
-      <c s="6" r="W9"/>
-      <c s="6" r="X9"/>
-      <c s="6" r="Y9"/>
+      <c s="7" r="O9"/>
+      <c s="7" r="P9"/>
+      <c s="7" r="Q9"/>
+      <c s="7" r="R9"/>
+      <c s="7" r="S9"/>
+      <c s="7" r="T9"/>
+      <c s="7" r="U9"/>
+      <c s="7" r="V9"/>
+      <c s="7" r="W9"/>
+      <c s="7" r="X9"/>
+      <c s="7" r="Y9"/>
     </row>
     <row r="10">
       <c s="3" r="A10">
@@ -3246,45 +3308,45 @@
       <c s="2" r="D10">
         <v>1</v>
       </c>
-      <c s="15" r="E10">
+      <c s="16" r="E10">
         <v>0</v>
       </c>
-      <c s="15" r="F10">
+      <c s="16" r="F10">
         <v>0</v>
       </c>
-      <c s="15" r="G10">
-        <v>1</v>
-      </c>
-      <c s="15" r="H10">
+      <c s="16" r="G10">
+        <v>1</v>
+      </c>
+      <c s="16" r="H10">
         <v>5</v>
       </c>
-      <c s="15" r="I10">
-        <v>1</v>
-      </c>
-      <c s="15" r="J10">
+      <c s="16" r="I10">
+        <v>1</v>
+      </c>
+      <c s="16" r="J10">
         <v>2</v>
       </c>
-      <c s="15" r="K10">
+      <c s="16" r="K10">
         <v>0</v>
       </c>
       <c s="43" r="L10">
         <v>7</v>
       </c>
-      <c s="29" r="M10">
+      <c s="28" r="M10">
         <v>8</v>
       </c>
       <c s="26" r="N10"/>
-      <c s="6" r="O10"/>
-      <c s="6" r="P10"/>
-      <c s="6" r="Q10"/>
-      <c s="6" r="R10"/>
-      <c s="6" r="S10"/>
-      <c s="6" r="T10"/>
-      <c s="6" r="U10"/>
-      <c s="6" r="V10"/>
-      <c s="6" r="W10"/>
-      <c s="6" r="X10"/>
-      <c s="6" r="Y10"/>
+      <c s="7" r="O10"/>
+      <c s="7" r="P10"/>
+      <c s="7" r="Q10"/>
+      <c s="7" r="R10"/>
+      <c s="7" r="S10"/>
+      <c s="7" r="T10"/>
+      <c s="7" r="U10"/>
+      <c s="7" r="V10"/>
+      <c s="7" r="W10"/>
+      <c s="7" r="X10"/>
+      <c s="7" r="Y10"/>
     </row>
     <row r="11">
       <c s="3" r="A11">
@@ -3301,45 +3363,45 @@
       <c s="2" r="D11">
         <v>1</v>
       </c>
-      <c s="15" r="E11">
-        <v>1</v>
-      </c>
-      <c s="15" r="F11">
-        <v>1</v>
-      </c>
-      <c s="15" r="G11">
+      <c s="16" r="E11">
+        <v>1</v>
+      </c>
+      <c s="16" r="F11">
+        <v>1</v>
+      </c>
+      <c s="16" r="G11">
         <v>0</v>
       </c>
-      <c s="15" r="H11">
+      <c s="16" r="H11">
         <v>2</v>
       </c>
-      <c s="15" r="I11">
+      <c s="16" r="I11">
         <v>2</v>
       </c>
-      <c s="15" r="J11">
-        <v>1</v>
-      </c>
-      <c s="15" r="K11">
+      <c s="16" r="J11">
+        <v>1</v>
+      </c>
+      <c s="16" r="K11">
         <v>0</v>
       </c>
       <c s="43" r="L11">
         <v>7</v>
       </c>
-      <c s="29" r="M11">
+      <c s="28" r="M11">
         <v>8</v>
       </c>
       <c s="26" r="N11"/>
-      <c s="6" r="O11"/>
-      <c s="6" r="P11"/>
-      <c s="6" r="Q11"/>
-      <c s="6" r="R11"/>
-      <c s="6" r="S11"/>
-      <c s="6" r="T11"/>
-      <c s="6" r="U11"/>
-      <c s="6" r="V11"/>
-      <c s="6" r="W11"/>
-      <c s="6" r="X11"/>
-      <c s="6" r="Y11"/>
+      <c s="7" r="O11"/>
+      <c s="7" r="P11"/>
+      <c s="7" r="Q11"/>
+      <c s="7" r="R11"/>
+      <c s="7" r="S11"/>
+      <c s="7" r="T11"/>
+      <c s="7" r="U11"/>
+      <c s="7" r="V11"/>
+      <c s="7" r="W11"/>
+      <c s="7" r="X11"/>
+      <c s="7" r="Y11"/>
     </row>
     <row r="12">
       <c s="3" r="A12">
@@ -3356,41 +3418,45 @@
       <c s="2" r="D12">
         <v>1</v>
       </c>
-      <c s="15" r="E12">
-        <v>1</v>
-      </c>
-      <c s="15" r="F12">
+      <c s="16" r="E12">
+        <v>1</v>
+      </c>
+      <c s="16" r="F12">
         <v>0</v>
       </c>
-      <c s="15" r="G12">
+      <c s="16" r="G12">
         <v>0</v>
       </c>
-      <c s="15" r="H12">
+      <c s="16" r="H12">
         <v>4</v>
       </c>
-      <c s="15" r="I12">
-        <v>1</v>
-      </c>
-      <c s="15" r="J12">
-        <v>1</v>
-      </c>
-      <c s="15" r="K12">
-        <v>1</v>
-      </c>
-      <c s="43" r="L12"/>
-      <c s="29" r="M12"/>
+      <c s="16" r="I12">
+        <v>1</v>
+      </c>
+      <c s="16" r="J12">
+        <v>1</v>
+      </c>
+      <c s="16" r="K12">
+        <v>1</v>
+      </c>
+      <c s="43" r="L12">
+        <v>4</v>
+      </c>
+      <c s="28" r="M12">
+        <v>5</v>
+      </c>
       <c s="26" r="N12"/>
-      <c s="6" r="O12"/>
-      <c s="6" r="P12"/>
-      <c s="6" r="Q12"/>
-      <c s="6" r="R12"/>
-      <c s="6" r="S12"/>
-      <c s="6" r="T12"/>
-      <c s="6" r="U12"/>
-      <c s="6" r="V12"/>
-      <c s="6" r="W12"/>
-      <c s="6" r="X12"/>
-      <c s="6" r="Y12"/>
+      <c s="7" r="O12"/>
+      <c s="7" r="P12"/>
+      <c s="7" r="Q12"/>
+      <c s="7" r="R12"/>
+      <c s="7" r="S12"/>
+      <c s="7" r="T12"/>
+      <c s="7" r="U12"/>
+      <c s="7" r="V12"/>
+      <c s="7" r="W12"/>
+      <c s="7" r="X12"/>
+      <c s="7" r="Y12"/>
     </row>
     <row r="13">
       <c s="3" r="A13">
@@ -3398,34 +3464,50 @@
       </c>
       <c s="31" r="B13">
         <f>SUM(C13:D13)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c s="5" r="C13">
         <f>SUM(E13:K13)</f>
+        <v>8</v>
+      </c>
+      <c s="2" r="D13">
+        <v>1</v>
+      </c>
+      <c s="16" r="E13">
+        <v>1</v>
+      </c>
+      <c s="16" r="F13">
+        <v>1</v>
+      </c>
+      <c s="16" r="G13">
         <v>0</v>
       </c>
-      <c s="2" r="D13"/>
-      <c s="15" r="E13"/>
-      <c s="15" r="F13"/>
-      <c s="15" r="G13"/>
-      <c s="15" r="H13"/>
-      <c s="15" r="I13"/>
-      <c s="15" r="J13"/>
-      <c s="15" r="K13"/>
+      <c s="16" r="H13">
+        <v>4</v>
+      </c>
+      <c s="16" r="I13">
+        <v>1</v>
+      </c>
+      <c s="16" r="J13">
+        <v>1</v>
+      </c>
+      <c s="16" r="K13">
+        <v>0</v>
+      </c>
       <c s="43" r="L13"/>
-      <c s="29" r="M13"/>
+      <c s="28" r="M13"/>
       <c s="26" r="N13"/>
-      <c s="6" r="O13"/>
-      <c s="6" r="P13"/>
-      <c s="6" r="Q13"/>
-      <c s="6" r="R13"/>
-      <c s="6" r="S13"/>
-      <c s="6" r="T13"/>
-      <c s="6" r="U13"/>
-      <c s="6" r="V13"/>
-      <c s="6" r="W13"/>
-      <c s="6" r="X13"/>
-      <c s="6" r="Y13"/>
+      <c s="7" r="O13"/>
+      <c s="7" r="P13"/>
+      <c s="7" r="Q13"/>
+      <c s="7" r="R13"/>
+      <c s="7" r="S13"/>
+      <c s="7" r="T13"/>
+      <c s="7" r="U13"/>
+      <c s="7" r="V13"/>
+      <c s="7" r="W13"/>
+      <c s="7" r="X13"/>
+      <c s="7" r="Y13"/>
     </row>
     <row r="14">
       <c s="3" r="A14">
@@ -3440,2355 +3522,2355 @@
         <v>0</v>
       </c>
       <c s="2" r="D14"/>
-      <c s="15" r="E14"/>
-      <c s="15" r="F14"/>
-      <c s="15" r="G14"/>
-      <c s="15" r="H14"/>
-      <c s="15" r="I14"/>
-      <c s="15" r="J14"/>
-      <c s="15" r="K14"/>
+      <c s="16" r="E14"/>
+      <c s="16" r="F14"/>
+      <c s="16" r="G14"/>
+      <c s="16" r="H14"/>
+      <c s="16" r="I14"/>
+      <c s="16" r="J14"/>
+      <c s="16" r="K14"/>
       <c s="43" r="L14"/>
-      <c s="29" r="M14"/>
+      <c s="28" r="M14"/>
       <c s="26" r="N14"/>
-      <c s="6" r="O14"/>
-      <c s="6" r="P14"/>
-      <c s="6" r="Q14"/>
-      <c s="6" r="R14"/>
-      <c s="6" r="S14"/>
-      <c s="6" r="T14"/>
-      <c s="6" r="U14"/>
-      <c s="6" r="V14"/>
-      <c s="6" r="W14"/>
-      <c s="6" r="X14"/>
-      <c s="6" r="Y14"/>
+      <c s="7" r="O14"/>
+      <c s="7" r="P14"/>
+      <c s="7" r="Q14"/>
+      <c s="7" r="R14"/>
+      <c s="7" r="S14"/>
+      <c s="7" r="T14"/>
+      <c s="7" r="U14"/>
+      <c s="7" r="V14"/>
+      <c s="7" r="W14"/>
+      <c s="7" r="X14"/>
+      <c s="7" r="Y14"/>
     </row>
     <row r="15">
       <c s="3" r="A15"/>
       <c s="31" r="B15"/>
       <c s="5" r="C15"/>
       <c s="2" r="D15"/>
-      <c s="15" r="E15"/>
-      <c s="15" r="F15"/>
-      <c s="15" r="G15"/>
-      <c s="15" r="H15"/>
-      <c s="15" r="I15"/>
-      <c s="15" r="J15"/>
-      <c s="15" r="K15"/>
+      <c s="16" r="E15"/>
+      <c s="16" r="F15"/>
+      <c s="16" r="G15"/>
+      <c s="16" r="H15"/>
+      <c s="16" r="I15"/>
+      <c s="16" r="J15"/>
+      <c s="16" r="K15"/>
       <c s="43" r="L15"/>
-      <c s="29" r="M15"/>
+      <c s="28" r="M15"/>
       <c s="26" r="N15"/>
-      <c s="6" r="O15"/>
-      <c s="6" r="P15"/>
-      <c s="6" r="Q15"/>
-      <c s="6" r="R15"/>
-      <c s="6" r="S15"/>
-      <c s="6" r="T15"/>
-      <c s="6" r="U15"/>
-      <c s="6" r="V15"/>
-      <c s="6" r="W15"/>
-      <c s="6" r="X15"/>
-      <c s="6" r="Y15"/>
+      <c s="7" r="O15"/>
+      <c s="7" r="P15"/>
+      <c s="7" r="Q15"/>
+      <c s="7" r="R15"/>
+      <c s="7" r="S15"/>
+      <c s="7" r="T15"/>
+      <c s="7" r="U15"/>
+      <c s="7" r="V15"/>
+      <c s="7" r="W15"/>
+      <c s="7" r="X15"/>
+      <c s="7" r="Y15"/>
     </row>
     <row r="16">
       <c s="3" r="A16"/>
       <c s="31" r="B16"/>
       <c s="5" r="C16"/>
       <c s="2" r="D16"/>
-      <c s="15" r="E16"/>
-      <c s="15" r="F16"/>
-      <c s="15" r="G16"/>
-      <c s="15" r="H16"/>
-      <c s="15" r="I16"/>
-      <c s="15" r="J16"/>
-      <c s="15" r="K16"/>
+      <c s="16" r="E16"/>
+      <c s="16" r="F16"/>
+      <c s="16" r="G16"/>
+      <c s="16" r="H16"/>
+      <c s="16" r="I16"/>
+      <c s="16" r="J16"/>
+      <c s="16" r="K16"/>
       <c s="43" r="L16"/>
-      <c s="29" r="M16"/>
+      <c s="28" r="M16"/>
       <c s="26" r="N16"/>
-      <c s="6" r="O16"/>
-      <c s="6" r="P16"/>
-      <c s="6" r="Q16"/>
-      <c s="6" r="R16"/>
-      <c s="6" r="S16"/>
-      <c s="6" r="T16"/>
-      <c s="6" r="U16"/>
-      <c s="6" r="V16"/>
-      <c s="6" r="W16"/>
-      <c s="6" r="X16"/>
-      <c s="6" r="Y16"/>
+      <c s="7" r="O16"/>
+      <c s="7" r="P16"/>
+      <c s="7" r="Q16"/>
+      <c s="7" r="R16"/>
+      <c s="7" r="S16"/>
+      <c s="7" r="T16"/>
+      <c s="7" r="U16"/>
+      <c s="7" r="V16"/>
+      <c s="7" r="W16"/>
+      <c s="7" r="X16"/>
+      <c s="7" r="Y16"/>
     </row>
     <row r="17">
       <c s="3" r="A17"/>
       <c s="31" r="B17"/>
       <c s="5" r="C17"/>
       <c s="2" r="D17"/>
-      <c s="15" r="E17"/>
-      <c s="15" r="F17"/>
-      <c s="15" r="G17"/>
-      <c s="15" r="H17"/>
-      <c s="15" r="I17"/>
-      <c s="15" r="J17"/>
-      <c s="15" r="K17"/>
+      <c s="16" r="E17"/>
+      <c s="16" r="F17"/>
+      <c s="16" r="G17"/>
+      <c s="16" r="H17"/>
+      <c s="16" r="I17"/>
+      <c s="16" r="J17"/>
+      <c s="16" r="K17"/>
       <c s="43" r="L17"/>
-      <c s="29" r="M17"/>
+      <c s="28" r="M17"/>
       <c s="26" r="N17"/>
-      <c s="6" r="O17"/>
-      <c s="6" r="P17"/>
-      <c s="6" r="Q17"/>
-      <c s="6" r="R17"/>
-      <c s="6" r="S17"/>
-      <c s="6" r="T17"/>
-      <c s="6" r="U17"/>
-      <c s="6" r="V17"/>
-      <c s="6" r="W17"/>
-      <c s="6" r="X17"/>
-      <c s="6" r="Y17"/>
+      <c s="7" r="O17"/>
+      <c s="7" r="P17"/>
+      <c s="7" r="Q17"/>
+      <c s="7" r="R17"/>
+      <c s="7" r="S17"/>
+      <c s="7" r="T17"/>
+      <c s="7" r="U17"/>
+      <c s="7" r="V17"/>
+      <c s="7" r="W17"/>
+      <c s="7" r="X17"/>
+      <c s="7" r="Y17"/>
     </row>
     <row r="18">
       <c s="3" r="A18"/>
       <c s="31" r="B18"/>
       <c s="5" r="C18"/>
       <c s="2" r="D18"/>
-      <c s="15" r="E18"/>
-      <c s="15" r="F18"/>
-      <c s="15" r="G18"/>
-      <c s="15" r="H18"/>
-      <c s="15" r="I18"/>
-      <c s="15" r="J18"/>
-      <c s="15" r="K18"/>
+      <c s="16" r="E18"/>
+      <c s="16" r="F18"/>
+      <c s="16" r="G18"/>
+      <c s="16" r="H18"/>
+      <c s="16" r="I18"/>
+      <c s="16" r="J18"/>
+      <c s="16" r="K18"/>
       <c s="43" r="L18"/>
-      <c s="29" r="M18"/>
+      <c s="28" r="M18"/>
       <c s="26" r="N18"/>
-      <c s="6" r="O18"/>
-      <c s="6" r="P18"/>
-      <c s="6" r="Q18"/>
-      <c s="6" r="R18"/>
-      <c s="6" r="S18"/>
-      <c s="6" r="T18"/>
-      <c s="6" r="U18"/>
-      <c s="6" r="V18"/>
-      <c s="6" r="W18"/>
-      <c s="6" r="X18"/>
-      <c s="6" r="Y18"/>
+      <c s="7" r="O18"/>
+      <c s="7" r="P18"/>
+      <c s="7" r="Q18"/>
+      <c s="7" r="R18"/>
+      <c s="7" r="S18"/>
+      <c s="7" r="T18"/>
+      <c s="7" r="U18"/>
+      <c s="7" r="V18"/>
+      <c s="7" r="W18"/>
+      <c s="7" r="X18"/>
+      <c s="7" r="Y18"/>
     </row>
     <row r="19">
       <c s="3" r="A19"/>
       <c s="31" r="B19"/>
       <c s="5" r="C19"/>
       <c s="2" r="D19"/>
-      <c s="15" r="E19"/>
-      <c s="15" r="F19"/>
-      <c s="15" r="G19"/>
-      <c s="15" r="H19"/>
-      <c s="15" r="I19"/>
-      <c s="15" r="J19"/>
-      <c s="15" r="K19"/>
+      <c s="16" r="E19"/>
+      <c s="16" r="F19"/>
+      <c s="16" r="G19"/>
+      <c s="16" r="H19"/>
+      <c s="16" r="I19"/>
+      <c s="16" r="J19"/>
+      <c s="16" r="K19"/>
       <c s="43" r="L19"/>
-      <c s="29" r="M19"/>
+      <c s="28" r="M19"/>
       <c s="26" r="N19"/>
-      <c s="6" r="O19"/>
-      <c s="6" r="P19"/>
-      <c s="6" r="Q19"/>
-      <c s="6" r="R19"/>
-      <c s="6" r="S19"/>
-      <c s="6" r="T19"/>
-      <c s="6" r="U19"/>
-      <c s="6" r="V19"/>
-      <c s="6" r="W19"/>
-      <c s="6" r="X19"/>
-      <c s="6" r="Y19"/>
+      <c s="7" r="O19"/>
+      <c s="7" r="P19"/>
+      <c s="7" r="Q19"/>
+      <c s="7" r="R19"/>
+      <c s="7" r="S19"/>
+      <c s="7" r="T19"/>
+      <c s="7" r="U19"/>
+      <c s="7" r="V19"/>
+      <c s="7" r="W19"/>
+      <c s="7" r="X19"/>
+      <c s="7" r="Y19"/>
     </row>
     <row r="20">
       <c s="3" r="A20"/>
       <c s="31" r="B20"/>
       <c s="5" r="C20"/>
       <c s="2" r="D20"/>
-      <c s="15" r="E20"/>
-      <c s="15" r="F20"/>
-      <c s="15" r="G20"/>
-      <c s="15" r="H20"/>
-      <c s="15" r="I20"/>
-      <c s="15" r="J20"/>
-      <c s="15" r="K20"/>
+      <c s="16" r="E20"/>
+      <c s="16" r="F20"/>
+      <c s="16" r="G20"/>
+      <c s="16" r="H20"/>
+      <c s="16" r="I20"/>
+      <c s="16" r="J20"/>
+      <c s="16" r="K20"/>
       <c s="43" r="L20"/>
-      <c s="29" r="M20"/>
+      <c s="28" r="M20"/>
       <c s="26" r="N20"/>
-      <c s="6" r="O20"/>
-      <c s="6" r="P20"/>
-      <c s="6" r="Q20"/>
-      <c s="6" r="R20"/>
-      <c s="6" r="S20"/>
-      <c s="6" r="T20"/>
-      <c s="6" r="U20"/>
-      <c s="6" r="V20"/>
-      <c s="6" r="W20"/>
-      <c s="6" r="X20"/>
-      <c s="6" r="Y20"/>
+      <c s="7" r="O20"/>
+      <c s="7" r="P20"/>
+      <c s="7" r="Q20"/>
+      <c s="7" r="R20"/>
+      <c s="7" r="S20"/>
+      <c s="7" r="T20"/>
+      <c s="7" r="U20"/>
+      <c s="7" r="V20"/>
+      <c s="7" r="W20"/>
+      <c s="7" r="X20"/>
+      <c s="7" r="Y20"/>
     </row>
     <row r="21">
       <c s="3" r="A21"/>
       <c s="31" r="B21"/>
       <c s="5" r="C21"/>
       <c s="2" r="D21"/>
-      <c s="15" r="E21"/>
-      <c s="15" r="F21"/>
-      <c s="15" r="G21"/>
-      <c s="15" r="H21"/>
-      <c s="15" r="I21"/>
-      <c s="15" r="J21"/>
-      <c s="15" r="K21"/>
+      <c s="16" r="E21"/>
+      <c s="16" r="F21"/>
+      <c s="16" r="G21"/>
+      <c s="16" r="H21"/>
+      <c s="16" r="I21"/>
+      <c s="16" r="J21"/>
+      <c s="16" r="K21"/>
       <c s="43" r="L21"/>
-      <c s="29" r="M21"/>
+      <c s="28" r="M21"/>
       <c s="26" r="N21"/>
-      <c s="6" r="O21"/>
-      <c s="6" r="P21"/>
-      <c s="6" r="Q21"/>
-      <c s="6" r="R21"/>
-      <c s="6" r="S21"/>
-      <c s="6" r="T21"/>
-      <c s="6" r="U21"/>
-      <c s="6" r="V21"/>
-      <c s="6" r="W21"/>
-      <c s="6" r="X21"/>
-      <c s="6" r="Y21"/>
+      <c s="7" r="O21"/>
+      <c s="7" r="P21"/>
+      <c s="7" r="Q21"/>
+      <c s="7" r="R21"/>
+      <c s="7" r="S21"/>
+      <c s="7" r="T21"/>
+      <c s="7" r="U21"/>
+      <c s="7" r="V21"/>
+      <c s="7" r="W21"/>
+      <c s="7" r="X21"/>
+      <c s="7" r="Y21"/>
     </row>
     <row r="22">
       <c s="3" r="A22"/>
       <c s="31" r="B22"/>
       <c s="5" r="C22"/>
       <c s="2" r="D22"/>
-      <c s="15" r="E22"/>
-      <c s="15" r="F22"/>
-      <c s="15" r="G22"/>
-      <c s="15" r="H22"/>
-      <c s="15" r="I22"/>
-      <c s="15" r="J22"/>
-      <c s="15" r="K22"/>
+      <c s="16" r="E22"/>
+      <c s="16" r="F22"/>
+      <c s="16" r="G22"/>
+      <c s="16" r="H22"/>
+      <c s="16" r="I22"/>
+      <c s="16" r="J22"/>
+      <c s="16" r="K22"/>
       <c s="43" r="L22"/>
-      <c s="29" r="M22"/>
+      <c s="28" r="M22"/>
       <c s="26" r="N22"/>
-      <c s="6" r="O22"/>
-      <c s="6" r="P22"/>
-      <c s="6" r="Q22"/>
-      <c s="6" r="R22"/>
-      <c s="6" r="S22"/>
-      <c s="6" r="T22"/>
-      <c s="6" r="U22"/>
-      <c s="6" r="V22"/>
-      <c s="6" r="W22"/>
-      <c s="6" r="X22"/>
-      <c s="6" r="Y22"/>
+      <c s="7" r="O22"/>
+      <c s="7" r="P22"/>
+      <c s="7" r="Q22"/>
+      <c s="7" r="R22"/>
+      <c s="7" r="S22"/>
+      <c s="7" r="T22"/>
+      <c s="7" r="U22"/>
+      <c s="7" r="V22"/>
+      <c s="7" r="W22"/>
+      <c s="7" r="X22"/>
+      <c s="7" r="Y22"/>
     </row>
     <row r="23">
       <c s="3" r="A23"/>
       <c s="31" r="B23"/>
       <c s="5" r="C23"/>
       <c s="2" r="D23"/>
-      <c s="15" r="E23"/>
-      <c s="15" r="F23"/>
-      <c s="15" r="G23"/>
-      <c s="15" r="H23"/>
-      <c s="15" r="I23"/>
-      <c s="15" r="J23"/>
-      <c s="15" r="K23"/>
+      <c s="16" r="E23"/>
+      <c s="16" r="F23"/>
+      <c s="16" r="G23"/>
+      <c s="16" r="H23"/>
+      <c s="16" r="I23"/>
+      <c s="16" r="J23"/>
+      <c s="16" r="K23"/>
       <c s="43" r="L23"/>
-      <c s="29" r="M23"/>
+      <c s="28" r="M23"/>
       <c s="26" r="N23"/>
-      <c s="6" r="O23"/>
-      <c s="6" r="P23"/>
-      <c s="6" r="Q23"/>
-      <c s="6" r="R23"/>
-      <c s="6" r="S23"/>
-      <c s="6" r="T23"/>
-      <c s="6" r="U23"/>
-      <c s="6" r="V23"/>
-      <c s="6" r="W23"/>
-      <c s="6" r="X23"/>
-      <c s="6" r="Y23"/>
+      <c s="7" r="O23"/>
+      <c s="7" r="P23"/>
+      <c s="7" r="Q23"/>
+      <c s="7" r="R23"/>
+      <c s="7" r="S23"/>
+      <c s="7" r="T23"/>
+      <c s="7" r="U23"/>
+      <c s="7" r="V23"/>
+      <c s="7" r="W23"/>
+      <c s="7" r="X23"/>
+      <c s="7" r="Y23"/>
     </row>
     <row r="24">
       <c s="3" r="A24"/>
       <c s="31" r="B24"/>
       <c s="5" r="C24"/>
       <c s="2" r="D24"/>
-      <c s="15" r="E24"/>
-      <c s="15" r="F24"/>
-      <c s="15" r="G24"/>
-      <c s="15" r="H24"/>
-      <c s="15" r="I24"/>
-      <c s="15" r="J24"/>
-      <c s="15" r="K24"/>
+      <c s="16" r="E24"/>
+      <c s="16" r="F24"/>
+      <c s="16" r="G24"/>
+      <c s="16" r="H24"/>
+      <c s="16" r="I24"/>
+      <c s="16" r="J24"/>
+      <c s="16" r="K24"/>
       <c s="43" r="L24"/>
-      <c s="29" r="M24"/>
+      <c s="28" r="M24"/>
       <c s="26" r="N24"/>
-      <c s="6" r="O24"/>
-      <c s="6" r="P24"/>
-      <c s="6" r="Q24"/>
-      <c s="6" r="R24"/>
-      <c s="6" r="S24"/>
-      <c s="6" r="T24"/>
-      <c s="6" r="U24"/>
-      <c s="6" r="V24"/>
-      <c s="6" r="W24"/>
-      <c s="6" r="X24"/>
-      <c s="6" r="Y24"/>
+      <c s="7" r="O24"/>
+      <c s="7" r="P24"/>
+      <c s="7" r="Q24"/>
+      <c s="7" r="R24"/>
+      <c s="7" r="S24"/>
+      <c s="7" r="T24"/>
+      <c s="7" r="U24"/>
+      <c s="7" r="V24"/>
+      <c s="7" r="W24"/>
+      <c s="7" r="X24"/>
+      <c s="7" r="Y24"/>
     </row>
     <row r="25">
       <c s="3" r="A25"/>
       <c s="31" r="B25"/>
       <c s="5" r="C25"/>
       <c s="2" r="D25"/>
-      <c s="15" r="E25"/>
-      <c s="15" r="F25"/>
-      <c s="15" r="G25"/>
-      <c s="15" r="H25"/>
-      <c s="15" r="I25"/>
-      <c s="15" r="J25"/>
-      <c s="15" r="K25"/>
+      <c s="16" r="E25"/>
+      <c s="16" r="F25"/>
+      <c s="16" r="G25"/>
+      <c s="16" r="H25"/>
+      <c s="16" r="I25"/>
+      <c s="16" r="J25"/>
+      <c s="16" r="K25"/>
       <c s="43" r="L25"/>
-      <c s="29" r="M25"/>
+      <c s="28" r="M25"/>
       <c s="26" r="N25"/>
-      <c s="6" r="O25"/>
-      <c s="6" r="P25"/>
-      <c s="6" r="Q25"/>
-      <c s="6" r="R25"/>
-      <c s="6" r="S25"/>
-      <c s="6" r="T25"/>
-      <c s="6" r="U25"/>
-      <c s="6" r="V25"/>
-      <c s="6" r="W25"/>
-      <c s="6" r="X25"/>
-      <c s="6" r="Y25"/>
+      <c s="7" r="O25"/>
+      <c s="7" r="P25"/>
+      <c s="7" r="Q25"/>
+      <c s="7" r="R25"/>
+      <c s="7" r="S25"/>
+      <c s="7" r="T25"/>
+      <c s="7" r="U25"/>
+      <c s="7" r="V25"/>
+      <c s="7" r="W25"/>
+      <c s="7" r="X25"/>
+      <c s="7" r="Y25"/>
     </row>
     <row r="26">
       <c s="3" r="A26"/>
       <c s="31" r="B26"/>
       <c s="5" r="C26"/>
       <c s="2" r="D26"/>
-      <c s="15" r="E26"/>
-      <c s="15" r="F26"/>
-      <c s="15" r="G26"/>
-      <c s="15" r="H26"/>
-      <c s="15" r="I26"/>
-      <c s="15" r="J26"/>
-      <c s="15" r="K26"/>
+      <c s="16" r="E26"/>
+      <c s="16" r="F26"/>
+      <c s="16" r="G26"/>
+      <c s="16" r="H26"/>
+      <c s="16" r="I26"/>
+      <c s="16" r="J26"/>
+      <c s="16" r="K26"/>
       <c s="43" r="L26"/>
-      <c s="29" r="M26"/>
+      <c s="28" r="M26"/>
       <c s="26" r="N26"/>
-      <c s="6" r="O26"/>
-      <c s="6" r="P26"/>
-      <c s="6" r="Q26"/>
-      <c s="6" r="R26"/>
-      <c s="6" r="S26"/>
-      <c s="6" r="T26"/>
-      <c s="6" r="U26"/>
-      <c s="6" r="V26"/>
-      <c s="6" r="W26"/>
-      <c s="6" r="X26"/>
-      <c s="6" r="Y26"/>
+      <c s="7" r="O26"/>
+      <c s="7" r="P26"/>
+      <c s="7" r="Q26"/>
+      <c s="7" r="R26"/>
+      <c s="7" r="S26"/>
+      <c s="7" r="T26"/>
+      <c s="7" r="U26"/>
+      <c s="7" r="V26"/>
+      <c s="7" r="W26"/>
+      <c s="7" r="X26"/>
+      <c s="7" r="Y26"/>
     </row>
     <row r="27">
       <c s="3" r="A27"/>
       <c s="31" r="B27"/>
       <c s="5" r="C27"/>
       <c s="2" r="D27"/>
-      <c s="15" r="E27"/>
-      <c s="15" r="F27"/>
-      <c s="15" r="G27"/>
-      <c s="15" r="H27"/>
-      <c s="15" r="I27"/>
-      <c s="15" r="J27"/>
-      <c s="15" r="K27"/>
+      <c s="16" r="E27"/>
+      <c s="16" r="F27"/>
+      <c s="16" r="G27"/>
+      <c s="16" r="H27"/>
+      <c s="16" r="I27"/>
+      <c s="16" r="J27"/>
+      <c s="16" r="K27"/>
       <c s="43" r="L27"/>
-      <c s="29" r="M27"/>
+      <c s="28" r="M27"/>
       <c s="26" r="N27"/>
-      <c s="6" r="O27"/>
-      <c s="6" r="P27"/>
-      <c s="6" r="Q27"/>
-      <c s="6" r="R27"/>
-      <c s="6" r="S27"/>
-      <c s="6" r="T27"/>
-      <c s="6" r="U27"/>
-      <c s="6" r="V27"/>
-      <c s="6" r="W27"/>
-      <c s="6" r="X27"/>
-      <c s="6" r="Y27"/>
+      <c s="7" r="O27"/>
+      <c s="7" r="P27"/>
+      <c s="7" r="Q27"/>
+      <c s="7" r="R27"/>
+      <c s="7" r="S27"/>
+      <c s="7" r="T27"/>
+      <c s="7" r="U27"/>
+      <c s="7" r="V27"/>
+      <c s="7" r="W27"/>
+      <c s="7" r="X27"/>
+      <c s="7" r="Y27"/>
     </row>
     <row r="28">
       <c s="3" r="A28"/>
       <c s="31" r="B28"/>
       <c s="5" r="C28"/>
       <c s="2" r="D28"/>
-      <c s="15" r="E28"/>
-      <c s="15" r="F28"/>
-      <c s="15" r="G28"/>
-      <c s="15" r="H28"/>
-      <c s="15" r="I28"/>
-      <c s="15" r="J28"/>
-      <c s="15" r="K28"/>
+      <c s="16" r="E28"/>
+      <c s="16" r="F28"/>
+      <c s="16" r="G28"/>
+      <c s="16" r="H28"/>
+      <c s="16" r="I28"/>
+      <c s="16" r="J28"/>
+      <c s="16" r="K28"/>
       <c s="43" r="L28"/>
-      <c s="29" r="M28"/>
+      <c s="28" r="M28"/>
       <c s="26" r="N28"/>
-      <c s="6" r="O28"/>
-      <c s="6" r="P28"/>
-      <c s="6" r="Q28"/>
-      <c s="6" r="R28"/>
-      <c s="6" r="S28"/>
-      <c s="6" r="T28"/>
-      <c s="6" r="U28"/>
-      <c s="6" r="V28"/>
-      <c s="6" r="W28"/>
-      <c s="6" r="X28"/>
-      <c s="6" r="Y28"/>
+      <c s="7" r="O28"/>
+      <c s="7" r="P28"/>
+      <c s="7" r="Q28"/>
+      <c s="7" r="R28"/>
+      <c s="7" r="S28"/>
+      <c s="7" r="T28"/>
+      <c s="7" r="U28"/>
+      <c s="7" r="V28"/>
+      <c s="7" r="W28"/>
+      <c s="7" r="X28"/>
+      <c s="7" r="Y28"/>
     </row>
     <row r="29">
       <c s="3" r="A29"/>
       <c s="31" r="B29"/>
       <c s="5" r="C29"/>
       <c s="2" r="D29"/>
-      <c s="15" r="E29"/>
-      <c s="15" r="F29"/>
-      <c s="15" r="G29"/>
-      <c s="15" r="H29"/>
-      <c s="15" r="I29"/>
-      <c s="15" r="J29"/>
-      <c s="15" r="K29"/>
+      <c s="16" r="E29"/>
+      <c s="16" r="F29"/>
+      <c s="16" r="G29"/>
+      <c s="16" r="H29"/>
+      <c s="16" r="I29"/>
+      <c s="16" r="J29"/>
+      <c s="16" r="K29"/>
       <c s="43" r="L29"/>
-      <c s="29" r="M29"/>
+      <c s="28" r="M29"/>
       <c s="26" r="N29"/>
-      <c s="6" r="O29"/>
-      <c s="6" r="P29"/>
-      <c s="6" r="Q29"/>
-      <c s="6" r="R29"/>
-      <c s="6" r="S29"/>
-      <c s="6" r="T29"/>
-      <c s="6" r="U29"/>
-      <c s="6" r="V29"/>
-      <c s="6" r="W29"/>
-      <c s="6" r="X29"/>
-      <c s="6" r="Y29"/>
+      <c s="7" r="O29"/>
+      <c s="7" r="P29"/>
+      <c s="7" r="Q29"/>
+      <c s="7" r="R29"/>
+      <c s="7" r="S29"/>
+      <c s="7" r="T29"/>
+      <c s="7" r="U29"/>
+      <c s="7" r="V29"/>
+      <c s="7" r="W29"/>
+      <c s="7" r="X29"/>
+      <c s="7" r="Y29"/>
     </row>
     <row r="30">
       <c s="3" r="A30"/>
       <c s="31" r="B30"/>
       <c s="5" r="C30"/>
       <c s="2" r="D30"/>
-      <c s="15" r="E30"/>
-      <c s="15" r="F30"/>
-      <c s="15" r="G30"/>
-      <c s="15" r="H30"/>
-      <c s="15" r="I30"/>
-      <c s="15" r="J30"/>
-      <c s="15" r="K30"/>
+      <c s="16" r="E30"/>
+      <c s="16" r="F30"/>
+      <c s="16" r="G30"/>
+      <c s="16" r="H30"/>
+      <c s="16" r="I30"/>
+      <c s="16" r="J30"/>
+      <c s="16" r="K30"/>
       <c s="43" r="L30"/>
-      <c s="29" r="M30"/>
+      <c s="28" r="M30"/>
       <c s="26" r="N30"/>
-      <c s="6" r="O30"/>
-      <c s="6" r="P30"/>
-      <c s="6" r="Q30"/>
-      <c s="6" r="R30"/>
-      <c s="6" r="S30"/>
-      <c s="6" r="T30"/>
-      <c s="6" r="U30"/>
-      <c s="6" r="V30"/>
-      <c s="6" r="W30"/>
-      <c s="6" r="X30"/>
-      <c s="6" r="Y30"/>
+      <c s="7" r="O30"/>
+      <c s="7" r="P30"/>
+      <c s="7" r="Q30"/>
+      <c s="7" r="R30"/>
+      <c s="7" r="S30"/>
+      <c s="7" r="T30"/>
+      <c s="7" r="U30"/>
+      <c s="7" r="V30"/>
+      <c s="7" r="W30"/>
+      <c s="7" r="X30"/>
+      <c s="7" r="Y30"/>
     </row>
     <row r="31">
       <c s="3" r="A31"/>
       <c s="31" r="B31"/>
       <c s="5" r="C31"/>
       <c s="2" r="D31"/>
-      <c s="15" r="E31"/>
-      <c s="15" r="F31"/>
-      <c s="15" r="G31"/>
-      <c s="15" r="H31"/>
-      <c s="15" r="I31"/>
-      <c s="15" r="J31"/>
-      <c s="15" r="K31"/>
+      <c s="16" r="E31"/>
+      <c s="16" r="F31"/>
+      <c s="16" r="G31"/>
+      <c s="16" r="H31"/>
+      <c s="16" r="I31"/>
+      <c s="16" r="J31"/>
+      <c s="16" r="K31"/>
       <c s="43" r="L31"/>
-      <c s="29" r="M31"/>
+      <c s="28" r="M31"/>
       <c s="26" r="N31"/>
-      <c s="6" r="O31"/>
-      <c s="6" r="P31"/>
-      <c s="6" r="Q31"/>
-      <c s="6" r="R31"/>
-      <c s="6" r="S31"/>
-      <c s="6" r="T31"/>
-      <c s="6" r="U31"/>
-      <c s="6" r="V31"/>
-      <c s="6" r="W31"/>
-      <c s="6" r="X31"/>
-      <c s="6" r="Y31"/>
+      <c s="7" r="O31"/>
+      <c s="7" r="P31"/>
+      <c s="7" r="Q31"/>
+      <c s="7" r="R31"/>
+      <c s="7" r="S31"/>
+      <c s="7" r="T31"/>
+      <c s="7" r="U31"/>
+      <c s="7" r="V31"/>
+      <c s="7" r="W31"/>
+      <c s="7" r="X31"/>
+      <c s="7" r="Y31"/>
     </row>
     <row r="32">
       <c s="3" r="A32"/>
       <c s="31" r="B32"/>
       <c s="5" r="C32"/>
       <c s="2" r="D32"/>
-      <c s="15" r="E32"/>
-      <c s="15" r="F32"/>
-      <c s="15" r="G32"/>
-      <c s="15" r="H32"/>
-      <c s="15" r="I32"/>
-      <c s="15" r="J32"/>
-      <c s="15" r="K32"/>
+      <c s="16" r="E32"/>
+      <c s="16" r="F32"/>
+      <c s="16" r="G32"/>
+      <c s="16" r="H32"/>
+      <c s="16" r="I32"/>
+      <c s="16" r="J32"/>
+      <c s="16" r="K32"/>
       <c s="43" r="L32"/>
-      <c s="29" r="M32"/>
+      <c s="28" r="M32"/>
       <c s="26" r="N32"/>
-      <c s="6" r="O32"/>
-      <c s="6" r="P32"/>
-      <c s="6" r="Q32"/>
-      <c s="6" r="R32"/>
-      <c s="6" r="S32"/>
-      <c s="6" r="T32"/>
-      <c s="6" r="U32"/>
-      <c s="6" r="V32"/>
-      <c s="6" r="W32"/>
-      <c s="6" r="X32"/>
-      <c s="6" r="Y32"/>
+      <c s="7" r="O32"/>
+      <c s="7" r="P32"/>
+      <c s="7" r="Q32"/>
+      <c s="7" r="R32"/>
+      <c s="7" r="S32"/>
+      <c s="7" r="T32"/>
+      <c s="7" r="U32"/>
+      <c s="7" r="V32"/>
+      <c s="7" r="W32"/>
+      <c s="7" r="X32"/>
+      <c s="7" r="Y32"/>
     </row>
     <row r="33">
       <c s="3" r="A33"/>
       <c s="31" r="B33"/>
       <c s="5" r="C33"/>
       <c s="2" r="D33"/>
-      <c s="15" r="E33"/>
-      <c s="15" r="F33"/>
-      <c s="15" r="G33"/>
-      <c s="15" r="H33"/>
-      <c s="15" r="I33"/>
-      <c s="15" r="J33"/>
-      <c s="15" r="K33"/>
+      <c s="16" r="E33"/>
+      <c s="16" r="F33"/>
+      <c s="16" r="G33"/>
+      <c s="16" r="H33"/>
+      <c s="16" r="I33"/>
+      <c s="16" r="J33"/>
+      <c s="16" r="K33"/>
       <c s="43" r="L33"/>
-      <c s="29" r="M33"/>
+      <c s="28" r="M33"/>
       <c s="26" r="N33"/>
-      <c s="6" r="O33"/>
-      <c s="6" r="P33"/>
-      <c s="6" r="Q33"/>
-      <c s="6" r="R33"/>
-      <c s="6" r="S33"/>
-      <c s="6" r="T33"/>
-      <c s="6" r="U33"/>
-      <c s="6" r="V33"/>
-      <c s="6" r="W33"/>
-      <c s="6" r="X33"/>
-      <c s="6" r="Y33"/>
+      <c s="7" r="O33"/>
+      <c s="7" r="P33"/>
+      <c s="7" r="Q33"/>
+      <c s="7" r="R33"/>
+      <c s="7" r="S33"/>
+      <c s="7" r="T33"/>
+      <c s="7" r="U33"/>
+      <c s="7" r="V33"/>
+      <c s="7" r="W33"/>
+      <c s="7" r="X33"/>
+      <c s="7" r="Y33"/>
     </row>
     <row r="34">
       <c s="3" r="A34"/>
       <c s="31" r="B34"/>
       <c s="5" r="C34"/>
       <c s="2" r="D34"/>
-      <c s="15" r="E34"/>
-      <c s="15" r="F34"/>
-      <c s="15" r="G34"/>
-      <c s="15" r="H34"/>
-      <c s="15" r="I34"/>
-      <c s="15" r="J34"/>
-      <c s="15" r="K34"/>
+      <c s="16" r="E34"/>
+      <c s="16" r="F34"/>
+      <c s="16" r="G34"/>
+      <c s="16" r="H34"/>
+      <c s="16" r="I34"/>
+      <c s="16" r="J34"/>
+      <c s="16" r="K34"/>
       <c s="43" r="L34"/>
-      <c s="29" r="M34"/>
+      <c s="28" r="M34"/>
       <c s="26" r="N34"/>
-      <c s="6" r="O34"/>
-      <c s="6" r="P34"/>
-      <c s="6" r="Q34"/>
-      <c s="6" r="R34"/>
-      <c s="6" r="S34"/>
-      <c s="6" r="T34"/>
-      <c s="6" r="U34"/>
-      <c s="6" r="V34"/>
-      <c s="6" r="W34"/>
-      <c s="6" r="X34"/>
-      <c s="6" r="Y34"/>
+      <c s="7" r="O34"/>
+      <c s="7" r="P34"/>
+      <c s="7" r="Q34"/>
+      <c s="7" r="R34"/>
+      <c s="7" r="S34"/>
+      <c s="7" r="T34"/>
+      <c s="7" r="U34"/>
+      <c s="7" r="V34"/>
+      <c s="7" r="W34"/>
+      <c s="7" r="X34"/>
+      <c s="7" r="Y34"/>
     </row>
     <row r="35">
       <c s="3" r="A35"/>
       <c s="31" r="B35"/>
       <c s="5" r="C35"/>
       <c s="2" r="D35"/>
-      <c s="15" r="E35"/>
-      <c s="15" r="F35"/>
-      <c s="15" r="G35"/>
-      <c s="15" r="H35"/>
-      <c s="15" r="I35"/>
-      <c s="15" r="J35"/>
-      <c s="15" r="K35"/>
+      <c s="16" r="E35"/>
+      <c s="16" r="F35"/>
+      <c s="16" r="G35"/>
+      <c s="16" r="H35"/>
+      <c s="16" r="I35"/>
+      <c s="16" r="J35"/>
+      <c s="16" r="K35"/>
       <c s="43" r="L35"/>
-      <c s="29" r="M35"/>
+      <c s="28" r="M35"/>
       <c s="26" r="N35"/>
-      <c s="6" r="O35"/>
-      <c s="6" r="P35"/>
-      <c s="6" r="Q35"/>
-      <c s="6" r="R35"/>
-      <c s="6" r="S35"/>
-      <c s="6" r="T35"/>
-      <c s="6" r="U35"/>
-      <c s="6" r="V35"/>
-      <c s="6" r="W35"/>
-      <c s="6" r="X35"/>
-      <c s="6" r="Y35"/>
+      <c s="7" r="O35"/>
+      <c s="7" r="P35"/>
+      <c s="7" r="Q35"/>
+      <c s="7" r="R35"/>
+      <c s="7" r="S35"/>
+      <c s="7" r="T35"/>
+      <c s="7" r="U35"/>
+      <c s="7" r="V35"/>
+      <c s="7" r="W35"/>
+      <c s="7" r="X35"/>
+      <c s="7" r="Y35"/>
     </row>
     <row r="36">
       <c s="3" r="A36"/>
       <c s="31" r="B36"/>
       <c s="5" r="C36"/>
       <c s="2" r="D36"/>
-      <c s="15" r="E36"/>
-      <c s="15" r="F36"/>
-      <c s="15" r="G36"/>
-      <c s="15" r="H36"/>
-      <c s="15" r="I36"/>
-      <c s="15" r="J36"/>
-      <c s="15" r="K36"/>
+      <c s="16" r="E36"/>
+      <c s="16" r="F36"/>
+      <c s="16" r="G36"/>
+      <c s="16" r="H36"/>
+      <c s="16" r="I36"/>
+      <c s="16" r="J36"/>
+      <c s="16" r="K36"/>
       <c s="43" r="L36"/>
-      <c s="29" r="M36"/>
+      <c s="28" r="M36"/>
       <c s="26" r="N36"/>
-      <c s="6" r="O36"/>
-      <c s="6" r="P36"/>
-      <c s="6" r="Q36"/>
-      <c s="6" r="R36"/>
-      <c s="6" r="S36"/>
-      <c s="6" r="T36"/>
-      <c s="6" r="U36"/>
-      <c s="6" r="V36"/>
-      <c s="6" r="W36"/>
-      <c s="6" r="X36"/>
-      <c s="6" r="Y36"/>
+      <c s="7" r="O36"/>
+      <c s="7" r="P36"/>
+      <c s="7" r="Q36"/>
+      <c s="7" r="R36"/>
+      <c s="7" r="S36"/>
+      <c s="7" r="T36"/>
+      <c s="7" r="U36"/>
+      <c s="7" r="V36"/>
+      <c s="7" r="W36"/>
+      <c s="7" r="X36"/>
+      <c s="7" r="Y36"/>
     </row>
     <row r="37">
       <c s="3" r="A37"/>
       <c s="31" r="B37"/>
       <c s="5" r="C37"/>
       <c s="2" r="D37"/>
-      <c s="15" r="E37"/>
-      <c s="15" r="F37"/>
-      <c s="15" r="G37"/>
-      <c s="15" r="H37"/>
-      <c s="15" r="I37"/>
-      <c s="15" r="J37"/>
-      <c s="15" r="K37"/>
+      <c s="16" r="E37"/>
+      <c s="16" r="F37"/>
+      <c s="16" r="G37"/>
+      <c s="16" r="H37"/>
+      <c s="16" r="I37"/>
+      <c s="16" r="J37"/>
+      <c s="16" r="K37"/>
       <c s="43" r="L37"/>
-      <c s="29" r="M37"/>
+      <c s="28" r="M37"/>
       <c s="26" r="N37"/>
-      <c s="6" r="O37"/>
-      <c s="6" r="P37"/>
-      <c s="6" r="Q37"/>
-      <c s="6" r="R37"/>
-      <c s="6" r="S37"/>
-      <c s="6" r="T37"/>
-      <c s="6" r="U37"/>
-      <c s="6" r="V37"/>
-      <c s="6" r="W37"/>
-      <c s="6" r="X37"/>
-      <c s="6" r="Y37"/>
+      <c s="7" r="O37"/>
+      <c s="7" r="P37"/>
+      <c s="7" r="Q37"/>
+      <c s="7" r="R37"/>
+      <c s="7" r="S37"/>
+      <c s="7" r="T37"/>
+      <c s="7" r="U37"/>
+      <c s="7" r="V37"/>
+      <c s="7" r="W37"/>
+      <c s="7" r="X37"/>
+      <c s="7" r="Y37"/>
     </row>
     <row r="38">
       <c s="3" r="A38"/>
       <c s="31" r="B38"/>
       <c s="5" r="C38"/>
       <c s="2" r="D38"/>
-      <c s="15" r="E38"/>
-      <c s="15" r="F38"/>
-      <c s="15" r="G38"/>
-      <c s="15" r="H38"/>
-      <c s="15" r="I38"/>
-      <c s="15" r="J38"/>
-      <c s="15" r="K38"/>
+      <c s="16" r="E38"/>
+      <c s="16" r="F38"/>
+      <c s="16" r="G38"/>
+      <c s="16" r="H38"/>
+      <c s="16" r="I38"/>
+      <c s="16" r="J38"/>
+      <c s="16" r="K38"/>
       <c s="43" r="L38"/>
-      <c s="29" r="M38"/>
+      <c s="28" r="M38"/>
       <c s="26" r="N38"/>
-      <c s="6" r="O38"/>
-      <c s="6" r="P38"/>
-      <c s="6" r="Q38"/>
-      <c s="6" r="R38"/>
-      <c s="6" r="S38"/>
-      <c s="6" r="T38"/>
-      <c s="6" r="U38"/>
-      <c s="6" r="V38"/>
-      <c s="6" r="W38"/>
-      <c s="6" r="X38"/>
-      <c s="6" r="Y38"/>
+      <c s="7" r="O38"/>
+      <c s="7" r="P38"/>
+      <c s="7" r="Q38"/>
+      <c s="7" r="R38"/>
+      <c s="7" r="S38"/>
+      <c s="7" r="T38"/>
+      <c s="7" r="U38"/>
+      <c s="7" r="V38"/>
+      <c s="7" r="W38"/>
+      <c s="7" r="X38"/>
+      <c s="7" r="Y38"/>
     </row>
     <row r="39">
       <c s="3" r="A39"/>
       <c s="31" r="B39"/>
       <c s="5" r="C39"/>
       <c s="2" r="D39"/>
-      <c s="15" r="E39"/>
-      <c s="15" r="F39"/>
-      <c s="15" r="G39"/>
-      <c s="15" r="H39"/>
-      <c s="15" r="I39"/>
-      <c s="15" r="J39"/>
-      <c s="15" r="K39"/>
+      <c s="16" r="E39"/>
+      <c s="16" r="F39"/>
+      <c s="16" r="G39"/>
+      <c s="16" r="H39"/>
+      <c s="16" r="I39"/>
+      <c s="16" r="J39"/>
+      <c s="16" r="K39"/>
       <c s="43" r="L39"/>
-      <c s="29" r="M39"/>
+      <c s="28" r="M39"/>
       <c s="26" r="N39"/>
-      <c s="6" r="O39"/>
-      <c s="6" r="P39"/>
-      <c s="6" r="Q39"/>
-      <c s="6" r="R39"/>
-      <c s="6" r="S39"/>
-      <c s="6" r="T39"/>
-      <c s="6" r="U39"/>
-      <c s="6" r="V39"/>
-      <c s="6" r="W39"/>
-      <c s="6" r="X39"/>
-      <c s="6" r="Y39"/>
+      <c s="7" r="O39"/>
+      <c s="7" r="P39"/>
+      <c s="7" r="Q39"/>
+      <c s="7" r="R39"/>
+      <c s="7" r="S39"/>
+      <c s="7" r="T39"/>
+      <c s="7" r="U39"/>
+      <c s="7" r="V39"/>
+      <c s="7" r="W39"/>
+      <c s="7" r="X39"/>
+      <c s="7" r="Y39"/>
     </row>
     <row r="40">
       <c s="3" r="A40"/>
       <c s="31" r="B40"/>
       <c s="5" r="C40"/>
       <c s="2" r="D40"/>
-      <c s="15" r="E40"/>
-      <c s="15" r="F40"/>
-      <c s="15" r="G40"/>
-      <c s="15" r="H40"/>
-      <c s="15" r="I40"/>
-      <c s="15" r="J40"/>
-      <c s="15" r="K40"/>
+      <c s="16" r="E40"/>
+      <c s="16" r="F40"/>
+      <c s="16" r="G40"/>
+      <c s="16" r="H40"/>
+      <c s="16" r="I40"/>
+      <c s="16" r="J40"/>
+      <c s="16" r="K40"/>
       <c s="43" r="L40"/>
-      <c s="29" r="M40"/>
+      <c s="28" r="M40"/>
       <c s="26" r="N40"/>
-      <c s="6" r="O40"/>
-      <c s="6" r="P40"/>
-      <c s="6" r="Q40"/>
-      <c s="6" r="R40"/>
-      <c s="6" r="S40"/>
-      <c s="6" r="T40"/>
-      <c s="6" r="U40"/>
-      <c s="6" r="V40"/>
-      <c s="6" r="W40"/>
-      <c s="6" r="X40"/>
-      <c s="6" r="Y40"/>
+      <c s="7" r="O40"/>
+      <c s="7" r="P40"/>
+      <c s="7" r="Q40"/>
+      <c s="7" r="R40"/>
+      <c s="7" r="S40"/>
+      <c s="7" r="T40"/>
+      <c s="7" r="U40"/>
+      <c s="7" r="V40"/>
+      <c s="7" r="W40"/>
+      <c s="7" r="X40"/>
+      <c s="7" r="Y40"/>
     </row>
     <row r="41">
       <c s="3" r="A41"/>
       <c s="31" r="B41"/>
       <c s="5" r="C41"/>
       <c s="2" r="D41"/>
-      <c s="15" r="E41"/>
-      <c s="15" r="F41"/>
-      <c s="15" r="G41"/>
-      <c s="15" r="H41"/>
-      <c s="15" r="I41"/>
-      <c s="15" r="J41"/>
-      <c s="15" r="K41"/>
+      <c s="16" r="E41"/>
+      <c s="16" r="F41"/>
+      <c s="16" r="G41"/>
+      <c s="16" r="H41"/>
+      <c s="16" r="I41"/>
+      <c s="16" r="J41"/>
+      <c s="16" r="K41"/>
       <c s="43" r="L41"/>
-      <c s="29" r="M41"/>
+      <c s="28" r="M41"/>
       <c s="26" r="N41"/>
-      <c s="6" r="O41"/>
-      <c s="6" r="P41"/>
-      <c s="6" r="Q41"/>
-      <c s="6" r="R41"/>
-      <c s="6" r="S41"/>
-      <c s="6" r="T41"/>
-      <c s="6" r="U41"/>
-      <c s="6" r="V41"/>
-      <c s="6" r="W41"/>
-      <c s="6" r="X41"/>
-      <c s="6" r="Y41"/>
+      <c s="7" r="O41"/>
+      <c s="7" r="P41"/>
+      <c s="7" r="Q41"/>
+      <c s="7" r="R41"/>
+      <c s="7" r="S41"/>
+      <c s="7" r="T41"/>
+      <c s="7" r="U41"/>
+      <c s="7" r="V41"/>
+      <c s="7" r="W41"/>
+      <c s="7" r="X41"/>
+      <c s="7" r="Y41"/>
     </row>
     <row r="42">
       <c s="3" r="A42"/>
       <c s="31" r="B42"/>
       <c s="5" r="C42"/>
       <c s="2" r="D42"/>
-      <c s="15" r="E42"/>
-      <c s="15" r="F42"/>
-      <c s="15" r="G42"/>
-      <c s="15" r="H42"/>
-      <c s="15" r="I42"/>
-      <c s="15" r="J42"/>
-      <c s="15" r="K42"/>
+      <c s="16" r="E42"/>
+      <c s="16" r="F42"/>
+      <c s="16" r="G42"/>
+      <c s="16" r="H42"/>
+      <c s="16" r="I42"/>
+      <c s="16" r="J42"/>
+      <c s="16" r="K42"/>
       <c s="43" r="L42"/>
-      <c s="29" r="M42"/>
+      <c s="28" r="M42"/>
       <c s="26" r="N42"/>
-      <c s="6" r="O42"/>
-      <c s="6" r="P42"/>
-      <c s="6" r="Q42"/>
-      <c s="6" r="R42"/>
-      <c s="6" r="S42"/>
-      <c s="6" r="T42"/>
-      <c s="6" r="U42"/>
-      <c s="6" r="V42"/>
-      <c s="6" r="W42"/>
-      <c s="6" r="X42"/>
-      <c s="6" r="Y42"/>
+      <c s="7" r="O42"/>
+      <c s="7" r="P42"/>
+      <c s="7" r="Q42"/>
+      <c s="7" r="R42"/>
+      <c s="7" r="S42"/>
+      <c s="7" r="T42"/>
+      <c s="7" r="U42"/>
+      <c s="7" r="V42"/>
+      <c s="7" r="W42"/>
+      <c s="7" r="X42"/>
+      <c s="7" r="Y42"/>
     </row>
     <row r="43">
       <c s="3" r="A43"/>
       <c s="31" r="B43"/>
       <c s="5" r="C43"/>
       <c s="2" r="D43"/>
-      <c s="15" r="E43"/>
-      <c s="15" r="F43"/>
-      <c s="15" r="G43"/>
-      <c s="15" r="H43"/>
-      <c s="15" r="I43"/>
-      <c s="15" r="J43"/>
-      <c s="15" r="K43"/>
+      <c s="16" r="E43"/>
+      <c s="16" r="F43"/>
+      <c s="16" r="G43"/>
+      <c s="16" r="H43"/>
+      <c s="16" r="I43"/>
+      <c s="16" r="J43"/>
+      <c s="16" r="K43"/>
       <c s="43" r="L43"/>
-      <c s="29" r="M43"/>
+      <c s="28" r="M43"/>
       <c s="26" r="N43"/>
-      <c s="6" r="O43"/>
-      <c s="6" r="P43"/>
-      <c s="6" r="Q43"/>
-      <c s="6" r="R43"/>
-      <c s="6" r="S43"/>
-      <c s="6" r="T43"/>
-      <c s="6" r="U43"/>
-      <c s="6" r="V43"/>
-      <c s="6" r="W43"/>
-      <c s="6" r="X43"/>
-      <c s="6" r="Y43"/>
+      <c s="7" r="O43"/>
+      <c s="7" r="P43"/>
+      <c s="7" r="Q43"/>
+      <c s="7" r="R43"/>
+      <c s="7" r="S43"/>
+      <c s="7" r="T43"/>
+      <c s="7" r="U43"/>
+      <c s="7" r="V43"/>
+      <c s="7" r="W43"/>
+      <c s="7" r="X43"/>
+      <c s="7" r="Y43"/>
     </row>
     <row r="44">
       <c s="3" r="A44"/>
       <c s="31" r="B44"/>
       <c s="5" r="C44"/>
       <c s="2" r="D44"/>
-      <c s="15" r="E44"/>
-      <c s="15" r="F44"/>
-      <c s="15" r="G44"/>
-      <c s="15" r="H44"/>
-      <c s="15" r="I44"/>
-      <c s="15" r="J44"/>
-      <c s="15" r="K44"/>
+      <c s="16" r="E44"/>
+      <c s="16" r="F44"/>
+      <c s="16" r="G44"/>
+      <c s="16" r="H44"/>
+      <c s="16" r="I44"/>
+      <c s="16" r="J44"/>
+      <c s="16" r="K44"/>
       <c s="43" r="L44"/>
-      <c s="29" r="M44"/>
+      <c s="28" r="M44"/>
       <c s="26" r="N44"/>
-      <c s="6" r="O44"/>
-      <c s="6" r="P44"/>
-      <c s="6" r="Q44"/>
-      <c s="6" r="R44"/>
-      <c s="6" r="S44"/>
-      <c s="6" r="T44"/>
-      <c s="6" r="U44"/>
-      <c s="6" r="V44"/>
-      <c s="6" r="W44"/>
-      <c s="6" r="X44"/>
-      <c s="6" r="Y44"/>
+      <c s="7" r="O44"/>
+      <c s="7" r="P44"/>
+      <c s="7" r="Q44"/>
+      <c s="7" r="R44"/>
+      <c s="7" r="S44"/>
+      <c s="7" r="T44"/>
+      <c s="7" r="U44"/>
+      <c s="7" r="V44"/>
+      <c s="7" r="W44"/>
+      <c s="7" r="X44"/>
+      <c s="7" r="Y44"/>
     </row>
     <row r="45">
       <c s="3" r="A45"/>
       <c s="31" r="B45"/>
       <c s="5" r="C45"/>
       <c s="2" r="D45"/>
-      <c s="15" r="E45"/>
-      <c s="15" r="F45"/>
-      <c s="15" r="G45"/>
-      <c s="15" r="H45"/>
-      <c s="15" r="I45"/>
-      <c s="15" r="J45"/>
-      <c s="15" r="K45"/>
+      <c s="16" r="E45"/>
+      <c s="16" r="F45"/>
+      <c s="16" r="G45"/>
+      <c s="16" r="H45"/>
+      <c s="16" r="I45"/>
+      <c s="16" r="J45"/>
+      <c s="16" r="K45"/>
       <c s="43" r="L45"/>
-      <c s="29" r="M45"/>
+      <c s="28" r="M45"/>
       <c s="26" r="N45"/>
-      <c s="6" r="O45"/>
-      <c s="6" r="P45"/>
-      <c s="6" r="Q45"/>
-      <c s="6" r="R45"/>
-      <c s="6" r="S45"/>
-      <c s="6" r="T45"/>
-      <c s="6" r="U45"/>
-      <c s="6" r="V45"/>
-      <c s="6" r="W45"/>
-      <c s="6" r="X45"/>
-      <c s="6" r="Y45"/>
+      <c s="7" r="O45"/>
+      <c s="7" r="P45"/>
+      <c s="7" r="Q45"/>
+      <c s="7" r="R45"/>
+      <c s="7" r="S45"/>
+      <c s="7" r="T45"/>
+      <c s="7" r="U45"/>
+      <c s="7" r="V45"/>
+      <c s="7" r="W45"/>
+      <c s="7" r="X45"/>
+      <c s="7" r="Y45"/>
     </row>
     <row r="46">
       <c s="3" r="A46"/>
       <c s="31" r="B46"/>
       <c s="5" r="C46"/>
       <c s="2" r="D46"/>
-      <c s="15" r="E46"/>
-      <c s="15" r="F46"/>
-      <c s="15" r="G46"/>
-      <c s="15" r="H46"/>
-      <c s="15" r="I46"/>
-      <c s="15" r="J46"/>
-      <c s="15" r="K46"/>
+      <c s="16" r="E46"/>
+      <c s="16" r="F46"/>
+      <c s="16" r="G46"/>
+      <c s="16" r="H46"/>
+      <c s="16" r="I46"/>
+      <c s="16" r="J46"/>
+      <c s="16" r="K46"/>
       <c s="43" r="L46"/>
-      <c s="29" r="M46"/>
+      <c s="28" r="M46"/>
       <c s="26" r="N46"/>
-      <c s="6" r="O46"/>
-      <c s="6" r="P46"/>
-      <c s="6" r="Q46"/>
-      <c s="6" r="R46"/>
-      <c s="6" r="S46"/>
-      <c s="6" r="T46"/>
-      <c s="6" r="U46"/>
-      <c s="6" r="V46"/>
-      <c s="6" r="W46"/>
-      <c s="6" r="X46"/>
-      <c s="6" r="Y46"/>
+      <c s="7" r="O46"/>
+      <c s="7" r="P46"/>
+      <c s="7" r="Q46"/>
+      <c s="7" r="R46"/>
+      <c s="7" r="S46"/>
+      <c s="7" r="T46"/>
+      <c s="7" r="U46"/>
+      <c s="7" r="V46"/>
+      <c s="7" r="W46"/>
+      <c s="7" r="X46"/>
+      <c s="7" r="Y46"/>
     </row>
     <row r="47">
       <c s="3" r="A47"/>
       <c s="31" r="B47"/>
       <c s="5" r="C47"/>
       <c s="2" r="D47"/>
-      <c s="15" r="E47"/>
-      <c s="15" r="F47"/>
-      <c s="15" r="G47"/>
-      <c s="15" r="H47"/>
-      <c s="15" r="I47"/>
-      <c s="15" r="J47"/>
-      <c s="15" r="K47"/>
+      <c s="16" r="E47"/>
+      <c s="16" r="F47"/>
+      <c s="16" r="G47"/>
+      <c s="16" r="H47"/>
+      <c s="16" r="I47"/>
+      <c s="16" r="J47"/>
+      <c s="16" r="K47"/>
       <c s="43" r="L47"/>
-      <c s="29" r="M47"/>
+      <c s="28" r="M47"/>
       <c s="26" r="N47"/>
-      <c s="6" r="O47"/>
-      <c s="6" r="P47"/>
-      <c s="6" r="Q47"/>
-      <c s="6" r="R47"/>
-      <c s="6" r="S47"/>
-      <c s="6" r="T47"/>
-      <c s="6" r="U47"/>
-      <c s="6" r="V47"/>
-      <c s="6" r="W47"/>
-      <c s="6" r="X47"/>
-      <c s="6" r="Y47"/>
+      <c s="7" r="O47"/>
+      <c s="7" r="P47"/>
+      <c s="7" r="Q47"/>
+      <c s="7" r="R47"/>
+      <c s="7" r="S47"/>
+      <c s="7" r="T47"/>
+      <c s="7" r="U47"/>
+      <c s="7" r="V47"/>
+      <c s="7" r="W47"/>
+      <c s="7" r="X47"/>
+      <c s="7" r="Y47"/>
     </row>
     <row r="48">
       <c s="3" r="A48"/>
       <c s="31" r="B48"/>
       <c s="5" r="C48"/>
       <c s="2" r="D48"/>
-      <c s="15" r="E48"/>
-      <c s="15" r="F48"/>
-      <c s="15" r="G48"/>
-      <c s="15" r="H48"/>
-      <c s="15" r="I48"/>
-      <c s="15" r="J48"/>
-      <c s="15" r="K48"/>
+      <c s="16" r="E48"/>
+      <c s="16" r="F48"/>
+      <c s="16" r="G48"/>
+      <c s="16" r="H48"/>
+      <c s="16" r="I48"/>
+      <c s="16" r="J48"/>
+      <c s="16" r="K48"/>
       <c s="43" r="L48"/>
-      <c s="29" r="M48"/>
+      <c s="28" r="M48"/>
       <c s="26" r="N48"/>
-      <c s="6" r="O48"/>
-      <c s="6" r="P48"/>
-      <c s="6" r="Q48"/>
-      <c s="6" r="R48"/>
-      <c s="6" r="S48"/>
-      <c s="6" r="T48"/>
-      <c s="6" r="U48"/>
-      <c s="6" r="V48"/>
-      <c s="6" r="W48"/>
-      <c s="6" r="X48"/>
-      <c s="6" r="Y48"/>
+      <c s="7" r="O48"/>
+      <c s="7" r="P48"/>
+      <c s="7" r="Q48"/>
+      <c s="7" r="R48"/>
+      <c s="7" r="S48"/>
+      <c s="7" r="T48"/>
+      <c s="7" r="U48"/>
+      <c s="7" r="V48"/>
+      <c s="7" r="W48"/>
+      <c s="7" r="X48"/>
+      <c s="7" r="Y48"/>
     </row>
     <row r="49">
       <c s="3" r="A49"/>
       <c s="31" r="B49"/>
       <c s="5" r="C49"/>
       <c s="2" r="D49"/>
-      <c s="15" r="E49"/>
-      <c s="15" r="F49"/>
-      <c s="15" r="G49"/>
-      <c s="15" r="H49"/>
-      <c s="15" r="I49"/>
-      <c s="15" r="J49"/>
-      <c s="15" r="K49"/>
+      <c s="16" r="E49"/>
+      <c s="16" r="F49"/>
+      <c s="16" r="G49"/>
+      <c s="16" r="H49"/>
+      <c s="16" r="I49"/>
+      <c s="16" r="J49"/>
+      <c s="16" r="K49"/>
       <c s="43" r="L49"/>
-      <c s="29" r="M49"/>
+      <c s="28" r="M49"/>
       <c s="26" r="N49"/>
-      <c s="6" r="O49"/>
-      <c s="6" r="P49"/>
-      <c s="6" r="Q49"/>
-      <c s="6" r="R49"/>
-      <c s="6" r="S49"/>
-      <c s="6" r="T49"/>
-      <c s="6" r="U49"/>
-      <c s="6" r="V49"/>
-      <c s="6" r="W49"/>
-      <c s="6" r="X49"/>
-      <c s="6" r="Y49"/>
+      <c s="7" r="O49"/>
+      <c s="7" r="P49"/>
+      <c s="7" r="Q49"/>
+      <c s="7" r="R49"/>
+      <c s="7" r="S49"/>
+      <c s="7" r="T49"/>
+      <c s="7" r="U49"/>
+      <c s="7" r="V49"/>
+      <c s="7" r="W49"/>
+      <c s="7" r="X49"/>
+      <c s="7" r="Y49"/>
     </row>
     <row r="50">
       <c s="3" r="A50"/>
       <c s="31" r="B50"/>
       <c s="5" r="C50"/>
       <c s="2" r="D50"/>
-      <c s="15" r="E50"/>
-      <c s="15" r="F50"/>
-      <c s="15" r="G50"/>
-      <c s="15" r="H50"/>
-      <c s="15" r="I50"/>
-      <c s="15" r="J50"/>
-      <c s="15" r="K50"/>
+      <c s="16" r="E50"/>
+      <c s="16" r="F50"/>
+      <c s="16" r="G50"/>
+      <c s="16" r="H50"/>
+      <c s="16" r="I50"/>
+      <c s="16" r="J50"/>
+      <c s="16" r="K50"/>
       <c s="43" r="L50"/>
-      <c s="29" r="M50"/>
+      <c s="28" r="M50"/>
       <c s="26" r="N50"/>
-      <c s="6" r="O50"/>
-      <c s="6" r="P50"/>
-      <c s="6" r="Q50"/>
-      <c s="6" r="R50"/>
-      <c s="6" r="S50"/>
-      <c s="6" r="T50"/>
-      <c s="6" r="U50"/>
-      <c s="6" r="V50"/>
-      <c s="6" r="W50"/>
-      <c s="6" r="X50"/>
-      <c s="6" r="Y50"/>
+      <c s="7" r="O50"/>
+      <c s="7" r="P50"/>
+      <c s="7" r="Q50"/>
+      <c s="7" r="R50"/>
+      <c s="7" r="S50"/>
+      <c s="7" r="T50"/>
+      <c s="7" r="U50"/>
+      <c s="7" r="V50"/>
+      <c s="7" r="W50"/>
+      <c s="7" r="X50"/>
+      <c s="7" r="Y50"/>
     </row>
     <row r="51">
       <c s="3" r="A51"/>
       <c s="31" r="B51"/>
       <c s="5" r="C51"/>
       <c s="2" r="D51"/>
-      <c s="15" r="E51"/>
-      <c s="15" r="F51"/>
-      <c s="15" r="G51"/>
-      <c s="15" r="H51"/>
-      <c s="15" r="I51"/>
-      <c s="15" r="J51"/>
-      <c s="15" r="K51"/>
+      <c s="16" r="E51"/>
+      <c s="16" r="F51"/>
+      <c s="16" r="G51"/>
+      <c s="16" r="H51"/>
+      <c s="16" r="I51"/>
+      <c s="16" r="J51"/>
+      <c s="16" r="K51"/>
       <c s="43" r="L51"/>
-      <c s="29" r="M51"/>
+      <c s="28" r="M51"/>
       <c s="26" r="N51"/>
-      <c s="6" r="O51"/>
-      <c s="6" r="P51"/>
-      <c s="6" r="Q51"/>
-      <c s="6" r="R51"/>
-      <c s="6" r="S51"/>
-      <c s="6" r="T51"/>
-      <c s="6" r="U51"/>
-      <c s="6" r="V51"/>
-      <c s="6" r="W51"/>
-      <c s="6" r="X51"/>
-      <c s="6" r="Y51"/>
+      <c s="7" r="O51"/>
+      <c s="7" r="P51"/>
+      <c s="7" r="Q51"/>
+      <c s="7" r="R51"/>
+      <c s="7" r="S51"/>
+      <c s="7" r="T51"/>
+      <c s="7" r="U51"/>
+      <c s="7" r="V51"/>
+      <c s="7" r="W51"/>
+      <c s="7" r="X51"/>
+      <c s="7" r="Y51"/>
     </row>
     <row r="52">
       <c s="3" r="A52"/>
       <c s="31" r="B52"/>
       <c s="5" r="C52"/>
       <c s="2" r="D52"/>
-      <c s="15" r="E52"/>
-      <c s="15" r="F52"/>
-      <c s="15" r="G52"/>
-      <c s="15" r="H52"/>
-      <c s="15" r="I52"/>
-      <c s="15" r="J52"/>
-      <c s="15" r="K52"/>
+      <c s="16" r="E52"/>
+      <c s="16" r="F52"/>
+      <c s="16" r="G52"/>
+      <c s="16" r="H52"/>
+      <c s="16" r="I52"/>
+      <c s="16" r="J52"/>
+      <c s="16" r="K52"/>
       <c s="43" r="L52"/>
-      <c s="29" r="M52"/>
+      <c s="28" r="M52"/>
       <c s="26" r="N52"/>
-      <c s="6" r="O52"/>
-      <c s="6" r="P52"/>
-      <c s="6" r="Q52"/>
-      <c s="6" r="R52"/>
-      <c s="6" r="S52"/>
-      <c s="6" r="T52"/>
-      <c s="6" r="U52"/>
-      <c s="6" r="V52"/>
-      <c s="6" r="W52"/>
-      <c s="6" r="X52"/>
-      <c s="6" r="Y52"/>
+      <c s="7" r="O52"/>
+      <c s="7" r="P52"/>
+      <c s="7" r="Q52"/>
+      <c s="7" r="R52"/>
+      <c s="7" r="S52"/>
+      <c s="7" r="T52"/>
+      <c s="7" r="U52"/>
+      <c s="7" r="V52"/>
+      <c s="7" r="W52"/>
+      <c s="7" r="X52"/>
+      <c s="7" r="Y52"/>
     </row>
     <row r="53">
       <c s="3" r="A53"/>
       <c s="31" r="B53"/>
       <c s="5" r="C53"/>
       <c s="2" r="D53"/>
-      <c s="15" r="E53"/>
-      <c s="15" r="F53"/>
-      <c s="15" r="G53"/>
-      <c s="15" r="H53"/>
-      <c s="15" r="I53"/>
-      <c s="15" r="J53"/>
-      <c s="15" r="K53"/>
+      <c s="16" r="E53"/>
+      <c s="16" r="F53"/>
+      <c s="16" r="G53"/>
+      <c s="16" r="H53"/>
+      <c s="16" r="I53"/>
+      <c s="16" r="J53"/>
+      <c s="16" r="K53"/>
       <c s="43" r="L53"/>
-      <c s="29" r="M53"/>
+      <c s="28" r="M53"/>
       <c s="26" r="N53"/>
-      <c s="6" r="O53"/>
-      <c s="6" r="P53"/>
-      <c s="6" r="Q53"/>
-      <c s="6" r="R53"/>
-      <c s="6" r="S53"/>
-      <c s="6" r="T53"/>
-      <c s="6" r="U53"/>
-      <c s="6" r="V53"/>
-      <c s="6" r="W53"/>
-      <c s="6" r="X53"/>
-      <c s="6" r="Y53"/>
+      <c s="7" r="O53"/>
+      <c s="7" r="P53"/>
+      <c s="7" r="Q53"/>
+      <c s="7" r="R53"/>
+      <c s="7" r="S53"/>
+      <c s="7" r="T53"/>
+      <c s="7" r="U53"/>
+      <c s="7" r="V53"/>
+      <c s="7" r="W53"/>
+      <c s="7" r="X53"/>
+      <c s="7" r="Y53"/>
     </row>
     <row r="54">
       <c s="3" r="A54"/>
       <c s="31" r="B54"/>
       <c s="5" r="C54"/>
       <c s="2" r="D54"/>
-      <c s="15" r="E54"/>
-      <c s="15" r="F54"/>
-      <c s="15" r="G54"/>
-      <c s="15" r="H54"/>
-      <c s="15" r="I54"/>
-      <c s="15" r="J54"/>
-      <c s="15" r="K54"/>
+      <c s="16" r="E54"/>
+      <c s="16" r="F54"/>
+      <c s="16" r="G54"/>
+      <c s="16" r="H54"/>
+      <c s="16" r="I54"/>
+      <c s="16" r="J54"/>
+      <c s="16" r="K54"/>
       <c s="43" r="L54"/>
-      <c s="29" r="M54"/>
+      <c s="28" r="M54"/>
       <c s="26" r="N54"/>
-      <c s="6" r="O54"/>
-      <c s="6" r="P54"/>
-      <c s="6" r="Q54"/>
-      <c s="6" r="R54"/>
-      <c s="6" r="S54"/>
-      <c s="6" r="T54"/>
-      <c s="6" r="U54"/>
-      <c s="6" r="V54"/>
-      <c s="6" r="W54"/>
-      <c s="6" r="X54"/>
-      <c s="6" r="Y54"/>
+      <c s="7" r="O54"/>
+      <c s="7" r="P54"/>
+      <c s="7" r="Q54"/>
+      <c s="7" r="R54"/>
+      <c s="7" r="S54"/>
+      <c s="7" r="T54"/>
+      <c s="7" r="U54"/>
+      <c s="7" r="V54"/>
+      <c s="7" r="W54"/>
+      <c s="7" r="X54"/>
+      <c s="7" r="Y54"/>
     </row>
     <row r="55">
       <c s="3" r="A55"/>
       <c s="31" r="B55"/>
       <c s="5" r="C55"/>
       <c s="2" r="D55"/>
-      <c s="15" r="E55"/>
-      <c s="15" r="F55"/>
-      <c s="15" r="G55"/>
-      <c s="15" r="H55"/>
-      <c s="15" r="I55"/>
-      <c s="15" r="J55"/>
-      <c s="15" r="K55"/>
+      <c s="16" r="E55"/>
+      <c s="16" r="F55"/>
+      <c s="16" r="G55"/>
+      <c s="16" r="H55"/>
+      <c s="16" r="I55"/>
+      <c s="16" r="J55"/>
+      <c s="16" r="K55"/>
       <c s="43" r="L55"/>
-      <c s="29" r="M55"/>
+      <c s="28" r="M55"/>
       <c s="26" r="N55"/>
-      <c s="6" r="O55"/>
-      <c s="6" r="P55"/>
-      <c s="6" r="Q55"/>
-      <c s="6" r="R55"/>
-      <c s="6" r="S55"/>
-      <c s="6" r="T55"/>
-      <c s="6" r="U55"/>
-      <c s="6" r="V55"/>
-      <c s="6" r="W55"/>
-      <c s="6" r="X55"/>
-      <c s="6" r="Y55"/>
+      <c s="7" r="O55"/>
+      <c s="7" r="P55"/>
+      <c s="7" r="Q55"/>
+      <c s="7" r="R55"/>
+      <c s="7" r="S55"/>
+      <c s="7" r="T55"/>
+      <c s="7" r="U55"/>
+      <c s="7" r="V55"/>
+      <c s="7" r="W55"/>
+      <c s="7" r="X55"/>
+      <c s="7" r="Y55"/>
     </row>
     <row r="56">
       <c s="3" r="A56"/>
       <c s="31" r="B56"/>
       <c s="5" r="C56"/>
       <c s="2" r="D56"/>
-      <c s="15" r="E56"/>
-      <c s="15" r="F56"/>
-      <c s="15" r="G56"/>
-      <c s="15" r="H56"/>
-      <c s="15" r="I56"/>
-      <c s="15" r="J56"/>
-      <c s="15" r="K56"/>
+      <c s="16" r="E56"/>
+      <c s="16" r="F56"/>
+      <c s="16" r="G56"/>
+      <c s="16" r="H56"/>
+      <c s="16" r="I56"/>
+      <c s="16" r="J56"/>
+      <c s="16" r="K56"/>
       <c s="43" r="L56"/>
-      <c s="29" r="M56"/>
+      <c s="28" r="M56"/>
       <c s="26" r="N56"/>
-      <c s="6" r="O56"/>
-      <c s="6" r="P56"/>
-      <c s="6" r="Q56"/>
-      <c s="6" r="R56"/>
-      <c s="6" r="S56"/>
-      <c s="6" r="T56"/>
-      <c s="6" r="U56"/>
-      <c s="6" r="V56"/>
-      <c s="6" r="W56"/>
-      <c s="6" r="X56"/>
-      <c s="6" r="Y56"/>
+      <c s="7" r="O56"/>
+      <c s="7" r="P56"/>
+      <c s="7" r="Q56"/>
+      <c s="7" r="R56"/>
+      <c s="7" r="S56"/>
+      <c s="7" r="T56"/>
+      <c s="7" r="U56"/>
+      <c s="7" r="V56"/>
+      <c s="7" r="W56"/>
+      <c s="7" r="X56"/>
+      <c s="7" r="Y56"/>
     </row>
     <row r="57">
       <c s="3" r="A57"/>
       <c s="31" r="B57"/>
       <c s="5" r="C57"/>
       <c s="2" r="D57"/>
-      <c s="15" r="E57"/>
-      <c s="15" r="F57"/>
-      <c s="15" r="G57"/>
-      <c s="15" r="H57"/>
-      <c s="15" r="I57"/>
-      <c s="15" r="J57"/>
-      <c s="15" r="K57"/>
+      <c s="16" r="E57"/>
+      <c s="16" r="F57"/>
+      <c s="16" r="G57"/>
+      <c s="16" r="H57"/>
+      <c s="16" r="I57"/>
+      <c s="16" r="J57"/>
+      <c s="16" r="K57"/>
       <c s="43" r="L57"/>
-      <c s="29" r="M57"/>
+      <c s="28" r="M57"/>
       <c s="26" r="N57"/>
-      <c s="6" r="O57"/>
-      <c s="6" r="P57"/>
-      <c s="6" r="Q57"/>
-      <c s="6" r="R57"/>
-      <c s="6" r="S57"/>
-      <c s="6" r="T57"/>
-      <c s="6" r="U57"/>
-      <c s="6" r="V57"/>
-      <c s="6" r="W57"/>
-      <c s="6" r="X57"/>
-      <c s="6" r="Y57"/>
+      <c s="7" r="O57"/>
+      <c s="7" r="P57"/>
+      <c s="7" r="Q57"/>
+      <c s="7" r="R57"/>
+      <c s="7" r="S57"/>
+      <c s="7" r="T57"/>
+      <c s="7" r="U57"/>
+      <c s="7" r="V57"/>
+      <c s="7" r="W57"/>
+      <c s="7" r="X57"/>
+      <c s="7" r="Y57"/>
     </row>
     <row r="58">
       <c s="3" r="A58"/>
       <c s="31" r="B58"/>
       <c s="5" r="C58"/>
       <c s="2" r="D58"/>
-      <c s="15" r="E58"/>
-      <c s="15" r="F58"/>
-      <c s="15" r="G58"/>
-      <c s="15" r="H58"/>
-      <c s="15" r="I58"/>
-      <c s="15" r="J58"/>
-      <c s="15" r="K58"/>
+      <c s="16" r="E58"/>
+      <c s="16" r="F58"/>
+      <c s="16" r="G58"/>
+      <c s="16" r="H58"/>
+      <c s="16" r="I58"/>
+      <c s="16" r="J58"/>
+      <c s="16" r="K58"/>
       <c s="43" r="L58"/>
-      <c s="29" r="M58"/>
+      <c s="28" r="M58"/>
       <c s="26" r="N58"/>
-      <c s="6" r="O58"/>
-      <c s="6" r="P58"/>
-      <c s="6" r="Q58"/>
-      <c s="6" r="R58"/>
-      <c s="6" r="S58"/>
-      <c s="6" r="T58"/>
-      <c s="6" r="U58"/>
-      <c s="6" r="V58"/>
-      <c s="6" r="W58"/>
-      <c s="6" r="X58"/>
-      <c s="6" r="Y58"/>
+      <c s="7" r="O58"/>
+      <c s="7" r="P58"/>
+      <c s="7" r="Q58"/>
+      <c s="7" r="R58"/>
+      <c s="7" r="S58"/>
+      <c s="7" r="T58"/>
+      <c s="7" r="U58"/>
+      <c s="7" r="V58"/>
+      <c s="7" r="W58"/>
+      <c s="7" r="X58"/>
+      <c s="7" r="Y58"/>
     </row>
     <row r="59">
       <c s="3" r="A59"/>
       <c s="31" r="B59"/>
       <c s="5" r="C59"/>
       <c s="2" r="D59"/>
-      <c s="15" r="E59"/>
-      <c s="15" r="F59"/>
-      <c s="15" r="G59"/>
-      <c s="15" r="H59"/>
-      <c s="15" r="I59"/>
-      <c s="15" r="J59"/>
-      <c s="15" r="K59"/>
+      <c s="16" r="E59"/>
+      <c s="16" r="F59"/>
+      <c s="16" r="G59"/>
+      <c s="16" r="H59"/>
+      <c s="16" r="I59"/>
+      <c s="16" r="J59"/>
+      <c s="16" r="K59"/>
       <c s="43" r="L59"/>
-      <c s="29" r="M59"/>
+      <c s="28" r="M59"/>
       <c s="26" r="N59"/>
-      <c s="6" r="O59"/>
-      <c s="6" r="P59"/>
-      <c s="6" r="Q59"/>
-      <c s="6" r="R59"/>
-      <c s="6" r="S59"/>
-      <c s="6" r="T59"/>
-      <c s="6" r="U59"/>
-      <c s="6" r="V59"/>
-      <c s="6" r="W59"/>
-      <c s="6" r="X59"/>
-      <c s="6" r="Y59"/>
+      <c s="7" r="O59"/>
+      <c s="7" r="P59"/>
+      <c s="7" r="Q59"/>
+      <c s="7" r="R59"/>
+      <c s="7" r="S59"/>
+      <c s="7" r="T59"/>
+      <c s="7" r="U59"/>
+      <c s="7" r="V59"/>
+      <c s="7" r="W59"/>
+      <c s="7" r="X59"/>
+      <c s="7" r="Y59"/>
     </row>
     <row r="60">
       <c s="3" r="A60"/>
       <c s="31" r="B60"/>
       <c s="5" r="C60"/>
       <c s="2" r="D60"/>
-      <c s="15" r="E60"/>
-      <c s="15" r="F60"/>
-      <c s="15" r="G60"/>
-      <c s="15" r="H60"/>
-      <c s="15" r="I60"/>
-      <c s="15" r="J60"/>
-      <c s="15" r="K60"/>
+      <c s="16" r="E60"/>
+      <c s="16" r="F60"/>
+      <c s="16" r="G60"/>
+      <c s="16" r="H60"/>
+      <c s="16" r="I60"/>
+      <c s="16" r="J60"/>
+      <c s="16" r="K60"/>
       <c s="43" r="L60"/>
-      <c s="29" r="M60"/>
+      <c s="28" r="M60"/>
       <c s="26" r="N60"/>
-      <c s="6" r="O60"/>
-      <c s="6" r="P60"/>
-      <c s="6" r="Q60"/>
-      <c s="6" r="R60"/>
-      <c s="6" r="S60"/>
-      <c s="6" r="T60"/>
-      <c s="6" r="U60"/>
-      <c s="6" r="V60"/>
-      <c s="6" r="W60"/>
-      <c s="6" r="X60"/>
-      <c s="6" r="Y60"/>
+      <c s="7" r="O60"/>
+      <c s="7" r="P60"/>
+      <c s="7" r="Q60"/>
+      <c s="7" r="R60"/>
+      <c s="7" r="S60"/>
+      <c s="7" r="T60"/>
+      <c s="7" r="U60"/>
+      <c s="7" r="V60"/>
+      <c s="7" r="W60"/>
+      <c s="7" r="X60"/>
+      <c s="7" r="Y60"/>
     </row>
     <row r="61">
       <c s="3" r="A61"/>
       <c s="31" r="B61"/>
       <c s="5" r="C61"/>
       <c s="2" r="D61"/>
-      <c s="15" r="E61"/>
-      <c s="15" r="F61"/>
-      <c s="15" r="G61"/>
-      <c s="15" r="H61"/>
-      <c s="15" r="I61"/>
-      <c s="15" r="J61"/>
-      <c s="15" r="K61"/>
+      <c s="16" r="E61"/>
+      <c s="16" r="F61"/>
+      <c s="16" r="G61"/>
+      <c s="16" r="H61"/>
+      <c s="16" r="I61"/>
+      <c s="16" r="J61"/>
+      <c s="16" r="K61"/>
       <c s="43" r="L61"/>
-      <c s="29" r="M61"/>
+      <c s="28" r="M61"/>
       <c s="26" r="N61"/>
-      <c s="6" r="O61"/>
-      <c s="6" r="P61"/>
-      <c s="6" r="Q61"/>
-      <c s="6" r="R61"/>
-      <c s="6" r="S61"/>
-      <c s="6" r="T61"/>
-      <c s="6" r="U61"/>
-      <c s="6" r="V61"/>
-      <c s="6" r="W61"/>
-      <c s="6" r="X61"/>
-      <c s="6" r="Y61"/>
+      <c s="7" r="O61"/>
+      <c s="7" r="P61"/>
+      <c s="7" r="Q61"/>
+      <c s="7" r="R61"/>
+      <c s="7" r="S61"/>
+      <c s="7" r="T61"/>
+      <c s="7" r="U61"/>
+      <c s="7" r="V61"/>
+      <c s="7" r="W61"/>
+      <c s="7" r="X61"/>
+      <c s="7" r="Y61"/>
     </row>
     <row r="62">
       <c s="3" r="A62"/>
       <c s="31" r="B62"/>
       <c s="5" r="C62"/>
       <c s="2" r="D62"/>
-      <c s="15" r="E62"/>
-      <c s="15" r="F62"/>
-      <c s="15" r="G62"/>
-      <c s="15" r="H62"/>
-      <c s="15" r="I62"/>
-      <c s="15" r="J62"/>
-      <c s="15" r="K62"/>
+      <c s="16" r="E62"/>
+      <c s="16" r="F62"/>
+      <c s="16" r="G62"/>
+      <c s="16" r="H62"/>
+      <c s="16" r="I62"/>
+      <c s="16" r="J62"/>
+      <c s="16" r="K62"/>
       <c s="43" r="L62"/>
-      <c s="29" r="M62"/>
+      <c s="28" r="M62"/>
       <c s="26" r="N62"/>
-      <c s="6" r="O62"/>
-      <c s="6" r="P62"/>
-      <c s="6" r="Q62"/>
-      <c s="6" r="R62"/>
-      <c s="6" r="S62"/>
-      <c s="6" r="T62"/>
-      <c s="6" r="U62"/>
-      <c s="6" r="V62"/>
-      <c s="6" r="W62"/>
-      <c s="6" r="X62"/>
-      <c s="6" r="Y62"/>
+      <c s="7" r="O62"/>
+      <c s="7" r="P62"/>
+      <c s="7" r="Q62"/>
+      <c s="7" r="R62"/>
+      <c s="7" r="S62"/>
+      <c s="7" r="T62"/>
+      <c s="7" r="U62"/>
+      <c s="7" r="V62"/>
+      <c s="7" r="W62"/>
+      <c s="7" r="X62"/>
+      <c s="7" r="Y62"/>
     </row>
     <row r="63">
       <c s="3" r="A63"/>
       <c s="31" r="B63"/>
       <c s="5" r="C63"/>
       <c s="2" r="D63"/>
-      <c s="15" r="E63"/>
-      <c s="15" r="F63"/>
-      <c s="15" r="G63"/>
-      <c s="15" r="H63"/>
-      <c s="15" r="I63"/>
-      <c s="15" r="J63"/>
-      <c s="15" r="K63"/>
+      <c s="16" r="E63"/>
+      <c s="16" r="F63"/>
+      <c s="16" r="G63"/>
+      <c s="16" r="H63"/>
+      <c s="16" r="I63"/>
+      <c s="16" r="J63"/>
+      <c s="16" r="K63"/>
       <c s="43" r="L63"/>
-      <c s="29" r="M63"/>
+      <c s="28" r="M63"/>
       <c s="26" r="N63"/>
-      <c s="6" r="O63"/>
-      <c s="6" r="P63"/>
-      <c s="6" r="Q63"/>
-      <c s="6" r="R63"/>
-      <c s="6" r="S63"/>
-      <c s="6" r="T63"/>
-      <c s="6" r="U63"/>
-      <c s="6" r="V63"/>
-      <c s="6" r="W63"/>
-      <c s="6" r="X63"/>
-      <c s="6" r="Y63"/>
+      <c s="7" r="O63"/>
+      <c s="7" r="P63"/>
+      <c s="7" r="Q63"/>
+      <c s="7" r="R63"/>
+      <c s="7" r="S63"/>
+      <c s="7" r="T63"/>
+      <c s="7" r="U63"/>
+      <c s="7" r="V63"/>
+      <c s="7" r="W63"/>
+      <c s="7" r="X63"/>
+      <c s="7" r="Y63"/>
     </row>
     <row r="64">
       <c s="3" r="A64"/>
       <c s="31" r="B64"/>
       <c s="5" r="C64"/>
       <c s="2" r="D64"/>
-      <c s="15" r="E64"/>
-      <c s="15" r="F64"/>
-      <c s="15" r="G64"/>
-      <c s="15" r="H64"/>
-      <c s="15" r="I64"/>
-      <c s="15" r="J64"/>
-      <c s="15" r="K64"/>
+      <c s="16" r="E64"/>
+      <c s="16" r="F64"/>
+      <c s="16" r="G64"/>
+      <c s="16" r="H64"/>
+      <c s="16" r="I64"/>
+      <c s="16" r="J64"/>
+      <c s="16" r="K64"/>
       <c s="43" r="L64"/>
-      <c s="29" r="M64"/>
+      <c s="28" r="M64"/>
       <c s="26" r="N64"/>
-      <c s="6" r="O64"/>
-      <c s="6" r="P64"/>
-      <c s="6" r="Q64"/>
-      <c s="6" r="R64"/>
-      <c s="6" r="S64"/>
-      <c s="6" r="T64"/>
-      <c s="6" r="U64"/>
-      <c s="6" r="V64"/>
-      <c s="6" r="W64"/>
-      <c s="6" r="X64"/>
-      <c s="6" r="Y64"/>
+      <c s="7" r="O64"/>
+      <c s="7" r="P64"/>
+      <c s="7" r="Q64"/>
+      <c s="7" r="R64"/>
+      <c s="7" r="S64"/>
+      <c s="7" r="T64"/>
+      <c s="7" r="U64"/>
+      <c s="7" r="V64"/>
+      <c s="7" r="W64"/>
+      <c s="7" r="X64"/>
+      <c s="7" r="Y64"/>
     </row>
     <row r="65">
       <c s="3" r="A65"/>
       <c s="31" r="B65"/>
       <c s="5" r="C65"/>
       <c s="2" r="D65"/>
-      <c s="15" r="E65"/>
-      <c s="15" r="F65"/>
-      <c s="15" r="G65"/>
-      <c s="15" r="H65"/>
-      <c s="15" r="I65"/>
-      <c s="15" r="J65"/>
-      <c s="15" r="K65"/>
+      <c s="16" r="E65"/>
+      <c s="16" r="F65"/>
+      <c s="16" r="G65"/>
+      <c s="16" r="H65"/>
+      <c s="16" r="I65"/>
+      <c s="16" r="J65"/>
+      <c s="16" r="K65"/>
       <c s="43" r="L65"/>
-      <c s="29" r="M65"/>
+      <c s="28" r="M65"/>
       <c s="26" r="N65"/>
-      <c s="6" r="O65"/>
-      <c s="6" r="P65"/>
-      <c s="6" r="Q65"/>
-      <c s="6" r="R65"/>
-      <c s="6" r="S65"/>
-      <c s="6" r="T65"/>
-      <c s="6" r="U65"/>
-      <c s="6" r="V65"/>
-      <c s="6" r="W65"/>
-      <c s="6" r="X65"/>
-      <c s="6" r="Y65"/>
+      <c s="7" r="O65"/>
+      <c s="7" r="P65"/>
+      <c s="7" r="Q65"/>
+      <c s="7" r="R65"/>
+      <c s="7" r="S65"/>
+      <c s="7" r="T65"/>
+      <c s="7" r="U65"/>
+      <c s="7" r="V65"/>
+      <c s="7" r="W65"/>
+      <c s="7" r="X65"/>
+      <c s="7" r="Y65"/>
     </row>
     <row r="66">
       <c s="3" r="A66"/>
       <c s="31" r="B66"/>
       <c s="5" r="C66"/>
       <c s="2" r="D66"/>
-      <c s="15" r="E66"/>
-      <c s="15" r="F66"/>
-      <c s="15" r="G66"/>
-      <c s="15" r="H66"/>
-      <c s="15" r="I66"/>
-      <c s="15" r="J66"/>
-      <c s="15" r="K66"/>
+      <c s="16" r="E66"/>
+      <c s="16" r="F66"/>
+      <c s="16" r="G66"/>
+      <c s="16" r="H66"/>
+      <c s="16" r="I66"/>
+      <c s="16" r="J66"/>
+      <c s="16" r="K66"/>
       <c s="43" r="L66"/>
-      <c s="29" r="M66"/>
+      <c s="28" r="M66"/>
       <c s="26" r="N66"/>
-      <c s="6" r="O66"/>
-      <c s="6" r="P66"/>
-      <c s="6" r="Q66"/>
-      <c s="6" r="R66"/>
-      <c s="6" r="S66"/>
-      <c s="6" r="T66"/>
-      <c s="6" r="U66"/>
-      <c s="6" r="V66"/>
-      <c s="6" r="W66"/>
-      <c s="6" r="X66"/>
-      <c s="6" r="Y66"/>
+      <c s="7" r="O66"/>
+      <c s="7" r="P66"/>
+      <c s="7" r="Q66"/>
+      <c s="7" r="R66"/>
+      <c s="7" r="S66"/>
+      <c s="7" r="T66"/>
+      <c s="7" r="U66"/>
+      <c s="7" r="V66"/>
+      <c s="7" r="W66"/>
+      <c s="7" r="X66"/>
+      <c s="7" r="Y66"/>
     </row>
     <row r="67">
       <c s="3" r="A67"/>
       <c s="31" r="B67"/>
       <c s="5" r="C67"/>
       <c s="2" r="D67"/>
-      <c s="15" r="E67"/>
-      <c s="15" r="F67"/>
-      <c s="15" r="G67"/>
-      <c s="15" r="H67"/>
-      <c s="15" r="I67"/>
-      <c s="15" r="J67"/>
-      <c s="15" r="K67"/>
+      <c s="16" r="E67"/>
+      <c s="16" r="F67"/>
+      <c s="16" r="G67"/>
+      <c s="16" r="H67"/>
+      <c s="16" r="I67"/>
+      <c s="16" r="J67"/>
+      <c s="16" r="K67"/>
       <c s="43" r="L67"/>
-      <c s="29" r="M67"/>
+      <c s="28" r="M67"/>
       <c s="26" r="N67"/>
-      <c s="6" r="O67"/>
-      <c s="6" r="P67"/>
-      <c s="6" r="Q67"/>
-      <c s="6" r="R67"/>
-      <c s="6" r="S67"/>
-      <c s="6" r="T67"/>
-      <c s="6" r="U67"/>
-      <c s="6" r="V67"/>
-      <c s="6" r="W67"/>
-      <c s="6" r="X67"/>
-      <c s="6" r="Y67"/>
+      <c s="7" r="O67"/>
+      <c s="7" r="P67"/>
+      <c s="7" r="Q67"/>
+      <c s="7" r="R67"/>
+      <c s="7" r="S67"/>
+      <c s="7" r="T67"/>
+      <c s="7" r="U67"/>
+      <c s="7" r="V67"/>
+      <c s="7" r="W67"/>
+      <c s="7" r="X67"/>
+      <c s="7" r="Y67"/>
     </row>
     <row r="68">
       <c s="3" r="A68"/>
       <c s="31" r="B68"/>
       <c s="5" r="C68"/>
       <c s="2" r="D68"/>
-      <c s="15" r="E68"/>
-      <c s="15" r="F68"/>
-      <c s="15" r="G68"/>
-      <c s="15" r="H68"/>
-      <c s="15" r="I68"/>
-      <c s="15" r="J68"/>
-      <c s="15" r="K68"/>
+      <c s="16" r="E68"/>
+      <c s="16" r="F68"/>
+      <c s="16" r="G68"/>
+      <c s="16" r="H68"/>
+      <c s="16" r="I68"/>
+      <c s="16" r="J68"/>
+      <c s="16" r="K68"/>
       <c s="43" r="L68"/>
-      <c s="29" r="M68"/>
+      <c s="28" r="M68"/>
       <c s="26" r="N68"/>
-      <c s="6" r="O68"/>
-      <c s="6" r="P68"/>
-      <c s="6" r="Q68"/>
-      <c s="6" r="R68"/>
-      <c s="6" r="S68"/>
-      <c s="6" r="T68"/>
-      <c s="6" r="U68"/>
-      <c s="6" r="V68"/>
-      <c s="6" r="W68"/>
-      <c s="6" r="X68"/>
-      <c s="6" r="Y68"/>
+      <c s="7" r="O68"/>
+      <c s="7" r="P68"/>
+      <c s="7" r="Q68"/>
+      <c s="7" r="R68"/>
+      <c s="7" r="S68"/>
+      <c s="7" r="T68"/>
+      <c s="7" r="U68"/>
+      <c s="7" r="V68"/>
+      <c s="7" r="W68"/>
+      <c s="7" r="X68"/>
+      <c s="7" r="Y68"/>
     </row>
     <row r="69">
       <c s="3" r="A69"/>
       <c s="31" r="B69"/>
       <c s="5" r="C69"/>
       <c s="2" r="D69"/>
-      <c s="15" r="E69"/>
-      <c s="15" r="F69"/>
-      <c s="15" r="G69"/>
-      <c s="15" r="H69"/>
-      <c s="15" r="I69"/>
-      <c s="15" r="J69"/>
-      <c s="15" r="K69"/>
+      <c s="16" r="E69"/>
+      <c s="16" r="F69"/>
+      <c s="16" r="G69"/>
+      <c s="16" r="H69"/>
+      <c s="16" r="I69"/>
+      <c s="16" r="J69"/>
+      <c s="16" r="K69"/>
       <c s="43" r="L69"/>
-      <c s="29" r="M69"/>
+      <c s="28" r="M69"/>
       <c s="26" r="N69"/>
-      <c s="6" r="O69"/>
-      <c s="6" r="P69"/>
-      <c s="6" r="Q69"/>
-      <c s="6" r="R69"/>
-      <c s="6" r="S69"/>
-      <c s="6" r="T69"/>
-      <c s="6" r="U69"/>
-      <c s="6" r="V69"/>
-      <c s="6" r="W69"/>
-      <c s="6" r="X69"/>
-      <c s="6" r="Y69"/>
+      <c s="7" r="O69"/>
+      <c s="7" r="P69"/>
+      <c s="7" r="Q69"/>
+      <c s="7" r="R69"/>
+      <c s="7" r="S69"/>
+      <c s="7" r="T69"/>
+      <c s="7" r="U69"/>
+      <c s="7" r="V69"/>
+      <c s="7" r="W69"/>
+      <c s="7" r="X69"/>
+      <c s="7" r="Y69"/>
     </row>
     <row r="70">
       <c s="3" r="A70"/>
       <c s="31" r="B70"/>
       <c s="5" r="C70"/>
       <c s="2" r="D70"/>
-      <c s="15" r="E70"/>
-      <c s="15" r="F70"/>
-      <c s="15" r="G70"/>
-      <c s="15" r="H70"/>
-      <c s="15" r="I70"/>
-      <c s="15" r="J70"/>
-      <c s="15" r="K70"/>
+      <c s="16" r="E70"/>
+      <c s="16" r="F70"/>
+      <c s="16" r="G70"/>
+      <c s="16" r="H70"/>
+      <c s="16" r="I70"/>
+      <c s="16" r="J70"/>
+      <c s="16" r="K70"/>
       <c s="43" r="L70"/>
-      <c s="29" r="M70"/>
+      <c s="28" r="M70"/>
       <c s="26" r="N70"/>
-      <c s="6" r="O70"/>
-      <c s="6" r="P70"/>
-      <c s="6" r="Q70"/>
-      <c s="6" r="R70"/>
-      <c s="6" r="S70"/>
-      <c s="6" r="T70"/>
-      <c s="6" r="U70"/>
-      <c s="6" r="V70"/>
-      <c s="6" r="W70"/>
-      <c s="6" r="X70"/>
-      <c s="6" r="Y70"/>
+      <c s="7" r="O70"/>
+      <c s="7" r="P70"/>
+      <c s="7" r="Q70"/>
+      <c s="7" r="R70"/>
+      <c s="7" r="S70"/>
+      <c s="7" r="T70"/>
+      <c s="7" r="U70"/>
+      <c s="7" r="V70"/>
+      <c s="7" r="W70"/>
+      <c s="7" r="X70"/>
+      <c s="7" r="Y70"/>
     </row>
     <row r="71">
       <c s="3" r="A71"/>
       <c s="31" r="B71"/>
       <c s="5" r="C71"/>
       <c s="2" r="D71"/>
-      <c s="15" r="E71"/>
-      <c s="15" r="F71"/>
-      <c s="15" r="G71"/>
-      <c s="15" r="H71"/>
-      <c s="15" r="I71"/>
-      <c s="15" r="J71"/>
-      <c s="15" r="K71"/>
+      <c s="16" r="E71"/>
+      <c s="16" r="F71"/>
+      <c s="16" r="G71"/>
+      <c s="16" r="H71"/>
+      <c s="16" r="I71"/>
+      <c s="16" r="J71"/>
+      <c s="16" r="K71"/>
       <c s="43" r="L71"/>
-      <c s="29" r="M71"/>
+      <c s="28" r="M71"/>
       <c s="26" r="N71"/>
-      <c s="6" r="O71"/>
-      <c s="6" r="P71"/>
-      <c s="6" r="Q71"/>
-      <c s="6" r="R71"/>
-      <c s="6" r="S71"/>
-      <c s="6" r="T71"/>
-      <c s="6" r="U71"/>
-      <c s="6" r="V71"/>
-      <c s="6" r="W71"/>
-      <c s="6" r="X71"/>
-      <c s="6" r="Y71"/>
+      <c s="7" r="O71"/>
+      <c s="7" r="P71"/>
+      <c s="7" r="Q71"/>
+      <c s="7" r="R71"/>
+      <c s="7" r="S71"/>
+      <c s="7" r="T71"/>
+      <c s="7" r="U71"/>
+      <c s="7" r="V71"/>
+      <c s="7" r="W71"/>
+      <c s="7" r="X71"/>
+      <c s="7" r="Y71"/>
     </row>
     <row r="72">
       <c s="3" r="A72"/>
       <c s="31" r="B72"/>
       <c s="5" r="C72"/>
       <c s="2" r="D72"/>
-      <c s="15" r="E72"/>
-      <c s="15" r="F72"/>
-      <c s="15" r="G72"/>
-      <c s="15" r="H72"/>
-      <c s="15" r="I72"/>
-      <c s="15" r="J72"/>
-      <c s="15" r="K72"/>
+      <c s="16" r="E72"/>
+      <c s="16" r="F72"/>
+      <c s="16" r="G72"/>
+      <c s="16" r="H72"/>
+      <c s="16" r="I72"/>
+      <c s="16" r="J72"/>
+      <c s="16" r="K72"/>
       <c s="43" r="L72"/>
-      <c s="29" r="M72"/>
+      <c s="28" r="M72"/>
       <c s="26" r="N72"/>
-      <c s="6" r="O72"/>
-      <c s="6" r="P72"/>
-      <c s="6" r="Q72"/>
-      <c s="6" r="R72"/>
-      <c s="6" r="S72"/>
-      <c s="6" r="T72"/>
-      <c s="6" r="U72"/>
-      <c s="6" r="V72"/>
-      <c s="6" r="W72"/>
-      <c s="6" r="X72"/>
-      <c s="6" r="Y72"/>
+      <c s="7" r="O72"/>
+      <c s="7" r="P72"/>
+      <c s="7" r="Q72"/>
+      <c s="7" r="R72"/>
+      <c s="7" r="S72"/>
+      <c s="7" r="T72"/>
+      <c s="7" r="U72"/>
+      <c s="7" r="V72"/>
+      <c s="7" r="W72"/>
+      <c s="7" r="X72"/>
+      <c s="7" r="Y72"/>
     </row>
     <row r="73">
       <c s="3" r="A73"/>
       <c s="31" r="B73"/>
       <c s="5" r="C73"/>
       <c s="2" r="D73"/>
-      <c s="15" r="E73"/>
-      <c s="15" r="F73"/>
-      <c s="15" r="G73"/>
-      <c s="15" r="H73"/>
-      <c s="15" r="I73"/>
-      <c s="15" r="J73"/>
-      <c s="15" r="K73"/>
+      <c s="16" r="E73"/>
+      <c s="16" r="F73"/>
+      <c s="16" r="G73"/>
+      <c s="16" r="H73"/>
+      <c s="16" r="I73"/>
+      <c s="16" r="J73"/>
+      <c s="16" r="K73"/>
       <c s="43" r="L73"/>
-      <c s="29" r="M73"/>
+      <c s="28" r="M73"/>
       <c s="26" r="N73"/>
-      <c s="6" r="O73"/>
-      <c s="6" r="P73"/>
-      <c s="6" r="Q73"/>
-      <c s="6" r="R73"/>
-      <c s="6" r="S73"/>
-      <c s="6" r="T73"/>
-      <c s="6" r="U73"/>
-      <c s="6" r="V73"/>
-      <c s="6" r="W73"/>
-      <c s="6" r="X73"/>
-      <c s="6" r="Y73"/>
+      <c s="7" r="O73"/>
+      <c s="7" r="P73"/>
+      <c s="7" r="Q73"/>
+      <c s="7" r="R73"/>
+      <c s="7" r="S73"/>
+      <c s="7" r="T73"/>
+      <c s="7" r="U73"/>
+      <c s="7" r="V73"/>
+      <c s="7" r="W73"/>
+      <c s="7" r="X73"/>
+      <c s="7" r="Y73"/>
     </row>
     <row r="74">
       <c s="3" r="A74"/>
       <c s="31" r="B74"/>
       <c s="5" r="C74"/>
       <c s="2" r="D74"/>
-      <c s="15" r="E74"/>
-      <c s="15" r="F74"/>
-      <c s="15" r="G74"/>
-      <c s="15" r="H74"/>
-      <c s="15" r="I74"/>
-      <c s="15" r="J74"/>
-      <c s="15" r="K74"/>
+      <c s="16" r="E74"/>
+      <c s="16" r="F74"/>
+      <c s="16" r="G74"/>
+      <c s="16" r="H74"/>
+      <c s="16" r="I74"/>
+      <c s="16" r="J74"/>
+      <c s="16" r="K74"/>
       <c s="43" r="L74"/>
-      <c s="29" r="M74"/>
+      <c s="28" r="M74"/>
       <c s="26" r="N74"/>
-      <c s="6" r="O74"/>
-      <c s="6" r="P74"/>
-      <c s="6" r="Q74"/>
-      <c s="6" r="R74"/>
-      <c s="6" r="S74"/>
-      <c s="6" r="T74"/>
-      <c s="6" r="U74"/>
-      <c s="6" r="V74"/>
-      <c s="6" r="W74"/>
-      <c s="6" r="X74"/>
-      <c s="6" r="Y74"/>
+      <c s="7" r="O74"/>
+      <c s="7" r="P74"/>
+      <c s="7" r="Q74"/>
+      <c s="7" r="R74"/>
+      <c s="7" r="S74"/>
+      <c s="7" r="T74"/>
+      <c s="7" r="U74"/>
+      <c s="7" r="V74"/>
+      <c s="7" r="W74"/>
+      <c s="7" r="X74"/>
+      <c s="7" r="Y74"/>
     </row>
     <row r="75">
       <c s="3" r="A75"/>
       <c s="31" r="B75"/>
       <c s="5" r="C75"/>
       <c s="2" r="D75"/>
-      <c s="15" r="E75"/>
-      <c s="15" r="F75"/>
-      <c s="15" r="G75"/>
-      <c s="15" r="H75"/>
-      <c s="15" r="I75"/>
-      <c s="15" r="J75"/>
-      <c s="15" r="K75"/>
+      <c s="16" r="E75"/>
+      <c s="16" r="F75"/>
+      <c s="16" r="G75"/>
+      <c s="16" r="H75"/>
+      <c s="16" r="I75"/>
+      <c s="16" r="J75"/>
+      <c s="16" r="K75"/>
       <c s="43" r="L75"/>
-      <c s="29" r="M75"/>
+      <c s="28" r="M75"/>
       <c s="26" r="N75"/>
-      <c s="6" r="O75"/>
-      <c s="6" r="P75"/>
-      <c s="6" r="Q75"/>
-      <c s="6" r="R75"/>
-      <c s="6" r="S75"/>
-      <c s="6" r="T75"/>
-      <c s="6" r="U75"/>
-      <c s="6" r="V75"/>
-      <c s="6" r="W75"/>
-      <c s="6" r="X75"/>
-      <c s="6" r="Y75"/>
+      <c s="7" r="O75"/>
+      <c s="7" r="P75"/>
+      <c s="7" r="Q75"/>
+      <c s="7" r="R75"/>
+      <c s="7" r="S75"/>
+      <c s="7" r="T75"/>
+      <c s="7" r="U75"/>
+      <c s="7" r="V75"/>
+      <c s="7" r="W75"/>
+      <c s="7" r="X75"/>
+      <c s="7" r="Y75"/>
     </row>
     <row r="76">
       <c s="3" r="A76"/>
       <c s="31" r="B76"/>
       <c s="5" r="C76"/>
       <c s="2" r="D76"/>
-      <c s="15" r="E76"/>
-      <c s="15" r="F76"/>
-      <c s="15" r="G76"/>
-      <c s="15" r="H76"/>
-      <c s="15" r="I76"/>
-      <c s="15" r="J76"/>
-      <c s="15" r="K76"/>
+      <c s="16" r="E76"/>
+      <c s="16" r="F76"/>
+      <c s="16" r="G76"/>
+      <c s="16" r="H76"/>
+      <c s="16" r="I76"/>
+      <c s="16" r="J76"/>
+      <c s="16" r="K76"/>
       <c s="43" r="L76"/>
-      <c s="29" r="M76"/>
+      <c s="28" r="M76"/>
       <c s="26" r="N76"/>
-      <c s="6" r="O76"/>
-      <c s="6" r="P76"/>
-      <c s="6" r="Q76"/>
-      <c s="6" r="R76"/>
-      <c s="6" r="S76"/>
-      <c s="6" r="T76"/>
-      <c s="6" r="U76"/>
-      <c s="6" r="V76"/>
-      <c s="6" r="W76"/>
-      <c s="6" r="X76"/>
-      <c s="6" r="Y76"/>
+      <c s="7" r="O76"/>
+      <c s="7" r="P76"/>
+      <c s="7" r="Q76"/>
+      <c s="7" r="R76"/>
+      <c s="7" r="S76"/>
+      <c s="7" r="T76"/>
+      <c s="7" r="U76"/>
+      <c s="7" r="V76"/>
+      <c s="7" r="W76"/>
+      <c s="7" r="X76"/>
+      <c s="7" r="Y76"/>
     </row>
     <row r="77">
       <c s="3" r="A77"/>
       <c s="31" r="B77"/>
       <c s="5" r="C77"/>
       <c s="2" r="D77"/>
-      <c s="15" r="E77"/>
-      <c s="15" r="F77"/>
-      <c s="15" r="G77"/>
-      <c s="15" r="H77"/>
-      <c s="15" r="I77"/>
-      <c s="15" r="J77"/>
-      <c s="15" r="K77"/>
+      <c s="16" r="E77"/>
+      <c s="16" r="F77"/>
+      <c s="16" r="G77"/>
+      <c s="16" r="H77"/>
+      <c s="16" r="I77"/>
+      <c s="16" r="J77"/>
+      <c s="16" r="K77"/>
       <c s="43" r="L77"/>
-      <c s="29" r="M77"/>
+      <c s="28" r="M77"/>
       <c s="26" r="N77"/>
-      <c s="6" r="O77"/>
-      <c s="6" r="P77"/>
-      <c s="6" r="Q77"/>
-      <c s="6" r="R77"/>
-      <c s="6" r="S77"/>
-      <c s="6" r="T77"/>
-      <c s="6" r="U77"/>
-      <c s="6" r="V77"/>
-      <c s="6" r="W77"/>
-      <c s="6" r="X77"/>
-      <c s="6" r="Y77"/>
+      <c s="7" r="O77"/>
+      <c s="7" r="P77"/>
+      <c s="7" r="Q77"/>
+      <c s="7" r="R77"/>
+      <c s="7" r="S77"/>
+      <c s="7" r="T77"/>
+      <c s="7" r="U77"/>
+      <c s="7" r="V77"/>
+      <c s="7" r="W77"/>
+      <c s="7" r="X77"/>
+      <c s="7" r="Y77"/>
     </row>
     <row r="78">
       <c s="3" r="A78"/>
       <c s="31" r="B78"/>
       <c s="5" r="C78"/>
       <c s="2" r="D78"/>
-      <c s="15" r="E78"/>
-      <c s="15" r="F78"/>
-      <c s="15" r="G78"/>
-      <c s="15" r="H78"/>
-      <c s="15" r="I78"/>
-      <c s="15" r="J78"/>
-      <c s="15" r="K78"/>
+      <c s="16" r="E78"/>
+      <c s="16" r="F78"/>
+      <c s="16" r="G78"/>
+      <c s="16" r="H78"/>
+      <c s="16" r="I78"/>
+      <c s="16" r="J78"/>
+      <c s="16" r="K78"/>
       <c s="43" r="L78"/>
-      <c s="29" r="M78"/>
+      <c s="28" r="M78"/>
       <c s="26" r="N78"/>
-      <c s="6" r="O78"/>
-      <c s="6" r="P78"/>
-      <c s="6" r="Q78"/>
-      <c s="6" r="R78"/>
-      <c s="6" r="S78"/>
-      <c s="6" r="T78"/>
-      <c s="6" r="U78"/>
-      <c s="6" r="V78"/>
-      <c s="6" r="W78"/>
-      <c s="6" r="X78"/>
-      <c s="6" r="Y78"/>
+      <c s="7" r="O78"/>
+      <c s="7" r="P78"/>
+      <c s="7" r="Q78"/>
+      <c s="7" r="R78"/>
+      <c s="7" r="S78"/>
+      <c s="7" r="T78"/>
+      <c s="7" r="U78"/>
+      <c s="7" r="V78"/>
+      <c s="7" r="W78"/>
+      <c s="7" r="X78"/>
+      <c s="7" r="Y78"/>
     </row>
     <row r="79">
       <c s="3" r="A79"/>
       <c s="31" r="B79"/>
       <c s="5" r="C79"/>
       <c s="2" r="D79"/>
-      <c s="15" r="E79"/>
-      <c s="15" r="F79"/>
-      <c s="15" r="G79"/>
-      <c s="15" r="H79"/>
-      <c s="15" r="I79"/>
-      <c s="15" r="J79"/>
-      <c s="15" r="K79"/>
+      <c s="16" r="E79"/>
+      <c s="16" r="F79"/>
+      <c s="16" r="G79"/>
+      <c s="16" r="H79"/>
+      <c s="16" r="I79"/>
+      <c s="16" r="J79"/>
+      <c s="16" r="K79"/>
       <c s="43" r="L79"/>
-      <c s="29" r="M79"/>
+      <c s="28" r="M79"/>
       <c s="26" r="N79"/>
-      <c s="6" r="O79"/>
-      <c s="6" r="P79"/>
-      <c s="6" r="Q79"/>
-      <c s="6" r="R79"/>
-      <c s="6" r="S79"/>
-      <c s="6" r="T79"/>
-      <c s="6" r="U79"/>
-      <c s="6" r="V79"/>
-      <c s="6" r="W79"/>
-      <c s="6" r="X79"/>
-      <c s="6" r="Y79"/>
+      <c s="7" r="O79"/>
+      <c s="7" r="P79"/>
+      <c s="7" r="Q79"/>
+      <c s="7" r="R79"/>
+      <c s="7" r="S79"/>
+      <c s="7" r="T79"/>
+      <c s="7" r="U79"/>
+      <c s="7" r="V79"/>
+      <c s="7" r="W79"/>
+      <c s="7" r="X79"/>
+      <c s="7" r="Y79"/>
     </row>
     <row r="80">
       <c s="3" r="A80"/>
       <c s="31" r="B80"/>
       <c s="5" r="C80"/>
       <c s="2" r="D80"/>
-      <c s="15" r="E80"/>
-      <c s="15" r="F80"/>
-      <c s="15" r="G80"/>
-      <c s="15" r="H80"/>
-      <c s="15" r="I80"/>
-      <c s="15" r="J80"/>
-      <c s="15" r="K80"/>
+      <c s="16" r="E80"/>
+      <c s="16" r="F80"/>
+      <c s="16" r="G80"/>
+      <c s="16" r="H80"/>
+      <c s="16" r="I80"/>
+      <c s="16" r="J80"/>
+      <c s="16" r="K80"/>
       <c s="43" r="L80"/>
-      <c s="29" r="M80"/>
+      <c s="28" r="M80"/>
       <c s="26" r="N80"/>
-      <c s="6" r="O80"/>
-      <c s="6" r="P80"/>
-      <c s="6" r="Q80"/>
-      <c s="6" r="R80"/>
-      <c s="6" r="S80"/>
-      <c s="6" r="T80"/>
-      <c s="6" r="U80"/>
-      <c s="6" r="V80"/>
-      <c s="6" r="W80"/>
-      <c s="6" r="X80"/>
-      <c s="6" r="Y80"/>
+      <c s="7" r="O80"/>
+      <c s="7" r="P80"/>
+      <c s="7" r="Q80"/>
+      <c s="7" r="R80"/>
+      <c s="7" r="S80"/>
+      <c s="7" r="T80"/>
+      <c s="7" r="U80"/>
+      <c s="7" r="V80"/>
+      <c s="7" r="W80"/>
+      <c s="7" r="X80"/>
+      <c s="7" r="Y80"/>
     </row>
     <row r="81">
       <c s="3" r="A81"/>
       <c s="31" r="B81"/>
       <c s="5" r="C81"/>
       <c s="2" r="D81"/>
-      <c s="15" r="E81"/>
-      <c s="15" r="F81"/>
-      <c s="15" r="G81"/>
-      <c s="15" r="H81"/>
-      <c s="15" r="I81"/>
-      <c s="15" r="J81"/>
-      <c s="15" r="K81"/>
+      <c s="16" r="E81"/>
+      <c s="16" r="F81"/>
+      <c s="16" r="G81"/>
+      <c s="16" r="H81"/>
+      <c s="16" r="I81"/>
+      <c s="16" r="J81"/>
+      <c s="16" r="K81"/>
       <c s="43" r="L81"/>
-      <c s="29" r="M81"/>
+      <c s="28" r="M81"/>
       <c s="26" r="N81"/>
-      <c s="6" r="O81"/>
-      <c s="6" r="P81"/>
-      <c s="6" r="Q81"/>
-      <c s="6" r="R81"/>
-      <c s="6" r="S81"/>
-      <c s="6" r="T81"/>
-      <c s="6" r="U81"/>
-      <c s="6" r="V81"/>
-      <c s="6" r="W81"/>
-      <c s="6" r="X81"/>
-      <c s="6" r="Y81"/>
+      <c s="7" r="O81"/>
+      <c s="7" r="P81"/>
+      <c s="7" r="Q81"/>
+      <c s="7" r="R81"/>
+      <c s="7" r="S81"/>
+      <c s="7" r="T81"/>
+      <c s="7" r="U81"/>
+      <c s="7" r="V81"/>
+      <c s="7" r="W81"/>
+      <c s="7" r="X81"/>
+      <c s="7" r="Y81"/>
     </row>
     <row r="82">
       <c s="3" r="A82"/>
       <c s="31" r="B82"/>
       <c s="5" r="C82"/>
       <c s="2" r="D82"/>
-      <c s="15" r="E82"/>
-      <c s="15" r="F82"/>
-      <c s="15" r="G82"/>
-      <c s="15" r="H82"/>
-      <c s="15" r="I82"/>
-      <c s="15" r="J82"/>
-      <c s="15" r="K82"/>
+      <c s="16" r="E82"/>
+      <c s="16" r="F82"/>
+      <c s="16" r="G82"/>
+      <c s="16" r="H82"/>
+      <c s="16" r="I82"/>
+      <c s="16" r="J82"/>
+      <c s="16" r="K82"/>
       <c s="43" r="L82"/>
-      <c s="29" r="M82"/>
+      <c s="28" r="M82"/>
       <c s="26" r="N82"/>
-      <c s="6" r="O82"/>
-      <c s="6" r="P82"/>
-      <c s="6" r="Q82"/>
-      <c s="6" r="R82"/>
-      <c s="6" r="S82"/>
-      <c s="6" r="T82"/>
-      <c s="6" r="U82"/>
-      <c s="6" r="V82"/>
-      <c s="6" r="W82"/>
-      <c s="6" r="X82"/>
-      <c s="6" r="Y82"/>
+      <c s="7" r="O82"/>
+      <c s="7" r="P82"/>
+      <c s="7" r="Q82"/>
+      <c s="7" r="R82"/>
+      <c s="7" r="S82"/>
+      <c s="7" r="T82"/>
+      <c s="7" r="U82"/>
+      <c s="7" r="V82"/>
+      <c s="7" r="W82"/>
+      <c s="7" r="X82"/>
+      <c s="7" r="Y82"/>
     </row>
     <row r="83">
       <c s="3" r="A83"/>
       <c s="31" r="B83"/>
       <c s="5" r="C83"/>
       <c s="2" r="D83"/>
-      <c s="15" r="E83"/>
-      <c s="15" r="F83"/>
-      <c s="15" r="G83"/>
-      <c s="15" r="H83"/>
-      <c s="15" r="I83"/>
-      <c s="15" r="J83"/>
-      <c s="15" r="K83"/>
+      <c s="16" r="E83"/>
+      <c s="16" r="F83"/>
+      <c s="16" r="G83"/>
+      <c s="16" r="H83"/>
+      <c s="16" r="I83"/>
+      <c s="16" r="J83"/>
+      <c s="16" r="K83"/>
       <c s="43" r="L83"/>
-      <c s="29" r="M83"/>
+      <c s="28" r="M83"/>
       <c s="26" r="N83"/>
-      <c s="6" r="O83"/>
-      <c s="6" r="P83"/>
-      <c s="6" r="Q83"/>
-      <c s="6" r="R83"/>
-      <c s="6" r="S83"/>
-      <c s="6" r="T83"/>
-      <c s="6" r="U83"/>
-      <c s="6" r="V83"/>
-      <c s="6" r="W83"/>
-      <c s="6" r="X83"/>
-      <c s="6" r="Y83"/>
+      <c s="7" r="O83"/>
+      <c s="7" r="P83"/>
+      <c s="7" r="Q83"/>
+      <c s="7" r="R83"/>
+      <c s="7" r="S83"/>
+      <c s="7" r="T83"/>
+      <c s="7" r="U83"/>
+      <c s="7" r="V83"/>
+      <c s="7" r="W83"/>
+      <c s="7" r="X83"/>
+      <c s="7" r="Y83"/>
     </row>
     <row r="84">
       <c s="3" r="A84"/>
       <c s="31" r="B84"/>
       <c s="5" r="C84"/>
       <c s="2" r="D84"/>
-      <c s="15" r="E84"/>
-      <c s="15" r="F84"/>
-      <c s="15" r="G84"/>
-      <c s="15" r="H84"/>
-      <c s="15" r="I84"/>
-      <c s="15" r="J84"/>
-      <c s="15" r="K84"/>
+      <c s="16" r="E84"/>
+      <c s="16" r="F84"/>
+      <c s="16" r="G84"/>
+      <c s="16" r="H84"/>
+      <c s="16" r="I84"/>
+      <c s="16" r="J84"/>
+      <c s="16" r="K84"/>
       <c s="43" r="L84"/>
-      <c s="29" r="M84"/>
+      <c s="28" r="M84"/>
       <c s="26" r="N84"/>
-      <c s="6" r="O84"/>
-      <c s="6" r="P84"/>
-      <c s="6" r="Q84"/>
-      <c s="6" r="R84"/>
-      <c s="6" r="S84"/>
-      <c s="6" r="T84"/>
-      <c s="6" r="U84"/>
-      <c s="6" r="V84"/>
-      <c s="6" r="W84"/>
-      <c s="6" r="X84"/>
-      <c s="6" r="Y84"/>
+      <c s="7" r="O84"/>
+      <c s="7" r="P84"/>
+      <c s="7" r="Q84"/>
+      <c s="7" r="R84"/>
+      <c s="7" r="S84"/>
+      <c s="7" r="T84"/>
+      <c s="7" r="U84"/>
+      <c s="7" r="V84"/>
+      <c s="7" r="W84"/>
+      <c s="7" r="X84"/>
+      <c s="7" r="Y84"/>
     </row>
     <row r="85">
       <c s="3" r="A85"/>
       <c s="31" r="B85"/>
       <c s="5" r="C85"/>
       <c s="2" r="D85"/>
-      <c s="15" r="E85"/>
-      <c s="15" r="F85"/>
-      <c s="15" r="G85"/>
-      <c s="15" r="H85"/>
-      <c s="15" r="I85"/>
-      <c s="15" r="J85"/>
-      <c s="15" r="K85"/>
+      <c s="16" r="E85"/>
+      <c s="16" r="F85"/>
+      <c s="16" r="G85"/>
+      <c s="16" r="H85"/>
+      <c s="16" r="I85"/>
+      <c s="16" r="J85"/>
+      <c s="16" r="K85"/>
       <c s="43" r="L85"/>
-      <c s="29" r="M85"/>
+      <c s="28" r="M85"/>
       <c s="26" r="N85"/>
-      <c s="6" r="O85"/>
-      <c s="6" r="P85"/>
-      <c s="6" r="Q85"/>
-      <c s="6" r="R85"/>
-      <c s="6" r="S85"/>
-      <c s="6" r="T85"/>
-      <c s="6" r="U85"/>
-      <c s="6" r="V85"/>
-      <c s="6" r="W85"/>
-      <c s="6" r="X85"/>
-      <c s="6" r="Y85"/>
+      <c s="7" r="O85"/>
+      <c s="7" r="P85"/>
+      <c s="7" r="Q85"/>
+      <c s="7" r="R85"/>
+      <c s="7" r="S85"/>
+      <c s="7" r="T85"/>
+      <c s="7" r="U85"/>
+      <c s="7" r="V85"/>
+      <c s="7" r="W85"/>
+      <c s="7" r="X85"/>
+      <c s="7" r="Y85"/>
     </row>
     <row r="86">
       <c s="3" r="A86"/>
       <c s="31" r="B86"/>
       <c s="5" r="C86"/>
       <c s="2" r="D86"/>
-      <c s="15" r="E86"/>
-      <c s="15" r="F86"/>
-      <c s="15" r="G86"/>
-      <c s="15" r="H86"/>
-      <c s="15" r="I86"/>
-      <c s="15" r="J86"/>
-      <c s="15" r="K86"/>
+      <c s="16" r="E86"/>
+      <c s="16" r="F86"/>
+      <c s="16" r="G86"/>
+      <c s="16" r="H86"/>
+      <c s="16" r="I86"/>
+      <c s="16" r="J86"/>
+      <c s="16" r="K86"/>
       <c s="43" r="L86"/>
-      <c s="29" r="M86"/>
+      <c s="28" r="M86"/>
       <c s="26" r="N86"/>
-      <c s="6" r="O86"/>
-      <c s="6" r="P86"/>
-      <c s="6" r="Q86"/>
-      <c s="6" r="R86"/>
-      <c s="6" r="S86"/>
-      <c s="6" r="T86"/>
-      <c s="6" r="U86"/>
-      <c s="6" r="V86"/>
-      <c s="6" r="W86"/>
-      <c s="6" r="X86"/>
-      <c s="6" r="Y86"/>
+      <c s="7" r="O86"/>
+      <c s="7" r="P86"/>
+      <c s="7" r="Q86"/>
+      <c s="7" r="R86"/>
+      <c s="7" r="S86"/>
+      <c s="7" r="T86"/>
+      <c s="7" r="U86"/>
+      <c s="7" r="V86"/>
+      <c s="7" r="W86"/>
+      <c s="7" r="X86"/>
+      <c s="7" r="Y86"/>
     </row>
     <row r="87">
       <c s="3" r="A87"/>
       <c s="31" r="B87"/>
       <c s="5" r="C87"/>
       <c s="2" r="D87"/>
-      <c s="15" r="E87"/>
-      <c s="15" r="F87"/>
-      <c s="15" r="G87"/>
-      <c s="15" r="H87"/>
-      <c s="15" r="I87"/>
-      <c s="15" r="J87"/>
-      <c s="15" r="K87"/>
+      <c s="16" r="E87"/>
+      <c s="16" r="F87"/>
+      <c s="16" r="G87"/>
+      <c s="16" r="H87"/>
+      <c s="16" r="I87"/>
+      <c s="16" r="J87"/>
+      <c s="16" r="K87"/>
       <c s="43" r="L87"/>
-      <c s="29" r="M87"/>
+      <c s="28" r="M87"/>
       <c s="26" r="N87"/>
-      <c s="6" r="O87"/>
-      <c s="6" r="P87"/>
-      <c s="6" r="Q87"/>
-      <c s="6" r="R87"/>
-      <c s="6" r="S87"/>
-      <c s="6" r="T87"/>
-      <c s="6" r="U87"/>
-      <c s="6" r="V87"/>
-      <c s="6" r="W87"/>
-      <c s="6" r="X87"/>
-      <c s="6" r="Y87"/>
+      <c s="7" r="O87"/>
+      <c s="7" r="P87"/>
+      <c s="7" r="Q87"/>
+      <c s="7" r="R87"/>
+      <c s="7" r="S87"/>
+      <c s="7" r="T87"/>
+      <c s="7" r="U87"/>
+      <c s="7" r="V87"/>
+      <c s="7" r="W87"/>
+      <c s="7" r="X87"/>
+      <c s="7" r="Y87"/>
     </row>
     <row r="88">
       <c s="3" r="A88"/>
       <c s="31" r="B88"/>
       <c s="5" r="C88"/>
       <c s="2" r="D88"/>
-      <c s="15" r="E88"/>
-      <c s="15" r="F88"/>
-      <c s="15" r="G88"/>
-      <c s="15" r="H88"/>
-      <c s="15" r="I88"/>
-      <c s="15" r="J88"/>
-      <c s="15" r="K88"/>
+      <c s="16" r="E88"/>
+      <c s="16" r="F88"/>
+      <c s="16" r="G88"/>
+      <c s="16" r="H88"/>
+      <c s="16" r="I88"/>
+      <c s="16" r="J88"/>
+      <c s="16" r="K88"/>
       <c s="43" r="L88"/>
-      <c s="29" r="M88"/>
+      <c s="28" r="M88"/>
       <c s="26" r="N88"/>
-      <c s="6" r="O88"/>
-      <c s="6" r="P88"/>
-      <c s="6" r="Q88"/>
-      <c s="6" r="R88"/>
-      <c s="6" r="S88"/>
-      <c s="6" r="T88"/>
-      <c s="6" r="U88"/>
-      <c s="6" r="V88"/>
-      <c s="6" r="W88"/>
-      <c s="6" r="X88"/>
-      <c s="6" r="Y88"/>
+      <c s="7" r="O88"/>
+      <c s="7" r="P88"/>
+      <c s="7" r="Q88"/>
+      <c s="7" r="R88"/>
+      <c s="7" r="S88"/>
+      <c s="7" r="T88"/>
+      <c s="7" r="U88"/>
+      <c s="7" r="V88"/>
+      <c s="7" r="W88"/>
+      <c s="7" r="X88"/>
+      <c s="7" r="Y88"/>
     </row>
     <row r="89">
       <c s="3" r="A89"/>
       <c s="31" r="B89"/>
       <c s="5" r="C89"/>
       <c s="2" r="D89"/>
-      <c s="15" r="E89"/>
-      <c s="15" r="F89"/>
-      <c s="15" r="G89"/>
-      <c s="15" r="H89"/>
-      <c s="15" r="I89"/>
-      <c s="15" r="J89"/>
-      <c s="15" r="K89"/>
+      <c s="16" r="E89"/>
+      <c s="16" r="F89"/>
+      <c s="16" r="G89"/>
+      <c s="16" r="H89"/>
+      <c s="16" r="I89"/>
+      <c s="16" r="J89"/>
+      <c s="16" r="K89"/>
       <c s="43" r="L89"/>
-      <c s="29" r="M89"/>
+      <c s="28" r="M89"/>
       <c s="26" r="N89"/>
-      <c s="6" r="O89"/>
-      <c s="6" r="P89"/>
-      <c s="6" r="Q89"/>
-      <c s="6" r="R89"/>
-      <c s="6" r="S89"/>
-      <c s="6" r="T89"/>
-      <c s="6" r="U89"/>
-      <c s="6" r="V89"/>
-      <c s="6" r="W89"/>
-      <c s="6" r="X89"/>
-      <c s="6" r="Y89"/>
+      <c s="7" r="O89"/>
+      <c s="7" r="P89"/>
+      <c s="7" r="Q89"/>
+      <c s="7" r="R89"/>
+      <c s="7" r="S89"/>
+      <c s="7" r="T89"/>
+      <c s="7" r="U89"/>
+      <c s="7" r="V89"/>
+      <c s="7" r="W89"/>
+      <c s="7" r="X89"/>
+      <c s="7" r="Y89"/>
     </row>
     <row r="90">
       <c s="3" r="A90"/>
       <c s="31" r="B90"/>
       <c s="5" r="C90"/>
       <c s="2" r="D90"/>
-      <c s="15" r="E90"/>
-      <c s="15" r="F90"/>
-      <c s="15" r="G90"/>
-      <c s="15" r="H90"/>
-      <c s="15" r="I90"/>
-      <c s="15" r="J90"/>
-      <c s="15" r="K90"/>
+      <c s="16" r="E90"/>
+      <c s="16" r="F90"/>
+      <c s="16" r="G90"/>
+      <c s="16" r="H90"/>
+      <c s="16" r="I90"/>
+      <c s="16" r="J90"/>
+      <c s="16" r="K90"/>
       <c s="43" r="L90"/>
-      <c s="29" r="M90"/>
+      <c s="28" r="M90"/>
       <c s="26" r="N90"/>
-      <c s="6" r="O90"/>
-      <c s="6" r="P90"/>
-      <c s="6" r="Q90"/>
-      <c s="6" r="R90"/>
-      <c s="6" r="S90"/>
-      <c s="6" r="T90"/>
-      <c s="6" r="U90"/>
-      <c s="6" r="V90"/>
-      <c s="6" r="W90"/>
-      <c s="6" r="X90"/>
-      <c s="6" r="Y90"/>
+      <c s="7" r="O90"/>
+      <c s="7" r="P90"/>
+      <c s="7" r="Q90"/>
+      <c s="7" r="R90"/>
+      <c s="7" r="S90"/>
+      <c s="7" r="T90"/>
+      <c s="7" r="U90"/>
+      <c s="7" r="V90"/>
+      <c s="7" r="W90"/>
+      <c s="7" r="X90"/>
+      <c s="7" r="Y90"/>
     </row>
     <row r="91">
       <c s="3" r="A91"/>
       <c s="31" r="B91"/>
       <c s="5" r="C91"/>
       <c s="2" r="D91"/>
-      <c s="15" r="E91"/>
-      <c s="15" r="F91"/>
-      <c s="15" r="G91"/>
-      <c s="15" r="H91"/>
-      <c s="15" r="I91"/>
-      <c s="15" r="J91"/>
-      <c s="15" r="K91"/>
+      <c s="16" r="E91"/>
+      <c s="16" r="F91"/>
+      <c s="16" r="G91"/>
+      <c s="16" r="H91"/>
+      <c s="16" r="I91"/>
+      <c s="16" r="J91"/>
+      <c s="16" r="K91"/>
       <c s="43" r="L91"/>
-      <c s="29" r="M91"/>
+      <c s="28" r="M91"/>
       <c s="26" r="N91"/>
-      <c s="6" r="O91"/>
-      <c s="6" r="P91"/>
-      <c s="6" r="Q91"/>
-      <c s="6" r="R91"/>
-      <c s="6" r="S91"/>
-      <c s="6" r="T91"/>
-      <c s="6" r="U91"/>
-      <c s="6" r="V91"/>
-      <c s="6" r="W91"/>
-      <c s="6" r="X91"/>
-      <c s="6" r="Y91"/>
+      <c s="7" r="O91"/>
+      <c s="7" r="P91"/>
+      <c s="7" r="Q91"/>
+      <c s="7" r="R91"/>
+      <c s="7" r="S91"/>
+      <c s="7" r="T91"/>
+      <c s="7" r="U91"/>
+      <c s="7" r="V91"/>
+      <c s="7" r="W91"/>
+      <c s="7" r="X91"/>
+      <c s="7" r="Y91"/>
     </row>
     <row r="92">
       <c s="3" r="A92"/>
       <c s="31" r="B92"/>
       <c s="5" r="C92"/>
       <c s="2" r="D92"/>
-      <c s="15" r="E92"/>
-      <c s="15" r="F92"/>
-      <c s="15" r="G92"/>
-      <c s="15" r="H92"/>
-      <c s="15" r="I92"/>
-      <c s="15" r="J92"/>
-      <c s="15" r="K92"/>
+      <c s="16" r="E92"/>
+      <c s="16" r="F92"/>
+      <c s="16" r="G92"/>
+      <c s="16" r="H92"/>
+      <c s="16" r="I92"/>
+      <c s="16" r="J92"/>
+      <c s="16" r="K92"/>
       <c s="43" r="L92"/>
-      <c s="29" r="M92"/>
+      <c s="28" r="M92"/>
       <c s="26" r="N92"/>
-      <c s="6" r="O92"/>
-      <c s="6" r="P92"/>
-      <c s="6" r="Q92"/>
-      <c s="6" r="R92"/>
-      <c s="6" r="S92"/>
-      <c s="6" r="T92"/>
-      <c s="6" r="U92"/>
-      <c s="6" r="V92"/>
-      <c s="6" r="W92"/>
-      <c s="6" r="X92"/>
-      <c s="6" r="Y92"/>
+      <c s="7" r="O92"/>
+      <c s="7" r="P92"/>
+      <c s="7" r="Q92"/>
+      <c s="7" r="R92"/>
+      <c s="7" r="S92"/>
+      <c s="7" r="T92"/>
+      <c s="7" r="U92"/>
+      <c s="7" r="V92"/>
+      <c s="7" r="W92"/>
+      <c s="7" r="X92"/>
+      <c s="7" r="Y92"/>
     </row>
     <row r="93">
       <c s="3" r="A93"/>
       <c s="31" r="B93"/>
       <c s="5" r="C93"/>
       <c s="2" r="D93"/>
-      <c s="15" r="E93"/>
-      <c s="15" r="F93"/>
-      <c s="15" r="G93"/>
-      <c s="15" r="H93"/>
-      <c s="15" r="I93"/>
-      <c s="15" r="J93"/>
-      <c s="15" r="K93"/>
+      <c s="16" r="E93"/>
+      <c s="16" r="F93"/>
+      <c s="16" r="G93"/>
+      <c s="16" r="H93"/>
+      <c s="16" r="I93"/>
+      <c s="16" r="J93"/>
+      <c s="16" r="K93"/>
       <c s="43" r="L93"/>
-      <c s="29" r="M93"/>
+      <c s="28" r="M93"/>
       <c s="26" r="N93"/>
-      <c s="6" r="O93"/>
-      <c s="6" r="P93"/>
-      <c s="6" r="Q93"/>
-      <c s="6" r="R93"/>
-      <c s="6" r="S93"/>
-      <c s="6" r="T93"/>
-      <c s="6" r="U93"/>
-      <c s="6" r="V93"/>
-      <c s="6" r="W93"/>
-      <c s="6" r="X93"/>
-      <c s="6" r="Y93"/>
+      <c s="7" r="O93"/>
+      <c s="7" r="P93"/>
+      <c s="7" r="Q93"/>
+      <c s="7" r="R93"/>
+      <c s="7" r="S93"/>
+      <c s="7" r="T93"/>
+      <c s="7" r="U93"/>
+      <c s="7" r="V93"/>
+      <c s="7" r="W93"/>
+      <c s="7" r="X93"/>
+      <c s="7" r="Y93"/>
     </row>
     <row r="94">
       <c s="3" r="A94"/>
       <c s="31" r="B94"/>
       <c s="5" r="C94"/>
       <c s="2" r="D94"/>
-      <c s="15" r="E94"/>
-      <c s="15" r="F94"/>
-      <c s="15" r="G94"/>
-      <c s="15" r="H94"/>
-      <c s="15" r="I94"/>
-      <c s="15" r="J94"/>
-      <c s="15" r="K94"/>
+      <c s="16" r="E94"/>
+      <c s="16" r="F94"/>
+      <c s="16" r="G94"/>
+      <c s="16" r="H94"/>
+      <c s="16" r="I94"/>
+      <c s="16" r="J94"/>
+      <c s="16" r="K94"/>
       <c s="43" r="L94"/>
-      <c s="29" r="M94"/>
+      <c s="28" r="M94"/>
       <c s="26" r="N94"/>
-      <c s="6" r="O94"/>
-      <c s="6" r="P94"/>
-      <c s="6" r="Q94"/>
-      <c s="6" r="R94"/>
-      <c s="6" r="S94"/>
-      <c s="6" r="T94"/>
-      <c s="6" r="U94"/>
-      <c s="6" r="V94"/>
-      <c s="6" r="W94"/>
-      <c s="6" r="X94"/>
-      <c s="6" r="Y94"/>
+      <c s="7" r="O94"/>
+      <c s="7" r="P94"/>
+      <c s="7" r="Q94"/>
+      <c s="7" r="R94"/>
+      <c s="7" r="S94"/>
+      <c s="7" r="T94"/>
+      <c s="7" r="U94"/>
+      <c s="7" r="V94"/>
+      <c s="7" r="W94"/>
+      <c s="7" r="X94"/>
+      <c s="7" r="Y94"/>
     </row>
     <row r="95">
       <c s="3" r="A95"/>
       <c s="31" r="B95"/>
       <c s="5" r="C95"/>
       <c s="2" r="D95"/>
-      <c s="15" r="E95"/>
-      <c s="15" r="F95"/>
-      <c s="15" r="G95"/>
-      <c s="15" r="H95"/>
-      <c s="15" r="I95"/>
-      <c s="15" r="J95"/>
-      <c s="15" r="K95"/>
+      <c s="16" r="E95"/>
+      <c s="16" r="F95"/>
+      <c s="16" r="G95"/>
+      <c s="16" r="H95"/>
+      <c s="16" r="I95"/>
+      <c s="16" r="J95"/>
+      <c s="16" r="K95"/>
       <c s="43" r="L95"/>
-      <c s="29" r="M95"/>
+      <c s="28" r="M95"/>
       <c s="26" r="N95"/>
-      <c s="6" r="O95"/>
-      <c s="6" r="P95"/>
-      <c s="6" r="Q95"/>
-      <c s="6" r="R95"/>
-      <c s="6" r="S95"/>
-      <c s="6" r="T95"/>
-      <c s="6" r="U95"/>
-      <c s="6" r="V95"/>
-      <c s="6" r="W95"/>
-      <c s="6" r="X95"/>
-      <c s="6" r="Y95"/>
+      <c s="7" r="O95"/>
+      <c s="7" r="P95"/>
+      <c s="7" r="Q95"/>
+      <c s="7" r="R95"/>
+      <c s="7" r="S95"/>
+      <c s="7" r="T95"/>
+      <c s="7" r="U95"/>
+      <c s="7" r="V95"/>
+      <c s="7" r="W95"/>
+      <c s="7" r="X95"/>
+      <c s="7" r="Y95"/>
     </row>
     <row r="96">
       <c s="3" r="A96"/>
       <c s="31" r="B96"/>
       <c s="5" r="C96"/>
       <c s="2" r="D96"/>
-      <c s="15" r="E96"/>
-      <c s="15" r="F96"/>
-      <c s="15" r="G96"/>
-      <c s="15" r="H96"/>
-      <c s="15" r="I96"/>
-      <c s="15" r="J96"/>
-      <c s="15" r="K96"/>
+      <c s="16" r="E96"/>
+      <c s="16" r="F96"/>
+      <c s="16" r="G96"/>
+      <c s="16" r="H96"/>
+      <c s="16" r="I96"/>
+      <c s="16" r="J96"/>
+      <c s="16" r="K96"/>
       <c s="43" r="L96"/>
-      <c s="29" r="M96"/>
+      <c s="28" r="M96"/>
       <c s="26" r="N96"/>
-      <c s="6" r="O96"/>
-      <c s="6" r="P96"/>
-      <c s="6" r="Q96"/>
-      <c s="6" r="R96"/>
-      <c s="6" r="S96"/>
-      <c s="6" r="T96"/>
-      <c s="6" r="U96"/>
-      <c s="6" r="V96"/>
-      <c s="6" r="W96"/>
-      <c s="6" r="X96"/>
-      <c s="6" r="Y96"/>
+      <c s="7" r="O96"/>
+      <c s="7" r="P96"/>
+      <c s="7" r="Q96"/>
+      <c s="7" r="R96"/>
+      <c s="7" r="S96"/>
+      <c s="7" r="T96"/>
+      <c s="7" r="U96"/>
+      <c s="7" r="V96"/>
+      <c s="7" r="W96"/>
+      <c s="7" r="X96"/>
+      <c s="7" r="Y96"/>
     </row>
     <row r="97">
       <c s="3" r="A97"/>
       <c s="31" r="B97"/>
       <c s="5" r="C97"/>
       <c s="2" r="D97"/>
-      <c s="15" r="E97"/>
-      <c s="15" r="F97"/>
-      <c s="15" r="G97"/>
-      <c s="15" r="H97"/>
-      <c s="15" r="I97"/>
-      <c s="15" r="J97"/>
-      <c s="15" r="K97"/>
+      <c s="16" r="E97"/>
+      <c s="16" r="F97"/>
+      <c s="16" r="G97"/>
+      <c s="16" r="H97"/>
+      <c s="16" r="I97"/>
+      <c s="16" r="J97"/>
+      <c s="16" r="K97"/>
       <c s="43" r="L97"/>
-      <c s="29" r="M97"/>
+      <c s="28" r="M97"/>
       <c s="26" r="N97"/>
-      <c s="6" r="O97"/>
-      <c s="6" r="P97"/>
-      <c s="6" r="Q97"/>
-      <c s="6" r="R97"/>
-      <c s="6" r="S97"/>
-      <c s="6" r="T97"/>
-      <c s="6" r="U97"/>
-      <c s="6" r="V97"/>
-      <c s="6" r="W97"/>
-      <c s="6" r="X97"/>
-      <c s="6" r="Y97"/>
+      <c s="7" r="O97"/>
+      <c s="7" r="P97"/>
+      <c s="7" r="Q97"/>
+      <c s="7" r="R97"/>
+      <c s="7" r="S97"/>
+      <c s="7" r="T97"/>
+      <c s="7" r="U97"/>
+      <c s="7" r="V97"/>
+      <c s="7" r="W97"/>
+      <c s="7" r="X97"/>
+      <c s="7" r="Y97"/>
     </row>
     <row r="98">
       <c s="3" r="A98"/>
       <c s="31" r="B98"/>
       <c s="5" r="C98"/>
       <c s="2" r="D98"/>
-      <c s="15" r="E98"/>
-      <c s="15" r="F98"/>
-      <c s="15" r="G98"/>
-      <c s="15" r="H98"/>
-      <c s="15" r="I98"/>
-      <c s="15" r="J98"/>
-      <c s="15" r="K98"/>
+      <c s="16" r="E98"/>
+      <c s="16" r="F98"/>
+      <c s="16" r="G98"/>
+      <c s="16" r="H98"/>
+      <c s="16" r="I98"/>
+      <c s="16" r="J98"/>
+      <c s="16" r="K98"/>
       <c s="43" r="L98"/>
-      <c s="29" r="M98"/>
+      <c s="28" r="M98"/>
       <c s="26" r="N98"/>
-      <c s="6" r="O98"/>
-      <c s="6" r="P98"/>
-      <c s="6" r="Q98"/>
-      <c s="6" r="R98"/>
-      <c s="6" r="S98"/>
-      <c s="6" r="T98"/>
-      <c s="6" r="U98"/>
-      <c s="6" r="V98"/>
-      <c s="6" r="W98"/>
-      <c s="6" r="X98"/>
-      <c s="6" r="Y98"/>
+      <c s="7" r="O98"/>
+      <c s="7" r="P98"/>
+      <c s="7" r="Q98"/>
+      <c s="7" r="R98"/>
+      <c s="7" r="S98"/>
+      <c s="7" r="T98"/>
+      <c s="7" r="U98"/>
+      <c s="7" r="V98"/>
+      <c s="7" r="W98"/>
+      <c s="7" r="X98"/>
+      <c s="7" r="Y98"/>
     </row>
     <row r="99">
       <c s="3" r="A99"/>
       <c s="31" r="B99"/>
       <c s="5" r="C99"/>
       <c s="2" r="D99"/>
-      <c s="15" r="E99"/>
-      <c s="15" r="F99"/>
-      <c s="15" r="G99"/>
-      <c s="15" r="H99"/>
-      <c s="15" r="I99"/>
-      <c s="15" r="J99"/>
-      <c s="15" r="K99"/>
+      <c s="16" r="E99"/>
+      <c s="16" r="F99"/>
+      <c s="16" r="G99"/>
+      <c s="16" r="H99"/>
+      <c s="16" r="I99"/>
+      <c s="16" r="J99"/>
+      <c s="16" r="K99"/>
       <c s="43" r="L99"/>
-      <c s="29" r="M99"/>
+      <c s="28" r="M99"/>
       <c s="26" r="N99"/>
-      <c s="6" r="O99"/>
-      <c s="6" r="P99"/>
-      <c s="6" r="Q99"/>
-      <c s="6" r="R99"/>
-      <c s="6" r="S99"/>
-      <c s="6" r="T99"/>
-      <c s="6" r="U99"/>
-      <c s="6" r="V99"/>
-      <c s="6" r="W99"/>
-      <c s="6" r="X99"/>
-      <c s="6" r="Y99"/>
+      <c s="7" r="O99"/>
+      <c s="7" r="P99"/>
+      <c s="7" r="Q99"/>
+      <c s="7" r="R99"/>
+      <c s="7" r="S99"/>
+      <c s="7" r="T99"/>
+      <c s="7" r="U99"/>
+      <c s="7" r="V99"/>
+      <c s="7" r="W99"/>
+      <c s="7" r="X99"/>
+      <c s="7" r="Y99"/>
     </row>
     <row r="100">
       <c s="3" r="A100"/>
       <c s="31" r="B100"/>
       <c s="5" r="C100"/>
       <c s="2" r="D100"/>
-      <c s="15" r="E100"/>
-      <c s="15" r="F100"/>
-      <c s="15" r="G100"/>
-      <c s="15" r="H100"/>
-      <c s="15" r="I100"/>
-      <c s="15" r="J100"/>
-      <c s="15" r="K100"/>
+      <c s="16" r="E100"/>
+      <c s="16" r="F100"/>
+      <c s="16" r="G100"/>
+      <c s="16" r="H100"/>
+      <c s="16" r="I100"/>
+      <c s="16" r="J100"/>
+      <c s="16" r="K100"/>
       <c s="43" r="L100"/>
-      <c s="29" r="M100"/>
+      <c s="28" r="M100"/>
       <c s="26" r="N100"/>
-      <c s="6" r="O100"/>
-      <c s="6" r="P100"/>
-      <c s="6" r="Q100"/>
-      <c s="6" r="R100"/>
-      <c s="6" r="S100"/>
-      <c s="6" r="T100"/>
-      <c s="6" r="U100"/>
-      <c s="6" r="V100"/>
-      <c s="6" r="W100"/>
-      <c s="6" r="X100"/>
-      <c s="6" r="Y100"/>
+      <c s="7" r="O100"/>
+      <c s="7" r="P100"/>
+      <c s="7" r="Q100"/>
+      <c s="7" r="R100"/>
+      <c s="7" r="S100"/>
+      <c s="7" r="T100"/>
+      <c s="7" r="U100"/>
+      <c s="7" r="V100"/>
+      <c s="7" r="W100"/>
+      <c s="7" r="X100"/>
+      <c s="7" r="Y100"/>
     </row>
     <row r="101">
-      <c s="12" r="A101"/>
-      <c s="18" r="B101"/>
-      <c s="20" r="C101"/>
-      <c s="9" r="D101"/>
+      <c s="13" r="A101"/>
+      <c s="19" r="B101"/>
+      <c s="21" r="C101"/>
+      <c s="10" r="D101"/>
       <c s="38" r="E101"/>
       <c s="38" r="F101"/>
       <c s="38" r="G101"/>
@@ -5799,17 +5881,17 @@
       <c s="45" r="L101"/>
       <c s="27" r="M101"/>
       <c s="39" r="N101"/>
-      <c s="6" r="O101"/>
-      <c s="6" r="P101"/>
-      <c s="6" r="Q101"/>
-      <c s="6" r="R101"/>
-      <c s="6" r="S101"/>
-      <c s="6" r="T101"/>
-      <c s="6" r="U101"/>
-      <c s="6" r="V101"/>
-      <c s="6" r="W101"/>
-      <c s="6" r="X101"/>
-      <c s="6" r="Y101"/>
+      <c s="7" r="O101"/>
+      <c s="7" r="P101"/>
+      <c s="7" r="Q101"/>
+      <c s="7" r="R101"/>
+      <c s="7" r="S101"/>
+      <c s="7" r="T101"/>
+      <c s="7" r="U101"/>
+      <c s="7" r="V101"/>
+      <c s="7" r="W101"/>
+      <c s="7" r="X101"/>
+      <c s="7" r="Y101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6180,6 +6262,37 @@
         <v>8</v>
       </c>
     </row>
+    <row customHeight="1" r="11" ht="21.0">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <f>D11+E11</f>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>SUM(G11:M11)</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c t="s" r="N11">
+        <v>68</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -6253,7 +6366,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6265,13 +6378,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -6282,7 +6395,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -6294,7 +6407,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -6306,7 +6419,7 @@
         <v>2</v>
       </c>
       <c t="s" r="N3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -6317,7 +6430,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6329,13 +6442,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c t="s" r="N4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -6346,7 +6459,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -6358,7 +6471,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6373,7 +6486,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6384,7 +6497,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -6396,7 +6509,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6408,7 +6521,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -6419,7 +6532,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6431,7 +6544,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -6440,7 +6553,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -6451,7 +6564,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6463,7 +6576,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -6475,7 +6588,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -6486,7 +6599,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -6498,13 +6611,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c t="s" r="N9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>8</v>
@@ -6515,7 +6628,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -6527,7 +6640,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6539,7 +6652,7 @@
         <v>4</v>
       </c>
       <c t="s" r="N10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -6550,7 +6663,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -6562,16 +6675,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c t="s" r="N11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="O11">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6759,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6658,7 +6771,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6667,10 +6780,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="O2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -6678,7 +6791,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -6690,7 +6803,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6702,10 +6815,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="O3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -6713,7 +6826,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6725,7 +6838,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6737,10 +6850,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="O4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -6748,7 +6861,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -6760,7 +6873,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6772,10 +6885,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="O5">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -6783,7 +6896,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -6795,16 +6908,16 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="O6">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -6812,7 +6925,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6824,7 +6937,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6833,10 +6946,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="O7">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -6844,7 +6957,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6856,7 +6969,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6865,10 +6978,10 @@
         <v>2</v>
       </c>
       <c t="s" r="N8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="O8">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -6876,7 +6989,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6888,7 +7001,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6900,10 +7013,10 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="O9">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -6911,7 +7024,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -6923,7 +7036,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6935,10 +7048,10 @@
         <v>4</v>
       </c>
       <c t="s" r="N10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="O10">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -6946,7 +7059,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -6958,21 +7071,53 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c t="s" r="N11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="O11">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c t="s" r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c t="s" r="F12">
+        <v>112</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c t="s" r="N12">
+        <v>105</v>
+      </c>
+      <c t="s" r="O12">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O11">
-    <sortState ref="A1:O11"/>
+  <autoFilter ref="A1:O12">
+    <sortState ref="A1:O12"/>
   </autoFilter>
 </worksheet>
 </file>
@@ -7046,7 +7191,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -7058,13 +7203,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c t="s" r="N2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -7075,7 +7220,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -7087,7 +7232,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -7096,7 +7241,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -7107,7 +7252,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -7119,7 +7264,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -7128,7 +7273,7 @@
         <v>6.5</v>
       </c>
       <c t="s" r="N4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -7139,7 +7284,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -7151,7 +7296,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7160,7 +7305,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N5">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -7171,7 +7316,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -7183,7 +7328,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -7195,7 +7340,7 @@
         <v>5</v>
       </c>
       <c t="s" r="N6">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -7206,7 +7351,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -7218,13 +7363,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c t="s" r="N7">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -7235,7 +7380,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -7247,13 +7392,13 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c t="s" r="N8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8">
         <v>12</v>
@@ -7264,7 +7409,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -7276,7 +7421,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F9">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -7285,7 +7430,7 @@
         <v>3</v>
       </c>
       <c t="s" r="N9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -7296,7 +7441,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -7308,16 +7453,74 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c t="s" r="N10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O10">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c t="s" r="B11">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" r="F11">
+        <v>132</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c t="s" r="N11">
+        <v>133</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c t="s" r="B12">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c t="s" r="F12">
+        <v>134</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c t="s" r="N12">
+        <v>135</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +7599,7 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -7408,7 +7611,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -7420,7 +7623,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N2">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -7428,7 +7631,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B3">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -7440,7 +7643,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F3">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7452,7 +7655,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N3">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -7460,7 +7663,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B4">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -7472,7 +7675,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F4">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7487,7 +7690,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N4">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
@@ -7495,7 +7698,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B5">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -7507,7 +7710,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7519,7 +7722,7 @@
         <v>1</v>
       </c>
       <c t="s" r="N5">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -7527,7 +7730,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -7539,7 +7742,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7562,7 +7765,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B7">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -7574,7 +7777,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F7">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7588,7 +7791,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7600,7 +7803,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -7614,7 +7817,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B9">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7626,7 +7829,7 @@
         <v>0</v>
       </c>
       <c t="s" r="F9">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7640,7 +7843,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B10">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -7652,7 +7855,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F10">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -7666,7 +7869,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B11">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -7678,7 +7881,7 @@
         <v>1</v>
       </c>
       <c t="s" r="F11">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7716,7 +7919,7 @@
         <v>1</v>
       </c>
       <c t="s" s="41" r="C1">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c t="s" s="41" r="D1">
         <v>3</v>
@@ -7728,31 +7931,31 @@
         <v>5</v>
       </c>
       <c t="s" s="41" r="G1">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c t="s" s="41" r="H1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c t="s" s="41" r="I1">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" s="41" r="J1">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" s="41" r="K1">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c t="s" s="41" r="L1">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c t="s" s="41" r="M1">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c t="s" s="41" r="N1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c t="s" s="41" r="O1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c s="30" r="P1"/>
       <c s="30" r="Q1"/>
@@ -7767,37 +7970,37 @@
       <c s="30" r="Z1"/>
     </row>
     <row customHeight="1" r="2" ht="51.0">
-      <c s="13" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="B2">
-        <v>154</v>
-      </c>
-      <c s="13" r="C2">
+      <c s="14" r="A2">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="B2">
+        <v>161</v>
+      </c>
+      <c s="14" r="C2">
         <v>5</v>
       </c>
-      <c s="13" r="D2">
+      <c s="14" r="D2">
         <v>4</v>
       </c>
-      <c s="13" r="E2">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F2">
-        <v>155</v>
-      </c>
-      <c s="13" r="G2">
+      <c s="14" r="E2">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F2">
+        <v>162</v>
+      </c>
+      <c s="14" r="G2">
         <v>4</v>
       </c>
-      <c s="13" r="H2"/>
-      <c s="13" r="I2"/>
-      <c s="13" r="J2"/>
-      <c s="13" r="K2"/>
-      <c s="13" r="L2"/>
-      <c s="13" r="M2"/>
-      <c t="s" s="13" r="N2">
-        <v>156</v>
-      </c>
-      <c s="13" r="O2">
+      <c s="14" r="H2"/>
+      <c s="14" r="I2"/>
+      <c s="14" r="J2"/>
+      <c s="14" r="K2"/>
+      <c s="14" r="L2"/>
+      <c s="14" r="M2"/>
+      <c t="s" s="14" r="N2">
+        <v>163</v>
+      </c>
+      <c s="14" r="O2">
         <v>8</v>
       </c>
       <c s="32" r="P2"/>
@@ -7813,396 +8016,442 @@
       <c s="32" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="51.0">
-      <c s="13" r="A3">
+      <c s="14" r="A3">
         <v>2</v>
       </c>
-      <c t="s" s="13" r="B3">
-        <v>154</v>
-      </c>
-      <c s="13" r="C3">
+      <c t="s" s="14" r="B3">
+        <v>161</v>
+      </c>
+      <c s="14" r="C3">
         <v>5</v>
       </c>
-      <c s="13" r="D3">
+      <c s="14" r="D3">
         <v>4</v>
       </c>
-      <c s="13" r="E3">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F3">
-        <v>157</v>
-      </c>
-      <c s="13" r="G3">
+      <c s="14" r="E3">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F3">
+        <v>164</v>
+      </c>
+      <c s="14" r="G3">
         <v>3.5</v>
       </c>
-      <c s="13" r="H3">
+      <c s="14" r="H3">
         <v>1.5</v>
       </c>
-      <c s="13" r="I3"/>
-      <c s="13" r="J3"/>
-      <c s="13" r="K3"/>
-      <c s="13" r="L3"/>
-      <c s="13" r="M3"/>
-      <c t="s" s="13" r="N3">
-        <v>158</v>
-      </c>
-      <c s="13" r="O3">
+      <c s="14" r="I3"/>
+      <c s="14" r="J3"/>
+      <c s="14" r="K3"/>
+      <c s="14" r="L3"/>
+      <c s="14" r="M3"/>
+      <c t="s" s="14" r="N3">
+        <v>165</v>
+      </c>
+      <c s="14" r="O3">
         <v>8</v>
       </c>
-      <c s="13" r="P3"/>
-      <c s="13" r="Q3"/>
-      <c s="13" r="R3"/>
-      <c s="13" r="S3"/>
-      <c s="13" r="T3"/>
-      <c s="13" r="U3"/>
-      <c s="13" r="V3"/>
-      <c s="13" r="W3"/>
-      <c s="13" r="X3"/>
-      <c s="13" r="Y3"/>
-      <c s="13" r="Z3"/>
+      <c s="14" r="P3"/>
+      <c s="14" r="Q3"/>
+      <c s="14" r="R3"/>
+      <c s="14" r="S3"/>
+      <c s="14" r="T3"/>
+      <c s="14" r="U3"/>
+      <c s="14" r="V3"/>
+      <c s="14" r="W3"/>
+      <c s="14" r="X3"/>
+      <c s="14" r="Y3"/>
+      <c s="14" r="Z3"/>
     </row>
     <row customHeight="1" r="4" ht="51.0">
-      <c s="13" r="A4">
+      <c s="14" r="A4">
         <v>3</v>
       </c>
-      <c t="s" s="13" r="B4">
-        <v>154</v>
-      </c>
-      <c s="13" r="C4">
+      <c t="s" s="14" r="B4">
+        <v>161</v>
+      </c>
+      <c s="14" r="C4">
         <v>10</v>
       </c>
-      <c s="13" r="D4">
+      <c s="14" r="D4">
         <v>9</v>
       </c>
-      <c s="13" r="E4">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F4">
-        <v>159</v>
-      </c>
-      <c s="13" r="G4">
+      <c s="14" r="E4">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F4">
+        <v>166</v>
+      </c>
+      <c s="14" r="G4">
         <v>4</v>
       </c>
-      <c s="13" r="H4"/>
-      <c s="13" r="I4"/>
-      <c s="13" r="J4">
+      <c s="14" r="H4"/>
+      <c s="14" r="I4"/>
+      <c s="14" r="J4">
         <v>4</v>
       </c>
-      <c s="13" r="K4">
-        <v>1</v>
-      </c>
-      <c s="13" r="L4"/>
-      <c s="13" r="M4"/>
-      <c t="s" s="13" r="N4">
-        <v>160</v>
-      </c>
-      <c s="13" r="O4">
+      <c s="14" r="K4">
+        <v>1</v>
+      </c>
+      <c s="14" r="L4"/>
+      <c s="14" r="M4"/>
+      <c t="s" s="14" r="N4">
+        <v>167</v>
+      </c>
+      <c s="14" r="O4">
         <v>12</v>
       </c>
-      <c s="13" r="P4"/>
-      <c s="13" r="Q4"/>
-      <c s="13" r="R4"/>
-      <c s="13" r="S4"/>
-      <c s="13" r="T4"/>
-      <c s="13" r="U4"/>
-      <c s="13" r="V4"/>
-      <c s="13" r="W4"/>
-      <c s="13" r="X4"/>
-      <c s="13" r="Y4"/>
-      <c s="13" r="Z4"/>
+      <c s="14" r="P4"/>
+      <c s="14" r="Q4"/>
+      <c s="14" r="R4"/>
+      <c s="14" r="S4"/>
+      <c s="14" r="T4"/>
+      <c s="14" r="U4"/>
+      <c s="14" r="V4"/>
+      <c s="14" r="W4"/>
+      <c s="14" r="X4"/>
+      <c s="14" r="Y4"/>
+      <c s="14" r="Z4"/>
     </row>
     <row customHeight="1" r="5" ht="51.0">
-      <c s="13" r="A5">
+      <c s="14" r="A5">
         <v>4</v>
       </c>
-      <c t="s" s="13" r="B5">
-        <v>154</v>
-      </c>
-      <c s="13" r="C5">
+      <c t="s" s="14" r="B5">
+        <v>161</v>
+      </c>
+      <c s="14" r="C5">
         <v>10</v>
       </c>
-      <c s="13" r="D5">
+      <c s="14" r="D5">
         <v>9</v>
       </c>
-      <c s="13" r="E5">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F5">
+      <c s="14" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F5">
+        <v>168</v>
+      </c>
+      <c s="14" r="G5">
+        <v>6</v>
+      </c>
+      <c s="14" r="H5"/>
+      <c s="14" r="I5"/>
+      <c s="14" r="J5">
+        <v>3</v>
+      </c>
+      <c s="14" r="K5"/>
+      <c s="14" r="L5"/>
+      <c s="14" r="M5"/>
+      <c t="s" s="14" r="N5">
+        <v>169</v>
+      </c>
+      <c s="14" r="O5">
+        <v>12</v>
+      </c>
+      <c s="14" r="P5"/>
+      <c s="14" r="Q5"/>
+      <c s="14" r="R5"/>
+      <c s="14" r="S5"/>
+      <c s="14" r="T5"/>
+      <c s="14" r="U5"/>
+      <c s="14" r="V5"/>
+      <c s="14" r="W5"/>
+      <c s="14" r="X5"/>
+      <c s="14" r="Y5"/>
+      <c s="14" r="Z5"/>
+    </row>
+    <row customHeight="1" r="6" ht="51.0">
+      <c s="14" r="A6">
+        <v>5</v>
+      </c>
+      <c t="s" s="14" r="B6">
         <v>161</v>
       </c>
-      <c s="13" r="G5">
+      <c s="14" r="C6">
+        <v>11</v>
+      </c>
+      <c s="14" r="D6">
+        <v>10</v>
+      </c>
+      <c s="14" r="E6">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F6">
+        <v>170</v>
+      </c>
+      <c s="14" r="G6">
+        <v>5</v>
+      </c>
+      <c s="14" r="H6"/>
+      <c s="14" r="I6"/>
+      <c s="14" r="J6">
+        <v>4</v>
+      </c>
+      <c s="14" r="K6">
+        <v>1</v>
+      </c>
+      <c s="14" r="L6"/>
+      <c s="14" r="M6"/>
+      <c t="s" s="14" r="N6">
+        <v>171</v>
+      </c>
+      <c s="14" r="O6">
+        <v>12</v>
+      </c>
+      <c s="14" r="P6"/>
+      <c s="14" r="Q6"/>
+      <c s="14" r="R6"/>
+      <c s="14" r="S6"/>
+      <c s="14" r="T6"/>
+      <c s="14" r="U6"/>
+      <c s="14" r="V6"/>
+      <c s="14" r="W6"/>
+      <c s="14" r="X6"/>
+      <c s="14" r="Y6"/>
+      <c s="14" r="Z6"/>
+    </row>
+    <row customHeight="1" r="7" ht="51.0">
+      <c s="14" r="A7">
         <v>6</v>
       </c>
-      <c s="13" r="H5"/>
-      <c s="13" r="I5"/>
-      <c s="13" r="J5">
-        <v>3</v>
-      </c>
-      <c s="13" r="K5"/>
-      <c s="13" r="L5"/>
-      <c s="13" r="M5"/>
-      <c t="s" s="13" r="N5">
-        <v>162</v>
-      </c>
-      <c s="13" r="O5">
-        <v>12</v>
-      </c>
-      <c s="13" r="P5"/>
-      <c s="13" r="Q5"/>
-      <c s="13" r="R5"/>
-      <c s="13" r="S5"/>
-      <c s="13" r="T5"/>
-      <c s="13" r="U5"/>
-      <c s="13" r="V5"/>
-      <c s="13" r="W5"/>
-      <c s="13" r="X5"/>
-      <c s="13" r="Y5"/>
-      <c s="13" r="Z5"/>
-    </row>
-    <row customHeight="1" r="6" ht="51.0">
-      <c s="13" r="A6">
+      <c t="s" s="14" r="B7">
+        <v>161</v>
+      </c>
+      <c s="14" r="C7">
+        <v>6</v>
+      </c>
+      <c s="14" r="D7">
         <v>5</v>
       </c>
-      <c t="s" s="13" r="B6">
-        <v>154</v>
-      </c>
-      <c s="13" r="C6">
-        <v>11</v>
-      </c>
-      <c s="13" r="D6">
+      <c s="14" r="E7">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F7">
+        <v>172</v>
+      </c>
+      <c s="14" r="G7">
+        <v>5</v>
+      </c>
+      <c s="14" r="H7"/>
+      <c s="14" r="I7"/>
+      <c s="14" r="J7"/>
+      <c s="14" r="K7"/>
+      <c s="14" r="L7"/>
+      <c s="14" r="M7"/>
+      <c t="s" s="14" r="N7">
+        <v>173</v>
+      </c>
+      <c s="14" r="O7">
         <v>10</v>
       </c>
-      <c s="13" r="E6">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F6">
-        <v>163</v>
-      </c>
-      <c s="13" r="G6">
+      <c s="14" r="P7"/>
+      <c s="14" r="Q7"/>
+      <c s="14" r="R7"/>
+      <c s="14" r="S7"/>
+      <c s="14" r="T7"/>
+      <c s="14" r="U7"/>
+      <c s="14" r="V7"/>
+      <c s="14" r="W7"/>
+      <c s="14" r="X7"/>
+      <c s="14" r="Y7"/>
+      <c s="14" r="Z7"/>
+    </row>
+    <row customHeight="1" r="8" ht="51.0">
+      <c s="14" r="A8">
+        <v>7</v>
+      </c>
+      <c t="s" s="14" r="B8">
+        <v>161</v>
+      </c>
+      <c s="14" r="C8">
+        <v>8.5</v>
+      </c>
+      <c s="14" r="D8">
+        <v>7.5</v>
+      </c>
+      <c s="14" r="E8">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F8">
+        <v>174</v>
+      </c>
+      <c s="14" r="G8">
+        <v>2</v>
+      </c>
+      <c s="14" r="H8"/>
+      <c s="14" r="I8"/>
+      <c s="14" r="J8">
         <v>5</v>
       </c>
-      <c s="13" r="H6"/>
-      <c s="13" r="I6"/>
-      <c s="13" r="J6">
-        <v>4</v>
-      </c>
-      <c s="13" r="K6">
-        <v>1</v>
-      </c>
-      <c s="13" r="L6"/>
-      <c s="13" r="M6"/>
-      <c t="s" s="13" r="N6">
-        <v>164</v>
-      </c>
-      <c s="13" r="O6">
-        <v>12</v>
-      </c>
-      <c s="13" r="P6"/>
-      <c s="13" r="Q6"/>
-      <c s="13" r="R6"/>
-      <c s="13" r="S6"/>
-      <c s="13" r="T6"/>
-      <c s="13" r="U6"/>
-      <c s="13" r="V6"/>
-      <c s="13" r="W6"/>
-      <c s="13" r="X6"/>
-      <c s="13" r="Y6"/>
-      <c s="13" r="Z6"/>
-    </row>
-    <row customHeight="1" r="7" ht="51.0">
-      <c s="13" r="A7">
-        <v>6</v>
-      </c>
-      <c t="s" s="13" r="B7">
-        <v>154</v>
-      </c>
-      <c s="13" r="C7">
-        <v>6</v>
-      </c>
-      <c s="13" r="D7">
-        <v>5</v>
-      </c>
-      <c s="13" r="E7">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F7">
-        <v>165</v>
-      </c>
-      <c s="13" r="G7">
-        <v>5</v>
-      </c>
-      <c s="13" r="H7"/>
-      <c s="13" r="I7"/>
-      <c s="13" r="J7"/>
-      <c s="13" r="K7"/>
-      <c s="13" r="L7"/>
-      <c s="13" r="M7"/>
-      <c t="s" s="13" r="N7">
-        <v>166</v>
-      </c>
-      <c s="13" r="O7">
+      <c s="14" r="K8">
+        <v>0.5</v>
+      </c>
+      <c s="14" r="L8"/>
+      <c s="14" r="M8"/>
+      <c t="s" s="14" r="N8">
+        <v>175</v>
+      </c>
+      <c s="14" r="O8">
         <v>10</v>
       </c>
-      <c s="13" r="P7"/>
-      <c s="13" r="Q7"/>
-      <c s="13" r="R7"/>
-      <c s="13" r="S7"/>
-      <c s="13" r="T7"/>
-      <c s="13" r="U7"/>
-      <c s="13" r="V7"/>
-      <c s="13" r="W7"/>
-      <c s="13" r="X7"/>
-      <c s="13" r="Y7"/>
-      <c s="13" r="Z7"/>
-    </row>
-    <row customHeight="1" r="8" ht="51.0">
-      <c s="13" r="A8">
+      <c s="14" r="P8"/>
+      <c s="14" r="Q8"/>
+      <c s="14" r="R8"/>
+      <c s="14" r="S8"/>
+      <c s="14" r="T8"/>
+      <c s="14" r="U8"/>
+      <c s="14" r="V8"/>
+      <c s="14" r="W8"/>
+      <c s="14" r="X8"/>
+      <c s="14" r="Y8"/>
+      <c s="14" r="Z8"/>
+    </row>
+    <row customHeight="1" r="9" ht="51.0">
+      <c s="14" r="A9">
+        <v>8</v>
+      </c>
+      <c t="s" s="14" r="B9">
+        <v>161</v>
+      </c>
+      <c s="14" r="C9">
+        <v>10</v>
+      </c>
+      <c s="14" r="D9">
+        <v>9</v>
+      </c>
+      <c s="14" r="E9">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F9">
+        <v>176</v>
+      </c>
+      <c s="14" r="G9"/>
+      <c s="14" r="H9"/>
+      <c s="14" r="I9"/>
+      <c s="14" r="J9">
+        <v>6.5</v>
+      </c>
+      <c s="14" r="K9">
+        <v>2</v>
+      </c>
+      <c s="14" r="L9">
+        <v>0.5</v>
+      </c>
+      <c s="14" r="M9"/>
+      <c t="s" s="14" r="N9">
+        <v>177</v>
+      </c>
+      <c s="14" r="O9">
+        <v>10</v>
+      </c>
+      <c s="14" r="P9"/>
+      <c s="14" r="Q9"/>
+      <c s="14" r="R9"/>
+      <c s="14" r="S9"/>
+      <c s="14" r="T9"/>
+      <c s="14" r="U9"/>
+      <c s="14" r="V9"/>
+      <c s="14" r="W9"/>
+      <c s="14" r="X9"/>
+      <c s="14" r="Y9"/>
+      <c s="14" r="Z9"/>
+    </row>
+    <row customHeight="1" r="10" ht="52.5">
+      <c s="14" r="A10">
+        <v>9</v>
+      </c>
+      <c t="s" s="14" r="B10">
+        <v>161</v>
+      </c>
+      <c s="14" r="C10">
+        <v>9</v>
+      </c>
+      <c s="14" r="D10">
         <v>7</v>
       </c>
-      <c t="s" s="13" r="B8">
-        <v>154</v>
-      </c>
-      <c s="13" r="C8">
-        <v>8.5</v>
-      </c>
-      <c s="13" r="D8">
-        <v>7.5</v>
-      </c>
-      <c s="13" r="E8">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F8">
-        <v>167</v>
-      </c>
-      <c s="13" r="G8">
+      <c s="14" r="E10">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F10">
+        <v>178</v>
+      </c>
+      <c s="14" r="G10">
         <v>2</v>
       </c>
-      <c s="13" r="H8"/>
-      <c s="13" r="I8"/>
-      <c s="13" r="J8">
-        <v>5</v>
-      </c>
-      <c s="13" r="K8">
-        <v>0.5</v>
-      </c>
-      <c s="13" r="L8"/>
-      <c s="13" r="M8"/>
-      <c t="s" s="13" r="N8">
-        <v>168</v>
-      </c>
-      <c s="13" r="O8">
+      <c s="14" r="H10"/>
+      <c s="14" r="I10"/>
+      <c s="14" r="J10"/>
+      <c s="14" r="K10">
+        <v>2.5</v>
+      </c>
+      <c s="14" r="L10">
+        <v>3.5</v>
+      </c>
+      <c s="14" r="M10"/>
+      <c t="s" s="14" r="N10">
+        <v>179</v>
+      </c>
+      <c s="14" r="O10">
         <v>10</v>
       </c>
-      <c s="13" r="P8"/>
-      <c s="13" r="Q8"/>
-      <c s="13" r="R8"/>
-      <c s="13" r="S8"/>
-      <c s="13" r="T8"/>
-      <c s="13" r="U8"/>
-      <c s="13" r="V8"/>
-      <c s="13" r="W8"/>
-      <c s="13" r="X8"/>
-      <c s="13" r="Y8"/>
-      <c s="13" r="Z8"/>
-    </row>
-    <row customHeight="1" r="9" ht="51.0">
-      <c s="13" r="A9">
-        <v>8</v>
-      </c>
-      <c t="s" s="13" r="B9">
-        <v>154</v>
-      </c>
-      <c s="13" r="C9">
+      <c s="14" r="P10"/>
+      <c s="14" r="Q10"/>
+      <c s="14" r="R10"/>
+      <c s="14" r="S10"/>
+      <c s="14" r="T10"/>
+      <c s="14" r="U10"/>
+      <c s="14" r="V10"/>
+      <c s="14" r="W10"/>
+      <c s="14" r="X10"/>
+      <c s="14" r="Y10"/>
+      <c s="14" r="Z10"/>
+    </row>
+    <row customHeight="1" r="11" ht="51.0">
+      <c s="14" r="A11">
         <v>10</v>
       </c>
-      <c s="13" r="D9">
+      <c t="s" s="14" r="B11">
+        <v>161</v>
+      </c>
+      <c s="14" r="C11">
+        <v>10</v>
+      </c>
+      <c s="14" r="D11">
         <v>9</v>
       </c>
-      <c s="13" r="E9">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F9">
-        <v>169</v>
-      </c>
-      <c s="13" r="G9"/>
-      <c s="13" r="H9"/>
-      <c s="13" r="I9"/>
-      <c s="13" r="J9">
-        <v>6.5</v>
-      </c>
-      <c s="13" r="K9">
-        <v>2</v>
-      </c>
-      <c s="13" r="L9">
-        <v>0.5</v>
-      </c>
-      <c s="13" r="M9"/>
-      <c t="s" s="13" r="N9">
-        <v>170</v>
-      </c>
-      <c s="13" r="O9">
+      <c s="14" r="E11">
+        <v>1</v>
+      </c>
+      <c t="s" s="14" r="F11">
+        <v>180</v>
+      </c>
+      <c s="14" r="G11"/>
+      <c s="14" r="H11"/>
+      <c s="14" r="I11"/>
+      <c s="14" r="J11">
+        <v>7</v>
+      </c>
+      <c s="14" r="K11"/>
+      <c s="14" r="L11"/>
+      <c s="14" r="M11"/>
+      <c t="s" s="14" r="N11">
+        <v>181</v>
+      </c>
+      <c s="14" r="O11">
         <v>10</v>
       </c>
-      <c s="13" r="P9"/>
-      <c s="13" r="Q9"/>
-      <c s="13" r="R9"/>
-      <c s="13" r="S9"/>
-      <c s="13" r="T9"/>
-      <c s="13" r="U9"/>
-      <c s="13" r="V9"/>
-      <c s="13" r="W9"/>
-      <c s="13" r="X9"/>
-      <c s="13" r="Y9"/>
-      <c s="13" r="Z9"/>
-    </row>
-    <row customHeight="1" r="10" ht="52.5">
-      <c s="13" r="A10">
-        <v>9</v>
-      </c>
-      <c t="s" s="13" r="B10">
-        <v>154</v>
-      </c>
-      <c s="13" r="C10">
-        <v>9</v>
-      </c>
-      <c s="13" r="D10">
-        <v>7</v>
-      </c>
-      <c s="13" r="E10">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="F10">
-        <v>171</v>
-      </c>
-      <c s="13" r="G10">
-        <v>2</v>
-      </c>
-      <c s="13" r="H10"/>
-      <c s="13" r="I10"/>
-      <c s="13" r="J10"/>
-      <c s="13" r="K10">
-        <v>2.5</v>
-      </c>
-      <c s="13" r="L10">
-        <v>3.5</v>
-      </c>
-      <c s="13" r="M10"/>
-      <c t="s" s="13" r="N10">
-        <v>172</v>
-      </c>
-      <c s="13" r="O10">
-        <v>10</v>
-      </c>
-      <c s="13" r="P10"/>
-      <c s="13" r="Q10"/>
-      <c s="13" r="R10"/>
-      <c s="13" r="S10"/>
-      <c s="13" r="T10"/>
-      <c s="13" r="U10"/>
-      <c s="13" r="V10"/>
-      <c s="13" r="W10"/>
-      <c s="13" r="X10"/>
-      <c s="13" r="Y10"/>
-      <c s="13" r="Z10"/>
+      <c s="14" r="P11"/>
+      <c s="14" r="Q11"/>
+      <c s="14" r="R11"/>
+      <c s="14" r="S11"/>
+      <c s="14" r="T11"/>
+      <c s="14" r="U11"/>
+      <c s="14" r="V11"/>
+      <c s="14" r="W11"/>
+      <c s="14" r="X11"/>
+      <c s="14" r="Y11"/>
+      <c s="14" r="Z11"/>
     </row>
   </sheetData>
 </worksheet>
